--- a/MUSCMammoSiemens.xlsx
+++ b/MUSCMammoSiemens.xlsx
@@ -8312,6 +8312,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8360,59 +8414,26 @@
     <xf numFmtId="173" fontId="23" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="151" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8438,27 +8459,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8483,6 +8483,93 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="172" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -8492,18 +8579,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8513,88 +8594,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9747,7 +9747,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9865,7 +9864,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9946,7 +9944,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15468,40 +15465,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="814" t="s">
+      <c r="A1" s="832" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="814"/>
-      <c r="C1" s="814"/>
-      <c r="D1" s="814"/>
-      <c r="E1" s="814"/>
-      <c r="F1" s="814"/>
-      <c r="G1" s="814"/>
-      <c r="H1" s="814"/>
-      <c r="I1" s="814"/>
-      <c r="J1" s="814"/>
-      <c r="K1" s="814"/>
-      <c r="L1" s="814"/>
-      <c r="M1" s="814"/>
-      <c r="N1" s="814"/>
+      <c r="B1" s="832"/>
+      <c r="C1" s="832"/>
+      <c r="D1" s="832"/>
+      <c r="E1" s="832"/>
+      <c r="F1" s="832"/>
+      <c r="G1" s="832"/>
+      <c r="H1" s="832"/>
+      <c r="I1" s="832"/>
+      <c r="J1" s="832"/>
+      <c r="K1" s="832"/>
+      <c r="L1" s="832"/>
+      <c r="M1" s="832"/>
+      <c r="N1" s="832"/>
     </row>
     <row r="2" spans="1:14" ht="26.25">
-      <c r="A2" s="814" t="s">
+      <c r="A2" s="832" t="s">
         <v>375</v>
       </c>
-      <c r="B2" s="814"/>
-      <c r="C2" s="814"/>
-      <c r="D2" s="814"/>
-      <c r="E2" s="814"/>
-      <c r="F2" s="814"/>
-      <c r="G2" s="814"/>
-      <c r="H2" s="814"/>
-      <c r="I2" s="814"/>
-      <c r="J2" s="814"/>
-      <c r="K2" s="814"/>
-      <c r="L2" s="814"/>
-      <c r="M2" s="814"/>
-      <c r="N2" s="814"/>
+      <c r="B2" s="832"/>
+      <c r="C2" s="832"/>
+      <c r="D2" s="832"/>
+      <c r="E2" s="832"/>
+      <c r="F2" s="832"/>
+      <c r="G2" s="832"/>
+      <c r="H2" s="832"/>
+      <c r="I2" s="832"/>
+      <c r="J2" s="832"/>
+      <c r="K2" s="832"/>
+      <c r="L2" s="832"/>
+      <c r="M2" s="832"/>
+      <c r="N2" s="832"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1">
       <c r="A3" s="538"/>
@@ -15524,44 +15521,44 @@
         <v>376</v>
       </c>
       <c r="B4" s="517"/>
-      <c r="C4" s="815" t="str">
+      <c r="C4" s="833" t="str">
         <f>Sheet1!R10</f>
         <v/>
       </c>
-      <c r="D4" s="816"/>
-      <c r="E4" s="816"/>
-      <c r="F4" s="816"/>
-      <c r="G4" s="816"/>
-      <c r="H4" s="817"/>
+      <c r="D4" s="834"/>
+      <c r="E4" s="834"/>
+      <c r="F4" s="834"/>
+      <c r="G4" s="834"/>
+      <c r="H4" s="835"/>
       <c r="J4" s="536"/>
       <c r="K4" s="535" t="s">
         <v>377</v>
       </c>
-      <c r="L4" s="821"/>
-      <c r="M4" s="822"/>
-      <c r="N4" s="823"/>
+      <c r="L4" s="839"/>
+      <c r="M4" s="840"/>
+      <c r="N4" s="841"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1">
       <c r="A5" s="517" t="s">
         <v>378</v>
       </c>
       <c r="B5" s="517"/>
-      <c r="C5" s="815"/>
-      <c r="D5" s="816"/>
-      <c r="E5" s="816"/>
-      <c r="F5" s="816"/>
-      <c r="G5" s="816"/>
-      <c r="H5" s="817"/>
+      <c r="C5" s="833"/>
+      <c r="D5" s="834"/>
+      <c r="E5" s="834"/>
+      <c r="F5" s="834"/>
+      <c r="G5" s="834"/>
+      <c r="H5" s="835"/>
       <c r="J5" s="536"/>
       <c r="K5" s="535" t="s">
         <v>379</v>
       </c>
-      <c r="L5" s="821">
+      <c r="L5" s="839">
         <f>Sheet1!P7</f>
         <v>0</v>
       </c>
-      <c r="M5" s="822"/>
-      <c r="N5" s="823"/>
+      <c r="M5" s="840"/>
+      <c r="N5" s="841"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1">
       <c r="A6" s="517" t="s">
@@ -15570,19 +15567,19 @@
       <c r="B6" s="517"/>
       <c r="C6" s="517"/>
       <c r="D6" s="517"/>
-      <c r="E6" s="833" t="s">
+      <c r="E6" s="817" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="833"/>
-      <c r="G6" s="833"/>
-      <c r="H6" s="833"/>
+      <c r="F6" s="817"/>
+      <c r="G6" s="817"/>
+      <c r="H6" s="817"/>
       <c r="J6" s="536"/>
       <c r="K6" s="535" t="s">
         <v>381</v>
       </c>
-      <c r="L6" s="815"/>
-      <c r="M6" s="816"/>
-      <c r="N6" s="817"/>
+      <c r="L6" s="833"/>
+      <c r="M6" s="834"/>
+      <c r="N6" s="835"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1">
       <c r="A7" s="517" t="s">
@@ -15591,22 +15588,22 @@
       <c r="B7" s="517"/>
       <c r="C7" s="517"/>
       <c r="D7" s="517"/>
-      <c r="E7" s="834" t="s">
+      <c r="E7" s="818" t="s">
         <v>383</v>
       </c>
-      <c r="F7" s="835"/>
-      <c r="G7" s="835"/>
-      <c r="H7" s="836"/>
+      <c r="F7" s="819"/>
+      <c r="G7" s="819"/>
+      <c r="H7" s="820"/>
       <c r="J7" s="536"/>
       <c r="K7" s="535" t="s">
         <v>384</v>
       </c>
-      <c r="L7" s="815" t="str">
+      <c r="L7" s="833" t="str">
         <f>Sheet1!R18</f>
         <v/>
       </c>
-      <c r="M7" s="816"/>
-      <c r="N7" s="817"/>
+      <c r="M7" s="834"/>
+      <c r="N7" s="835"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1">
       <c r="A8" s="517" t="s">
@@ -15615,23 +15612,23 @@
       <c r="B8" s="517"/>
       <c r="C8" s="517"/>
       <c r="D8" s="517"/>
-      <c r="E8" s="827" t="str">
+      <c r="E8" s="845" t="str">
         <f>Sheet1!V12</f>
         <v/>
       </c>
-      <c r="F8" s="828"/>
-      <c r="G8" s="828"/>
-      <c r="H8" s="829"/>
+      <c r="F8" s="846"/>
+      <c r="G8" s="846"/>
+      <c r="H8" s="847"/>
       <c r="J8" s="536"/>
       <c r="K8" s="535" t="s">
         <v>386</v>
       </c>
-      <c r="L8" s="815" t="str">
+      <c r="L8" s="833" t="str">
         <f>Sheet1!R14</f>
         <v/>
       </c>
-      <c r="M8" s="816"/>
-      <c r="N8" s="817"/>
+      <c r="M8" s="834"/>
+      <c r="N8" s="835"/>
     </row>
     <row r="9" spans="1:14" ht="11.25" customHeight="1">
       <c r="A9" s="517"/>
@@ -15652,12 +15649,12 @@
       <c r="A10" s="529" t="s">
         <v>569</v>
       </c>
-      <c r="E10" s="824" t="s">
+      <c r="E10" s="842" t="s">
         <v>645</v>
       </c>
-      <c r="F10" s="825"/>
-      <c r="G10" s="825"/>
-      <c r="H10" s="826"/>
+      <c r="F10" s="843"/>
+      <c r="G10" s="843"/>
+      <c r="H10" s="844"/>
       <c r="I10" s="533" t="s">
         <v>568</v>
       </c>
@@ -15682,24 +15679,24 @@
       <c r="B12" s="517"/>
       <c r="C12" s="517"/>
       <c r="D12" s="517"/>
-      <c r="E12" s="818" t="s">
+      <c r="E12" s="836" t="s">
         <v>389</v>
       </c>
-      <c r="F12" s="820"/>
-      <c r="G12" s="818" t="s">
+      <c r="F12" s="838"/>
+      <c r="G12" s="836" t="s">
         <v>384</v>
       </c>
-      <c r="H12" s="820"/>
-      <c r="I12" s="818" t="s">
+      <c r="H12" s="838"/>
+      <c r="I12" s="836" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="820"/>
-      <c r="K12" s="818" t="s">
+      <c r="J12" s="838"/>
+      <c r="K12" s="836" t="s">
         <v>387</v>
       </c>
-      <c r="L12" s="819"/>
-      <c r="M12" s="819"/>
-      <c r="N12" s="820"/>
+      <c r="L12" s="837"/>
+      <c r="M12" s="837"/>
+      <c r="N12" s="838"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" thickTop="1">
       <c r="A13" s="517"/>
@@ -15708,49 +15705,49 @@
       <c r="D13" s="523" t="s">
         <v>390</v>
       </c>
-      <c r="E13" s="830"/>
-      <c r="F13" s="832"/>
-      <c r="G13" s="830"/>
-      <c r="H13" s="832"/>
-      <c r="I13" s="846"/>
-      <c r="J13" s="847"/>
-      <c r="K13" s="830"/>
-      <c r="L13" s="831"/>
-      <c r="M13" s="831"/>
-      <c r="N13" s="832"/>
+      <c r="E13" s="814"/>
+      <c r="F13" s="816"/>
+      <c r="G13" s="814"/>
+      <c r="H13" s="816"/>
+      <c r="I13" s="830"/>
+      <c r="J13" s="831"/>
+      <c r="K13" s="814"/>
+      <c r="L13" s="815"/>
+      <c r="M13" s="815"/>
+      <c r="N13" s="816"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="D14" s="523" t="s">
         <v>391</v>
       </c>
-      <c r="E14" s="841"/>
-      <c r="F14" s="843"/>
-      <c r="G14" s="841"/>
-      <c r="H14" s="843"/>
-      <c r="I14" s="839"/>
-      <c r="J14" s="840"/>
-      <c r="K14" s="841"/>
-      <c r="L14" s="842"/>
-      <c r="M14" s="842"/>
-      <c r="N14" s="843"/>
+      <c r="E14" s="825"/>
+      <c r="F14" s="827"/>
+      <c r="G14" s="825"/>
+      <c r="H14" s="827"/>
+      <c r="I14" s="823"/>
+      <c r="J14" s="824"/>
+      <c r="K14" s="825"/>
+      <c r="L14" s="826"/>
+      <c r="M14" s="826"/>
+      <c r="N14" s="827"/>
     </row>
     <row r="15" spans="1:14" s="530" customFormat="1" ht="36" customHeight="1">
-      <c r="A15" s="845" t="s">
+      <c r="A15" s="829" t="s">
         <v>392</v>
       </c>
-      <c r="B15" s="845"/>
-      <c r="C15" s="845"/>
-      <c r="D15" s="845"/>
-      <c r="E15" s="845"/>
-      <c r="F15" s="845"/>
-      <c r="G15" s="845"/>
-      <c r="H15" s="845"/>
-      <c r="I15" s="845"/>
-      <c r="J15" s="845"/>
-      <c r="K15" s="845"/>
-      <c r="L15" s="845"/>
-      <c r="M15" s="845"/>
-      <c r="N15" s="845"/>
+      <c r="B15" s="829"/>
+      <c r="C15" s="829"/>
+      <c r="D15" s="829"/>
+      <c r="E15" s="829"/>
+      <c r="F15" s="829"/>
+      <c r="G15" s="829"/>
+      <c r="H15" s="829"/>
+      <c r="I15" s="829"/>
+      <c r="J15" s="829"/>
+      <c r="K15" s="829"/>
+      <c r="L15" s="829"/>
+      <c r="M15" s="829"/>
+      <c r="N15" s="829"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1">
       <c r="A16" s="529" t="s">
@@ -15789,40 +15786,40 @@
       <c r="M17" s="518"/>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1">
-      <c r="A18" s="844" t="s">
+      <c r="A18" s="828" t="s">
         <v>396</v>
       </c>
-      <c r="B18" s="844"/>
-      <c r="C18" s="844"/>
-      <c r="D18" s="844"/>
-      <c r="E18" s="844"/>
-      <c r="F18" s="844"/>
-      <c r="G18" s="844"/>
-      <c r="H18" s="844"/>
-      <c r="I18" s="844"/>
-      <c r="J18" s="844"/>
-      <c r="K18" s="844"/>
-      <c r="L18" s="844"/>
-      <c r="M18" s="844"/>
-      <c r="N18" s="844"/>
+      <c r="B18" s="828"/>
+      <c r="C18" s="828"/>
+      <c r="D18" s="828"/>
+      <c r="E18" s="828"/>
+      <c r="F18" s="828"/>
+      <c r="G18" s="828"/>
+      <c r="H18" s="828"/>
+      <c r="I18" s="828"/>
+      <c r="J18" s="828"/>
+      <c r="K18" s="828"/>
+      <c r="L18" s="828"/>
+      <c r="M18" s="828"/>
+      <c r="N18" s="828"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1">
-      <c r="A19" s="838" t="s">
+      <c r="A19" s="822" t="s">
         <v>567</v>
       </c>
-      <c r="B19" s="838"/>
-      <c r="C19" s="838"/>
-      <c r="D19" s="838"/>
-      <c r="E19" s="838"/>
-      <c r="F19" s="838"/>
-      <c r="G19" s="838"/>
-      <c r="H19" s="838"/>
-      <c r="I19" s="838"/>
-      <c r="J19" s="838"/>
-      <c r="K19" s="838"/>
-      <c r="L19" s="838"/>
-      <c r="M19" s="838"/>
-      <c r="N19" s="838"/>
+      <c r="B19" s="822"/>
+      <c r="C19" s="822"/>
+      <c r="D19" s="822"/>
+      <c r="E19" s="822"/>
+      <c r="F19" s="822"/>
+      <c r="G19" s="822"/>
+      <c r="H19" s="822"/>
+      <c r="I19" s="822"/>
+      <c r="J19" s="822"/>
+      <c r="K19" s="822"/>
+      <c r="L19" s="822"/>
+      <c r="M19" s="822"/>
+      <c r="N19" s="822"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="517"/>
@@ -16514,39 +16511,25 @@
       <c r="N57" s="501"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A58" s="837" t="s">
+      <c r="A58" s="821" t="s">
         <v>558</v>
       </c>
-      <c r="B58" s="837"/>
-      <c r="C58" s="837"/>
-      <c r="D58" s="837"/>
-      <c r="E58" s="837"/>
-      <c r="F58" s="837"/>
-      <c r="G58" s="837"/>
-      <c r="H58" s="837"/>
-      <c r="I58" s="837"/>
-      <c r="J58" s="837"/>
-      <c r="K58" s="837"/>
-      <c r="L58" s="837"/>
-      <c r="M58" s="837"/>
-      <c r="N58" s="837"/>
+      <c r="B58" s="821"/>
+      <c r="C58" s="821"/>
+      <c r="D58" s="821"/>
+      <c r="E58" s="821"/>
+      <c r="F58" s="821"/>
+      <c r="G58" s="821"/>
+      <c r="H58" s="821"/>
+      <c r="I58" s="821"/>
+      <c r="J58" s="821"/>
+      <c r="K58" s="821"/>
+      <c r="L58" s="821"/>
+      <c r="M58" s="821"/>
+      <c r="N58" s="821"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A58:N58"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A18:N18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="L7:N7"/>
@@ -16562,6 +16545,20 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A58:N58"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A18:N18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <conditionalFormatting sqref="N21:N24 N28:N30 N32:N57">
     <cfRule type="cellIs" dxfId="77" priority="5" stopIfTrue="1" operator="equal">
@@ -16778,19 +16775,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="856" t="s">
+      <c r="A1" s="848" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="856"/>
-      <c r="C1" s="856"/>
-      <c r="D1" s="856"/>
-      <c r="E1" s="856"/>
-      <c r="F1" s="856"/>
-      <c r="G1" s="856"/>
-      <c r="H1" s="856"/>
-      <c r="I1" s="856"/>
-      <c r="J1" s="856"/>
-      <c r="K1" s="856"/>
+      <c r="B1" s="848"/>
+      <c r="C1" s="848"/>
+      <c r="D1" s="848"/>
+      <c r="E1" s="848"/>
+      <c r="F1" s="848"/>
+      <c r="G1" s="848"/>
+      <c r="H1" s="848"/>
+      <c r="I1" s="848"/>
+      <c r="J1" s="848"/>
+      <c r="K1" s="848"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
       <c r="A2" s="566" t="s">
@@ -16824,19 +16821,19 @@
       <c r="K4" s="561"/>
     </row>
     <row r="5" spans="1:12" ht="42" customHeight="1">
-      <c r="A5" s="859" t="s">
+      <c r="A5" s="851" t="s">
         <v>574</v>
       </c>
-      <c r="B5" s="859"/>
-      <c r="C5" s="859"/>
-      <c r="D5" s="859"/>
-      <c r="E5" s="859"/>
-      <c r="F5" s="859"/>
-      <c r="G5" s="859"/>
-      <c r="H5" s="859"/>
-      <c r="I5" s="859"/>
-      <c r="J5" s="859"/>
-      <c r="K5" s="859"/>
+      <c r="B5" s="851"/>
+      <c r="C5" s="851"/>
+      <c r="D5" s="851"/>
+      <c r="E5" s="851"/>
+      <c r="F5" s="851"/>
+      <c r="G5" s="851"/>
+      <c r="H5" s="851"/>
+      <c r="I5" s="851"/>
+      <c r="J5" s="851"/>
+      <c r="K5" s="851"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="560" t="s">
@@ -16869,8 +16866,8 @@
       <c r="K7" s="555"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="J8" s="858"/>
-      <c r="K8" s="858"/>
+      <c r="J8" s="850"/>
+      <c r="K8" s="850"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="541"/>
@@ -16879,10 +16876,10 @@
         <v>414</v>
       </c>
       <c r="I9" s="554"/>
-      <c r="J9" s="857" t="s">
+      <c r="J9" s="849" t="s">
         <v>397</v>
       </c>
-      <c r="K9" s="857"/>
+      <c r="K9" s="849"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="553" t="s">
@@ -16896,8 +16893,8 @@
       <c r="H10" s="552" t="s">
         <v>417</v>
       </c>
-      <c r="J10" s="853"/>
-      <c r="K10" s="854"/>
+      <c r="J10" s="860"/>
+      <c r="K10" s="861"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="548" t="s">
@@ -16911,8 +16908,8 @@
       <c r="H11" s="551" t="s">
         <v>420</v>
       </c>
-      <c r="J11" s="853"/>
-      <c r="K11" s="854"/>
+      <c r="J11" s="860"/>
+      <c r="K11" s="861"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="548" t="s">
@@ -16926,8 +16923,8 @@
       <c r="H12" s="549" t="s">
         <v>423</v>
       </c>
-      <c r="J12" s="853"/>
-      <c r="K12" s="854"/>
+      <c r="J12" s="860"/>
+      <c r="K12" s="861"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="550" t="s">
@@ -16941,8 +16938,8 @@
       <c r="H13" s="549" t="s">
         <v>423</v>
       </c>
-      <c r="J13" s="853"/>
-      <c r="K13" s="854"/>
+      <c r="J13" s="860"/>
+      <c r="K13" s="861"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="550" t="s">
@@ -16956,8 +16953,8 @@
       <c r="H14" s="549" t="s">
         <v>428</v>
       </c>
-      <c r="J14" s="853"/>
-      <c r="K14" s="854"/>
+      <c r="J14" s="860"/>
+      <c r="K14" s="861"/>
       <c r="L14" s="541"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
@@ -16972,8 +16969,8 @@
       <c r="H15" s="549" t="s">
         <v>431</v>
       </c>
-      <c r="J15" s="853"/>
-      <c r="K15" s="854"/>
+      <c r="J15" s="860"/>
+      <c r="K15" s="861"/>
       <c r="L15" s="541"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
@@ -16988,8 +16985,8 @@
       <c r="H16" s="549" t="s">
         <v>434</v>
       </c>
-      <c r="J16" s="853"/>
-      <c r="K16" s="854"/>
+      <c r="J16" s="860"/>
+      <c r="K16" s="861"/>
       <c r="L16" s="541"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
@@ -17004,8 +17001,8 @@
         <v>436</v>
       </c>
       <c r="I17" s="501"/>
-      <c r="J17" s="853"/>
-      <c r="K17" s="854"/>
+      <c r="J17" s="860"/>
+      <c r="K17" s="861"/>
       <c r="L17" s="545"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
@@ -17018,19 +17015,19 @@
       <c r="L18" s="541"/>
     </row>
     <row r="19" spans="1:12" ht="24" customHeight="1">
-      <c r="A19" s="855" t="s">
+      <c r="A19" s="862" t="s">
         <v>437</v>
       </c>
-      <c r="B19" s="855"/>
-      <c r="C19" s="855"/>
-      <c r="D19" s="855"/>
-      <c r="E19" s="855"/>
-      <c r="F19" s="855"/>
-      <c r="G19" s="855"/>
-      <c r="H19" s="855"/>
-      <c r="I19" s="855"/>
-      <c r="J19" s="855"/>
-      <c r="K19" s="855"/>
+      <c r="B19" s="862"/>
+      <c r="C19" s="862"/>
+      <c r="D19" s="862"/>
+      <c r="E19" s="862"/>
+      <c r="F19" s="862"/>
+      <c r="G19" s="862"/>
+      <c r="H19" s="862"/>
+      <c r="I19" s="862"/>
+      <c r="J19" s="862"/>
+      <c r="K19" s="862"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1">
       <c r="A20" s="540"/>
@@ -17046,131 +17043,126 @@
       <c r="K20" s="539"/>
     </row>
     <row r="21" spans="1:12" ht="290.25" customHeight="1">
-      <c r="A21" s="860"/>
-      <c r="B21" s="861"/>
-      <c r="C21" s="861"/>
-      <c r="D21" s="861"/>
-      <c r="E21" s="861"/>
-      <c r="F21" s="861"/>
-      <c r="G21" s="861"/>
-      <c r="H21" s="861"/>
-      <c r="I21" s="861"/>
-      <c r="J21" s="861"/>
-      <c r="K21" s="862"/>
+      <c r="A21" s="852"/>
+      <c r="B21" s="853"/>
+      <c r="C21" s="853"/>
+      <c r="D21" s="853"/>
+      <c r="E21" s="853"/>
+      <c r="F21" s="853"/>
+      <c r="G21" s="853"/>
+      <c r="H21" s="853"/>
+      <c r="I21" s="853"/>
+      <c r="J21" s="853"/>
+      <c r="K21" s="854"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="851"/>
-      <c r="B22" s="851"/>
-      <c r="C22" s="851"/>
-      <c r="D22" s="851"/>
-      <c r="E22" s="851"/>
-      <c r="F22" s="851"/>
-      <c r="G22" s="851"/>
-      <c r="H22" s="851"/>
-      <c r="I22" s="851"/>
-      <c r="J22" s="851"/>
-      <c r="K22" s="851"/>
+      <c r="A22" s="858"/>
+      <c r="B22" s="858"/>
+      <c r="C22" s="858"/>
+      <c r="D22" s="858"/>
+      <c r="E22" s="858"/>
+      <c r="F22" s="858"/>
+      <c r="G22" s="858"/>
+      <c r="H22" s="858"/>
+      <c r="I22" s="858"/>
+      <c r="J22" s="858"/>
+      <c r="K22" s="858"/>
     </row>
     <row r="23" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A23" s="852"/>
-      <c r="B23" s="852"/>
-      <c r="C23" s="852"/>
-      <c r="D23" s="852"/>
-      <c r="E23" s="852"/>
-      <c r="F23" s="852"/>
-      <c r="G23" s="852"/>
-      <c r="H23" s="852"/>
-      <c r="I23" s="852"/>
-      <c r="J23" s="852"/>
-      <c r="K23" s="852"/>
+      <c r="A23" s="859"/>
+      <c r="B23" s="859"/>
+      <c r="C23" s="859"/>
+      <c r="D23" s="859"/>
+      <c r="E23" s="859"/>
+      <c r="F23" s="859"/>
+      <c r="G23" s="859"/>
+      <c r="H23" s="859"/>
+      <c r="I23" s="859"/>
+      <c r="J23" s="859"/>
+      <c r="K23" s="859"/>
     </row>
     <row r="24" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A24" s="852"/>
-      <c r="B24" s="852"/>
-      <c r="C24" s="852"/>
-      <c r="D24" s="852"/>
-      <c r="E24" s="852"/>
-      <c r="F24" s="852"/>
-      <c r="G24" s="852"/>
-      <c r="H24" s="852"/>
-      <c r="I24" s="852"/>
-      <c r="J24" s="852"/>
-      <c r="K24" s="852"/>
+      <c r="A24" s="859"/>
+      <c r="B24" s="859"/>
+      <c r="C24" s="859"/>
+      <c r="D24" s="859"/>
+      <c r="E24" s="859"/>
+      <c r="F24" s="859"/>
+      <c r="G24" s="859"/>
+      <c r="H24" s="859"/>
+      <c r="I24" s="859"/>
+      <c r="J24" s="859"/>
+      <c r="K24" s="859"/>
     </row>
     <row r="25" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A25" s="852"/>
-      <c r="B25" s="852"/>
-      <c r="C25" s="852"/>
-      <c r="D25" s="852"/>
-      <c r="E25" s="852"/>
-      <c r="F25" s="852"/>
-      <c r="G25" s="852"/>
-      <c r="H25" s="852"/>
-      <c r="I25" s="852"/>
-      <c r="J25" s="852"/>
-      <c r="K25" s="852"/>
+      <c r="A25" s="859"/>
+      <c r="B25" s="859"/>
+      <c r="C25" s="859"/>
+      <c r="D25" s="859"/>
+      <c r="E25" s="859"/>
+      <c r="F25" s="859"/>
+      <c r="G25" s="859"/>
+      <c r="H25" s="859"/>
+      <c r="I25" s="859"/>
+      <c r="J25" s="859"/>
+      <c r="K25" s="859"/>
     </row>
     <row r="26" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A26" s="852"/>
-      <c r="B26" s="852"/>
-      <c r="C26" s="852"/>
-      <c r="D26" s="852"/>
-      <c r="E26" s="852"/>
-      <c r="F26" s="852"/>
-      <c r="G26" s="852"/>
-      <c r="H26" s="852"/>
-      <c r="I26" s="852"/>
-      <c r="J26" s="852"/>
-      <c r="K26" s="852"/>
+      <c r="A26" s="859"/>
+      <c r="B26" s="859"/>
+      <c r="C26" s="859"/>
+      <c r="D26" s="859"/>
+      <c r="E26" s="859"/>
+      <c r="F26" s="859"/>
+      <c r="G26" s="859"/>
+      <c r="H26" s="859"/>
+      <c r="I26" s="859"/>
+      <c r="J26" s="859"/>
+      <c r="K26" s="859"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A27" s="852"/>
-      <c r="B27" s="852"/>
-      <c r="C27" s="852"/>
-      <c r="D27" s="852"/>
-      <c r="E27" s="852"/>
-      <c r="F27" s="852"/>
-      <c r="G27" s="852"/>
-      <c r="H27" s="852"/>
-      <c r="I27" s="852"/>
-      <c r="J27" s="852"/>
-      <c r="K27" s="852"/>
+      <c r="A27" s="859"/>
+      <c r="B27" s="859"/>
+      <c r="C27" s="859"/>
+      <c r="D27" s="859"/>
+      <c r="E27" s="859"/>
+      <c r="F27" s="859"/>
+      <c r="G27" s="859"/>
+      <c r="H27" s="859"/>
+      <c r="I27" s="859"/>
+      <c r="J27" s="859"/>
+      <c r="K27" s="859"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A28" s="852"/>
-      <c r="B28" s="852"/>
-      <c r="C28" s="852"/>
-      <c r="D28" s="852"/>
-      <c r="E28" s="852"/>
-      <c r="F28" s="852"/>
-      <c r="G28" s="852"/>
-      <c r="H28" s="852"/>
-      <c r="I28" s="852"/>
-      <c r="J28" s="852"/>
-      <c r="K28" s="852"/>
+      <c r="A28" s="859"/>
+      <c r="B28" s="859"/>
+      <c r="C28" s="859"/>
+      <c r="D28" s="859"/>
+      <c r="E28" s="859"/>
+      <c r="F28" s="859"/>
+      <c r="G28" s="859"/>
+      <c r="H28" s="859"/>
+      <c r="I28" s="859"/>
+      <c r="J28" s="859"/>
+      <c r="K28" s="859"/>
     </row>
     <row r="29" spans="1:12" ht="201.75" customHeight="1" thickBot="1">
-      <c r="A29" s="848" t="s">
+      <c r="A29" s="855" t="s">
         <v>570</v>
       </c>
-      <c r="B29" s="849"/>
-      <c r="C29" s="849"/>
-      <c r="D29" s="849"/>
-      <c r="E29" s="849"/>
-      <c r="F29" s="849"/>
-      <c r="G29" s="849"/>
-      <c r="H29" s="849"/>
-      <c r="I29" s="849"/>
-      <c r="J29" s="849"/>
-      <c r="K29" s="850"/>
+      <c r="B29" s="856"/>
+      <c r="C29" s="856"/>
+      <c r="D29" s="856"/>
+      <c r="E29" s="856"/>
+      <c r="F29" s="856"/>
+      <c r="G29" s="856"/>
+      <c r="H29" s="856"/>
+      <c r="I29" s="856"/>
+      <c r="J29" s="856"/>
+      <c r="K29" s="857"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A21:K21"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A22:K28"/>
     <mergeCell ref="J10:K10"/>
@@ -17182,6 +17174,11 @@
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="A19:K19"/>
     <mergeCell ref="J17:K17"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A21:K21"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:K17">
     <cfRule type="cellIs" dxfId="72" priority="1" stopIfTrue="1" operator="equal">
@@ -17788,8 +17785,8 @@
   </sheetPr>
   <dimension ref="A1:AQ504"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P362" sqref="P362:P364"/>
+    <sheetView tabSelected="1" topLeftCell="Q13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1"/>
@@ -18131,19 +18128,19 @@
       <c r="E10" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="886" t="str">
+      <c r="F10" s="896" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="886"/>
+      <c r="G10" s="896"/>
       <c r="J10" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="877" t="str">
+      <c r="K10" s="888" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="877"/>
+      <c r="L10" s="888"/>
       <c r="M10" s="69"/>
       <c r="O10" s="30"/>
       <c r="Q10" s="35" t="s">
@@ -18207,19 +18204,19 @@
       <c r="E11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="884" t="str">
+      <c r="F11" s="897" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="884"/>
+      <c r="G11" s="897"/>
       <c r="J11" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="877" t="str">
+      <c r="K11" s="888" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="877"/>
+      <c r="L11" s="888"/>
       <c r="M11" s="69"/>
       <c r="O11" s="30"/>
       <c r="Q11" s="35" t="s">
@@ -18283,19 +18280,19 @@
       <c r="E12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="884" t="str">
+      <c r="F12" s="897" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="884"/>
+      <c r="G12" s="897"/>
       <c r="J12" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="883" t="str">
+      <c r="K12" s="898" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="883"/>
+      <c r="L12" s="898"/>
       <c r="M12" s="69"/>
       <c r="O12" s="30"/>
       <c r="Q12" s="35" t="s">
@@ -18359,19 +18356,19 @@
       <c r="E13" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="884" t="str">
+      <c r="F13" s="897" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="884"/>
+      <c r="G13" s="897"/>
       <c r="J13" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="877" t="str">
+      <c r="K13" s="888" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="877"/>
+      <c r="L13" s="888"/>
       <c r="M13" s="69"/>
       <c r="O13" s="30"/>
       <c r="Q13" s="35" t="s">
@@ -18542,19 +18539,19 @@
       <c r="E16" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="877" t="str">
+      <c r="F16" s="888" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="877"/>
+      <c r="G16" s="888"/>
       <c r="J16" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="883" t="str">
+      <c r="K16" s="898" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="883"/>
+      <c r="L16" s="898"/>
       <c r="M16" s="69"/>
       <c r="O16" s="30"/>
       <c r="P16" s="75" t="s">
@@ -18605,19 +18602,19 @@
       <c r="E17" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="877" t="str">
+      <c r="F17" s="888" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="877"/>
+      <c r="G17" s="888"/>
       <c r="J17" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="885" t="str">
+      <c r="K17" s="899" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="885"/>
+      <c r="L17" s="899"/>
       <c r="M17" s="69"/>
       <c r="O17" s="30"/>
       <c r="Q17" s="35" t="s">
@@ -18681,19 +18678,19 @@
       <c r="E18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="877" t="str">
+      <c r="F18" s="888" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="877"/>
+      <c r="G18" s="888"/>
       <c r="J18" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K18" s="877" t="str">
+      <c r="K18" s="888" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="877"/>
+      <c r="L18" s="888"/>
       <c r="M18" s="69"/>
       <c r="O18" s="30"/>
       <c r="Q18" s="35" t="s">
@@ -18856,19 +18853,19 @@
       <c r="E21" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="877" t="str">
+      <c r="F21" s="888" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="877"/>
+      <c r="G21" s="888"/>
       <c r="J21" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="877" t="str">
+      <c r="K21" s="888" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L21" s="877"/>
+      <c r="L21" s="888"/>
       <c r="M21" s="69"/>
       <c r="O21" s="30"/>
       <c r="P21" s="75" t="s">
@@ -18927,17 +18924,17 @@
       <c r="E22" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="883" t="str">
+      <c r="F22" s="898" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="883"/>
+      <c r="G22" s="898"/>
       <c r="J22" s="35"/>
-      <c r="K22" s="877" t="str">
+      <c r="K22" s="888" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="877"/>
+      <c r="L22" s="888"/>
       <c r="M22" s="69"/>
       <c r="O22" s="30"/>
       <c r="Q22" s="35" t="s">
@@ -19001,11 +18998,11 @@
       <c r="J23" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="877" t="str">
+      <c r="K23" s="888" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="877"/>
+      <c r="L23" s="888"/>
       <c r="M23" s="69"/>
       <c r="O23" s="30"/>
       <c r="Q23" s="35" t="s">
@@ -19063,16 +19060,16 @@
       <c r="E24" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="877" t="str">
+      <c r="F24" s="888" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="877"/>
-      <c r="K24" s="877" t="str">
+      <c r="G24" s="888"/>
+      <c r="K24" s="888" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="877"/>
+      <c r="L24" s="888"/>
       <c r="M24" s="69"/>
       <c r="O24" s="30"/>
       <c r="P24" s="75" t="s">
@@ -19131,11 +19128,11 @@
       <c r="E25" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="877" t="str">
+      <c r="F25" s="888" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="877"/>
+      <c r="G25" s="888"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -19150,7 +19147,7 @@
       </c>
       <c r="S25" s="47"/>
       <c r="V25" s="46" t="str">
-        <f>IF(W25&lt;&gt;"",W25,IF(AB44="","",AB44))</f>
+        <f>IF(W25&lt;&gt;"",W25,IF(AB41="","",AB41))</f>
         <v/>
       </c>
       <c r="W25" s="47"/>
@@ -19199,11 +19196,11 @@
       <c r="E26" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="877" t="str">
+      <c r="F26" s="888" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="877"/>
+      <c r="G26" s="888"/>
       <c r="I26" s="75" t="s">
         <v>56</v>
       </c>
@@ -19270,11 +19267,11 @@
       <c r="J27" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="K27" s="877" t="str">
+      <c r="K27" s="888" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="877"/>
+      <c r="L27" s="888"/>
       <c r="M27" s="69"/>
       <c r="O27" s="30"/>
       <c r="Q27" s="35" t="s">
@@ -19324,20 +19321,20 @@
       <c r="E28" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="877" t="str">
+      <c r="F28" s="888" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="877"/>
+      <c r="G28" s="888"/>
       <c r="I28" s="4"/>
       <c r="J28" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="K28" s="877" t="str">
+      <c r="K28" s="888" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="877"/>
+      <c r="L28" s="888"/>
       <c r="M28" s="69"/>
       <c r="O28" s="30"/>
       <c r="P28" s="75" t="s">
@@ -19396,22 +19393,22 @@
       <c r="E29" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="877" t="str">
+      <c r="F29" s="888" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="877"/>
+      <c r="G29" s="888"/>
       <c r="I29" s="75" t="s">
         <v>60</v>
       </c>
       <c r="J29" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="K29" s="877" t="str">
+      <c r="K29" s="888" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="877"/>
+      <c r="L29" s="888"/>
       <c r="M29" s="69"/>
       <c r="O29" s="30"/>
       <c r="Q29" s="35" t="s">
@@ -19475,19 +19472,19 @@
       <c r="E30" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="877" t="str">
+      <c r="F30" s="888" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="877"/>
+      <c r="G30" s="888"/>
       <c r="J30" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="K30" s="877" t="str">
+      <c r="K30" s="888" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="877"/>
+      <c r="L30" s="888"/>
       <c r="M30" s="69"/>
       <c r="O30" s="30"/>
       <c r="Q30" s="35" t="s">
@@ -19607,7 +19604,7 @@
         <v>61</v>
       </c>
       <c r="V32" s="46" t="str">
-        <f>IF(W32&lt;&gt;"",W32,IF(AB45="","",AB45))</f>
+        <f>IF(W32&lt;&gt;"",W32,IF(AB42="","",AB42))</f>
         <v/>
       </c>
       <c r="W32" s="47"/>
@@ -19659,7 +19656,7 @@
         <v>62</v>
       </c>
       <c r="V33" s="46" t="str">
-        <f>IF(W33&lt;&gt;"",W33,IF(AB46="","",AB46))</f>
+        <f>IF(W33&lt;&gt;"",W33,IF(AB43="","",AB43))</f>
         <v/>
       </c>
       <c r="W33" s="47"/>
@@ -19766,21 +19763,21 @@
       <c r="C35" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="887" t="s">
+      <c r="D35" s="895" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="887"/>
-      <c r="F35" s="887"/>
-      <c r="G35" s="887" t="s">
+      <c r="E35" s="895"/>
+      <c r="F35" s="895"/>
+      <c r="G35" s="895" t="s">
         <v>66</v>
       </c>
-      <c r="H35" s="887"/>
-      <c r="I35" s="887"/>
-      <c r="J35" s="887" t="s">
+      <c r="H35" s="895"/>
+      <c r="I35" s="895"/>
+      <c r="J35" s="895" t="s">
         <v>67</v>
       </c>
-      <c r="K35" s="887"/>
-      <c r="L35" s="887"/>
+      <c r="K35" s="895"/>
+      <c r="L35" s="895"/>
       <c r="M35" s="69"/>
       <c r="O35" s="40"/>
       <c r="P35" s="41"/>
@@ -19839,11 +19836,11 @@
       <c r="D36" s="580"/>
       <c r="E36" s="581"/>
       <c r="F36" s="586"/>
-      <c r="G36" s="888" t="s">
+      <c r="G36" s="891" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="888"/>
-      <c r="I36" s="888"/>
+      <c r="H36" s="891"/>
+      <c r="I36" s="891"/>
       <c r="J36" s="580"/>
       <c r="K36" s="581"/>
       <c r="L36" s="586"/>
@@ -20408,10 +20405,10 @@
       <c r="C44" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="L44" s="889" t="s">
+      <c r="L44" s="892" t="s">
         <v>90</v>
       </c>
-      <c r="M44" s="889"/>
+      <c r="M44" s="892"/>
       <c r="O44" s="30"/>
       <c r="Y44" s="32"/>
       <c r="AA44" s="75" t="s">
@@ -24801,21 +24798,21 @@
       <c r="O121" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="P121" s="890" t="s">
+      <c r="P121" s="878" t="s">
         <v>65</v>
       </c>
-      <c r="Q121" s="891"/>
-      <c r="R121" s="892"/>
-      <c r="S121" s="890" t="s">
+      <c r="Q121" s="879"/>
+      <c r="R121" s="880"/>
+      <c r="S121" s="878" t="s">
         <v>533</v>
       </c>
-      <c r="T121" s="891"/>
-      <c r="U121" s="892"/>
-      <c r="V121" s="890" t="s">
+      <c r="T121" s="879"/>
+      <c r="U121" s="880"/>
+      <c r="V121" s="878" t="s">
         <v>67</v>
       </c>
-      <c r="W121" s="891"/>
-      <c r="X121" s="896"/>
+      <c r="W121" s="879"/>
+      <c r="X121" s="893"/>
       <c r="Y121" s="32"/>
       <c r="AA121" s="35" t="s">
         <v>625</v>
@@ -24875,15 +24872,15 @@
       <c r="O122" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="P122" s="893"/>
-      <c r="Q122" s="894"/>
-      <c r="R122" s="895"/>
-      <c r="S122" s="893"/>
-      <c r="T122" s="894"/>
-      <c r="U122" s="895"/>
-      <c r="V122" s="893"/>
-      <c r="W122" s="894"/>
-      <c r="X122" s="897"/>
+      <c r="P122" s="881"/>
+      <c r="Q122" s="882"/>
+      <c r="R122" s="883"/>
+      <c r="S122" s="881"/>
+      <c r="T122" s="882"/>
+      <c r="U122" s="883"/>
+      <c r="V122" s="881"/>
+      <c r="W122" s="882"/>
+      <c r="X122" s="894"/>
       <c r="Y122" s="32"/>
       <c r="AA122" s="35" t="s">
         <v>626</v>
@@ -25452,21 +25449,21 @@
       <c r="O129" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="P129" s="890" t="s">
+      <c r="P129" s="878" t="s">
         <v>65</v>
       </c>
-      <c r="Q129" s="891"/>
-      <c r="R129" s="892"/>
-      <c r="S129" s="890" t="s">
+      <c r="Q129" s="879"/>
+      <c r="R129" s="880"/>
+      <c r="S129" s="878" t="s">
         <v>533</v>
       </c>
-      <c r="T129" s="891"/>
-      <c r="U129" s="892"/>
-      <c r="V129" s="898" t="s">
+      <c r="T129" s="879"/>
+      <c r="U129" s="880"/>
+      <c r="V129" s="884" t="s">
         <v>67</v>
       </c>
-      <c r="W129" s="899"/>
-      <c r="X129" s="900"/>
+      <c r="W129" s="885"/>
+      <c r="X129" s="886"/>
       <c r="Y129" s="32"/>
       <c r="AA129" s="35" t="s">
         <v>633</v>
@@ -25526,15 +25523,15 @@
       <c r="O130" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="P130" s="893"/>
-      <c r="Q130" s="894"/>
-      <c r="R130" s="895"/>
-      <c r="S130" s="893"/>
-      <c r="T130" s="894"/>
-      <c r="U130" s="895"/>
-      <c r="V130" s="901"/>
-      <c r="W130" s="877"/>
-      <c r="X130" s="902"/>
+      <c r="P130" s="881"/>
+      <c r="Q130" s="882"/>
+      <c r="R130" s="883"/>
+      <c r="S130" s="881"/>
+      <c r="T130" s="882"/>
+      <c r="U130" s="883"/>
+      <c r="V130" s="887"/>
+      <c r="W130" s="888"/>
+      <c r="X130" s="889"/>
       <c r="Y130" s="32"/>
       <c r="AA130" s="21" t="s">
         <v>634</v>
@@ -27247,12 +27244,12 @@
       <c r="L173" s="68"/>
       <c r="M173" s="69"/>
       <c r="O173" s="30"/>
-      <c r="P173" s="881" t="s">
+      <c r="P173" s="890" t="s">
         <v>228</v>
       </c>
-      <c r="Q173" s="881"/>
-      <c r="R173" s="881"/>
-      <c r="S173" s="881"/>
+      <c r="Q173" s="890"/>
+      <c r="R173" s="890"/>
+      <c r="S173" s="890"/>
       <c r="U173" s="584" t="s">
         <v>229</v>
       </c>
@@ -27422,12 +27419,12 @@
       </c>
       <c r="B179" s="67"/>
       <c r="C179" s="68"/>
-      <c r="D179" s="881" t="s">
+      <c r="D179" s="890" t="s">
         <v>228</v>
       </c>
-      <c r="E179" s="881"/>
-      <c r="F179" s="881"/>
-      <c r="G179" s="881"/>
+      <c r="E179" s="890"/>
+      <c r="F179" s="890"/>
+      <c r="G179" s="890"/>
       <c r="H179" s="68"/>
       <c r="I179" s="584" t="s">
         <v>229</v>
@@ -27704,22 +27701,22 @@
       </c>
       <c r="B186" s="67"/>
       <c r="C186" s="107"/>
-      <c r="D186" s="878" t="s">
+      <c r="D186" s="905" t="s">
         <v>240</v>
       </c>
-      <c r="E186" s="879"/>
-      <c r="F186" s="880"/>
+      <c r="E186" s="906"/>
+      <c r="F186" s="907"/>
       <c r="G186" s="162"/>
-      <c r="H186" s="878" t="s">
+      <c r="H186" s="905" t="s">
         <v>240</v>
       </c>
-      <c r="I186" s="879"/>
-      <c r="J186" s="880"/>
-      <c r="K186" s="878" t="s">
+      <c r="I186" s="906"/>
+      <c r="J186" s="907"/>
+      <c r="K186" s="905" t="s">
         <v>240</v>
       </c>
-      <c r="L186" s="879"/>
-      <c r="M186" s="882"/>
+      <c r="L186" s="906"/>
+      <c r="M186" s="908"/>
       <c r="O186" s="161"/>
       <c r="P186" s="162" t="s">
         <v>246</v>
@@ -30598,11 +30595,11 @@
         <v>238</v>
       </c>
       <c r="G250" s="68"/>
-      <c r="H250" s="878" t="s">
+      <c r="H250" s="905" t="s">
         <v>296</v>
       </c>
-      <c r="I250" s="879"/>
-      <c r="J250" s="880"/>
+      <c r="I250" s="906"/>
+      <c r="J250" s="907"/>
       <c r="K250" s="68"/>
       <c r="L250" s="68"/>
       <c r="M250" s="69"/>
@@ -32804,11 +32801,11 @@
       <c r="H291" s="267" t="s">
         <v>331</v>
       </c>
-      <c r="I291" s="875" t="str">
+      <c r="I291" s="903" t="str">
         <f>IF(S367="","",S367)</f>
         <v/>
       </c>
-      <c r="J291" s="875"/>
+      <c r="J291" s="903"/>
       <c r="K291" s="59"/>
       <c r="L291" s="59"/>
       <c r="M291" s="61"/>
@@ -32855,11 +32852,11 @@
       <c r="H292" s="162" t="s">
         <v>333</v>
       </c>
-      <c r="I292" s="876" t="str">
+      <c r="I292" s="904" t="str">
         <f>IF(S368="","",S368)</f>
         <v/>
       </c>
-      <c r="J292" s="876"/>
+      <c r="J292" s="904"/>
       <c r="K292" s="4"/>
       <c r="M292" s="69"/>
       <c r="O292" s="462"/>
@@ -36831,7 +36828,7 @@
       <c r="L371" s="68"/>
       <c r="M371" s="69"/>
       <c r="O371" s="30"/>
-      <c r="P371" s="906" t="str">
+      <c r="P371" s="875" t="str">
         <f>AK10&amp;"/"&amp;AL10</f>
         <v>/</v>
       </c>
@@ -36890,7 +36887,7 @@
       <c r="L372" s="68"/>
       <c r="M372" s="69"/>
       <c r="O372" s="30"/>
-      <c r="P372" s="907"/>
+      <c r="P372" s="876"/>
       <c r="Q372" s="308">
         <f>AH18</f>
         <v>25</v>
@@ -36944,7 +36941,7 @@
       <c r="L373" s="68"/>
       <c r="M373" s="69"/>
       <c r="O373" s="30"/>
-      <c r="P373" s="907"/>
+      <c r="P373" s="876"/>
       <c r="Q373" s="307">
         <f>AH26</f>
         <v>26</v>
@@ -37007,7 +37004,7 @@
       <c r="L374"/>
       <c r="M374" s="69"/>
       <c r="O374" s="30"/>
-      <c r="P374" s="907"/>
+      <c r="P374" s="876"/>
       <c r="Q374" s="307">
         <f>AH28</f>
         <v>28</v>
@@ -37070,7 +37067,7 @@
       <c r="L375"/>
       <c r="M375" s="69"/>
       <c r="O375" s="30"/>
-      <c r="P375" s="907"/>
+      <c r="P375" s="876"/>
       <c r="Q375" s="307">
         <f>AH40</f>
         <v>30</v>
@@ -37133,7 +37130,7 @@
       <c r="L376"/>
       <c r="M376" s="69"/>
       <c r="O376" s="30"/>
-      <c r="P376" s="907"/>
+      <c r="P376" s="876"/>
       <c r="Q376" s="307">
         <f>AH41</f>
         <v>32</v>
@@ -37196,7 +37193,7 @@
       <c r="L377"/>
       <c r="M377" s="69"/>
       <c r="O377" s="30"/>
-      <c r="P377" s="908"/>
+      <c r="P377" s="877"/>
       <c r="Q377" s="307">
         <f>AH49</f>
         <v>34</v>
@@ -37259,7 +37256,7 @@
       <c r="L378"/>
       <c r="M378" s="69"/>
       <c r="O378" s="30"/>
-      <c r="P378" s="903" t="str">
+      <c r="P378" s="871" t="str">
         <f>AK57&amp;"/"&amp;AL57</f>
         <v>/</v>
       </c>
@@ -37318,7 +37315,7 @@
       <c r="L379"/>
       <c r="M379" s="69"/>
       <c r="O379" s="161"/>
-      <c r="P379" s="904"/>
+      <c r="P379" s="872"/>
       <c r="Q379" s="307">
         <f>AH65</f>
         <v>30</v>
@@ -37360,7 +37357,7 @@
       <c r="B380" s="67"/>
       <c r="M380" s="69"/>
       <c r="O380" s="30"/>
-      <c r="P380" s="904"/>
+      <c r="P380" s="872"/>
       <c r="Q380" s="307">
         <f>AH73</f>
         <v>32</v>
@@ -37414,7 +37411,7 @@
       <c r="L381" s="68"/>
       <c r="M381" s="69"/>
       <c r="O381" s="30"/>
-      <c r="P381" s="904"/>
+      <c r="P381" s="872"/>
       <c r="Q381" s="307">
         <f>AH81</f>
         <v>34</v>
@@ -37481,7 +37478,7 @@
       </c>
       <c r="M382" s="69"/>
       <c r="O382" s="30"/>
-      <c r="P382" s="904"/>
+      <c r="P382" s="872"/>
       <c r="Q382" s="307">
         <f t="shared" ref="Q382:R384" si="67">AH89</f>
         <v>36</v>
@@ -37555,7 +37552,7 @@
       </c>
       <c r="M383" s="69"/>
       <c r="O383" s="30"/>
-      <c r="P383" s="905"/>
+      <c r="P383" s="873"/>
       <c r="Q383" s="307">
         <f t="shared" si="67"/>
         <v>38</v>
@@ -37629,7 +37626,7 @@
       </c>
       <c r="M384" s="69"/>
       <c r="O384" s="30"/>
-      <c r="P384" s="903" t="str">
+      <c r="P384" s="871" t="str">
         <f>AK91&amp;"/"&amp;AL91</f>
         <v>/</v>
       </c>
@@ -37689,7 +37686,7 @@
       <c r="L385" s="68"/>
       <c r="M385" s="69"/>
       <c r="O385" s="30"/>
-      <c r="P385" s="904"/>
+      <c r="P385" s="872"/>
       <c r="Q385" s="308">
         <f>AH101</f>
         <v>30</v>
@@ -37745,7 +37742,7 @@
       <c r="L386" s="68"/>
       <c r="M386" s="69"/>
       <c r="O386" s="30"/>
-      <c r="P386" s="904"/>
+      <c r="P386" s="872"/>
       <c r="Q386" s="307">
         <f>AH109</f>
         <v>32</v>
@@ -37799,7 +37796,7 @@
       <c r="L387" s="68"/>
       <c r="M387" s="69"/>
       <c r="O387" s="30"/>
-      <c r="P387" s="904"/>
+      <c r="P387" s="872"/>
       <c r="Q387" s="307">
         <f>AH117</f>
         <v>34</v>
@@ -37851,7 +37848,7 @@
       <c r="L388" s="68"/>
       <c r="M388" s="69"/>
       <c r="O388" s="30"/>
-      <c r="P388" s="905"/>
+      <c r="P388" s="873"/>
       <c r="Q388" s="307">
         <f>AH125</f>
         <v>38</v>
@@ -39339,11 +39336,11 @@
       <c r="P420" s="681" t="s">
         <v>353</v>
       </c>
-      <c r="Q420" s="871" t="s">
+      <c r="Q420" s="900" t="s">
         <v>354</v>
       </c>
-      <c r="R420" s="872"/>
-      <c r="S420" s="873"/>
+      <c r="R420" s="901"/>
+      <c r="S420" s="902"/>
       <c r="T420"/>
       <c r="U420"/>
       <c r="V420"/>
@@ -42037,50 +42034,6 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="P378:P383"/>
-    <mergeCell ref="P384:P388"/>
-    <mergeCell ref="Q194:S194"/>
-    <mergeCell ref="U194:W194"/>
-    <mergeCell ref="U245:W245"/>
-    <mergeCell ref="S369:W369"/>
-    <mergeCell ref="P371:P377"/>
-    <mergeCell ref="P129:R130"/>
-    <mergeCell ref="S129:U130"/>
-    <mergeCell ref="V129:X130"/>
-    <mergeCell ref="P173:S173"/>
-    <mergeCell ref="Q182:S182"/>
-    <mergeCell ref="U182:W182"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P121:R122"/>
-    <mergeCell ref="V121:X122"/>
-    <mergeCell ref="S121:U122"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K24:L24"/>
     <mergeCell ref="Q420:S420"/>
     <mergeCell ref="F294:H294"/>
     <mergeCell ref="I291:J291"/>
@@ -42097,6 +42050,50 @@
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P121:R122"/>
+    <mergeCell ref="V121:X122"/>
+    <mergeCell ref="S121:U122"/>
+    <mergeCell ref="P129:R130"/>
+    <mergeCell ref="S129:U130"/>
+    <mergeCell ref="V129:X130"/>
+    <mergeCell ref="P173:S173"/>
+    <mergeCell ref="Q182:S182"/>
+    <mergeCell ref="U182:W182"/>
+    <mergeCell ref="P378:P383"/>
+    <mergeCell ref="P384:P388"/>
+    <mergeCell ref="Q194:S194"/>
+    <mergeCell ref="U194:W194"/>
+    <mergeCell ref="U245:W245"/>
+    <mergeCell ref="S369:W369"/>
+    <mergeCell ref="P371:P377"/>
   </mergeCells>
   <conditionalFormatting sqref="Q260:S260">
     <cfRule type="cellIs" dxfId="71" priority="108" stopIfTrue="1" operator="equal">
@@ -47899,11 +47896,11 @@
       <c r="L62" s="728" t="s">
         <v>335</v>
       </c>
-      <c r="O62" s="881"/>
-      <c r="P62" s="881"/>
-      <c r="Q62" s="881"/>
-      <c r="R62" s="881"/>
-      <c r="S62" s="881"/>
+      <c r="O62" s="890"/>
+      <c r="P62" s="890"/>
+      <c r="Q62" s="890"/>
+      <c r="R62" s="890"/>
+      <c r="S62" s="890"/>
     </row>
     <row r="63" spans="1:19" ht="14.1" customHeight="1">
       <c r="A63" s="728" t="str">

--- a/MUSCMammoSiemens.xlsx
+++ b/MUSCMammoSiemens.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="766">
   <si>
     <t>Revision 1.0-20140918</t>
   </si>
@@ -2969,6 +2969,9 @@
   </si>
   <si>
     <t>MAMMO_SIE</t>
+  </si>
+  <si>
+    <t>SurveyID</t>
   </si>
 </sst>
 </file>
@@ -5899,7 +5902,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="921">
+  <cellXfs count="923">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -8337,6 +8340,60 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8385,59 +8442,26 @@
     <xf numFmtId="173" fontId="23" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="151" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8463,27 +8487,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8508,6 +8511,93 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="172" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -8517,18 +8607,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8538,88 +8622,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8641,6 +8644,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15490,40 +15499,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="819" t="s">
+      <c r="A1" s="837" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="819"/>
-      <c r="C1" s="819"/>
-      <c r="D1" s="819"/>
-      <c r="E1" s="819"/>
-      <c r="F1" s="819"/>
-      <c r="G1" s="819"/>
-      <c r="H1" s="819"/>
-      <c r="I1" s="819"/>
-      <c r="J1" s="819"/>
-      <c r="K1" s="819"/>
-      <c r="L1" s="819"/>
-      <c r="M1" s="819"/>
-      <c r="N1" s="819"/>
+      <c r="B1" s="837"/>
+      <c r="C1" s="837"/>
+      <c r="D1" s="837"/>
+      <c r="E1" s="837"/>
+      <c r="F1" s="837"/>
+      <c r="G1" s="837"/>
+      <c r="H1" s="837"/>
+      <c r="I1" s="837"/>
+      <c r="J1" s="837"/>
+      <c r="K1" s="837"/>
+      <c r="L1" s="837"/>
+      <c r="M1" s="837"/>
+      <c r="N1" s="837"/>
     </row>
     <row r="2" spans="1:14" ht="26.25">
-      <c r="A2" s="819" t="s">
+      <c r="A2" s="837" t="s">
         <v>375</v>
       </c>
-      <c r="B2" s="819"/>
-      <c r="C2" s="819"/>
-      <c r="D2" s="819"/>
-      <c r="E2" s="819"/>
-      <c r="F2" s="819"/>
-      <c r="G2" s="819"/>
-      <c r="H2" s="819"/>
-      <c r="I2" s="819"/>
-      <c r="J2" s="819"/>
-      <c r="K2" s="819"/>
-      <c r="L2" s="819"/>
-      <c r="M2" s="819"/>
-      <c r="N2" s="819"/>
+      <c r="B2" s="837"/>
+      <c r="C2" s="837"/>
+      <c r="D2" s="837"/>
+      <c r="E2" s="837"/>
+      <c r="F2" s="837"/>
+      <c r="G2" s="837"/>
+      <c r="H2" s="837"/>
+      <c r="I2" s="837"/>
+      <c r="J2" s="837"/>
+      <c r="K2" s="837"/>
+      <c r="L2" s="837"/>
+      <c r="M2" s="837"/>
+      <c r="N2" s="837"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1">
       <c r="A3" s="538"/>
@@ -15546,44 +15555,44 @@
         <v>376</v>
       </c>
       <c r="B4" s="517"/>
-      <c r="C4" s="820" t="str">
+      <c r="C4" s="838" t="str">
         <f>Sheet1!R10</f>
         <v/>
       </c>
-      <c r="D4" s="821"/>
-      <c r="E4" s="821"/>
-      <c r="F4" s="821"/>
-      <c r="G4" s="821"/>
-      <c r="H4" s="822"/>
+      <c r="D4" s="839"/>
+      <c r="E4" s="839"/>
+      <c r="F4" s="839"/>
+      <c r="G4" s="839"/>
+      <c r="H4" s="840"/>
       <c r="J4" s="536"/>
       <c r="K4" s="535" t="s">
         <v>377</v>
       </c>
-      <c r="L4" s="826"/>
-      <c r="M4" s="827"/>
-      <c r="N4" s="828"/>
+      <c r="L4" s="844"/>
+      <c r="M4" s="845"/>
+      <c r="N4" s="846"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1">
       <c r="A5" s="517" t="s">
         <v>378</v>
       </c>
       <c r="B5" s="517"/>
-      <c r="C5" s="820"/>
-      <c r="D5" s="821"/>
-      <c r="E5" s="821"/>
-      <c r="F5" s="821"/>
-      <c r="G5" s="821"/>
-      <c r="H5" s="822"/>
+      <c r="C5" s="838"/>
+      <c r="D5" s="839"/>
+      <c r="E5" s="839"/>
+      <c r="F5" s="839"/>
+      <c r="G5" s="839"/>
+      <c r="H5" s="840"/>
       <c r="J5" s="536"/>
       <c r="K5" s="535" t="s">
         <v>379</v>
       </c>
-      <c r="L5" s="826">
+      <c r="L5" s="844">
         <f>Sheet1!P7</f>
         <v>0</v>
       </c>
-      <c r="M5" s="827"/>
-      <c r="N5" s="828"/>
+      <c r="M5" s="845"/>
+      <c r="N5" s="846"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1">
       <c r="A6" s="517" t="s">
@@ -15592,19 +15601,19 @@
       <c r="B6" s="517"/>
       <c r="C6" s="517"/>
       <c r="D6" s="517"/>
-      <c r="E6" s="838" t="s">
+      <c r="E6" s="822" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="838"/>
-      <c r="G6" s="838"/>
-      <c r="H6" s="838"/>
+      <c r="F6" s="822"/>
+      <c r="G6" s="822"/>
+      <c r="H6" s="822"/>
       <c r="J6" s="536"/>
       <c r="K6" s="535" t="s">
         <v>381</v>
       </c>
-      <c r="L6" s="820"/>
-      <c r="M6" s="821"/>
-      <c r="N6" s="822"/>
+      <c r="L6" s="838"/>
+      <c r="M6" s="839"/>
+      <c r="N6" s="840"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1">
       <c r="A7" s="517" t="s">
@@ -15613,22 +15622,22 @@
       <c r="B7" s="517"/>
       <c r="C7" s="517"/>
       <c r="D7" s="517"/>
-      <c r="E7" s="839" t="s">
+      <c r="E7" s="823" t="s">
         <v>383</v>
       </c>
-      <c r="F7" s="840"/>
-      <c r="G7" s="840"/>
-      <c r="H7" s="841"/>
+      <c r="F7" s="824"/>
+      <c r="G7" s="824"/>
+      <c r="H7" s="825"/>
       <c r="J7" s="536"/>
       <c r="K7" s="535" t="s">
         <v>384</v>
       </c>
-      <c r="L7" s="820" t="str">
+      <c r="L7" s="838" t="str">
         <f>Sheet1!R18</f>
         <v/>
       </c>
-      <c r="M7" s="821"/>
-      <c r="N7" s="822"/>
+      <c r="M7" s="839"/>
+      <c r="N7" s="840"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1">
       <c r="A8" s="517" t="s">
@@ -15637,23 +15646,23 @@
       <c r="B8" s="517"/>
       <c r="C8" s="517"/>
       <c r="D8" s="517"/>
-      <c r="E8" s="832" t="str">
+      <c r="E8" s="850" t="str">
         <f>Sheet1!V12</f>
         <v/>
       </c>
-      <c r="F8" s="833"/>
-      <c r="G8" s="833"/>
-      <c r="H8" s="834"/>
+      <c r="F8" s="851"/>
+      <c r="G8" s="851"/>
+      <c r="H8" s="852"/>
       <c r="J8" s="536"/>
       <c r="K8" s="535" t="s">
         <v>386</v>
       </c>
-      <c r="L8" s="820" t="str">
+      <c r="L8" s="838" t="str">
         <f>Sheet1!R14</f>
         <v/>
       </c>
-      <c r="M8" s="821"/>
-      <c r="N8" s="822"/>
+      <c r="M8" s="839"/>
+      <c r="N8" s="840"/>
     </row>
     <row r="9" spans="1:14" ht="11.25" customHeight="1">
       <c r="A9" s="517"/>
@@ -15674,12 +15683,12 @@
       <c r="A10" s="529" t="s">
         <v>569</v>
       </c>
-      <c r="E10" s="829" t="s">
+      <c r="E10" s="847" t="s">
         <v>645</v>
       </c>
-      <c r="F10" s="830"/>
-      <c r="G10" s="830"/>
-      <c r="H10" s="831"/>
+      <c r="F10" s="848"/>
+      <c r="G10" s="848"/>
+      <c r="H10" s="849"/>
       <c r="I10" s="533" t="s">
         <v>568</v>
       </c>
@@ -15704,24 +15713,24 @@
       <c r="B12" s="517"/>
       <c r="C12" s="517"/>
       <c r="D12" s="517"/>
-      <c r="E12" s="823" t="s">
+      <c r="E12" s="841" t="s">
         <v>389</v>
       </c>
-      <c r="F12" s="825"/>
-      <c r="G12" s="823" t="s">
+      <c r="F12" s="843"/>
+      <c r="G12" s="841" t="s">
         <v>384</v>
       </c>
-      <c r="H12" s="825"/>
-      <c r="I12" s="823" t="s">
+      <c r="H12" s="843"/>
+      <c r="I12" s="841" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="825"/>
-      <c r="K12" s="823" t="s">
+      <c r="J12" s="843"/>
+      <c r="K12" s="841" t="s">
         <v>387</v>
       </c>
-      <c r="L12" s="824"/>
-      <c r="M12" s="824"/>
-      <c r="N12" s="825"/>
+      <c r="L12" s="842"/>
+      <c r="M12" s="842"/>
+      <c r="N12" s="843"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" thickTop="1">
       <c r="A13" s="517"/>
@@ -15730,49 +15739,49 @@
       <c r="D13" s="523" t="s">
         <v>390</v>
       </c>
-      <c r="E13" s="835"/>
-      <c r="F13" s="837"/>
-      <c r="G13" s="835"/>
-      <c r="H13" s="837"/>
-      <c r="I13" s="851"/>
-      <c r="J13" s="852"/>
-      <c r="K13" s="835"/>
-      <c r="L13" s="836"/>
-      <c r="M13" s="836"/>
-      <c r="N13" s="837"/>
+      <c r="E13" s="819"/>
+      <c r="F13" s="821"/>
+      <c r="G13" s="819"/>
+      <c r="H13" s="821"/>
+      <c r="I13" s="835"/>
+      <c r="J13" s="836"/>
+      <c r="K13" s="819"/>
+      <c r="L13" s="820"/>
+      <c r="M13" s="820"/>
+      <c r="N13" s="821"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="D14" s="523" t="s">
         <v>391</v>
       </c>
-      <c r="E14" s="846"/>
-      <c r="F14" s="848"/>
-      <c r="G14" s="846"/>
-      <c r="H14" s="848"/>
-      <c r="I14" s="844"/>
-      <c r="J14" s="845"/>
-      <c r="K14" s="846"/>
-      <c r="L14" s="847"/>
-      <c r="M14" s="847"/>
-      <c r="N14" s="848"/>
+      <c r="E14" s="830"/>
+      <c r="F14" s="832"/>
+      <c r="G14" s="830"/>
+      <c r="H14" s="832"/>
+      <c r="I14" s="828"/>
+      <c r="J14" s="829"/>
+      <c r="K14" s="830"/>
+      <c r="L14" s="831"/>
+      <c r="M14" s="831"/>
+      <c r="N14" s="832"/>
     </row>
     <row r="15" spans="1:14" s="530" customFormat="1" ht="36" customHeight="1">
-      <c r="A15" s="850" t="s">
+      <c r="A15" s="834" t="s">
         <v>392</v>
       </c>
-      <c r="B15" s="850"/>
-      <c r="C15" s="850"/>
-      <c r="D15" s="850"/>
-      <c r="E15" s="850"/>
-      <c r="F15" s="850"/>
-      <c r="G15" s="850"/>
-      <c r="H15" s="850"/>
-      <c r="I15" s="850"/>
-      <c r="J15" s="850"/>
-      <c r="K15" s="850"/>
-      <c r="L15" s="850"/>
-      <c r="M15" s="850"/>
-      <c r="N15" s="850"/>
+      <c r="B15" s="834"/>
+      <c r="C15" s="834"/>
+      <c r="D15" s="834"/>
+      <c r="E15" s="834"/>
+      <c r="F15" s="834"/>
+      <c r="G15" s="834"/>
+      <c r="H15" s="834"/>
+      <c r="I15" s="834"/>
+      <c r="J15" s="834"/>
+      <c r="K15" s="834"/>
+      <c r="L15" s="834"/>
+      <c r="M15" s="834"/>
+      <c r="N15" s="834"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1">
       <c r="A16" s="529" t="s">
@@ -15811,40 +15820,40 @@
       <c r="M17" s="518"/>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1">
-      <c r="A18" s="849" t="s">
+      <c r="A18" s="833" t="s">
         <v>396</v>
       </c>
-      <c r="B18" s="849"/>
-      <c r="C18" s="849"/>
-      <c r="D18" s="849"/>
-      <c r="E18" s="849"/>
-      <c r="F18" s="849"/>
-      <c r="G18" s="849"/>
-      <c r="H18" s="849"/>
-      <c r="I18" s="849"/>
-      <c r="J18" s="849"/>
-      <c r="K18" s="849"/>
-      <c r="L18" s="849"/>
-      <c r="M18" s="849"/>
-      <c r="N18" s="849"/>
+      <c r="B18" s="833"/>
+      <c r="C18" s="833"/>
+      <c r="D18" s="833"/>
+      <c r="E18" s="833"/>
+      <c r="F18" s="833"/>
+      <c r="G18" s="833"/>
+      <c r="H18" s="833"/>
+      <c r="I18" s="833"/>
+      <c r="J18" s="833"/>
+      <c r="K18" s="833"/>
+      <c r="L18" s="833"/>
+      <c r="M18" s="833"/>
+      <c r="N18" s="833"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1">
-      <c r="A19" s="843" t="s">
+      <c r="A19" s="827" t="s">
         <v>567</v>
       </c>
-      <c r="B19" s="843"/>
-      <c r="C19" s="843"/>
-      <c r="D19" s="843"/>
-      <c r="E19" s="843"/>
-      <c r="F19" s="843"/>
-      <c r="G19" s="843"/>
-      <c r="H19" s="843"/>
-      <c r="I19" s="843"/>
-      <c r="J19" s="843"/>
-      <c r="K19" s="843"/>
-      <c r="L19" s="843"/>
-      <c r="M19" s="843"/>
-      <c r="N19" s="843"/>
+      <c r="B19" s="827"/>
+      <c r="C19" s="827"/>
+      <c r="D19" s="827"/>
+      <c r="E19" s="827"/>
+      <c r="F19" s="827"/>
+      <c r="G19" s="827"/>
+      <c r="H19" s="827"/>
+      <c r="I19" s="827"/>
+      <c r="J19" s="827"/>
+      <c r="K19" s="827"/>
+      <c r="L19" s="827"/>
+      <c r="M19" s="827"/>
+      <c r="N19" s="827"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="517"/>
@@ -16536,39 +16545,25 @@
       <c r="N57" s="501"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A58" s="842" t="s">
+      <c r="A58" s="826" t="s">
         <v>558</v>
       </c>
-      <c r="B58" s="842"/>
-      <c r="C58" s="842"/>
-      <c r="D58" s="842"/>
-      <c r="E58" s="842"/>
-      <c r="F58" s="842"/>
-      <c r="G58" s="842"/>
-      <c r="H58" s="842"/>
-      <c r="I58" s="842"/>
-      <c r="J58" s="842"/>
-      <c r="K58" s="842"/>
-      <c r="L58" s="842"/>
-      <c r="M58" s="842"/>
-      <c r="N58" s="842"/>
+      <c r="B58" s="826"/>
+      <c r="C58" s="826"/>
+      <c r="D58" s="826"/>
+      <c r="E58" s="826"/>
+      <c r="F58" s="826"/>
+      <c r="G58" s="826"/>
+      <c r="H58" s="826"/>
+      <c r="I58" s="826"/>
+      <c r="J58" s="826"/>
+      <c r="K58" s="826"/>
+      <c r="L58" s="826"/>
+      <c r="M58" s="826"/>
+      <c r="N58" s="826"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A58:N58"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A18:N18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="L7:N7"/>
@@ -16584,6 +16579,20 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A58:N58"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A18:N18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <conditionalFormatting sqref="N21:N24 N28:N30 N32:N57">
     <cfRule type="cellIs" dxfId="77" priority="5" stopIfTrue="1" operator="equal">
@@ -16800,19 +16809,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="861" t="s">
+      <c r="A1" s="853" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="861"/>
-      <c r="C1" s="861"/>
-      <c r="D1" s="861"/>
-      <c r="E1" s="861"/>
-      <c r="F1" s="861"/>
-      <c r="G1" s="861"/>
-      <c r="H1" s="861"/>
-      <c r="I1" s="861"/>
-      <c r="J1" s="861"/>
-      <c r="K1" s="861"/>
+      <c r="B1" s="853"/>
+      <c r="C1" s="853"/>
+      <c r="D1" s="853"/>
+      <c r="E1" s="853"/>
+      <c r="F1" s="853"/>
+      <c r="G1" s="853"/>
+      <c r="H1" s="853"/>
+      <c r="I1" s="853"/>
+      <c r="J1" s="853"/>
+      <c r="K1" s="853"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
       <c r="A2" s="566" t="s">
@@ -16846,19 +16855,19 @@
       <c r="K4" s="561"/>
     </row>
     <row r="5" spans="1:12" ht="42" customHeight="1">
-      <c r="A5" s="864" t="s">
+      <c r="A5" s="856" t="s">
         <v>574</v>
       </c>
-      <c r="B5" s="864"/>
-      <c r="C5" s="864"/>
-      <c r="D5" s="864"/>
-      <c r="E5" s="864"/>
-      <c r="F5" s="864"/>
-      <c r="G5" s="864"/>
-      <c r="H5" s="864"/>
-      <c r="I5" s="864"/>
-      <c r="J5" s="864"/>
-      <c r="K5" s="864"/>
+      <c r="B5" s="856"/>
+      <c r="C5" s="856"/>
+      <c r="D5" s="856"/>
+      <c r="E5" s="856"/>
+      <c r="F5" s="856"/>
+      <c r="G5" s="856"/>
+      <c r="H5" s="856"/>
+      <c r="I5" s="856"/>
+      <c r="J5" s="856"/>
+      <c r="K5" s="856"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="560" t="s">
@@ -16891,8 +16900,8 @@
       <c r="K7" s="555"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="J8" s="863"/>
-      <c r="K8" s="863"/>
+      <c r="J8" s="855"/>
+      <c r="K8" s="855"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="541"/>
@@ -16901,10 +16910,10 @@
         <v>414</v>
       </c>
       <c r="I9" s="554"/>
-      <c r="J9" s="862" t="s">
+      <c r="J9" s="854" t="s">
         <v>397</v>
       </c>
-      <c r="K9" s="862"/>
+      <c r="K9" s="854"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="553" t="s">
@@ -16918,8 +16927,8 @@
       <c r="H10" s="552" t="s">
         <v>417</v>
       </c>
-      <c r="J10" s="858"/>
-      <c r="K10" s="859"/>
+      <c r="J10" s="865"/>
+      <c r="K10" s="866"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="548" t="s">
@@ -16933,8 +16942,8 @@
       <c r="H11" s="551" t="s">
         <v>420</v>
       </c>
-      <c r="J11" s="858"/>
-      <c r="K11" s="859"/>
+      <c r="J11" s="865"/>
+      <c r="K11" s="866"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="548" t="s">
@@ -16948,8 +16957,8 @@
       <c r="H12" s="549" t="s">
         <v>423</v>
       </c>
-      <c r="J12" s="858"/>
-      <c r="K12" s="859"/>
+      <c r="J12" s="865"/>
+      <c r="K12" s="866"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="550" t="s">
@@ -16963,8 +16972,8 @@
       <c r="H13" s="549" t="s">
         <v>423</v>
       </c>
-      <c r="J13" s="858"/>
-      <c r="K13" s="859"/>
+      <c r="J13" s="865"/>
+      <c r="K13" s="866"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="550" t="s">
@@ -16978,8 +16987,8 @@
       <c r="H14" s="549" t="s">
         <v>428</v>
       </c>
-      <c r="J14" s="858"/>
-      <c r="K14" s="859"/>
+      <c r="J14" s="865"/>
+      <c r="K14" s="866"/>
       <c r="L14" s="541"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
@@ -16994,8 +17003,8 @@
       <c r="H15" s="549" t="s">
         <v>431</v>
       </c>
-      <c r="J15" s="858"/>
-      <c r="K15" s="859"/>
+      <c r="J15" s="865"/>
+      <c r="K15" s="866"/>
       <c r="L15" s="541"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
@@ -17010,8 +17019,8 @@
       <c r="H16" s="549" t="s">
         <v>434</v>
       </c>
-      <c r="J16" s="858"/>
-      <c r="K16" s="859"/>
+      <c r="J16" s="865"/>
+      <c r="K16" s="866"/>
       <c r="L16" s="541"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
@@ -17026,8 +17035,8 @@
         <v>436</v>
       </c>
       <c r="I17" s="501"/>
-      <c r="J17" s="858"/>
-      <c r="K17" s="859"/>
+      <c r="J17" s="865"/>
+      <c r="K17" s="866"/>
       <c r="L17" s="545"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
@@ -17040,19 +17049,19 @@
       <c r="L18" s="541"/>
     </row>
     <row r="19" spans="1:12" ht="24" customHeight="1">
-      <c r="A19" s="860" t="s">
+      <c r="A19" s="867" t="s">
         <v>437</v>
       </c>
-      <c r="B19" s="860"/>
-      <c r="C19" s="860"/>
-      <c r="D19" s="860"/>
-      <c r="E19" s="860"/>
-      <c r="F19" s="860"/>
-      <c r="G19" s="860"/>
-      <c r="H19" s="860"/>
-      <c r="I19" s="860"/>
-      <c r="J19" s="860"/>
-      <c r="K19" s="860"/>
+      <c r="B19" s="867"/>
+      <c r="C19" s="867"/>
+      <c r="D19" s="867"/>
+      <c r="E19" s="867"/>
+      <c r="F19" s="867"/>
+      <c r="G19" s="867"/>
+      <c r="H19" s="867"/>
+      <c r="I19" s="867"/>
+      <c r="J19" s="867"/>
+      <c r="K19" s="867"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1">
       <c r="A20" s="540"/>
@@ -17068,131 +17077,126 @@
       <c r="K20" s="539"/>
     </row>
     <row r="21" spans="1:12" ht="290.25" customHeight="1">
-      <c r="A21" s="865"/>
-      <c r="B21" s="866"/>
-      <c r="C21" s="866"/>
-      <c r="D21" s="866"/>
-      <c r="E21" s="866"/>
-      <c r="F21" s="866"/>
-      <c r="G21" s="866"/>
-      <c r="H21" s="866"/>
-      <c r="I21" s="866"/>
-      <c r="J21" s="866"/>
-      <c r="K21" s="867"/>
+      <c r="A21" s="857"/>
+      <c r="B21" s="858"/>
+      <c r="C21" s="858"/>
+      <c r="D21" s="858"/>
+      <c r="E21" s="858"/>
+      <c r="F21" s="858"/>
+      <c r="G21" s="858"/>
+      <c r="H21" s="858"/>
+      <c r="I21" s="858"/>
+      <c r="J21" s="858"/>
+      <c r="K21" s="859"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="856"/>
-      <c r="B22" s="856"/>
-      <c r="C22" s="856"/>
-      <c r="D22" s="856"/>
-      <c r="E22" s="856"/>
-      <c r="F22" s="856"/>
-      <c r="G22" s="856"/>
-      <c r="H22" s="856"/>
-      <c r="I22" s="856"/>
-      <c r="J22" s="856"/>
-      <c r="K22" s="856"/>
+      <c r="A22" s="863"/>
+      <c r="B22" s="863"/>
+      <c r="C22" s="863"/>
+      <c r="D22" s="863"/>
+      <c r="E22" s="863"/>
+      <c r="F22" s="863"/>
+      <c r="G22" s="863"/>
+      <c r="H22" s="863"/>
+      <c r="I22" s="863"/>
+      <c r="J22" s="863"/>
+      <c r="K22" s="863"/>
     </row>
     <row r="23" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A23" s="857"/>
-      <c r="B23" s="857"/>
-      <c r="C23" s="857"/>
-      <c r="D23" s="857"/>
-      <c r="E23" s="857"/>
-      <c r="F23" s="857"/>
-      <c r="G23" s="857"/>
-      <c r="H23" s="857"/>
-      <c r="I23" s="857"/>
-      <c r="J23" s="857"/>
-      <c r="K23" s="857"/>
+      <c r="A23" s="864"/>
+      <c r="B23" s="864"/>
+      <c r="C23" s="864"/>
+      <c r="D23" s="864"/>
+      <c r="E23" s="864"/>
+      <c r="F23" s="864"/>
+      <c r="G23" s="864"/>
+      <c r="H23" s="864"/>
+      <c r="I23" s="864"/>
+      <c r="J23" s="864"/>
+      <c r="K23" s="864"/>
     </row>
     <row r="24" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A24" s="857"/>
-      <c r="B24" s="857"/>
-      <c r="C24" s="857"/>
-      <c r="D24" s="857"/>
-      <c r="E24" s="857"/>
-      <c r="F24" s="857"/>
-      <c r="G24" s="857"/>
-      <c r="H24" s="857"/>
-      <c r="I24" s="857"/>
-      <c r="J24" s="857"/>
-      <c r="K24" s="857"/>
+      <c r="A24" s="864"/>
+      <c r="B24" s="864"/>
+      <c r="C24" s="864"/>
+      <c r="D24" s="864"/>
+      <c r="E24" s="864"/>
+      <c r="F24" s="864"/>
+      <c r="G24" s="864"/>
+      <c r="H24" s="864"/>
+      <c r="I24" s="864"/>
+      <c r="J24" s="864"/>
+      <c r="K24" s="864"/>
     </row>
     <row r="25" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A25" s="857"/>
-      <c r="B25" s="857"/>
-      <c r="C25" s="857"/>
-      <c r="D25" s="857"/>
-      <c r="E25" s="857"/>
-      <c r="F25" s="857"/>
-      <c r="G25" s="857"/>
-      <c r="H25" s="857"/>
-      <c r="I25" s="857"/>
-      <c r="J25" s="857"/>
-      <c r="K25" s="857"/>
+      <c r="A25" s="864"/>
+      <c r="B25" s="864"/>
+      <c r="C25" s="864"/>
+      <c r="D25" s="864"/>
+      <c r="E25" s="864"/>
+      <c r="F25" s="864"/>
+      <c r="G25" s="864"/>
+      <c r="H25" s="864"/>
+      <c r="I25" s="864"/>
+      <c r="J25" s="864"/>
+      <c r="K25" s="864"/>
     </row>
     <row r="26" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A26" s="857"/>
-      <c r="B26" s="857"/>
-      <c r="C26" s="857"/>
-      <c r="D26" s="857"/>
-      <c r="E26" s="857"/>
-      <c r="F26" s="857"/>
-      <c r="G26" s="857"/>
-      <c r="H26" s="857"/>
-      <c r="I26" s="857"/>
-      <c r="J26" s="857"/>
-      <c r="K26" s="857"/>
+      <c r="A26" s="864"/>
+      <c r="B26" s="864"/>
+      <c r="C26" s="864"/>
+      <c r="D26" s="864"/>
+      <c r="E26" s="864"/>
+      <c r="F26" s="864"/>
+      <c r="G26" s="864"/>
+      <c r="H26" s="864"/>
+      <c r="I26" s="864"/>
+      <c r="J26" s="864"/>
+      <c r="K26" s="864"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A27" s="857"/>
-      <c r="B27" s="857"/>
-      <c r="C27" s="857"/>
-      <c r="D27" s="857"/>
-      <c r="E27" s="857"/>
-      <c r="F27" s="857"/>
-      <c r="G27" s="857"/>
-      <c r="H27" s="857"/>
-      <c r="I27" s="857"/>
-      <c r="J27" s="857"/>
-      <c r="K27" s="857"/>
+      <c r="A27" s="864"/>
+      <c r="B27" s="864"/>
+      <c r="C27" s="864"/>
+      <c r="D27" s="864"/>
+      <c r="E27" s="864"/>
+      <c r="F27" s="864"/>
+      <c r="G27" s="864"/>
+      <c r="H27" s="864"/>
+      <c r="I27" s="864"/>
+      <c r="J27" s="864"/>
+      <c r="K27" s="864"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A28" s="857"/>
-      <c r="B28" s="857"/>
-      <c r="C28" s="857"/>
-      <c r="D28" s="857"/>
-      <c r="E28" s="857"/>
-      <c r="F28" s="857"/>
-      <c r="G28" s="857"/>
-      <c r="H28" s="857"/>
-      <c r="I28" s="857"/>
-      <c r="J28" s="857"/>
-      <c r="K28" s="857"/>
+      <c r="A28" s="864"/>
+      <c r="B28" s="864"/>
+      <c r="C28" s="864"/>
+      <c r="D28" s="864"/>
+      <c r="E28" s="864"/>
+      <c r="F28" s="864"/>
+      <c r="G28" s="864"/>
+      <c r="H28" s="864"/>
+      <c r="I28" s="864"/>
+      <c r="J28" s="864"/>
+      <c r="K28" s="864"/>
     </row>
     <row r="29" spans="1:12" ht="201.75" customHeight="1" thickBot="1">
-      <c r="A29" s="853" t="s">
+      <c r="A29" s="860" t="s">
         <v>570</v>
       </c>
-      <c r="B29" s="854"/>
-      <c r="C29" s="854"/>
-      <c r="D29" s="854"/>
-      <c r="E29" s="854"/>
-      <c r="F29" s="854"/>
-      <c r="G29" s="854"/>
-      <c r="H29" s="854"/>
-      <c r="I29" s="854"/>
-      <c r="J29" s="854"/>
-      <c r="K29" s="855"/>
+      <c r="B29" s="861"/>
+      <c r="C29" s="861"/>
+      <c r="D29" s="861"/>
+      <c r="E29" s="861"/>
+      <c r="F29" s="861"/>
+      <c r="G29" s="861"/>
+      <c r="H29" s="861"/>
+      <c r="I29" s="861"/>
+      <c r="J29" s="861"/>
+      <c r="K29" s="862"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A21:K21"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A22:K28"/>
     <mergeCell ref="J10:K10"/>
@@ -17204,6 +17208,11 @@
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="A19:K19"/>
     <mergeCell ref="J17:K17"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A21:K21"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:K17">
     <cfRule type="cellIs" dxfId="72" priority="1" stopIfTrue="1" operator="equal">
@@ -18151,19 +18160,19 @@
       <c r="E10" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="891" t="str">
+      <c r="F10" s="901" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="891"/>
+      <c r="G10" s="901"/>
       <c r="J10" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="882" t="str">
+      <c r="K10" s="893" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="882"/>
+      <c r="L10" s="893"/>
       <c r="M10" s="69"/>
       <c r="O10" s="30"/>
       <c r="Q10" s="35" t="s">
@@ -18227,19 +18236,19 @@
       <c r="E11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="889" t="str">
+      <c r="F11" s="902" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="889"/>
+      <c r="G11" s="902"/>
       <c r="J11" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="882" t="str">
+      <c r="K11" s="893" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="882"/>
+      <c r="L11" s="893"/>
       <c r="M11" s="69"/>
       <c r="O11" s="30"/>
       <c r="Q11" s="35" t="s">
@@ -18303,19 +18312,19 @@
       <c r="E12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="889" t="str">
+      <c r="F12" s="902" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="889"/>
+      <c r="G12" s="902"/>
       <c r="J12" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="888" t="str">
+      <c r="K12" s="903" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="888"/>
+      <c r="L12" s="903"/>
       <c r="M12" s="69"/>
       <c r="O12" s="30"/>
       <c r="Q12" s="35" t="s">
@@ -18379,19 +18388,19 @@
       <c r="E13" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="889" t="str">
+      <c r="F13" s="902" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="889"/>
+      <c r="G13" s="902"/>
       <c r="J13" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="882" t="str">
+      <c r="K13" s="893" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="882"/>
+      <c r="L13" s="893"/>
       <c r="M13" s="69"/>
       <c r="O13" s="30"/>
       <c r="Q13" s="35" t="s">
@@ -18562,19 +18571,19 @@
       <c r="E16" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="882" t="str">
+      <c r="F16" s="893" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="882"/>
+      <c r="G16" s="893"/>
       <c r="J16" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="888" t="str">
+      <c r="K16" s="903" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="888"/>
+      <c r="L16" s="903"/>
       <c r="M16" s="69"/>
       <c r="O16" s="30"/>
       <c r="P16" s="75" t="s">
@@ -18625,19 +18634,19 @@
       <c r="E17" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="882" t="str">
+      <c r="F17" s="893" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="882"/>
+      <c r="G17" s="893"/>
       <c r="J17" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="890" t="str">
+      <c r="K17" s="904" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="890"/>
+      <c r="L17" s="904"/>
       <c r="M17" s="69"/>
       <c r="O17" s="30"/>
       <c r="Q17" s="35" t="s">
@@ -18701,19 +18710,19 @@
       <c r="E18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="882" t="str">
+      <c r="F18" s="893" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="882"/>
+      <c r="G18" s="893"/>
       <c r="J18" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K18" s="882" t="str">
+      <c r="K18" s="893" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="882"/>
+      <c r="L18" s="893"/>
       <c r="M18" s="69"/>
       <c r="O18" s="30"/>
       <c r="Q18" s="35" t="s">
@@ -18876,19 +18885,19 @@
       <c r="E21" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="882" t="str">
+      <c r="F21" s="893" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="882"/>
+      <c r="G21" s="893"/>
       <c r="J21" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="882" t="str">
+      <c r="K21" s="893" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L21" s="882"/>
+      <c r="L21" s="893"/>
       <c r="M21" s="69"/>
       <c r="O21" s="30"/>
       <c r="P21" s="75" t="s">
@@ -18947,17 +18956,17 @@
       <c r="E22" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="888" t="str">
+      <c r="F22" s="903" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="888"/>
+      <c r="G22" s="903"/>
       <c r="J22" s="35"/>
-      <c r="K22" s="882" t="str">
+      <c r="K22" s="893" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="882"/>
+      <c r="L22" s="893"/>
       <c r="M22" s="69"/>
       <c r="O22" s="30"/>
       <c r="Q22" s="35" t="s">
@@ -19021,11 +19030,11 @@
       <c r="J23" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="882" t="str">
+      <c r="K23" s="893" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="882"/>
+      <c r="L23" s="893"/>
       <c r="M23" s="69"/>
       <c r="O23" s="30"/>
       <c r="Q23" s="35" t="s">
@@ -19083,16 +19092,16 @@
       <c r="E24" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="882" t="str">
+      <c r="F24" s="893" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="882"/>
-      <c r="K24" s="882" t="str">
+      <c r="G24" s="893"/>
+      <c r="K24" s="893" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="882"/>
+      <c r="L24" s="893"/>
       <c r="M24" s="69"/>
       <c r="O24" s="30"/>
       <c r="P24" s="75" t="s">
@@ -19151,11 +19160,11 @@
       <c r="E25" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="882" t="str">
+      <c r="F25" s="893" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="882"/>
+      <c r="G25" s="893"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -19219,11 +19228,11 @@
       <c r="E26" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="882" t="str">
+      <c r="F26" s="893" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="882"/>
+      <c r="G26" s="893"/>
       <c r="I26" s="75" t="s">
         <v>56</v>
       </c>
@@ -19290,11 +19299,11 @@
       <c r="J27" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="K27" s="882" t="str">
+      <c r="K27" s="893" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="882"/>
+      <c r="L27" s="893"/>
       <c r="M27" s="69"/>
       <c r="O27" s="30"/>
       <c r="Q27" s="35" t="s">
@@ -19344,20 +19353,20 @@
       <c r="E28" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="882" t="str">
+      <c r="F28" s="893" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="882"/>
+      <c r="G28" s="893"/>
       <c r="I28" s="4"/>
       <c r="J28" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="K28" s="882" t="str">
+      <c r="K28" s="893" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="882"/>
+      <c r="L28" s="893"/>
       <c r="M28" s="69"/>
       <c r="O28" s="30"/>
       <c r="P28" s="75" t="s">
@@ -19416,22 +19425,22 @@
       <c r="E29" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="882" t="str">
+      <c r="F29" s="893" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="882"/>
+      <c r="G29" s="893"/>
       <c r="I29" s="75" t="s">
         <v>60</v>
       </c>
       <c r="J29" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="K29" s="882" t="str">
+      <c r="K29" s="893" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="882"/>
+      <c r="L29" s="893"/>
       <c r="M29" s="69"/>
       <c r="O29" s="30"/>
       <c r="Q29" s="35" t="s">
@@ -19495,19 +19504,19 @@
       <c r="E30" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="882" t="str">
+      <c r="F30" s="893" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="882"/>
+      <c r="G30" s="893"/>
       <c r="J30" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="K30" s="882" t="str">
+      <c r="K30" s="893" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="882"/>
+      <c r="L30" s="893"/>
       <c r="M30" s="69"/>
       <c r="O30" s="30"/>
       <c r="Q30" s="35" t="s">
@@ -19786,21 +19795,21 @@
       <c r="C35" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="892" t="s">
+      <c r="D35" s="900" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="892"/>
-      <c r="F35" s="892"/>
-      <c r="G35" s="892" t="s">
+      <c r="E35" s="900"/>
+      <c r="F35" s="900"/>
+      <c r="G35" s="900" t="s">
         <v>66</v>
       </c>
-      <c r="H35" s="892"/>
-      <c r="I35" s="892"/>
-      <c r="J35" s="892" t="s">
+      <c r="H35" s="900"/>
+      <c r="I35" s="900"/>
+      <c r="J35" s="900" t="s">
         <v>67</v>
       </c>
-      <c r="K35" s="892"/>
-      <c r="L35" s="892"/>
+      <c r="K35" s="900"/>
+      <c r="L35" s="900"/>
       <c r="M35" s="69"/>
       <c r="O35" s="40"/>
       <c r="P35" s="41"/>
@@ -19859,11 +19868,11 @@
       <c r="D36" s="580"/>
       <c r="E36" s="581"/>
       <c r="F36" s="586"/>
-      <c r="G36" s="893" t="s">
+      <c r="G36" s="896" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="893"/>
-      <c r="I36" s="893"/>
+      <c r="H36" s="896"/>
+      <c r="I36" s="896"/>
       <c r="J36" s="580"/>
       <c r="K36" s="581"/>
       <c r="L36" s="586"/>
@@ -20428,10 +20437,10 @@
       <c r="C44" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="L44" s="894" t="s">
+      <c r="L44" s="897" t="s">
         <v>90</v>
       </c>
-      <c r="M44" s="894"/>
+      <c r="M44" s="897"/>
       <c r="O44" s="30"/>
       <c r="Y44" s="32"/>
       <c r="AA44" s="75" t="s">
@@ -24821,21 +24830,21 @@
       <c r="O121" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="P121" s="895" t="s">
+      <c r="P121" s="883" t="s">
         <v>65</v>
       </c>
-      <c r="Q121" s="896"/>
-      <c r="R121" s="897"/>
-      <c r="S121" s="895" t="s">
+      <c r="Q121" s="884"/>
+      <c r="R121" s="885"/>
+      <c r="S121" s="883" t="s">
         <v>533</v>
       </c>
-      <c r="T121" s="896"/>
-      <c r="U121" s="897"/>
-      <c r="V121" s="895" t="s">
+      <c r="T121" s="884"/>
+      <c r="U121" s="885"/>
+      <c r="V121" s="883" t="s">
         <v>67</v>
       </c>
-      <c r="W121" s="896"/>
-      <c r="X121" s="901"/>
+      <c r="W121" s="884"/>
+      <c r="X121" s="898"/>
       <c r="Y121" s="32"/>
       <c r="AA121" s="35" t="s">
         <v>625</v>
@@ -24895,15 +24904,15 @@
       <c r="O122" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="P122" s="898"/>
-      <c r="Q122" s="899"/>
-      <c r="R122" s="900"/>
-      <c r="S122" s="898"/>
-      <c r="T122" s="899"/>
-      <c r="U122" s="900"/>
-      <c r="V122" s="898"/>
-      <c r="W122" s="899"/>
-      <c r="X122" s="902"/>
+      <c r="P122" s="886"/>
+      <c r="Q122" s="887"/>
+      <c r="R122" s="888"/>
+      <c r="S122" s="886"/>
+      <c r="T122" s="887"/>
+      <c r="U122" s="888"/>
+      <c r="V122" s="886"/>
+      <c r="W122" s="887"/>
+      <c r="X122" s="899"/>
       <c r="Y122" s="32"/>
       <c r="AA122" s="35" t="s">
         <v>626</v>
@@ -25472,21 +25481,21 @@
       <c r="O129" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="P129" s="895" t="s">
+      <c r="P129" s="883" t="s">
         <v>65</v>
       </c>
-      <c r="Q129" s="896"/>
-      <c r="R129" s="897"/>
-      <c r="S129" s="895" t="s">
+      <c r="Q129" s="884"/>
+      <c r="R129" s="885"/>
+      <c r="S129" s="883" t="s">
         <v>533</v>
       </c>
-      <c r="T129" s="896"/>
-      <c r="U129" s="897"/>
-      <c r="V129" s="903" t="s">
+      <c r="T129" s="884"/>
+      <c r="U129" s="885"/>
+      <c r="V129" s="889" t="s">
         <v>67</v>
       </c>
-      <c r="W129" s="904"/>
-      <c r="X129" s="905"/>
+      <c r="W129" s="890"/>
+      <c r="X129" s="891"/>
       <c r="Y129" s="32"/>
       <c r="AA129" s="35" t="s">
         <v>633</v>
@@ -25546,15 +25555,15 @@
       <c r="O130" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="P130" s="898"/>
-      <c r="Q130" s="899"/>
-      <c r="R130" s="900"/>
-      <c r="S130" s="898"/>
-      <c r="T130" s="899"/>
-      <c r="U130" s="900"/>
-      <c r="V130" s="906"/>
-      <c r="W130" s="882"/>
-      <c r="X130" s="907"/>
+      <c r="P130" s="886"/>
+      <c r="Q130" s="887"/>
+      <c r="R130" s="888"/>
+      <c r="S130" s="886"/>
+      <c r="T130" s="887"/>
+      <c r="U130" s="888"/>
+      <c r="V130" s="892"/>
+      <c r="W130" s="893"/>
+      <c r="X130" s="894"/>
       <c r="Y130" s="32"/>
       <c r="AA130" s="21" t="s">
         <v>634</v>
@@ -27267,12 +27276,12 @@
       <c r="L173" s="68"/>
       <c r="M173" s="69"/>
       <c r="O173" s="30"/>
-      <c r="P173" s="886" t="s">
+      <c r="P173" s="895" t="s">
         <v>228</v>
       </c>
-      <c r="Q173" s="886"/>
-      <c r="R173" s="886"/>
-      <c r="S173" s="886"/>
+      <c r="Q173" s="895"/>
+      <c r="R173" s="895"/>
+      <c r="S173" s="895"/>
       <c r="U173" s="584" t="s">
         <v>229</v>
       </c>
@@ -27442,12 +27451,12 @@
       </c>
       <c r="B179" s="67"/>
       <c r="C179" s="68"/>
-      <c r="D179" s="886" t="s">
+      <c r="D179" s="895" t="s">
         <v>228</v>
       </c>
-      <c r="E179" s="886"/>
-      <c r="F179" s="886"/>
-      <c r="G179" s="886"/>
+      <c r="E179" s="895"/>
+      <c r="F179" s="895"/>
+      <c r="G179" s="895"/>
       <c r="H179" s="68"/>
       <c r="I179" s="584" t="s">
         <v>229</v>
@@ -27724,22 +27733,22 @@
       </c>
       <c r="B186" s="67"/>
       <c r="C186" s="107"/>
-      <c r="D186" s="883" t="s">
+      <c r="D186" s="910" t="s">
         <v>240</v>
       </c>
-      <c r="E186" s="884"/>
-      <c r="F186" s="885"/>
+      <c r="E186" s="911"/>
+      <c r="F186" s="912"/>
       <c r="G186" s="162"/>
-      <c r="H186" s="883" t="s">
+      <c r="H186" s="910" t="s">
         <v>240</v>
       </c>
-      <c r="I186" s="884"/>
-      <c r="J186" s="885"/>
-      <c r="K186" s="883" t="s">
+      <c r="I186" s="911"/>
+      <c r="J186" s="912"/>
+      <c r="K186" s="910" t="s">
         <v>240</v>
       </c>
-      <c r="L186" s="884"/>
-      <c r="M186" s="887"/>
+      <c r="L186" s="911"/>
+      <c r="M186" s="913"/>
       <c r="O186" s="161"/>
       <c r="P186" s="162" t="s">
         <v>246</v>
@@ -30618,11 +30627,11 @@
         <v>238</v>
       </c>
       <c r="G250" s="68"/>
-      <c r="H250" s="883" t="s">
+      <c r="H250" s="910" t="s">
         <v>296</v>
       </c>
-      <c r="I250" s="884"/>
-      <c r="J250" s="885"/>
+      <c r="I250" s="911"/>
+      <c r="J250" s="912"/>
       <c r="K250" s="68"/>
       <c r="L250" s="68"/>
       <c r="M250" s="69"/>
@@ -32824,11 +32833,11 @@
       <c r="H291" s="267" t="s">
         <v>331</v>
       </c>
-      <c r="I291" s="880" t="str">
+      <c r="I291" s="908" t="str">
         <f>IF(S367="","",S367)</f>
         <v/>
       </c>
-      <c r="J291" s="880"/>
+      <c r="J291" s="908"/>
       <c r="K291" s="59"/>
       <c r="L291" s="59"/>
       <c r="M291" s="61"/>
@@ -32875,11 +32884,11 @@
       <c r="H292" s="162" t="s">
         <v>333</v>
       </c>
-      <c r="I292" s="881" t="str">
+      <c r="I292" s="909" t="str">
         <f>IF(S368="","",S368)</f>
         <v/>
       </c>
-      <c r="J292" s="881"/>
+      <c r="J292" s="909"/>
       <c r="K292" s="4"/>
       <c r="M292" s="69"/>
       <c r="O292" s="462"/>
@@ -36864,7 +36873,7 @@
       <c r="L371" s="68"/>
       <c r="M371" s="69"/>
       <c r="O371" s="30"/>
-      <c r="P371" s="911" t="str">
+      <c r="P371" s="880" t="str">
         <f>AK10&amp;"/"&amp;AL10</f>
         <v>/</v>
       </c>
@@ -36923,7 +36932,7 @@
       <c r="L372" s="68"/>
       <c r="M372" s="69"/>
       <c r="O372" s="30"/>
-      <c r="P372" s="912"/>
+      <c r="P372" s="881"/>
       <c r="Q372" s="308">
         <f>AH18</f>
         <v>25</v>
@@ -36977,7 +36986,7 @@
       <c r="L373" s="68"/>
       <c r="M373" s="69"/>
       <c r="O373" s="30"/>
-      <c r="P373" s="912"/>
+      <c r="P373" s="881"/>
       <c r="Q373" s="307">
         <f>AH26</f>
         <v>26</v>
@@ -37040,7 +37049,7 @@
       <c r="L374"/>
       <c r="M374" s="69"/>
       <c r="O374" s="30"/>
-      <c r="P374" s="912"/>
+      <c r="P374" s="881"/>
       <c r="Q374" s="307">
         <f>AH28</f>
         <v>28</v>
@@ -37103,7 +37112,7 @@
       <c r="L375"/>
       <c r="M375" s="69"/>
       <c r="O375" s="30"/>
-      <c r="P375" s="912"/>
+      <c r="P375" s="881"/>
       <c r="Q375" s="307">
         <f>AH40</f>
         <v>30</v>
@@ -37166,7 +37175,7 @@
       <c r="L376"/>
       <c r="M376" s="69"/>
       <c r="O376" s="30"/>
-      <c r="P376" s="912"/>
+      <c r="P376" s="881"/>
       <c r="Q376" s="307">
         <f>AH41</f>
         <v>32</v>
@@ -37229,7 +37238,7 @@
       <c r="L377"/>
       <c r="M377" s="69"/>
       <c r="O377" s="30"/>
-      <c r="P377" s="913"/>
+      <c r="P377" s="882"/>
       <c r="Q377" s="307">
         <f>AH49</f>
         <v>34</v>
@@ -37292,7 +37301,7 @@
       <c r="L378"/>
       <c r="M378" s="69"/>
       <c r="O378" s="30"/>
-      <c r="P378" s="908" t="str">
+      <c r="P378" s="876" t="str">
         <f>AK57&amp;"/"&amp;AL57</f>
         <v>/</v>
       </c>
@@ -37351,7 +37360,7 @@
       <c r="L379"/>
       <c r="M379" s="69"/>
       <c r="O379" s="161"/>
-      <c r="P379" s="909"/>
+      <c r="P379" s="877"/>
       <c r="Q379" s="307">
         <f>AH65</f>
         <v>30</v>
@@ -37393,7 +37402,7 @@
       <c r="B380" s="67"/>
       <c r="M380" s="69"/>
       <c r="O380" s="30"/>
-      <c r="P380" s="909"/>
+      <c r="P380" s="877"/>
       <c r="Q380" s="307">
         <f>AH73</f>
         <v>32</v>
@@ -37447,7 +37456,7 @@
       <c r="L381" s="68"/>
       <c r="M381" s="69"/>
       <c r="O381" s="30"/>
-      <c r="P381" s="909"/>
+      <c r="P381" s="877"/>
       <c r="Q381" s="307">
         <f>AH81</f>
         <v>34</v>
@@ -37514,7 +37523,7 @@
       </c>
       <c r="M382" s="69"/>
       <c r="O382" s="30"/>
-      <c r="P382" s="909"/>
+      <c r="P382" s="877"/>
       <c r="Q382" s="307">
         <f t="shared" ref="Q382:R384" si="66">AH89</f>
         <v>36</v>
@@ -37588,7 +37597,7 @@
       </c>
       <c r="M383" s="69"/>
       <c r="O383" s="30"/>
-      <c r="P383" s="910"/>
+      <c r="P383" s="878"/>
       <c r="Q383" s="307">
         <f t="shared" si="66"/>
         <v>38</v>
@@ -37662,7 +37671,7 @@
       </c>
       <c r="M384" s="69"/>
       <c r="O384" s="30"/>
-      <c r="P384" s="908" t="str">
+      <c r="P384" s="876" t="str">
         <f>AK91&amp;"/"&amp;AL91</f>
         <v>/</v>
       </c>
@@ -37722,7 +37731,7 @@
       <c r="L385" s="68"/>
       <c r="M385" s="69"/>
       <c r="O385" s="30"/>
-      <c r="P385" s="909"/>
+      <c r="P385" s="877"/>
       <c r="Q385" s="308">
         <f>AH101</f>
         <v>30</v>
@@ -37778,7 +37787,7 @@
       <c r="L386" s="68"/>
       <c r="M386" s="69"/>
       <c r="O386" s="30"/>
-      <c r="P386" s="909"/>
+      <c r="P386" s="877"/>
       <c r="Q386" s="307">
         <f>AH109</f>
         <v>32</v>
@@ -37832,7 +37841,7 @@
       <c r="L387" s="68"/>
       <c r="M387" s="69"/>
       <c r="O387" s="30"/>
-      <c r="P387" s="909"/>
+      <c r="P387" s="877"/>
       <c r="Q387" s="307">
         <f>AH117</f>
         <v>34</v>
@@ -37884,7 +37893,7 @@
       <c r="L388" s="68"/>
       <c r="M388" s="69"/>
       <c r="O388" s="30"/>
-      <c r="P388" s="910"/>
+      <c r="P388" s="878"/>
       <c r="Q388" s="307">
         <f>AH125</f>
         <v>38</v>
@@ -39372,11 +39381,11 @@
       <c r="P420" s="681" t="s">
         <v>353</v>
       </c>
-      <c r="Q420" s="876" t="s">
+      <c r="Q420" s="905" t="s">
         <v>354</v>
       </c>
-      <c r="R420" s="877"/>
-      <c r="S420" s="878"/>
+      <c r="R420" s="906"/>
+      <c r="S420" s="907"/>
       <c r="T420"/>
       <c r="U420"/>
       <c r="V420"/>
@@ -42070,50 +42079,6 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="P378:P383"/>
-    <mergeCell ref="P384:P388"/>
-    <mergeCell ref="Q194:S194"/>
-    <mergeCell ref="U194:W194"/>
-    <mergeCell ref="U245:W245"/>
-    <mergeCell ref="S369:W369"/>
-    <mergeCell ref="P371:P377"/>
-    <mergeCell ref="P129:R130"/>
-    <mergeCell ref="S129:U130"/>
-    <mergeCell ref="V129:X130"/>
-    <mergeCell ref="P173:S173"/>
-    <mergeCell ref="Q182:S182"/>
-    <mergeCell ref="U182:W182"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P121:R122"/>
-    <mergeCell ref="V121:X122"/>
-    <mergeCell ref="S121:U122"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K24:L24"/>
     <mergeCell ref="Q420:S420"/>
     <mergeCell ref="F294:H294"/>
     <mergeCell ref="I291:J291"/>
@@ -42130,6 +42095,50 @@
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P121:R122"/>
+    <mergeCell ref="V121:X122"/>
+    <mergeCell ref="S121:U122"/>
+    <mergeCell ref="P129:R130"/>
+    <mergeCell ref="S129:U130"/>
+    <mergeCell ref="V129:X130"/>
+    <mergeCell ref="P173:S173"/>
+    <mergeCell ref="Q182:S182"/>
+    <mergeCell ref="U182:W182"/>
+    <mergeCell ref="P378:P383"/>
+    <mergeCell ref="P384:P388"/>
+    <mergeCell ref="Q194:S194"/>
+    <mergeCell ref="U194:W194"/>
+    <mergeCell ref="U245:W245"/>
+    <mergeCell ref="S369:W369"/>
+    <mergeCell ref="P371:P377"/>
   </mergeCells>
   <conditionalFormatting sqref="Q260:S260">
     <cfRule type="cellIs" dxfId="71" priority="108" stopIfTrue="1" operator="equal">
@@ -44236,10 +44245,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -44250,6 +44259,15 @@
       </c>
       <c r="B1" t="s">
         <v>764</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="921" t="s">
+        <v>765</v>
+      </c>
+      <c r="B2" s="922" t="str">
+        <f>Sheet1!F13</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -47955,11 +47973,11 @@
       <c r="L62" s="727" t="s">
         <v>335</v>
       </c>
-      <c r="O62" s="886"/>
-      <c r="P62" s="886"/>
-      <c r="Q62" s="886"/>
-      <c r="R62" s="886"/>
-      <c r="S62" s="886"/>
+      <c r="O62" s="895"/>
+      <c r="P62" s="895"/>
+      <c r="Q62" s="895"/>
+      <c r="R62" s="895"/>
+      <c r="S62" s="895"/>
     </row>
     <row r="63" spans="1:19" ht="14.1" customHeight="1">
       <c r="A63" s="727" t="str">

--- a/MUSCMammoSiemens.xlsx
+++ b/MUSCMammoSiemens.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="819">
   <si>
     <t>Print Area</t>
   </si>
@@ -3333,6 +3333,45 @@
   <si>
     <t>Reject/Repeat rate should not change by more than 2% from the previous test.</t>
   </si>
+  <si>
+    <t>MUSC Health East Cooper</t>
+  </si>
+  <si>
+    <t>Radiology</t>
+  </si>
+  <si>
+    <t>Mammography</t>
+  </si>
+  <si>
+    <t>1C07</t>
+  </si>
+  <si>
+    <t>400-392781</t>
+  </si>
+  <si>
+    <t>SBB</t>
+  </si>
+  <si>
+    <t>Mammotest</t>
+  </si>
+  <si>
+    <t>Varian</t>
+  </si>
+  <si>
+    <t>M-147SP</t>
+  </si>
+  <si>
+    <t>19420-W1</t>
+  </si>
+  <si>
+    <t>B-110</t>
+  </si>
+  <si>
+    <t>H19420</t>
+  </si>
+  <si>
+    <t>MTP1C07_2018</t>
+  </si>
 </sst>
 </file>
 
@@ -3351,7 +3390,7 @@
     <numFmt numFmtId="173" formatCode="mmm/yyyy"/>
     <numFmt numFmtId="174" formatCode="#"/>
     <numFmt numFmtId="175" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="[$-409]dd/mmm/yy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]dd/mmm/yy;@"/>
   </numFmts>
   <fonts count="74">
     <font>
@@ -9135,6 +9174,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="188" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="189" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="7" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="190" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="7" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="190" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="73" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9417,6 +9504,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="191" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="193" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="195" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="196" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9426,15 +9540,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -9464,72 +9569,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="188" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="189" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="7" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="190" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="7" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="191" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="193" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="190" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="73" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="195" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="196" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -9547,7 +9586,7 @@
     <cellStyle name="Result" xfId="7"/>
     <cellStyle name="Result2" xfId="8"/>
   </cellStyles>
-  <dxfs count="464">
+  <dxfs count="128">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10759,3294 +10798,6 @@
         <color indexed="10"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF4040"/>
-          <bgColor rgb="FFFF4040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF4040"/>
-          <bgColor rgb="FFFF4040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF4040"/>
-          <bgColor rgb="FFFF4040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF4040"/>
-          <bgColor rgb="FFFF4040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF4040"/>
-          <bgColor rgb="FFFF4040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF4040"/>
-          <bgColor rgb="FFFF4040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF4040"/>
-          <bgColor rgb="FFFF4040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF4040"/>
-          <bgColor rgb="FFFF4040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF4040"/>
-          <bgColor rgb="FFFF4040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF4040"/>
-          <bgColor rgb="FFFF4040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF4040"/>
-          <bgColor rgb="FFFF4040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF4040"/>
-          <bgColor rgb="FFFF4040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF4040"/>
-          <bgColor rgb="FFFF4040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF4040"/>
-          <bgColor rgb="FFFF4040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF4040"/>
-          <bgColor rgb="FFFF4040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF4040"/>
-          <bgColor rgb="FFFF4040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF4040"/>
-          <bgColor rgb="FFFF4040"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF4040"/>
-          <bgColor rgb="FFFF4040"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -14113,7 +10864,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14158,7 +10908,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>/</c:v>
+                  <c:v>Mo/Mo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14257,7 +11007,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>/</c:v>
+                  <c:v>Mo/</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14482,7 +11232,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14602,7 +11351,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14683,7 +11431,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16434,7 +13181,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>/</c:v>
+                  <c:v>Mo/Mo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16581,7 +13328,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>/</c:v>
+                  <c:v>Mo/</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17250,7 +13997,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>/</c:v>
+                  <c:v>Mo/Mo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17397,7 +14144,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>/</c:v>
+                  <c:v>Mo/</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -30348,40 +27095,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="880" t="s">
+      <c r="A1" s="896" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="880"/>
-      <c r="C1" s="880"/>
-      <c r="D1" s="880"/>
-      <c r="E1" s="880"/>
-      <c r="F1" s="880"/>
-      <c r="G1" s="880"/>
-      <c r="H1" s="880"/>
-      <c r="I1" s="880"/>
-      <c r="J1" s="880"/>
-      <c r="K1" s="880"/>
-      <c r="L1" s="880"/>
-      <c r="M1" s="880"/>
-      <c r="N1" s="880"/>
+      <c r="B1" s="896"/>
+      <c r="C1" s="896"/>
+      <c r="D1" s="896"/>
+      <c r="E1" s="896"/>
+      <c r="F1" s="896"/>
+      <c r="G1" s="896"/>
+      <c r="H1" s="896"/>
+      <c r="I1" s="896"/>
+      <c r="J1" s="896"/>
+      <c r="K1" s="896"/>
+      <c r="L1" s="896"/>
+      <c r="M1" s="896"/>
+      <c r="N1" s="896"/>
     </row>
     <row r="2" spans="1:14" ht="26.25">
-      <c r="A2" s="880" t="s">
+      <c r="A2" s="896" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="880"/>
-      <c r="C2" s="880"/>
-      <c r="D2" s="880"/>
-      <c r="E2" s="880"/>
-      <c r="F2" s="880"/>
-      <c r="G2" s="880"/>
-      <c r="H2" s="880"/>
-      <c r="I2" s="880"/>
-      <c r="J2" s="880"/>
-      <c r="K2" s="880"/>
-      <c r="L2" s="880"/>
-      <c r="M2" s="880"/>
-      <c r="N2" s="880"/>
+      <c r="B2" s="896"/>
+      <c r="C2" s="896"/>
+      <c r="D2" s="896"/>
+      <c r="E2" s="896"/>
+      <c r="F2" s="896"/>
+      <c r="G2" s="896"/>
+      <c r="H2" s="896"/>
+      <c r="I2" s="896"/>
+      <c r="J2" s="896"/>
+      <c r="K2" s="896"/>
+      <c r="L2" s="896"/>
+      <c r="M2" s="896"/>
+      <c r="N2" s="896"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1">
       <c r="A3" s="777"/>
@@ -30404,38 +27151,38 @@
         <v>375</v>
       </c>
       <c r="B4" s="512"/>
-      <c r="C4" s="881"/>
-      <c r="D4" s="882"/>
-      <c r="E4" s="882"/>
-      <c r="F4" s="882"/>
-      <c r="G4" s="882"/>
-      <c r="H4" s="883"/>
+      <c r="C4" s="897"/>
+      <c r="D4" s="898"/>
+      <c r="E4" s="898"/>
+      <c r="F4" s="898"/>
+      <c r="G4" s="898"/>
+      <c r="H4" s="899"/>
       <c r="J4" s="531"/>
       <c r="K4" s="530" t="s">
         <v>376</v>
       </c>
-      <c r="L4" s="884"/>
-      <c r="M4" s="885"/>
-      <c r="N4" s="886"/>
+      <c r="L4" s="900"/>
+      <c r="M4" s="901"/>
+      <c r="N4" s="902"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1">
       <c r="A5" s="512" t="s">
         <v>377</v>
       </c>
       <c r="B5" s="512"/>
-      <c r="C5" s="881"/>
-      <c r="D5" s="882"/>
-      <c r="E5" s="882"/>
-      <c r="F5" s="882"/>
-      <c r="G5" s="882"/>
-      <c r="H5" s="883"/>
+      <c r="C5" s="897"/>
+      <c r="D5" s="898"/>
+      <c r="E5" s="898"/>
+      <c r="F5" s="898"/>
+      <c r="G5" s="898"/>
+      <c r="H5" s="899"/>
       <c r="J5" s="531"/>
       <c r="K5" s="530" t="s">
         <v>378</v>
       </c>
-      <c r="L5" s="884"/>
-      <c r="M5" s="885"/>
-      <c r="N5" s="886"/>
+      <c r="L5" s="900"/>
+      <c r="M5" s="901"/>
+      <c r="N5" s="902"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1">
       <c r="A6" s="512" t="s">
@@ -30444,19 +27191,19 @@
       <c r="B6" s="512"/>
       <c r="C6" s="512"/>
       <c r="D6" s="512"/>
-      <c r="E6" s="892" t="s">
+      <c r="E6" s="908" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="892"/>
-      <c r="G6" s="892"/>
-      <c r="H6" s="892"/>
+      <c r="F6" s="908"/>
+      <c r="G6" s="908"/>
+      <c r="H6" s="908"/>
       <c r="J6" s="531"/>
       <c r="K6" s="530" t="s">
         <v>380</v>
       </c>
-      <c r="L6" s="881"/>
-      <c r="M6" s="882"/>
-      <c r="N6" s="883"/>
+      <c r="L6" s="897"/>
+      <c r="M6" s="898"/>
+      <c r="N6" s="899"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1">
       <c r="A7" s="512" t="s">
@@ -30465,21 +27212,21 @@
       <c r="B7" s="512"/>
       <c r="C7" s="512"/>
       <c r="D7" s="512"/>
-      <c r="E7" s="881" t="s">
+      <c r="E7" s="897" t="s">
         <v>382</v>
       </c>
-      <c r="F7" s="882"/>
-      <c r="G7" s="882"/>
-      <c r="H7" s="883"/>
+      <c r="F7" s="898"/>
+      <c r="G7" s="898"/>
+      <c r="H7" s="899"/>
       <c r="J7" s="531"/>
       <c r="K7" s="530" t="s">
         <v>383</v>
       </c>
-      <c r="L7" s="881" t="s">
+      <c r="L7" s="897" t="s">
         <v>771</v>
       </c>
-      <c r="M7" s="882"/>
-      <c r="N7" s="883"/>
+      <c r="M7" s="898"/>
+      <c r="N7" s="899"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1">
       <c r="A8" s="512" t="s">
@@ -30488,17 +27235,17 @@
       <c r="B8" s="512"/>
       <c r="C8" s="512"/>
       <c r="D8" s="512"/>
-      <c r="E8" s="893"/>
-      <c r="F8" s="894"/>
-      <c r="G8" s="894"/>
-      <c r="H8" s="895"/>
+      <c r="E8" s="909"/>
+      <c r="F8" s="910"/>
+      <c r="G8" s="910"/>
+      <c r="H8" s="911"/>
       <c r="J8" s="531"/>
       <c r="K8" s="530" t="s">
         <v>385</v>
       </c>
-      <c r="L8" s="881"/>
-      <c r="M8" s="882"/>
-      <c r="N8" s="883"/>
+      <c r="L8" s="897"/>
+      <c r="M8" s="898"/>
+      <c r="N8" s="899"/>
     </row>
     <row r="9" spans="1:14" ht="11.25" customHeight="1">
       <c r="A9" s="512"/>
@@ -30519,12 +27266,12 @@
       <c r="A10" s="524" t="s">
         <v>547</v>
       </c>
-      <c r="E10" s="896" t="s">
+      <c r="E10" s="912" t="s">
         <v>623</v>
       </c>
-      <c r="F10" s="897"/>
-      <c r="G10" s="897"/>
-      <c r="H10" s="898"/>
+      <c r="F10" s="913"/>
+      <c r="G10" s="913"/>
+      <c r="H10" s="914"/>
       <c r="I10" s="528" t="s">
         <v>546</v>
       </c>
@@ -30549,24 +27296,24 @@
       <c r="B12" s="512"/>
       <c r="C12" s="512"/>
       <c r="D12" s="512"/>
-      <c r="E12" s="899" t="s">
+      <c r="E12" s="915" t="s">
         <v>388</v>
       </c>
-      <c r="F12" s="900"/>
-      <c r="G12" s="899" t="s">
+      <c r="F12" s="916"/>
+      <c r="G12" s="915" t="s">
         <v>383</v>
       </c>
-      <c r="H12" s="900"/>
-      <c r="I12" s="899" t="s">
+      <c r="H12" s="916"/>
+      <c r="I12" s="915" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="900"/>
-      <c r="K12" s="899" t="s">
+      <c r="J12" s="916"/>
+      <c r="K12" s="915" t="s">
         <v>386</v>
       </c>
-      <c r="L12" s="901"/>
-      <c r="M12" s="901"/>
-      <c r="N12" s="900"/>
+      <c r="L12" s="917"/>
+      <c r="M12" s="917"/>
+      <c r="N12" s="916"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" thickTop="1">
       <c r="A13" s="512"/>
@@ -30575,55 +27322,55 @@
       <c r="D13" s="518" t="s">
         <v>389</v>
       </c>
-      <c r="E13" s="887" t="s">
+      <c r="E13" s="903" t="s">
         <v>773</v>
       </c>
-      <c r="F13" s="888"/>
-      <c r="G13" s="887" t="s">
+      <c r="F13" s="904"/>
+      <c r="G13" s="903" t="s">
         <v>774</v>
       </c>
-      <c r="H13" s="888"/>
-      <c r="I13" s="889"/>
-      <c r="J13" s="890"/>
-      <c r="K13" s="887" t="s">
+      <c r="H13" s="904"/>
+      <c r="I13" s="905"/>
+      <c r="J13" s="906"/>
+      <c r="K13" s="903" t="s">
         <v>775</v>
       </c>
-      <c r="L13" s="891"/>
-      <c r="M13" s="891"/>
-      <c r="N13" s="888"/>
+      <c r="L13" s="907"/>
+      <c r="M13" s="907"/>
+      <c r="N13" s="904"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="D14" s="518" t="s">
         <v>390</v>
       </c>
-      <c r="E14" s="904"/>
-      <c r="F14" s="905"/>
-      <c r="G14" s="904"/>
-      <c r="H14" s="905"/>
-      <c r="I14" s="906"/>
-      <c r="J14" s="907"/>
-      <c r="K14" s="904"/>
-      <c r="L14" s="908"/>
-      <c r="M14" s="908"/>
-      <c r="N14" s="905"/>
+      <c r="E14" s="920"/>
+      <c r="F14" s="921"/>
+      <c r="G14" s="920"/>
+      <c r="H14" s="921"/>
+      <c r="I14" s="922"/>
+      <c r="J14" s="923"/>
+      <c r="K14" s="920"/>
+      <c r="L14" s="924"/>
+      <c r="M14" s="924"/>
+      <c r="N14" s="921"/>
     </row>
     <row r="15" spans="1:14" s="525" customFormat="1" ht="36" customHeight="1">
-      <c r="A15" s="909" t="s">
+      <c r="A15" s="925" t="s">
         <v>734</v>
       </c>
-      <c r="B15" s="909"/>
-      <c r="C15" s="909"/>
-      <c r="D15" s="909"/>
-      <c r="E15" s="909"/>
-      <c r="F15" s="909"/>
-      <c r="G15" s="909"/>
-      <c r="H15" s="909"/>
-      <c r="I15" s="909"/>
-      <c r="J15" s="909"/>
-      <c r="K15" s="909"/>
-      <c r="L15" s="909"/>
-      <c r="M15" s="909"/>
-      <c r="N15" s="909"/>
+      <c r="B15" s="925"/>
+      <c r="C15" s="925"/>
+      <c r="D15" s="925"/>
+      <c r="E15" s="925"/>
+      <c r="F15" s="925"/>
+      <c r="G15" s="925"/>
+      <c r="H15" s="925"/>
+      <c r="I15" s="925"/>
+      <c r="J15" s="925"/>
+      <c r="K15" s="925"/>
+      <c r="L15" s="925"/>
+      <c r="M15" s="925"/>
+      <c r="N15" s="925"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1">
       <c r="A16" s="524" t="s">
@@ -30685,40 +27432,40 @@
       <c r="M18" s="513"/>
     </row>
     <row r="19" spans="1:15" ht="21" customHeight="1">
-      <c r="A19" s="910" t="s">
+      <c r="A19" s="926" t="s">
         <v>393</v>
       </c>
-      <c r="B19" s="910"/>
-      <c r="C19" s="910"/>
-      <c r="D19" s="910"/>
-      <c r="E19" s="910"/>
-      <c r="F19" s="910"/>
-      <c r="G19" s="910"/>
-      <c r="H19" s="910"/>
-      <c r="I19" s="910"/>
-      <c r="J19" s="910"/>
-      <c r="K19" s="910"/>
-      <c r="L19" s="910"/>
-      <c r="M19" s="910"/>
-      <c r="N19" s="910"/>
+      <c r="B19" s="926"/>
+      <c r="C19" s="926"/>
+      <c r="D19" s="926"/>
+      <c r="E19" s="926"/>
+      <c r="F19" s="926"/>
+      <c r="G19" s="926"/>
+      <c r="H19" s="926"/>
+      <c r="I19" s="926"/>
+      <c r="J19" s="926"/>
+      <c r="K19" s="926"/>
+      <c r="L19" s="926"/>
+      <c r="M19" s="926"/>
+      <c r="N19" s="926"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="902" t="s">
+      <c r="A20" s="918" t="s">
         <v>545</v>
       </c>
-      <c r="B20" s="902"/>
-      <c r="C20" s="902"/>
-      <c r="D20" s="902"/>
-      <c r="E20" s="902"/>
-      <c r="F20" s="902"/>
-      <c r="G20" s="902"/>
-      <c r="H20" s="902"/>
-      <c r="I20" s="902"/>
-      <c r="J20" s="902"/>
-      <c r="K20" s="902"/>
-      <c r="L20" s="902"/>
-      <c r="M20" s="902"/>
-      <c r="N20" s="902"/>
+      <c r="B20" s="918"/>
+      <c r="C20" s="918"/>
+      <c r="D20" s="918"/>
+      <c r="E20" s="918"/>
+      <c r="F20" s="918"/>
+      <c r="G20" s="918"/>
+      <c r="H20" s="918"/>
+      <c r="I20" s="918"/>
+      <c r="J20" s="918"/>
+      <c r="K20" s="918"/>
+      <c r="L20" s="918"/>
+      <c r="M20" s="918"/>
+      <c r="N20" s="918"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="512"/>
@@ -31324,22 +28071,22 @@
       <c r="M51" s="500"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A52" s="903" t="s">
+      <c r="A52" s="919" t="s">
         <v>540</v>
       </c>
-      <c r="B52" s="903"/>
-      <c r="C52" s="903"/>
-      <c r="D52" s="903"/>
-      <c r="E52" s="903"/>
-      <c r="F52" s="903"/>
-      <c r="G52" s="903"/>
-      <c r="H52" s="903"/>
-      <c r="I52" s="903"/>
-      <c r="J52" s="903"/>
-      <c r="K52" s="903"/>
-      <c r="L52" s="903"/>
-      <c r="M52" s="903"/>
-      <c r="N52" s="903"/>
+      <c r="B52" s="919"/>
+      <c r="C52" s="919"/>
+      <c r="D52" s="919"/>
+      <c r="E52" s="919"/>
+      <c r="F52" s="919"/>
+      <c r="G52" s="919"/>
+      <c r="H52" s="919"/>
+      <c r="I52" s="919"/>
+      <c r="J52" s="919"/>
+      <c r="K52" s="919"/>
+      <c r="L52" s="919"/>
+      <c r="M52" s="919"/>
+      <c r="N52" s="919"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -31685,19 +28432,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="913" t="s">
+      <c r="A1" s="929" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="913"/>
-      <c r="C1" s="913"/>
-      <c r="D1" s="913"/>
-      <c r="E1" s="913"/>
-      <c r="F1" s="913"/>
-      <c r="G1" s="913"/>
-      <c r="H1" s="913"/>
-      <c r="I1" s="913"/>
-      <c r="J1" s="913"/>
-      <c r="K1" s="913"/>
+      <c r="B1" s="929"/>
+      <c r="C1" s="929"/>
+      <c r="D1" s="929"/>
+      <c r="E1" s="929"/>
+      <c r="F1" s="929"/>
+      <c r="G1" s="929"/>
+      <c r="H1" s="929"/>
+      <c r="I1" s="929"/>
+      <c r="J1" s="929"/>
+      <c r="K1" s="929"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
       <c r="A2" s="560" t="s">
@@ -31731,19 +28478,19 @@
       <c r="K4" s="555"/>
     </row>
     <row r="5" spans="1:12" ht="42" customHeight="1">
-      <c r="A5" s="914" t="s">
+      <c r="A5" s="930" t="s">
         <v>552</v>
       </c>
-      <c r="B5" s="914"/>
-      <c r="C5" s="914"/>
-      <c r="D5" s="914"/>
-      <c r="E5" s="914"/>
-      <c r="F5" s="914"/>
-      <c r="G5" s="914"/>
-      <c r="H5" s="914"/>
-      <c r="I5" s="914"/>
-      <c r="J5" s="914"/>
-      <c r="K5" s="914"/>
+      <c r="B5" s="930"/>
+      <c r="C5" s="930"/>
+      <c r="D5" s="930"/>
+      <c r="E5" s="930"/>
+      <c r="F5" s="930"/>
+      <c r="G5" s="930"/>
+      <c r="H5" s="930"/>
+      <c r="I5" s="930"/>
+      <c r="J5" s="930"/>
+      <c r="K5" s="930"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="554" t="s">
@@ -31776,8 +28523,8 @@
       <c r="K7" s="549"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="J8" s="915"/>
-      <c r="K8" s="915"/>
+      <c r="J8" s="931"/>
+      <c r="K8" s="931"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="535"/>
@@ -31786,10 +28533,10 @@
         <v>400</v>
       </c>
       <c r="I9" s="548"/>
-      <c r="J9" s="916" t="s">
+      <c r="J9" s="932" t="s">
         <v>394</v>
       </c>
-      <c r="K9" s="916"/>
+      <c r="K9" s="932"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="547" t="s">
@@ -31805,8 +28552,8 @@
       <c r="I10" s="793" t="s">
         <v>759</v>
       </c>
-      <c r="J10" s="911"/>
-      <c r="K10" s="912"/>
+      <c r="J10" s="927"/>
+      <c r="K10" s="928"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="542" t="s">
@@ -31820,8 +28567,8 @@
       <c r="H11" s="543" t="s">
         <v>407</v>
       </c>
-      <c r="J11" s="911"/>
-      <c r="K11" s="912"/>
+      <c r="J11" s="927"/>
+      <c r="K11" s="928"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="547" t="s">
@@ -31835,8 +28582,8 @@
       <c r="H12" s="543" t="s">
         <v>407</v>
       </c>
-      <c r="J12" s="911"/>
-      <c r="K12" s="912"/>
+      <c r="J12" s="927"/>
+      <c r="K12" s="928"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="542" t="s">
@@ -31851,8 +28598,8 @@
       <c r="I13" s="545" t="s">
         <v>760</v>
       </c>
-      <c r="J13" s="911"/>
-      <c r="K13" s="912"/>
+      <c r="J13" s="927"/>
+      <c r="K13" s="928"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="544" t="s">
@@ -31866,8 +28613,8 @@
       <c r="H14" s="543" t="s">
         <v>411</v>
       </c>
-      <c r="J14" s="911"/>
-      <c r="K14" s="912"/>
+      <c r="J14" s="927"/>
+      <c r="K14" s="928"/>
       <c r="L14" s="535"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
@@ -31882,8 +28629,8 @@
       <c r="H15" s="543" t="s">
         <v>414</v>
       </c>
-      <c r="J15" s="911"/>
-      <c r="K15" s="912"/>
+      <c r="J15" s="927"/>
+      <c r="K15" s="928"/>
       <c r="L15" s="535"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
@@ -31914,8 +28661,8 @@
       <c r="H17" s="543" t="s">
         <v>416</v>
       </c>
-      <c r="J17" s="911"/>
-      <c r="K17" s="912"/>
+      <c r="J17" s="927"/>
+      <c r="K17" s="928"/>
       <c r="L17" s="535"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
@@ -31930,8 +28677,8 @@
         <v>418</v>
       </c>
       <c r="I18" s="499"/>
-      <c r="J18" s="911"/>
-      <c r="K18" s="912"/>
+      <c r="J18" s="927"/>
+      <c r="K18" s="928"/>
       <c r="L18" s="539"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
@@ -31946,8 +28693,8 @@
         <v>768</v>
       </c>
       <c r="I19" s="499"/>
-      <c r="J19" s="911"/>
-      <c r="K19" s="912"/>
+      <c r="J19" s="927"/>
+      <c r="K19" s="928"/>
       <c r="L19" s="539"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
@@ -31960,19 +28707,19 @@
       <c r="L20" s="535"/>
     </row>
     <row r="21" spans="1:12" ht="24" customHeight="1">
-      <c r="A21" s="917" t="s">
+      <c r="A21" s="933" t="s">
         <v>419</v>
       </c>
-      <c r="B21" s="917"/>
-      <c r="C21" s="917"/>
-      <c r="D21" s="917"/>
-      <c r="E21" s="917"/>
-      <c r="F21" s="917"/>
-      <c r="G21" s="917"/>
-      <c r="H21" s="917"/>
-      <c r="I21" s="917"/>
-      <c r="J21" s="917"/>
-      <c r="K21" s="917"/>
+      <c r="B21" s="933"/>
+      <c r="C21" s="933"/>
+      <c r="D21" s="933"/>
+      <c r="E21" s="933"/>
+      <c r="F21" s="933"/>
+      <c r="G21" s="933"/>
+      <c r="H21" s="933"/>
+      <c r="I21" s="933"/>
+      <c r="J21" s="933"/>
+      <c r="K21" s="933"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="534"/>
@@ -31988,123 +28735,123 @@
       <c r="K22" s="533"/>
     </row>
     <row r="23" spans="1:12" ht="290.25" customHeight="1">
-      <c r="A23" s="918"/>
-      <c r="B23" s="919"/>
-      <c r="C23" s="919"/>
-      <c r="D23" s="919"/>
-      <c r="E23" s="919"/>
-      <c r="F23" s="919"/>
-      <c r="G23" s="919"/>
-      <c r="H23" s="919"/>
-      <c r="I23" s="919"/>
-      <c r="J23" s="919"/>
-      <c r="K23" s="920"/>
+      <c r="A23" s="934"/>
+      <c r="B23" s="935"/>
+      <c r="C23" s="935"/>
+      <c r="D23" s="935"/>
+      <c r="E23" s="935"/>
+      <c r="F23" s="935"/>
+      <c r="G23" s="935"/>
+      <c r="H23" s="935"/>
+      <c r="I23" s="935"/>
+      <c r="J23" s="935"/>
+      <c r="K23" s="936"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="921"/>
-      <c r="B24" s="921"/>
-      <c r="C24" s="921"/>
-      <c r="D24" s="921"/>
-      <c r="E24" s="921"/>
-      <c r="F24" s="921"/>
-      <c r="G24" s="921"/>
-      <c r="H24" s="921"/>
-      <c r="I24" s="921"/>
-      <c r="J24" s="921"/>
-      <c r="K24" s="921"/>
+      <c r="A24" s="937"/>
+      <c r="B24" s="937"/>
+      <c r="C24" s="937"/>
+      <c r="D24" s="937"/>
+      <c r="E24" s="937"/>
+      <c r="F24" s="937"/>
+      <c r="G24" s="937"/>
+      <c r="H24" s="937"/>
+      <c r="I24" s="937"/>
+      <c r="J24" s="937"/>
+      <c r="K24" s="937"/>
     </row>
     <row r="25" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A25" s="922"/>
-      <c r="B25" s="922"/>
-      <c r="C25" s="922"/>
-      <c r="D25" s="922"/>
-      <c r="E25" s="922"/>
-      <c r="F25" s="922"/>
-      <c r="G25" s="922"/>
-      <c r="H25" s="922"/>
-      <c r="I25" s="922"/>
-      <c r="J25" s="922"/>
-      <c r="K25" s="922"/>
+      <c r="A25" s="938"/>
+      <c r="B25" s="938"/>
+      <c r="C25" s="938"/>
+      <c r="D25" s="938"/>
+      <c r="E25" s="938"/>
+      <c r="F25" s="938"/>
+      <c r="G25" s="938"/>
+      <c r="H25" s="938"/>
+      <c r="I25" s="938"/>
+      <c r="J25" s="938"/>
+      <c r="K25" s="938"/>
     </row>
     <row r="26" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A26" s="922"/>
-      <c r="B26" s="922"/>
-      <c r="C26" s="922"/>
-      <c r="D26" s="922"/>
-      <c r="E26" s="922"/>
-      <c r="F26" s="922"/>
-      <c r="G26" s="922"/>
-      <c r="H26" s="922"/>
-      <c r="I26" s="922"/>
-      <c r="J26" s="922"/>
-      <c r="K26" s="922"/>
+      <c r="A26" s="938"/>
+      <c r="B26" s="938"/>
+      <c r="C26" s="938"/>
+      <c r="D26" s="938"/>
+      <c r="E26" s="938"/>
+      <c r="F26" s="938"/>
+      <c r="G26" s="938"/>
+      <c r="H26" s="938"/>
+      <c r="I26" s="938"/>
+      <c r="J26" s="938"/>
+      <c r="K26" s="938"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A27" s="922"/>
-      <c r="B27" s="922"/>
-      <c r="C27" s="922"/>
-      <c r="D27" s="922"/>
-      <c r="E27" s="922"/>
-      <c r="F27" s="922"/>
-      <c r="G27" s="922"/>
-      <c r="H27" s="922"/>
-      <c r="I27" s="922"/>
-      <c r="J27" s="922"/>
-      <c r="K27" s="922"/>
+      <c r="A27" s="938"/>
+      <c r="B27" s="938"/>
+      <c r="C27" s="938"/>
+      <c r="D27" s="938"/>
+      <c r="E27" s="938"/>
+      <c r="F27" s="938"/>
+      <c r="G27" s="938"/>
+      <c r="H27" s="938"/>
+      <c r="I27" s="938"/>
+      <c r="J27" s="938"/>
+      <c r="K27" s="938"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A28" s="922"/>
-      <c r="B28" s="922"/>
-      <c r="C28" s="922"/>
-      <c r="D28" s="922"/>
-      <c r="E28" s="922"/>
-      <c r="F28" s="922"/>
-      <c r="G28" s="922"/>
-      <c r="H28" s="922"/>
-      <c r="I28" s="922"/>
-      <c r="J28" s="922"/>
-      <c r="K28" s="922"/>
+      <c r="A28" s="938"/>
+      <c r="B28" s="938"/>
+      <c r="C28" s="938"/>
+      <c r="D28" s="938"/>
+      <c r="E28" s="938"/>
+      <c r="F28" s="938"/>
+      <c r="G28" s="938"/>
+      <c r="H28" s="938"/>
+      <c r="I28" s="938"/>
+      <c r="J28" s="938"/>
+      <c r="K28" s="938"/>
     </row>
     <row r="29" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A29" s="922"/>
-      <c r="B29" s="922"/>
-      <c r="C29" s="922"/>
-      <c r="D29" s="922"/>
-      <c r="E29" s="922"/>
-      <c r="F29" s="922"/>
-      <c r="G29" s="922"/>
-      <c r="H29" s="922"/>
-      <c r="I29" s="922"/>
-      <c r="J29" s="922"/>
-      <c r="K29" s="922"/>
+      <c r="A29" s="938"/>
+      <c r="B29" s="938"/>
+      <c r="C29" s="938"/>
+      <c r="D29" s="938"/>
+      <c r="E29" s="938"/>
+      <c r="F29" s="938"/>
+      <c r="G29" s="938"/>
+      <c r="H29" s="938"/>
+      <c r="I29" s="938"/>
+      <c r="J29" s="938"/>
+      <c r="K29" s="938"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A30" s="922"/>
-      <c r="B30" s="922"/>
-      <c r="C30" s="922"/>
-      <c r="D30" s="922"/>
-      <c r="E30" s="922"/>
-      <c r="F30" s="922"/>
-      <c r="G30" s="922"/>
-      <c r="H30" s="922"/>
-      <c r="I30" s="922"/>
-      <c r="J30" s="922"/>
-      <c r="K30" s="922"/>
+      <c r="A30" s="938"/>
+      <c r="B30" s="938"/>
+      <c r="C30" s="938"/>
+      <c r="D30" s="938"/>
+      <c r="E30" s="938"/>
+      <c r="F30" s="938"/>
+      <c r="G30" s="938"/>
+      <c r="H30" s="938"/>
+      <c r="I30" s="938"/>
+      <c r="J30" s="938"/>
+      <c r="K30" s="938"/>
     </row>
     <row r="31" spans="1:12" ht="201.75" customHeight="1" thickBot="1">
-      <c r="A31" s="923" t="s">
+      <c r="A31" s="939" t="s">
         <v>548</v>
       </c>
-      <c r="B31" s="924"/>
-      <c r="C31" s="924"/>
-      <c r="D31" s="924"/>
-      <c r="E31" s="924"/>
-      <c r="F31" s="924"/>
-      <c r="G31" s="924"/>
-      <c r="H31" s="924"/>
-      <c r="I31" s="924"/>
-      <c r="J31" s="924"/>
-      <c r="K31" s="925"/>
+      <c r="B31" s="940"/>
+      <c r="C31" s="940"/>
+      <c r="D31" s="940"/>
+      <c r="E31" s="940"/>
+      <c r="F31" s="940"/>
+      <c r="G31" s="940"/>
+      <c r="H31" s="940"/>
+      <c r="I31" s="940"/>
+      <c r="J31" s="940"/>
+      <c r="K31" s="941"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -32679,13 +29426,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="941" t="s">
+      <c r="A1" s="957" t="s">
         <v>647</v>
       </c>
-      <c r="B1" s="942"/>
-      <c r="C1" s="942"/>
-      <c r="D1" s="942"/>
-      <c r="E1" s="942"/>
+      <c r="B1" s="958"/>
+      <c r="C1" s="958"/>
+      <c r="D1" s="958"/>
+      <c r="E1" s="958"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="794"/>
@@ -32698,38 +29445,38 @@
       <c r="A3" s="795" t="s">
         <v>648</v>
       </c>
-      <c r="B3" s="943">
+      <c r="B3" s="959">
         <f>'QC Test Summary-Siemens'!C4</f>
         <v>0</v>
       </c>
-      <c r="C3" s="943"/>
-      <c r="D3" s="943"/>
-      <c r="E3" s="943"/>
+      <c r="C3" s="959"/>
+      <c r="D3" s="959"/>
+      <c r="E3" s="959"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="795" t="s">
         <v>649</v>
       </c>
-      <c r="B4" s="944" t="str">
+      <c r="B4" s="960" t="str">
         <f>Sheet1!R17</f>
-        <v/>
-      </c>
-      <c r="C4" s="944"/>
+        <v>Siemens</v>
+      </c>
+      <c r="C4" s="960"/>
       <c r="D4" s="796" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="797" t="str">
         <f>Sheet1!R18</f>
-        <v/>
+        <v>Mammotest</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
       <c r="A5" s="795" t="s">
         <v>650</v>
       </c>
-      <c r="B5" s="797" t="str">
+      <c r="B5" s="797">
         <f>Sheet1!V18</f>
-        <v/>
+        <v>10247</v>
       </c>
       <c r="C5" s="797"/>
       <c r="D5" s="796" t="s">
@@ -32744,31 +29491,31 @@
       <c r="A6" s="795" t="s">
         <v>652</v>
       </c>
-      <c r="B6" s="944" t="str">
+      <c r="B6" s="960" t="str">
         <f>Sheet1!X7</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="C6" s="944"/>
+      <c r="C6" s="960"/>
       <c r="D6" s="796" t="s">
         <v>653</v>
       </c>
       <c r="E6" s="798" t="str">
         <f>Sheet1!R14</f>
-        <v/>
+        <v>1C07</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">
       <c r="A7" s="795" t="s">
         <v>654</v>
       </c>
-      <c r="B7" s="944"/>
-      <c r="C7" s="944"/>
+      <c r="B7" s="960"/>
+      <c r="C7" s="960"/>
       <c r="D7" s="796" t="s">
         <v>655</v>
       </c>
       <c r="E7" s="847">
         <f>Sheet1!P7</f>
-        <v>0</v>
+        <v>43273</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21.75" customHeight="1" thickBot="1"/>
@@ -32790,7 +29537,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" thickTop="1">
-      <c r="A10" s="940" t="s">
+      <c r="A10" s="956" t="s">
         <v>660</v>
       </c>
       <c r="B10" s="803" t="s">
@@ -32805,7 +29552,7 @@
       <c r="E10" s="806"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A11" s="936"/>
+      <c r="A11" s="952"/>
       <c r="B11" s="807" t="s">
         <v>664</v>
       </c>
@@ -32818,7 +29565,7 @@
       <c r="E11" s="810"/>
     </row>
     <row r="12" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A12" s="931" t="s">
+      <c r="A12" s="947" t="s">
         <v>666</v>
       </c>
       <c r="B12" s="811" t="s">
@@ -32833,7 +29580,7 @@
       <c r="E12" s="814"/>
     </row>
     <row r="13" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A13" s="932"/>
+      <c r="A13" s="948"/>
       <c r="B13" s="815" t="s">
         <v>670</v>
       </c>
@@ -32846,7 +29593,7 @@
       <c r="E13" s="818"/>
     </row>
     <row r="14" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A14" s="933"/>
+      <c r="A14" s="949"/>
       <c r="B14" s="819" t="s">
         <v>672</v>
       </c>
@@ -32859,7 +29606,7 @@
       <c r="E14" s="821"/>
     </row>
     <row r="15" spans="1:5" ht="56.25">
-      <c r="A15" s="934" t="s">
+      <c r="A15" s="950" t="s">
         <v>674</v>
       </c>
       <c r="B15" s="822" t="s">
@@ -32874,7 +29621,7 @@
       <c r="E15" s="824"/>
     </row>
     <row r="16" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A16" s="935"/>
+      <c r="A16" s="951"/>
       <c r="B16" s="807" t="s">
         <v>677</v>
       </c>
@@ -32887,7 +29634,7 @@
       <c r="E16" s="826"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A17" s="926" t="s">
+      <c r="A17" s="942" t="s">
         <v>679</v>
       </c>
       <c r="B17" s="827" t="s">
@@ -32902,7 +29649,7 @@
       <c r="E17" s="828"/>
     </row>
     <row r="18" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A18" s="936"/>
+      <c r="A18" s="952"/>
       <c r="B18" s="829" t="s">
         <v>682</v>
       </c>
@@ -32915,7 +29662,7 @@
       <c r="E18" s="810"/>
     </row>
     <row r="19" spans="1:5" ht="33.75">
-      <c r="A19" s="937" t="s">
+      <c r="A19" s="953" t="s">
         <v>684</v>
       </c>
       <c r="B19" s="827" t="s">
@@ -32930,7 +29677,7 @@
       <c r="E19" s="828"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A20" s="938"/>
+      <c r="A20" s="954"/>
       <c r="B20" s="831" t="s">
         <v>687</v>
       </c>
@@ -32943,7 +29690,7 @@
       <c r="E20" s="833"/>
     </row>
     <row r="21" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A21" s="939"/>
+      <c r="A21" s="955"/>
       <c r="B21" s="829" t="s">
         <v>689</v>
       </c>
@@ -32956,7 +29703,7 @@
       <c r="E21" s="810"/>
     </row>
     <row r="22" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A22" s="926" t="s">
+      <c r="A22" s="942" t="s">
         <v>691</v>
       </c>
       <c r="B22" s="827" t="s">
@@ -32971,7 +29718,7 @@
       <c r="E22" s="828"/>
     </row>
     <row r="23" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A23" s="936"/>
+      <c r="A23" s="952"/>
       <c r="B23" s="807" t="s">
         <v>694</v>
       </c>
@@ -32984,7 +29731,7 @@
       <c r="E23" s="826"/>
     </row>
     <row r="24" spans="1:5" ht="33.75">
-      <c r="A24" s="937" t="s">
+      <c r="A24" s="953" t="s">
         <v>696</v>
       </c>
       <c r="B24" s="827" t="s">
@@ -32999,7 +29746,7 @@
       <c r="E24" s="828"/>
     </row>
     <row r="25" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A25" s="938"/>
+      <c r="A25" s="954"/>
       <c r="B25" s="831" t="s">
         <v>699</v>
       </c>
@@ -33012,7 +29759,7 @@
       <c r="E25" s="833"/>
     </row>
     <row r="26" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A26" s="938"/>
+      <c r="A26" s="954"/>
       <c r="B26" s="834" t="s">
         <v>701</v>
       </c>
@@ -33025,7 +29772,7 @@
       <c r="E26" s="833"/>
     </row>
     <row r="27" spans="1:5" ht="22.5">
-      <c r="A27" s="938"/>
+      <c r="A27" s="954"/>
       <c r="B27" s="834" t="s">
         <v>703</v>
       </c>
@@ -33038,7 +29785,7 @@
       <c r="E27" s="833"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A28" s="939"/>
+      <c r="A28" s="955"/>
       <c r="B28" s="835" t="s">
         <v>705</v>
       </c>
@@ -33051,7 +29798,7 @@
       <c r="E28" s="826"/>
     </row>
     <row r="29" spans="1:5" ht="22.5">
-      <c r="A29" s="926" t="s">
+      <c r="A29" s="942" t="s">
         <v>707</v>
       </c>
       <c r="B29" s="836" t="s">
@@ -33066,7 +29813,7 @@
       <c r="E29" s="828"/>
     </row>
     <row r="30" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A30" s="927"/>
+      <c r="A30" s="943"/>
       <c r="B30" s="834" t="s">
         <v>710</v>
       </c>
@@ -33079,7 +29826,7 @@
       <c r="E30" s="833"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A31" s="928"/>
+      <c r="A31" s="944"/>
       <c r="B31" s="835" t="s">
         <v>712</v>
       </c>
@@ -33092,7 +29839,7 @@
       <c r="E31" s="826"/>
     </row>
     <row r="32" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A32" s="926" t="s">
+      <c r="A32" s="942" t="s">
         <v>714</v>
       </c>
       <c r="B32" s="836" t="s">
@@ -33107,7 +29854,7 @@
       <c r="E32" s="828"/>
     </row>
     <row r="33" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A33" s="927"/>
+      <c r="A33" s="943"/>
       <c r="B33" s="834" t="s">
         <v>717</v>
       </c>
@@ -33120,7 +29867,7 @@
       <c r="E33" s="833"/>
     </row>
     <row r="34" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A34" s="928"/>
+      <c r="A34" s="944"/>
       <c r="B34" s="835" t="s">
         <v>718</v>
       </c>
@@ -33208,13 +29955,13 @@
       <c r="E39" s="810"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="929" t="s">
+      <c r="A40" s="945" t="s">
         <v>783</v>
       </c>
-      <c r="B40" s="930"/>
-      <c r="C40" s="930"/>
-      <c r="D40" s="930"/>
-      <c r="E40" s="930"/>
+      <c r="B40" s="946"/>
+      <c r="C40" s="946"/>
+      <c r="D40" s="946"/>
+      <c r="E40" s="946"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="845"/>
@@ -35941,7 +32688,9 @@
   </sheetPr>
   <dimension ref="A1:AR518"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1"/>
   <cols>
@@ -36039,7 +32788,7 @@
       <c r="Y3" s="32"/>
       <c r="AA3" s="34" t="str">
         <f>IF(AB7="","",AB7)</f>
-        <v/>
+        <v>Page1,HVLPage,ExpChart,ImgQuality,Compg1,GraphAcryl,LeedsTO10</v>
       </c>
     </row>
     <row r="4" spans="1:44" ht="14.1" customHeight="1">
@@ -36136,7 +32885,9 @@
       <c r="O7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="44"/>
+      <c r="P7" s="44">
+        <v>43273</v>
+      </c>
       <c r="Q7" s="45"/>
       <c r="W7" s="21" t="s">
         <v>11</v>
@@ -36151,10 +32902,12 @@
       <c r="AA7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="AB7" s="48"/>
+      <c r="AB7" s="48" t="s">
+        <v>2</v>
+      </c>
       <c r="AC7" s="49" t="str">
         <f t="shared" ref="AC7:AC19" si="0">IF(AB7&lt;&gt;AD7,"Change","")</f>
-        <v>Change</v>
+        <v/>
       </c>
       <c r="AD7" s="50" t="str">
         <f>IF(OR(AA2="",AA2=0),"",AA2)</f>
@@ -36172,9 +32925,9 @@
       <c r="O8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="52" t="str">
+      <c r="P8" s="52">
         <f>IF(AB8="","",AB8)</f>
-        <v/>
+        <v>42901</v>
       </c>
       <c r="Q8" s="53"/>
       <c r="T8" s="259" t="s">
@@ -36186,14 +32939,16 @@
       <c r="AA8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AB8" s="56"/>
+      <c r="AB8" s="56">
+        <v>42901</v>
+      </c>
       <c r="AC8" s="49" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AD8" s="57" t="str">
+        <v>Change</v>
+      </c>
+      <c r="AD8" s="57">
         <f>IF(P7="","",P7)</f>
-        <v/>
+        <v>43273</v>
       </c>
     </row>
     <row r="9" spans="1:44" ht="14.1" customHeight="1" thickTop="1" thickBot="1">
@@ -36234,10 +32989,12 @@
       <c r="AA9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="AB9" s="65"/>
+      <c r="AB9" s="65" t="s">
+        <v>12</v>
+      </c>
       <c r="AC9" s="49" t="str">
         <f t="shared" si="0"/>
-        <v>Change</v>
+        <v/>
       </c>
       <c r="AD9" s="66" t="str">
         <f>IF(X7="","",X7)</f>
@@ -36286,19 +33043,19 @@
       <c r="E10" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="955" t="str">
+      <c r="F10" s="971" t="str">
         <f>IF(R10="","",R10)</f>
-        <v/>
-      </c>
-      <c r="G10" s="955"/>
+        <v>MUSC Health East Cooper</v>
+      </c>
+      <c r="G10" s="971"/>
       <c r="J10" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="948" t="str">
+      <c r="K10" s="964" t="str">
         <f>IF(V10="","",V10)</f>
-        <v/>
-      </c>
-      <c r="L10" s="948"/>
+        <v>400-392781</v>
+      </c>
+      <c r="L10" s="964"/>
       <c r="M10" s="69"/>
       <c r="O10" s="30"/>
       <c r="Q10" s="35" t="s">
@@ -36306,7 +33063,7 @@
       </c>
       <c r="R10" s="46" t="str">
         <f>IF(S10&lt;&gt;"",S10,IF(AB10="","",AB10))</f>
-        <v/>
+        <v>MUSC Health East Cooper</v>
       </c>
       <c r="S10" s="47"/>
       <c r="U10" s="35" t="s">
@@ -36314,21 +33071,23 @@
       </c>
       <c r="V10" s="46" t="str">
         <f>IF(W10&lt;&gt;"",W10,IF(AB15="","",AB15))</f>
-        <v/>
+        <v>400-392781</v>
       </c>
       <c r="W10" s="47"/>
       <c r="Y10" s="32"/>
       <c r="AA10" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AB10" s="65"/>
+      <c r="AB10" s="65" t="s">
+        <v>806</v>
+      </c>
       <c r="AC10" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AD10" s="66" t="str">
         <f>IF(R10="","",R10)</f>
-        <v/>
+        <v>MUSC Health East Cooper</v>
       </c>
       <c r="AH10" s="582">
         <v>24</v>
@@ -36341,11 +33100,11 @@
       </c>
       <c r="AK10" s="580" t="str">
         <f>IF($V$21="","",$V$21)</f>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL10" s="580" t="str">
         <f>IF($V$24="","",$V$24)</f>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM10" s="849"/>
       <c r="AN10" s="849"/>
@@ -36363,19 +33122,19 @@
       <c r="E11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="956" t="str">
+      <c r="F11" s="972" t="str">
         <f>IF(R11="","",R11)</f>
-        <v/>
-      </c>
-      <c r="G11" s="956"/>
+        <v>Radiology</v>
+      </c>
+      <c r="G11" s="972"/>
       <c r="J11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="948" t="str">
+      <c r="K11" s="964" t="str">
         <f>IF(V11="","",V11)</f>
-        <v/>
-      </c>
-      <c r="L11" s="948"/>
+        <v>SBB</v>
+      </c>
+      <c r="L11" s="964"/>
       <c r="M11" s="69"/>
       <c r="O11" s="30"/>
       <c r="Q11" s="35" t="s">
@@ -36383,7 +33142,7 @@
       </c>
       <c r="R11" s="46" t="str">
         <f>IF(S11&lt;&gt;"",S11,IF(AB11="","",AB11))</f>
-        <v/>
+        <v>Radiology</v>
       </c>
       <c r="S11" s="47"/>
       <c r="U11" s="35" t="s">
@@ -36391,21 +33150,23 @@
       </c>
       <c r="V11" s="46" t="str">
         <f>IF(W11&lt;&gt;"",W11,IF(AB16="","",AB16))</f>
-        <v/>
+        <v>SBB</v>
       </c>
       <c r="W11" s="47"/>
       <c r="Y11" s="32"/>
       <c r="AA11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="AB11" s="65"/>
+      <c r="AB11" s="65" t="s">
+        <v>807</v>
+      </c>
       <c r="AC11" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AD11" s="66" t="str">
         <f>IF(R11="","",R11)</f>
-        <v/>
+        <v>Radiology</v>
       </c>
       <c r="AH11" s="588">
         <v>24</v>
@@ -36418,11 +33179,11 @@
       </c>
       <c r="AK11" s="589" t="str">
         <f t="shared" ref="AK11:AK74" si="1">IF($V$21="","",$V$21)</f>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL11" s="589" t="str">
         <f t="shared" ref="AL11:AL56" si="2">IF($V$24="","",$V$24)</f>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM11" s="589"/>
       <c r="AN11" s="589"/>
@@ -36440,19 +33201,19 @@
       <c r="E12" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="956" t="str">
+      <c r="F12" s="972" t="str">
         <f>IF(R12="","",R12)</f>
-        <v/>
-      </c>
-      <c r="G12" s="956"/>
+        <v>Mammography</v>
+      </c>
+      <c r="G12" s="972"/>
       <c r="J12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="954" t="str">
+      <c r="K12" s="970">
         <f>IF(V12="","",V12)</f>
-        <v/>
-      </c>
-      <c r="L12" s="954"/>
+        <v>41091</v>
+      </c>
+      <c r="L12" s="970"/>
       <c r="M12" s="69"/>
       <c r="O12" s="30"/>
       <c r="Q12" s="35" t="s">
@@ -36460,29 +33221,31 @@
       </c>
       <c r="R12" s="46" t="str">
         <f>IF(S12&lt;&gt;"",S12,IF(AB12="","",AB12))</f>
-        <v/>
+        <v>Mammography</v>
       </c>
       <c r="S12" s="47"/>
       <c r="U12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="72" t="str">
+      <c r="V12" s="72">
         <f>IF(W12&lt;&gt;"",W12,IF(AB17="","",AB17))</f>
-        <v/>
+        <v>41091</v>
       </c>
       <c r="W12" s="73"/>
       <c r="Y12" s="32"/>
       <c r="AA12" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AB12" s="65"/>
+      <c r="AB12" s="65" t="s">
+        <v>808</v>
+      </c>
       <c r="AC12" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AD12" s="66" t="str">
         <f>IF(R12="","",R12)</f>
-        <v/>
+        <v>Mammography</v>
       </c>
       <c r="AH12" s="588">
         <v>24</v>
@@ -36495,11 +33258,11 @@
       </c>
       <c r="AK12" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL12" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM12" s="589"/>
       <c r="AN12" s="589"/>
@@ -36517,49 +33280,53 @@
       <c r="E13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="956" t="str">
+      <c r="F13" s="972">
         <f>IF(R13="","",R13)</f>
-        <v/>
-      </c>
-      <c r="G13" s="956"/>
+        <v>2302</v>
+      </c>
+      <c r="G13" s="972"/>
       <c r="J13" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="948" t="str">
+      <c r="K13" s="964">
         <f>IF(V13="","",V13)</f>
-        <v/>
-      </c>
-      <c r="L13" s="948"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="964"/>
       <c r="M13" s="69"/>
       <c r="O13" s="30"/>
       <c r="Q13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="46" t="str">
+      <c r="R13" s="46">
         <f>IF(S13&lt;&gt;"",S13,IF(AB13="","",AB13))</f>
-        <v/>
-      </c>
-      <c r="S13" s="47"/>
+        <v>2302</v>
+      </c>
+      <c r="S13" s="47">
+        <v>2302</v>
+      </c>
       <c r="U13" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="V13" s="46" t="str">
+      <c r="V13" s="46">
         <f>IF(W13&lt;&gt;"",W13,IF(AB18="","",AB18))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W13" s="47"/>
       <c r="Y13" s="32"/>
       <c r="AA13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AB13" s="65"/>
+      <c r="AB13" s="65">
+        <v>2099</v>
+      </c>
       <c r="AC13" s="49" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AD13" s="66" t="str">
+        <v>Change</v>
+      </c>
+      <c r="AD13" s="66">
         <f>IF(R13="","",R13)</f>
-        <v/>
+        <v>2302</v>
       </c>
       <c r="AH13" s="588">
         <v>24</v>
@@ -36572,11 +33339,11 @@
       </c>
       <c r="AK13" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL13" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM13" s="589"/>
       <c r="AN13" s="589"/>
@@ -36598,7 +33365,7 @@
       </c>
       <c r="R14" s="46" t="str">
         <f>IF(S14&lt;&gt;"",S14,IF(AB14="","",AB14))</f>
-        <v/>
+        <v>1C07</v>
       </c>
       <c r="S14" s="47"/>
       <c r="U14" s="35" t="s">
@@ -36606,21 +33373,25 @@
       </c>
       <c r="V14" s="46" t="str">
         <f>IF(W14&lt;&gt;"",W14,IF(AB19="","",AB19))</f>
-        <v/>
-      </c>
-      <c r="W14" s="47"/>
+        <v>MTP1C07_2018</v>
+      </c>
+      <c r="W14" s="47" t="s">
+        <v>818</v>
+      </c>
       <c r="Y14" s="32"/>
       <c r="AA14" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AB14" s="74"/>
+      <c r="AB14" s="74" t="s">
+        <v>809</v>
+      </c>
       <c r="AC14" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AD14" s="66" t="str">
         <f>IF(R14="","",R14)</f>
-        <v/>
+        <v>1C07</v>
       </c>
       <c r="AH14" s="588">
         <v>24</v>
@@ -36633,11 +33404,11 @@
       </c>
       <c r="AK14" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL14" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM14" s="589"/>
       <c r="AN14" s="589"/>
@@ -36661,14 +33432,16 @@
       <c r="AA15" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AB15" s="65"/>
+      <c r="AB15" s="65" t="s">
+        <v>810</v>
+      </c>
       <c r="AC15" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AD15" s="66" t="str">
         <f>IF(V10="","",V10)</f>
-        <v/>
+        <v>400-392781</v>
       </c>
       <c r="AH15" s="588">
         <v>24</v>
@@ -36681,11 +33454,11 @@
       </c>
       <c r="AK15" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL15" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM15" s="589"/>
       <c r="AN15" s="589"/>
@@ -36703,19 +33476,19 @@
       <c r="E16" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="948" t="str">
+      <c r="F16" s="964" t="str">
         <f>IF(R17="","",R17)</f>
-        <v/>
-      </c>
-      <c r="G16" s="948"/>
+        <v>Siemens</v>
+      </c>
+      <c r="G16" s="964"/>
       <c r="J16" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="954" t="str">
+      <c r="K16" s="970" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="954"/>
+      <c r="L16" s="970"/>
       <c r="M16" s="69"/>
       <c r="O16" s="30"/>
       <c r="P16" s="75" t="s">
@@ -36725,14 +33498,16 @@
       <c r="AA16" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AB16" s="65"/>
+      <c r="AB16" s="65" t="s">
+        <v>811</v>
+      </c>
       <c r="AC16" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AD16" s="66" t="str">
         <f>IF(V11="","",V11)</f>
-        <v/>
+        <v>SBB</v>
       </c>
       <c r="AH16" s="588">
         <v>24</v>
@@ -36745,11 +33520,11 @@
       </c>
       <c r="AK16" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL16" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM16" s="589"/>
       <c r="AN16" s="589"/>
@@ -36767,19 +33542,19 @@
       <c r="E17" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="948" t="str">
+      <c r="F17" s="964" t="str">
         <f>IF(R18="","",R18)</f>
-        <v/>
-      </c>
-      <c r="G17" s="948"/>
+        <v>Mammotest</v>
+      </c>
+      <c r="G17" s="964"/>
       <c r="J17" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="957" t="str">
+      <c r="K17" s="973">
         <f>IF(V18="","",V18)</f>
-        <v/>
-      </c>
-      <c r="L17" s="957"/>
+        <v>10247</v>
+      </c>
+      <c r="L17" s="973"/>
       <c r="M17" s="69"/>
       <c r="O17" s="30"/>
       <c r="Q17" s="35" t="s">
@@ -36787,7 +33562,7 @@
       </c>
       <c r="R17" s="46" t="str">
         <f>IF(S17&lt;&gt;"",S17,IF(AB21="","",AB21))</f>
-        <v/>
+        <v>Siemens</v>
       </c>
       <c r="S17" s="47"/>
       <c r="U17" s="35" t="s">
@@ -36802,14 +33577,16 @@
       <c r="AA17" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AB17" s="77"/>
+      <c r="AB17" s="77">
+        <v>41091</v>
+      </c>
       <c r="AC17" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD17" s="78" t="str">
+      <c r="AD17" s="78">
         <f>IF(V12="","",V12)</f>
-        <v/>
+        <v>41091</v>
       </c>
       <c r="AH17" s="588">
         <v>24</v>
@@ -36822,11 +33599,11 @@
       </c>
       <c r="AK17" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL17" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM17" s="589"/>
       <c r="AN17" s="589"/>
@@ -36844,19 +33621,19 @@
       <c r="E18" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="948" t="str">
+      <c r="F18" s="964">
         <f>IF(R19="","",R19)</f>
-        <v/>
-      </c>
-      <c r="G18" s="948"/>
+        <v>34</v>
+      </c>
+      <c r="G18" s="964"/>
       <c r="J18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="948" t="str">
+      <c r="K18" s="964">
         <f>IF(V19="","",V19)</f>
-        <v/>
-      </c>
-      <c r="L18" s="948"/>
+        <v>100</v>
+      </c>
+      <c r="L18" s="964"/>
       <c r="M18" s="69"/>
       <c r="O18" s="30"/>
       <c r="Q18" s="35" t="s">
@@ -36864,29 +33641,31 @@
       </c>
       <c r="R18" s="46" t="str">
         <f>IF(S18&lt;&gt;"",S18,IF(AB22="","",AB22))</f>
-        <v/>
+        <v>Mammotest</v>
       </c>
       <c r="S18" s="47"/>
       <c r="U18" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="V18" s="46" t="str">
+      <c r="V18" s="46">
         <f>IF(W18&lt;&gt;"",W18,IF(AB25="","",AB25))</f>
-        <v/>
+        <v>10247</v>
       </c>
       <c r="W18" s="47"/>
       <c r="Y18" s="32"/>
       <c r="AA18" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AB18" s="65"/>
+      <c r="AB18" s="65">
+        <v>1</v>
+      </c>
       <c r="AC18" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD18" s="66" t="str">
+      <c r="AD18" s="66">
         <f>IF(V13="","",V13)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AH18" s="584">
         <v>25</v>
@@ -36899,11 +33678,11 @@
       </c>
       <c r="AK18" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL18" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM18" s="16"/>
       <c r="AN18" s="16"/>
@@ -36923,31 +33702,33 @@
       <c r="Q19" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="R19" s="46" t="str">
+      <c r="R19" s="46">
         <f>IF(S19&lt;&gt;"",S19,IF(AB23="","",AB23))</f>
-        <v/>
+        <v>34</v>
       </c>
       <c r="S19" s="47"/>
       <c r="U19" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="V19" s="46" t="str">
+      <c r="V19" s="46">
         <f>IF(W19&lt;&gt;"",W19,IF(AB26="","",AB26))</f>
-        <v/>
+        <v>100</v>
       </c>
       <c r="W19" s="47"/>
       <c r="Y19" s="32"/>
       <c r="AA19" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="AB19" s="65"/>
+      <c r="AB19" s="65">
+        <v>7544912</v>
+      </c>
       <c r="AC19" s="49" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Change</v>
       </c>
       <c r="AD19" s="66" t="str">
         <f>IF(V14="","",V14)</f>
-        <v/>
+        <v>MTP1C07_2018</v>
       </c>
       <c r="AH19" s="588">
         <v>25</v>
@@ -36960,11 +33741,11 @@
       </c>
       <c r="AK19" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL19" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM19" s="589"/>
       <c r="AN19" s="589"/>
@@ -37000,11 +33781,11 @@
       </c>
       <c r="AK20" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL20" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM20" s="589"/>
       <c r="AN20" s="589"/>
@@ -37022,19 +33803,19 @@
       <c r="E21" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="948" t="str">
+      <c r="F21" s="964" t="str">
         <f>IF(R22="","",R22)</f>
-        <v/>
-      </c>
-      <c r="G21" s="948"/>
+        <v>SBB</v>
+      </c>
+      <c r="G21" s="964"/>
       <c r="J21" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="948" t="str">
+      <c r="K21" s="964" t="str">
         <f>IF(V21="","",V21)</f>
-        <v/>
-      </c>
-      <c r="L21" s="948"/>
+        <v>Mo</v>
+      </c>
+      <c r="L21" s="964"/>
       <c r="M21" s="69"/>
       <c r="O21" s="30"/>
       <c r="P21" s="75" t="s">
@@ -37045,21 +33826,23 @@
       </c>
       <c r="V21" s="46" t="str">
         <f>IF(W21&lt;&gt;"",W21,IF(AB38="","",AB38))</f>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="W21" s="47"/>
       <c r="Y21" s="32"/>
       <c r="AA21" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AB21" s="65"/>
+      <c r="AB21" s="65" t="s">
+        <v>382</v>
+      </c>
       <c r="AC21" s="49" t="str">
         <f t="shared" ref="AC21:AC26" si="3">IF(AB21&lt;&gt;AD21,"Change","")</f>
         <v/>
       </c>
       <c r="AD21" s="66" t="str">
         <f>IF(R17="","",R17)</f>
-        <v/>
+        <v>Siemens</v>
       </c>
       <c r="AH21" s="588">
         <v>25</v>
@@ -37072,11 +33855,11 @@
       </c>
       <c r="AK21" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL21" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM21" s="589"/>
       <c r="AN21" s="589"/>
@@ -37094,17 +33877,17 @@
       <c r="E22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="954" t="str">
+      <c r="F22" s="970" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="954"/>
+      <c r="G22" s="970"/>
       <c r="J22" s="35"/>
-      <c r="K22" s="948" t="str">
+      <c r="K22" s="964" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="948"/>
+      <c r="L22" s="964"/>
       <c r="M22" s="69"/>
       <c r="O22" s="30"/>
       <c r="Q22" s="35" t="s">
@@ -37112,7 +33895,7 @@
       </c>
       <c r="R22" s="46" t="str">
         <f>IF(S22&lt;&gt;"",S22,IF(AB28="","",AB28))</f>
-        <v/>
+        <v>SBB</v>
       </c>
       <c r="S22" s="47"/>
       <c r="V22" s="46" t="str">
@@ -37124,14 +33907,16 @@
       <c r="AA22" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AB22" s="65"/>
+      <c r="AB22" s="65" t="s">
+        <v>812</v>
+      </c>
       <c r="AC22" s="49" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AD22" s="66" t="str">
         <f>IF(R18="","",R18)</f>
-        <v/>
+        <v>Mammotest</v>
       </c>
       <c r="AH22" s="588">
         <v>25</v>
@@ -37144,11 +33929,11 @@
       </c>
       <c r="AK22" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL22" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM22" s="589"/>
       <c r="AN22" s="589"/>
@@ -37169,11 +33954,11 @@
       <c r="J23" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="948" t="str">
+      <c r="K23" s="964" t="str">
         <f>IF(V24="","",V24)</f>
-        <v/>
-      </c>
-      <c r="L23" s="948"/>
+        <v>Mo</v>
+      </c>
+      <c r="L23" s="964"/>
       <c r="M23" s="69"/>
       <c r="O23" s="30"/>
       <c r="Q23" s="35" t="s">
@@ -37190,14 +33975,16 @@
       <c r="AA23" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="AB23" s="65"/>
+      <c r="AB23" s="65">
+        <v>34</v>
+      </c>
       <c r="AC23" s="49" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AD23" s="66" t="str">
+      <c r="AD23" s="66">
         <f>IF(R19="","",R19)</f>
-        <v/>
+        <v>34</v>
       </c>
       <c r="AH23" s="588">
         <v>25</v>
@@ -37210,11 +33997,11 @@
       </c>
       <c r="AK23" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL23" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM23" s="589"/>
       <c r="AN23" s="589"/>
@@ -37232,16 +34019,16 @@
       <c r="E24" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="948" t="str">
+      <c r="F24" s="964" t="str">
         <f>IF(R25="","",R25)</f>
-        <v/>
-      </c>
-      <c r="G24" s="948"/>
-      <c r="K24" s="948" t="str">
+        <v>Varian</v>
+      </c>
+      <c r="G24" s="964"/>
+      <c r="K24" s="964" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="948"/>
+      <c r="L24" s="964"/>
       <c r="M24" s="69"/>
       <c r="O24" s="30"/>
       <c r="P24" s="75" t="s">
@@ -37252,14 +34039,16 @@
       </c>
       <c r="V24" s="46" t="str">
         <f>IF(W24&lt;&gt;"",W24,IF(AB40="","",AB40))</f>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="W24" s="47"/>
       <c r="Y24" s="32"/>
       <c r="AA24" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AB24" s="77"/>
+      <c r="AB24" s="77" t="s">
+        <v>553</v>
+      </c>
       <c r="AC24" s="49" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -37279,11 +34068,11 @@
       </c>
       <c r="AK24" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL24" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM24" s="589"/>
       <c r="AN24" s="589"/>
@@ -37301,11 +34090,11 @@
       <c r="E25" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="948" t="str">
+      <c r="F25" s="964" t="str">
         <f>IF(R26="","",R26)</f>
-        <v/>
-      </c>
-      <c r="G25" s="948"/>
+        <v>M-147SP</v>
+      </c>
+      <c r="G25" s="964"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -37316,7 +34105,7 @@
       </c>
       <c r="R25" s="46" t="str">
         <f>IF(S25&lt;&gt;"",S25,IF(AB30="","",AB30))</f>
-        <v/>
+        <v>Varian</v>
       </c>
       <c r="S25" s="47"/>
       <c r="V25" s="46" t="str">
@@ -37328,14 +34117,16 @@
       <c r="AA25" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB25" s="65"/>
+      <c r="AB25" s="65">
+        <v>10247</v>
+      </c>
       <c r="AC25" s="49" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AD25" s="66" t="str">
+      <c r="AD25" s="66">
         <f>IF(V18="","",V18)</f>
-        <v/>
+        <v>10247</v>
       </c>
       <c r="AH25" s="588">
         <v>25</v>
@@ -37348,11 +34139,11 @@
       </c>
       <c r="AK25" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL25" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM25" s="589"/>
       <c r="AN25" s="589"/>
@@ -37370,11 +34161,11 @@
       <c r="E26" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="948" t="str">
+      <c r="F26" s="964" t="str">
         <f>IF(R27="","",R27)</f>
-        <v/>
-      </c>
-      <c r="G26" s="948"/>
+        <v>19420-W1</v>
+      </c>
+      <c r="G26" s="964"/>
       <c r="I26" s="75" t="s">
         <v>55</v>
       </c>
@@ -37388,7 +34179,7 @@
       </c>
       <c r="R26" s="46" t="str">
         <f>IF(S26&lt;&gt;"",S26,IF(AB31="","",AB31))</f>
-        <v/>
+        <v>M-147SP</v>
       </c>
       <c r="S26" s="47"/>
       <c r="V26" s="4"/>
@@ -37397,14 +34188,16 @@
       <c r="AA26" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="AB26" s="65"/>
+      <c r="AB26" s="65">
+        <v>100</v>
+      </c>
       <c r="AC26" s="49" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AD26" s="66" t="str">
+      <c r="AD26" s="66">
         <f>IF(V19="","",V19)</f>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AH26" s="584">
         <v>26</v>
@@ -37417,11 +34210,11 @@
       </c>
       <c r="AK26" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL26" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM26" s="16"/>
       <c r="AN26" s="16"/>
@@ -37442,11 +34235,11 @@
       <c r="J27" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="948" t="str">
+      <c r="K27" s="964">
         <f>IF(V28="","",V28)</f>
-        <v/>
-      </c>
-      <c r="L27" s="948"/>
+        <v>0.3</v>
+      </c>
+      <c r="L27" s="964"/>
       <c r="M27" s="69"/>
       <c r="O27" s="30"/>
       <c r="Q27" s="35" t="s">
@@ -37454,7 +34247,7 @@
       </c>
       <c r="R27" s="46" t="str">
         <f>IF(S27&lt;&gt;"",S27,IF(AB32="","",AB32))</f>
-        <v/>
+        <v>19420-W1</v>
       </c>
       <c r="S27" s="47"/>
       <c r="U27" s="79" t="s">
@@ -37475,11 +34268,11 @@
       </c>
       <c r="AK27" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL27" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM27" s="16"/>
       <c r="AN27" s="16"/>
@@ -37497,20 +34290,20 @@
       <c r="E28" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="948" t="str">
+      <c r="F28" s="964" t="str">
         <f>IF(R29="","",R29)</f>
-        <v/>
-      </c>
-      <c r="G28" s="948"/>
+        <v>Varian</v>
+      </c>
+      <c r="G28" s="964"/>
       <c r="I28" s="4"/>
       <c r="J28" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="K28" s="948" t="str">
+      <c r="K28" s="964">
         <f>IF(V29="","",V29)</f>
-        <v/>
-      </c>
-      <c r="L28" s="948"/>
+        <v>0.1</v>
+      </c>
+      <c r="L28" s="964"/>
       <c r="M28" s="69"/>
       <c r="O28" s="30"/>
       <c r="P28" s="75" t="s">
@@ -37519,23 +34312,25 @@
       <c r="U28" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="V28" s="46" t="str">
+      <c r="V28" s="46">
         <f>IF(W28&lt;&gt;"",W28,IF(AB36="","",AB36))</f>
-        <v/>
+        <v>0.3</v>
       </c>
       <c r="W28" s="47"/>
       <c r="Y28" s="32"/>
       <c r="AA28" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="AB28" s="65"/>
+      <c r="AB28" s="65" t="s">
+        <v>811</v>
+      </c>
       <c r="AC28" s="49" t="str">
         <f t="shared" ref="AC28:AC43" si="4">IF(AB28&lt;&gt;AD28,"Change","")</f>
         <v/>
       </c>
       <c r="AD28" s="66" t="str">
         <f>IF(R22="","",R22)</f>
-        <v/>
+        <v>SBB</v>
       </c>
       <c r="AH28" s="584">
         <v>28</v>
@@ -37548,11 +34343,11 @@
       </c>
       <c r="AK28" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL28" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM28" s="16"/>
       <c r="AN28" s="16"/>
@@ -37570,22 +34365,22 @@
       <c r="E29" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="948" t="str">
+      <c r="F29" s="964" t="str">
         <f>IF(R30="","",R30)</f>
-        <v/>
-      </c>
-      <c r="G29" s="948"/>
+        <v>B-110</v>
+      </c>
+      <c r="G29" s="964"/>
       <c r="I29" s="75" t="s">
         <v>59</v>
       </c>
       <c r="J29" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="K29" s="948" t="str">
+      <c r="K29" s="964" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="948"/>
+      <c r="L29" s="964"/>
       <c r="M29" s="69"/>
       <c r="O29" s="30"/>
       <c r="Q29" s="35" t="s">
@@ -37593,22 +34388,24 @@
       </c>
       <c r="R29" s="46" t="str">
         <f>IF(S29&lt;&gt;"",S29,IF(AB33="","",AB33))</f>
-        <v/>
+        <v>Varian</v>
       </c>
       <c r="S29" s="47"/>
       <c r="U29" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="V29" s="46" t="str">
+      <c r="V29" s="46">
         <f>IF(W29&lt;&gt;"",W29,IF(AB37="","",AB37))</f>
-        <v/>
+        <v>0.1</v>
       </c>
       <c r="W29" s="47"/>
       <c r="Y29" s="32"/>
       <c r="AA29" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AB29" s="77"/>
+      <c r="AB29" s="77" t="s">
+        <v>553</v>
+      </c>
       <c r="AC29" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -37628,11 +34425,11 @@
       </c>
       <c r="AK29" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL29" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM29" s="16"/>
       <c r="AN29" s="16"/>
@@ -37650,19 +34447,19 @@
       <c r="E30" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="948" t="str">
+      <c r="F30" s="964" t="str">
         <f>IF(R31="","",R31)</f>
-        <v/>
-      </c>
-      <c r="G30" s="948"/>
+        <v>H19420</v>
+      </c>
+      <c r="G30" s="964"/>
       <c r="J30" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="K30" s="948" t="str">
+      <c r="K30" s="964" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="948"/>
+      <c r="L30" s="964"/>
       <c r="M30" s="69"/>
       <c r="O30" s="30"/>
       <c r="Q30" s="35" t="s">
@@ -37670,21 +34467,23 @@
       </c>
       <c r="R30" s="46" t="str">
         <f>IF(S30&lt;&gt;"",S30,IF(AB34="","",AB34))</f>
-        <v/>
+        <v>B-110</v>
       </c>
       <c r="S30" s="47"/>
       <c r="Y30" s="32"/>
       <c r="AA30" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AB30" s="65"/>
+      <c r="AB30" s="65" t="s">
+        <v>813</v>
+      </c>
       <c r="AC30" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD30" s="66" t="str">
         <f>IF(R25="","",R25)</f>
-        <v/>
+        <v>Varian</v>
       </c>
       <c r="AH30" s="584">
         <v>28</v>
@@ -37697,11 +34496,11 @@
       </c>
       <c r="AK30" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL30" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM30" s="16"/>
       <c r="AN30" s="16"/>
@@ -37732,7 +34531,7 @@
       </c>
       <c r="R31" s="46" t="str">
         <f>IF(S31&lt;&gt;"",S31,IF(AB35="","",AB35))</f>
-        <v/>
+        <v>H19420</v>
       </c>
       <c r="S31" s="47"/>
       <c r="U31" s="75" t="s">
@@ -37742,14 +34541,16 @@
       <c r="AA31" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AB31" s="65"/>
+      <c r="AB31" s="65" t="s">
+        <v>814</v>
+      </c>
       <c r="AC31" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD31" s="66" t="str">
         <f>IF(R26="","",R26)</f>
-        <v/>
+        <v>M-147SP</v>
       </c>
       <c r="AH31" s="588">
         <v>28</v>
@@ -37762,11 +34563,11 @@
       </c>
       <c r="AK31" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL31" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM31" s="589"/>
       <c r="AN31" s="589"/>
@@ -37792,14 +34593,16 @@
       <c r="AA32" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB32" s="65"/>
+      <c r="AB32" s="65" t="s">
+        <v>815</v>
+      </c>
       <c r="AC32" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD32" s="66" t="str">
         <f>IF(R27="","",R27)</f>
-        <v/>
+        <v>19420-W1</v>
       </c>
       <c r="AH32" s="588">
         <v>28</v>
@@ -37812,11 +34615,11 @@
       </c>
       <c r="AK32" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL32" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM32" s="589"/>
       <c r="AN32" s="589"/>
@@ -37845,14 +34648,16 @@
       <c r="AA33" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AB33" s="65"/>
+      <c r="AB33" s="65" t="s">
+        <v>813</v>
+      </c>
       <c r="AC33" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD33" s="66" t="str">
         <f>IF(R29="","",R29)</f>
-        <v/>
+        <v>Varian</v>
       </c>
       <c r="AH33" s="588">
         <v>28</v>
@@ -37865,11 +34670,11 @@
       </c>
       <c r="AK33" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL33" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM33" s="589"/>
       <c r="AN33" s="589"/>
@@ -37905,14 +34710,16 @@
       <c r="AA34" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AB34" s="65"/>
+      <c r="AB34" s="65" t="s">
+        <v>816</v>
+      </c>
       <c r="AC34" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD34" s="66" t="str">
         <f>IF(R30="","",R30)</f>
-        <v/>
+        <v>B-110</v>
       </c>
       <c r="AH34" s="588">
         <v>28</v>
@@ -37925,11 +34732,11 @@
       </c>
       <c r="AK34" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL34" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM34" s="589"/>
       <c r="AN34" s="589"/>
@@ -37946,21 +34753,21 @@
       <c r="C35" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="958" t="s">
+      <c r="D35" s="974" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="958"/>
-      <c r="F35" s="958"/>
-      <c r="G35" s="958" t="s">
+      <c r="E35" s="974"/>
+      <c r="F35" s="974"/>
+      <c r="G35" s="974" t="s">
         <v>65</v>
       </c>
-      <c r="H35" s="958"/>
-      <c r="I35" s="958"/>
-      <c r="J35" s="958" t="s">
+      <c r="H35" s="974"/>
+      <c r="I35" s="974"/>
+      <c r="J35" s="974" t="s">
         <v>66</v>
       </c>
-      <c r="K35" s="958"/>
-      <c r="L35" s="958"/>
+      <c r="K35" s="974"/>
+      <c r="L35" s="974"/>
       <c r="M35" s="69"/>
       <c r="O35" s="40"/>
       <c r="P35" s="41"/>
@@ -37976,14 +34783,16 @@
       <c r="AA35" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB35" s="65"/>
+      <c r="AB35" s="65" t="s">
+        <v>817</v>
+      </c>
       <c r="AC35" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD35" s="66" t="str">
         <f>IF(R31="","",R31)</f>
-        <v/>
+        <v>H19420</v>
       </c>
       <c r="AH35" s="588">
         <v>28</v>
@@ -37996,11 +34805,11 @@
       </c>
       <c r="AK35" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL35" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM35" s="589"/>
       <c r="AN35" s="589"/>
@@ -38020,11 +34829,11 @@
       <c r="D36" s="573"/>
       <c r="E36" s="574"/>
       <c r="F36" s="579"/>
-      <c r="G36" s="959" t="s">
+      <c r="G36" s="975" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="959"/>
-      <c r="I36" s="959"/>
+      <c r="H36" s="975"/>
+      <c r="I36" s="975"/>
       <c r="J36" s="573"/>
       <c r="K36" s="574"/>
       <c r="L36" s="579"/>
@@ -38032,14 +34841,16 @@
       <c r="AA36" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="AB36" s="65"/>
+      <c r="AB36" s="65">
+        <v>0.3</v>
+      </c>
       <c r="AC36" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AD36" s="66" t="str">
+      <c r="AD36" s="66">
         <f>IF(V28="","",V28)</f>
-        <v/>
+        <v>0.3</v>
       </c>
       <c r="AH36" s="588">
         <v>28</v>
@@ -38052,11 +34863,11 @@
       </c>
       <c r="AK36" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL36" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM36" s="589"/>
       <c r="AN36" s="589"/>
@@ -38107,14 +34918,16 @@
       <c r="AA37" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="AB37" s="65"/>
+      <c r="AB37" s="65">
+        <v>0.1</v>
+      </c>
       <c r="AC37" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AD37" s="66" t="str">
+      <c r="AD37" s="66">
         <f>IF(V29="","",V29)</f>
-        <v/>
+        <v>0.1</v>
       </c>
       <c r="AH37" s="588">
         <v>28</v>
@@ -38127,11 +34940,11 @@
       </c>
       <c r="AK37" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL37" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM37" s="589"/>
       <c r="AN37" s="589"/>
@@ -38201,14 +35014,16 @@
       <c r="AA38" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AB38" s="65"/>
+      <c r="AB38" s="65" t="s">
+        <v>31</v>
+      </c>
       <c r="AC38" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD38" s="66" t="str">
         <f>IF(V21="","",V21)</f>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AH38" s="584">
         <v>28</v>
@@ -38221,11 +35036,11 @@
       </c>
       <c r="AK38" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL38" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM38" s="16"/>
       <c r="AN38" s="16"/>
@@ -38287,7 +35102,9 @@
       <c r="AA39" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="AB39" s="65"/>
+      <c r="AB39" s="65" t="s">
+        <v>553</v>
+      </c>
       <c r="AC39" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -38307,11 +35124,11 @@
       </c>
       <c r="AK39" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL39" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM39" s="16"/>
       <c r="AN39" s="16"/>
@@ -38373,14 +35190,16 @@
       <c r="AA40" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="AB40" s="65"/>
+      <c r="AB40" s="65" t="s">
+        <v>31</v>
+      </c>
       <c r="AC40" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD40" s="66" t="str">
         <f>IF(V24="","",V24)</f>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AH40" s="584">
         <v>30</v>
@@ -38393,11 +35212,11 @@
       </c>
       <c r="AK40" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL40" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM40" s="16"/>
       <c r="AN40" s="16"/>
@@ -38459,7 +35278,9 @@
       <c r="AA41" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="AB41" s="65"/>
+      <c r="AB41" s="65" t="s">
+        <v>553</v>
+      </c>
       <c r="AC41" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -38479,11 +35300,11 @@
       </c>
       <c r="AK41" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL41" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM41" s="16"/>
       <c r="AN41" s="16"/>
@@ -38506,7 +35327,9 @@
       <c r="AA42" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="AB42" s="65"/>
+      <c r="AB42" s="65" t="s">
+        <v>553</v>
+      </c>
       <c r="AC42" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -38526,11 +35349,11 @@
       </c>
       <c r="AK42" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL42" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM42" s="589"/>
       <c r="AN42" s="589"/>
@@ -38556,7 +35379,9 @@
       <c r="AA43" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="AB43" s="65"/>
+      <c r="AB43" s="65" t="s">
+        <v>553</v>
+      </c>
       <c r="AC43" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -38576,11 +35401,11 @@
       </c>
       <c r="AK43" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL43" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM43" s="589"/>
       <c r="AN43" s="589"/>
@@ -38597,10 +35422,10 @@
       <c r="C44" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="L44" s="960" t="s">
+      <c r="L44" s="976" t="s">
         <v>89</v>
       </c>
-      <c r="M44" s="960"/>
+      <c r="M44" s="976"/>
       <c r="O44" s="30"/>
       <c r="Y44" s="32"/>
       <c r="AA44" s="75" t="s">
@@ -38617,11 +35442,11 @@
       </c>
       <c r="AK44" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL44" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM44" s="589"/>
       <c r="AN44" s="589"/>
@@ -38668,11 +35493,11 @@
       </c>
       <c r="AK45" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL45" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM45" s="589"/>
       <c r="AN45" s="589"/>
@@ -38724,11 +35549,11 @@
       </c>
       <c r="AK46" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL46" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM46" s="589"/>
       <c r="AN46" s="589"/>
@@ -38780,11 +35605,11 @@
       </c>
       <c r="AK47" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL47" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM47" s="589"/>
       <c r="AN47" s="589"/>
@@ -38833,11 +35658,11 @@
       </c>
       <c r="AK48" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL48" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM48" s="589"/>
       <c r="AN48" s="589"/>
@@ -38886,11 +35711,11 @@
       </c>
       <c r="AK49" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL49" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM49" s="16"/>
       <c r="AN49" s="16"/>
@@ -38932,11 +35757,11 @@
       </c>
       <c r="AK50" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL50" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM50" s="589"/>
       <c r="AN50" s="589"/>
@@ -38985,11 +35810,11 @@
       </c>
       <c r="AK51" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL51" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM51" s="589"/>
       <c r="AN51" s="589"/>
@@ -39038,11 +35863,11 @@
       </c>
       <c r="AK52" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL52" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM52" s="589"/>
       <c r="AN52" s="589"/>
@@ -39091,11 +35916,11 @@
       </c>
       <c r="AK53" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL53" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM53" s="589"/>
       <c r="AN53" s="589"/>
@@ -39144,11 +35969,11 @@
       </c>
       <c r="AK54" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL54" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM54" s="589"/>
       <c r="AN54" s="589"/>
@@ -39197,11 +36022,11 @@
       </c>
       <c r="AK55" s="589" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL55" s="589" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM55" s="589"/>
       <c r="AN55" s="589"/>
@@ -39247,11 +36072,11 @@
       </c>
       <c r="AK56" s="593" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL56" s="593" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AM56" s="593"/>
       <c r="AN56" s="593"/>
@@ -39297,7 +36122,7 @@
       </c>
       <c r="AK57" s="580" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL57" s="580" t="str">
         <f>IF($V$25="","",$V$25)</f>
@@ -39345,7 +36170,7 @@
       </c>
       <c r="AK58" s="600" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL58" s="600" t="str">
         <f t="shared" ref="AL58:AL90" si="8">IF($V$25="","",$V$25)</f>
@@ -39398,7 +36223,7 @@
       </c>
       <c r="AK59" s="600" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL59" s="600" t="str">
         <f t="shared" si="8"/>
@@ -39451,7 +36276,7 @@
       </c>
       <c r="AK60" s="600" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL60" s="600" t="str">
         <f t="shared" si="8"/>
@@ -39504,7 +36329,7 @@
       </c>
       <c r="AK61" s="600" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL61" s="600" t="str">
         <f t="shared" si="8"/>
@@ -39554,7 +36379,7 @@
       </c>
       <c r="AK62" s="600" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL62" s="600" t="str">
         <f t="shared" si="8"/>
@@ -39607,7 +36432,7 @@
       </c>
       <c r="AK63" s="600" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL63" s="600" t="str">
         <f t="shared" si="8"/>
@@ -39660,7 +36485,7 @@
       </c>
       <c r="AK64" s="600" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL64" s="600" t="str">
         <f t="shared" si="8"/>
@@ -39713,7 +36538,7 @@
       </c>
       <c r="AK65" s="11" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL65" s="11" t="str">
         <f t="shared" si="8"/>
@@ -39766,7 +36591,7 @@
       </c>
       <c r="AK66" s="600" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL66" s="600" t="str">
         <f t="shared" si="8"/>
@@ -39819,7 +36644,7 @@
       </c>
       <c r="AK67" s="600" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL67" s="600" t="str">
         <f t="shared" si="8"/>
@@ -39872,7 +36697,7 @@
       </c>
       <c r="AK68" s="600" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL68" s="600" t="str">
         <f t="shared" si="8"/>
@@ -39925,7 +36750,7 @@
       </c>
       <c r="AK69" s="600" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL69" s="600" t="str">
         <f t="shared" si="8"/>
@@ -39978,7 +36803,7 @@
       </c>
       <c r="AK70" s="600" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL70" s="600" t="str">
         <f t="shared" si="8"/>
@@ -39998,9 +36823,9 @@
       <c r="C71" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="375" t="str">
+      <c r="D71" s="375">
         <f>IF($P$7="","",$P$7)</f>
-        <v/>
+        <v>43273</v>
       </c>
       <c r="E71" s="27"/>
       <c r="F71" s="27"/>
@@ -40035,7 +36860,7 @@
       </c>
       <c r="AK71" s="600" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL71" s="600" t="str">
         <f t="shared" si="8"/>
@@ -40057,7 +36882,7 @@
       </c>
       <c r="D72" s="376" t="str">
         <f>IF($R$14="","",$R$14)</f>
-        <v/>
+        <v>1C07</v>
       </c>
       <c r="E72" s="27"/>
       <c r="F72" s="27"/>
@@ -40069,9 +36894,9 @@
       <c r="L72" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="M72" s="376" t="str">
+      <c r="M72" s="376">
         <f>IF($R$13="","",$R$13)</f>
-        <v/>
+        <v>2302</v>
       </c>
       <c r="O72" s="96"/>
       <c r="P72" s="68" t="s">
@@ -40097,7 +36922,7 @@
       </c>
       <c r="AK72" s="600" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL72" s="600" t="str">
         <f t="shared" si="8"/>
@@ -40142,7 +36967,7 @@
       </c>
       <c r="AK73" s="581" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL73" s="581" t="str">
         <f t="shared" si="8"/>
@@ -40190,7 +37015,7 @@
       </c>
       <c r="AK74" s="600" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL74" s="600" t="str">
         <f t="shared" si="8"/>
@@ -40247,7 +37072,7 @@
       </c>
       <c r="AK75" s="600" t="str">
         <f t="shared" ref="AK75:AK90" si="9">IF($V$21="","",$V$21)</f>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL75" s="600" t="str">
         <f t="shared" si="8"/>
@@ -40310,7 +37135,7 @@
       </c>
       <c r="AK76" s="600" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL76" s="600" t="str">
         <f t="shared" si="8"/>
@@ -40370,7 +37195,7 @@
       </c>
       <c r="AK77" s="600" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL77" s="600" t="str">
         <f t="shared" si="8"/>
@@ -40433,7 +37258,7 @@
       </c>
       <c r="AK78" s="600" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL78" s="600" t="str">
         <f t="shared" si="8"/>
@@ -40496,7 +37321,7 @@
       </c>
       <c r="AK79" s="600" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL79" s="600" t="str">
         <f t="shared" si="8"/>
@@ -40559,7 +37384,7 @@
       </c>
       <c r="AK80" s="600" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL80" s="600" t="str">
         <f t="shared" si="8"/>
@@ -40622,7 +37447,7 @@
       </c>
       <c r="AK81" s="11" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL81" s="11" t="str">
         <f t="shared" si="8"/>
@@ -40685,7 +37510,7 @@
       </c>
       <c r="AK82" s="600" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL82" s="600" t="str">
         <f t="shared" si="8"/>
@@ -40748,7 +37573,7 @@
       </c>
       <c r="AK83" s="600" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL83" s="600" t="str">
         <f t="shared" si="8"/>
@@ -40803,7 +37628,7 @@
       </c>
       <c r="AK84" s="600" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL84" s="600" t="str">
         <f t="shared" si="8"/>
@@ -40853,7 +37678,9 @@
       <c r="AA85" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="AB85" s="65"/>
+      <c r="AB85" s="65">
+        <v>2.3223554914248874</v>
+      </c>
       <c r="AD85" s="116" t="e">
         <f>IF(X265="","",X265)</f>
         <v>#N/A</v>
@@ -40869,7 +37696,7 @@
       </c>
       <c r="AK85" s="600" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL85" s="600" t="str">
         <f t="shared" si="8"/>
@@ -40932,7 +37759,7 @@
       </c>
       <c r="AK86" s="600" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL86" s="600" t="str">
         <f t="shared" si="8"/>
@@ -40995,7 +37822,7 @@
       </c>
       <c r="AK87" s="600" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL87" s="600" t="str">
         <f t="shared" si="8"/>
@@ -41042,7 +37869,9 @@
       <c r="AA88" s="35" t="s">
         <v>516</v>
       </c>
-      <c r="AB88" s="65"/>
+      <c r="AB88" s="65">
+        <v>0.12114819218253589</v>
+      </c>
       <c r="AD88" s="117" t="str">
         <f>IF(S399="","",S399)</f>
         <v/>
@@ -41058,7 +37887,7 @@
       </c>
       <c r="AK88" s="600" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL88" s="600" t="str">
         <f t="shared" si="8"/>
@@ -41103,7 +37932,9 @@
       <c r="AA89" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="AB89" s="65"/>
+      <c r="AB89" s="65">
+        <v>11.920722611722631</v>
+      </c>
       <c r="AD89" s="116" t="str">
         <f>IF(T399="","",T399)</f>
         <v/>
@@ -41119,7 +37950,7 @@
       </c>
       <c r="AK89" s="11" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL89" s="11" t="str">
         <f t="shared" si="8"/>
@@ -41182,7 +38013,7 @@
       </c>
       <c r="AK90" s="208" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Mo</v>
       </c>
       <c r="AL90" s="208" t="str">
         <f t="shared" si="8"/>
@@ -41975,7 +38806,9 @@
       <c r="AA103" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="AB103" s="65"/>
+      <c r="AB103" s="65">
+        <v>28</v>
+      </c>
       <c r="AD103" s="66" t="str">
         <f>IF(Q448="","",Q448)</f>
         <v/>
@@ -42038,7 +38871,9 @@
       <c r="AA104" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="AB104" s="65"/>
+      <c r="AB104" s="65">
+        <v>93</v>
+      </c>
       <c r="AD104" s="66" t="str">
         <f>IF(Q449="","",Q449)</f>
         <v/>
@@ -42103,7 +38938,9 @@
       <c r="AA105" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="AB105" s="65"/>
+      <c r="AB105" s="65">
+        <v>4</v>
+      </c>
       <c r="AD105" s="66" t="str">
         <f>IF(Q450="","",Q450)</f>
         <v/>
@@ -42168,7 +39005,9 @@
       <c r="AA106" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="AB106" s="65"/>
+      <c r="AB106" s="65">
+        <v>3</v>
+      </c>
       <c r="AD106" s="66" t="str">
         <f>IF(Q451="","",Q451)</f>
         <v/>
@@ -42233,7 +39072,9 @@
       <c r="AA107" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="AB107" s="65"/>
+      <c r="AB107" s="65">
+        <v>4</v>
+      </c>
       <c r="AD107" s="66" t="str">
         <f>IF(Q452="","",Q452)</f>
         <v/>
@@ -43076,21 +39917,21 @@
       <c r="O121" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="P121" s="961" t="s">
+      <c r="P121" s="977" t="s">
         <v>64</v>
       </c>
-      <c r="Q121" s="962"/>
-      <c r="R121" s="963"/>
-      <c r="S121" s="961" t="s">
+      <c r="Q121" s="978"/>
+      <c r="R121" s="979"/>
+      <c r="S121" s="977" t="s">
         <v>515</v>
       </c>
-      <c r="T121" s="962"/>
-      <c r="U121" s="963"/>
-      <c r="V121" s="961" t="s">
+      <c r="T121" s="978"/>
+      <c r="U121" s="979"/>
+      <c r="V121" s="977" t="s">
         <v>66</v>
       </c>
-      <c r="W121" s="962"/>
-      <c r="X121" s="967"/>
+      <c r="W121" s="978"/>
+      <c r="X121" s="983"/>
       <c r="Y121" s="32"/>
       <c r="AA121" s="35" t="s">
         <v>603</v>
@@ -43151,15 +39992,15 @@
       <c r="O122" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="P122" s="964"/>
-      <c r="Q122" s="965"/>
-      <c r="R122" s="966"/>
-      <c r="S122" s="964"/>
-      <c r="T122" s="965"/>
-      <c r="U122" s="966"/>
-      <c r="V122" s="964"/>
-      <c r="W122" s="965"/>
-      <c r="X122" s="968"/>
+      <c r="P122" s="980"/>
+      <c r="Q122" s="981"/>
+      <c r="R122" s="982"/>
+      <c r="S122" s="980"/>
+      <c r="T122" s="981"/>
+      <c r="U122" s="982"/>
+      <c r="V122" s="980"/>
+      <c r="W122" s="981"/>
+      <c r="X122" s="984"/>
       <c r="Y122" s="32"/>
       <c r="AA122" s="35" t="s">
         <v>604</v>
@@ -43735,21 +40576,21 @@
       <c r="O129" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="P129" s="961" t="s">
+      <c r="P129" s="977" t="s">
         <v>64</v>
       </c>
-      <c r="Q129" s="962"/>
-      <c r="R129" s="963"/>
-      <c r="S129" s="961" t="s">
+      <c r="Q129" s="978"/>
+      <c r="R129" s="979"/>
+      <c r="S129" s="977" t="s">
         <v>515</v>
       </c>
-      <c r="T129" s="962"/>
-      <c r="U129" s="963"/>
-      <c r="V129" s="969" t="s">
+      <c r="T129" s="978"/>
+      <c r="U129" s="979"/>
+      <c r="V129" s="985" t="s">
         <v>66</v>
       </c>
-      <c r="W129" s="970"/>
-      <c r="X129" s="971"/>
+      <c r="W129" s="986"/>
+      <c r="X129" s="987"/>
       <c r="Y129" s="32"/>
       <c r="AA129" s="35" t="s">
         <v>611</v>
@@ -43810,15 +40651,15 @@
       <c r="O130" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="P130" s="964"/>
-      <c r="Q130" s="965"/>
-      <c r="R130" s="966"/>
-      <c r="S130" s="964"/>
-      <c r="T130" s="965"/>
-      <c r="U130" s="966"/>
-      <c r="V130" s="972"/>
-      <c r="W130" s="948"/>
-      <c r="X130" s="973"/>
+      <c r="P130" s="980"/>
+      <c r="Q130" s="981"/>
+      <c r="R130" s="982"/>
+      <c r="S130" s="980"/>
+      <c r="T130" s="981"/>
+      <c r="U130" s="982"/>
+      <c r="V130" s="988"/>
+      <c r="W130" s="964"/>
+      <c r="X130" s="989"/>
       <c r="Y130" s="32"/>
       <c r="AA130" s="21" t="s">
         <v>612</v>
@@ -44411,9 +41252,9 @@
       <c r="C143" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="D143" s="375" t="str">
+      <c r="D143" s="375">
         <f>IF($P$7="","",$P$7)</f>
-        <v/>
+        <v>43273</v>
       </c>
       <c r="E143" s="27"/>
       <c r="F143" s="27"/>
@@ -44455,7 +41296,7 @@
       </c>
       <c r="D144" s="376" t="str">
         <f>IF($R$14="","",$R$14)</f>
-        <v/>
+        <v>1C07</v>
       </c>
       <c r="E144" s="27"/>
       <c r="F144" s="27"/>
@@ -44467,9 +41308,9 @@
       <c r="L144" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="M144" s="376" t="str">
+      <c r="M144" s="376">
         <f>IF($R$13="","",$R$13)</f>
-        <v/>
+        <v>2302</v>
       </c>
       <c r="O144" s="30"/>
       <c r="Y144" s="32"/>
@@ -45540,12 +42381,12 @@
       <c r="L173" s="68"/>
       <c r="M173" s="69"/>
       <c r="O173" s="30"/>
-      <c r="P173" s="952" t="s">
+      <c r="P173" s="968" t="s">
         <v>227</v>
       </c>
-      <c r="Q173" s="952"/>
-      <c r="R173" s="952"/>
-      <c r="S173" s="952"/>
+      <c r="Q173" s="968"/>
+      <c r="R173" s="968"/>
+      <c r="S173" s="968"/>
       <c r="U173" s="577" t="s">
         <v>228</v>
       </c>
@@ -45715,12 +42556,12 @@
       </c>
       <c r="B179" s="67"/>
       <c r="C179" s="68"/>
-      <c r="D179" s="952" t="s">
+      <c r="D179" s="968" t="s">
         <v>227</v>
       </c>
-      <c r="E179" s="952"/>
-      <c r="F179" s="952"/>
-      <c r="G179" s="952"/>
+      <c r="E179" s="968"/>
+      <c r="F179" s="968"/>
+      <c r="G179" s="968"/>
       <c r="H179" s="68"/>
       <c r="I179" s="577" t="s">
         <v>228</v>
@@ -45858,17 +42699,17 @@
       <c r="M182" s="69"/>
       <c r="O182" s="30"/>
       <c r="P182" s="68"/>
-      <c r="Q182" s="945" t="s">
+      <c r="Q182" s="961" t="s">
         <v>239</v>
       </c>
-      <c r="R182" s="945"/>
-      <c r="S182" s="945"/>
+      <c r="R182" s="961"/>
+      <c r="S182" s="961"/>
       <c r="T182" s="4"/>
-      <c r="U182" s="945" t="s">
+      <c r="U182" s="961" t="s">
         <v>239</v>
       </c>
-      <c r="V182" s="945"/>
-      <c r="W182" s="945"/>
+      <c r="V182" s="961"/>
+      <c r="W182" s="961"/>
       <c r="X182" s="4"/>
       <c r="Y182" s="32"/>
     </row>
@@ -45997,22 +42838,22 @@
       </c>
       <c r="B186" s="67"/>
       <c r="C186" s="107"/>
-      <c r="D186" s="949" t="s">
+      <c r="D186" s="965" t="s">
         <v>239</v>
       </c>
-      <c r="E186" s="950"/>
-      <c r="F186" s="951"/>
+      <c r="E186" s="966"/>
+      <c r="F186" s="967"/>
       <c r="G186" s="162"/>
-      <c r="H186" s="949" t="s">
+      <c r="H186" s="965" t="s">
         <v>239</v>
       </c>
-      <c r="I186" s="950"/>
-      <c r="J186" s="951"/>
-      <c r="K186" s="949" t="s">
+      <c r="I186" s="966"/>
+      <c r="J186" s="967"/>
+      <c r="K186" s="965" t="s">
         <v>239</v>
       </c>
-      <c r="L186" s="950"/>
-      <c r="M186" s="953"/>
+      <c r="L186" s="966"/>
+      <c r="M186" s="969"/>
       <c r="O186" s="161"/>
       <c r="P186" s="162" t="s">
         <v>245</v>
@@ -46485,17 +43326,17 @@
       <c r="M194" s="69"/>
       <c r="O194" s="161"/>
       <c r="P194" s="68"/>
-      <c r="Q194" s="945" t="s">
+      <c r="Q194" s="961" t="s">
         <v>239</v>
       </c>
-      <c r="R194" s="945"/>
-      <c r="S194" s="945"/>
+      <c r="R194" s="961"/>
+      <c r="S194" s="961"/>
       <c r="T194" s="4"/>
-      <c r="U194" s="945" t="s">
+      <c r="U194" s="961" t="s">
         <v>239</v>
       </c>
-      <c r="V194" s="945"/>
-      <c r="W194" s="945"/>
+      <c r="V194" s="961"/>
+      <c r="W194" s="961"/>
       <c r="X194" s="4"/>
       <c r="Y194" s="32"/>
     </row>
@@ -47200,9 +44041,9 @@
       <c r="C215" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="D215" s="375" t="str">
+      <c r="D215" s="375">
         <f>IF($P$7="","",$P$7)</f>
-        <v/>
+        <v>43273</v>
       </c>
       <c r="E215" s="27"/>
       <c r="F215" s="27"/>
@@ -47244,7 +44085,7 @@
       </c>
       <c r="D216" s="376" t="str">
         <f>IF($R$14="","",$R$14)</f>
-        <v/>
+        <v>1C07</v>
       </c>
       <c r="E216" s="27"/>
       <c r="F216" s="27"/>
@@ -47256,9 +44097,9 @@
       <c r="L216" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="M216" s="376" t="str">
+      <c r="M216" s="376">
         <f>IF($R$13="","",$R$13)</f>
-        <v/>
+        <v>2302</v>
       </c>
       <c r="O216" s="30"/>
       <c r="P216" s="750" t="s">
@@ -48679,11 +45520,11 @@
         <v>237</v>
       </c>
       <c r="T245" s="4"/>
-      <c r="U245" s="945" t="s">
+      <c r="U245" s="961" t="s">
         <v>295</v>
       </c>
-      <c r="V245" s="945"/>
-      <c r="W245" s="945"/>
+      <c r="V245" s="961"/>
+      <c r="W245" s="961"/>
       <c r="X245" s="4"/>
       <c r="Y245" s="234"/>
       <c r="Z245" s="578"/>
@@ -48881,11 +45722,11 @@
         <v>237</v>
       </c>
       <c r="G250" s="68"/>
-      <c r="H250" s="949" t="s">
+      <c r="H250" s="965" t="s">
         <v>295</v>
       </c>
-      <c r="I250" s="950"/>
-      <c r="J250" s="951"/>
+      <c r="I250" s="966"/>
+      <c r="J250" s="967"/>
       <c r="K250" s="68"/>
       <c r="L250" s="68"/>
       <c r="M250" s="69"/>
@@ -49695,9 +46536,9 @@
       <c r="W266" s="162" t="s">
         <v>311</v>
       </c>
-      <c r="X266" s="255" t="str">
+      <c r="X266" s="255">
         <f>IF(AB85="","",AB85)</f>
-        <v/>
+        <v>2.3223554914248874</v>
       </c>
       <c r="Y266" s="32"/>
       <c r="AA266" s="4"/>
@@ -49974,9 +46815,9 @@
       <c r="J271" s="162" t="s">
         <v>311</v>
       </c>
-      <c r="K271" s="142" t="str">
+      <c r="K271" s="142">
         <f t="shared" si="46"/>
-        <v/>
+        <v>2.3223554914248874</v>
       </c>
       <c r="L271" s="68"/>
       <c r="M271" s="69"/>
@@ -50169,7 +47010,7 @@
         <v/>
       </c>
       <c r="U274" s="400">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V274" s="339" t="str">
         <f>IF(S274="","",IF(S274&lt;=U274, "Pass","Fail"))</f>
@@ -50228,7 +47069,7 @@
         <v/>
       </c>
       <c r="U275" s="400">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V275" s="339" t="str">
         <f>IF(S275="","",IF(S275&lt;=U275, "Pass","Fail"))</f>
@@ -50280,7 +47121,7 @@
         <v/>
       </c>
       <c r="U276" s="679">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="V276" s="388" t="str">
         <f>IF(S276="","",IF(S276&lt;=U276, "Pass","Fail"))</f>
@@ -50427,7 +47268,7 @@
       </c>
       <c r="G279" s="400">
         <f>IF(U274="","",U274)</f>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H279" s="339" t="str">
         <f>IF(V274="","",V274)</f>
@@ -50491,7 +47332,7 @@
       </c>
       <c r="G280" s="400">
         <f t="shared" ref="G280:G281" si="49">IF(U275="","",U275)</f>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H280" s="339" t="str">
         <f>IF(V275="","",V275)</f>
@@ -50564,7 +47405,7 @@
       </c>
       <c r="G281" s="679">
         <f t="shared" si="49"/>
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H281" s="388" t="str">
         <f>IF(V276="","",V276)</f>
@@ -50897,9 +47738,9 @@
       <c r="C287" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="D287" s="375" t="str">
+      <c r="D287" s="375">
         <f>IF($P$7="","",$P$7)</f>
-        <v/>
+        <v>43273</v>
       </c>
       <c r="E287" s="27"/>
       <c r="F287" s="27"/>
@@ -50965,7 +47806,7 @@
       </c>
       <c r="D288" s="376" t="str">
         <f>IF($R$14="","",$R$14)</f>
-        <v/>
+        <v>1C07</v>
       </c>
       <c r="E288" s="27"/>
       <c r="F288" s="27"/>
@@ -50977,9 +47818,9 @@
       <c r="L288" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="M288" s="376" t="str">
+      <c r="M288" s="376">
         <f>IF($R$13="","",$R$13)</f>
-        <v/>
+        <v>2302</v>
       </c>
       <c r="O288" s="462"/>
       <c r="P288" s="3" t="s">
@@ -51111,11 +47952,11 @@
       <c r="H291" s="267" t="s">
         <v>330</v>
       </c>
-      <c r="I291" s="946">
+      <c r="I291" s="962">
         <f>IF(S367="","",S367)</f>
         <v>43014</v>
       </c>
-      <c r="J291" s="946"/>
+      <c r="J291" s="962"/>
       <c r="K291" s="59"/>
       <c r="L291" s="59"/>
       <c r="M291" s="61"/>
@@ -51162,11 +48003,11 @@
       <c r="H292" s="162" t="s">
         <v>332</v>
       </c>
-      <c r="I292" s="947">
+      <c r="I292" s="963">
         <f>IF(S368="","",S368)</f>
         <v>43744</v>
       </c>
-      <c r="J292" s="947"/>
+      <c r="J292" s="963"/>
       <c r="K292" s="4"/>
       <c r="M292" s="69"/>
       <c r="O292" s="462"/>
@@ -51266,11 +48107,11 @@
       </c>
       <c r="B294" s="67"/>
       <c r="C294" s="162"/>
-      <c r="F294" s="945" t="s">
+      <c r="F294" s="961" t="s">
         <v>333</v>
       </c>
-      <c r="G294" s="945"/>
-      <c r="H294" s="945"/>
+      <c r="G294" s="961"/>
+      <c r="H294" s="961"/>
       <c r="I294" s="578"/>
       <c r="J294" s="578"/>
       <c r="K294" s="107"/>
@@ -51385,7 +48226,7 @@
       <c r="B296" s="67"/>
       <c r="C296" s="436" t="str">
         <f>P371</f>
-        <v>/</v>
+        <v>Mo/Mo</v>
       </c>
       <c r="D296" s="418">
         <f t="shared" ref="D296:K301" si="52">IF(Q371="","",Q371)</f>
@@ -51836,7 +48677,7 @@
       <c r="B302" s="67"/>
       <c r="C302" s="450" t="str">
         <f>P378</f>
-        <v>/</v>
+        <v>Mo/</v>
       </c>
       <c r="D302" s="418">
         <f t="shared" ref="D302:K306" si="55">IF(Q378="","",Q378)</f>
@@ -53574,17 +50415,17 @@
       </c>
       <c r="B341" s="67"/>
       <c r="M341" s="69"/>
-      <c r="O341" s="990"/>
-      <c r="P341" s="991"/>
-      <c r="Q341" s="991"/>
-      <c r="R341" s="991"/>
-      <c r="S341" s="991"/>
-      <c r="T341" s="991"/>
-      <c r="U341" s="991"/>
-      <c r="V341" s="991"/>
-      <c r="W341" s="991"/>
-      <c r="X341" s="991"/>
-      <c r="Y341" s="992"/>
+      <c r="O341" s="880"/>
+      <c r="P341" s="881"/>
+      <c r="Q341" s="881"/>
+      <c r="R341" s="881"/>
+      <c r="S341" s="881"/>
+      <c r="T341" s="881"/>
+      <c r="U341" s="881"/>
+      <c r="V341" s="881"/>
+      <c r="W341" s="881"/>
+      <c r="X341" s="881"/>
+      <c r="Y341" s="882"/>
     </row>
     <row r="342" spans="1:25" ht="14.1" customHeight="1" thickBot="1">
       <c r="A342" s="17">
@@ -53633,7 +50474,7 @@
       </c>
       <c r="E343" s="321" t="str">
         <f>Q392</f>
-        <v>/</v>
+        <v>Mo/Mo</v>
       </c>
       <c r="F343" s="452" t="s">
         <v>172</v>
@@ -54639,9 +51480,9 @@
       <c r="C359" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="D359" s="375" t="str">
+      <c r="D359" s="375">
         <f>IF($P$7="","",$P$7)</f>
-        <v/>
+        <v>43273</v>
       </c>
       <c r="E359" s="27"/>
       <c r="F359" s="27"/>
@@ -54694,7 +51535,7 @@
       </c>
       <c r="D360" s="879" t="str">
         <f>IF($R$14="","",$R$14)</f>
-        <v/>
+        <v>1C07</v>
       </c>
       <c r="E360" s="27"/>
       <c r="F360" s="27"/>
@@ -54706,9 +51547,9 @@
       <c r="L360" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="M360" s="879" t="str">
+      <c r="M360" s="879">
         <f>IF($R$13="","",$R$13)</f>
-        <v/>
+        <v>2302</v>
       </c>
       <c r="O360" s="161" t="s">
         <v>217</v>
@@ -54848,7 +51689,7 @@
       </c>
       <c r="D364" s="140" t="str">
         <f>IF(Q407="","",Q407)</f>
-        <v>/</v>
+        <v>Mo/Mo</v>
       </c>
       <c r="E364" s="162" t="s">
         <v>53</v>
@@ -55078,13 +51919,13 @@
       <c r="L369" s="68"/>
       <c r="M369" s="69"/>
       <c r="O369" s="30"/>
-      <c r="S369" s="945" t="s">
+      <c r="S369" s="961" t="s">
         <v>333</v>
       </c>
-      <c r="T369" s="945"/>
-      <c r="U369" s="945"/>
-      <c r="V369" s="945"/>
-      <c r="W369" s="945"/>
+      <c r="T369" s="961"/>
+      <c r="U369" s="961"/>
+      <c r="V369" s="961"/>
+      <c r="W369" s="961"/>
       <c r="Y369" s="32"/>
     </row>
     <row r="370" spans="1:25" ht="14.1" customHeight="1" thickBot="1">
@@ -55170,9 +52011,9 @@
       <c r="L371" s="68"/>
       <c r="M371" s="69"/>
       <c r="O371" s="30"/>
-      <c r="P371" s="977" t="str">
+      <c r="P371" s="990" t="str">
         <f>AK10&amp;"/"&amp;AL10</f>
-        <v>/</v>
+        <v>Mo/Mo</v>
       </c>
       <c r="Q371" s="307">
         <f>AH10</f>
@@ -55229,7 +52070,7 @@
       <c r="L372" s="68"/>
       <c r="M372" s="69"/>
       <c r="O372" s="30"/>
-      <c r="P372" s="978"/>
+      <c r="P372" s="991"/>
       <c r="Q372" s="308">
         <f>AH18</f>
         <v>25</v>
@@ -55283,7 +52124,7 @@
       <c r="L373" s="68"/>
       <c r="M373" s="69"/>
       <c r="O373" s="30"/>
-      <c r="P373" s="978"/>
+      <c r="P373" s="991"/>
       <c r="Q373" s="307">
         <f>AH26</f>
         <v>26</v>
@@ -55328,11 +52169,11 @@
       </c>
       <c r="D374" s="714" t="str">
         <f>Q418</f>
-        <v>/</v>
+        <v>Mo/Mo</v>
       </c>
       <c r="E374" s="714" t="str">
         <f>R418</f>
-        <v>/</v>
+        <v>Mo/</v>
       </c>
       <c r="F374" s="715" t="str">
         <f>S418</f>
@@ -55346,7 +52187,7 @@
       <c r="L374"/>
       <c r="M374" s="69"/>
       <c r="O374" s="30"/>
-      <c r="P374" s="978"/>
+      <c r="P374" s="991"/>
       <c r="Q374" s="307">
         <f>AH28</f>
         <v>28</v>
@@ -55409,7 +52250,7 @@
       <c r="L375"/>
       <c r="M375" s="69"/>
       <c r="O375" s="30"/>
-      <c r="P375" s="978"/>
+      <c r="P375" s="991"/>
       <c r="Q375" s="307">
         <f>AH40</f>
         <v>30</v>
@@ -55472,7 +52313,7 @@
       <c r="L376"/>
       <c r="M376" s="69"/>
       <c r="O376" s="30"/>
-      <c r="P376" s="978"/>
+      <c r="P376" s="991"/>
       <c r="Q376" s="307">
         <f>AH41</f>
         <v>32</v>
@@ -55535,7 +52376,7 @@
       <c r="L377"/>
       <c r="M377" s="69"/>
       <c r="O377" s="30"/>
-      <c r="P377" s="979"/>
+      <c r="P377" s="992"/>
       <c r="Q377" s="307">
         <f>AH49</f>
         <v>34</v>
@@ -55598,9 +52439,9 @@
       <c r="L378"/>
       <c r="M378" s="69"/>
       <c r="O378" s="30"/>
-      <c r="P378" s="974" t="str">
+      <c r="P378" s="999" t="str">
         <f>AK57&amp;"/"&amp;AL57</f>
-        <v>/</v>
+        <v>Mo/</v>
       </c>
       <c r="Q378" s="307">
         <f>AH57</f>
@@ -55657,7 +52498,7 @@
       <c r="L379"/>
       <c r="M379" s="69"/>
       <c r="O379" s="161"/>
-      <c r="P379" s="975"/>
+      <c r="P379" s="1000"/>
       <c r="Q379" s="307">
         <f>AH65</f>
         <v>30</v>
@@ -55699,7 +52540,7 @@
       <c r="B380" s="67"/>
       <c r="M380" s="69"/>
       <c r="O380" s="30"/>
-      <c r="P380" s="975"/>
+      <c r="P380" s="1000"/>
       <c r="Q380" s="307">
         <f>AH73</f>
         <v>32</v>
@@ -55753,7 +52594,7 @@
       <c r="L381" s="68"/>
       <c r="M381" s="69"/>
       <c r="O381" s="30"/>
-      <c r="P381" s="975"/>
+      <c r="P381" s="1000"/>
       <c r="Q381" s="307">
         <f>AH81</f>
         <v>34</v>
@@ -55820,7 +52661,7 @@
       </c>
       <c r="M382" s="69"/>
       <c r="O382" s="30"/>
-      <c r="P382" s="975"/>
+      <c r="P382" s="1000"/>
       <c r="Q382" s="307">
         <f t="shared" ref="Q382:R384" si="71">AH89</f>
         <v>36</v>
@@ -55894,7 +52735,7 @@
       </c>
       <c r="M383" s="69"/>
       <c r="O383" s="30"/>
-      <c r="P383" s="976"/>
+      <c r="P383" s="1001"/>
       <c r="Q383" s="307">
         <f t="shared" si="71"/>
         <v>38</v>
@@ -55968,7 +52809,7 @@
       </c>
       <c r="M384" s="69"/>
       <c r="O384" s="30"/>
-      <c r="P384" s="974" t="str">
+      <c r="P384" s="999" t="str">
         <f>AK91&amp;"/"&amp;AL91</f>
         <v>/</v>
       </c>
@@ -56028,7 +52869,7 @@
       <c r="L385" s="68"/>
       <c r="M385" s="69"/>
       <c r="O385" s="30"/>
-      <c r="P385" s="975"/>
+      <c r="P385" s="1000"/>
       <c r="Q385" s="308">
         <f>AH101</f>
         <v>30</v>
@@ -56084,7 +52925,7 @@
       <c r="L386" s="68"/>
       <c r="M386" s="69"/>
       <c r="O386" s="30"/>
-      <c r="P386" s="975"/>
+      <c r="P386" s="1000"/>
       <c r="Q386" s="307">
         <f>AH109</f>
         <v>32</v>
@@ -56138,7 +52979,7 @@
       <c r="L387" s="68"/>
       <c r="M387" s="69"/>
       <c r="O387" s="30"/>
-      <c r="P387" s="975"/>
+      <c r="P387" s="1000"/>
       <c r="Q387" s="307">
         <f>AH117</f>
         <v>34</v>
@@ -56190,7 +53031,7 @@
       <c r="L388" s="68"/>
       <c r="M388" s="69"/>
       <c r="O388" s="30"/>
-      <c r="P388" s="976"/>
+      <c r="P388" s="1001"/>
       <c r="Q388" s="307">
         <f>AH125</f>
         <v>38</v>
@@ -56379,7 +53220,7 @@
       </c>
       <c r="Q392" s="321" t="str">
         <f>AK10&amp;"/"&amp;AL10</f>
-        <v>/</v>
+        <v>Mo/Mo</v>
       </c>
       <c r="R392" s="452" t="s">
         <v>172</v>
@@ -57057,13 +53898,13 @@
       <c r="P402" s="752"/>
       <c r="Q402" s="752"/>
       <c r="R402" s="315"/>
-      <c r="S402" s="316" t="str">
+      <c r="S402" s="316">
         <f>IF(AB88="","",AB88)</f>
-        <v/>
-      </c>
-      <c r="T402" s="317" t="str">
+        <v>0.12114819218253589</v>
+      </c>
+      <c r="T402" s="317">
         <f>IF(AB89="","",AB89)</f>
-        <v/>
+        <v>11.920722611722631</v>
       </c>
       <c r="U402" s="752"/>
       <c r="V402" s="752"/>
@@ -57200,7 +54041,7 @@
       </c>
       <c r="Q407" s="751" t="str">
         <f>AK10&amp;"/"&amp;AL10</f>
-        <v>/</v>
+        <v>Mo/Mo</v>
       </c>
       <c r="R407" s="35" t="s">
         <v>172</v>
@@ -57607,11 +54448,11 @@
       </c>
       <c r="Q418" s="673" t="str">
         <f>$P$371</f>
-        <v>/</v>
+        <v>Mo/Mo</v>
       </c>
       <c r="R418" s="673" t="str">
         <f>$P$378</f>
-        <v>/</v>
+        <v>Mo/</v>
       </c>
       <c r="S418" s="755" t="str">
         <f>$P$384</f>
@@ -57678,11 +54519,11 @@
       <c r="P420" s="674" t="s">
         <v>352</v>
       </c>
-      <c r="Q420" s="980" t="s">
+      <c r="Q420" s="1002" t="s">
         <v>353</v>
       </c>
-      <c r="R420" s="981"/>
-      <c r="S420" s="982"/>
+      <c r="R420" s="1003"/>
+      <c r="S420" s="1004"/>
       <c r="T420"/>
       <c r="U420"/>
       <c r="V420"/>
@@ -58056,9 +54897,9 @@
       <c r="C431" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="D431" s="375" t="str">
+      <c r="D431" s="375">
         <f>IF($P$7="","",$P$7)</f>
-        <v/>
+        <v>43273</v>
       </c>
       <c r="E431" s="27"/>
       <c r="F431" s="27"/>
@@ -58093,7 +54934,7 @@
       </c>
       <c r="D432" s="376" t="str">
         <f>IF($R$14="","",$R$14)</f>
-        <v/>
+        <v>1C07</v>
       </c>
       <c r="E432" s="27"/>
       <c r="F432" s="27"/>
@@ -58105,9 +54946,9 @@
       <c r="L432" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="M432" s="376" t="str">
+      <c r="M432" s="376">
         <f>IF($R$13="","",$R$13)</f>
-        <v/>
+        <v>2302</v>
       </c>
       <c r="O432" s="30"/>
       <c r="P432" s="35" t="s">
@@ -58245,12 +55086,12 @@
         <v>4</v>
       </c>
       <c r="B436" s="67"/>
-      <c r="E436" s="1003" t="s">
+      <c r="E436" s="996" t="s">
         <v>803</v>
       </c>
-      <c r="F436" s="1004"/>
-      <c r="G436" s="1004"/>
-      <c r="H436" s="1005"/>
+      <c r="F436" s="997"/>
+      <c r="G436" s="997"/>
+      <c r="H436" s="998"/>
       <c r="M436" s="69"/>
       <c r="O436" s="30"/>
       <c r="P436" s="35" t="s">
@@ -58274,27 +55115,27 @@
         <v>5</v>
       </c>
       <c r="B437" s="67"/>
-      <c r="C437" s="999" t="s">
+      <c r="C437" s="886" t="s">
         <v>797</v>
       </c>
-      <c r="D437" s="1006" t="str">
-        <f>IF(P468="","",P468)</f>
-        <v/>
-      </c>
-      <c r="E437" s="1006" t="str">
-        <f>IF(Q468="","",Q468)</f>
-        <v/>
-      </c>
-      <c r="F437" s="1006" t="str">
-        <f>IF(R468="","",R468)</f>
-        <v/>
-      </c>
-      <c r="G437" s="1006" t="str">
-        <f>IF(S468="","",S468)</f>
-        <v/>
-      </c>
-      <c r="H437" s="1006" t="str">
-        <f>IF(T468="","",T468)</f>
+      <c r="D437" s="890" t="str">
+        <f t="shared" ref="D437:H438" si="89">IF(P468="","",P468)</f>
+        <v/>
+      </c>
+      <c r="E437" s="890" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="F437" s="890" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="G437" s="890" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="H437" s="890" t="str">
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="M437" s="69"/>
@@ -58317,27 +55158,27 @@
         <v>6</v>
       </c>
       <c r="B438" s="67"/>
-      <c r="C438" s="999" t="s">
+      <c r="C438" s="886" t="s">
         <v>798</v>
       </c>
-      <c r="D438" s="1006" t="str">
-        <f>IF(P469="","",P469)</f>
-        <v/>
-      </c>
-      <c r="E438" s="1006" t="str">
-        <f>IF(Q469="","",Q469)</f>
-        <v/>
-      </c>
-      <c r="F438" s="1006" t="str">
-        <f>IF(R469="","",R469)</f>
-        <v/>
-      </c>
-      <c r="G438" s="1006" t="str">
-        <f>IF(S469="","",S469)</f>
-        <v/>
-      </c>
-      <c r="H438" s="1006" t="str">
-        <f>IF(T469="","",T469)</f>
+      <c r="D438" s="890" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="E438" s="890" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="F438" s="890" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="G438" s="890" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+      <c r="H438" s="890" t="str">
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="M438" s="69"/>
@@ -58349,12 +55190,12 @@
         <v>7</v>
       </c>
       <c r="B439" s="67"/>
-      <c r="C439" s="1008"/>
-      <c r="D439" s="1009"/>
-      <c r="E439" s="1009"/>
-      <c r="F439" s="1009"/>
-      <c r="G439" s="1009"/>
-      <c r="H439" s="1010"/>
+      <c r="C439" s="892"/>
+      <c r="D439" s="893"/>
+      <c r="E439" s="893"/>
+      <c r="F439" s="893"/>
+      <c r="G439" s="893"/>
+      <c r="H439" s="894"/>
       <c r="M439" s="69"/>
       <c r="O439" s="278" t="s">
         <v>358</v>
@@ -58366,27 +55207,27 @@
         <v>8</v>
       </c>
       <c r="B440" s="67"/>
-      <c r="C440" s="1007" t="s">
+      <c r="C440" s="891" t="s">
         <v>799</v>
       </c>
       <c r="D440" s="296" t="str">
-        <f>IF(P471="","",P471)</f>
+        <f t="shared" ref="D440:H444" si="90">IF(P471="","",P471)</f>
         <v/>
       </c>
       <c r="E440" s="296" t="str">
-        <f>IF(Q471="","",Q471)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="F440" s="296" t="str">
-        <f>IF(R471="","",R471)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="G440" s="296" t="str">
-        <f>IF(S471="","",S471)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H440" s="296" t="str">
-        <f>IF(T471="","",T471)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="M440" s="69"/>
@@ -58406,27 +55247,27 @@
         <v>9</v>
       </c>
       <c r="B441" s="67"/>
-      <c r="C441" s="1007" t="s">
+      <c r="C441" s="891" t="s">
         <v>800</v>
       </c>
       <c r="D441" s="296" t="str">
-        <f>IF(P472="","",P472)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="E441" s="296" t="str">
-        <f>IF(Q472="","",Q472)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="F441" s="296" t="str">
-        <f>IF(R472="","",R472)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="G441" s="296" t="str">
-        <f>IF(S472="","",S472)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H441" s="296" t="str">
-        <f>IF(T472="","",T472)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="M441" s="69"/>
@@ -58450,27 +55291,27 @@
         <v>10</v>
       </c>
       <c r="B442" s="67"/>
-      <c r="C442" s="1007" t="s">
+      <c r="C442" s="891" t="s">
         <v>801</v>
       </c>
       <c r="D442" s="296" t="str">
-        <f>IF(P473="","",P473)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="E442" s="296" t="str">
-        <f>IF(Q473="","",Q473)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="F442" s="296" t="str">
-        <f>IF(R473="","",R473)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="G442" s="296" t="str">
-        <f>IF(S473="","",S473)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H442" s="296" t="str">
-        <f>IF(T473="","",T473)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="M442" s="69"/>
@@ -58492,27 +55333,27 @@
         <v>11</v>
       </c>
       <c r="B443" s="67"/>
-      <c r="C443" s="1007" t="s">
+      <c r="C443" s="891" t="s">
         <v>802</v>
       </c>
       <c r="D443" s="15" t="str">
-        <f>IF(P474="","",P474)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="E443" s="15" t="str">
-        <f>IF(Q474="","",Q474)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="F443" s="15" t="str">
-        <f>IF(R474="","",R474)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="G443" s="15" t="str">
-        <f>IF(S474="","",S474)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H443" s="15" t="str">
-        <f>IF(T474="","",T474)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="M443" s="69"/>
@@ -58534,27 +55375,27 @@
         <v>12</v>
       </c>
       <c r="B444" s="67"/>
-      <c r="C444" s="1007" t="s">
+      <c r="C444" s="891" t="s">
         <v>804</v>
       </c>
       <c r="D444" s="15" t="str">
-        <f>IF(P475="","",P475)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="E444" s="15" t="str">
-        <f>IF(Q475="","",Q475)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="F444" s="15" t="str">
-        <f>IF(R475="","",R475)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="G444" s="15" t="str">
-        <f>IF(S475="","",S475)</f>
-        <v/>
-      </c>
-      <c r="H444" s="999" t="str">
-        <f>IF(T475="","",T475)</f>
+        <f t="shared" si="90"/>
+        <v/>
+      </c>
+      <c r="H444" s="886" t="str">
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="M444" s="69"/>
@@ -58576,16 +55417,16 @@
         <v>13</v>
       </c>
       <c r="B445" s="67"/>
-      <c r="C445" s="1011"/>
+      <c r="C445" s="895"/>
       <c r="D445" s="113" t="s">
         <v>203</v>
       </c>
       <c r="E445" s="138" t="s">
         <v>805</v>
       </c>
-      <c r="F445" s="1011"/>
-      <c r="G445" s="1011"/>
-      <c r="H445" s="1011"/>
+      <c r="F445" s="895"/>
+      <c r="G445" s="895"/>
+      <c r="H445" s="895"/>
       <c r="M445" s="69"/>
       <c r="O445" s="30"/>
       <c r="Y445" s="32"/>
@@ -58687,9 +55528,9 @@
       <c r="U448" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="V448" s="283" t="str">
+      <c r="V448" s="283">
         <f>IF(AB103="","",AB103)</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="W448" s="284" t="str">
         <f>IF(AB108="","",AB108)</f>
@@ -58731,9 +55572,9 @@
       <c r="U449" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="V449" s="289" t="str">
+      <c r="V449" s="289">
         <f>IF(AB104="","",AB104)</f>
-        <v/>
+        <v>93</v>
       </c>
       <c r="W449" s="290" t="str">
         <f>IF(AB109="","",AB109)</f>
@@ -58775,9 +55616,9 @@
       <c r="U450" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="V450" s="289" t="str">
+      <c r="V450" s="289">
         <f>IF(AB105="","",AB105)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="W450" s="290" t="str">
         <f>IF(AB110="","",AB110)</f>
@@ -58819,9 +55660,9 @@
       <c r="U451" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="V451" s="289" t="str">
+      <c r="V451" s="289">
         <f>IF(AB106="","",AB106)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="W451" s="290" t="str">
         <f>IF(AB111="","",AB111)</f>
@@ -58863,9 +55704,9 @@
       <c r="U452" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="V452" s="289" t="str">
+      <c r="V452" s="289">
         <f>IF(AB107="","",AB107)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="W452" s="290" t="str">
         <f>IF(AB112="","",AB112)</f>
@@ -58949,14 +55790,14 @@
       <c r="W454" s="41"/>
       <c r="X454" s="41"/>
       <c r="Y454" s="42"/>
-      <c r="AA454" s="945" t="s">
+      <c r="AA454" s="961" t="s">
         <v>787</v>
       </c>
-      <c r="AB454" s="945"/>
-      <c r="AC454" s="945" t="s">
+      <c r="AB454" s="961"/>
+      <c r="AC454" s="961" t="s">
         <v>788</v>
       </c>
-      <c r="AD454" s="945"/>
+      <c r="AD454" s="961"/>
     </row>
     <row r="455" spans="1:30" ht="14.1" customHeight="1">
       <c r="A455" s="17">
@@ -59461,12 +56302,12 @@
       <c r="K467" s="490"/>
       <c r="L467" s="490"/>
       <c r="M467" s="69"/>
-      <c r="Q467" s="996" t="s">
+      <c r="Q467" s="993" t="s">
         <v>803</v>
       </c>
-      <c r="R467" s="997"/>
-      <c r="S467" s="997"/>
-      <c r="T467" s="998"/>
+      <c r="R467" s="994"/>
+      <c r="S467" s="994"/>
+      <c r="T467" s="995"/>
     </row>
     <row r="468" spans="1:28" ht="14.1" customHeight="1">
       <c r="A468" s="17">
@@ -59490,11 +56331,11 @@
       <c r="O468" s="21" t="s">
         <v>797</v>
       </c>
-      <c r="P468" s="995"/>
-      <c r="Q468" s="993"/>
-      <c r="R468" s="993"/>
-      <c r="S468" s="993"/>
-      <c r="T468" s="993"/>
+      <c r="P468" s="885"/>
+      <c r="Q468" s="883"/>
+      <c r="R468" s="883"/>
+      <c r="S468" s="883"/>
+      <c r="T468" s="883"/>
       <c r="AA468" s="21" t="s">
         <v>789</v>
       </c>
@@ -59521,11 +56362,11 @@
       <c r="O469" s="21" t="s">
         <v>798</v>
       </c>
-      <c r="P469" s="993"/>
-      <c r="Q469" s="993"/>
-      <c r="R469" s="993"/>
-      <c r="S469" s="993"/>
-      <c r="T469" s="993"/>
+      <c r="P469" s="883"/>
+      <c r="Q469" s="883"/>
+      <c r="R469" s="883"/>
+      <c r="S469" s="883"/>
+      <c r="T469" s="883"/>
       <c r="AA469" s="21" t="s">
         <v>791</v>
       </c>
@@ -59552,11 +56393,11 @@
       <c r="K470" s="651"/>
       <c r="L470" s="669"/>
       <c r="M470" s="69"/>
-      <c r="P470" s="994"/>
-      <c r="Q470" s="994"/>
-      <c r="R470" s="994"/>
-      <c r="S470" s="994"/>
-      <c r="T470" s="994"/>
+      <c r="P470" s="884"/>
+      <c r="Q470" s="884"/>
+      <c r="R470" s="884"/>
+      <c r="S470" s="884"/>
+      <c r="T470" s="884"/>
       <c r="AA470" s="21" t="s">
         <v>792</v>
       </c>
@@ -59586,11 +56427,11 @@
       <c r="O471" s="35" t="s">
         <v>799</v>
       </c>
-      <c r="P471" s="1000"/>
-      <c r="Q471" s="1000"/>
-      <c r="R471" s="1000"/>
-      <c r="S471" s="1000"/>
-      <c r="T471" s="1000"/>
+      <c r="P471" s="887"/>
+      <c r="Q471" s="887"/>
+      <c r="R471" s="887"/>
+      <c r="S471" s="887"/>
+      <c r="T471" s="887"/>
       <c r="AA471" s="21" t="s">
         <v>790</v>
       </c>
@@ -59607,11 +56448,11 @@
       <c r="O472" s="35" t="s">
         <v>800</v>
       </c>
-      <c r="P472" s="1000"/>
-      <c r="Q472" s="1000"/>
-      <c r="R472" s="1000"/>
-      <c r="S472" s="1000"/>
-      <c r="T472" s="1000"/>
+      <c r="P472" s="887"/>
+      <c r="Q472" s="887"/>
+      <c r="R472" s="887"/>
+      <c r="S472" s="887"/>
+      <c r="T472" s="887"/>
       <c r="AA472" s="21" t="s">
         <v>793</v>
       </c>
@@ -59628,11 +56469,11 @@
       <c r="O473" s="35" t="s">
         <v>801</v>
       </c>
-      <c r="P473" s="1001"/>
-      <c r="Q473" s="1001"/>
-      <c r="R473" s="1001"/>
-      <c r="S473" s="1001"/>
-      <c r="T473" s="1001"/>
+      <c r="P473" s="888"/>
+      <c r="Q473" s="888"/>
+      <c r="R473" s="888"/>
+      <c r="S473" s="888"/>
+      <c r="T473" s="888"/>
       <c r="AA473" s="21" t="s">
         <v>794</v>
       </c>
@@ -59654,19 +56495,19 @@
         <v/>
       </c>
       <c r="Q474" s="15" t="str">
-        <f t="shared" ref="Q474:T474" si="89">IF(Q471="","",(Q472+Q473)/Q471)</f>
+        <f t="shared" ref="Q474:T474" si="91">IF(Q471="","",(Q472+Q473)/Q471)</f>
         <v/>
       </c>
       <c r="R474" s="15" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="S474" s="15" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="T474" s="15" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AA474" s="21" t="s">
@@ -59686,20 +56527,20 @@
       <c r="O475" s="35" t="s">
         <v>804</v>
       </c>
-      <c r="P475" s="1002" t="str">
+      <c r="P475" s="889" t="str">
         <f>IF(OR(P474="",Q474=""),"",ABS(P474-Q474)/Q474)</f>
         <v/>
       </c>
-      <c r="Q475" s="1002" t="str">
+      <c r="Q475" s="889" t="str">
         <f>IF(OR(Q474="",R474=""),"",ABS(Q474-R474)/R474)</f>
         <v/>
       </c>
-      <c r="R475" s="1002" t="str">
-        <f t="shared" ref="R475:S475" si="90">IF(OR(R474="",S474=""),"",ABS(R474-S474)/S474)</f>
-        <v/>
-      </c>
-      <c r="S475" s="1002" t="str">
-        <f t="shared" si="90"/>
+      <c r="R475" s="889" t="str">
+        <f t="shared" ref="R475:S475" si="92">IF(OR(R474="",S474=""),"",ABS(R474-S474)/S474)</f>
+        <v/>
+      </c>
+      <c r="S475" s="889" t="str">
+        <f t="shared" si="92"/>
         <v/>
       </c>
     </row>
@@ -60344,9 +57185,9 @@
       <c r="C503" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="D503" s="375" t="str">
+      <c r="D503" s="375">
         <f>IF($P$7="","",$P$7)</f>
-        <v/>
+        <v>43273</v>
       </c>
       <c r="E503" s="27"/>
       <c r="F503" s="27"/>
@@ -60388,7 +57229,7 @@
       </c>
       <c r="D504" s="376" t="str">
         <f>IF($R$14="","",$R$14)</f>
-        <v/>
+        <v>1C07</v>
       </c>
       <c r="E504" s="27"/>
       <c r="F504" s="27"/>
@@ -60400,9 +57241,9 @@
       <c r="L504" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="M504" s="376" t="str">
+      <c r="M504" s="376">
         <f>IF($R$13="","",$R$13)</f>
-        <v/>
+        <v>2302</v>
       </c>
       <c r="O504" s="637"/>
       <c r="P504" s="629" t="s">
@@ -60615,12 +57456,12 @@
     <mergeCell ref="AC454:AD454"/>
     <mergeCell ref="P378:P383"/>
     <mergeCell ref="P384:P388"/>
+    <mergeCell ref="Q420:S420"/>
     <mergeCell ref="Q194:S194"/>
     <mergeCell ref="U194:W194"/>
     <mergeCell ref="U245:W245"/>
     <mergeCell ref="S369:W369"/>
     <mergeCell ref="P371:P377"/>
-    <mergeCell ref="Q420:S420"/>
     <mergeCell ref="P129:R130"/>
     <mergeCell ref="S129:U130"/>
     <mergeCell ref="V129:X130"/>
@@ -62960,9 +59801,9 @@
       <c r="A2" s="781" t="s">
         <v>733</v>
       </c>
-      <c r="B2" s="782" t="str">
+      <c r="B2" s="782">
         <f>Sheet1!F13</f>
-        <v/>
+        <v>2302</v>
       </c>
     </row>
   </sheetData>
@@ -62997,41 +59838,41 @@
     </row>
     <row r="2" spans="1:30" ht="14.1" customHeight="1">
       <c r="A2" s="304"/>
-      <c r="B2" s="983" t="s">
+      <c r="B2" s="1005" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="983"/>
-      <c r="D2" s="983"/>
-      <c r="E2" s="983"/>
-      <c r="F2" s="983"/>
-      <c r="G2" s="983"/>
-      <c r="H2" s="983"/>
-      <c r="I2" s="983"/>
-      <c r="J2" s="983"/>
+      <c r="C2" s="1005"/>
+      <c r="D2" s="1005"/>
+      <c r="E2" s="1005"/>
+      <c r="F2" s="1005"/>
+      <c r="G2" s="1005"/>
+      <c r="H2" s="1005"/>
+      <c r="I2" s="1005"/>
+      <c r="J2" s="1005"/>
       <c r="K2" s="304"/>
-      <c r="L2" s="983" t="s">
+      <c r="L2" s="1005" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="983"/>
-      <c r="N2" s="983"/>
-      <c r="O2" s="983"/>
-      <c r="P2" s="983"/>
-      <c r="Q2" s="983"/>
-      <c r="R2" s="983"/>
-      <c r="S2" s="983"/>
-      <c r="T2" s="983"/>
+      <c r="M2" s="1005"/>
+      <c r="N2" s="1005"/>
+      <c r="O2" s="1005"/>
+      <c r="P2" s="1005"/>
+      <c r="Q2" s="1005"/>
+      <c r="R2" s="1005"/>
+      <c r="S2" s="1005"/>
+      <c r="T2" s="1005"/>
       <c r="U2" s="304"/>
-      <c r="V2" s="983" t="s">
+      <c r="V2" s="1005" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="983"/>
-      <c r="X2" s="983"/>
-      <c r="Y2" s="983"/>
-      <c r="Z2" s="983"/>
-      <c r="AA2" s="983"/>
-      <c r="AB2" s="983"/>
-      <c r="AC2" s="983"/>
-      <c r="AD2" s="983"/>
+      <c r="W2" s="1005"/>
+      <c r="X2" s="1005"/>
+      <c r="Y2" s="1005"/>
+      <c r="Z2" s="1005"/>
+      <c r="AA2" s="1005"/>
+      <c r="AB2" s="1005"/>
+      <c r="AC2" s="1005"/>
+      <c r="AD2" s="1005"/>
     </row>
     <row r="3" spans="1:30" ht="14.1" customHeight="1">
       <c r="A3" s="206" t="s">
@@ -64491,36 +61332,36 @@
     </row>
     <row r="26" spans="1:30" ht="14.1" customHeight="1">
       <c r="A26" s="304"/>
-      <c r="B26" s="984" t="s">
+      <c r="B26" s="1006" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="984"/>
-      <c r="D26" s="984"/>
-      <c r="E26" s="984"/>
-      <c r="F26" s="984"/>
-      <c r="G26" s="984"/>
-      <c r="H26" s="984"/>
-      <c r="I26" s="984"/>
-      <c r="J26" s="984"/>
-      <c r="K26" s="984"/>
-      <c r="L26" s="984"/>
+      <c r="C26" s="1006"/>
+      <c r="D26" s="1006"/>
+      <c r="E26" s="1006"/>
+      <c r="F26" s="1006"/>
+      <c r="G26" s="1006"/>
+      <c r="H26" s="1006"/>
+      <c r="I26" s="1006"/>
+      <c r="J26" s="1006"/>
+      <c r="K26" s="1006"/>
+      <c r="L26" s="1006"/>
       <c r="M26" s="218"/>
       <c r="N26" s="304"/>
-      <c r="O26" s="983" t="s">
+      <c r="O26" s="1005" t="s">
         <v>24</v>
       </c>
-      <c r="P26" s="983"/>
-      <c r="Q26" s="983"/>
-      <c r="R26" s="983"/>
-      <c r="S26" s="983"/>
-      <c r="T26" s="983"/>
-      <c r="U26" s="983"/>
-      <c r="V26" s="983"/>
-      <c r="W26" s="983"/>
-      <c r="X26" s="983"/>
-      <c r="Y26" s="983"/>
-      <c r="Z26" s="983"/>
-      <c r="AA26" s="983"/>
+      <c r="P26" s="1005"/>
+      <c r="Q26" s="1005"/>
+      <c r="R26" s="1005"/>
+      <c r="S26" s="1005"/>
+      <c r="T26" s="1005"/>
+      <c r="U26" s="1005"/>
+      <c r="V26" s="1005"/>
+      <c r="W26" s="1005"/>
+      <c r="X26" s="1005"/>
+      <c r="Y26" s="1005"/>
+      <c r="Z26" s="1005"/>
+      <c r="AA26" s="1005"/>
     </row>
     <row r="27" spans="1:30" ht="14.1" customHeight="1">
       <c r="A27" s="206" t="s">
@@ -66354,26 +63195,26 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="14.1" customHeight="1">
-      <c r="B51" s="985" t="s">
+      <c r="B51" s="1007" t="s">
         <v>426</v>
       </c>
-      <c r="C51" s="985" t="s">
+      <c r="C51" s="1007" t="s">
         <v>427</v>
       </c>
-      <c r="D51" s="987" t="s">
+      <c r="D51" s="1009" t="s">
         <v>428</v>
       </c>
-      <c r="E51" s="988"/>
-      <c r="F51" s="988"/>
-      <c r="G51" s="988"/>
-      <c r="H51" s="988"/>
-      <c r="I51" s="988"/>
-      <c r="J51" s="988"/>
-      <c r="K51" s="989"/>
+      <c r="E51" s="1010"/>
+      <c r="F51" s="1010"/>
+      <c r="G51" s="1010"/>
+      <c r="H51" s="1010"/>
+      <c r="I51" s="1010"/>
+      <c r="J51" s="1010"/>
+      <c r="K51" s="1011"/>
     </row>
     <row r="52" spans="1:19" ht="14.1" customHeight="1">
-      <c r="B52" s="986"/>
-      <c r="C52" s="986"/>
+      <c r="B52" s="1008"/>
+      <c r="C52" s="1008"/>
       <c r="D52" s="233">
         <v>0.25</v>
       </c>
@@ -66668,16 +63509,16 @@
       <c r="L62" s="712" t="s">
         <v>334</v>
       </c>
-      <c r="O62" s="952"/>
-      <c r="P62" s="952"/>
-      <c r="Q62" s="952"/>
-      <c r="R62" s="952"/>
-      <c r="S62" s="952"/>
+      <c r="O62" s="968"/>
+      <c r="P62" s="968"/>
+      <c r="Q62" s="968"/>
+      <c r="R62" s="968"/>
+      <c r="S62" s="968"/>
     </row>
     <row r="63" spans="1:19" ht="14.1" customHeight="1">
       <c r="A63" s="712" t="str">
         <f>Sheet1!P371</f>
-        <v>/</v>
+        <v>Mo/Mo</v>
       </c>
       <c r="B63" s="712">
         <f>Sheet1!Q371</f>
@@ -66693,7 +63534,7 @@
       </c>
       <c r="E63" s="712" t="str">
         <f>Sheet1!P378</f>
-        <v>/</v>
+        <v>Mo/</v>
       </c>
       <c r="F63" s="712">
         <f>Sheet1!Q378</f>
@@ -66956,11 +63797,11 @@
       <c r="C70" s="712"/>
       <c r="D70" s="712" t="str">
         <f>A63</f>
-        <v>/</v>
+        <v>Mo/Mo</v>
       </c>
       <c r="E70" s="712" t="str">
         <f>E63</f>
-        <v>/</v>
+        <v>Mo/</v>
       </c>
       <c r="F70" s="300" t="str">
         <f>I63</f>
@@ -67104,7 +63945,7 @@
     <row r="76" spans="1:19" ht="14.1" customHeight="1">
       <c r="A76" s="712" t="str">
         <f>Sheet1!P371</f>
-        <v>/</v>
+        <v>Mo/Mo</v>
       </c>
       <c r="B76" s="271" t="e">
         <f>AVERAGE(Sheet1!AM10:AM11)</f>
@@ -67116,7 +63957,7 @@
       </c>
       <c r="D76" s="712" t="str">
         <f>Sheet1!P378</f>
-        <v>/</v>
+        <v>Mo/</v>
       </c>
       <c r="E76" s="271" t="e">
         <f>AVERAGE(Sheet1!AM57:AM58)</f>
@@ -67339,11 +64180,11 @@
     <row r="83" spans="1:19" ht="14.1" customHeight="1">
       <c r="D83" s="712" t="str">
         <f>A76</f>
-        <v>/</v>
+        <v>Mo/Mo</v>
       </c>
       <c r="E83" s="712" t="str">
         <f>D76</f>
-        <v>/</v>
+        <v>Mo/</v>
       </c>
       <c r="F83" s="712" t="str">
         <f>G76</f>

--- a/MUSCMammoSiemens.xlsx
+++ b/MUSCMammoSiemens.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="806">
   <si>
     <t>Print Area</t>
   </si>
@@ -3332,45 +3332,6 @@
   </si>
   <si>
     <t>Reject/Repeat rate should not change by more than 2% from the previous test.</t>
-  </si>
-  <si>
-    <t>MUSC Health East Cooper</t>
-  </si>
-  <si>
-    <t>Radiology</t>
-  </si>
-  <si>
-    <t>Mammography</t>
-  </si>
-  <si>
-    <t>1C07</t>
-  </si>
-  <si>
-    <t>400-392781</t>
-  </si>
-  <si>
-    <t>SBB</t>
-  </si>
-  <si>
-    <t>Mammotest</t>
-  </si>
-  <si>
-    <t>Varian</t>
-  </si>
-  <si>
-    <t>M-147SP</t>
-  </si>
-  <si>
-    <t>19420-W1</t>
-  </si>
-  <si>
-    <t>B-110</t>
-  </si>
-  <si>
-    <t>H19420</t>
-  </si>
-  <si>
-    <t>MTP1C07_2018</t>
   </si>
 </sst>
 </file>
@@ -9222,18 +9183,90 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="23" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="23" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="23" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="148" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="146" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="147" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="175" fontId="23" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9243,84 +9276,39 @@
     <xf numFmtId="175" fontId="23" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="173" fontId="23" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="23" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="23" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="148" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="146" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="147" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="122" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="151" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="150" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="149" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9333,32 +9321,23 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="80" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="122" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="151" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="150" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="149" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -9390,9 +9369,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9402,33 +9378,126 @@
     <xf numFmtId="0" fontId="73" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="80" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="191" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="193" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="195" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="196" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9438,116 +9507,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="191" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="193" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="195" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="196" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10908,7 +10869,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mo/Mo</c:v>
+                  <c:v>/</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11007,7 +10968,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mo/</c:v>
+                  <c:v>/</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13181,7 +13142,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mo/Mo</c:v>
+                  <c:v>/</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13328,7 +13289,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mo/</c:v>
+                  <c:v>/</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13997,7 +13958,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mo/Mo</c:v>
+                  <c:v>/</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14144,7 +14105,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mo/</c:v>
+                  <c:v>/</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -27095,40 +27056,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="896" t="s">
+      <c r="A1" s="923" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="896"/>
-      <c r="C1" s="896"/>
-      <c r="D1" s="896"/>
-      <c r="E1" s="896"/>
-      <c r="F1" s="896"/>
-      <c r="G1" s="896"/>
-      <c r="H1" s="896"/>
-      <c r="I1" s="896"/>
-      <c r="J1" s="896"/>
-      <c r="K1" s="896"/>
-      <c r="L1" s="896"/>
-      <c r="M1" s="896"/>
-      <c r="N1" s="896"/>
+      <c r="B1" s="923"/>
+      <c r="C1" s="923"/>
+      <c r="D1" s="923"/>
+      <c r="E1" s="923"/>
+      <c r="F1" s="923"/>
+      <c r="G1" s="923"/>
+      <c r="H1" s="923"/>
+      <c r="I1" s="923"/>
+      <c r="J1" s="923"/>
+      <c r="K1" s="923"/>
+      <c r="L1" s="923"/>
+      <c r="M1" s="923"/>
+      <c r="N1" s="923"/>
     </row>
     <row r="2" spans="1:14" ht="26.25">
-      <c r="A2" s="896" t="s">
+      <c r="A2" s="923" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="896"/>
-      <c r="C2" s="896"/>
-      <c r="D2" s="896"/>
-      <c r="E2" s="896"/>
-      <c r="F2" s="896"/>
-      <c r="G2" s="896"/>
-      <c r="H2" s="896"/>
-      <c r="I2" s="896"/>
-      <c r="J2" s="896"/>
-      <c r="K2" s="896"/>
-      <c r="L2" s="896"/>
-      <c r="M2" s="896"/>
-      <c r="N2" s="896"/>
+      <c r="B2" s="923"/>
+      <c r="C2" s="923"/>
+      <c r="D2" s="923"/>
+      <c r="E2" s="923"/>
+      <c r="F2" s="923"/>
+      <c r="G2" s="923"/>
+      <c r="H2" s="923"/>
+      <c r="I2" s="923"/>
+      <c r="J2" s="923"/>
+      <c r="K2" s="923"/>
+      <c r="L2" s="923"/>
+      <c r="M2" s="923"/>
+      <c r="N2" s="923"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1">
       <c r="A3" s="777"/>
@@ -27151,38 +27112,38 @@
         <v>375</v>
       </c>
       <c r="B4" s="512"/>
-      <c r="C4" s="897"/>
-      <c r="D4" s="898"/>
-      <c r="E4" s="898"/>
-      <c r="F4" s="898"/>
-      <c r="G4" s="898"/>
-      <c r="H4" s="899"/>
+      <c r="C4" s="911"/>
+      <c r="D4" s="912"/>
+      <c r="E4" s="912"/>
+      <c r="F4" s="912"/>
+      <c r="G4" s="912"/>
+      <c r="H4" s="913"/>
       <c r="J4" s="531"/>
       <c r="K4" s="530" t="s">
         <v>376</v>
       </c>
-      <c r="L4" s="900"/>
-      <c r="M4" s="901"/>
-      <c r="N4" s="902"/>
+      <c r="L4" s="924"/>
+      <c r="M4" s="925"/>
+      <c r="N4" s="926"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1">
       <c r="A5" s="512" t="s">
         <v>377</v>
       </c>
       <c r="B5" s="512"/>
-      <c r="C5" s="897"/>
-      <c r="D5" s="898"/>
-      <c r="E5" s="898"/>
-      <c r="F5" s="898"/>
-      <c r="G5" s="898"/>
-      <c r="H5" s="899"/>
+      <c r="C5" s="911"/>
+      <c r="D5" s="912"/>
+      <c r="E5" s="912"/>
+      <c r="F5" s="912"/>
+      <c r="G5" s="912"/>
+      <c r="H5" s="913"/>
       <c r="J5" s="531"/>
       <c r="K5" s="530" t="s">
         <v>378</v>
       </c>
-      <c r="L5" s="900"/>
-      <c r="M5" s="901"/>
-      <c r="N5" s="902"/>
+      <c r="L5" s="924"/>
+      <c r="M5" s="925"/>
+      <c r="N5" s="926"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1">
       <c r="A6" s="512" t="s">
@@ -27191,19 +27152,19 @@
       <c r="B6" s="512"/>
       <c r="C6" s="512"/>
       <c r="D6" s="512"/>
-      <c r="E6" s="908" t="s">
+      <c r="E6" s="910" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="908"/>
-      <c r="G6" s="908"/>
-      <c r="H6" s="908"/>
+      <c r="F6" s="910"/>
+      <c r="G6" s="910"/>
+      <c r="H6" s="910"/>
       <c r="J6" s="531"/>
       <c r="K6" s="530" t="s">
         <v>380</v>
       </c>
-      <c r="L6" s="897"/>
-      <c r="M6" s="898"/>
-      <c r="N6" s="899"/>
+      <c r="L6" s="911"/>
+      <c r="M6" s="912"/>
+      <c r="N6" s="913"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1">
       <c r="A7" s="512" t="s">
@@ -27212,21 +27173,21 @@
       <c r="B7" s="512"/>
       <c r="C7" s="512"/>
       <c r="D7" s="512"/>
-      <c r="E7" s="897" t="s">
+      <c r="E7" s="911" t="s">
         <v>382</v>
       </c>
-      <c r="F7" s="898"/>
-      <c r="G7" s="898"/>
-      <c r="H7" s="899"/>
+      <c r="F7" s="912"/>
+      <c r="G7" s="912"/>
+      <c r="H7" s="913"/>
       <c r="J7" s="531"/>
       <c r="K7" s="530" t="s">
         <v>383</v>
       </c>
-      <c r="L7" s="897" t="s">
+      <c r="L7" s="911" t="s">
         <v>771</v>
       </c>
-      <c r="M7" s="898"/>
-      <c r="N7" s="899"/>
+      <c r="M7" s="912"/>
+      <c r="N7" s="913"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1">
       <c r="A8" s="512" t="s">
@@ -27235,17 +27196,17 @@
       <c r="B8" s="512"/>
       <c r="C8" s="512"/>
       <c r="D8" s="512"/>
-      <c r="E8" s="909"/>
-      <c r="F8" s="910"/>
-      <c r="G8" s="910"/>
-      <c r="H8" s="911"/>
+      <c r="E8" s="914"/>
+      <c r="F8" s="915"/>
+      <c r="G8" s="915"/>
+      <c r="H8" s="916"/>
       <c r="J8" s="531"/>
       <c r="K8" s="530" t="s">
         <v>385</v>
       </c>
-      <c r="L8" s="897"/>
-      <c r="M8" s="898"/>
-      <c r="N8" s="899"/>
+      <c r="L8" s="911"/>
+      <c r="M8" s="912"/>
+      <c r="N8" s="913"/>
     </row>
     <row r="9" spans="1:14" ht="11.25" customHeight="1">
       <c r="A9" s="512"/>
@@ -27266,12 +27227,12 @@
       <c r="A10" s="524" t="s">
         <v>547</v>
       </c>
-      <c r="E10" s="912" t="s">
+      <c r="E10" s="917" t="s">
         <v>623</v>
       </c>
-      <c r="F10" s="913"/>
-      <c r="G10" s="913"/>
-      <c r="H10" s="914"/>
+      <c r="F10" s="918"/>
+      <c r="G10" s="918"/>
+      <c r="H10" s="919"/>
       <c r="I10" s="528" t="s">
         <v>546</v>
       </c>
@@ -27296,24 +27257,24 @@
       <c r="B12" s="512"/>
       <c r="C12" s="512"/>
       <c r="D12" s="512"/>
-      <c r="E12" s="915" t="s">
+      <c r="E12" s="920" t="s">
         <v>388</v>
       </c>
-      <c r="F12" s="916"/>
-      <c r="G12" s="915" t="s">
+      <c r="F12" s="921"/>
+      <c r="G12" s="920" t="s">
         <v>383</v>
       </c>
-      <c r="H12" s="916"/>
-      <c r="I12" s="915" t="s">
+      <c r="H12" s="921"/>
+      <c r="I12" s="920" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="916"/>
-      <c r="K12" s="915" t="s">
+      <c r="J12" s="921"/>
+      <c r="K12" s="920" t="s">
         <v>386</v>
       </c>
-      <c r="L12" s="917"/>
-      <c r="M12" s="917"/>
-      <c r="N12" s="916"/>
+      <c r="L12" s="922"/>
+      <c r="M12" s="922"/>
+      <c r="N12" s="921"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" thickTop="1">
       <c r="A13" s="512"/>
@@ -27322,55 +27283,55 @@
       <c r="D13" s="518" t="s">
         <v>389</v>
       </c>
-      <c r="E13" s="903" t="s">
+      <c r="E13" s="905" t="s">
         <v>773</v>
       </c>
-      <c r="F13" s="904"/>
-      <c r="G13" s="903" t="s">
+      <c r="F13" s="906"/>
+      <c r="G13" s="905" t="s">
         <v>774</v>
       </c>
-      <c r="H13" s="904"/>
-      <c r="I13" s="905"/>
-      <c r="J13" s="906"/>
-      <c r="K13" s="903" t="s">
+      <c r="H13" s="906"/>
+      <c r="I13" s="907"/>
+      <c r="J13" s="908"/>
+      <c r="K13" s="905" t="s">
         <v>775</v>
       </c>
-      <c r="L13" s="907"/>
-      <c r="M13" s="907"/>
-      <c r="N13" s="904"/>
+      <c r="L13" s="909"/>
+      <c r="M13" s="909"/>
+      <c r="N13" s="906"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="D14" s="518" t="s">
         <v>390</v>
       </c>
-      <c r="E14" s="920"/>
-      <c r="F14" s="921"/>
-      <c r="G14" s="920"/>
-      <c r="H14" s="921"/>
-      <c r="I14" s="922"/>
-      <c r="J14" s="923"/>
-      <c r="K14" s="920"/>
-      <c r="L14" s="924"/>
-      <c r="M14" s="924"/>
-      <c r="N14" s="921"/>
+      <c r="E14" s="898"/>
+      <c r="F14" s="899"/>
+      <c r="G14" s="898"/>
+      <c r="H14" s="899"/>
+      <c r="I14" s="900"/>
+      <c r="J14" s="901"/>
+      <c r="K14" s="898"/>
+      <c r="L14" s="902"/>
+      <c r="M14" s="902"/>
+      <c r="N14" s="899"/>
     </row>
     <row r="15" spans="1:14" s="525" customFormat="1" ht="36" customHeight="1">
-      <c r="A15" s="925" t="s">
+      <c r="A15" s="903" t="s">
         <v>734</v>
       </c>
-      <c r="B15" s="925"/>
-      <c r="C15" s="925"/>
-      <c r="D15" s="925"/>
-      <c r="E15" s="925"/>
-      <c r="F15" s="925"/>
-      <c r="G15" s="925"/>
-      <c r="H15" s="925"/>
-      <c r="I15" s="925"/>
-      <c r="J15" s="925"/>
-      <c r="K15" s="925"/>
-      <c r="L15" s="925"/>
-      <c r="M15" s="925"/>
-      <c r="N15" s="925"/>
+      <c r="B15" s="903"/>
+      <c r="C15" s="903"/>
+      <c r="D15" s="903"/>
+      <c r="E15" s="903"/>
+      <c r="F15" s="903"/>
+      <c r="G15" s="903"/>
+      <c r="H15" s="903"/>
+      <c r="I15" s="903"/>
+      <c r="J15" s="903"/>
+      <c r="K15" s="903"/>
+      <c r="L15" s="903"/>
+      <c r="M15" s="903"/>
+      <c r="N15" s="903"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1">
       <c r="A16" s="524" t="s">
@@ -27432,40 +27393,40 @@
       <c r="M18" s="513"/>
     </row>
     <row r="19" spans="1:15" ht="21" customHeight="1">
-      <c r="A19" s="926" t="s">
+      <c r="A19" s="904" t="s">
         <v>393</v>
       </c>
-      <c r="B19" s="926"/>
-      <c r="C19" s="926"/>
-      <c r="D19" s="926"/>
-      <c r="E19" s="926"/>
-      <c r="F19" s="926"/>
-      <c r="G19" s="926"/>
-      <c r="H19" s="926"/>
-      <c r="I19" s="926"/>
-      <c r="J19" s="926"/>
-      <c r="K19" s="926"/>
-      <c r="L19" s="926"/>
-      <c r="M19" s="926"/>
-      <c r="N19" s="926"/>
+      <c r="B19" s="904"/>
+      <c r="C19" s="904"/>
+      <c r="D19" s="904"/>
+      <c r="E19" s="904"/>
+      <c r="F19" s="904"/>
+      <c r="G19" s="904"/>
+      <c r="H19" s="904"/>
+      <c r="I19" s="904"/>
+      <c r="J19" s="904"/>
+      <c r="K19" s="904"/>
+      <c r="L19" s="904"/>
+      <c r="M19" s="904"/>
+      <c r="N19" s="904"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="918" t="s">
+      <c r="A20" s="896" t="s">
         <v>545</v>
       </c>
-      <c r="B20" s="918"/>
-      <c r="C20" s="918"/>
-      <c r="D20" s="918"/>
-      <c r="E20" s="918"/>
-      <c r="F20" s="918"/>
-      <c r="G20" s="918"/>
-      <c r="H20" s="918"/>
-      <c r="I20" s="918"/>
-      <c r="J20" s="918"/>
-      <c r="K20" s="918"/>
-      <c r="L20" s="918"/>
-      <c r="M20" s="918"/>
-      <c r="N20" s="918"/>
+      <c r="B20" s="896"/>
+      <c r="C20" s="896"/>
+      <c r="D20" s="896"/>
+      <c r="E20" s="896"/>
+      <c r="F20" s="896"/>
+      <c r="G20" s="896"/>
+      <c r="H20" s="896"/>
+      <c r="I20" s="896"/>
+      <c r="J20" s="896"/>
+      <c r="K20" s="896"/>
+      <c r="L20" s="896"/>
+      <c r="M20" s="896"/>
+      <c r="N20" s="896"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="512"/>
@@ -28071,33 +28032,31 @@
       <c r="M51" s="500"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A52" s="919" t="s">
+      <c r="A52" s="897" t="s">
         <v>540</v>
       </c>
-      <c r="B52" s="919"/>
-      <c r="C52" s="919"/>
-      <c r="D52" s="919"/>
-      <c r="E52" s="919"/>
-      <c r="F52" s="919"/>
-      <c r="G52" s="919"/>
-      <c r="H52" s="919"/>
-      <c r="I52" s="919"/>
-      <c r="J52" s="919"/>
-      <c r="K52" s="919"/>
-      <c r="L52" s="919"/>
-      <c r="M52" s="919"/>
-      <c r="N52" s="919"/>
+      <c r="B52" s="897"/>
+      <c r="C52" s="897"/>
+      <c r="D52" s="897"/>
+      <c r="E52" s="897"/>
+      <c r="F52" s="897"/>
+      <c r="G52" s="897"/>
+      <c r="H52" s="897"/>
+      <c r="I52" s="897"/>
+      <c r="J52" s="897"/>
+      <c r="K52" s="897"/>
+      <c r="L52" s="897"/>
+      <c r="M52" s="897"/>
+      <c r="N52" s="897"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="L5:N5"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
@@ -28113,12 +28072,14 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:N12"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A19:N19"/>
   </mergeCells>
   <conditionalFormatting sqref="N27:N38 N48 N41:N42 N50">
     <cfRule type="cellIs" dxfId="127" priority="13" stopIfTrue="1" operator="equal">
@@ -28432,19 +28393,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="929" t="s">
+      <c r="A1" s="938" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="929"/>
-      <c r="C1" s="929"/>
-      <c r="D1" s="929"/>
-      <c r="E1" s="929"/>
-      <c r="F1" s="929"/>
-      <c r="G1" s="929"/>
-      <c r="H1" s="929"/>
-      <c r="I1" s="929"/>
-      <c r="J1" s="929"/>
-      <c r="K1" s="929"/>
+      <c r="B1" s="938"/>
+      <c r="C1" s="938"/>
+      <c r="D1" s="938"/>
+      <c r="E1" s="938"/>
+      <c r="F1" s="938"/>
+      <c r="G1" s="938"/>
+      <c r="H1" s="938"/>
+      <c r="I1" s="938"/>
+      <c r="J1" s="938"/>
+      <c r="K1" s="938"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
       <c r="A2" s="560" t="s">
@@ -28478,19 +28439,19 @@
       <c r="K4" s="555"/>
     </row>
     <row r="5" spans="1:12" ht="42" customHeight="1">
-      <c r="A5" s="930" t="s">
+      <c r="A5" s="939" t="s">
         <v>552</v>
       </c>
-      <c r="B5" s="930"/>
-      <c r="C5" s="930"/>
-      <c r="D5" s="930"/>
-      <c r="E5" s="930"/>
-      <c r="F5" s="930"/>
-      <c r="G5" s="930"/>
-      <c r="H5" s="930"/>
-      <c r="I5" s="930"/>
-      <c r="J5" s="930"/>
-      <c r="K5" s="930"/>
+      <c r="B5" s="939"/>
+      <c r="C5" s="939"/>
+      <c r="D5" s="939"/>
+      <c r="E5" s="939"/>
+      <c r="F5" s="939"/>
+      <c r="G5" s="939"/>
+      <c r="H5" s="939"/>
+      <c r="I5" s="939"/>
+      <c r="J5" s="939"/>
+      <c r="K5" s="939"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="554" t="s">
@@ -28523,8 +28484,8 @@
       <c r="K7" s="549"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="J8" s="931"/>
-      <c r="K8" s="931"/>
+      <c r="J8" s="940"/>
+      <c r="K8" s="940"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="535"/>
@@ -28533,10 +28494,10 @@
         <v>400</v>
       </c>
       <c r="I9" s="548"/>
-      <c r="J9" s="932" t="s">
+      <c r="J9" s="941" t="s">
         <v>394</v>
       </c>
-      <c r="K9" s="932"/>
+      <c r="K9" s="941"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="547" t="s">
@@ -28707,19 +28668,19 @@
       <c r="L20" s="535"/>
     </row>
     <row r="21" spans="1:12" ht="24" customHeight="1">
-      <c r="A21" s="933" t="s">
+      <c r="A21" s="929" t="s">
         <v>419</v>
       </c>
-      <c r="B21" s="933"/>
-      <c r="C21" s="933"/>
-      <c r="D21" s="933"/>
-      <c r="E21" s="933"/>
-      <c r="F21" s="933"/>
-      <c r="G21" s="933"/>
-      <c r="H21" s="933"/>
-      <c r="I21" s="933"/>
-      <c r="J21" s="933"/>
-      <c r="K21" s="933"/>
+      <c r="B21" s="929"/>
+      <c r="C21" s="929"/>
+      <c r="D21" s="929"/>
+      <c r="E21" s="929"/>
+      <c r="F21" s="929"/>
+      <c r="G21" s="929"/>
+      <c r="H21" s="929"/>
+      <c r="I21" s="929"/>
+      <c r="J21" s="929"/>
+      <c r="K21" s="929"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="534"/>
@@ -28735,131 +28696,126 @@
       <c r="K22" s="533"/>
     </row>
     <row r="23" spans="1:12" ht="290.25" customHeight="1">
-      <c r="A23" s="934"/>
-      <c r="B23" s="935"/>
-      <c r="C23" s="935"/>
-      <c r="D23" s="935"/>
-      <c r="E23" s="935"/>
-      <c r="F23" s="935"/>
-      <c r="G23" s="935"/>
-      <c r="H23" s="935"/>
-      <c r="I23" s="935"/>
-      <c r="J23" s="935"/>
-      <c r="K23" s="936"/>
+      <c r="A23" s="930"/>
+      <c r="B23" s="931"/>
+      <c r="C23" s="931"/>
+      <c r="D23" s="931"/>
+      <c r="E23" s="931"/>
+      <c r="F23" s="931"/>
+      <c r="G23" s="931"/>
+      <c r="H23" s="931"/>
+      <c r="I23" s="931"/>
+      <c r="J23" s="931"/>
+      <c r="K23" s="932"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="937"/>
-      <c r="B24" s="937"/>
-      <c r="C24" s="937"/>
-      <c r="D24" s="937"/>
-      <c r="E24" s="937"/>
-      <c r="F24" s="937"/>
-      <c r="G24" s="937"/>
-      <c r="H24" s="937"/>
-      <c r="I24" s="937"/>
-      <c r="J24" s="937"/>
-      <c r="K24" s="937"/>
+      <c r="A24" s="933"/>
+      <c r="B24" s="933"/>
+      <c r="C24" s="933"/>
+      <c r="D24" s="933"/>
+      <c r="E24" s="933"/>
+      <c r="F24" s="933"/>
+      <c r="G24" s="933"/>
+      <c r="H24" s="933"/>
+      <c r="I24" s="933"/>
+      <c r="J24" s="933"/>
+      <c r="K24" s="933"/>
     </row>
     <row r="25" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A25" s="938"/>
-      <c r="B25" s="938"/>
-      <c r="C25" s="938"/>
-      <c r="D25" s="938"/>
-      <c r="E25" s="938"/>
-      <c r="F25" s="938"/>
-      <c r="G25" s="938"/>
-      <c r="H25" s="938"/>
-      <c r="I25" s="938"/>
-      <c r="J25" s="938"/>
-      <c r="K25" s="938"/>
+      <c r="A25" s="934"/>
+      <c r="B25" s="934"/>
+      <c r="C25" s="934"/>
+      <c r="D25" s="934"/>
+      <c r="E25" s="934"/>
+      <c r="F25" s="934"/>
+      <c r="G25" s="934"/>
+      <c r="H25" s="934"/>
+      <c r="I25" s="934"/>
+      <c r="J25" s="934"/>
+      <c r="K25" s="934"/>
     </row>
     <row r="26" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A26" s="938"/>
-      <c r="B26" s="938"/>
-      <c r="C26" s="938"/>
-      <c r="D26" s="938"/>
-      <c r="E26" s="938"/>
-      <c r="F26" s="938"/>
-      <c r="G26" s="938"/>
-      <c r="H26" s="938"/>
-      <c r="I26" s="938"/>
-      <c r="J26" s="938"/>
-      <c r="K26" s="938"/>
+      <c r="A26" s="934"/>
+      <c r="B26" s="934"/>
+      <c r="C26" s="934"/>
+      <c r="D26" s="934"/>
+      <c r="E26" s="934"/>
+      <c r="F26" s="934"/>
+      <c r="G26" s="934"/>
+      <c r="H26" s="934"/>
+      <c r="I26" s="934"/>
+      <c r="J26" s="934"/>
+      <c r="K26" s="934"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A27" s="938"/>
-      <c r="B27" s="938"/>
-      <c r="C27" s="938"/>
-      <c r="D27" s="938"/>
-      <c r="E27" s="938"/>
-      <c r="F27" s="938"/>
-      <c r="G27" s="938"/>
-      <c r="H27" s="938"/>
-      <c r="I27" s="938"/>
-      <c r="J27" s="938"/>
-      <c r="K27" s="938"/>
+      <c r="A27" s="934"/>
+      <c r="B27" s="934"/>
+      <c r="C27" s="934"/>
+      <c r="D27" s="934"/>
+      <c r="E27" s="934"/>
+      <c r="F27" s="934"/>
+      <c r="G27" s="934"/>
+      <c r="H27" s="934"/>
+      <c r="I27" s="934"/>
+      <c r="J27" s="934"/>
+      <c r="K27" s="934"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A28" s="938"/>
-      <c r="B28" s="938"/>
-      <c r="C28" s="938"/>
-      <c r="D28" s="938"/>
-      <c r="E28" s="938"/>
-      <c r="F28" s="938"/>
-      <c r="G28" s="938"/>
-      <c r="H28" s="938"/>
-      <c r="I28" s="938"/>
-      <c r="J28" s="938"/>
-      <c r="K28" s="938"/>
+      <c r="A28" s="934"/>
+      <c r="B28" s="934"/>
+      <c r="C28" s="934"/>
+      <c r="D28" s="934"/>
+      <c r="E28" s="934"/>
+      <c r="F28" s="934"/>
+      <c r="G28" s="934"/>
+      <c r="H28" s="934"/>
+      <c r="I28" s="934"/>
+      <c r="J28" s="934"/>
+      <c r="K28" s="934"/>
     </row>
     <row r="29" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A29" s="938"/>
-      <c r="B29" s="938"/>
-      <c r="C29" s="938"/>
-      <c r="D29" s="938"/>
-      <c r="E29" s="938"/>
-      <c r="F29" s="938"/>
-      <c r="G29" s="938"/>
-      <c r="H29" s="938"/>
-      <c r="I29" s="938"/>
-      <c r="J29" s="938"/>
-      <c r="K29" s="938"/>
+      <c r="A29" s="934"/>
+      <c r="B29" s="934"/>
+      <c r="C29" s="934"/>
+      <c r="D29" s="934"/>
+      <c r="E29" s="934"/>
+      <c r="F29" s="934"/>
+      <c r="G29" s="934"/>
+      <c r="H29" s="934"/>
+      <c r="I29" s="934"/>
+      <c r="J29" s="934"/>
+      <c r="K29" s="934"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A30" s="938"/>
-      <c r="B30" s="938"/>
-      <c r="C30" s="938"/>
-      <c r="D30" s="938"/>
-      <c r="E30" s="938"/>
-      <c r="F30" s="938"/>
-      <c r="G30" s="938"/>
-      <c r="H30" s="938"/>
-      <c r="I30" s="938"/>
-      <c r="J30" s="938"/>
-      <c r="K30" s="938"/>
+      <c r="A30" s="934"/>
+      <c r="B30" s="934"/>
+      <c r="C30" s="934"/>
+      <c r="D30" s="934"/>
+      <c r="E30" s="934"/>
+      <c r="F30" s="934"/>
+      <c r="G30" s="934"/>
+      <c r="H30" s="934"/>
+      <c r="I30" s="934"/>
+      <c r="J30" s="934"/>
+      <c r="K30" s="934"/>
     </row>
     <row r="31" spans="1:12" ht="201.75" customHeight="1" thickBot="1">
-      <c r="A31" s="939" t="s">
+      <c r="A31" s="935" t="s">
         <v>548</v>
       </c>
-      <c r="B31" s="940"/>
-      <c r="C31" s="940"/>
-      <c r="D31" s="940"/>
-      <c r="E31" s="940"/>
-      <c r="F31" s="940"/>
-      <c r="G31" s="940"/>
-      <c r="H31" s="940"/>
-      <c r="I31" s="940"/>
-      <c r="J31" s="940"/>
-      <c r="K31" s="941"/>
+      <c r="B31" s="936"/>
+      <c r="C31" s="936"/>
+      <c r="D31" s="936"/>
+      <c r="E31" s="936"/>
+      <c r="F31" s="936"/>
+      <c r="G31" s="936"/>
+      <c r="H31" s="936"/>
+      <c r="I31" s="936"/>
+      <c r="J31" s="936"/>
+      <c r="K31" s="937"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K30"/>
-    <mergeCell ref="A31:K31"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A5:K5"/>
@@ -28872,6 +28828,11 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K30"/>
+    <mergeCell ref="A31:K31"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:K18">
     <cfRule type="cellIs" dxfId="114" priority="2" stopIfTrue="1" operator="equal">
@@ -29426,13 +29387,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="957" t="s">
+      <c r="A1" s="944" t="s">
         <v>647</v>
       </c>
-      <c r="B1" s="958"/>
-      <c r="C1" s="958"/>
-      <c r="D1" s="958"/>
-      <c r="E1" s="958"/>
+      <c r="B1" s="945"/>
+      <c r="C1" s="945"/>
+      <c r="D1" s="945"/>
+      <c r="E1" s="945"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="794"/>
@@ -29445,38 +29406,38 @@
       <c r="A3" s="795" t="s">
         <v>648</v>
       </c>
-      <c r="B3" s="959">
+      <c r="B3" s="946">
         <f>'QC Test Summary-Siemens'!C4</f>
         <v>0</v>
       </c>
-      <c r="C3" s="959"/>
-      <c r="D3" s="959"/>
-      <c r="E3" s="959"/>
+      <c r="C3" s="946"/>
+      <c r="D3" s="946"/>
+      <c r="E3" s="946"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="795" t="s">
         <v>649</v>
       </c>
-      <c r="B4" s="960" t="str">
+      <c r="B4" s="947" t="str">
         <f>Sheet1!R17</f>
-        <v>Siemens</v>
-      </c>
-      <c r="C4" s="960"/>
+        <v/>
+      </c>
+      <c r="C4" s="947"/>
       <c r="D4" s="796" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="797" t="str">
         <f>Sheet1!R18</f>
-        <v>Mammotest</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
       <c r="A5" s="795" t="s">
         <v>650</v>
       </c>
-      <c r="B5" s="797">
+      <c r="B5" s="797" t="str">
         <f>Sheet1!V18</f>
-        <v>10247</v>
+        <v/>
       </c>
       <c r="C5" s="797"/>
       <c r="D5" s="796" t="s">
@@ -29491,31 +29452,31 @@
       <c r="A6" s="795" t="s">
         <v>652</v>
       </c>
-      <c r="B6" s="960" t="str">
+      <c r="B6" s="947" t="str">
         <f>Sheet1!X7</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="C6" s="960"/>
+      <c r="C6" s="947"/>
       <c r="D6" s="796" t="s">
         <v>653</v>
       </c>
       <c r="E6" s="798" t="str">
         <f>Sheet1!R14</f>
-        <v>1C07</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">
       <c r="A7" s="795" t="s">
         <v>654</v>
       </c>
-      <c r="B7" s="960"/>
-      <c r="C7" s="960"/>
+      <c r="B7" s="947"/>
+      <c r="C7" s="947"/>
       <c r="D7" s="796" t="s">
         <v>655</v>
       </c>
       <c r="E7" s="847">
         <f>Sheet1!P7</f>
-        <v>43273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21.75" customHeight="1" thickBot="1"/>
@@ -29537,7 +29498,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" thickTop="1">
-      <c r="A10" s="956" t="s">
+      <c r="A10" s="942" t="s">
         <v>660</v>
       </c>
       <c r="B10" s="803" t="s">
@@ -29552,7 +29513,7 @@
       <c r="E10" s="806"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A11" s="952"/>
+      <c r="A11" s="943"/>
       <c r="B11" s="807" t="s">
         <v>664</v>
       </c>
@@ -29565,7 +29526,7 @@
       <c r="E11" s="810"/>
     </row>
     <row r="12" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A12" s="947" t="s">
+      <c r="A12" s="953" t="s">
         <v>666</v>
       </c>
       <c r="B12" s="811" t="s">
@@ -29580,7 +29541,7 @@
       <c r="E12" s="814"/>
     </row>
     <row r="13" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A13" s="948"/>
+      <c r="A13" s="954"/>
       <c r="B13" s="815" t="s">
         <v>670</v>
       </c>
@@ -29593,7 +29554,7 @@
       <c r="E13" s="818"/>
     </row>
     <row r="14" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A14" s="949"/>
+      <c r="A14" s="955"/>
       <c r="B14" s="819" t="s">
         <v>672</v>
       </c>
@@ -29606,7 +29567,7 @@
       <c r="E14" s="821"/>
     </row>
     <row r="15" spans="1:5" ht="56.25">
-      <c r="A15" s="950" t="s">
+      <c r="A15" s="956" t="s">
         <v>674</v>
       </c>
       <c r="B15" s="822" t="s">
@@ -29621,7 +29582,7 @@
       <c r="E15" s="824"/>
     </row>
     <row r="16" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A16" s="951"/>
+      <c r="A16" s="957"/>
       <c r="B16" s="807" t="s">
         <v>677</v>
       </c>
@@ -29634,7 +29595,7 @@
       <c r="E16" s="826"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A17" s="942" t="s">
+      <c r="A17" s="948" t="s">
         <v>679</v>
       </c>
       <c r="B17" s="827" t="s">
@@ -29649,7 +29610,7 @@
       <c r="E17" s="828"/>
     </row>
     <row r="18" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A18" s="952"/>
+      <c r="A18" s="943"/>
       <c r="B18" s="829" t="s">
         <v>682</v>
       </c>
@@ -29662,7 +29623,7 @@
       <c r="E18" s="810"/>
     </row>
     <row r="19" spans="1:5" ht="33.75">
-      <c r="A19" s="953" t="s">
+      <c r="A19" s="958" t="s">
         <v>684</v>
       </c>
       <c r="B19" s="827" t="s">
@@ -29677,7 +29638,7 @@
       <c r="E19" s="828"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A20" s="954"/>
+      <c r="A20" s="959"/>
       <c r="B20" s="831" t="s">
         <v>687</v>
       </c>
@@ -29690,7 +29651,7 @@
       <c r="E20" s="833"/>
     </row>
     <row r="21" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A21" s="955"/>
+      <c r="A21" s="960"/>
       <c r="B21" s="829" t="s">
         <v>689</v>
       </c>
@@ -29703,7 +29664,7 @@
       <c r="E21" s="810"/>
     </row>
     <row r="22" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A22" s="942" t="s">
+      <c r="A22" s="948" t="s">
         <v>691</v>
       </c>
       <c r="B22" s="827" t="s">
@@ -29718,7 +29679,7 @@
       <c r="E22" s="828"/>
     </row>
     <row r="23" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A23" s="952"/>
+      <c r="A23" s="943"/>
       <c r="B23" s="807" t="s">
         <v>694</v>
       </c>
@@ -29731,7 +29692,7 @@
       <c r="E23" s="826"/>
     </row>
     <row r="24" spans="1:5" ht="33.75">
-      <c r="A24" s="953" t="s">
+      <c r="A24" s="958" t="s">
         <v>696</v>
       </c>
       <c r="B24" s="827" t="s">
@@ -29746,7 +29707,7 @@
       <c r="E24" s="828"/>
     </row>
     <row r="25" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A25" s="954"/>
+      <c r="A25" s="959"/>
       <c r="B25" s="831" t="s">
         <v>699</v>
       </c>
@@ -29759,7 +29720,7 @@
       <c r="E25" s="833"/>
     </row>
     <row r="26" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A26" s="954"/>
+      <c r="A26" s="959"/>
       <c r="B26" s="834" t="s">
         <v>701</v>
       </c>
@@ -29772,7 +29733,7 @@
       <c r="E26" s="833"/>
     </row>
     <row r="27" spans="1:5" ht="22.5">
-      <c r="A27" s="954"/>
+      <c r="A27" s="959"/>
       <c r="B27" s="834" t="s">
         <v>703</v>
       </c>
@@ -29785,7 +29746,7 @@
       <c r="E27" s="833"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A28" s="955"/>
+      <c r="A28" s="960"/>
       <c r="B28" s="835" t="s">
         <v>705</v>
       </c>
@@ -29798,7 +29759,7 @@
       <c r="E28" s="826"/>
     </row>
     <row r="29" spans="1:5" ht="22.5">
-      <c r="A29" s="942" t="s">
+      <c r="A29" s="948" t="s">
         <v>707</v>
       </c>
       <c r="B29" s="836" t="s">
@@ -29813,7 +29774,7 @@
       <c r="E29" s="828"/>
     </row>
     <row r="30" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A30" s="943"/>
+      <c r="A30" s="949"/>
       <c r="B30" s="834" t="s">
         <v>710</v>
       </c>
@@ -29826,7 +29787,7 @@
       <c r="E30" s="833"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A31" s="944"/>
+      <c r="A31" s="950"/>
       <c r="B31" s="835" t="s">
         <v>712</v>
       </c>
@@ -29839,7 +29800,7 @@
       <c r="E31" s="826"/>
     </row>
     <row r="32" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A32" s="942" t="s">
+      <c r="A32" s="948" t="s">
         <v>714</v>
       </c>
       <c r="B32" s="836" t="s">
@@ -29854,7 +29815,7 @@
       <c r="E32" s="828"/>
     </row>
     <row r="33" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A33" s="943"/>
+      <c r="A33" s="949"/>
       <c r="B33" s="834" t="s">
         <v>717</v>
       </c>
@@ -29867,7 +29828,7 @@
       <c r="E33" s="833"/>
     </row>
     <row r="34" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A34" s="944"/>
+      <c r="A34" s="950"/>
       <c r="B34" s="835" t="s">
         <v>718</v>
       </c>
@@ -29955,13 +29916,13 @@
       <c r="E39" s="810"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="945" t="s">
+      <c r="A40" s="951" t="s">
         <v>783</v>
       </c>
-      <c r="B40" s="946"/>
-      <c r="C40" s="946"/>
-      <c r="D40" s="946"/>
-      <c r="E40" s="946"/>
+      <c r="B40" s="952"/>
+      <c r="C40" s="952"/>
+      <c r="D40" s="952"/>
+      <c r="E40" s="952"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="845"/>
@@ -30658,12 +30619,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A40:E40"/>
@@ -30673,6 +30628,12 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E10 JA10 SW10 ACS10 AMO10 AWK10 BGG10 BQC10 BZY10 CJU10 CTQ10 DDM10 DNI10 DXE10 EHA10 EQW10 FAS10 FKO10 FUK10 GEG10 GOC10 GXY10 HHU10 HRQ10 IBM10 ILI10 IVE10 JFA10 JOW10 JYS10 KIO10 KSK10 LCG10 LMC10 LVY10 MFU10 MPQ10 MZM10 NJI10 NTE10 ODA10 OMW10 OWS10 PGO10 PQK10 QAG10 QKC10 QTY10 RDU10 RNQ10 RXM10 SHI10 SRE10 TBA10 TKW10 TUS10 UEO10 UOK10 UYG10 VIC10 VRY10 WBU10 WLQ10 WVM10 E65546 JA65546 SW65546 ACS65546 AMO65546 AWK65546 BGG65546 BQC65546 BZY65546 CJU65546 CTQ65546 DDM65546 DNI65546 DXE65546 EHA65546 EQW65546 FAS65546 FKO65546 FUK65546 GEG65546 GOC65546 GXY65546 HHU65546 HRQ65546 IBM65546 ILI65546 IVE65546 JFA65546 JOW65546 JYS65546 KIO65546 KSK65546 LCG65546 LMC65546 LVY65546 MFU65546 MPQ65546 MZM65546 NJI65546 NTE65546 ODA65546 OMW65546 OWS65546 PGO65546 PQK65546 QAG65546 QKC65546 QTY65546 RDU65546 RNQ65546 RXM65546 SHI65546 SRE65546 TBA65546 TKW65546 TUS65546 UEO65546 UOK65546 UYG65546 VIC65546 VRY65546 WBU65546 WLQ65546 WVM65546 E131082 JA131082 SW131082 ACS131082 AMO131082 AWK131082 BGG131082 BQC131082 BZY131082 CJU131082 CTQ131082 DDM131082 DNI131082 DXE131082 EHA131082 EQW131082 FAS131082 FKO131082 FUK131082 GEG131082 GOC131082 GXY131082 HHU131082 HRQ131082 IBM131082 ILI131082 IVE131082 JFA131082 JOW131082 JYS131082 KIO131082 KSK131082 LCG131082 LMC131082 LVY131082 MFU131082 MPQ131082 MZM131082 NJI131082 NTE131082 ODA131082 OMW131082 OWS131082 PGO131082 PQK131082 QAG131082 QKC131082 QTY131082 RDU131082 RNQ131082 RXM131082 SHI131082 SRE131082 TBA131082 TKW131082 TUS131082 UEO131082 UOK131082 UYG131082 VIC131082 VRY131082 WBU131082 WLQ131082 WVM131082 E196618 JA196618 SW196618 ACS196618 AMO196618 AWK196618 BGG196618 BQC196618 BZY196618 CJU196618 CTQ196618 DDM196618 DNI196618 DXE196618 EHA196618 EQW196618 FAS196618 FKO196618 FUK196618 GEG196618 GOC196618 GXY196618 HHU196618 HRQ196618 IBM196618 ILI196618 IVE196618 JFA196618 JOW196618 JYS196618 KIO196618 KSK196618 LCG196618 LMC196618 LVY196618 MFU196618 MPQ196618 MZM196618 NJI196618 NTE196618 ODA196618 OMW196618 OWS196618 PGO196618 PQK196618 QAG196618 QKC196618 QTY196618 RDU196618 RNQ196618 RXM196618 SHI196618 SRE196618 TBA196618 TKW196618 TUS196618 UEO196618 UOK196618 UYG196618 VIC196618 VRY196618 WBU196618 WLQ196618 WVM196618 E262154 JA262154 SW262154 ACS262154 AMO262154 AWK262154 BGG262154 BQC262154 BZY262154 CJU262154 CTQ262154 DDM262154 DNI262154 DXE262154 EHA262154 EQW262154 FAS262154 FKO262154 FUK262154 GEG262154 GOC262154 GXY262154 HHU262154 HRQ262154 IBM262154 ILI262154 IVE262154 JFA262154 JOW262154 JYS262154 KIO262154 KSK262154 LCG262154 LMC262154 LVY262154 MFU262154 MPQ262154 MZM262154 NJI262154 NTE262154 ODA262154 OMW262154 OWS262154 PGO262154 PQK262154 QAG262154 QKC262154 QTY262154 RDU262154 RNQ262154 RXM262154 SHI262154 SRE262154 TBA262154 TKW262154 TUS262154 UEO262154 UOK262154 UYG262154 VIC262154 VRY262154 WBU262154 WLQ262154 WVM262154 E327690 JA327690 SW327690 ACS327690 AMO327690 AWK327690 BGG327690 BQC327690 BZY327690 CJU327690 CTQ327690 DDM327690 DNI327690 DXE327690 EHA327690 EQW327690 FAS327690 FKO327690 FUK327690 GEG327690 GOC327690 GXY327690 HHU327690 HRQ327690 IBM327690 ILI327690 IVE327690 JFA327690 JOW327690 JYS327690 KIO327690 KSK327690 LCG327690 LMC327690 LVY327690 MFU327690 MPQ327690 MZM327690 NJI327690 NTE327690 ODA327690 OMW327690 OWS327690 PGO327690 PQK327690 QAG327690 QKC327690 QTY327690 RDU327690 RNQ327690 RXM327690 SHI327690 SRE327690 TBA327690 TKW327690 TUS327690 UEO327690 UOK327690 UYG327690 VIC327690 VRY327690 WBU327690 WLQ327690 WVM327690 E393226 JA393226 SW393226 ACS393226 AMO393226 AWK393226 BGG393226 BQC393226 BZY393226 CJU393226 CTQ393226 DDM393226 DNI393226 DXE393226 EHA393226 EQW393226 FAS393226 FKO393226 FUK393226 GEG393226 GOC393226 GXY393226 HHU393226 HRQ393226 IBM393226 ILI393226 IVE393226 JFA393226 JOW393226 JYS393226 KIO393226 KSK393226 LCG393226 LMC393226 LVY393226 MFU393226 MPQ393226 MZM393226 NJI393226 NTE393226 ODA393226 OMW393226 OWS393226 PGO393226 PQK393226 QAG393226 QKC393226 QTY393226 RDU393226 RNQ393226 RXM393226 SHI393226 SRE393226 TBA393226 TKW393226 TUS393226 UEO393226 UOK393226 UYG393226 VIC393226 VRY393226 WBU393226 WLQ393226 WVM393226 E458762 JA458762 SW458762 ACS458762 AMO458762 AWK458762 BGG458762 BQC458762 BZY458762 CJU458762 CTQ458762 DDM458762 DNI458762 DXE458762 EHA458762 EQW458762 FAS458762 FKO458762 FUK458762 GEG458762 GOC458762 GXY458762 HHU458762 HRQ458762 IBM458762 ILI458762 IVE458762 JFA458762 JOW458762 JYS458762 KIO458762 KSK458762 LCG458762 LMC458762 LVY458762 MFU458762 MPQ458762 MZM458762 NJI458762 NTE458762 ODA458762 OMW458762 OWS458762 PGO458762 PQK458762 QAG458762 QKC458762 QTY458762 RDU458762 RNQ458762 RXM458762 SHI458762 SRE458762 TBA458762 TKW458762 TUS458762 UEO458762 UOK458762 UYG458762 VIC458762 VRY458762 WBU458762 WLQ458762 WVM458762 E524298 JA524298 SW524298 ACS524298 AMO524298 AWK524298 BGG524298 BQC524298 BZY524298 CJU524298 CTQ524298 DDM524298 DNI524298 DXE524298 EHA524298 EQW524298 FAS524298 FKO524298 FUK524298 GEG524298 GOC524298 GXY524298 HHU524298 HRQ524298 IBM524298 ILI524298 IVE524298 JFA524298 JOW524298 JYS524298 KIO524298 KSK524298 LCG524298 LMC524298 LVY524298 MFU524298 MPQ524298 MZM524298 NJI524298 NTE524298 ODA524298 OMW524298 OWS524298 PGO524298 PQK524298 QAG524298 QKC524298 QTY524298 RDU524298 RNQ524298 RXM524298 SHI524298 SRE524298 TBA524298 TKW524298 TUS524298 UEO524298 UOK524298 UYG524298 VIC524298 VRY524298 WBU524298 WLQ524298 WVM524298 E589834 JA589834 SW589834 ACS589834 AMO589834 AWK589834 BGG589834 BQC589834 BZY589834 CJU589834 CTQ589834 DDM589834 DNI589834 DXE589834 EHA589834 EQW589834 FAS589834 FKO589834 FUK589834 GEG589834 GOC589834 GXY589834 HHU589834 HRQ589834 IBM589834 ILI589834 IVE589834 JFA589834 JOW589834 JYS589834 KIO589834 KSK589834 LCG589834 LMC589834 LVY589834 MFU589834 MPQ589834 MZM589834 NJI589834 NTE589834 ODA589834 OMW589834 OWS589834 PGO589834 PQK589834 QAG589834 QKC589834 QTY589834 RDU589834 RNQ589834 RXM589834 SHI589834 SRE589834 TBA589834 TKW589834 TUS589834 UEO589834 UOK589834 UYG589834 VIC589834 VRY589834 WBU589834 WLQ589834 WVM589834 E655370 JA655370 SW655370 ACS655370 AMO655370 AWK655370 BGG655370 BQC655370 BZY655370 CJU655370 CTQ655370 DDM655370 DNI655370 DXE655370 EHA655370 EQW655370 FAS655370 FKO655370 FUK655370 GEG655370 GOC655370 GXY655370 HHU655370 HRQ655370 IBM655370 ILI655370 IVE655370 JFA655370 JOW655370 JYS655370 KIO655370 KSK655370 LCG655370 LMC655370 LVY655370 MFU655370 MPQ655370 MZM655370 NJI655370 NTE655370 ODA655370 OMW655370 OWS655370 PGO655370 PQK655370 QAG655370 QKC655370 QTY655370 RDU655370 RNQ655370 RXM655370 SHI655370 SRE655370 TBA655370 TKW655370 TUS655370 UEO655370 UOK655370 UYG655370 VIC655370 VRY655370 WBU655370 WLQ655370 WVM655370 E720906 JA720906 SW720906 ACS720906 AMO720906 AWK720906 BGG720906 BQC720906 BZY720906 CJU720906 CTQ720906 DDM720906 DNI720906 DXE720906 EHA720906 EQW720906 FAS720906 FKO720906 FUK720906 GEG720906 GOC720906 GXY720906 HHU720906 HRQ720906 IBM720906 ILI720906 IVE720906 JFA720906 JOW720906 JYS720906 KIO720906 KSK720906 LCG720906 LMC720906 LVY720906 MFU720906 MPQ720906 MZM720906 NJI720906 NTE720906 ODA720906 OMW720906 OWS720906 PGO720906 PQK720906 QAG720906 QKC720906 QTY720906 RDU720906 RNQ720906 RXM720906 SHI720906 SRE720906 TBA720906 TKW720906 TUS720906 UEO720906 UOK720906 UYG720906 VIC720906 VRY720906 WBU720906 WLQ720906 WVM720906 E786442 JA786442 SW786442 ACS786442 AMO786442 AWK786442 BGG786442 BQC786442 BZY786442 CJU786442 CTQ786442 DDM786442 DNI786442 DXE786442 EHA786442 EQW786442 FAS786442 FKO786442 FUK786442 GEG786442 GOC786442 GXY786442 HHU786442 HRQ786442 IBM786442 ILI786442 IVE786442 JFA786442 JOW786442 JYS786442 KIO786442 KSK786442 LCG786442 LMC786442 LVY786442 MFU786442 MPQ786442 MZM786442 NJI786442 NTE786442 ODA786442 OMW786442 OWS786442 PGO786442 PQK786442 QAG786442 QKC786442 QTY786442 RDU786442 RNQ786442 RXM786442 SHI786442 SRE786442 TBA786442 TKW786442 TUS786442 UEO786442 UOK786442 UYG786442 VIC786442 VRY786442 WBU786442 WLQ786442 WVM786442 E851978 JA851978 SW851978 ACS851978 AMO851978 AWK851978 BGG851978 BQC851978 BZY851978 CJU851978 CTQ851978 DDM851978 DNI851978 DXE851978 EHA851978 EQW851978 FAS851978 FKO851978 FUK851978 GEG851978 GOC851978 GXY851978 HHU851978 HRQ851978 IBM851978 ILI851978 IVE851978 JFA851978 JOW851978 JYS851978 KIO851978 KSK851978 LCG851978 LMC851978 LVY851978 MFU851978 MPQ851978 MZM851978 NJI851978 NTE851978 ODA851978 OMW851978 OWS851978 PGO851978 PQK851978 QAG851978 QKC851978 QTY851978 RDU851978 RNQ851978 RXM851978 SHI851978 SRE851978 TBA851978 TKW851978 TUS851978 UEO851978 UOK851978 UYG851978 VIC851978 VRY851978 WBU851978 WLQ851978 WVM851978 E917514 JA917514 SW917514 ACS917514 AMO917514 AWK917514 BGG917514 BQC917514 BZY917514 CJU917514 CTQ917514 DDM917514 DNI917514 DXE917514 EHA917514 EQW917514 FAS917514 FKO917514 FUK917514 GEG917514 GOC917514 GXY917514 HHU917514 HRQ917514 IBM917514 ILI917514 IVE917514 JFA917514 JOW917514 JYS917514 KIO917514 KSK917514 LCG917514 LMC917514 LVY917514 MFU917514 MPQ917514 MZM917514 NJI917514 NTE917514 ODA917514 OMW917514 OWS917514 PGO917514 PQK917514 QAG917514 QKC917514 QTY917514 RDU917514 RNQ917514 RXM917514 SHI917514 SRE917514 TBA917514 TKW917514 TUS917514 UEO917514 UOK917514 UYG917514 VIC917514 VRY917514 WBU917514 WLQ917514 WVM917514 E983050 JA983050 SW983050 ACS983050 AMO983050 AWK983050 BGG983050 BQC983050 BZY983050 CJU983050 CTQ983050 DDM983050 DNI983050 DXE983050 EHA983050 EQW983050 FAS983050 FKO983050 FUK983050 GEG983050 GOC983050 GXY983050 HHU983050 HRQ983050 IBM983050 ILI983050 IVE983050 JFA983050 JOW983050 JYS983050 KIO983050 KSK983050 LCG983050 LMC983050 LVY983050 MFU983050 MPQ983050 MZM983050 NJI983050 NTE983050 ODA983050 OMW983050 OWS983050 PGO983050 PQK983050 QAG983050 QKC983050 QTY983050 RDU983050 RNQ983050 RXM983050 SHI983050 SRE983050 TBA983050 TKW983050 TUS983050 UEO983050 UOK983050 UYG983050 VIC983050 VRY983050 WBU983050 WLQ983050 WVM983050"/>
@@ -32688,9 +32649,7 @@
   </sheetPr>
   <dimension ref="A1:AR518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1"/>
   <cols>
@@ -32788,7 +32747,7 @@
       <c r="Y3" s="32"/>
       <c r="AA3" s="34" t="str">
         <f>IF(AB7="","",AB7)</f>
-        <v>Page1,HVLPage,ExpChart,ImgQuality,Compg1,GraphAcryl,LeedsTO10</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:44" ht="14.1" customHeight="1">
@@ -32885,9 +32844,7 @@
       <c r="O7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="44">
-        <v>43273</v>
-      </c>
+      <c r="P7" s="44"/>
       <c r="Q7" s="45"/>
       <c r="W7" s="21" t="s">
         <v>11</v>
@@ -32902,12 +32859,10 @@
       <c r="AA7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="AB7" s="48" t="s">
-        <v>2</v>
-      </c>
+      <c r="AB7" s="48"/>
       <c r="AC7" s="49" t="str">
         <f t="shared" ref="AC7:AC19" si="0">IF(AB7&lt;&gt;AD7,"Change","")</f>
-        <v/>
+        <v>Change</v>
       </c>
       <c r="AD7" s="50" t="str">
         <f>IF(OR(AA2="",AA2=0),"",AA2)</f>
@@ -32925,9 +32880,9 @@
       <c r="O8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="52">
+      <c r="P8" s="52" t="str">
         <f>IF(AB8="","",AB8)</f>
-        <v>42901</v>
+        <v/>
       </c>
       <c r="Q8" s="53"/>
       <c r="T8" s="259" t="s">
@@ -32939,16 +32894,14 @@
       <c r="AA8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AB8" s="56">
-        <v>42901</v>
-      </c>
+      <c r="AB8" s="56"/>
       <c r="AC8" s="49" t="str">
         <f t="shared" si="0"/>
-        <v>Change</v>
-      </c>
-      <c r="AD8" s="57">
+        <v/>
+      </c>
+      <c r="AD8" s="57" t="str">
         <f>IF(P7="","",P7)</f>
-        <v>43273</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:44" ht="14.1" customHeight="1" thickTop="1" thickBot="1">
@@ -32989,12 +32942,10 @@
       <c r="AA9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="AB9" s="65" t="s">
-        <v>12</v>
-      </c>
+      <c r="AB9" s="65"/>
       <c r="AC9" s="49" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Change</v>
       </c>
       <c r="AD9" s="66" t="str">
         <f>IF(X7="","",X7)</f>
@@ -33043,19 +32994,19 @@
       <c r="E10" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="971" t="str">
+      <c r="F10" s="995" t="str">
         <f>IF(R10="","",R10)</f>
-        <v>MUSC Health East Cooper</v>
-      </c>
-      <c r="G10" s="971"/>
+        <v/>
+      </c>
+      <c r="G10" s="995"/>
       <c r="J10" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="964" t="str">
+      <c r="K10" s="987" t="str">
         <f>IF(V10="","",V10)</f>
-        <v>400-392781</v>
-      </c>
-      <c r="L10" s="964"/>
+        <v/>
+      </c>
+      <c r="L10" s="987"/>
       <c r="M10" s="69"/>
       <c r="O10" s="30"/>
       <c r="Q10" s="35" t="s">
@@ -33063,7 +33014,7 @@
       </c>
       <c r="R10" s="46" t="str">
         <f>IF(S10&lt;&gt;"",S10,IF(AB10="","",AB10))</f>
-        <v>MUSC Health East Cooper</v>
+        <v/>
       </c>
       <c r="S10" s="47"/>
       <c r="U10" s="35" t="s">
@@ -33071,23 +33022,21 @@
       </c>
       <c r="V10" s="46" t="str">
         <f>IF(W10&lt;&gt;"",W10,IF(AB15="","",AB15))</f>
-        <v>400-392781</v>
+        <v/>
       </c>
       <c r="W10" s="47"/>
       <c r="Y10" s="32"/>
       <c r="AA10" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AB10" s="65" t="s">
-        <v>806</v>
-      </c>
+      <c r="AB10" s="65"/>
       <c r="AC10" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AD10" s="66" t="str">
         <f>IF(R10="","",R10)</f>
-        <v>MUSC Health East Cooper</v>
+        <v/>
       </c>
       <c r="AH10" s="582">
         <v>24</v>
@@ -33100,11 +33049,11 @@
       </c>
       <c r="AK10" s="580" t="str">
         <f>IF($V$21="","",$V$21)</f>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL10" s="580" t="str">
         <f>IF($V$24="","",$V$24)</f>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM10" s="849"/>
       <c r="AN10" s="849"/>
@@ -33122,19 +33071,19 @@
       <c r="E11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="972" t="str">
+      <c r="F11" s="996" t="str">
         <f>IF(R11="","",R11)</f>
-        <v>Radiology</v>
-      </c>
-      <c r="G11" s="972"/>
+        <v/>
+      </c>
+      <c r="G11" s="996"/>
       <c r="J11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="964" t="str">
+      <c r="K11" s="987" t="str">
         <f>IF(V11="","",V11)</f>
-        <v>SBB</v>
-      </c>
-      <c r="L11" s="964"/>
+        <v/>
+      </c>
+      <c r="L11" s="987"/>
       <c r="M11" s="69"/>
       <c r="O11" s="30"/>
       <c r="Q11" s="35" t="s">
@@ -33142,7 +33091,7 @@
       </c>
       <c r="R11" s="46" t="str">
         <f>IF(S11&lt;&gt;"",S11,IF(AB11="","",AB11))</f>
-        <v>Radiology</v>
+        <v/>
       </c>
       <c r="S11" s="47"/>
       <c r="U11" s="35" t="s">
@@ -33150,23 +33099,21 @@
       </c>
       <c r="V11" s="46" t="str">
         <f>IF(W11&lt;&gt;"",W11,IF(AB16="","",AB16))</f>
-        <v>SBB</v>
+        <v/>
       </c>
       <c r="W11" s="47"/>
       <c r="Y11" s="32"/>
       <c r="AA11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="AB11" s="65" t="s">
-        <v>807</v>
-      </c>
+      <c r="AB11" s="65"/>
       <c r="AC11" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AD11" s="66" t="str">
         <f>IF(R11="","",R11)</f>
-        <v>Radiology</v>
+        <v/>
       </c>
       <c r="AH11" s="588">
         <v>24</v>
@@ -33179,11 +33126,11 @@
       </c>
       <c r="AK11" s="589" t="str">
         <f t="shared" ref="AK11:AK74" si="1">IF($V$21="","",$V$21)</f>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL11" s="589" t="str">
         <f t="shared" ref="AL11:AL56" si="2">IF($V$24="","",$V$24)</f>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM11" s="589"/>
       <c r="AN11" s="589"/>
@@ -33201,19 +33148,19 @@
       <c r="E12" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="972" t="str">
+      <c r="F12" s="996" t="str">
         <f>IF(R12="","",R12)</f>
-        <v>Mammography</v>
-      </c>
-      <c r="G12" s="972"/>
+        <v/>
+      </c>
+      <c r="G12" s="996"/>
       <c r="J12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="970">
+      <c r="K12" s="997" t="str">
         <f>IF(V12="","",V12)</f>
-        <v>41091</v>
-      </c>
-      <c r="L12" s="970"/>
+        <v/>
+      </c>
+      <c r="L12" s="997"/>
       <c r="M12" s="69"/>
       <c r="O12" s="30"/>
       <c r="Q12" s="35" t="s">
@@ -33221,31 +33168,29 @@
       </c>
       <c r="R12" s="46" t="str">
         <f>IF(S12&lt;&gt;"",S12,IF(AB12="","",AB12))</f>
-        <v>Mammography</v>
+        <v/>
       </c>
       <c r="S12" s="47"/>
       <c r="U12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="72">
+      <c r="V12" s="72" t="str">
         <f>IF(W12&lt;&gt;"",W12,IF(AB17="","",AB17))</f>
-        <v>41091</v>
+        <v/>
       </c>
       <c r="W12" s="73"/>
       <c r="Y12" s="32"/>
       <c r="AA12" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AB12" s="65" t="s">
-        <v>808</v>
-      </c>
+      <c r="AB12" s="65"/>
       <c r="AC12" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AD12" s="66" t="str">
         <f>IF(R12="","",R12)</f>
-        <v>Mammography</v>
+        <v/>
       </c>
       <c r="AH12" s="588">
         <v>24</v>
@@ -33258,11 +33203,11 @@
       </c>
       <c r="AK12" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL12" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM12" s="589"/>
       <c r="AN12" s="589"/>
@@ -33280,53 +33225,49 @@
       <c r="E13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="972">
+      <c r="F13" s="996" t="str">
         <f>IF(R13="","",R13)</f>
-        <v>2302</v>
-      </c>
-      <c r="G13" s="972"/>
+        <v/>
+      </c>
+      <c r="G13" s="996"/>
       <c r="J13" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="964">
+      <c r="K13" s="987" t="str">
         <f>IF(V13="","",V13)</f>
-        <v>1</v>
-      </c>
-      <c r="L13" s="964"/>
+        <v/>
+      </c>
+      <c r="L13" s="987"/>
       <c r="M13" s="69"/>
       <c r="O13" s="30"/>
       <c r="Q13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="46">
+      <c r="R13" s="46" t="str">
         <f>IF(S13&lt;&gt;"",S13,IF(AB13="","",AB13))</f>
-        <v>2302</v>
-      </c>
-      <c r="S13" s="47">
-        <v>2302</v>
-      </c>
+        <v/>
+      </c>
+      <c r="S13" s="47"/>
       <c r="U13" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="V13" s="46">
+      <c r="V13" s="46" t="str">
         <f>IF(W13&lt;&gt;"",W13,IF(AB18="","",AB18))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="W13" s="47"/>
       <c r="Y13" s="32"/>
       <c r="AA13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AB13" s="65">
-        <v>2099</v>
-      </c>
+      <c r="AB13" s="65"/>
       <c r="AC13" s="49" t="str">
         <f t="shared" si="0"/>
-        <v>Change</v>
-      </c>
-      <c r="AD13" s="66">
+        <v/>
+      </c>
+      <c r="AD13" s="66" t="str">
         <f>IF(R13="","",R13)</f>
-        <v>2302</v>
+        <v/>
       </c>
       <c r="AH13" s="588">
         <v>24</v>
@@ -33339,11 +33280,11 @@
       </c>
       <c r="AK13" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL13" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM13" s="589"/>
       <c r="AN13" s="589"/>
@@ -33365,7 +33306,7 @@
       </c>
       <c r="R14" s="46" t="str">
         <f>IF(S14&lt;&gt;"",S14,IF(AB14="","",AB14))</f>
-        <v>1C07</v>
+        <v/>
       </c>
       <c r="S14" s="47"/>
       <c r="U14" s="35" t="s">
@@ -33373,25 +33314,21 @@
       </c>
       <c r="V14" s="46" t="str">
         <f>IF(W14&lt;&gt;"",W14,IF(AB19="","",AB19))</f>
-        <v>MTP1C07_2018</v>
-      </c>
-      <c r="W14" s="47" t="s">
-        <v>818</v>
-      </c>
+        <v/>
+      </c>
+      <c r="W14" s="47"/>
       <c r="Y14" s="32"/>
       <c r="AA14" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AB14" s="74" t="s">
-        <v>809</v>
-      </c>
+      <c r="AB14" s="74"/>
       <c r="AC14" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AD14" s="66" t="str">
         <f>IF(R14="","",R14)</f>
-        <v>1C07</v>
+        <v/>
       </c>
       <c r="AH14" s="588">
         <v>24</v>
@@ -33404,11 +33341,11 @@
       </c>
       <c r="AK14" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL14" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM14" s="589"/>
       <c r="AN14" s="589"/>
@@ -33432,16 +33369,14 @@
       <c r="AA15" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AB15" s="65" t="s">
-        <v>810</v>
-      </c>
+      <c r="AB15" s="65"/>
       <c r="AC15" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AD15" s="66" t="str">
         <f>IF(V10="","",V10)</f>
-        <v>400-392781</v>
+        <v/>
       </c>
       <c r="AH15" s="588">
         <v>24</v>
@@ -33454,11 +33389,11 @@
       </c>
       <c r="AK15" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL15" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM15" s="589"/>
       <c r="AN15" s="589"/>
@@ -33476,19 +33411,19 @@
       <c r="E16" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="964" t="str">
+      <c r="F16" s="987" t="str">
         <f>IF(R17="","",R17)</f>
-        <v>Siemens</v>
-      </c>
-      <c r="G16" s="964"/>
+        <v/>
+      </c>
+      <c r="G16" s="987"/>
       <c r="J16" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="970" t="str">
+      <c r="K16" s="997" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="970"/>
+      <c r="L16" s="997"/>
       <c r="M16" s="69"/>
       <c r="O16" s="30"/>
       <c r="P16" s="75" t="s">
@@ -33498,16 +33433,14 @@
       <c r="AA16" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AB16" s="65" t="s">
-        <v>811</v>
-      </c>
+      <c r="AB16" s="65"/>
       <c r="AC16" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AD16" s="66" t="str">
         <f>IF(V11="","",V11)</f>
-        <v>SBB</v>
+        <v/>
       </c>
       <c r="AH16" s="588">
         <v>24</v>
@@ -33520,11 +33453,11 @@
       </c>
       <c r="AK16" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL16" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM16" s="589"/>
       <c r="AN16" s="589"/>
@@ -33542,19 +33475,19 @@
       <c r="E17" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="964" t="str">
+      <c r="F17" s="987" t="str">
         <f>IF(R18="","",R18)</f>
-        <v>Mammotest</v>
-      </c>
-      <c r="G17" s="964"/>
+        <v/>
+      </c>
+      <c r="G17" s="987"/>
       <c r="J17" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="973">
+      <c r="K17" s="998" t="str">
         <f>IF(V18="","",V18)</f>
-        <v>10247</v>
-      </c>
-      <c r="L17" s="973"/>
+        <v/>
+      </c>
+      <c r="L17" s="998"/>
       <c r="M17" s="69"/>
       <c r="O17" s="30"/>
       <c r="Q17" s="35" t="s">
@@ -33562,7 +33495,7 @@
       </c>
       <c r="R17" s="46" t="str">
         <f>IF(S17&lt;&gt;"",S17,IF(AB21="","",AB21))</f>
-        <v>Siemens</v>
+        <v/>
       </c>
       <c r="S17" s="47"/>
       <c r="U17" s="35" t="s">
@@ -33577,16 +33510,14 @@
       <c r="AA17" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AB17" s="77">
-        <v>41091</v>
-      </c>
+      <c r="AB17" s="77"/>
       <c r="AC17" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD17" s="78">
+      <c r="AD17" s="78" t="str">
         <f>IF(V12="","",V12)</f>
-        <v>41091</v>
+        <v/>
       </c>
       <c r="AH17" s="588">
         <v>24</v>
@@ -33599,11 +33530,11 @@
       </c>
       <c r="AK17" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL17" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM17" s="589"/>
       <c r="AN17" s="589"/>
@@ -33621,19 +33552,19 @@
       <c r="E18" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="964">
+      <c r="F18" s="987" t="str">
         <f>IF(R19="","",R19)</f>
-        <v>34</v>
-      </c>
-      <c r="G18" s="964"/>
+        <v/>
+      </c>
+      <c r="G18" s="987"/>
       <c r="J18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="964">
+      <c r="K18" s="987" t="str">
         <f>IF(V19="","",V19)</f>
-        <v>100</v>
-      </c>
-      <c r="L18" s="964"/>
+        <v/>
+      </c>
+      <c r="L18" s="987"/>
       <c r="M18" s="69"/>
       <c r="O18" s="30"/>
       <c r="Q18" s="35" t="s">
@@ -33641,31 +33572,29 @@
       </c>
       <c r="R18" s="46" t="str">
         <f>IF(S18&lt;&gt;"",S18,IF(AB22="","",AB22))</f>
-        <v>Mammotest</v>
+        <v/>
       </c>
       <c r="S18" s="47"/>
       <c r="U18" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="V18" s="46">
+      <c r="V18" s="46" t="str">
         <f>IF(W18&lt;&gt;"",W18,IF(AB25="","",AB25))</f>
-        <v>10247</v>
+        <v/>
       </c>
       <c r="W18" s="47"/>
       <c r="Y18" s="32"/>
       <c r="AA18" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AB18" s="65">
-        <v>1</v>
-      </c>
+      <c r="AB18" s="65"/>
       <c r="AC18" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD18" s="66">
+      <c r="AD18" s="66" t="str">
         <f>IF(V13="","",V13)</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AH18" s="584">
         <v>25</v>
@@ -33678,11 +33607,11 @@
       </c>
       <c r="AK18" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL18" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM18" s="16"/>
       <c r="AN18" s="16"/>
@@ -33702,33 +33631,31 @@
       <c r="Q19" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="R19" s="46">
+      <c r="R19" s="46" t="str">
         <f>IF(S19&lt;&gt;"",S19,IF(AB23="","",AB23))</f>
-        <v>34</v>
+        <v/>
       </c>
       <c r="S19" s="47"/>
       <c r="U19" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="V19" s="46">
+      <c r="V19" s="46" t="str">
         <f>IF(W19&lt;&gt;"",W19,IF(AB26="","",AB26))</f>
-        <v>100</v>
+        <v/>
       </c>
       <c r="W19" s="47"/>
       <c r="Y19" s="32"/>
       <c r="AA19" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="AB19" s="65">
-        <v>7544912</v>
-      </c>
+      <c r="AB19" s="65"/>
       <c r="AC19" s="49" t="str">
         <f t="shared" si="0"/>
-        <v>Change</v>
+        <v/>
       </c>
       <c r="AD19" s="66" t="str">
         <f>IF(V14="","",V14)</f>
-        <v>MTP1C07_2018</v>
+        <v/>
       </c>
       <c r="AH19" s="588">
         <v>25</v>
@@ -33741,11 +33668,11 @@
       </c>
       <c r="AK19" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL19" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM19" s="589"/>
       <c r="AN19" s="589"/>
@@ -33781,11 +33708,11 @@
       </c>
       <c r="AK20" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL20" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM20" s="589"/>
       <c r="AN20" s="589"/>
@@ -33803,19 +33730,19 @@
       <c r="E21" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="964" t="str">
+      <c r="F21" s="987" t="str">
         <f>IF(R22="","",R22)</f>
-        <v>SBB</v>
-      </c>
-      <c r="G21" s="964"/>
+        <v/>
+      </c>
+      <c r="G21" s="987"/>
       <c r="J21" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="964" t="str">
+      <c r="K21" s="987" t="str">
         <f>IF(V21="","",V21)</f>
-        <v>Mo</v>
-      </c>
-      <c r="L21" s="964"/>
+        <v/>
+      </c>
+      <c r="L21" s="987"/>
       <c r="M21" s="69"/>
       <c r="O21" s="30"/>
       <c r="P21" s="75" t="s">
@@ -33826,23 +33753,21 @@
       </c>
       <c r="V21" s="46" t="str">
         <f>IF(W21&lt;&gt;"",W21,IF(AB38="","",AB38))</f>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="W21" s="47"/>
       <c r="Y21" s="32"/>
       <c r="AA21" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AB21" s="65" t="s">
-        <v>382</v>
-      </c>
+      <c r="AB21" s="65"/>
       <c r="AC21" s="49" t="str">
         <f t="shared" ref="AC21:AC26" si="3">IF(AB21&lt;&gt;AD21,"Change","")</f>
         <v/>
       </c>
       <c r="AD21" s="66" t="str">
         <f>IF(R17="","",R17)</f>
-        <v>Siemens</v>
+        <v/>
       </c>
       <c r="AH21" s="588">
         <v>25</v>
@@ -33855,11 +33780,11 @@
       </c>
       <c r="AK21" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL21" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM21" s="589"/>
       <c r="AN21" s="589"/>
@@ -33877,17 +33802,17 @@
       <c r="E22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="970" t="str">
+      <c r="F22" s="997" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="970"/>
+      <c r="G22" s="997"/>
       <c r="J22" s="35"/>
-      <c r="K22" s="964" t="str">
+      <c r="K22" s="987" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="964"/>
+      <c r="L22" s="987"/>
       <c r="M22" s="69"/>
       <c r="O22" s="30"/>
       <c r="Q22" s="35" t="s">
@@ -33895,7 +33820,7 @@
       </c>
       <c r="R22" s="46" t="str">
         <f>IF(S22&lt;&gt;"",S22,IF(AB28="","",AB28))</f>
-        <v>SBB</v>
+        <v/>
       </c>
       <c r="S22" s="47"/>
       <c r="V22" s="46" t="str">
@@ -33907,16 +33832,14 @@
       <c r="AA22" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AB22" s="65" t="s">
-        <v>812</v>
-      </c>
+      <c r="AB22" s="65"/>
       <c r="AC22" s="49" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AD22" s="66" t="str">
         <f>IF(R18="","",R18)</f>
-        <v>Mammotest</v>
+        <v/>
       </c>
       <c r="AH22" s="588">
         <v>25</v>
@@ -33929,11 +33852,11 @@
       </c>
       <c r="AK22" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL22" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM22" s="589"/>
       <c r="AN22" s="589"/>
@@ -33954,11 +33877,11 @@
       <c r="J23" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="964" t="str">
+      <c r="K23" s="987" t="str">
         <f>IF(V24="","",V24)</f>
-        <v>Mo</v>
-      </c>
-      <c r="L23" s="964"/>
+        <v/>
+      </c>
+      <c r="L23" s="987"/>
       <c r="M23" s="69"/>
       <c r="O23" s="30"/>
       <c r="Q23" s="35" t="s">
@@ -33975,16 +33898,14 @@
       <c r="AA23" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="AB23" s="65">
-        <v>34</v>
-      </c>
+      <c r="AB23" s="65"/>
       <c r="AC23" s="49" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AD23" s="66">
+      <c r="AD23" s="66" t="str">
         <f>IF(R19="","",R19)</f>
-        <v>34</v>
+        <v/>
       </c>
       <c r="AH23" s="588">
         <v>25</v>
@@ -33997,11 +33918,11 @@
       </c>
       <c r="AK23" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL23" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM23" s="589"/>
       <c r="AN23" s="589"/>
@@ -34019,16 +33940,16 @@
       <c r="E24" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="964" t="str">
+      <c r="F24" s="987" t="str">
         <f>IF(R25="","",R25)</f>
-        <v>Varian</v>
-      </c>
-      <c r="G24" s="964"/>
-      <c r="K24" s="964" t="str">
+        <v/>
+      </c>
+      <c r="G24" s="987"/>
+      <c r="K24" s="987" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="964"/>
+      <c r="L24" s="987"/>
       <c r="M24" s="69"/>
       <c r="O24" s="30"/>
       <c r="P24" s="75" t="s">
@@ -34039,16 +33960,14 @@
       </c>
       <c r="V24" s="46" t="str">
         <f>IF(W24&lt;&gt;"",W24,IF(AB40="","",AB40))</f>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="W24" s="47"/>
       <c r="Y24" s="32"/>
       <c r="AA24" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AB24" s="77" t="s">
-        <v>553</v>
-      </c>
+      <c r="AB24" s="77"/>
       <c r="AC24" s="49" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -34068,11 +33987,11 @@
       </c>
       <c r="AK24" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL24" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM24" s="589"/>
       <c r="AN24" s="589"/>
@@ -34090,11 +34009,11 @@
       <c r="E25" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="964" t="str">
+      <c r="F25" s="987" t="str">
         <f>IF(R26="","",R26)</f>
-        <v>M-147SP</v>
-      </c>
-      <c r="G25" s="964"/>
+        <v/>
+      </c>
+      <c r="G25" s="987"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -34105,7 +34024,7 @@
       </c>
       <c r="R25" s="46" t="str">
         <f>IF(S25&lt;&gt;"",S25,IF(AB30="","",AB30))</f>
-        <v>Varian</v>
+        <v/>
       </c>
       <c r="S25" s="47"/>
       <c r="V25" s="46" t="str">
@@ -34117,16 +34036,14 @@
       <c r="AA25" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB25" s="65">
-        <v>10247</v>
-      </c>
+      <c r="AB25" s="65"/>
       <c r="AC25" s="49" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AD25" s="66">
+      <c r="AD25" s="66" t="str">
         <f>IF(V18="","",V18)</f>
-        <v>10247</v>
+        <v/>
       </c>
       <c r="AH25" s="588">
         <v>25</v>
@@ -34139,11 +34056,11 @@
       </c>
       <c r="AK25" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL25" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM25" s="589"/>
       <c r="AN25" s="589"/>
@@ -34161,11 +34078,11 @@
       <c r="E26" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="964" t="str">
+      <c r="F26" s="987" t="str">
         <f>IF(R27="","",R27)</f>
-        <v>19420-W1</v>
-      </c>
-      <c r="G26" s="964"/>
+        <v/>
+      </c>
+      <c r="G26" s="987"/>
       <c r="I26" s="75" t="s">
         <v>55</v>
       </c>
@@ -34179,7 +34096,7 @@
       </c>
       <c r="R26" s="46" t="str">
         <f>IF(S26&lt;&gt;"",S26,IF(AB31="","",AB31))</f>
-        <v>M-147SP</v>
+        <v/>
       </c>
       <c r="S26" s="47"/>
       <c r="V26" s="4"/>
@@ -34188,16 +34105,14 @@
       <c r="AA26" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="AB26" s="65">
-        <v>100</v>
-      </c>
+      <c r="AB26" s="65"/>
       <c r="AC26" s="49" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AD26" s="66">
+      <c r="AD26" s="66" t="str">
         <f>IF(V19="","",V19)</f>
-        <v>100</v>
+        <v/>
       </c>
       <c r="AH26" s="584">
         <v>26</v>
@@ -34210,11 +34125,11 @@
       </c>
       <c r="AK26" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL26" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM26" s="16"/>
       <c r="AN26" s="16"/>
@@ -34235,11 +34150,11 @@
       <c r="J27" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="964">
+      <c r="K27" s="987" t="str">
         <f>IF(V28="","",V28)</f>
-        <v>0.3</v>
-      </c>
-      <c r="L27" s="964"/>
+        <v/>
+      </c>
+      <c r="L27" s="987"/>
       <c r="M27" s="69"/>
       <c r="O27" s="30"/>
       <c r="Q27" s="35" t="s">
@@ -34247,7 +34162,7 @@
       </c>
       <c r="R27" s="46" t="str">
         <f>IF(S27&lt;&gt;"",S27,IF(AB32="","",AB32))</f>
-        <v>19420-W1</v>
+        <v/>
       </c>
       <c r="S27" s="47"/>
       <c r="U27" s="79" t="s">
@@ -34268,11 +34183,11 @@
       </c>
       <c r="AK27" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL27" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM27" s="16"/>
       <c r="AN27" s="16"/>
@@ -34290,20 +34205,20 @@
       <c r="E28" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="964" t="str">
+      <c r="F28" s="987" t="str">
         <f>IF(R29="","",R29)</f>
-        <v>Varian</v>
-      </c>
-      <c r="G28" s="964"/>
+        <v/>
+      </c>
+      <c r="G28" s="987"/>
       <c r="I28" s="4"/>
       <c r="J28" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="K28" s="964">
+      <c r="K28" s="987" t="str">
         <f>IF(V29="","",V29)</f>
-        <v>0.1</v>
-      </c>
-      <c r="L28" s="964"/>
+        <v/>
+      </c>
+      <c r="L28" s="987"/>
       <c r="M28" s="69"/>
       <c r="O28" s="30"/>
       <c r="P28" s="75" t="s">
@@ -34312,25 +34227,23 @@
       <c r="U28" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="V28" s="46">
+      <c r="V28" s="46" t="str">
         <f>IF(W28&lt;&gt;"",W28,IF(AB36="","",AB36))</f>
-        <v>0.3</v>
+        <v/>
       </c>
       <c r="W28" s="47"/>
       <c r="Y28" s="32"/>
       <c r="AA28" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="AB28" s="65" t="s">
-        <v>811</v>
-      </c>
+      <c r="AB28" s="65"/>
       <c r="AC28" s="49" t="str">
         <f t="shared" ref="AC28:AC43" si="4">IF(AB28&lt;&gt;AD28,"Change","")</f>
         <v/>
       </c>
       <c r="AD28" s="66" t="str">
         <f>IF(R22="","",R22)</f>
-        <v>SBB</v>
+        <v/>
       </c>
       <c r="AH28" s="584">
         <v>28</v>
@@ -34343,11 +34256,11 @@
       </c>
       <c r="AK28" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL28" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM28" s="16"/>
       <c r="AN28" s="16"/>
@@ -34365,22 +34278,22 @@
       <c r="E29" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="964" t="str">
+      <c r="F29" s="987" t="str">
         <f>IF(R30="","",R30)</f>
-        <v>B-110</v>
-      </c>
-      <c r="G29" s="964"/>
+        <v/>
+      </c>
+      <c r="G29" s="987"/>
       <c r="I29" s="75" t="s">
         <v>59</v>
       </c>
       <c r="J29" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="K29" s="964" t="str">
+      <c r="K29" s="987" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="964"/>
+      <c r="L29" s="987"/>
       <c r="M29" s="69"/>
       <c r="O29" s="30"/>
       <c r="Q29" s="35" t="s">
@@ -34388,24 +34301,22 @@
       </c>
       <c r="R29" s="46" t="str">
         <f>IF(S29&lt;&gt;"",S29,IF(AB33="","",AB33))</f>
-        <v>Varian</v>
+        <v/>
       </c>
       <c r="S29" s="47"/>
       <c r="U29" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="V29" s="46">
+      <c r="V29" s="46" t="str">
         <f>IF(W29&lt;&gt;"",W29,IF(AB37="","",AB37))</f>
-        <v>0.1</v>
+        <v/>
       </c>
       <c r="W29" s="47"/>
       <c r="Y29" s="32"/>
       <c r="AA29" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AB29" s="77" t="s">
-        <v>553</v>
-      </c>
+      <c r="AB29" s="77"/>
       <c r="AC29" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -34425,11 +34336,11 @@
       </c>
       <c r="AK29" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL29" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM29" s="16"/>
       <c r="AN29" s="16"/>
@@ -34447,19 +34358,19 @@
       <c r="E30" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="964" t="str">
+      <c r="F30" s="987" t="str">
         <f>IF(R31="","",R31)</f>
-        <v>H19420</v>
-      </c>
-      <c r="G30" s="964"/>
+        <v/>
+      </c>
+      <c r="G30" s="987"/>
       <c r="J30" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="K30" s="964" t="str">
+      <c r="K30" s="987" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="964"/>
+      <c r="L30" s="987"/>
       <c r="M30" s="69"/>
       <c r="O30" s="30"/>
       <c r="Q30" s="35" t="s">
@@ -34467,23 +34378,21 @@
       </c>
       <c r="R30" s="46" t="str">
         <f>IF(S30&lt;&gt;"",S30,IF(AB34="","",AB34))</f>
-        <v>B-110</v>
+        <v/>
       </c>
       <c r="S30" s="47"/>
       <c r="Y30" s="32"/>
       <c r="AA30" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AB30" s="65" t="s">
-        <v>813</v>
-      </c>
+      <c r="AB30" s="65"/>
       <c r="AC30" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD30" s="66" t="str">
         <f>IF(R25="","",R25)</f>
-        <v>Varian</v>
+        <v/>
       </c>
       <c r="AH30" s="584">
         <v>28</v>
@@ -34496,11 +34405,11 @@
       </c>
       <c r="AK30" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL30" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM30" s="16"/>
       <c r="AN30" s="16"/>
@@ -34531,7 +34440,7 @@
       </c>
       <c r="R31" s="46" t="str">
         <f>IF(S31&lt;&gt;"",S31,IF(AB35="","",AB35))</f>
-        <v>H19420</v>
+        <v/>
       </c>
       <c r="S31" s="47"/>
       <c r="U31" s="75" t="s">
@@ -34541,16 +34450,14 @@
       <c r="AA31" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AB31" s="65" t="s">
-        <v>814</v>
-      </c>
+      <c r="AB31" s="65"/>
       <c r="AC31" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD31" s="66" t="str">
         <f>IF(R26="","",R26)</f>
-        <v>M-147SP</v>
+        <v/>
       </c>
       <c r="AH31" s="588">
         <v>28</v>
@@ -34563,11 +34470,11 @@
       </c>
       <c r="AK31" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL31" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM31" s="589"/>
       <c r="AN31" s="589"/>
@@ -34593,16 +34500,14 @@
       <c r="AA32" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB32" s="65" t="s">
-        <v>815</v>
-      </c>
+      <c r="AB32" s="65"/>
       <c r="AC32" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD32" s="66" t="str">
         <f>IF(R27="","",R27)</f>
-        <v>19420-W1</v>
+        <v/>
       </c>
       <c r="AH32" s="588">
         <v>28</v>
@@ -34615,11 +34520,11 @@
       </c>
       <c r="AK32" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL32" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM32" s="589"/>
       <c r="AN32" s="589"/>
@@ -34648,16 +34553,14 @@
       <c r="AA33" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AB33" s="65" t="s">
-        <v>813</v>
-      </c>
+      <c r="AB33" s="65"/>
       <c r="AC33" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD33" s="66" t="str">
         <f>IF(R29="","",R29)</f>
-        <v>Varian</v>
+        <v/>
       </c>
       <c r="AH33" s="588">
         <v>28</v>
@@ -34670,11 +34573,11 @@
       </c>
       <c r="AK33" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL33" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM33" s="589"/>
       <c r="AN33" s="589"/>
@@ -34710,16 +34613,14 @@
       <c r="AA34" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AB34" s="65" t="s">
-        <v>816</v>
-      </c>
+      <c r="AB34" s="65"/>
       <c r="AC34" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD34" s="66" t="str">
         <f>IF(R30="","",R30)</f>
-        <v>B-110</v>
+        <v/>
       </c>
       <c r="AH34" s="588">
         <v>28</v>
@@ -34732,11 +34633,11 @@
       </c>
       <c r="AK34" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL34" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM34" s="589"/>
       <c r="AN34" s="589"/>
@@ -34753,21 +34654,21 @@
       <c r="C35" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="974" t="s">
+      <c r="D35" s="994" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="974"/>
-      <c r="F35" s="974"/>
-      <c r="G35" s="974" t="s">
+      <c r="E35" s="994"/>
+      <c r="F35" s="994"/>
+      <c r="G35" s="994" t="s">
         <v>65</v>
       </c>
-      <c r="H35" s="974"/>
-      <c r="I35" s="974"/>
-      <c r="J35" s="974" t="s">
+      <c r="H35" s="994"/>
+      <c r="I35" s="994"/>
+      <c r="J35" s="994" t="s">
         <v>66</v>
       </c>
-      <c r="K35" s="974"/>
-      <c r="L35" s="974"/>
+      <c r="K35" s="994"/>
+      <c r="L35" s="994"/>
       <c r="M35" s="69"/>
       <c r="O35" s="40"/>
       <c r="P35" s="41"/>
@@ -34783,16 +34684,14 @@
       <c r="AA35" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AB35" s="65" t="s">
-        <v>817</v>
-      </c>
+      <c r="AB35" s="65"/>
       <c r="AC35" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD35" s="66" t="str">
         <f>IF(R31="","",R31)</f>
-        <v>H19420</v>
+        <v/>
       </c>
       <c r="AH35" s="588">
         <v>28</v>
@@ -34805,11 +34704,11 @@
       </c>
       <c r="AK35" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL35" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM35" s="589"/>
       <c r="AN35" s="589"/>
@@ -34829,11 +34728,11 @@
       <c r="D36" s="573"/>
       <c r="E36" s="574"/>
       <c r="F36" s="579"/>
-      <c r="G36" s="975" t="s">
+      <c r="G36" s="990" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="975"/>
-      <c r="I36" s="975"/>
+      <c r="H36" s="990"/>
+      <c r="I36" s="990"/>
       <c r="J36" s="573"/>
       <c r="K36" s="574"/>
       <c r="L36" s="579"/>
@@ -34841,16 +34740,14 @@
       <c r="AA36" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="AB36" s="65">
-        <v>0.3</v>
-      </c>
+      <c r="AB36" s="65"/>
       <c r="AC36" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AD36" s="66">
+      <c r="AD36" s="66" t="str">
         <f>IF(V28="","",V28)</f>
-        <v>0.3</v>
+        <v/>
       </c>
       <c r="AH36" s="588">
         <v>28</v>
@@ -34863,11 +34760,11 @@
       </c>
       <c r="AK36" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL36" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM36" s="589"/>
       <c r="AN36" s="589"/>
@@ -34918,16 +34815,14 @@
       <c r="AA37" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="AB37" s="65">
-        <v>0.1</v>
-      </c>
+      <c r="AB37" s="65"/>
       <c r="AC37" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AD37" s="66">
+      <c r="AD37" s="66" t="str">
         <f>IF(V29="","",V29)</f>
-        <v>0.1</v>
+        <v/>
       </c>
       <c r="AH37" s="588">
         <v>28</v>
@@ -34940,11 +34835,11 @@
       </c>
       <c r="AK37" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL37" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM37" s="589"/>
       <c r="AN37" s="589"/>
@@ -35014,16 +34909,14 @@
       <c r="AA38" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AB38" s="65" t="s">
-        <v>31</v>
-      </c>
+      <c r="AB38" s="65"/>
       <c r="AC38" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD38" s="66" t="str">
         <f>IF(V21="","",V21)</f>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AH38" s="584">
         <v>28</v>
@@ -35036,11 +34929,11 @@
       </c>
       <c r="AK38" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL38" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM38" s="16"/>
       <c r="AN38" s="16"/>
@@ -35102,9 +34995,7 @@
       <c r="AA39" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="AB39" s="65" t="s">
-        <v>553</v>
-      </c>
+      <c r="AB39" s="65"/>
       <c r="AC39" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -35124,11 +35015,11 @@
       </c>
       <c r="AK39" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL39" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM39" s="16"/>
       <c r="AN39" s="16"/>
@@ -35190,16 +35081,14 @@
       <c r="AA40" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="AB40" s="65" t="s">
-        <v>31</v>
-      </c>
+      <c r="AB40" s="65"/>
       <c r="AC40" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD40" s="66" t="str">
         <f>IF(V24="","",V24)</f>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AH40" s="584">
         <v>30</v>
@@ -35212,11 +35101,11 @@
       </c>
       <c r="AK40" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL40" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM40" s="16"/>
       <c r="AN40" s="16"/>
@@ -35278,9 +35167,7 @@
       <c r="AA41" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="AB41" s="65" t="s">
-        <v>553</v>
-      </c>
+      <c r="AB41" s="65"/>
       <c r="AC41" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -35300,11 +35187,11 @@
       </c>
       <c r="AK41" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL41" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM41" s="16"/>
       <c r="AN41" s="16"/>
@@ -35327,9 +35214,7 @@
       <c r="AA42" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="AB42" s="65" t="s">
-        <v>553</v>
-      </c>
+      <c r="AB42" s="65"/>
       <c r="AC42" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -35349,11 +35234,11 @@
       </c>
       <c r="AK42" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL42" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM42" s="589"/>
       <c r="AN42" s="589"/>
@@ -35379,9 +35264,7 @@
       <c r="AA43" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="AB43" s="65" t="s">
-        <v>553</v>
-      </c>
+      <c r="AB43" s="65"/>
       <c r="AC43" s="49" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -35401,11 +35284,11 @@
       </c>
       <c r="AK43" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL43" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM43" s="589"/>
       <c r="AN43" s="589"/>
@@ -35422,10 +35305,10 @@
       <c r="C44" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="L44" s="976" t="s">
+      <c r="L44" s="991" t="s">
         <v>89</v>
       </c>
-      <c r="M44" s="976"/>
+      <c r="M44" s="991"/>
       <c r="O44" s="30"/>
       <c r="Y44" s="32"/>
       <c r="AA44" s="75" t="s">
@@ -35442,11 +35325,11 @@
       </c>
       <c r="AK44" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL44" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM44" s="589"/>
       <c r="AN44" s="589"/>
@@ -35493,11 +35376,11 @@
       </c>
       <c r="AK45" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL45" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM45" s="589"/>
       <c r="AN45" s="589"/>
@@ -35549,11 +35432,11 @@
       </c>
       <c r="AK46" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL46" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM46" s="589"/>
       <c r="AN46" s="589"/>
@@ -35605,11 +35488,11 @@
       </c>
       <c r="AK47" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL47" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM47" s="589"/>
       <c r="AN47" s="589"/>
@@ -35658,11 +35541,11 @@
       </c>
       <c r="AK48" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL48" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM48" s="589"/>
       <c r="AN48" s="589"/>
@@ -35711,11 +35594,11 @@
       </c>
       <c r="AK49" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL49" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM49" s="16"/>
       <c r="AN49" s="16"/>
@@ -35757,11 +35640,11 @@
       </c>
       <c r="AK50" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL50" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM50" s="589"/>
       <c r="AN50" s="589"/>
@@ -35810,11 +35693,11 @@
       </c>
       <c r="AK51" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL51" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM51" s="589"/>
       <c r="AN51" s="589"/>
@@ -35863,11 +35746,11 @@
       </c>
       <c r="AK52" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL52" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM52" s="589"/>
       <c r="AN52" s="589"/>
@@ -35916,11 +35799,11 @@
       </c>
       <c r="AK53" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL53" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM53" s="589"/>
       <c r="AN53" s="589"/>
@@ -35969,11 +35852,11 @@
       </c>
       <c r="AK54" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL54" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM54" s="589"/>
       <c r="AN54" s="589"/>
@@ -36022,11 +35905,11 @@
       </c>
       <c r="AK55" s="589" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL55" s="589" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM55" s="589"/>
       <c r="AN55" s="589"/>
@@ -36072,11 +35955,11 @@
       </c>
       <c r="AK56" s="593" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL56" s="593" t="str">
         <f t="shared" si="2"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AM56" s="593"/>
       <c r="AN56" s="593"/>
@@ -36122,7 +36005,7 @@
       </c>
       <c r="AK57" s="580" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL57" s="580" t="str">
         <f>IF($V$25="","",$V$25)</f>
@@ -36170,7 +36053,7 @@
       </c>
       <c r="AK58" s="600" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL58" s="600" t="str">
         <f t="shared" ref="AL58:AL90" si="8">IF($V$25="","",$V$25)</f>
@@ -36223,7 +36106,7 @@
       </c>
       <c r="AK59" s="600" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL59" s="600" t="str">
         <f t="shared" si="8"/>
@@ -36276,7 +36159,7 @@
       </c>
       <c r="AK60" s="600" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL60" s="600" t="str">
         <f t="shared" si="8"/>
@@ -36329,7 +36212,7 @@
       </c>
       <c r="AK61" s="600" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL61" s="600" t="str">
         <f t="shared" si="8"/>
@@ -36379,7 +36262,7 @@
       </c>
       <c r="AK62" s="600" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL62" s="600" t="str">
         <f t="shared" si="8"/>
@@ -36432,7 +36315,7 @@
       </c>
       <c r="AK63" s="600" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL63" s="600" t="str">
         <f t="shared" si="8"/>
@@ -36485,7 +36368,7 @@
       </c>
       <c r="AK64" s="600" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL64" s="600" t="str">
         <f t="shared" si="8"/>
@@ -36538,7 +36421,7 @@
       </c>
       <c r="AK65" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL65" s="11" t="str">
         <f t="shared" si="8"/>
@@ -36591,7 +36474,7 @@
       </c>
       <c r="AK66" s="600" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL66" s="600" t="str">
         <f t="shared" si="8"/>
@@ -36644,7 +36527,7 @@
       </c>
       <c r="AK67" s="600" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL67" s="600" t="str">
         <f t="shared" si="8"/>
@@ -36697,7 +36580,7 @@
       </c>
       <c r="AK68" s="600" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL68" s="600" t="str">
         <f t="shared" si="8"/>
@@ -36750,7 +36633,7 @@
       </c>
       <c r="AK69" s="600" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL69" s="600" t="str">
         <f t="shared" si="8"/>
@@ -36803,7 +36686,7 @@
       </c>
       <c r="AK70" s="600" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL70" s="600" t="str">
         <f t="shared" si="8"/>
@@ -36823,9 +36706,9 @@
       <c r="C71" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="375">
+      <c r="D71" s="375" t="str">
         <f>IF($P$7="","",$P$7)</f>
-        <v>43273</v>
+        <v/>
       </c>
       <c r="E71" s="27"/>
       <c r="F71" s="27"/>
@@ -36860,7 +36743,7 @@
       </c>
       <c r="AK71" s="600" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL71" s="600" t="str">
         <f t="shared" si="8"/>
@@ -36882,7 +36765,7 @@
       </c>
       <c r="D72" s="376" t="str">
         <f>IF($R$14="","",$R$14)</f>
-        <v>1C07</v>
+        <v/>
       </c>
       <c r="E72" s="27"/>
       <c r="F72" s="27"/>
@@ -36894,9 +36777,9 @@
       <c r="L72" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="M72" s="376">
+      <c r="M72" s="376" t="str">
         <f>IF($R$13="","",$R$13)</f>
-        <v>2302</v>
+        <v/>
       </c>
       <c r="O72" s="96"/>
       <c r="P72" s="68" t="s">
@@ -36922,7 +36805,7 @@
       </c>
       <c r="AK72" s="600" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL72" s="600" t="str">
         <f t="shared" si="8"/>
@@ -36967,7 +36850,7 @@
       </c>
       <c r="AK73" s="581" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL73" s="581" t="str">
         <f t="shared" si="8"/>
@@ -37015,7 +36898,7 @@
       </c>
       <c r="AK74" s="600" t="str">
         <f t="shared" si="1"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL74" s="600" t="str">
         <f t="shared" si="8"/>
@@ -37072,7 +36955,7 @@
       </c>
       <c r="AK75" s="600" t="str">
         <f t="shared" ref="AK75:AK90" si="9">IF($V$21="","",$V$21)</f>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL75" s="600" t="str">
         <f t="shared" si="8"/>
@@ -37135,7 +37018,7 @@
       </c>
       <c r="AK76" s="600" t="str">
         <f t="shared" si="9"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL76" s="600" t="str">
         <f t="shared" si="8"/>
@@ -37195,7 +37078,7 @@
       </c>
       <c r="AK77" s="600" t="str">
         <f t="shared" si="9"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL77" s="600" t="str">
         <f t="shared" si="8"/>
@@ -37258,7 +37141,7 @@
       </c>
       <c r="AK78" s="600" t="str">
         <f t="shared" si="9"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL78" s="600" t="str">
         <f t="shared" si="8"/>
@@ -37321,7 +37204,7 @@
       </c>
       <c r="AK79" s="600" t="str">
         <f t="shared" si="9"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL79" s="600" t="str">
         <f t="shared" si="8"/>
@@ -37384,7 +37267,7 @@
       </c>
       <c r="AK80" s="600" t="str">
         <f t="shared" si="9"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL80" s="600" t="str">
         <f t="shared" si="8"/>
@@ -37447,7 +37330,7 @@
       </c>
       <c r="AK81" s="11" t="str">
         <f t="shared" si="9"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL81" s="11" t="str">
         <f t="shared" si="8"/>
@@ -37510,7 +37393,7 @@
       </c>
       <c r="AK82" s="600" t="str">
         <f t="shared" si="9"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL82" s="600" t="str">
         <f t="shared" si="8"/>
@@ -37573,7 +37456,7 @@
       </c>
       <c r="AK83" s="600" t="str">
         <f t="shared" si="9"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL83" s="600" t="str">
         <f t="shared" si="8"/>
@@ -37628,7 +37511,7 @@
       </c>
       <c r="AK84" s="600" t="str">
         <f t="shared" si="9"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL84" s="600" t="str">
         <f t="shared" si="8"/>
@@ -37678,9 +37561,7 @@
       <c r="AA85" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="AB85" s="65">
-        <v>2.3223554914248874</v>
-      </c>
+      <c r="AB85" s="65"/>
       <c r="AD85" s="116" t="e">
         <f>IF(X265="","",X265)</f>
         <v>#N/A</v>
@@ -37696,7 +37577,7 @@
       </c>
       <c r="AK85" s="600" t="str">
         <f t="shared" si="9"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL85" s="600" t="str">
         <f t="shared" si="8"/>
@@ -37759,7 +37640,7 @@
       </c>
       <c r="AK86" s="600" t="str">
         <f t="shared" si="9"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL86" s="600" t="str">
         <f t="shared" si="8"/>
@@ -37822,7 +37703,7 @@
       </c>
       <c r="AK87" s="600" t="str">
         <f t="shared" si="9"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL87" s="600" t="str">
         <f t="shared" si="8"/>
@@ -37869,9 +37750,7 @@
       <c r="AA88" s="35" t="s">
         <v>516</v>
       </c>
-      <c r="AB88" s="65">
-        <v>0.12114819218253589</v>
-      </c>
+      <c r="AB88" s="65"/>
       <c r="AD88" s="117" t="str">
         <f>IF(S399="","",S399)</f>
         <v/>
@@ -37887,7 +37766,7 @@
       </c>
       <c r="AK88" s="600" t="str">
         <f t="shared" si="9"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL88" s="600" t="str">
         <f t="shared" si="8"/>
@@ -37932,9 +37811,7 @@
       <c r="AA89" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="AB89" s="65">
-        <v>11.920722611722631</v>
-      </c>
+      <c r="AB89" s="65"/>
       <c r="AD89" s="116" t="str">
         <f>IF(T399="","",T399)</f>
         <v/>
@@ -37950,7 +37827,7 @@
       </c>
       <c r="AK89" s="11" t="str">
         <f t="shared" si="9"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL89" s="11" t="str">
         <f t="shared" si="8"/>
@@ -38013,7 +37890,7 @@
       </c>
       <c r="AK90" s="208" t="str">
         <f t="shared" si="9"/>
-        <v>Mo</v>
+        <v/>
       </c>
       <c r="AL90" s="208" t="str">
         <f t="shared" si="8"/>
@@ -38806,9 +38683,7 @@
       <c r="AA103" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="AB103" s="65">
-        <v>28</v>
-      </c>
+      <c r="AB103" s="65"/>
       <c r="AD103" s="66" t="str">
         <f>IF(Q448="","",Q448)</f>
         <v/>
@@ -38871,9 +38746,7 @@
       <c r="AA104" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="AB104" s="65">
-        <v>93</v>
-      </c>
+      <c r="AB104" s="65"/>
       <c r="AD104" s="66" t="str">
         <f>IF(Q449="","",Q449)</f>
         <v/>
@@ -38938,9 +38811,7 @@
       <c r="AA105" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="AB105" s="65">
-        <v>4</v>
-      </c>
+      <c r="AB105" s="65"/>
       <c r="AD105" s="66" t="str">
         <f>IF(Q450="","",Q450)</f>
         <v/>
@@ -39005,9 +38876,7 @@
       <c r="AA106" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="AB106" s="65">
-        <v>3</v>
-      </c>
+      <c r="AB106" s="65"/>
       <c r="AD106" s="66" t="str">
         <f>IF(Q451="","",Q451)</f>
         <v/>
@@ -39072,9 +38941,7 @@
       <c r="AA107" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="AB107" s="65">
-        <v>4</v>
-      </c>
+      <c r="AB107" s="65"/>
       <c r="AD107" s="66" t="str">
         <f>IF(Q452="","",Q452)</f>
         <v/>
@@ -39931,7 +39798,7 @@
         <v>66</v>
       </c>
       <c r="W121" s="978"/>
-      <c r="X121" s="983"/>
+      <c r="X121" s="992"/>
       <c r="Y121" s="32"/>
       <c r="AA121" s="35" t="s">
         <v>603</v>
@@ -40000,7 +39867,7 @@
       <c r="U122" s="982"/>
       <c r="V122" s="980"/>
       <c r="W122" s="981"/>
-      <c r="X122" s="984"/>
+      <c r="X122" s="993"/>
       <c r="Y122" s="32"/>
       <c r="AA122" s="35" t="s">
         <v>604</v>
@@ -40586,11 +40453,11 @@
       </c>
       <c r="T129" s="978"/>
       <c r="U129" s="979"/>
-      <c r="V129" s="985" t="s">
+      <c r="V129" s="983" t="s">
         <v>66</v>
       </c>
-      <c r="W129" s="986"/>
-      <c r="X129" s="987"/>
+      <c r="W129" s="984"/>
+      <c r="X129" s="985"/>
       <c r="Y129" s="32"/>
       <c r="AA129" s="35" t="s">
         <v>611</v>
@@ -40657,9 +40524,9 @@
       <c r="S130" s="980"/>
       <c r="T130" s="981"/>
       <c r="U130" s="982"/>
-      <c r="V130" s="988"/>
-      <c r="W130" s="964"/>
-      <c r="X130" s="989"/>
+      <c r="V130" s="986"/>
+      <c r="W130" s="987"/>
+      <c r="X130" s="988"/>
       <c r="Y130" s="32"/>
       <c r="AA130" s="21" t="s">
         <v>612</v>
@@ -41252,9 +41119,9 @@
       <c r="C143" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="D143" s="375">
+      <c r="D143" s="375" t="str">
         <f>IF($P$7="","",$P$7)</f>
-        <v>43273</v>
+        <v/>
       </c>
       <c r="E143" s="27"/>
       <c r="F143" s="27"/>
@@ -41296,7 +41163,7 @@
       </c>
       <c r="D144" s="376" t="str">
         <f>IF($R$14="","",$R$14)</f>
-        <v>1C07</v>
+        <v/>
       </c>
       <c r="E144" s="27"/>
       <c r="F144" s="27"/>
@@ -41308,9 +41175,9 @@
       <c r="L144" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="M144" s="376">
+      <c r="M144" s="376" t="str">
         <f>IF($R$13="","",$R$13)</f>
-        <v>2302</v>
+        <v/>
       </c>
       <c r="O144" s="30"/>
       <c r="Y144" s="32"/>
@@ -42381,12 +42248,12 @@
       <c r="L173" s="68"/>
       <c r="M173" s="69"/>
       <c r="O173" s="30"/>
-      <c r="P173" s="968" t="s">
+      <c r="P173" s="989" t="s">
         <v>227</v>
       </c>
-      <c r="Q173" s="968"/>
-      <c r="R173" s="968"/>
-      <c r="S173" s="968"/>
+      <c r="Q173" s="989"/>
+      <c r="R173" s="989"/>
+      <c r="S173" s="989"/>
       <c r="U173" s="577" t="s">
         <v>228</v>
       </c>
@@ -42556,12 +42423,12 @@
       </c>
       <c r="B179" s="67"/>
       <c r="C179" s="68"/>
-      <c r="D179" s="968" t="s">
+      <c r="D179" s="989" t="s">
         <v>227</v>
       </c>
-      <c r="E179" s="968"/>
-      <c r="F179" s="968"/>
-      <c r="G179" s="968"/>
+      <c r="E179" s="989"/>
+      <c r="F179" s="989"/>
+      <c r="G179" s="989"/>
       <c r="H179" s="68"/>
       <c r="I179" s="577" t="s">
         <v>228</v>
@@ -42699,17 +42566,17 @@
       <c r="M182" s="69"/>
       <c r="O182" s="30"/>
       <c r="P182" s="68"/>
-      <c r="Q182" s="961" t="s">
+      <c r="Q182" s="967" t="s">
         <v>239</v>
       </c>
-      <c r="R182" s="961"/>
-      <c r="S182" s="961"/>
+      <c r="R182" s="967"/>
+      <c r="S182" s="967"/>
       <c r="T182" s="4"/>
-      <c r="U182" s="961" t="s">
+      <c r="U182" s="967" t="s">
         <v>239</v>
       </c>
-      <c r="V182" s="961"/>
-      <c r="W182" s="961"/>
+      <c r="V182" s="967"/>
+      <c r="W182" s="967"/>
       <c r="X182" s="4"/>
       <c r="Y182" s="32"/>
     </row>
@@ -42838,22 +42705,22 @@
       </c>
       <c r="B186" s="67"/>
       <c r="C186" s="107"/>
-      <c r="D186" s="965" t="s">
+      <c r="D186" s="1001" t="s">
         <v>239</v>
       </c>
-      <c r="E186" s="966"/>
-      <c r="F186" s="967"/>
+      <c r="E186" s="1002"/>
+      <c r="F186" s="1003"/>
       <c r="G186" s="162"/>
-      <c r="H186" s="965" t="s">
+      <c r="H186" s="1001" t="s">
         <v>239</v>
       </c>
-      <c r="I186" s="966"/>
-      <c r="J186" s="967"/>
-      <c r="K186" s="965" t="s">
+      <c r="I186" s="1002"/>
+      <c r="J186" s="1003"/>
+      <c r="K186" s="1001" t="s">
         <v>239</v>
       </c>
-      <c r="L186" s="966"/>
-      <c r="M186" s="969"/>
+      <c r="L186" s="1002"/>
+      <c r="M186" s="1004"/>
       <c r="O186" s="161"/>
       <c r="P186" s="162" t="s">
         <v>245</v>
@@ -43326,17 +43193,17 @@
       <c r="M194" s="69"/>
       <c r="O194" s="161"/>
       <c r="P194" s="68"/>
-      <c r="Q194" s="961" t="s">
+      <c r="Q194" s="967" t="s">
         <v>239</v>
       </c>
-      <c r="R194" s="961"/>
-      <c r="S194" s="961"/>
+      <c r="R194" s="967"/>
+      <c r="S194" s="967"/>
       <c r="T194" s="4"/>
-      <c r="U194" s="961" t="s">
+      <c r="U194" s="967" t="s">
         <v>239</v>
       </c>
-      <c r="V194" s="961"/>
-      <c r="W194" s="961"/>
+      <c r="V194" s="967"/>
+      <c r="W194" s="967"/>
       <c r="X194" s="4"/>
       <c r="Y194" s="32"/>
     </row>
@@ -44041,9 +43908,9 @@
       <c r="C215" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="D215" s="375">
+      <c r="D215" s="375" t="str">
         <f>IF($P$7="","",$P$7)</f>
-        <v>43273</v>
+        <v/>
       </c>
       <c r="E215" s="27"/>
       <c r="F215" s="27"/>
@@ -44085,7 +43952,7 @@
       </c>
       <c r="D216" s="376" t="str">
         <f>IF($R$14="","",$R$14)</f>
-        <v>1C07</v>
+        <v/>
       </c>
       <c r="E216" s="27"/>
       <c r="F216" s="27"/>
@@ -44097,9 +43964,9 @@
       <c r="L216" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="M216" s="376">
+      <c r="M216" s="376" t="str">
         <f>IF($R$13="","",$R$13)</f>
-        <v>2302</v>
+        <v/>
       </c>
       <c r="O216" s="30"/>
       <c r="P216" s="750" t="s">
@@ -45520,11 +45387,11 @@
         <v>237</v>
       </c>
       <c r="T245" s="4"/>
-      <c r="U245" s="961" t="s">
+      <c r="U245" s="967" t="s">
         <v>295</v>
       </c>
-      <c r="V245" s="961"/>
-      <c r="W245" s="961"/>
+      <c r="V245" s="967"/>
+      <c r="W245" s="967"/>
       <c r="X245" s="4"/>
       <c r="Y245" s="234"/>
       <c r="Z245" s="578"/>
@@ -45722,11 +45589,11 @@
         <v>237</v>
       </c>
       <c r="G250" s="68"/>
-      <c r="H250" s="965" t="s">
+      <c r="H250" s="1001" t="s">
         <v>295</v>
       </c>
-      <c r="I250" s="966"/>
-      <c r="J250" s="967"/>
+      <c r="I250" s="1002"/>
+      <c r="J250" s="1003"/>
       <c r="K250" s="68"/>
       <c r="L250" s="68"/>
       <c r="M250" s="69"/>
@@ -46536,9 +46403,9 @@
       <c r="W266" s="162" t="s">
         <v>311</v>
       </c>
-      <c r="X266" s="255">
+      <c r="X266" s="255" t="str">
         <f>IF(AB85="","",AB85)</f>
-        <v>2.3223554914248874</v>
+        <v/>
       </c>
       <c r="Y266" s="32"/>
       <c r="AA266" s="4"/>
@@ -46815,9 +46682,9 @@
       <c r="J271" s="162" t="s">
         <v>311</v>
       </c>
-      <c r="K271" s="142">
+      <c r="K271" s="142" t="str">
         <f t="shared" si="46"/>
-        <v>2.3223554914248874</v>
+        <v/>
       </c>
       <c r="L271" s="68"/>
       <c r="M271" s="69"/>
@@ -47738,9 +47605,9 @@
       <c r="C287" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="D287" s="375">
+      <c r="D287" s="375" t="str">
         <f>IF($P$7="","",$P$7)</f>
-        <v>43273</v>
+        <v/>
       </c>
       <c r="E287" s="27"/>
       <c r="F287" s="27"/>
@@ -47806,7 +47673,7 @@
       </c>
       <c r="D288" s="376" t="str">
         <f>IF($R$14="","",$R$14)</f>
-        <v>1C07</v>
+        <v/>
       </c>
       <c r="E288" s="27"/>
       <c r="F288" s="27"/>
@@ -47818,9 +47685,9 @@
       <c r="L288" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="M288" s="376">
+      <c r="M288" s="376" t="str">
         <f>IF($R$13="","",$R$13)</f>
-        <v>2302</v>
+        <v/>
       </c>
       <c r="O288" s="462"/>
       <c r="P288" s="3" t="s">
@@ -47952,11 +47819,11 @@
       <c r="H291" s="267" t="s">
         <v>330</v>
       </c>
-      <c r="I291" s="962">
+      <c r="I291" s="999">
         <f>IF(S367="","",S367)</f>
         <v>43014</v>
       </c>
-      <c r="J291" s="962"/>
+      <c r="J291" s="999"/>
       <c r="K291" s="59"/>
       <c r="L291" s="59"/>
       <c r="M291" s="61"/>
@@ -48003,11 +47870,11 @@
       <c r="H292" s="162" t="s">
         <v>332</v>
       </c>
-      <c r="I292" s="963">
+      <c r="I292" s="1000">
         <f>IF(S368="","",S368)</f>
         <v>43744</v>
       </c>
-      <c r="J292" s="963"/>
+      <c r="J292" s="1000"/>
       <c r="K292" s="4"/>
       <c r="M292" s="69"/>
       <c r="O292" s="462"/>
@@ -48107,11 +47974,11 @@
       </c>
       <c r="B294" s="67"/>
       <c r="C294" s="162"/>
-      <c r="F294" s="961" t="s">
+      <c r="F294" s="967" t="s">
         <v>333</v>
       </c>
-      <c r="G294" s="961"/>
-      <c r="H294" s="961"/>
+      <c r="G294" s="967"/>
+      <c r="H294" s="967"/>
       <c r="I294" s="578"/>
       <c r="J294" s="578"/>
       <c r="K294" s="107"/>
@@ -48226,7 +48093,7 @@
       <c r="B296" s="67"/>
       <c r="C296" s="436" t="str">
         <f>P371</f>
-        <v>Mo/Mo</v>
+        <v>/</v>
       </c>
       <c r="D296" s="418">
         <f t="shared" ref="D296:K301" si="52">IF(Q371="","",Q371)</f>
@@ -48677,7 +48544,7 @@
       <c r="B302" s="67"/>
       <c r="C302" s="450" t="str">
         <f>P378</f>
-        <v>Mo/</v>
+        <v>/</v>
       </c>
       <c r="D302" s="418">
         <f t="shared" ref="D302:K306" si="55">IF(Q378="","",Q378)</f>
@@ -50474,7 +50341,7 @@
       </c>
       <c r="E343" s="321" t="str">
         <f>Q392</f>
-        <v>Mo/Mo</v>
+        <v>/</v>
       </c>
       <c r="F343" s="452" t="s">
         <v>172</v>
@@ -51480,9 +51347,9 @@
       <c r="C359" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="D359" s="375">
+      <c r="D359" s="375" t="str">
         <f>IF($P$7="","",$P$7)</f>
-        <v>43273</v>
+        <v/>
       </c>
       <c r="E359" s="27"/>
       <c r="F359" s="27"/>
@@ -51535,7 +51402,7 @@
       </c>
       <c r="D360" s="879" t="str">
         <f>IF($R$14="","",$R$14)</f>
-        <v>1C07</v>
+        <v/>
       </c>
       <c r="E360" s="27"/>
       <c r="F360" s="27"/>
@@ -51547,9 +51414,9 @@
       <c r="L360" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="M360" s="879">
+      <c r="M360" s="879" t="str">
         <f>IF($R$13="","",$R$13)</f>
-        <v>2302</v>
+        <v/>
       </c>
       <c r="O360" s="161" t="s">
         <v>217</v>
@@ -51689,7 +51556,7 @@
       </c>
       <c r="D364" s="140" t="str">
         <f>IF(Q407="","",Q407)</f>
-        <v>Mo/Mo</v>
+        <v>/</v>
       </c>
       <c r="E364" s="162" t="s">
         <v>53</v>
@@ -51919,13 +51786,13 @@
       <c r="L369" s="68"/>
       <c r="M369" s="69"/>
       <c r="O369" s="30"/>
-      <c r="S369" s="961" t="s">
+      <c r="S369" s="967" t="s">
         <v>333</v>
       </c>
-      <c r="T369" s="961"/>
-      <c r="U369" s="961"/>
-      <c r="V369" s="961"/>
-      <c r="W369" s="961"/>
+      <c r="T369" s="967"/>
+      <c r="U369" s="967"/>
+      <c r="V369" s="967"/>
+      <c r="W369" s="967"/>
       <c r="Y369" s="32"/>
     </row>
     <row r="370" spans="1:25" ht="14.1" customHeight="1" thickBot="1">
@@ -52011,9 +51878,9 @@
       <c r="L371" s="68"/>
       <c r="M371" s="69"/>
       <c r="O371" s="30"/>
-      <c r="P371" s="990" t="str">
+      <c r="P371" s="974" t="str">
         <f>AK10&amp;"/"&amp;AL10</f>
-        <v>Mo/Mo</v>
+        <v>/</v>
       </c>
       <c r="Q371" s="307">
         <f>AH10</f>
@@ -52070,7 +51937,7 @@
       <c r="L372" s="68"/>
       <c r="M372" s="69"/>
       <c r="O372" s="30"/>
-      <c r="P372" s="991"/>
+      <c r="P372" s="975"/>
       <c r="Q372" s="308">
         <f>AH18</f>
         <v>25</v>
@@ -52124,7 +51991,7 @@
       <c r="L373" s="68"/>
       <c r="M373" s="69"/>
       <c r="O373" s="30"/>
-      <c r="P373" s="991"/>
+      <c r="P373" s="975"/>
       <c r="Q373" s="307">
         <f>AH26</f>
         <v>26</v>
@@ -52169,11 +52036,11 @@
       </c>
       <c r="D374" s="714" t="str">
         <f>Q418</f>
-        <v>Mo/Mo</v>
+        <v>/</v>
       </c>
       <c r="E374" s="714" t="str">
         <f>R418</f>
-        <v>Mo/</v>
+        <v>/</v>
       </c>
       <c r="F374" s="715" t="str">
         <f>S418</f>
@@ -52187,7 +52054,7 @@
       <c r="L374"/>
       <c r="M374" s="69"/>
       <c r="O374" s="30"/>
-      <c r="P374" s="991"/>
+      <c r="P374" s="975"/>
       <c r="Q374" s="307">
         <f>AH28</f>
         <v>28</v>
@@ -52250,7 +52117,7 @@
       <c r="L375"/>
       <c r="M375" s="69"/>
       <c r="O375" s="30"/>
-      <c r="P375" s="991"/>
+      <c r="P375" s="975"/>
       <c r="Q375" s="307">
         <f>AH40</f>
         <v>30</v>
@@ -52313,7 +52180,7 @@
       <c r="L376"/>
       <c r="M376" s="69"/>
       <c r="O376" s="30"/>
-      <c r="P376" s="991"/>
+      <c r="P376" s="975"/>
       <c r="Q376" s="307">
         <f>AH41</f>
         <v>32</v>
@@ -52376,7 +52243,7 @@
       <c r="L377"/>
       <c r="M377" s="69"/>
       <c r="O377" s="30"/>
-      <c r="P377" s="992"/>
+      <c r="P377" s="976"/>
       <c r="Q377" s="307">
         <f>AH49</f>
         <v>34</v>
@@ -52439,9 +52306,9 @@
       <c r="L378"/>
       <c r="M378" s="69"/>
       <c r="O378" s="30"/>
-      <c r="P378" s="999" t="str">
+      <c r="P378" s="968" t="str">
         <f>AK57&amp;"/"&amp;AL57</f>
-        <v>Mo/</v>
+        <v>/</v>
       </c>
       <c r="Q378" s="307">
         <f>AH57</f>
@@ -52498,7 +52365,7 @@
       <c r="L379"/>
       <c r="M379" s="69"/>
       <c r="O379" s="161"/>
-      <c r="P379" s="1000"/>
+      <c r="P379" s="969"/>
       <c r="Q379" s="307">
         <f>AH65</f>
         <v>30</v>
@@ -52540,7 +52407,7 @@
       <c r="B380" s="67"/>
       <c r="M380" s="69"/>
       <c r="O380" s="30"/>
-      <c r="P380" s="1000"/>
+      <c r="P380" s="969"/>
       <c r="Q380" s="307">
         <f>AH73</f>
         <v>32</v>
@@ -52594,7 +52461,7 @@
       <c r="L381" s="68"/>
       <c r="M381" s="69"/>
       <c r="O381" s="30"/>
-      <c r="P381" s="1000"/>
+      <c r="P381" s="969"/>
       <c r="Q381" s="307">
         <f>AH81</f>
         <v>34</v>
@@ -52661,7 +52528,7 @@
       </c>
       <c r="M382" s="69"/>
       <c r="O382" s="30"/>
-      <c r="P382" s="1000"/>
+      <c r="P382" s="969"/>
       <c r="Q382" s="307">
         <f t="shared" ref="Q382:R384" si="71">AH89</f>
         <v>36</v>
@@ -52735,7 +52602,7 @@
       </c>
       <c r="M383" s="69"/>
       <c r="O383" s="30"/>
-      <c r="P383" s="1001"/>
+      <c r="P383" s="970"/>
       <c r="Q383" s="307">
         <f t="shared" si="71"/>
         <v>38</v>
@@ -52809,7 +52676,7 @@
       </c>
       <c r="M384" s="69"/>
       <c r="O384" s="30"/>
-      <c r="P384" s="999" t="str">
+      <c r="P384" s="968" t="str">
         <f>AK91&amp;"/"&amp;AL91</f>
         <v>/</v>
       </c>
@@ -52869,7 +52736,7 @@
       <c r="L385" s="68"/>
       <c r="M385" s="69"/>
       <c r="O385" s="30"/>
-      <c r="P385" s="1000"/>
+      <c r="P385" s="969"/>
       <c r="Q385" s="308">
         <f>AH101</f>
         <v>30</v>
@@ -52925,7 +52792,7 @@
       <c r="L386" s="68"/>
       <c r="M386" s="69"/>
       <c r="O386" s="30"/>
-      <c r="P386" s="1000"/>
+      <c r="P386" s="969"/>
       <c r="Q386" s="307">
         <f>AH109</f>
         <v>32</v>
@@ -52979,7 +52846,7 @@
       <c r="L387" s="68"/>
       <c r="M387" s="69"/>
       <c r="O387" s="30"/>
-      <c r="P387" s="1000"/>
+      <c r="P387" s="969"/>
       <c r="Q387" s="307">
         <f>AH117</f>
         <v>34</v>
@@ -53031,7 +52898,7 @@
       <c r="L388" s="68"/>
       <c r="M388" s="69"/>
       <c r="O388" s="30"/>
-      <c r="P388" s="1001"/>
+      <c r="P388" s="970"/>
       <c r="Q388" s="307">
         <f>AH125</f>
         <v>38</v>
@@ -53220,7 +53087,7 @@
       </c>
       <c r="Q392" s="321" t="str">
         <f>AK10&amp;"/"&amp;AL10</f>
-        <v>Mo/Mo</v>
+        <v>/</v>
       </c>
       <c r="R392" s="452" t="s">
         <v>172</v>
@@ -53898,13 +53765,13 @@
       <c r="P402" s="752"/>
       <c r="Q402" s="752"/>
       <c r="R402" s="315"/>
-      <c r="S402" s="316">
+      <c r="S402" s="316" t="str">
         <f>IF(AB88="","",AB88)</f>
-        <v>0.12114819218253589</v>
-      </c>
-      <c r="T402" s="317">
+        <v/>
+      </c>
+      <c r="T402" s="317" t="str">
         <f>IF(AB89="","",AB89)</f>
-        <v>11.920722611722631</v>
+        <v/>
       </c>
       <c r="U402" s="752"/>
       <c r="V402" s="752"/>
@@ -54041,7 +53908,7 @@
       </c>
       <c r="Q407" s="751" t="str">
         <f>AK10&amp;"/"&amp;AL10</f>
-        <v>Mo/Mo</v>
+        <v>/</v>
       </c>
       <c r="R407" s="35" t="s">
         <v>172</v>
@@ -54448,11 +54315,11 @@
       </c>
       <c r="Q418" s="673" t="str">
         <f>$P$371</f>
-        <v>Mo/Mo</v>
+        <v>/</v>
       </c>
       <c r="R418" s="673" t="str">
         <f>$P$378</f>
-        <v>Mo/</v>
+        <v>/</v>
       </c>
       <c r="S418" s="755" t="str">
         <f>$P$384</f>
@@ -54519,11 +54386,11 @@
       <c r="P420" s="674" t="s">
         <v>352</v>
       </c>
-      <c r="Q420" s="1002" t="s">
+      <c r="Q420" s="971" t="s">
         <v>353</v>
       </c>
-      <c r="R420" s="1003"/>
-      <c r="S420" s="1004"/>
+      <c r="R420" s="972"/>
+      <c r="S420" s="973"/>
       <c r="T420"/>
       <c r="U420"/>
       <c r="V420"/>
@@ -54897,9 +54764,9 @@
       <c r="C431" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="D431" s="375">
+      <c r="D431" s="375" t="str">
         <f>IF($P$7="","",$P$7)</f>
-        <v>43273</v>
+        <v/>
       </c>
       <c r="E431" s="27"/>
       <c r="F431" s="27"/>
@@ -54934,7 +54801,7 @@
       </c>
       <c r="D432" s="376" t="str">
         <f>IF($R$14="","",$R$14)</f>
-        <v>1C07</v>
+        <v/>
       </c>
       <c r="E432" s="27"/>
       <c r="F432" s="27"/>
@@ -54946,9 +54813,9 @@
       <c r="L432" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="M432" s="376">
+      <c r="M432" s="376" t="str">
         <f>IF($R$13="","",$R$13)</f>
-        <v>2302</v>
+        <v/>
       </c>
       <c r="O432" s="30"/>
       <c r="P432" s="35" t="s">
@@ -55086,12 +54953,12 @@
         <v>4</v>
       </c>
       <c r="B436" s="67"/>
-      <c r="E436" s="996" t="s">
+      <c r="E436" s="964" t="s">
         <v>803</v>
       </c>
-      <c r="F436" s="997"/>
-      <c r="G436" s="997"/>
-      <c r="H436" s="998"/>
+      <c r="F436" s="965"/>
+      <c r="G436" s="965"/>
+      <c r="H436" s="966"/>
       <c r="M436" s="69"/>
       <c r="O436" s="30"/>
       <c r="P436" s="35" t="s">
@@ -55528,9 +55395,9 @@
       <c r="U448" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="V448" s="283">
+      <c r="V448" s="283" t="str">
         <f>IF(AB103="","",AB103)</f>
-        <v>28</v>
+        <v/>
       </c>
       <c r="W448" s="284" t="str">
         <f>IF(AB108="","",AB108)</f>
@@ -55572,9 +55439,9 @@
       <c r="U449" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="V449" s="289">
+      <c r="V449" s="289" t="str">
         <f>IF(AB104="","",AB104)</f>
-        <v>93</v>
+        <v/>
       </c>
       <c r="W449" s="290" t="str">
         <f>IF(AB109="","",AB109)</f>
@@ -55616,9 +55483,9 @@
       <c r="U450" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="V450" s="289">
+      <c r="V450" s="289" t="str">
         <f>IF(AB105="","",AB105)</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="W450" s="290" t="str">
         <f>IF(AB110="","",AB110)</f>
@@ -55660,9 +55527,9 @@
       <c r="U451" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="V451" s="289">
+      <c r="V451" s="289" t="str">
         <f>IF(AB106="","",AB106)</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="W451" s="290" t="str">
         <f>IF(AB111="","",AB111)</f>
@@ -55704,9 +55571,9 @@
       <c r="U452" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="V452" s="289">
+      <c r="V452" s="289" t="str">
         <f>IF(AB107="","",AB107)</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="W452" s="290" t="str">
         <f>IF(AB112="","",AB112)</f>
@@ -55790,14 +55657,14 @@
       <c r="W454" s="41"/>
       <c r="X454" s="41"/>
       <c r="Y454" s="42"/>
-      <c r="AA454" s="961" t="s">
+      <c r="AA454" s="967" t="s">
         <v>787</v>
       </c>
-      <c r="AB454" s="961"/>
-      <c r="AC454" s="961" t="s">
+      <c r="AB454" s="967"/>
+      <c r="AC454" s="967" t="s">
         <v>788</v>
       </c>
-      <c r="AD454" s="961"/>
+      <c r="AD454" s="967"/>
     </row>
     <row r="455" spans="1:30" ht="14.1" customHeight="1">
       <c r="A455" s="17">
@@ -56302,12 +56169,12 @@
       <c r="K467" s="490"/>
       <c r="L467" s="490"/>
       <c r="M467" s="69"/>
-      <c r="Q467" s="993" t="s">
+      <c r="Q467" s="961" t="s">
         <v>803</v>
       </c>
-      <c r="R467" s="994"/>
-      <c r="S467" s="994"/>
-      <c r="T467" s="995"/>
+      <c r="R467" s="962"/>
+      <c r="S467" s="962"/>
+      <c r="T467" s="963"/>
     </row>
     <row r="468" spans="1:28" ht="14.1" customHeight="1">
       <c r="A468" s="17">
@@ -57185,9 +57052,9 @@
       <c r="C503" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="D503" s="375">
+      <c r="D503" s="375" t="str">
         <f>IF($P$7="","",$P$7)</f>
-        <v>43273</v>
+        <v/>
       </c>
       <c r="E503" s="27"/>
       <c r="F503" s="27"/>
@@ -57229,7 +57096,7 @@
       </c>
       <c r="D504" s="376" t="str">
         <f>IF($R$14="","",$R$14)</f>
-        <v>1C07</v>
+        <v/>
       </c>
       <c r="E504" s="27"/>
       <c r="F504" s="27"/>
@@ -57241,9 +57108,9 @@
       <c r="L504" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="M504" s="376">
+      <c r="M504" s="376" t="str">
         <f>IF($R$13="","",$R$13)</f>
-        <v>2302</v>
+        <v/>
       </c>
       <c r="O504" s="637"/>
       <c r="P504" s="629" t="s">
@@ -57450,54 +57317,6 @@
     <row r="518" spans="15:25" ht="14.1" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="Q467:T467"/>
-    <mergeCell ref="E436:H436"/>
-    <mergeCell ref="AA454:AB454"/>
-    <mergeCell ref="AC454:AD454"/>
-    <mergeCell ref="P378:P383"/>
-    <mergeCell ref="P384:P388"/>
-    <mergeCell ref="Q420:S420"/>
-    <mergeCell ref="Q194:S194"/>
-    <mergeCell ref="U194:W194"/>
-    <mergeCell ref="U245:W245"/>
-    <mergeCell ref="S369:W369"/>
-    <mergeCell ref="P371:P377"/>
-    <mergeCell ref="P129:R130"/>
-    <mergeCell ref="S129:U130"/>
-    <mergeCell ref="V129:X130"/>
-    <mergeCell ref="P173:S173"/>
-    <mergeCell ref="Q182:S182"/>
-    <mergeCell ref="U182:W182"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P121:R122"/>
-    <mergeCell ref="V121:X122"/>
-    <mergeCell ref="S121:U122"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
     <mergeCell ref="F294:H294"/>
     <mergeCell ref="I291:J291"/>
     <mergeCell ref="I292:J292"/>
@@ -57514,6 +57333,54 @@
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P121:R122"/>
+    <mergeCell ref="V121:X122"/>
+    <mergeCell ref="S121:U122"/>
+    <mergeCell ref="P129:R130"/>
+    <mergeCell ref="S129:U130"/>
+    <mergeCell ref="V129:X130"/>
+    <mergeCell ref="P173:S173"/>
+    <mergeCell ref="Q182:S182"/>
+    <mergeCell ref="U182:W182"/>
+    <mergeCell ref="Q194:S194"/>
+    <mergeCell ref="U194:W194"/>
+    <mergeCell ref="U245:W245"/>
+    <mergeCell ref="S369:W369"/>
+    <mergeCell ref="P371:P377"/>
+    <mergeCell ref="Q467:T467"/>
+    <mergeCell ref="E436:H436"/>
+    <mergeCell ref="AA454:AB454"/>
+    <mergeCell ref="AC454:AD454"/>
+    <mergeCell ref="P378:P383"/>
+    <mergeCell ref="P384:P388"/>
+    <mergeCell ref="Q420:S420"/>
   </mergeCells>
   <conditionalFormatting sqref="Q260:S260">
     <cfRule type="cellIs" dxfId="112" priority="166" stopIfTrue="1" operator="equal">
@@ -59801,9 +59668,9 @@
       <c r="A2" s="781" t="s">
         <v>733</v>
       </c>
-      <c r="B2" s="782">
+      <c r="B2" s="782" t="str">
         <f>Sheet1!F13</f>
-        <v>2302</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -63509,16 +63376,16 @@
       <c r="L62" s="712" t="s">
         <v>334</v>
       </c>
-      <c r="O62" s="968"/>
-      <c r="P62" s="968"/>
-      <c r="Q62" s="968"/>
-      <c r="R62" s="968"/>
-      <c r="S62" s="968"/>
+      <c r="O62" s="989"/>
+      <c r="P62" s="989"/>
+      <c r="Q62" s="989"/>
+      <c r="R62" s="989"/>
+      <c r="S62" s="989"/>
     </row>
     <row r="63" spans="1:19" ht="14.1" customHeight="1">
       <c r="A63" s="712" t="str">
         <f>Sheet1!P371</f>
-        <v>Mo/Mo</v>
+        <v>/</v>
       </c>
       <c r="B63" s="712">
         <f>Sheet1!Q371</f>
@@ -63534,7 +63401,7 @@
       </c>
       <c r="E63" s="712" t="str">
         <f>Sheet1!P378</f>
-        <v>Mo/</v>
+        <v>/</v>
       </c>
       <c r="F63" s="712">
         <f>Sheet1!Q378</f>
@@ -63797,11 +63664,11 @@
       <c r="C70" s="712"/>
       <c r="D70" s="712" t="str">
         <f>A63</f>
-        <v>Mo/Mo</v>
+        <v>/</v>
       </c>
       <c r="E70" s="712" t="str">
         <f>E63</f>
-        <v>Mo/</v>
+        <v>/</v>
       </c>
       <c r="F70" s="300" t="str">
         <f>I63</f>
@@ -63945,7 +63812,7 @@
     <row r="76" spans="1:19" ht="14.1" customHeight="1">
       <c r="A76" s="712" t="str">
         <f>Sheet1!P371</f>
-        <v>Mo/Mo</v>
+        <v>/</v>
       </c>
       <c r="B76" s="271" t="e">
         <f>AVERAGE(Sheet1!AM10:AM11)</f>
@@ -63957,7 +63824,7 @@
       </c>
       <c r="D76" s="712" t="str">
         <f>Sheet1!P378</f>
-        <v>Mo/</v>
+        <v>/</v>
       </c>
       <c r="E76" s="271" t="e">
         <f>AVERAGE(Sheet1!AM57:AM58)</f>
@@ -64180,11 +64047,11 @@
     <row r="83" spans="1:19" ht="14.1" customHeight="1">
       <c r="D83" s="712" t="str">
         <f>A76</f>
-        <v>Mo/Mo</v>
+        <v>/</v>
       </c>
       <c r="E83" s="712" t="str">
         <f>D76</f>
-        <v>Mo/</v>
+        <v>/</v>
       </c>
       <c r="F83" s="712" t="str">
         <f>G76</f>

--- a/MUSCMammoSiemens.xlsx
+++ b/MUSCMammoSiemens.xlsx
@@ -9183,6 +9183,72 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="23" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="23" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="23" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="23" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="23" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="23" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="148" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="146" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="147" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9210,78 +9276,24 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="23" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="23" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="23" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="148" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="146" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="147" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="23" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="23" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="23" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9309,24 +9321,51 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="149" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -9339,44 +9378,101 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="191" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9396,9 +9492,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="196" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9416,99 +9509,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10825,6 +10825,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11193,6 +11194,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11312,6 +11314,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11392,6 +11395,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -27056,40 +27060,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="923" t="s">
+      <c r="A1" s="896" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="923"/>
-      <c r="C1" s="923"/>
-      <c r="D1" s="923"/>
-      <c r="E1" s="923"/>
-      <c r="F1" s="923"/>
-      <c r="G1" s="923"/>
-      <c r="H1" s="923"/>
-      <c r="I1" s="923"/>
-      <c r="J1" s="923"/>
-      <c r="K1" s="923"/>
-      <c r="L1" s="923"/>
-      <c r="M1" s="923"/>
-      <c r="N1" s="923"/>
+      <c r="B1" s="896"/>
+      <c r="C1" s="896"/>
+      <c r="D1" s="896"/>
+      <c r="E1" s="896"/>
+      <c r="F1" s="896"/>
+      <c r="G1" s="896"/>
+      <c r="H1" s="896"/>
+      <c r="I1" s="896"/>
+      <c r="J1" s="896"/>
+      <c r="K1" s="896"/>
+      <c r="L1" s="896"/>
+      <c r="M1" s="896"/>
+      <c r="N1" s="896"/>
     </row>
     <row r="2" spans="1:14" ht="26.25">
-      <c r="A2" s="923" t="s">
+      <c r="A2" s="896" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="923"/>
-      <c r="C2" s="923"/>
-      <c r="D2" s="923"/>
-      <c r="E2" s="923"/>
-      <c r="F2" s="923"/>
-      <c r="G2" s="923"/>
-      <c r="H2" s="923"/>
-      <c r="I2" s="923"/>
-      <c r="J2" s="923"/>
-      <c r="K2" s="923"/>
-      <c r="L2" s="923"/>
-      <c r="M2" s="923"/>
-      <c r="N2" s="923"/>
+      <c r="B2" s="896"/>
+      <c r="C2" s="896"/>
+      <c r="D2" s="896"/>
+      <c r="E2" s="896"/>
+      <c r="F2" s="896"/>
+      <c r="G2" s="896"/>
+      <c r="H2" s="896"/>
+      <c r="I2" s="896"/>
+      <c r="J2" s="896"/>
+      <c r="K2" s="896"/>
+      <c r="L2" s="896"/>
+      <c r="M2" s="896"/>
+      <c r="N2" s="896"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1">
       <c r="A3" s="777"/>
@@ -27112,38 +27116,38 @@
         <v>375</v>
       </c>
       <c r="B4" s="512"/>
-      <c r="C4" s="911"/>
-      <c r="D4" s="912"/>
-      <c r="E4" s="912"/>
-      <c r="F4" s="912"/>
-      <c r="G4" s="912"/>
-      <c r="H4" s="913"/>
+      <c r="C4" s="897"/>
+      <c r="D4" s="898"/>
+      <c r="E4" s="898"/>
+      <c r="F4" s="898"/>
+      <c r="G4" s="898"/>
+      <c r="H4" s="899"/>
       <c r="J4" s="531"/>
       <c r="K4" s="530" t="s">
         <v>376</v>
       </c>
-      <c r="L4" s="924"/>
-      <c r="M4" s="925"/>
-      <c r="N4" s="926"/>
+      <c r="L4" s="900"/>
+      <c r="M4" s="901"/>
+      <c r="N4" s="902"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1">
       <c r="A5" s="512" t="s">
         <v>377</v>
       </c>
       <c r="B5" s="512"/>
-      <c r="C5" s="911"/>
-      <c r="D5" s="912"/>
-      <c r="E5" s="912"/>
-      <c r="F5" s="912"/>
-      <c r="G5" s="912"/>
-      <c r="H5" s="913"/>
+      <c r="C5" s="897"/>
+      <c r="D5" s="898"/>
+      <c r="E5" s="898"/>
+      <c r="F5" s="898"/>
+      <c r="G5" s="898"/>
+      <c r="H5" s="899"/>
       <c r="J5" s="531"/>
       <c r="K5" s="530" t="s">
         <v>378</v>
       </c>
-      <c r="L5" s="924"/>
-      <c r="M5" s="925"/>
-      <c r="N5" s="926"/>
+      <c r="L5" s="900"/>
+      <c r="M5" s="901"/>
+      <c r="N5" s="902"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1">
       <c r="A6" s="512" t="s">
@@ -27152,19 +27156,19 @@
       <c r="B6" s="512"/>
       <c r="C6" s="512"/>
       <c r="D6" s="512"/>
-      <c r="E6" s="910" t="s">
+      <c r="E6" s="908" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="910"/>
-      <c r="G6" s="910"/>
-      <c r="H6" s="910"/>
+      <c r="F6" s="908"/>
+      <c r="G6" s="908"/>
+      <c r="H6" s="908"/>
       <c r="J6" s="531"/>
       <c r="K6" s="530" t="s">
         <v>380</v>
       </c>
-      <c r="L6" s="911"/>
-      <c r="M6" s="912"/>
-      <c r="N6" s="913"/>
+      <c r="L6" s="897"/>
+      <c r="M6" s="898"/>
+      <c r="N6" s="899"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1">
       <c r="A7" s="512" t="s">
@@ -27173,21 +27177,21 @@
       <c r="B7" s="512"/>
       <c r="C7" s="512"/>
       <c r="D7" s="512"/>
-      <c r="E7" s="911" t="s">
+      <c r="E7" s="897" t="s">
         <v>382</v>
       </c>
-      <c r="F7" s="912"/>
-      <c r="G7" s="912"/>
-      <c r="H7" s="913"/>
+      <c r="F7" s="898"/>
+      <c r="G7" s="898"/>
+      <c r="H7" s="899"/>
       <c r="J7" s="531"/>
       <c r="K7" s="530" t="s">
         <v>383</v>
       </c>
-      <c r="L7" s="911" t="s">
+      <c r="L7" s="897" t="s">
         <v>771</v>
       </c>
-      <c r="M7" s="912"/>
-      <c r="N7" s="913"/>
+      <c r="M7" s="898"/>
+      <c r="N7" s="899"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1">
       <c r="A8" s="512" t="s">
@@ -27196,17 +27200,17 @@
       <c r="B8" s="512"/>
       <c r="C8" s="512"/>
       <c r="D8" s="512"/>
-      <c r="E8" s="914"/>
-      <c r="F8" s="915"/>
-      <c r="G8" s="915"/>
-      <c r="H8" s="916"/>
+      <c r="E8" s="909"/>
+      <c r="F8" s="910"/>
+      <c r="G8" s="910"/>
+      <c r="H8" s="911"/>
       <c r="J8" s="531"/>
       <c r="K8" s="530" t="s">
         <v>385</v>
       </c>
-      <c r="L8" s="911"/>
-      <c r="M8" s="912"/>
-      <c r="N8" s="913"/>
+      <c r="L8" s="897"/>
+      <c r="M8" s="898"/>
+      <c r="N8" s="899"/>
     </row>
     <row r="9" spans="1:14" ht="11.25" customHeight="1">
       <c r="A9" s="512"/>
@@ -27227,12 +27231,12 @@
       <c r="A10" s="524" t="s">
         <v>547</v>
       </c>
-      <c r="E10" s="917" t="s">
+      <c r="E10" s="912" t="s">
         <v>623</v>
       </c>
-      <c r="F10" s="918"/>
-      <c r="G10" s="918"/>
-      <c r="H10" s="919"/>
+      <c r="F10" s="913"/>
+      <c r="G10" s="913"/>
+      <c r="H10" s="914"/>
       <c r="I10" s="528" t="s">
         <v>546</v>
       </c>
@@ -27257,24 +27261,24 @@
       <c r="B12" s="512"/>
       <c r="C12" s="512"/>
       <c r="D12" s="512"/>
-      <c r="E12" s="920" t="s">
+      <c r="E12" s="915" t="s">
         <v>388</v>
       </c>
-      <c r="F12" s="921"/>
-      <c r="G12" s="920" t="s">
+      <c r="F12" s="916"/>
+      <c r="G12" s="915" t="s">
         <v>383</v>
       </c>
-      <c r="H12" s="921"/>
-      <c r="I12" s="920" t="s">
+      <c r="H12" s="916"/>
+      <c r="I12" s="915" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="921"/>
-      <c r="K12" s="920" t="s">
+      <c r="J12" s="916"/>
+      <c r="K12" s="915" t="s">
         <v>386</v>
       </c>
-      <c r="L12" s="922"/>
-      <c r="M12" s="922"/>
-      <c r="N12" s="921"/>
+      <c r="L12" s="917"/>
+      <c r="M12" s="917"/>
+      <c r="N12" s="916"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" thickTop="1">
       <c r="A13" s="512"/>
@@ -27283,55 +27287,55 @@
       <c r="D13" s="518" t="s">
         <v>389</v>
       </c>
-      <c r="E13" s="905" t="s">
+      <c r="E13" s="903" t="s">
         <v>773</v>
       </c>
-      <c r="F13" s="906"/>
-      <c r="G13" s="905" t="s">
+      <c r="F13" s="904"/>
+      <c r="G13" s="903" t="s">
         <v>774</v>
       </c>
-      <c r="H13" s="906"/>
-      <c r="I13" s="907"/>
-      <c r="J13" s="908"/>
-      <c r="K13" s="905" t="s">
+      <c r="H13" s="904"/>
+      <c r="I13" s="905"/>
+      <c r="J13" s="906"/>
+      <c r="K13" s="903" t="s">
         <v>775</v>
       </c>
-      <c r="L13" s="909"/>
-      <c r="M13" s="909"/>
-      <c r="N13" s="906"/>
+      <c r="L13" s="907"/>
+      <c r="M13" s="907"/>
+      <c r="N13" s="904"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="D14" s="518" t="s">
         <v>390</v>
       </c>
-      <c r="E14" s="898"/>
-      <c r="F14" s="899"/>
-      <c r="G14" s="898"/>
-      <c r="H14" s="899"/>
-      <c r="I14" s="900"/>
-      <c r="J14" s="901"/>
-      <c r="K14" s="898"/>
-      <c r="L14" s="902"/>
-      <c r="M14" s="902"/>
-      <c r="N14" s="899"/>
+      <c r="E14" s="920"/>
+      <c r="F14" s="921"/>
+      <c r="G14" s="920"/>
+      <c r="H14" s="921"/>
+      <c r="I14" s="922"/>
+      <c r="J14" s="923"/>
+      <c r="K14" s="920"/>
+      <c r="L14" s="924"/>
+      <c r="M14" s="924"/>
+      <c r="N14" s="921"/>
     </row>
     <row r="15" spans="1:14" s="525" customFormat="1" ht="36" customHeight="1">
-      <c r="A15" s="903" t="s">
+      <c r="A15" s="925" t="s">
         <v>734</v>
       </c>
-      <c r="B15" s="903"/>
-      <c r="C15" s="903"/>
-      <c r="D15" s="903"/>
-      <c r="E15" s="903"/>
-      <c r="F15" s="903"/>
-      <c r="G15" s="903"/>
-      <c r="H15" s="903"/>
-      <c r="I15" s="903"/>
-      <c r="J15" s="903"/>
-      <c r="K15" s="903"/>
-      <c r="L15" s="903"/>
-      <c r="M15" s="903"/>
-      <c r="N15" s="903"/>
+      <c r="B15" s="925"/>
+      <c r="C15" s="925"/>
+      <c r="D15" s="925"/>
+      <c r="E15" s="925"/>
+      <c r="F15" s="925"/>
+      <c r="G15" s="925"/>
+      <c r="H15" s="925"/>
+      <c r="I15" s="925"/>
+      <c r="J15" s="925"/>
+      <c r="K15" s="925"/>
+      <c r="L15" s="925"/>
+      <c r="M15" s="925"/>
+      <c r="N15" s="925"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1">
       <c r="A16" s="524" t="s">
@@ -27393,40 +27397,40 @@
       <c r="M18" s="513"/>
     </row>
     <row r="19" spans="1:15" ht="21" customHeight="1">
-      <c r="A19" s="904" t="s">
+      <c r="A19" s="926" t="s">
         <v>393</v>
       </c>
-      <c r="B19" s="904"/>
-      <c r="C19" s="904"/>
-      <c r="D19" s="904"/>
-      <c r="E19" s="904"/>
-      <c r="F19" s="904"/>
-      <c r="G19" s="904"/>
-      <c r="H19" s="904"/>
-      <c r="I19" s="904"/>
-      <c r="J19" s="904"/>
-      <c r="K19" s="904"/>
-      <c r="L19" s="904"/>
-      <c r="M19" s="904"/>
-      <c r="N19" s="904"/>
+      <c r="B19" s="926"/>
+      <c r="C19" s="926"/>
+      <c r="D19" s="926"/>
+      <c r="E19" s="926"/>
+      <c r="F19" s="926"/>
+      <c r="G19" s="926"/>
+      <c r="H19" s="926"/>
+      <c r="I19" s="926"/>
+      <c r="J19" s="926"/>
+      <c r="K19" s="926"/>
+      <c r="L19" s="926"/>
+      <c r="M19" s="926"/>
+      <c r="N19" s="926"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="896" t="s">
+      <c r="A20" s="918" t="s">
         <v>545</v>
       </c>
-      <c r="B20" s="896"/>
-      <c r="C20" s="896"/>
-      <c r="D20" s="896"/>
-      <c r="E20" s="896"/>
-      <c r="F20" s="896"/>
-      <c r="G20" s="896"/>
-      <c r="H20" s="896"/>
-      <c r="I20" s="896"/>
-      <c r="J20" s="896"/>
-      <c r="K20" s="896"/>
-      <c r="L20" s="896"/>
-      <c r="M20" s="896"/>
-      <c r="N20" s="896"/>
+      <c r="B20" s="918"/>
+      <c r="C20" s="918"/>
+      <c r="D20" s="918"/>
+      <c r="E20" s="918"/>
+      <c r="F20" s="918"/>
+      <c r="G20" s="918"/>
+      <c r="H20" s="918"/>
+      <c r="I20" s="918"/>
+      <c r="J20" s="918"/>
+      <c r="K20" s="918"/>
+      <c r="L20" s="918"/>
+      <c r="M20" s="918"/>
+      <c r="N20" s="918"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="512"/>
@@ -28032,31 +28036,33 @@
       <c r="M51" s="500"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A52" s="897" t="s">
+      <c r="A52" s="919" t="s">
         <v>540</v>
       </c>
-      <c r="B52" s="897"/>
-      <c r="C52" s="897"/>
-      <c r="D52" s="897"/>
-      <c r="E52" s="897"/>
-      <c r="F52" s="897"/>
-      <c r="G52" s="897"/>
-      <c r="H52" s="897"/>
-      <c r="I52" s="897"/>
-      <c r="J52" s="897"/>
-      <c r="K52" s="897"/>
-      <c r="L52" s="897"/>
-      <c r="M52" s="897"/>
-      <c r="N52" s="897"/>
+      <c r="B52" s="919"/>
+      <c r="C52" s="919"/>
+      <c r="D52" s="919"/>
+      <c r="E52" s="919"/>
+      <c r="F52" s="919"/>
+      <c r="G52" s="919"/>
+      <c r="H52" s="919"/>
+      <c r="I52" s="919"/>
+      <c r="J52" s="919"/>
+      <c r="K52" s="919"/>
+      <c r="L52" s="919"/>
+      <c r="M52" s="919"/>
+      <c r="N52" s="919"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A19:N19"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
@@ -28072,14 +28078,12 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:N12"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="L5:N5"/>
   </mergeCells>
   <conditionalFormatting sqref="N27:N38 N48 N41:N42 N50">
     <cfRule type="cellIs" dxfId="127" priority="13" stopIfTrue="1" operator="equal">
@@ -28393,19 +28397,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="938" t="s">
+      <c r="A1" s="929" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="938"/>
-      <c r="C1" s="938"/>
-      <c r="D1" s="938"/>
-      <c r="E1" s="938"/>
-      <c r="F1" s="938"/>
-      <c r="G1" s="938"/>
-      <c r="H1" s="938"/>
-      <c r="I1" s="938"/>
-      <c r="J1" s="938"/>
-      <c r="K1" s="938"/>
+      <c r="B1" s="929"/>
+      <c r="C1" s="929"/>
+      <c r="D1" s="929"/>
+      <c r="E1" s="929"/>
+      <c r="F1" s="929"/>
+      <c r="G1" s="929"/>
+      <c r="H1" s="929"/>
+      <c r="I1" s="929"/>
+      <c r="J1" s="929"/>
+      <c r="K1" s="929"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
       <c r="A2" s="560" t="s">
@@ -28439,19 +28443,19 @@
       <c r="K4" s="555"/>
     </row>
     <row r="5" spans="1:12" ht="42" customHeight="1">
-      <c r="A5" s="939" t="s">
+      <c r="A5" s="930" t="s">
         <v>552</v>
       </c>
-      <c r="B5" s="939"/>
-      <c r="C5" s="939"/>
-      <c r="D5" s="939"/>
-      <c r="E5" s="939"/>
-      <c r="F5" s="939"/>
-      <c r="G5" s="939"/>
-      <c r="H5" s="939"/>
-      <c r="I5" s="939"/>
-      <c r="J5" s="939"/>
-      <c r="K5" s="939"/>
+      <c r="B5" s="930"/>
+      <c r="C5" s="930"/>
+      <c r="D5" s="930"/>
+      <c r="E5" s="930"/>
+      <c r="F5" s="930"/>
+      <c r="G5" s="930"/>
+      <c r="H5" s="930"/>
+      <c r="I5" s="930"/>
+      <c r="J5" s="930"/>
+      <c r="K5" s="930"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="554" t="s">
@@ -28484,8 +28488,8 @@
       <c r="K7" s="549"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="J8" s="940"/>
-      <c r="K8" s="940"/>
+      <c r="J8" s="931"/>
+      <c r="K8" s="931"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="535"/>
@@ -28494,10 +28498,10 @@
         <v>400</v>
       </c>
       <c r="I9" s="548"/>
-      <c r="J9" s="941" t="s">
+      <c r="J9" s="932" t="s">
         <v>394</v>
       </c>
-      <c r="K9" s="941"/>
+      <c r="K9" s="932"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="547" t="s">
@@ -28668,19 +28672,19 @@
       <c r="L20" s="535"/>
     </row>
     <row r="21" spans="1:12" ht="24" customHeight="1">
-      <c r="A21" s="929" t="s">
+      <c r="A21" s="933" t="s">
         <v>419</v>
       </c>
-      <c r="B21" s="929"/>
-      <c r="C21" s="929"/>
-      <c r="D21" s="929"/>
-      <c r="E21" s="929"/>
-      <c r="F21" s="929"/>
-      <c r="G21" s="929"/>
-      <c r="H21" s="929"/>
-      <c r="I21" s="929"/>
-      <c r="J21" s="929"/>
-      <c r="K21" s="929"/>
+      <c r="B21" s="933"/>
+      <c r="C21" s="933"/>
+      <c r="D21" s="933"/>
+      <c r="E21" s="933"/>
+      <c r="F21" s="933"/>
+      <c r="G21" s="933"/>
+      <c r="H21" s="933"/>
+      <c r="I21" s="933"/>
+      <c r="J21" s="933"/>
+      <c r="K21" s="933"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="534"/>
@@ -28696,126 +28700,131 @@
       <c r="K22" s="533"/>
     </row>
     <row r="23" spans="1:12" ht="290.25" customHeight="1">
-      <c r="A23" s="930"/>
-      <c r="B23" s="931"/>
-      <c r="C23" s="931"/>
-      <c r="D23" s="931"/>
-      <c r="E23" s="931"/>
-      <c r="F23" s="931"/>
-      <c r="G23" s="931"/>
-      <c r="H23" s="931"/>
-      <c r="I23" s="931"/>
-      <c r="J23" s="931"/>
-      <c r="K23" s="932"/>
+      <c r="A23" s="934"/>
+      <c r="B23" s="935"/>
+      <c r="C23" s="935"/>
+      <c r="D23" s="935"/>
+      <c r="E23" s="935"/>
+      <c r="F23" s="935"/>
+      <c r="G23" s="935"/>
+      <c r="H23" s="935"/>
+      <c r="I23" s="935"/>
+      <c r="J23" s="935"/>
+      <c r="K23" s="936"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="933"/>
-      <c r="B24" s="933"/>
-      <c r="C24" s="933"/>
-      <c r="D24" s="933"/>
-      <c r="E24" s="933"/>
-      <c r="F24" s="933"/>
-      <c r="G24" s="933"/>
-      <c r="H24" s="933"/>
-      <c r="I24" s="933"/>
-      <c r="J24" s="933"/>
-      <c r="K24" s="933"/>
+      <c r="A24" s="937"/>
+      <c r="B24" s="937"/>
+      <c r="C24" s="937"/>
+      <c r="D24" s="937"/>
+      <c r="E24" s="937"/>
+      <c r="F24" s="937"/>
+      <c r="G24" s="937"/>
+      <c r="H24" s="937"/>
+      <c r="I24" s="937"/>
+      <c r="J24" s="937"/>
+      <c r="K24" s="937"/>
     </row>
     <row r="25" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A25" s="934"/>
-      <c r="B25" s="934"/>
-      <c r="C25" s="934"/>
-      <c r="D25" s="934"/>
-      <c r="E25" s="934"/>
-      <c r="F25" s="934"/>
-      <c r="G25" s="934"/>
-      <c r="H25" s="934"/>
-      <c r="I25" s="934"/>
-      <c r="J25" s="934"/>
-      <c r="K25" s="934"/>
+      <c r="A25" s="938"/>
+      <c r="B25" s="938"/>
+      <c r="C25" s="938"/>
+      <c r="D25" s="938"/>
+      <c r="E25" s="938"/>
+      <c r="F25" s="938"/>
+      <c r="G25" s="938"/>
+      <c r="H25" s="938"/>
+      <c r="I25" s="938"/>
+      <c r="J25" s="938"/>
+      <c r="K25" s="938"/>
     </row>
     <row r="26" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A26" s="934"/>
-      <c r="B26" s="934"/>
-      <c r="C26" s="934"/>
-      <c r="D26" s="934"/>
-      <c r="E26" s="934"/>
-      <c r="F26" s="934"/>
-      <c r="G26" s="934"/>
-      <c r="H26" s="934"/>
-      <c r="I26" s="934"/>
-      <c r="J26" s="934"/>
-      <c r="K26" s="934"/>
+      <c r="A26" s="938"/>
+      <c r="B26" s="938"/>
+      <c r="C26" s="938"/>
+      <c r="D26" s="938"/>
+      <c r="E26" s="938"/>
+      <c r="F26" s="938"/>
+      <c r="G26" s="938"/>
+      <c r="H26" s="938"/>
+      <c r="I26" s="938"/>
+      <c r="J26" s="938"/>
+      <c r="K26" s="938"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A27" s="934"/>
-      <c r="B27" s="934"/>
-      <c r="C27" s="934"/>
-      <c r="D27" s="934"/>
-      <c r="E27" s="934"/>
-      <c r="F27" s="934"/>
-      <c r="G27" s="934"/>
-      <c r="H27" s="934"/>
-      <c r="I27" s="934"/>
-      <c r="J27" s="934"/>
-      <c r="K27" s="934"/>
+      <c r="A27" s="938"/>
+      <c r="B27" s="938"/>
+      <c r="C27" s="938"/>
+      <c r="D27" s="938"/>
+      <c r="E27" s="938"/>
+      <c r="F27" s="938"/>
+      <c r="G27" s="938"/>
+      <c r="H27" s="938"/>
+      <c r="I27" s="938"/>
+      <c r="J27" s="938"/>
+      <c r="K27" s="938"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A28" s="934"/>
-      <c r="B28" s="934"/>
-      <c r="C28" s="934"/>
-      <c r="D28" s="934"/>
-      <c r="E28" s="934"/>
-      <c r="F28" s="934"/>
-      <c r="G28" s="934"/>
-      <c r="H28" s="934"/>
-      <c r="I28" s="934"/>
-      <c r="J28" s="934"/>
-      <c r="K28" s="934"/>
+      <c r="A28" s="938"/>
+      <c r="B28" s="938"/>
+      <c r="C28" s="938"/>
+      <c r="D28" s="938"/>
+      <c r="E28" s="938"/>
+      <c r="F28" s="938"/>
+      <c r="G28" s="938"/>
+      <c r="H28" s="938"/>
+      <c r="I28" s="938"/>
+      <c r="J28" s="938"/>
+      <c r="K28" s="938"/>
     </row>
     <row r="29" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A29" s="934"/>
-      <c r="B29" s="934"/>
-      <c r="C29" s="934"/>
-      <c r="D29" s="934"/>
-      <c r="E29" s="934"/>
-      <c r="F29" s="934"/>
-      <c r="G29" s="934"/>
-      <c r="H29" s="934"/>
-      <c r="I29" s="934"/>
-      <c r="J29" s="934"/>
-      <c r="K29" s="934"/>
+      <c r="A29" s="938"/>
+      <c r="B29" s="938"/>
+      <c r="C29" s="938"/>
+      <c r="D29" s="938"/>
+      <c r="E29" s="938"/>
+      <c r="F29" s="938"/>
+      <c r="G29" s="938"/>
+      <c r="H29" s="938"/>
+      <c r="I29" s="938"/>
+      <c r="J29" s="938"/>
+      <c r="K29" s="938"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A30" s="934"/>
-      <c r="B30" s="934"/>
-      <c r="C30" s="934"/>
-      <c r="D30" s="934"/>
-      <c r="E30" s="934"/>
-      <c r="F30" s="934"/>
-      <c r="G30" s="934"/>
-      <c r="H30" s="934"/>
-      <c r="I30" s="934"/>
-      <c r="J30" s="934"/>
-      <c r="K30" s="934"/>
+      <c r="A30" s="938"/>
+      <c r="B30" s="938"/>
+      <c r="C30" s="938"/>
+      <c r="D30" s="938"/>
+      <c r="E30" s="938"/>
+      <c r="F30" s="938"/>
+      <c r="G30" s="938"/>
+      <c r="H30" s="938"/>
+      <c r="I30" s="938"/>
+      <c r="J30" s="938"/>
+      <c r="K30" s="938"/>
     </row>
     <row r="31" spans="1:12" ht="201.75" customHeight="1" thickBot="1">
-      <c r="A31" s="935" t="s">
+      <c r="A31" s="939" t="s">
         <v>548</v>
       </c>
-      <c r="B31" s="936"/>
-      <c r="C31" s="936"/>
-      <c r="D31" s="936"/>
-      <c r="E31" s="936"/>
-      <c r="F31" s="936"/>
-      <c r="G31" s="936"/>
-      <c r="H31" s="936"/>
-      <c r="I31" s="936"/>
-      <c r="J31" s="936"/>
-      <c r="K31" s="937"/>
+      <c r="B31" s="940"/>
+      <c r="C31" s="940"/>
+      <c r="D31" s="940"/>
+      <c r="E31" s="940"/>
+      <c r="F31" s="940"/>
+      <c r="G31" s="940"/>
+      <c r="H31" s="940"/>
+      <c r="I31" s="940"/>
+      <c r="J31" s="940"/>
+      <c r="K31" s="941"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K30"/>
+    <mergeCell ref="A31:K31"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A5:K5"/>
@@ -28828,11 +28837,6 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K30"/>
-    <mergeCell ref="A31:K31"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:K18">
     <cfRule type="cellIs" dxfId="114" priority="2" stopIfTrue="1" operator="equal">
@@ -29387,13 +29391,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="944" t="s">
+      <c r="A1" s="957" t="s">
         <v>647</v>
       </c>
-      <c r="B1" s="945"/>
-      <c r="C1" s="945"/>
-      <c r="D1" s="945"/>
-      <c r="E1" s="945"/>
+      <c r="B1" s="958"/>
+      <c r="C1" s="958"/>
+      <c r="D1" s="958"/>
+      <c r="E1" s="958"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="794"/>
@@ -29406,23 +29410,23 @@
       <c r="A3" s="795" t="s">
         <v>648</v>
       </c>
-      <c r="B3" s="946">
+      <c r="B3" s="959">
         <f>'QC Test Summary-Siemens'!C4</f>
         <v>0</v>
       </c>
-      <c r="C3" s="946"/>
-      <c r="D3" s="946"/>
-      <c r="E3" s="946"/>
+      <c r="C3" s="959"/>
+      <c r="D3" s="959"/>
+      <c r="E3" s="959"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="795" t="s">
         <v>649</v>
       </c>
-      <c r="B4" s="947" t="str">
+      <c r="B4" s="960" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="C4" s="947"/>
+      <c r="C4" s="960"/>
       <c r="D4" s="796" t="s">
         <v>43</v>
       </c>
@@ -29452,11 +29456,11 @@
       <c r="A6" s="795" t="s">
         <v>652</v>
       </c>
-      <c r="B6" s="947" t="str">
+      <c r="B6" s="960" t="str">
         <f>Sheet1!X7</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="C6" s="947"/>
+      <c r="C6" s="960"/>
       <c r="D6" s="796" t="s">
         <v>653</v>
       </c>
@@ -29469,8 +29473,8 @@
       <c r="A7" s="795" t="s">
         <v>654</v>
       </c>
-      <c r="B7" s="947"/>
-      <c r="C7" s="947"/>
+      <c r="B7" s="960"/>
+      <c r="C7" s="960"/>
       <c r="D7" s="796" t="s">
         <v>655</v>
       </c>
@@ -29498,7 +29502,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" thickTop="1">
-      <c r="A10" s="942" t="s">
+      <c r="A10" s="956" t="s">
         <v>660</v>
       </c>
       <c r="B10" s="803" t="s">
@@ -29513,7 +29517,7 @@
       <c r="E10" s="806"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A11" s="943"/>
+      <c r="A11" s="952"/>
       <c r="B11" s="807" t="s">
         <v>664</v>
       </c>
@@ -29526,7 +29530,7 @@
       <c r="E11" s="810"/>
     </row>
     <row r="12" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A12" s="953" t="s">
+      <c r="A12" s="947" t="s">
         <v>666</v>
       </c>
       <c r="B12" s="811" t="s">
@@ -29541,7 +29545,7 @@
       <c r="E12" s="814"/>
     </row>
     <row r="13" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A13" s="954"/>
+      <c r="A13" s="948"/>
       <c r="B13" s="815" t="s">
         <v>670</v>
       </c>
@@ -29554,7 +29558,7 @@
       <c r="E13" s="818"/>
     </row>
     <row r="14" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A14" s="955"/>
+      <c r="A14" s="949"/>
       <c r="B14" s="819" t="s">
         <v>672</v>
       </c>
@@ -29567,7 +29571,7 @@
       <c r="E14" s="821"/>
     </row>
     <row r="15" spans="1:5" ht="56.25">
-      <c r="A15" s="956" t="s">
+      <c r="A15" s="950" t="s">
         <v>674</v>
       </c>
       <c r="B15" s="822" t="s">
@@ -29582,7 +29586,7 @@
       <c r="E15" s="824"/>
     </row>
     <row r="16" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A16" s="957"/>
+      <c r="A16" s="951"/>
       <c r="B16" s="807" t="s">
         <v>677</v>
       </c>
@@ -29595,7 +29599,7 @@
       <c r="E16" s="826"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A17" s="948" t="s">
+      <c r="A17" s="942" t="s">
         <v>679</v>
       </c>
       <c r="B17" s="827" t="s">
@@ -29610,7 +29614,7 @@
       <c r="E17" s="828"/>
     </row>
     <row r="18" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A18" s="943"/>
+      <c r="A18" s="952"/>
       <c r="B18" s="829" t="s">
         <v>682</v>
       </c>
@@ -29623,7 +29627,7 @@
       <c r="E18" s="810"/>
     </row>
     <row r="19" spans="1:5" ht="33.75">
-      <c r="A19" s="958" t="s">
+      <c r="A19" s="953" t="s">
         <v>684</v>
       </c>
       <c r="B19" s="827" t="s">
@@ -29638,7 +29642,7 @@
       <c r="E19" s="828"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A20" s="959"/>
+      <c r="A20" s="954"/>
       <c r="B20" s="831" t="s">
         <v>687</v>
       </c>
@@ -29651,7 +29655,7 @@
       <c r="E20" s="833"/>
     </row>
     <row r="21" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A21" s="960"/>
+      <c r="A21" s="955"/>
       <c r="B21" s="829" t="s">
         <v>689</v>
       </c>
@@ -29664,7 +29668,7 @@
       <c r="E21" s="810"/>
     </row>
     <row r="22" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A22" s="948" t="s">
+      <c r="A22" s="942" t="s">
         <v>691</v>
       </c>
       <c r="B22" s="827" t="s">
@@ -29679,7 +29683,7 @@
       <c r="E22" s="828"/>
     </row>
     <row r="23" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A23" s="943"/>
+      <c r="A23" s="952"/>
       <c r="B23" s="807" t="s">
         <v>694</v>
       </c>
@@ -29692,7 +29696,7 @@
       <c r="E23" s="826"/>
     </row>
     <row r="24" spans="1:5" ht="33.75">
-      <c r="A24" s="958" t="s">
+      <c r="A24" s="953" t="s">
         <v>696</v>
       </c>
       <c r="B24" s="827" t="s">
@@ -29707,7 +29711,7 @@
       <c r="E24" s="828"/>
     </row>
     <row r="25" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A25" s="959"/>
+      <c r="A25" s="954"/>
       <c r="B25" s="831" t="s">
         <v>699</v>
       </c>
@@ -29720,7 +29724,7 @@
       <c r="E25" s="833"/>
     </row>
     <row r="26" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A26" s="959"/>
+      <c r="A26" s="954"/>
       <c r="B26" s="834" t="s">
         <v>701</v>
       </c>
@@ -29733,7 +29737,7 @@
       <c r="E26" s="833"/>
     </row>
     <row r="27" spans="1:5" ht="22.5">
-      <c r="A27" s="959"/>
+      <c r="A27" s="954"/>
       <c r="B27" s="834" t="s">
         <v>703</v>
       </c>
@@ -29746,7 +29750,7 @@
       <c r="E27" s="833"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A28" s="960"/>
+      <c r="A28" s="955"/>
       <c r="B28" s="835" t="s">
         <v>705</v>
       </c>
@@ -29759,7 +29763,7 @@
       <c r="E28" s="826"/>
     </row>
     <row r="29" spans="1:5" ht="22.5">
-      <c r="A29" s="948" t="s">
+      <c r="A29" s="942" t="s">
         <v>707</v>
       </c>
       <c r="B29" s="836" t="s">
@@ -29774,7 +29778,7 @@
       <c r="E29" s="828"/>
     </row>
     <row r="30" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A30" s="949"/>
+      <c r="A30" s="943"/>
       <c r="B30" s="834" t="s">
         <v>710</v>
       </c>
@@ -29787,7 +29791,7 @@
       <c r="E30" s="833"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A31" s="950"/>
+      <c r="A31" s="944"/>
       <c r="B31" s="835" t="s">
         <v>712</v>
       </c>
@@ -29800,7 +29804,7 @@
       <c r="E31" s="826"/>
     </row>
     <row r="32" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A32" s="948" t="s">
+      <c r="A32" s="942" t="s">
         <v>714</v>
       </c>
       <c r="B32" s="836" t="s">
@@ -29815,7 +29819,7 @@
       <c r="E32" s="828"/>
     </row>
     <row r="33" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A33" s="949"/>
+      <c r="A33" s="943"/>
       <c r="B33" s="834" t="s">
         <v>717</v>
       </c>
@@ -29828,7 +29832,7 @@
       <c r="E33" s="833"/>
     </row>
     <row r="34" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A34" s="950"/>
+      <c r="A34" s="944"/>
       <c r="B34" s="835" t="s">
         <v>718</v>
       </c>
@@ -29916,13 +29920,13 @@
       <c r="E39" s="810"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="951" t="s">
+      <c r="A40" s="945" t="s">
         <v>783</v>
       </c>
-      <c r="B40" s="952"/>
-      <c r="C40" s="952"/>
-      <c r="D40" s="952"/>
-      <c r="E40" s="952"/>
+      <c r="B40" s="946"/>
+      <c r="C40" s="946"/>
+      <c r="D40" s="946"/>
+      <c r="E40" s="946"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="845"/>
@@ -30619,6 +30623,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A40:E40"/>
@@ -30628,12 +30638,6 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E10 JA10 SW10 ACS10 AMO10 AWK10 BGG10 BQC10 BZY10 CJU10 CTQ10 DDM10 DNI10 DXE10 EHA10 EQW10 FAS10 FKO10 FUK10 GEG10 GOC10 GXY10 HHU10 HRQ10 IBM10 ILI10 IVE10 JFA10 JOW10 JYS10 KIO10 KSK10 LCG10 LMC10 LVY10 MFU10 MPQ10 MZM10 NJI10 NTE10 ODA10 OMW10 OWS10 PGO10 PQK10 QAG10 QKC10 QTY10 RDU10 RNQ10 RXM10 SHI10 SRE10 TBA10 TKW10 TUS10 UEO10 UOK10 UYG10 VIC10 VRY10 WBU10 WLQ10 WVM10 E65546 JA65546 SW65546 ACS65546 AMO65546 AWK65546 BGG65546 BQC65546 BZY65546 CJU65546 CTQ65546 DDM65546 DNI65546 DXE65546 EHA65546 EQW65546 FAS65546 FKO65546 FUK65546 GEG65546 GOC65546 GXY65546 HHU65546 HRQ65546 IBM65546 ILI65546 IVE65546 JFA65546 JOW65546 JYS65546 KIO65546 KSK65546 LCG65546 LMC65546 LVY65546 MFU65546 MPQ65546 MZM65546 NJI65546 NTE65546 ODA65546 OMW65546 OWS65546 PGO65546 PQK65546 QAG65546 QKC65546 QTY65546 RDU65546 RNQ65546 RXM65546 SHI65546 SRE65546 TBA65546 TKW65546 TUS65546 UEO65546 UOK65546 UYG65546 VIC65546 VRY65546 WBU65546 WLQ65546 WVM65546 E131082 JA131082 SW131082 ACS131082 AMO131082 AWK131082 BGG131082 BQC131082 BZY131082 CJU131082 CTQ131082 DDM131082 DNI131082 DXE131082 EHA131082 EQW131082 FAS131082 FKO131082 FUK131082 GEG131082 GOC131082 GXY131082 HHU131082 HRQ131082 IBM131082 ILI131082 IVE131082 JFA131082 JOW131082 JYS131082 KIO131082 KSK131082 LCG131082 LMC131082 LVY131082 MFU131082 MPQ131082 MZM131082 NJI131082 NTE131082 ODA131082 OMW131082 OWS131082 PGO131082 PQK131082 QAG131082 QKC131082 QTY131082 RDU131082 RNQ131082 RXM131082 SHI131082 SRE131082 TBA131082 TKW131082 TUS131082 UEO131082 UOK131082 UYG131082 VIC131082 VRY131082 WBU131082 WLQ131082 WVM131082 E196618 JA196618 SW196618 ACS196618 AMO196618 AWK196618 BGG196618 BQC196618 BZY196618 CJU196618 CTQ196618 DDM196618 DNI196618 DXE196618 EHA196618 EQW196618 FAS196618 FKO196618 FUK196618 GEG196618 GOC196618 GXY196618 HHU196618 HRQ196618 IBM196618 ILI196618 IVE196618 JFA196618 JOW196618 JYS196618 KIO196618 KSK196618 LCG196618 LMC196618 LVY196618 MFU196618 MPQ196618 MZM196618 NJI196618 NTE196618 ODA196618 OMW196618 OWS196618 PGO196618 PQK196618 QAG196618 QKC196618 QTY196618 RDU196618 RNQ196618 RXM196618 SHI196618 SRE196618 TBA196618 TKW196618 TUS196618 UEO196618 UOK196618 UYG196618 VIC196618 VRY196618 WBU196618 WLQ196618 WVM196618 E262154 JA262154 SW262154 ACS262154 AMO262154 AWK262154 BGG262154 BQC262154 BZY262154 CJU262154 CTQ262154 DDM262154 DNI262154 DXE262154 EHA262154 EQW262154 FAS262154 FKO262154 FUK262154 GEG262154 GOC262154 GXY262154 HHU262154 HRQ262154 IBM262154 ILI262154 IVE262154 JFA262154 JOW262154 JYS262154 KIO262154 KSK262154 LCG262154 LMC262154 LVY262154 MFU262154 MPQ262154 MZM262154 NJI262154 NTE262154 ODA262154 OMW262154 OWS262154 PGO262154 PQK262154 QAG262154 QKC262154 QTY262154 RDU262154 RNQ262154 RXM262154 SHI262154 SRE262154 TBA262154 TKW262154 TUS262154 UEO262154 UOK262154 UYG262154 VIC262154 VRY262154 WBU262154 WLQ262154 WVM262154 E327690 JA327690 SW327690 ACS327690 AMO327690 AWK327690 BGG327690 BQC327690 BZY327690 CJU327690 CTQ327690 DDM327690 DNI327690 DXE327690 EHA327690 EQW327690 FAS327690 FKO327690 FUK327690 GEG327690 GOC327690 GXY327690 HHU327690 HRQ327690 IBM327690 ILI327690 IVE327690 JFA327690 JOW327690 JYS327690 KIO327690 KSK327690 LCG327690 LMC327690 LVY327690 MFU327690 MPQ327690 MZM327690 NJI327690 NTE327690 ODA327690 OMW327690 OWS327690 PGO327690 PQK327690 QAG327690 QKC327690 QTY327690 RDU327690 RNQ327690 RXM327690 SHI327690 SRE327690 TBA327690 TKW327690 TUS327690 UEO327690 UOK327690 UYG327690 VIC327690 VRY327690 WBU327690 WLQ327690 WVM327690 E393226 JA393226 SW393226 ACS393226 AMO393226 AWK393226 BGG393226 BQC393226 BZY393226 CJU393226 CTQ393226 DDM393226 DNI393226 DXE393226 EHA393226 EQW393226 FAS393226 FKO393226 FUK393226 GEG393226 GOC393226 GXY393226 HHU393226 HRQ393226 IBM393226 ILI393226 IVE393226 JFA393226 JOW393226 JYS393226 KIO393226 KSK393226 LCG393226 LMC393226 LVY393226 MFU393226 MPQ393226 MZM393226 NJI393226 NTE393226 ODA393226 OMW393226 OWS393226 PGO393226 PQK393226 QAG393226 QKC393226 QTY393226 RDU393226 RNQ393226 RXM393226 SHI393226 SRE393226 TBA393226 TKW393226 TUS393226 UEO393226 UOK393226 UYG393226 VIC393226 VRY393226 WBU393226 WLQ393226 WVM393226 E458762 JA458762 SW458762 ACS458762 AMO458762 AWK458762 BGG458762 BQC458762 BZY458762 CJU458762 CTQ458762 DDM458762 DNI458762 DXE458762 EHA458762 EQW458762 FAS458762 FKO458762 FUK458762 GEG458762 GOC458762 GXY458762 HHU458762 HRQ458762 IBM458762 ILI458762 IVE458762 JFA458762 JOW458762 JYS458762 KIO458762 KSK458762 LCG458762 LMC458762 LVY458762 MFU458762 MPQ458762 MZM458762 NJI458762 NTE458762 ODA458762 OMW458762 OWS458762 PGO458762 PQK458762 QAG458762 QKC458762 QTY458762 RDU458762 RNQ458762 RXM458762 SHI458762 SRE458762 TBA458762 TKW458762 TUS458762 UEO458762 UOK458762 UYG458762 VIC458762 VRY458762 WBU458762 WLQ458762 WVM458762 E524298 JA524298 SW524298 ACS524298 AMO524298 AWK524298 BGG524298 BQC524298 BZY524298 CJU524298 CTQ524298 DDM524298 DNI524298 DXE524298 EHA524298 EQW524298 FAS524298 FKO524298 FUK524298 GEG524298 GOC524298 GXY524298 HHU524298 HRQ524298 IBM524298 ILI524298 IVE524298 JFA524298 JOW524298 JYS524298 KIO524298 KSK524298 LCG524298 LMC524298 LVY524298 MFU524298 MPQ524298 MZM524298 NJI524298 NTE524298 ODA524298 OMW524298 OWS524298 PGO524298 PQK524298 QAG524298 QKC524298 QTY524298 RDU524298 RNQ524298 RXM524298 SHI524298 SRE524298 TBA524298 TKW524298 TUS524298 UEO524298 UOK524298 UYG524298 VIC524298 VRY524298 WBU524298 WLQ524298 WVM524298 E589834 JA589834 SW589834 ACS589834 AMO589834 AWK589834 BGG589834 BQC589834 BZY589834 CJU589834 CTQ589834 DDM589834 DNI589834 DXE589834 EHA589834 EQW589834 FAS589834 FKO589834 FUK589834 GEG589834 GOC589834 GXY589834 HHU589834 HRQ589834 IBM589834 ILI589834 IVE589834 JFA589834 JOW589834 JYS589834 KIO589834 KSK589834 LCG589834 LMC589834 LVY589834 MFU589834 MPQ589834 MZM589834 NJI589834 NTE589834 ODA589834 OMW589834 OWS589834 PGO589834 PQK589834 QAG589834 QKC589834 QTY589834 RDU589834 RNQ589834 RXM589834 SHI589834 SRE589834 TBA589834 TKW589834 TUS589834 UEO589834 UOK589834 UYG589834 VIC589834 VRY589834 WBU589834 WLQ589834 WVM589834 E655370 JA655370 SW655370 ACS655370 AMO655370 AWK655370 BGG655370 BQC655370 BZY655370 CJU655370 CTQ655370 DDM655370 DNI655370 DXE655370 EHA655370 EQW655370 FAS655370 FKO655370 FUK655370 GEG655370 GOC655370 GXY655370 HHU655370 HRQ655370 IBM655370 ILI655370 IVE655370 JFA655370 JOW655370 JYS655370 KIO655370 KSK655370 LCG655370 LMC655370 LVY655370 MFU655370 MPQ655370 MZM655370 NJI655370 NTE655370 ODA655370 OMW655370 OWS655370 PGO655370 PQK655370 QAG655370 QKC655370 QTY655370 RDU655370 RNQ655370 RXM655370 SHI655370 SRE655370 TBA655370 TKW655370 TUS655370 UEO655370 UOK655370 UYG655370 VIC655370 VRY655370 WBU655370 WLQ655370 WVM655370 E720906 JA720906 SW720906 ACS720906 AMO720906 AWK720906 BGG720906 BQC720906 BZY720906 CJU720906 CTQ720906 DDM720906 DNI720906 DXE720906 EHA720906 EQW720906 FAS720906 FKO720906 FUK720906 GEG720906 GOC720906 GXY720906 HHU720906 HRQ720906 IBM720906 ILI720906 IVE720906 JFA720906 JOW720906 JYS720906 KIO720906 KSK720906 LCG720906 LMC720906 LVY720906 MFU720906 MPQ720906 MZM720906 NJI720906 NTE720906 ODA720906 OMW720906 OWS720906 PGO720906 PQK720906 QAG720906 QKC720906 QTY720906 RDU720906 RNQ720906 RXM720906 SHI720906 SRE720906 TBA720906 TKW720906 TUS720906 UEO720906 UOK720906 UYG720906 VIC720906 VRY720906 WBU720906 WLQ720906 WVM720906 E786442 JA786442 SW786442 ACS786442 AMO786442 AWK786442 BGG786442 BQC786442 BZY786442 CJU786442 CTQ786442 DDM786442 DNI786442 DXE786442 EHA786442 EQW786442 FAS786442 FKO786442 FUK786442 GEG786442 GOC786442 GXY786442 HHU786442 HRQ786442 IBM786442 ILI786442 IVE786442 JFA786442 JOW786442 JYS786442 KIO786442 KSK786442 LCG786442 LMC786442 LVY786442 MFU786442 MPQ786442 MZM786442 NJI786442 NTE786442 ODA786442 OMW786442 OWS786442 PGO786442 PQK786442 QAG786442 QKC786442 QTY786442 RDU786442 RNQ786442 RXM786442 SHI786442 SRE786442 TBA786442 TKW786442 TUS786442 UEO786442 UOK786442 UYG786442 VIC786442 VRY786442 WBU786442 WLQ786442 WVM786442 E851978 JA851978 SW851978 ACS851978 AMO851978 AWK851978 BGG851978 BQC851978 BZY851978 CJU851978 CTQ851978 DDM851978 DNI851978 DXE851978 EHA851978 EQW851978 FAS851978 FKO851978 FUK851978 GEG851978 GOC851978 GXY851978 HHU851978 HRQ851978 IBM851978 ILI851978 IVE851978 JFA851978 JOW851978 JYS851978 KIO851978 KSK851978 LCG851978 LMC851978 LVY851978 MFU851978 MPQ851978 MZM851978 NJI851978 NTE851978 ODA851978 OMW851978 OWS851978 PGO851978 PQK851978 QAG851978 QKC851978 QTY851978 RDU851978 RNQ851978 RXM851978 SHI851978 SRE851978 TBA851978 TKW851978 TUS851978 UEO851978 UOK851978 UYG851978 VIC851978 VRY851978 WBU851978 WLQ851978 WVM851978 E917514 JA917514 SW917514 ACS917514 AMO917514 AWK917514 BGG917514 BQC917514 BZY917514 CJU917514 CTQ917514 DDM917514 DNI917514 DXE917514 EHA917514 EQW917514 FAS917514 FKO917514 FUK917514 GEG917514 GOC917514 GXY917514 HHU917514 HRQ917514 IBM917514 ILI917514 IVE917514 JFA917514 JOW917514 JYS917514 KIO917514 KSK917514 LCG917514 LMC917514 LVY917514 MFU917514 MPQ917514 MZM917514 NJI917514 NTE917514 ODA917514 OMW917514 OWS917514 PGO917514 PQK917514 QAG917514 QKC917514 QTY917514 RDU917514 RNQ917514 RXM917514 SHI917514 SRE917514 TBA917514 TKW917514 TUS917514 UEO917514 UOK917514 UYG917514 VIC917514 VRY917514 WBU917514 WLQ917514 WVM917514 E983050 JA983050 SW983050 ACS983050 AMO983050 AWK983050 BGG983050 BQC983050 BZY983050 CJU983050 CTQ983050 DDM983050 DNI983050 DXE983050 EHA983050 EQW983050 FAS983050 FKO983050 FUK983050 GEG983050 GOC983050 GXY983050 HHU983050 HRQ983050 IBM983050 ILI983050 IVE983050 JFA983050 JOW983050 JYS983050 KIO983050 KSK983050 LCG983050 LMC983050 LVY983050 MFU983050 MPQ983050 MZM983050 NJI983050 NTE983050 ODA983050 OMW983050 OWS983050 PGO983050 PQK983050 QAG983050 QKC983050 QTY983050 RDU983050 RNQ983050 RXM983050 SHI983050 SRE983050 TBA983050 TKW983050 TUS983050 UEO983050 UOK983050 UYG983050 VIC983050 VRY983050 WBU983050 WLQ983050 WVM983050"/>
@@ -32994,19 +32998,19 @@
       <c r="E10" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="995" t="str">
+      <c r="F10" s="971" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="995"/>
+      <c r="G10" s="971"/>
       <c r="J10" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="987" t="str">
+      <c r="K10" s="964" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="987"/>
+      <c r="L10" s="964"/>
       <c r="M10" s="69"/>
       <c r="O10" s="30"/>
       <c r="Q10" s="35" t="s">
@@ -33071,19 +33075,19 @@
       <c r="E11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="996" t="str">
+      <c r="F11" s="972" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="996"/>
+      <c r="G11" s="972"/>
       <c r="J11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="987" t="str">
+      <c r="K11" s="964" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="987"/>
+      <c r="L11" s="964"/>
       <c r="M11" s="69"/>
       <c r="O11" s="30"/>
       <c r="Q11" s="35" t="s">
@@ -33148,19 +33152,19 @@
       <c r="E12" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="996" t="str">
+      <c r="F12" s="972" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="996"/>
+      <c r="G12" s="972"/>
       <c r="J12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="997" t="str">
+      <c r="K12" s="970" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="997"/>
+      <c r="L12" s="970"/>
       <c r="M12" s="69"/>
       <c r="O12" s="30"/>
       <c r="Q12" s="35" t="s">
@@ -33225,19 +33229,19 @@
       <c r="E13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="996" t="str">
+      <c r="F13" s="972" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="996"/>
+      <c r="G13" s="972"/>
       <c r="J13" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="987" t="str">
+      <c r="K13" s="964" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="987"/>
+      <c r="L13" s="964"/>
       <c r="M13" s="69"/>
       <c r="O13" s="30"/>
       <c r="Q13" s="35" t="s">
@@ -33411,19 +33415,19 @@
       <c r="E16" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="987" t="str">
+      <c r="F16" s="964" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="987"/>
+      <c r="G16" s="964"/>
       <c r="J16" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="997" t="str">
+      <c r="K16" s="970" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="997"/>
+      <c r="L16" s="970"/>
       <c r="M16" s="69"/>
       <c r="O16" s="30"/>
       <c r="P16" s="75" t="s">
@@ -33475,19 +33479,19 @@
       <c r="E17" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="987" t="str">
+      <c r="F17" s="964" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="987"/>
+      <c r="G17" s="964"/>
       <c r="J17" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="998" t="str">
+      <c r="K17" s="973" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="998"/>
+      <c r="L17" s="973"/>
       <c r="M17" s="69"/>
       <c r="O17" s="30"/>
       <c r="Q17" s="35" t="s">
@@ -33552,19 +33556,19 @@
       <c r="E18" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="987" t="str">
+      <c r="F18" s="964" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="987"/>
+      <c r="G18" s="964"/>
       <c r="J18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="987" t="str">
+      <c r="K18" s="964" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="987"/>
+      <c r="L18" s="964"/>
       <c r="M18" s="69"/>
       <c r="O18" s="30"/>
       <c r="Q18" s="35" t="s">
@@ -33730,19 +33734,19 @@
       <c r="E21" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="987" t="str">
+      <c r="F21" s="964" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="987"/>
+      <c r="G21" s="964"/>
       <c r="J21" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="987" t="str">
+      <c r="K21" s="964" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L21" s="987"/>
+      <c r="L21" s="964"/>
       <c r="M21" s="69"/>
       <c r="O21" s="30"/>
       <c r="P21" s="75" t="s">
@@ -33802,17 +33806,17 @@
       <c r="E22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="997" t="str">
+      <c r="F22" s="970" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="997"/>
+      <c r="G22" s="970"/>
       <c r="J22" s="35"/>
-      <c r="K22" s="987" t="str">
+      <c r="K22" s="964" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="987"/>
+      <c r="L22" s="964"/>
       <c r="M22" s="69"/>
       <c r="O22" s="30"/>
       <c r="Q22" s="35" t="s">
@@ -33877,11 +33881,11 @@
       <c r="J23" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="987" t="str">
+      <c r="K23" s="964" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="987"/>
+      <c r="L23" s="964"/>
       <c r="M23" s="69"/>
       <c r="O23" s="30"/>
       <c r="Q23" s="35" t="s">
@@ -33940,16 +33944,16 @@
       <c r="E24" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="987" t="str">
+      <c r="F24" s="964" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="987"/>
-      <c r="K24" s="987" t="str">
+      <c r="G24" s="964"/>
+      <c r="K24" s="964" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="987"/>
+      <c r="L24" s="964"/>
       <c r="M24" s="69"/>
       <c r="O24" s="30"/>
       <c r="P24" s="75" t="s">
@@ -34009,11 +34013,11 @@
       <c r="E25" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="987" t="str">
+      <c r="F25" s="964" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="987"/>
+      <c r="G25" s="964"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -34078,11 +34082,11 @@
       <c r="E26" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="987" t="str">
+      <c r="F26" s="964" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="987"/>
+      <c r="G26" s="964"/>
       <c r="I26" s="75" t="s">
         <v>55</v>
       </c>
@@ -34150,11 +34154,11 @@
       <c r="J27" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="987" t="str">
+      <c r="K27" s="964" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="987"/>
+      <c r="L27" s="964"/>
       <c r="M27" s="69"/>
       <c r="O27" s="30"/>
       <c r="Q27" s="35" t="s">
@@ -34205,20 +34209,20 @@
       <c r="E28" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="987" t="str">
+      <c r="F28" s="964" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="987"/>
+      <c r="G28" s="964"/>
       <c r="I28" s="4"/>
       <c r="J28" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="K28" s="987" t="str">
+      <c r="K28" s="964" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="987"/>
+      <c r="L28" s="964"/>
       <c r="M28" s="69"/>
       <c r="O28" s="30"/>
       <c r="P28" s="75" t="s">
@@ -34278,22 +34282,22 @@
       <c r="E29" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="987" t="str">
+      <c r="F29" s="964" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="987"/>
+      <c r="G29" s="964"/>
       <c r="I29" s="75" t="s">
         <v>59</v>
       </c>
       <c r="J29" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="K29" s="987" t="str">
+      <c r="K29" s="964" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="987"/>
+      <c r="L29" s="964"/>
       <c r="M29" s="69"/>
       <c r="O29" s="30"/>
       <c r="Q29" s="35" t="s">
@@ -34358,19 +34362,19 @@
       <c r="E30" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="987" t="str">
+      <c r="F30" s="964" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="987"/>
+      <c r="G30" s="964"/>
       <c r="J30" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="K30" s="987" t="str">
+      <c r="K30" s="964" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="987"/>
+      <c r="L30" s="964"/>
       <c r="M30" s="69"/>
       <c r="O30" s="30"/>
       <c r="Q30" s="35" t="s">
@@ -34654,21 +34658,21 @@
       <c r="C35" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="994" t="s">
+      <c r="D35" s="974" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="994"/>
-      <c r="F35" s="994"/>
-      <c r="G35" s="994" t="s">
+      <c r="E35" s="974"/>
+      <c r="F35" s="974"/>
+      <c r="G35" s="974" t="s">
         <v>65</v>
       </c>
-      <c r="H35" s="994"/>
-      <c r="I35" s="994"/>
-      <c r="J35" s="994" t="s">
+      <c r="H35" s="974"/>
+      <c r="I35" s="974"/>
+      <c r="J35" s="974" t="s">
         <v>66</v>
       </c>
-      <c r="K35" s="994"/>
-      <c r="L35" s="994"/>
+      <c r="K35" s="974"/>
+      <c r="L35" s="974"/>
       <c r="M35" s="69"/>
       <c r="O35" s="40"/>
       <c r="P35" s="41"/>
@@ -34728,11 +34732,11 @@
       <c r="D36" s="573"/>
       <c r="E36" s="574"/>
       <c r="F36" s="579"/>
-      <c r="G36" s="990" t="s">
+      <c r="G36" s="975" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="990"/>
-      <c r="I36" s="990"/>
+      <c r="H36" s="975"/>
+      <c r="I36" s="975"/>
       <c r="J36" s="573"/>
       <c r="K36" s="574"/>
       <c r="L36" s="579"/>
@@ -35305,10 +35309,10 @@
       <c r="C44" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="L44" s="991" t="s">
+      <c r="L44" s="976" t="s">
         <v>89</v>
       </c>
-      <c r="M44" s="991"/>
+      <c r="M44" s="976"/>
       <c r="O44" s="30"/>
       <c r="Y44" s="32"/>
       <c r="AA44" s="75" t="s">
@@ -39798,7 +39802,7 @@
         <v>66</v>
       </c>
       <c r="W121" s="978"/>
-      <c r="X121" s="992"/>
+      <c r="X121" s="983"/>
       <c r="Y121" s="32"/>
       <c r="AA121" s="35" t="s">
         <v>603</v>
@@ -39867,7 +39871,7 @@
       <c r="U122" s="982"/>
       <c r="V122" s="980"/>
       <c r="W122" s="981"/>
-      <c r="X122" s="993"/>
+      <c r="X122" s="984"/>
       <c r="Y122" s="32"/>
       <c r="AA122" s="35" t="s">
         <v>604</v>
@@ -40453,11 +40457,11 @@
       </c>
       <c r="T129" s="978"/>
       <c r="U129" s="979"/>
-      <c r="V129" s="983" t="s">
+      <c r="V129" s="985" t="s">
         <v>66</v>
       </c>
-      <c r="W129" s="984"/>
-      <c r="X129" s="985"/>
+      <c r="W129" s="986"/>
+      <c r="X129" s="987"/>
       <c r="Y129" s="32"/>
       <c r="AA129" s="35" t="s">
         <v>611</v>
@@ -40524,9 +40528,9 @@
       <c r="S130" s="980"/>
       <c r="T130" s="981"/>
       <c r="U130" s="982"/>
-      <c r="V130" s="986"/>
-      <c r="W130" s="987"/>
-      <c r="X130" s="988"/>
+      <c r="V130" s="988"/>
+      <c r="W130" s="964"/>
+      <c r="X130" s="989"/>
       <c r="Y130" s="32"/>
       <c r="AA130" s="21" t="s">
         <v>612</v>
@@ -42248,12 +42252,12 @@
       <c r="L173" s="68"/>
       <c r="M173" s="69"/>
       <c r="O173" s="30"/>
-      <c r="P173" s="989" t="s">
+      <c r="P173" s="968" t="s">
         <v>227</v>
       </c>
-      <c r="Q173" s="989"/>
-      <c r="R173" s="989"/>
-      <c r="S173" s="989"/>
+      <c r="Q173" s="968"/>
+      <c r="R173" s="968"/>
+      <c r="S173" s="968"/>
       <c r="U173" s="577" t="s">
         <v>228</v>
       </c>
@@ -42423,12 +42427,12 @@
       </c>
       <c r="B179" s="67"/>
       <c r="C179" s="68"/>
-      <c r="D179" s="989" t="s">
+      <c r="D179" s="968" t="s">
         <v>227</v>
       </c>
-      <c r="E179" s="989"/>
-      <c r="F179" s="989"/>
-      <c r="G179" s="989"/>
+      <c r="E179" s="968"/>
+      <c r="F179" s="968"/>
+      <c r="G179" s="968"/>
       <c r="H179" s="68"/>
       <c r="I179" s="577" t="s">
         <v>228</v>
@@ -42566,17 +42570,17 @@
       <c r="M182" s="69"/>
       <c r="O182" s="30"/>
       <c r="P182" s="68"/>
-      <c r="Q182" s="967" t="s">
+      <c r="Q182" s="961" t="s">
         <v>239</v>
       </c>
-      <c r="R182" s="967"/>
-      <c r="S182" s="967"/>
+      <c r="R182" s="961"/>
+      <c r="S182" s="961"/>
       <c r="T182" s="4"/>
-      <c r="U182" s="967" t="s">
+      <c r="U182" s="961" t="s">
         <v>239</v>
       </c>
-      <c r="V182" s="967"/>
-      <c r="W182" s="967"/>
+      <c r="V182" s="961"/>
+      <c r="W182" s="961"/>
       <c r="X182" s="4"/>
       <c r="Y182" s="32"/>
     </row>
@@ -42705,22 +42709,22 @@
       </c>
       <c r="B186" s="67"/>
       <c r="C186" s="107"/>
-      <c r="D186" s="1001" t="s">
+      <c r="D186" s="965" t="s">
         <v>239</v>
       </c>
-      <c r="E186" s="1002"/>
-      <c r="F186" s="1003"/>
+      <c r="E186" s="966"/>
+      <c r="F186" s="967"/>
       <c r="G186" s="162"/>
-      <c r="H186" s="1001" t="s">
+      <c r="H186" s="965" t="s">
         <v>239</v>
       </c>
-      <c r="I186" s="1002"/>
-      <c r="J186" s="1003"/>
-      <c r="K186" s="1001" t="s">
+      <c r="I186" s="966"/>
+      <c r="J186" s="967"/>
+      <c r="K186" s="965" t="s">
         <v>239</v>
       </c>
-      <c r="L186" s="1002"/>
-      <c r="M186" s="1004"/>
+      <c r="L186" s="966"/>
+      <c r="M186" s="969"/>
       <c r="O186" s="161"/>
       <c r="P186" s="162" t="s">
         <v>245</v>
@@ -43193,17 +43197,17 @@
       <c r="M194" s="69"/>
       <c r="O194" s="161"/>
       <c r="P194" s="68"/>
-      <c r="Q194" s="967" t="s">
+      <c r="Q194" s="961" t="s">
         <v>239</v>
       </c>
-      <c r="R194" s="967"/>
-      <c r="S194" s="967"/>
+      <c r="R194" s="961"/>
+      <c r="S194" s="961"/>
       <c r="T194" s="4"/>
-      <c r="U194" s="967" t="s">
+      <c r="U194" s="961" t="s">
         <v>239</v>
       </c>
-      <c r="V194" s="967"/>
-      <c r="W194" s="967"/>
+      <c r="V194" s="961"/>
+      <c r="W194" s="961"/>
       <c r="X194" s="4"/>
       <c r="Y194" s="32"/>
     </row>
@@ -45387,11 +45391,11 @@
         <v>237</v>
       </c>
       <c r="T245" s="4"/>
-      <c r="U245" s="967" t="s">
+      <c r="U245" s="961" t="s">
         <v>295</v>
       </c>
-      <c r="V245" s="967"/>
-      <c r="W245" s="967"/>
+      <c r="V245" s="961"/>
+      <c r="W245" s="961"/>
       <c r="X245" s="4"/>
       <c r="Y245" s="234"/>
       <c r="Z245" s="578"/>
@@ -45589,11 +45593,11 @@
         <v>237</v>
       </c>
       <c r="G250" s="68"/>
-      <c r="H250" s="1001" t="s">
+      <c r="H250" s="965" t="s">
         <v>295</v>
       </c>
-      <c r="I250" s="1002"/>
-      <c r="J250" s="1003"/>
+      <c r="I250" s="966"/>
+      <c r="J250" s="967"/>
       <c r="K250" s="68"/>
       <c r="L250" s="68"/>
       <c r="M250" s="69"/>
@@ -47819,11 +47823,11 @@
       <c r="H291" s="267" t="s">
         <v>330</v>
       </c>
-      <c r="I291" s="999">
+      <c r="I291" s="962">
         <f>IF(S367="","",S367)</f>
         <v>43014</v>
       </c>
-      <c r="J291" s="999"/>
+      <c r="J291" s="962"/>
       <c r="K291" s="59"/>
       <c r="L291" s="59"/>
       <c r="M291" s="61"/>
@@ -47870,11 +47874,11 @@
       <c r="H292" s="162" t="s">
         <v>332</v>
       </c>
-      <c r="I292" s="1000">
+      <c r="I292" s="963">
         <f>IF(S368="","",S368)</f>
         <v>43744</v>
       </c>
-      <c r="J292" s="1000"/>
+      <c r="J292" s="963"/>
       <c r="K292" s="4"/>
       <c r="M292" s="69"/>
       <c r="O292" s="462"/>
@@ -47974,11 +47978,11 @@
       </c>
       <c r="B294" s="67"/>
       <c r="C294" s="162"/>
-      <c r="F294" s="967" t="s">
+      <c r="F294" s="961" t="s">
         <v>333</v>
       </c>
-      <c r="G294" s="967"/>
-      <c r="H294" s="967"/>
+      <c r="G294" s="961"/>
+      <c r="H294" s="961"/>
       <c r="I294" s="578"/>
       <c r="J294" s="578"/>
       <c r="K294" s="107"/>
@@ -51786,13 +51790,13 @@
       <c r="L369" s="68"/>
       <c r="M369" s="69"/>
       <c r="O369" s="30"/>
-      <c r="S369" s="967" t="s">
+      <c r="S369" s="961" t="s">
         <v>333</v>
       </c>
-      <c r="T369" s="967"/>
-      <c r="U369" s="967"/>
-      <c r="V369" s="967"/>
-      <c r="W369" s="967"/>
+      <c r="T369" s="961"/>
+      <c r="U369" s="961"/>
+      <c r="V369" s="961"/>
+      <c r="W369" s="961"/>
       <c r="Y369" s="32"/>
     </row>
     <row r="370" spans="1:25" ht="14.1" customHeight="1" thickBot="1">
@@ -51878,7 +51882,7 @@
       <c r="L371" s="68"/>
       <c r="M371" s="69"/>
       <c r="O371" s="30"/>
-      <c r="P371" s="974" t="str">
+      <c r="P371" s="990" t="str">
         <f>AK10&amp;"/"&amp;AL10</f>
         <v>/</v>
       </c>
@@ -51937,7 +51941,7 @@
       <c r="L372" s="68"/>
       <c r="M372" s="69"/>
       <c r="O372" s="30"/>
-      <c r="P372" s="975"/>
+      <c r="P372" s="991"/>
       <c r="Q372" s="308">
         <f>AH18</f>
         <v>25</v>
@@ -51991,7 +51995,7 @@
       <c r="L373" s="68"/>
       <c r="M373" s="69"/>
       <c r="O373" s="30"/>
-      <c r="P373" s="975"/>
+      <c r="P373" s="991"/>
       <c r="Q373" s="307">
         <f>AH26</f>
         <v>26</v>
@@ -52054,7 +52058,7 @@
       <c r="L374"/>
       <c r="M374" s="69"/>
       <c r="O374" s="30"/>
-      <c r="P374" s="975"/>
+      <c r="P374" s="991"/>
       <c r="Q374" s="307">
         <f>AH28</f>
         <v>28</v>
@@ -52117,7 +52121,7 @@
       <c r="L375"/>
       <c r="M375" s="69"/>
       <c r="O375" s="30"/>
-      <c r="P375" s="975"/>
+      <c r="P375" s="991"/>
       <c r="Q375" s="307">
         <f>AH40</f>
         <v>30</v>
@@ -52180,7 +52184,7 @@
       <c r="L376"/>
       <c r="M376" s="69"/>
       <c r="O376" s="30"/>
-      <c r="P376" s="975"/>
+      <c r="P376" s="991"/>
       <c r="Q376" s="307">
         <f>AH41</f>
         <v>32</v>
@@ -52243,7 +52247,7 @@
       <c r="L377"/>
       <c r="M377" s="69"/>
       <c r="O377" s="30"/>
-      <c r="P377" s="976"/>
+      <c r="P377" s="992"/>
       <c r="Q377" s="307">
         <f>AH49</f>
         <v>34</v>
@@ -52306,7 +52310,7 @@
       <c r="L378"/>
       <c r="M378" s="69"/>
       <c r="O378" s="30"/>
-      <c r="P378" s="968" t="str">
+      <c r="P378" s="999" t="str">
         <f>AK57&amp;"/"&amp;AL57</f>
         <v>/</v>
       </c>
@@ -52365,7 +52369,7 @@
       <c r="L379"/>
       <c r="M379" s="69"/>
       <c r="O379" s="161"/>
-      <c r="P379" s="969"/>
+      <c r="P379" s="1000"/>
       <c r="Q379" s="307">
         <f>AH65</f>
         <v>30</v>
@@ -52407,7 +52411,7 @@
       <c r="B380" s="67"/>
       <c r="M380" s="69"/>
       <c r="O380" s="30"/>
-      <c r="P380" s="969"/>
+      <c r="P380" s="1000"/>
       <c r="Q380" s="307">
         <f>AH73</f>
         <v>32</v>
@@ -52461,7 +52465,7 @@
       <c r="L381" s="68"/>
       <c r="M381" s="69"/>
       <c r="O381" s="30"/>
-      <c r="P381" s="969"/>
+      <c r="P381" s="1000"/>
       <c r="Q381" s="307">
         <f>AH81</f>
         <v>34</v>
@@ -52528,7 +52532,7 @@
       </c>
       <c r="M382" s="69"/>
       <c r="O382" s="30"/>
-      <c r="P382" s="969"/>
+      <c r="P382" s="1000"/>
       <c r="Q382" s="307">
         <f t="shared" ref="Q382:R384" si="71">AH89</f>
         <v>36</v>
@@ -52602,7 +52606,7 @@
       </c>
       <c r="M383" s="69"/>
       <c r="O383" s="30"/>
-      <c r="P383" s="970"/>
+      <c r="P383" s="1001"/>
       <c r="Q383" s="307">
         <f t="shared" si="71"/>
         <v>38</v>
@@ -52676,7 +52680,7 @@
       </c>
       <c r="M384" s="69"/>
       <c r="O384" s="30"/>
-      <c r="P384" s="968" t="str">
+      <c r="P384" s="999" t="str">
         <f>AK91&amp;"/"&amp;AL91</f>
         <v>/</v>
       </c>
@@ -52736,7 +52740,7 @@
       <c r="L385" s="68"/>
       <c r="M385" s="69"/>
       <c r="O385" s="30"/>
-      <c r="P385" s="969"/>
+      <c r="P385" s="1000"/>
       <c r="Q385" s="308">
         <f>AH101</f>
         <v>30</v>
@@ -52792,7 +52796,7 @@
       <c r="L386" s="68"/>
       <c r="M386" s="69"/>
       <c r="O386" s="30"/>
-      <c r="P386" s="969"/>
+      <c r="P386" s="1000"/>
       <c r="Q386" s="307">
         <f>AH109</f>
         <v>32</v>
@@ -52846,7 +52850,7 @@
       <c r="L387" s="68"/>
       <c r="M387" s="69"/>
       <c r="O387" s="30"/>
-      <c r="P387" s="969"/>
+      <c r="P387" s="1000"/>
       <c r="Q387" s="307">
         <f>AH117</f>
         <v>34</v>
@@ -52898,7 +52902,7 @@
       <c r="L388" s="68"/>
       <c r="M388" s="69"/>
       <c r="O388" s="30"/>
-      <c r="P388" s="970"/>
+      <c r="P388" s="1001"/>
       <c r="Q388" s="307">
         <f>AH125</f>
         <v>38</v>
@@ -54386,11 +54390,11 @@
       <c r="P420" s="674" t="s">
         <v>352</v>
       </c>
-      <c r="Q420" s="971" t="s">
+      <c r="Q420" s="1002" t="s">
         <v>353</v>
       </c>
-      <c r="R420" s="972"/>
-      <c r="S420" s="973"/>
+      <c r="R420" s="1003"/>
+      <c r="S420" s="1004"/>
       <c r="T420"/>
       <c r="U420"/>
       <c r="V420"/>
@@ -54953,12 +54957,12 @@
         <v>4</v>
       </c>
       <c r="B436" s="67"/>
-      <c r="E436" s="964" t="s">
+      <c r="E436" s="996" t="s">
         <v>803</v>
       </c>
-      <c r="F436" s="965"/>
-      <c r="G436" s="965"/>
-      <c r="H436" s="966"/>
+      <c r="F436" s="997"/>
+      <c r="G436" s="997"/>
+      <c r="H436" s="998"/>
       <c r="M436" s="69"/>
       <c r="O436" s="30"/>
       <c r="P436" s="35" t="s">
@@ -55657,14 +55661,14 @@
       <c r="W454" s="41"/>
       <c r="X454" s="41"/>
       <c r="Y454" s="42"/>
-      <c r="AA454" s="967" t="s">
+      <c r="AA454" s="961" t="s">
         <v>787</v>
       </c>
-      <c r="AB454" s="967"/>
-      <c r="AC454" s="967" t="s">
+      <c r="AB454" s="961"/>
+      <c r="AC454" s="961" t="s">
         <v>788</v>
       </c>
-      <c r="AD454" s="967"/>
+      <c r="AD454" s="961"/>
     </row>
     <row r="455" spans="1:30" ht="14.1" customHeight="1">
       <c r="A455" s="17">
@@ -55770,7 +55774,10 @@
       <c r="S457" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="T457" s="145"/>
+      <c r="T457" s="145" t="str">
+        <f>Q237</f>
+        <v/>
+      </c>
       <c r="U457" s="145"/>
       <c r="Y457" s="32"/>
       <c r="AA457" s="21">
@@ -55814,8 +55821,14 @@
       <c r="S458" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="T458" s="145"/>
-      <c r="U458" s="145"/>
+      <c r="T458" s="145" t="str">
+        <f>R237</f>
+        <v/>
+      </c>
+      <c r="U458" s="145" t="str">
+        <f>S237</f>
+        <v/>
+      </c>
       <c r="Y458" s="32"/>
       <c r="AA458" s="21">
         <v>342.9</v>
@@ -56169,12 +56182,12 @@
       <c r="K467" s="490"/>
       <c r="L467" s="490"/>
       <c r="M467" s="69"/>
-      <c r="Q467" s="961" t="s">
+      <c r="Q467" s="993" t="s">
         <v>803</v>
       </c>
-      <c r="R467" s="962"/>
-      <c r="S467" s="962"/>
-      <c r="T467" s="963"/>
+      <c r="R467" s="994"/>
+      <c r="S467" s="994"/>
+      <c r="T467" s="995"/>
     </row>
     <row r="468" spans="1:28" ht="14.1" customHeight="1">
       <c r="A468" s="17">
@@ -56395,19 +56408,19 @@
         <v>804</v>
       </c>
       <c r="P475" s="889" t="str">
-        <f>IF(OR(P474="",Q474=""),"",ABS(P474-Q474)/Q474)</f>
+        <f>IF(OR(P474="",Q474=""),"",P474-Q474)</f>
         <v/>
       </c>
       <c r="Q475" s="889" t="str">
-        <f>IF(OR(Q474="",R474=""),"",ABS(Q474-R474)/R474)</f>
+        <f>IF(OR(Q474="",R474=""),"",Q474-R474)</f>
         <v/>
       </c>
       <c r="R475" s="889" t="str">
-        <f t="shared" ref="R475:S475" si="92">IF(OR(R474="",S474=""),"",ABS(R474-S474)/S474)</f>
+        <f>IF(OR(R474="",S474=""),"",R474-S474)</f>
         <v/>
       </c>
       <c r="S475" s="889" t="str">
-        <f t="shared" si="92"/>
+        <f>IF(OR(S474="",T474=""),"",S474-T474)</f>
         <v/>
       </c>
     </row>
@@ -57317,6 +57330,54 @@
     <row r="518" spans="15:25" ht="14.1" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="Q467:T467"/>
+    <mergeCell ref="E436:H436"/>
+    <mergeCell ref="AA454:AB454"/>
+    <mergeCell ref="AC454:AD454"/>
+    <mergeCell ref="P378:P383"/>
+    <mergeCell ref="P384:P388"/>
+    <mergeCell ref="Q420:S420"/>
+    <mergeCell ref="Q194:S194"/>
+    <mergeCell ref="U194:W194"/>
+    <mergeCell ref="U245:W245"/>
+    <mergeCell ref="S369:W369"/>
+    <mergeCell ref="P371:P377"/>
+    <mergeCell ref="P129:R130"/>
+    <mergeCell ref="S129:U130"/>
+    <mergeCell ref="V129:X130"/>
+    <mergeCell ref="P173:S173"/>
+    <mergeCell ref="Q182:S182"/>
+    <mergeCell ref="U182:W182"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P121:R122"/>
+    <mergeCell ref="V121:X122"/>
+    <mergeCell ref="S121:U122"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="F294:H294"/>
     <mergeCell ref="I291:J291"/>
     <mergeCell ref="I292:J292"/>
@@ -57333,54 +57394,6 @@
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P121:R122"/>
-    <mergeCell ref="V121:X122"/>
-    <mergeCell ref="S121:U122"/>
-    <mergeCell ref="P129:R130"/>
-    <mergeCell ref="S129:U130"/>
-    <mergeCell ref="V129:X130"/>
-    <mergeCell ref="P173:S173"/>
-    <mergeCell ref="Q182:S182"/>
-    <mergeCell ref="U182:W182"/>
-    <mergeCell ref="Q194:S194"/>
-    <mergeCell ref="U194:W194"/>
-    <mergeCell ref="U245:W245"/>
-    <mergeCell ref="S369:W369"/>
-    <mergeCell ref="P371:P377"/>
-    <mergeCell ref="Q467:T467"/>
-    <mergeCell ref="E436:H436"/>
-    <mergeCell ref="AA454:AB454"/>
-    <mergeCell ref="AC454:AD454"/>
-    <mergeCell ref="P378:P383"/>
-    <mergeCell ref="P384:P388"/>
-    <mergeCell ref="Q420:S420"/>
   </mergeCells>
   <conditionalFormatting sqref="Q260:S260">
     <cfRule type="cellIs" dxfId="112" priority="166" stopIfTrue="1" operator="equal">
@@ -63376,11 +63389,11 @@
       <c r="L62" s="712" t="s">
         <v>334</v>
       </c>
-      <c r="O62" s="989"/>
-      <c r="P62" s="989"/>
-      <c r="Q62" s="989"/>
-      <c r="R62" s="989"/>
-      <c r="S62" s="989"/>
+      <c r="O62" s="968"/>
+      <c r="P62" s="968"/>
+      <c r="Q62" s="968"/>
+      <c r="R62" s="968"/>
+      <c r="S62" s="968"/>
     </row>
     <row r="63" spans="1:19" ht="14.1" customHeight="1">
       <c r="A63" s="712" t="str">

--- a/MUSCMammoSiemens.xlsx
+++ b/MUSCMammoSiemens.xlsx
@@ -9180,6 +9180,75 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="23" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="23" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="23" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="23" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="23" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="23" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="148" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="146" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="147" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9207,78 +9276,24 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="23" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="23" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="23" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="148" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="146" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="147" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="23" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="23" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="23" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9306,24 +9321,51 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="149" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -9336,44 +9378,101 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="191" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9393,9 +9492,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="196" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9414,99 +9510,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9526,9 +9529,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10825,6 +10825,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11193,6 +11194,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11312,6 +11314,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11392,6 +11395,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -27056,40 +27060,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="922" t="s">
+      <c r="A1" s="896" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="922"/>
-      <c r="C1" s="922"/>
-      <c r="D1" s="922"/>
-      <c r="E1" s="922"/>
-      <c r="F1" s="922"/>
-      <c r="G1" s="922"/>
-      <c r="H1" s="922"/>
-      <c r="I1" s="922"/>
-      <c r="J1" s="922"/>
-      <c r="K1" s="922"/>
-      <c r="L1" s="922"/>
-      <c r="M1" s="922"/>
-      <c r="N1" s="922"/>
+      <c r="B1" s="896"/>
+      <c r="C1" s="896"/>
+      <c r="D1" s="896"/>
+      <c r="E1" s="896"/>
+      <c r="F1" s="896"/>
+      <c r="G1" s="896"/>
+      <c r="H1" s="896"/>
+      <c r="I1" s="896"/>
+      <c r="J1" s="896"/>
+      <c r="K1" s="896"/>
+      <c r="L1" s="896"/>
+      <c r="M1" s="896"/>
+      <c r="N1" s="896"/>
     </row>
     <row r="2" spans="1:14" ht="26.25">
-      <c r="A2" s="922" t="s">
+      <c r="A2" s="896" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="922"/>
-      <c r="C2" s="922"/>
-      <c r="D2" s="922"/>
-      <c r="E2" s="922"/>
-      <c r="F2" s="922"/>
-      <c r="G2" s="922"/>
-      <c r="H2" s="922"/>
-      <c r="I2" s="922"/>
-      <c r="J2" s="922"/>
-      <c r="K2" s="922"/>
-      <c r="L2" s="922"/>
-      <c r="M2" s="922"/>
-      <c r="N2" s="922"/>
+      <c r="B2" s="896"/>
+      <c r="C2" s="896"/>
+      <c r="D2" s="896"/>
+      <c r="E2" s="896"/>
+      <c r="F2" s="896"/>
+      <c r="G2" s="896"/>
+      <c r="H2" s="896"/>
+      <c r="I2" s="896"/>
+      <c r="J2" s="896"/>
+      <c r="K2" s="896"/>
+      <c r="L2" s="896"/>
+      <c r="M2" s="896"/>
+      <c r="N2" s="896"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1">
       <c r="A3" s="776"/>
@@ -27112,38 +27116,38 @@
         <v>375</v>
       </c>
       <c r="B4" s="511"/>
-      <c r="C4" s="910"/>
-      <c r="D4" s="911"/>
-      <c r="E4" s="911"/>
-      <c r="F4" s="911"/>
-      <c r="G4" s="911"/>
-      <c r="H4" s="912"/>
+      <c r="C4" s="897"/>
+      <c r="D4" s="898"/>
+      <c r="E4" s="898"/>
+      <c r="F4" s="898"/>
+      <c r="G4" s="898"/>
+      <c r="H4" s="899"/>
       <c r="J4" s="530"/>
       <c r="K4" s="529" t="s">
         <v>376</v>
       </c>
-      <c r="L4" s="923"/>
-      <c r="M4" s="924"/>
-      <c r="N4" s="925"/>
+      <c r="L4" s="900"/>
+      <c r="M4" s="901"/>
+      <c r="N4" s="902"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1">
       <c r="A5" s="511" t="s">
         <v>377</v>
       </c>
       <c r="B5" s="511"/>
-      <c r="C5" s="910"/>
-      <c r="D5" s="911"/>
-      <c r="E5" s="911"/>
-      <c r="F5" s="911"/>
-      <c r="G5" s="911"/>
-      <c r="H5" s="912"/>
+      <c r="C5" s="897"/>
+      <c r="D5" s="898"/>
+      <c r="E5" s="898"/>
+      <c r="F5" s="898"/>
+      <c r="G5" s="898"/>
+      <c r="H5" s="899"/>
       <c r="J5" s="530"/>
       <c r="K5" s="529" t="s">
         <v>378</v>
       </c>
-      <c r="L5" s="923"/>
-      <c r="M5" s="924"/>
-      <c r="N5" s="925"/>
+      <c r="L5" s="900"/>
+      <c r="M5" s="901"/>
+      <c r="N5" s="902"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1">
       <c r="A6" s="511" t="s">
@@ -27152,19 +27156,19 @@
       <c r="B6" s="511"/>
       <c r="C6" s="511"/>
       <c r="D6" s="511"/>
-      <c r="E6" s="909" t="s">
+      <c r="E6" s="908" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="909"/>
-      <c r="G6" s="909"/>
-      <c r="H6" s="909"/>
+      <c r="F6" s="908"/>
+      <c r="G6" s="908"/>
+      <c r="H6" s="908"/>
       <c r="J6" s="530"/>
       <c r="K6" s="529" t="s">
         <v>380</v>
       </c>
-      <c r="L6" s="910"/>
-      <c r="M6" s="911"/>
-      <c r="N6" s="912"/>
+      <c r="L6" s="897"/>
+      <c r="M6" s="898"/>
+      <c r="N6" s="899"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1">
       <c r="A7" s="511" t="s">
@@ -27173,21 +27177,21 @@
       <c r="B7" s="511"/>
       <c r="C7" s="511"/>
       <c r="D7" s="511"/>
-      <c r="E7" s="910" t="s">
+      <c r="E7" s="897" t="s">
         <v>382</v>
       </c>
-      <c r="F7" s="911"/>
-      <c r="G7" s="911"/>
-      <c r="H7" s="912"/>
+      <c r="F7" s="898"/>
+      <c r="G7" s="898"/>
+      <c r="H7" s="899"/>
       <c r="J7" s="530"/>
       <c r="K7" s="529" t="s">
         <v>383</v>
       </c>
-      <c r="L7" s="910" t="s">
+      <c r="L7" s="897" t="s">
         <v>771</v>
       </c>
-      <c r="M7" s="911"/>
-      <c r="N7" s="912"/>
+      <c r="M7" s="898"/>
+      <c r="N7" s="899"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1">
       <c r="A8" s="511" t="s">
@@ -27196,17 +27200,17 @@
       <c r="B8" s="511"/>
       <c r="C8" s="511"/>
       <c r="D8" s="511"/>
-      <c r="E8" s="913"/>
-      <c r="F8" s="914"/>
-      <c r="G8" s="914"/>
-      <c r="H8" s="915"/>
+      <c r="E8" s="909"/>
+      <c r="F8" s="910"/>
+      <c r="G8" s="910"/>
+      <c r="H8" s="911"/>
       <c r="J8" s="530"/>
       <c r="K8" s="529" t="s">
         <v>385</v>
       </c>
-      <c r="L8" s="910"/>
-      <c r="M8" s="911"/>
-      <c r="N8" s="912"/>
+      <c r="L8" s="897"/>
+      <c r="M8" s="898"/>
+      <c r="N8" s="899"/>
     </row>
     <row r="9" spans="1:14" ht="11.25" customHeight="1">
       <c r="A9" s="511"/>
@@ -27227,12 +27231,12 @@
       <c r="A10" s="523" t="s">
         <v>547</v>
       </c>
-      <c r="E10" s="916" t="s">
+      <c r="E10" s="912" t="s">
         <v>623</v>
       </c>
-      <c r="F10" s="917"/>
-      <c r="G10" s="917"/>
-      <c r="H10" s="918"/>
+      <c r="F10" s="913"/>
+      <c r="G10" s="913"/>
+      <c r="H10" s="914"/>
       <c r="I10" s="527" t="s">
         <v>546</v>
       </c>
@@ -27257,24 +27261,24 @@
       <c r="B12" s="511"/>
       <c r="C12" s="511"/>
       <c r="D12" s="511"/>
-      <c r="E12" s="919" t="s">
+      <c r="E12" s="915" t="s">
         <v>388</v>
       </c>
-      <c r="F12" s="920"/>
-      <c r="G12" s="919" t="s">
+      <c r="F12" s="916"/>
+      <c r="G12" s="915" t="s">
         <v>383</v>
       </c>
-      <c r="H12" s="920"/>
-      <c r="I12" s="919" t="s">
+      <c r="H12" s="916"/>
+      <c r="I12" s="915" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="920"/>
-      <c r="K12" s="919" t="s">
+      <c r="J12" s="916"/>
+      <c r="K12" s="915" t="s">
         <v>386</v>
       </c>
-      <c r="L12" s="921"/>
-      <c r="M12" s="921"/>
-      <c r="N12" s="920"/>
+      <c r="L12" s="917"/>
+      <c r="M12" s="917"/>
+      <c r="N12" s="916"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" thickTop="1">
       <c r="A13" s="511"/>
@@ -27283,55 +27287,55 @@
       <c r="D13" s="517" t="s">
         <v>389</v>
       </c>
-      <c r="E13" s="904" t="s">
+      <c r="E13" s="903" t="s">
         <v>773</v>
       </c>
-      <c r="F13" s="905"/>
-      <c r="G13" s="904" t="s">
+      <c r="F13" s="904"/>
+      <c r="G13" s="903" t="s">
         <v>774</v>
       </c>
-      <c r="H13" s="905"/>
-      <c r="I13" s="906"/>
-      <c r="J13" s="907"/>
-      <c r="K13" s="904" t="s">
+      <c r="H13" s="904"/>
+      <c r="I13" s="905"/>
+      <c r="J13" s="906"/>
+      <c r="K13" s="903" t="s">
         <v>775</v>
       </c>
-      <c r="L13" s="908"/>
-      <c r="M13" s="908"/>
-      <c r="N13" s="905"/>
+      <c r="L13" s="907"/>
+      <c r="M13" s="907"/>
+      <c r="N13" s="904"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="D14" s="517" t="s">
         <v>390</v>
       </c>
-      <c r="E14" s="897"/>
-      <c r="F14" s="898"/>
-      <c r="G14" s="897"/>
-      <c r="H14" s="898"/>
-      <c r="I14" s="899"/>
-      <c r="J14" s="900"/>
-      <c r="K14" s="897"/>
-      <c r="L14" s="901"/>
-      <c r="M14" s="901"/>
-      <c r="N14" s="898"/>
+      <c r="E14" s="920"/>
+      <c r="F14" s="921"/>
+      <c r="G14" s="920"/>
+      <c r="H14" s="921"/>
+      <c r="I14" s="922"/>
+      <c r="J14" s="923"/>
+      <c r="K14" s="920"/>
+      <c r="L14" s="924"/>
+      <c r="M14" s="924"/>
+      <c r="N14" s="921"/>
     </row>
     <row r="15" spans="1:14" s="524" customFormat="1" ht="36" customHeight="1">
-      <c r="A15" s="902" t="s">
+      <c r="A15" s="925" t="s">
         <v>734</v>
       </c>
-      <c r="B15" s="902"/>
-      <c r="C15" s="902"/>
-      <c r="D15" s="902"/>
-      <c r="E15" s="902"/>
-      <c r="F15" s="902"/>
-      <c r="G15" s="902"/>
-      <c r="H15" s="902"/>
-      <c r="I15" s="902"/>
-      <c r="J15" s="902"/>
-      <c r="K15" s="902"/>
-      <c r="L15" s="902"/>
-      <c r="M15" s="902"/>
-      <c r="N15" s="902"/>
+      <c r="B15" s="925"/>
+      <c r="C15" s="925"/>
+      <c r="D15" s="925"/>
+      <c r="E15" s="925"/>
+      <c r="F15" s="925"/>
+      <c r="G15" s="925"/>
+      <c r="H15" s="925"/>
+      <c r="I15" s="925"/>
+      <c r="J15" s="925"/>
+      <c r="K15" s="925"/>
+      <c r="L15" s="925"/>
+      <c r="M15" s="925"/>
+      <c r="N15" s="925"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1">
       <c r="A16" s="523" t="s">
@@ -27393,40 +27397,40 @@
       <c r="M18" s="512"/>
     </row>
     <row r="19" spans="1:15" ht="21" customHeight="1">
-      <c r="A19" s="903" t="s">
+      <c r="A19" s="926" t="s">
         <v>393</v>
       </c>
-      <c r="B19" s="903"/>
-      <c r="C19" s="903"/>
-      <c r="D19" s="903"/>
-      <c r="E19" s="903"/>
-      <c r="F19" s="903"/>
-      <c r="G19" s="903"/>
-      <c r="H19" s="903"/>
-      <c r="I19" s="903"/>
-      <c r="J19" s="903"/>
-      <c r="K19" s="903"/>
-      <c r="L19" s="903"/>
-      <c r="M19" s="903"/>
-      <c r="N19" s="903"/>
+      <c r="B19" s="926"/>
+      <c r="C19" s="926"/>
+      <c r="D19" s="926"/>
+      <c r="E19" s="926"/>
+      <c r="F19" s="926"/>
+      <c r="G19" s="926"/>
+      <c r="H19" s="926"/>
+      <c r="I19" s="926"/>
+      <c r="J19" s="926"/>
+      <c r="K19" s="926"/>
+      <c r="L19" s="926"/>
+      <c r="M19" s="926"/>
+      <c r="N19" s="926"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="895" t="s">
+      <c r="A20" s="918" t="s">
         <v>545</v>
       </c>
-      <c r="B20" s="895"/>
-      <c r="C20" s="895"/>
-      <c r="D20" s="895"/>
-      <c r="E20" s="895"/>
-      <c r="F20" s="895"/>
-      <c r="G20" s="895"/>
-      <c r="H20" s="895"/>
-      <c r="I20" s="895"/>
-      <c r="J20" s="895"/>
-      <c r="K20" s="895"/>
-      <c r="L20" s="895"/>
-      <c r="M20" s="895"/>
-      <c r="N20" s="895"/>
+      <c r="B20" s="918"/>
+      <c r="C20" s="918"/>
+      <c r="D20" s="918"/>
+      <c r="E20" s="918"/>
+      <c r="F20" s="918"/>
+      <c r="G20" s="918"/>
+      <c r="H20" s="918"/>
+      <c r="I20" s="918"/>
+      <c r="J20" s="918"/>
+      <c r="K20" s="918"/>
+      <c r="L20" s="918"/>
+      <c r="M20" s="918"/>
+      <c r="N20" s="918"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="511"/>
@@ -28032,31 +28036,33 @@
       <c r="M51" s="499"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A52" s="896" t="s">
+      <c r="A52" s="919" t="s">
         <v>540</v>
       </c>
-      <c r="B52" s="896"/>
-      <c r="C52" s="896"/>
-      <c r="D52" s="896"/>
-      <c r="E52" s="896"/>
-      <c r="F52" s="896"/>
-      <c r="G52" s="896"/>
-      <c r="H52" s="896"/>
-      <c r="I52" s="896"/>
-      <c r="J52" s="896"/>
-      <c r="K52" s="896"/>
-      <c r="L52" s="896"/>
-      <c r="M52" s="896"/>
-      <c r="N52" s="896"/>
+      <c r="B52" s="919"/>
+      <c r="C52" s="919"/>
+      <c r="D52" s="919"/>
+      <c r="E52" s="919"/>
+      <c r="F52" s="919"/>
+      <c r="G52" s="919"/>
+      <c r="H52" s="919"/>
+      <c r="I52" s="919"/>
+      <c r="J52" s="919"/>
+      <c r="K52" s="919"/>
+      <c r="L52" s="919"/>
+      <c r="M52" s="919"/>
+      <c r="N52" s="919"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A19:N19"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
@@ -28072,14 +28078,12 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:N12"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="L5:N5"/>
   </mergeCells>
   <conditionalFormatting sqref="N27:N38 N48 N41:N42 N50">
     <cfRule type="cellIs" dxfId="127" priority="13" stopIfTrue="1" operator="equal">
@@ -28393,19 +28397,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="937" t="s">
+      <c r="A1" s="929" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="937"/>
-      <c r="C1" s="937"/>
-      <c r="D1" s="937"/>
-      <c r="E1" s="937"/>
-      <c r="F1" s="937"/>
-      <c r="G1" s="937"/>
-      <c r="H1" s="937"/>
-      <c r="I1" s="937"/>
-      <c r="J1" s="937"/>
-      <c r="K1" s="937"/>
+      <c r="B1" s="929"/>
+      <c r="C1" s="929"/>
+      <c r="D1" s="929"/>
+      <c r="E1" s="929"/>
+      <c r="F1" s="929"/>
+      <c r="G1" s="929"/>
+      <c r="H1" s="929"/>
+      <c r="I1" s="929"/>
+      <c r="J1" s="929"/>
+      <c r="K1" s="929"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
       <c r="A2" s="559" t="s">
@@ -28439,19 +28443,19 @@
       <c r="K4" s="554"/>
     </row>
     <row r="5" spans="1:12" ht="42" customHeight="1">
-      <c r="A5" s="938" t="s">
+      <c r="A5" s="930" t="s">
         <v>552</v>
       </c>
-      <c r="B5" s="938"/>
-      <c r="C5" s="938"/>
-      <c r="D5" s="938"/>
-      <c r="E5" s="938"/>
-      <c r="F5" s="938"/>
-      <c r="G5" s="938"/>
-      <c r="H5" s="938"/>
-      <c r="I5" s="938"/>
-      <c r="J5" s="938"/>
-      <c r="K5" s="938"/>
+      <c r="B5" s="930"/>
+      <c r="C5" s="930"/>
+      <c r="D5" s="930"/>
+      <c r="E5" s="930"/>
+      <c r="F5" s="930"/>
+      <c r="G5" s="930"/>
+      <c r="H5" s="930"/>
+      <c r="I5" s="930"/>
+      <c r="J5" s="930"/>
+      <c r="K5" s="930"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="553" t="s">
@@ -28484,8 +28488,8 @@
       <c r="K7" s="548"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="J8" s="939"/>
-      <c r="K8" s="939"/>
+      <c r="J8" s="931"/>
+      <c r="K8" s="931"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="534"/>
@@ -28494,10 +28498,10 @@
         <v>400</v>
       </c>
       <c r="I9" s="547"/>
-      <c r="J9" s="940" t="s">
+      <c r="J9" s="932" t="s">
         <v>394</v>
       </c>
-      <c r="K9" s="940"/>
+      <c r="K9" s="932"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="546" t="s">
@@ -28513,8 +28517,8 @@
       <c r="I10" s="792" t="s">
         <v>759</v>
       </c>
-      <c r="J10" s="926"/>
-      <c r="K10" s="927"/>
+      <c r="J10" s="927"/>
+      <c r="K10" s="928"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="541" t="s">
@@ -28528,8 +28532,8 @@
       <c r="H11" s="542" t="s">
         <v>407</v>
       </c>
-      <c r="J11" s="926"/>
-      <c r="K11" s="927"/>
+      <c r="J11" s="927"/>
+      <c r="K11" s="928"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="546" t="s">
@@ -28543,8 +28547,8 @@
       <c r="H12" s="542" t="s">
         <v>407</v>
       </c>
-      <c r="J12" s="926"/>
-      <c r="K12" s="927"/>
+      <c r="J12" s="927"/>
+      <c r="K12" s="928"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="541" t="s">
@@ -28559,8 +28563,8 @@
       <c r="I13" s="544" t="s">
         <v>760</v>
       </c>
-      <c r="J13" s="926"/>
-      <c r="K13" s="927"/>
+      <c r="J13" s="927"/>
+      <c r="K13" s="928"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="543" t="s">
@@ -28574,8 +28578,8 @@
       <c r="H14" s="542" t="s">
         <v>411</v>
       </c>
-      <c r="J14" s="926"/>
-      <c r="K14" s="927"/>
+      <c r="J14" s="927"/>
+      <c r="K14" s="928"/>
       <c r="L14" s="534"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
@@ -28590,8 +28594,8 @@
       <c r="H15" s="542" t="s">
         <v>414</v>
       </c>
-      <c r="J15" s="926"/>
-      <c r="K15" s="927"/>
+      <c r="J15" s="927"/>
+      <c r="K15" s="928"/>
       <c r="L15" s="534"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
@@ -28622,8 +28626,8 @@
       <c r="H17" s="542" t="s">
         <v>416</v>
       </c>
-      <c r="J17" s="926"/>
-      <c r="K17" s="927"/>
+      <c r="J17" s="927"/>
+      <c r="K17" s="928"/>
       <c r="L17" s="534"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
@@ -28638,8 +28642,8 @@
         <v>418</v>
       </c>
       <c r="I18" s="498"/>
-      <c r="J18" s="926"/>
-      <c r="K18" s="927"/>
+      <c r="J18" s="927"/>
+      <c r="K18" s="928"/>
       <c r="L18" s="538"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
@@ -28654,8 +28658,8 @@
         <v>768</v>
       </c>
       <c r="I19" s="498"/>
-      <c r="J19" s="926"/>
-      <c r="K19" s="927"/>
+      <c r="J19" s="927"/>
+      <c r="K19" s="928"/>
       <c r="L19" s="538"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
@@ -28668,19 +28672,19 @@
       <c r="L20" s="534"/>
     </row>
     <row r="21" spans="1:12" ht="24" customHeight="1">
-      <c r="A21" s="928" t="s">
+      <c r="A21" s="933" t="s">
         <v>419</v>
       </c>
-      <c r="B21" s="928"/>
-      <c r="C21" s="928"/>
-      <c r="D21" s="928"/>
-      <c r="E21" s="928"/>
-      <c r="F21" s="928"/>
-      <c r="G21" s="928"/>
-      <c r="H21" s="928"/>
-      <c r="I21" s="928"/>
-      <c r="J21" s="928"/>
-      <c r="K21" s="928"/>
+      <c r="B21" s="933"/>
+      <c r="C21" s="933"/>
+      <c r="D21" s="933"/>
+      <c r="E21" s="933"/>
+      <c r="F21" s="933"/>
+      <c r="G21" s="933"/>
+      <c r="H21" s="933"/>
+      <c r="I21" s="933"/>
+      <c r="J21" s="933"/>
+      <c r="K21" s="933"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="533"/>
@@ -28696,126 +28700,131 @@
       <c r="K22" s="532"/>
     </row>
     <row r="23" spans="1:12" ht="290.25" customHeight="1">
-      <c r="A23" s="929"/>
-      <c r="B23" s="930"/>
-      <c r="C23" s="930"/>
-      <c r="D23" s="930"/>
-      <c r="E23" s="930"/>
-      <c r="F23" s="930"/>
-      <c r="G23" s="930"/>
-      <c r="H23" s="930"/>
-      <c r="I23" s="930"/>
-      <c r="J23" s="930"/>
-      <c r="K23" s="931"/>
+      <c r="A23" s="934"/>
+      <c r="B23" s="935"/>
+      <c r="C23" s="935"/>
+      <c r="D23" s="935"/>
+      <c r="E23" s="935"/>
+      <c r="F23" s="935"/>
+      <c r="G23" s="935"/>
+      <c r="H23" s="935"/>
+      <c r="I23" s="935"/>
+      <c r="J23" s="935"/>
+      <c r="K23" s="936"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="932"/>
-      <c r="B24" s="932"/>
-      <c r="C24" s="932"/>
-      <c r="D24" s="932"/>
-      <c r="E24" s="932"/>
-      <c r="F24" s="932"/>
-      <c r="G24" s="932"/>
-      <c r="H24" s="932"/>
-      <c r="I24" s="932"/>
-      <c r="J24" s="932"/>
-      <c r="K24" s="932"/>
+      <c r="A24" s="937"/>
+      <c r="B24" s="937"/>
+      <c r="C24" s="937"/>
+      <c r="D24" s="937"/>
+      <c r="E24" s="937"/>
+      <c r="F24" s="937"/>
+      <c r="G24" s="937"/>
+      <c r="H24" s="937"/>
+      <c r="I24" s="937"/>
+      <c r="J24" s="937"/>
+      <c r="K24" s="937"/>
     </row>
     <row r="25" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A25" s="933"/>
-      <c r="B25" s="933"/>
-      <c r="C25" s="933"/>
-      <c r="D25" s="933"/>
-      <c r="E25" s="933"/>
-      <c r="F25" s="933"/>
-      <c r="G25" s="933"/>
-      <c r="H25" s="933"/>
-      <c r="I25" s="933"/>
-      <c r="J25" s="933"/>
-      <c r="K25" s="933"/>
+      <c r="A25" s="938"/>
+      <c r="B25" s="938"/>
+      <c r="C25" s="938"/>
+      <c r="D25" s="938"/>
+      <c r="E25" s="938"/>
+      <c r="F25" s="938"/>
+      <c r="G25" s="938"/>
+      <c r="H25" s="938"/>
+      <c r="I25" s="938"/>
+      <c r="J25" s="938"/>
+      <c r="K25" s="938"/>
     </row>
     <row r="26" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A26" s="933"/>
-      <c r="B26" s="933"/>
-      <c r="C26" s="933"/>
-      <c r="D26" s="933"/>
-      <c r="E26" s="933"/>
-      <c r="F26" s="933"/>
-      <c r="G26" s="933"/>
-      <c r="H26" s="933"/>
-      <c r="I26" s="933"/>
-      <c r="J26" s="933"/>
-      <c r="K26" s="933"/>
+      <c r="A26" s="938"/>
+      <c r="B26" s="938"/>
+      <c r="C26" s="938"/>
+      <c r="D26" s="938"/>
+      <c r="E26" s="938"/>
+      <c r="F26" s="938"/>
+      <c r="G26" s="938"/>
+      <c r="H26" s="938"/>
+      <c r="I26" s="938"/>
+      <c r="J26" s="938"/>
+      <c r="K26" s="938"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A27" s="933"/>
-      <c r="B27" s="933"/>
-      <c r="C27" s="933"/>
-      <c r="D27" s="933"/>
-      <c r="E27" s="933"/>
-      <c r="F27" s="933"/>
-      <c r="G27" s="933"/>
-      <c r="H27" s="933"/>
-      <c r="I27" s="933"/>
-      <c r="J27" s="933"/>
-      <c r="K27" s="933"/>
+      <c r="A27" s="938"/>
+      <c r="B27" s="938"/>
+      <c r="C27" s="938"/>
+      <c r="D27" s="938"/>
+      <c r="E27" s="938"/>
+      <c r="F27" s="938"/>
+      <c r="G27" s="938"/>
+      <c r="H27" s="938"/>
+      <c r="I27" s="938"/>
+      <c r="J27" s="938"/>
+      <c r="K27" s="938"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A28" s="933"/>
-      <c r="B28" s="933"/>
-      <c r="C28" s="933"/>
-      <c r="D28" s="933"/>
-      <c r="E28" s="933"/>
-      <c r="F28" s="933"/>
-      <c r="G28" s="933"/>
-      <c r="H28" s="933"/>
-      <c r="I28" s="933"/>
-      <c r="J28" s="933"/>
-      <c r="K28" s="933"/>
+      <c r="A28" s="938"/>
+      <c r="B28" s="938"/>
+      <c r="C28" s="938"/>
+      <c r="D28" s="938"/>
+      <c r="E28" s="938"/>
+      <c r="F28" s="938"/>
+      <c r="G28" s="938"/>
+      <c r="H28" s="938"/>
+      <c r="I28" s="938"/>
+      <c r="J28" s="938"/>
+      <c r="K28" s="938"/>
     </row>
     <row r="29" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A29" s="933"/>
-      <c r="B29" s="933"/>
-      <c r="C29" s="933"/>
-      <c r="D29" s="933"/>
-      <c r="E29" s="933"/>
-      <c r="F29" s="933"/>
-      <c r="G29" s="933"/>
-      <c r="H29" s="933"/>
-      <c r="I29" s="933"/>
-      <c r="J29" s="933"/>
-      <c r="K29" s="933"/>
+      <c r="A29" s="938"/>
+      <c r="B29" s="938"/>
+      <c r="C29" s="938"/>
+      <c r="D29" s="938"/>
+      <c r="E29" s="938"/>
+      <c r="F29" s="938"/>
+      <c r="G29" s="938"/>
+      <c r="H29" s="938"/>
+      <c r="I29" s="938"/>
+      <c r="J29" s="938"/>
+      <c r="K29" s="938"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A30" s="933"/>
-      <c r="B30" s="933"/>
-      <c r="C30" s="933"/>
-      <c r="D30" s="933"/>
-      <c r="E30" s="933"/>
-      <c r="F30" s="933"/>
-      <c r="G30" s="933"/>
-      <c r="H30" s="933"/>
-      <c r="I30" s="933"/>
-      <c r="J30" s="933"/>
-      <c r="K30" s="933"/>
+      <c r="A30" s="938"/>
+      <c r="B30" s="938"/>
+      <c r="C30" s="938"/>
+      <c r="D30" s="938"/>
+      <c r="E30" s="938"/>
+      <c r="F30" s="938"/>
+      <c r="G30" s="938"/>
+      <c r="H30" s="938"/>
+      <c r="I30" s="938"/>
+      <c r="J30" s="938"/>
+      <c r="K30" s="938"/>
     </row>
     <row r="31" spans="1:12" ht="201.75" customHeight="1" thickBot="1">
-      <c r="A31" s="934" t="s">
+      <c r="A31" s="939" t="s">
         <v>548</v>
       </c>
-      <c r="B31" s="935"/>
-      <c r="C31" s="935"/>
-      <c r="D31" s="935"/>
-      <c r="E31" s="935"/>
-      <c r="F31" s="935"/>
-      <c r="G31" s="935"/>
-      <c r="H31" s="935"/>
-      <c r="I31" s="935"/>
-      <c r="J31" s="935"/>
-      <c r="K31" s="936"/>
+      <c r="B31" s="940"/>
+      <c r="C31" s="940"/>
+      <c r="D31" s="940"/>
+      <c r="E31" s="940"/>
+      <c r="F31" s="940"/>
+      <c r="G31" s="940"/>
+      <c r="H31" s="940"/>
+      <c r="I31" s="940"/>
+      <c r="J31" s="940"/>
+      <c r="K31" s="941"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K30"/>
+    <mergeCell ref="A31:K31"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A5:K5"/>
@@ -28828,11 +28837,6 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K30"/>
-    <mergeCell ref="A31:K31"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:K18">
     <cfRule type="cellIs" dxfId="114" priority="2" stopIfTrue="1" operator="equal">
@@ -29387,13 +29391,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="943" t="s">
+      <c r="A1" s="957" t="s">
         <v>647</v>
       </c>
-      <c r="B1" s="944"/>
-      <c r="C1" s="944"/>
-      <c r="D1" s="944"/>
-      <c r="E1" s="944"/>
+      <c r="B1" s="958"/>
+      <c r="C1" s="958"/>
+      <c r="D1" s="958"/>
+      <c r="E1" s="958"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="793"/>
@@ -29406,23 +29410,23 @@
       <c r="A3" s="794" t="s">
         <v>648</v>
       </c>
-      <c r="B3" s="945">
+      <c r="B3" s="959">
         <f>'QC Test Summary-Siemens'!C4</f>
         <v>0</v>
       </c>
-      <c r="C3" s="945"/>
-      <c r="D3" s="945"/>
-      <c r="E3" s="945"/>
+      <c r="C3" s="959"/>
+      <c r="D3" s="959"/>
+      <c r="E3" s="959"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="794" t="s">
         <v>649</v>
       </c>
-      <c r="B4" s="946" t="str">
+      <c r="B4" s="960" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="C4" s="946"/>
+      <c r="C4" s="960"/>
       <c r="D4" s="795" t="s">
         <v>43</v>
       </c>
@@ -29452,11 +29456,11 @@
       <c r="A6" s="794" t="s">
         <v>652</v>
       </c>
-      <c r="B6" s="946" t="str">
+      <c r="B6" s="960" t="str">
         <f>Sheet1!X7</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="C6" s="946"/>
+      <c r="C6" s="960"/>
       <c r="D6" s="795" t="s">
         <v>653</v>
       </c>
@@ -29469,8 +29473,8 @@
       <c r="A7" s="794" t="s">
         <v>654</v>
       </c>
-      <c r="B7" s="946"/>
-      <c r="C7" s="946"/>
+      <c r="B7" s="960"/>
+      <c r="C7" s="960"/>
       <c r="D7" s="795" t="s">
         <v>655</v>
       </c>
@@ -29498,7 +29502,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" thickTop="1">
-      <c r="A10" s="941" t="s">
+      <c r="A10" s="956" t="s">
         <v>660</v>
       </c>
       <c r="B10" s="802" t="s">
@@ -29513,7 +29517,7 @@
       <c r="E10" s="805"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A11" s="942"/>
+      <c r="A11" s="952"/>
       <c r="B11" s="806" t="s">
         <v>664</v>
       </c>
@@ -29526,7 +29530,7 @@
       <c r="E11" s="809"/>
     </row>
     <row r="12" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A12" s="952" t="s">
+      <c r="A12" s="947" t="s">
         <v>666</v>
       </c>
       <c r="B12" s="810" t="s">
@@ -29541,7 +29545,7 @@
       <c r="E12" s="813"/>
     </row>
     <row r="13" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A13" s="953"/>
+      <c r="A13" s="948"/>
       <c r="B13" s="814" t="s">
         <v>670</v>
       </c>
@@ -29554,7 +29558,7 @@
       <c r="E13" s="817"/>
     </row>
     <row r="14" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A14" s="954"/>
+      <c r="A14" s="949"/>
       <c r="B14" s="818" t="s">
         <v>672</v>
       </c>
@@ -29567,7 +29571,7 @@
       <c r="E14" s="820"/>
     </row>
     <row r="15" spans="1:5" ht="56.25">
-      <c r="A15" s="955" t="s">
+      <c r="A15" s="950" t="s">
         <v>674</v>
       </c>
       <c r="B15" s="821" t="s">
@@ -29582,7 +29586,7 @@
       <c r="E15" s="823"/>
     </row>
     <row r="16" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A16" s="956"/>
+      <c r="A16" s="951"/>
       <c r="B16" s="806" t="s">
         <v>677</v>
       </c>
@@ -29595,7 +29599,7 @@
       <c r="E16" s="825"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A17" s="947" t="s">
+      <c r="A17" s="942" t="s">
         <v>679</v>
       </c>
       <c r="B17" s="826" t="s">
@@ -29610,7 +29614,7 @@
       <c r="E17" s="827"/>
     </row>
     <row r="18" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A18" s="942"/>
+      <c r="A18" s="952"/>
       <c r="B18" s="828" t="s">
         <v>682</v>
       </c>
@@ -29623,7 +29627,7 @@
       <c r="E18" s="809"/>
     </row>
     <row r="19" spans="1:5" ht="33.75">
-      <c r="A19" s="957" t="s">
+      <c r="A19" s="953" t="s">
         <v>684</v>
       </c>
       <c r="B19" s="826" t="s">
@@ -29638,7 +29642,7 @@
       <c r="E19" s="827"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A20" s="958"/>
+      <c r="A20" s="954"/>
       <c r="B20" s="830" t="s">
         <v>687</v>
       </c>
@@ -29651,7 +29655,7 @@
       <c r="E20" s="832"/>
     </row>
     <row r="21" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A21" s="959"/>
+      <c r="A21" s="955"/>
       <c r="B21" s="828" t="s">
         <v>689</v>
       </c>
@@ -29664,7 +29668,7 @@
       <c r="E21" s="809"/>
     </row>
     <row r="22" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A22" s="947" t="s">
+      <c r="A22" s="942" t="s">
         <v>691</v>
       </c>
       <c r="B22" s="826" t="s">
@@ -29679,7 +29683,7 @@
       <c r="E22" s="827"/>
     </row>
     <row r="23" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A23" s="942"/>
+      <c r="A23" s="952"/>
       <c r="B23" s="806" t="s">
         <v>694</v>
       </c>
@@ -29692,7 +29696,7 @@
       <c r="E23" s="825"/>
     </row>
     <row r="24" spans="1:5" ht="33.75">
-      <c r="A24" s="957" t="s">
+      <c r="A24" s="953" t="s">
         <v>696</v>
       </c>
       <c r="B24" s="826" t="s">
@@ -29707,7 +29711,7 @@
       <c r="E24" s="827"/>
     </row>
     <row r="25" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A25" s="958"/>
+      <c r="A25" s="954"/>
       <c r="B25" s="830" t="s">
         <v>699</v>
       </c>
@@ -29720,7 +29724,7 @@
       <c r="E25" s="832"/>
     </row>
     <row r="26" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A26" s="958"/>
+      <c r="A26" s="954"/>
       <c r="B26" s="833" t="s">
         <v>701</v>
       </c>
@@ -29733,7 +29737,7 @@
       <c r="E26" s="832"/>
     </row>
     <row r="27" spans="1:5" ht="22.5">
-      <c r="A27" s="958"/>
+      <c r="A27" s="954"/>
       <c r="B27" s="833" t="s">
         <v>703</v>
       </c>
@@ -29746,7 +29750,7 @@
       <c r="E27" s="832"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A28" s="959"/>
+      <c r="A28" s="955"/>
       <c r="B28" s="834" t="s">
         <v>705</v>
       </c>
@@ -29759,7 +29763,7 @@
       <c r="E28" s="825"/>
     </row>
     <row r="29" spans="1:5" ht="22.5">
-      <c r="A29" s="947" t="s">
+      <c r="A29" s="942" t="s">
         <v>707</v>
       </c>
       <c r="B29" s="835" t="s">
@@ -29774,7 +29778,7 @@
       <c r="E29" s="827"/>
     </row>
     <row r="30" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A30" s="948"/>
+      <c r="A30" s="943"/>
       <c r="B30" s="833" t="s">
         <v>710</v>
       </c>
@@ -29787,7 +29791,7 @@
       <c r="E30" s="832"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A31" s="949"/>
+      <c r="A31" s="944"/>
       <c r="B31" s="834" t="s">
         <v>712</v>
       </c>
@@ -29800,7 +29804,7 @@
       <c r="E31" s="825"/>
     </row>
     <row r="32" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A32" s="947" t="s">
+      <c r="A32" s="942" t="s">
         <v>714</v>
       </c>
       <c r="B32" s="835" t="s">
@@ -29815,7 +29819,7 @@
       <c r="E32" s="827"/>
     </row>
     <row r="33" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A33" s="948"/>
+      <c r="A33" s="943"/>
       <c r="B33" s="833" t="s">
         <v>717</v>
       </c>
@@ -29828,7 +29832,7 @@
       <c r="E33" s="832"/>
     </row>
     <row r="34" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A34" s="949"/>
+      <c r="A34" s="944"/>
       <c r="B34" s="834" t="s">
         <v>718</v>
       </c>
@@ -29916,13 +29920,13 @@
       <c r="E39" s="809"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="950" t="s">
+      <c r="A40" s="945" t="s">
         <v>783</v>
       </c>
-      <c r="B40" s="951"/>
-      <c r="C40" s="951"/>
-      <c r="D40" s="951"/>
-      <c r="E40" s="951"/>
+      <c r="B40" s="946"/>
+      <c r="C40" s="946"/>
+      <c r="D40" s="946"/>
+      <c r="E40" s="946"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="844"/>
@@ -30619,6 +30623,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A40:E40"/>
@@ -30628,12 +30638,6 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E10 JA10 SW10 ACS10 AMO10 AWK10 BGG10 BQC10 BZY10 CJU10 CTQ10 DDM10 DNI10 DXE10 EHA10 EQW10 FAS10 FKO10 FUK10 GEG10 GOC10 GXY10 HHU10 HRQ10 IBM10 ILI10 IVE10 JFA10 JOW10 JYS10 KIO10 KSK10 LCG10 LMC10 LVY10 MFU10 MPQ10 MZM10 NJI10 NTE10 ODA10 OMW10 OWS10 PGO10 PQK10 QAG10 QKC10 QTY10 RDU10 RNQ10 RXM10 SHI10 SRE10 TBA10 TKW10 TUS10 UEO10 UOK10 UYG10 VIC10 VRY10 WBU10 WLQ10 WVM10 E65546 JA65546 SW65546 ACS65546 AMO65546 AWK65546 BGG65546 BQC65546 BZY65546 CJU65546 CTQ65546 DDM65546 DNI65546 DXE65546 EHA65546 EQW65546 FAS65546 FKO65546 FUK65546 GEG65546 GOC65546 GXY65546 HHU65546 HRQ65546 IBM65546 ILI65546 IVE65546 JFA65546 JOW65546 JYS65546 KIO65546 KSK65546 LCG65546 LMC65546 LVY65546 MFU65546 MPQ65546 MZM65546 NJI65546 NTE65546 ODA65546 OMW65546 OWS65546 PGO65546 PQK65546 QAG65546 QKC65546 QTY65546 RDU65546 RNQ65546 RXM65546 SHI65546 SRE65546 TBA65546 TKW65546 TUS65546 UEO65546 UOK65546 UYG65546 VIC65546 VRY65546 WBU65546 WLQ65546 WVM65546 E131082 JA131082 SW131082 ACS131082 AMO131082 AWK131082 BGG131082 BQC131082 BZY131082 CJU131082 CTQ131082 DDM131082 DNI131082 DXE131082 EHA131082 EQW131082 FAS131082 FKO131082 FUK131082 GEG131082 GOC131082 GXY131082 HHU131082 HRQ131082 IBM131082 ILI131082 IVE131082 JFA131082 JOW131082 JYS131082 KIO131082 KSK131082 LCG131082 LMC131082 LVY131082 MFU131082 MPQ131082 MZM131082 NJI131082 NTE131082 ODA131082 OMW131082 OWS131082 PGO131082 PQK131082 QAG131082 QKC131082 QTY131082 RDU131082 RNQ131082 RXM131082 SHI131082 SRE131082 TBA131082 TKW131082 TUS131082 UEO131082 UOK131082 UYG131082 VIC131082 VRY131082 WBU131082 WLQ131082 WVM131082 E196618 JA196618 SW196618 ACS196618 AMO196618 AWK196618 BGG196618 BQC196618 BZY196618 CJU196618 CTQ196618 DDM196618 DNI196618 DXE196618 EHA196618 EQW196618 FAS196618 FKO196618 FUK196618 GEG196618 GOC196618 GXY196618 HHU196618 HRQ196618 IBM196618 ILI196618 IVE196618 JFA196618 JOW196618 JYS196618 KIO196618 KSK196618 LCG196618 LMC196618 LVY196618 MFU196618 MPQ196618 MZM196618 NJI196618 NTE196618 ODA196618 OMW196618 OWS196618 PGO196618 PQK196618 QAG196618 QKC196618 QTY196618 RDU196618 RNQ196618 RXM196618 SHI196618 SRE196618 TBA196618 TKW196618 TUS196618 UEO196618 UOK196618 UYG196618 VIC196618 VRY196618 WBU196618 WLQ196618 WVM196618 E262154 JA262154 SW262154 ACS262154 AMO262154 AWK262154 BGG262154 BQC262154 BZY262154 CJU262154 CTQ262154 DDM262154 DNI262154 DXE262154 EHA262154 EQW262154 FAS262154 FKO262154 FUK262154 GEG262154 GOC262154 GXY262154 HHU262154 HRQ262154 IBM262154 ILI262154 IVE262154 JFA262154 JOW262154 JYS262154 KIO262154 KSK262154 LCG262154 LMC262154 LVY262154 MFU262154 MPQ262154 MZM262154 NJI262154 NTE262154 ODA262154 OMW262154 OWS262154 PGO262154 PQK262154 QAG262154 QKC262154 QTY262154 RDU262154 RNQ262154 RXM262154 SHI262154 SRE262154 TBA262154 TKW262154 TUS262154 UEO262154 UOK262154 UYG262154 VIC262154 VRY262154 WBU262154 WLQ262154 WVM262154 E327690 JA327690 SW327690 ACS327690 AMO327690 AWK327690 BGG327690 BQC327690 BZY327690 CJU327690 CTQ327690 DDM327690 DNI327690 DXE327690 EHA327690 EQW327690 FAS327690 FKO327690 FUK327690 GEG327690 GOC327690 GXY327690 HHU327690 HRQ327690 IBM327690 ILI327690 IVE327690 JFA327690 JOW327690 JYS327690 KIO327690 KSK327690 LCG327690 LMC327690 LVY327690 MFU327690 MPQ327690 MZM327690 NJI327690 NTE327690 ODA327690 OMW327690 OWS327690 PGO327690 PQK327690 QAG327690 QKC327690 QTY327690 RDU327690 RNQ327690 RXM327690 SHI327690 SRE327690 TBA327690 TKW327690 TUS327690 UEO327690 UOK327690 UYG327690 VIC327690 VRY327690 WBU327690 WLQ327690 WVM327690 E393226 JA393226 SW393226 ACS393226 AMO393226 AWK393226 BGG393226 BQC393226 BZY393226 CJU393226 CTQ393226 DDM393226 DNI393226 DXE393226 EHA393226 EQW393226 FAS393226 FKO393226 FUK393226 GEG393226 GOC393226 GXY393226 HHU393226 HRQ393226 IBM393226 ILI393226 IVE393226 JFA393226 JOW393226 JYS393226 KIO393226 KSK393226 LCG393226 LMC393226 LVY393226 MFU393226 MPQ393226 MZM393226 NJI393226 NTE393226 ODA393226 OMW393226 OWS393226 PGO393226 PQK393226 QAG393226 QKC393226 QTY393226 RDU393226 RNQ393226 RXM393226 SHI393226 SRE393226 TBA393226 TKW393226 TUS393226 UEO393226 UOK393226 UYG393226 VIC393226 VRY393226 WBU393226 WLQ393226 WVM393226 E458762 JA458762 SW458762 ACS458762 AMO458762 AWK458762 BGG458762 BQC458762 BZY458762 CJU458762 CTQ458762 DDM458762 DNI458762 DXE458762 EHA458762 EQW458762 FAS458762 FKO458762 FUK458762 GEG458762 GOC458762 GXY458762 HHU458762 HRQ458762 IBM458762 ILI458762 IVE458762 JFA458762 JOW458762 JYS458762 KIO458762 KSK458762 LCG458762 LMC458762 LVY458762 MFU458762 MPQ458762 MZM458762 NJI458762 NTE458762 ODA458762 OMW458762 OWS458762 PGO458762 PQK458762 QAG458762 QKC458762 QTY458762 RDU458762 RNQ458762 RXM458762 SHI458762 SRE458762 TBA458762 TKW458762 TUS458762 UEO458762 UOK458762 UYG458762 VIC458762 VRY458762 WBU458762 WLQ458762 WVM458762 E524298 JA524298 SW524298 ACS524298 AMO524298 AWK524298 BGG524298 BQC524298 BZY524298 CJU524298 CTQ524298 DDM524298 DNI524298 DXE524298 EHA524298 EQW524298 FAS524298 FKO524298 FUK524298 GEG524298 GOC524298 GXY524298 HHU524298 HRQ524298 IBM524298 ILI524298 IVE524298 JFA524298 JOW524298 JYS524298 KIO524298 KSK524298 LCG524298 LMC524298 LVY524298 MFU524298 MPQ524298 MZM524298 NJI524298 NTE524298 ODA524298 OMW524298 OWS524298 PGO524298 PQK524298 QAG524298 QKC524298 QTY524298 RDU524298 RNQ524298 RXM524298 SHI524298 SRE524298 TBA524298 TKW524298 TUS524298 UEO524298 UOK524298 UYG524298 VIC524298 VRY524298 WBU524298 WLQ524298 WVM524298 E589834 JA589834 SW589834 ACS589834 AMO589834 AWK589834 BGG589834 BQC589834 BZY589834 CJU589834 CTQ589834 DDM589834 DNI589834 DXE589834 EHA589834 EQW589834 FAS589834 FKO589834 FUK589834 GEG589834 GOC589834 GXY589834 HHU589834 HRQ589834 IBM589834 ILI589834 IVE589834 JFA589834 JOW589834 JYS589834 KIO589834 KSK589834 LCG589834 LMC589834 LVY589834 MFU589834 MPQ589834 MZM589834 NJI589834 NTE589834 ODA589834 OMW589834 OWS589834 PGO589834 PQK589834 QAG589834 QKC589834 QTY589834 RDU589834 RNQ589834 RXM589834 SHI589834 SRE589834 TBA589834 TKW589834 TUS589834 UEO589834 UOK589834 UYG589834 VIC589834 VRY589834 WBU589834 WLQ589834 WVM589834 E655370 JA655370 SW655370 ACS655370 AMO655370 AWK655370 BGG655370 BQC655370 BZY655370 CJU655370 CTQ655370 DDM655370 DNI655370 DXE655370 EHA655370 EQW655370 FAS655370 FKO655370 FUK655370 GEG655370 GOC655370 GXY655370 HHU655370 HRQ655370 IBM655370 ILI655370 IVE655370 JFA655370 JOW655370 JYS655370 KIO655370 KSK655370 LCG655370 LMC655370 LVY655370 MFU655370 MPQ655370 MZM655370 NJI655370 NTE655370 ODA655370 OMW655370 OWS655370 PGO655370 PQK655370 QAG655370 QKC655370 QTY655370 RDU655370 RNQ655370 RXM655370 SHI655370 SRE655370 TBA655370 TKW655370 TUS655370 UEO655370 UOK655370 UYG655370 VIC655370 VRY655370 WBU655370 WLQ655370 WVM655370 E720906 JA720906 SW720906 ACS720906 AMO720906 AWK720906 BGG720906 BQC720906 BZY720906 CJU720906 CTQ720906 DDM720906 DNI720906 DXE720906 EHA720906 EQW720906 FAS720906 FKO720906 FUK720906 GEG720906 GOC720906 GXY720906 HHU720906 HRQ720906 IBM720906 ILI720906 IVE720906 JFA720906 JOW720906 JYS720906 KIO720906 KSK720906 LCG720906 LMC720906 LVY720906 MFU720906 MPQ720906 MZM720906 NJI720906 NTE720906 ODA720906 OMW720906 OWS720906 PGO720906 PQK720906 QAG720906 QKC720906 QTY720906 RDU720906 RNQ720906 RXM720906 SHI720906 SRE720906 TBA720906 TKW720906 TUS720906 UEO720906 UOK720906 UYG720906 VIC720906 VRY720906 WBU720906 WLQ720906 WVM720906 E786442 JA786442 SW786442 ACS786442 AMO786442 AWK786442 BGG786442 BQC786442 BZY786442 CJU786442 CTQ786442 DDM786442 DNI786442 DXE786442 EHA786442 EQW786442 FAS786442 FKO786442 FUK786442 GEG786442 GOC786442 GXY786442 HHU786442 HRQ786442 IBM786442 ILI786442 IVE786442 JFA786442 JOW786442 JYS786442 KIO786442 KSK786442 LCG786442 LMC786442 LVY786442 MFU786442 MPQ786442 MZM786442 NJI786442 NTE786442 ODA786442 OMW786442 OWS786442 PGO786442 PQK786442 QAG786442 QKC786442 QTY786442 RDU786442 RNQ786442 RXM786442 SHI786442 SRE786442 TBA786442 TKW786442 TUS786442 UEO786442 UOK786442 UYG786442 VIC786442 VRY786442 WBU786442 WLQ786442 WVM786442 E851978 JA851978 SW851978 ACS851978 AMO851978 AWK851978 BGG851978 BQC851978 BZY851978 CJU851978 CTQ851978 DDM851978 DNI851978 DXE851978 EHA851978 EQW851978 FAS851978 FKO851978 FUK851978 GEG851978 GOC851978 GXY851978 HHU851978 HRQ851978 IBM851978 ILI851978 IVE851978 JFA851978 JOW851978 JYS851978 KIO851978 KSK851978 LCG851978 LMC851978 LVY851978 MFU851978 MPQ851978 MZM851978 NJI851978 NTE851978 ODA851978 OMW851978 OWS851978 PGO851978 PQK851978 QAG851978 QKC851978 QTY851978 RDU851978 RNQ851978 RXM851978 SHI851978 SRE851978 TBA851978 TKW851978 TUS851978 UEO851978 UOK851978 UYG851978 VIC851978 VRY851978 WBU851978 WLQ851978 WVM851978 E917514 JA917514 SW917514 ACS917514 AMO917514 AWK917514 BGG917514 BQC917514 BZY917514 CJU917514 CTQ917514 DDM917514 DNI917514 DXE917514 EHA917514 EQW917514 FAS917514 FKO917514 FUK917514 GEG917514 GOC917514 GXY917514 HHU917514 HRQ917514 IBM917514 ILI917514 IVE917514 JFA917514 JOW917514 JYS917514 KIO917514 KSK917514 LCG917514 LMC917514 LVY917514 MFU917514 MPQ917514 MZM917514 NJI917514 NTE917514 ODA917514 OMW917514 OWS917514 PGO917514 PQK917514 QAG917514 QKC917514 QTY917514 RDU917514 RNQ917514 RXM917514 SHI917514 SRE917514 TBA917514 TKW917514 TUS917514 UEO917514 UOK917514 UYG917514 VIC917514 VRY917514 WBU917514 WLQ917514 WVM917514 E983050 JA983050 SW983050 ACS983050 AMO983050 AWK983050 BGG983050 BQC983050 BZY983050 CJU983050 CTQ983050 DDM983050 DNI983050 DXE983050 EHA983050 EQW983050 FAS983050 FKO983050 FUK983050 GEG983050 GOC983050 GXY983050 HHU983050 HRQ983050 IBM983050 ILI983050 IVE983050 JFA983050 JOW983050 JYS983050 KIO983050 KSK983050 LCG983050 LMC983050 LVY983050 MFU983050 MPQ983050 MZM983050 NJI983050 NTE983050 ODA983050 OMW983050 OWS983050 PGO983050 PQK983050 QAG983050 QKC983050 QTY983050 RDU983050 RNQ983050 RXM983050 SHI983050 SRE983050 TBA983050 TKW983050 TUS983050 UEO983050 UOK983050 UYG983050 VIC983050 VRY983050 WBU983050 WLQ983050 WVM983050"/>
@@ -32649,8 +32653,8 @@
   </sheetPr>
   <dimension ref="A1:AR518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J237" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q254" sqref="Q254:S254"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1"/>
@@ -32996,19 +33000,19 @@
       <c r="E10" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="994" t="str">
+      <c r="F10" s="971" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="994"/>
+      <c r="G10" s="971"/>
       <c r="J10" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="986" t="str">
+      <c r="K10" s="964" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="986"/>
+      <c r="L10" s="964"/>
       <c r="M10" s="69"/>
       <c r="O10" s="30"/>
       <c r="Q10" s="35" t="s">
@@ -33073,19 +33077,19 @@
       <c r="E11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="995" t="str">
+      <c r="F11" s="972" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="995"/>
+      <c r="G11" s="972"/>
       <c r="J11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="986" t="str">
+      <c r="K11" s="964" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="986"/>
+      <c r="L11" s="964"/>
       <c r="M11" s="69"/>
       <c r="O11" s="30"/>
       <c r="Q11" s="35" t="s">
@@ -33150,19 +33154,19 @@
       <c r="E12" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="995" t="str">
+      <c r="F12" s="972" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="995"/>
+      <c r="G12" s="972"/>
       <c r="J12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="996" t="str">
+      <c r="K12" s="970" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="996"/>
+      <c r="L12" s="970"/>
       <c r="M12" s="69"/>
       <c r="O12" s="30"/>
       <c r="Q12" s="35" t="s">
@@ -33227,19 +33231,19 @@
       <c r="E13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="995" t="str">
+      <c r="F13" s="972" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="995"/>
+      <c r="G13" s="972"/>
       <c r="J13" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="986" t="str">
+      <c r="K13" s="964" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="986"/>
+      <c r="L13" s="964"/>
       <c r="M13" s="69"/>
       <c r="O13" s="30"/>
       <c r="Q13" s="35" t="s">
@@ -33413,19 +33417,19 @@
       <c r="E16" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="986" t="str">
+      <c r="F16" s="964" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="986"/>
+      <c r="G16" s="964"/>
       <c r="J16" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="996" t="str">
+      <c r="K16" s="970" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="996"/>
+      <c r="L16" s="970"/>
       <c r="M16" s="69"/>
       <c r="O16" s="30"/>
       <c r="P16" s="75" t="s">
@@ -33477,19 +33481,19 @@
       <c r="E17" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="986" t="str">
+      <c r="F17" s="964" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="986"/>
+      <c r="G17" s="964"/>
       <c r="J17" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="997" t="str">
+      <c r="K17" s="973" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="997"/>
+      <c r="L17" s="973"/>
       <c r="M17" s="69"/>
       <c r="O17" s="30"/>
       <c r="Q17" s="35" t="s">
@@ -33554,19 +33558,19 @@
       <c r="E18" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="986" t="str">
+      <c r="F18" s="964" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="986"/>
+      <c r="G18" s="964"/>
       <c r="J18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="986" t="str">
+      <c r="K18" s="964" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="986"/>
+      <c r="L18" s="964"/>
       <c r="M18" s="69"/>
       <c r="O18" s="30"/>
       <c r="Q18" s="35" t="s">
@@ -33732,19 +33736,19 @@
       <c r="E21" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="986" t="str">
+      <c r="F21" s="964" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="986"/>
+      <c r="G21" s="964"/>
       <c r="J21" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="986" t="str">
+      <c r="K21" s="964" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L21" s="986"/>
+      <c r="L21" s="964"/>
       <c r="M21" s="69"/>
       <c r="O21" s="30"/>
       <c r="P21" s="75" t="s">
@@ -33804,17 +33808,17 @@
       <c r="E22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="996" t="str">
+      <c r="F22" s="970" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="996"/>
+      <c r="G22" s="970"/>
       <c r="J22" s="35"/>
-      <c r="K22" s="986" t="str">
+      <c r="K22" s="964" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="986"/>
+      <c r="L22" s="964"/>
       <c r="M22" s="69"/>
       <c r="O22" s="30"/>
       <c r="Q22" s="35" t="s">
@@ -33879,11 +33883,11 @@
       <c r="J23" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="986" t="str">
+      <c r="K23" s="964" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="986"/>
+      <c r="L23" s="964"/>
       <c r="M23" s="69"/>
       <c r="O23" s="30"/>
       <c r="Q23" s="35" t="s">
@@ -33942,16 +33946,16 @@
       <c r="E24" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="986" t="str">
+      <c r="F24" s="964" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="986"/>
-      <c r="K24" s="986" t="str">
+      <c r="G24" s="964"/>
+      <c r="K24" s="964" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="986"/>
+      <c r="L24" s="964"/>
       <c r="M24" s="69"/>
       <c r="O24" s="30"/>
       <c r="P24" s="75" t="s">
@@ -34011,14 +34015,17 @@
       <c r="E25" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="986" t="str">
+      <c r="F25" s="964" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="986"/>
+      <c r="G25" s="964"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="K25" s="964" t="str">
+        <f>IF(V26="","",V26)</f>
+        <v/>
+      </c>
+      <c r="L25" s="964"/>
       <c r="M25" s="69"/>
       <c r="O25" s="30"/>
       <c r="Q25" s="35" t="s">
@@ -34080,11 +34087,11 @@
       <c r="E26" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="986" t="str">
+      <c r="F26" s="964" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="986"/>
+      <c r="G26" s="964"/>
       <c r="I26" s="75" t="s">
         <v>55</v>
       </c>
@@ -34152,11 +34159,11 @@
       <c r="J27" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="986" t="str">
+      <c r="K27" s="964" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="986"/>
+      <c r="L27" s="964"/>
       <c r="M27" s="69"/>
       <c r="O27" s="30"/>
       <c r="Q27" s="35" t="s">
@@ -34207,20 +34214,20 @@
       <c r="E28" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="986" t="str">
+      <c r="F28" s="964" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="986"/>
+      <c r="G28" s="964"/>
       <c r="I28" s="4"/>
       <c r="J28" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="K28" s="986" t="str">
+      <c r="K28" s="964" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="986"/>
+      <c r="L28" s="964"/>
       <c r="M28" s="69"/>
       <c r="O28" s="30"/>
       <c r="P28" s="75" t="s">
@@ -34280,22 +34287,22 @@
       <c r="E29" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="986" t="str">
+      <c r="F29" s="964" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="986"/>
+      <c r="G29" s="964"/>
       <c r="I29" s="75" t="s">
         <v>59</v>
       </c>
       <c r="J29" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="K29" s="986" t="str">
+      <c r="K29" s="964" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="986"/>
+      <c r="L29" s="964"/>
       <c r="M29" s="69"/>
       <c r="O29" s="30"/>
       <c r="Q29" s="35" t="s">
@@ -34360,19 +34367,19 @@
       <c r="E30" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="986" t="str">
+      <c r="F30" s="964" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="986"/>
+      <c r="G30" s="964"/>
       <c r="J30" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="K30" s="986" t="str">
+      <c r="K30" s="964" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="986"/>
+      <c r="L30" s="964"/>
       <c r="M30" s="69"/>
       <c r="O30" s="30"/>
       <c r="Q30" s="35" t="s">
@@ -34656,21 +34663,21 @@
       <c r="C35" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="993" t="s">
+      <c r="D35" s="974" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="993"/>
-      <c r="F35" s="993"/>
-      <c r="G35" s="993" t="s">
+      <c r="E35" s="974"/>
+      <c r="F35" s="974"/>
+      <c r="G35" s="974" t="s">
         <v>65</v>
       </c>
-      <c r="H35" s="993"/>
-      <c r="I35" s="993"/>
-      <c r="J35" s="993" t="s">
+      <c r="H35" s="974"/>
+      <c r="I35" s="974"/>
+      <c r="J35" s="974" t="s">
         <v>66</v>
       </c>
-      <c r="K35" s="993"/>
-      <c r="L35" s="993"/>
+      <c r="K35" s="974"/>
+      <c r="L35" s="974"/>
       <c r="M35" s="69"/>
       <c r="O35" s="40"/>
       <c r="P35" s="41"/>
@@ -34730,11 +34737,11 @@
       <c r="D36" s="572"/>
       <c r="E36" s="573"/>
       <c r="F36" s="578"/>
-      <c r="G36" s="989" t="s">
+      <c r="G36" s="975" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="989"/>
-      <c r="I36" s="989"/>
+      <c r="H36" s="975"/>
+      <c r="I36" s="975"/>
       <c r="J36" s="572"/>
       <c r="K36" s="573"/>
       <c r="L36" s="578"/>
@@ -35307,10 +35314,10 @@
       <c r="C44" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="L44" s="990" t="s">
+      <c r="L44" s="976" t="s">
         <v>89</v>
       </c>
-      <c r="M44" s="990"/>
+      <c r="M44" s="976"/>
       <c r="O44" s="30"/>
       <c r="Y44" s="32"/>
       <c r="AA44" s="75" t="s">
@@ -39786,21 +39793,21 @@
       <c r="O121" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="P121" s="976" t="s">
+      <c r="P121" s="977" t="s">
         <v>64</v>
       </c>
-      <c r="Q121" s="977"/>
-      <c r="R121" s="978"/>
-      <c r="S121" s="976" t="s">
+      <c r="Q121" s="978"/>
+      <c r="R121" s="979"/>
+      <c r="S121" s="977" t="s">
         <v>515</v>
       </c>
-      <c r="T121" s="977"/>
-      <c r="U121" s="978"/>
-      <c r="V121" s="976" t="s">
+      <c r="T121" s="978"/>
+      <c r="U121" s="979"/>
+      <c r="V121" s="977" t="s">
         <v>66</v>
       </c>
-      <c r="W121" s="977"/>
-      <c r="X121" s="991"/>
+      <c r="W121" s="978"/>
+      <c r="X121" s="983"/>
       <c r="Y121" s="32"/>
       <c r="AA121" s="35" t="s">
         <v>603</v>
@@ -39861,15 +39868,15 @@
       <c r="O122" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="P122" s="979"/>
-      <c r="Q122" s="980"/>
-      <c r="R122" s="981"/>
-      <c r="S122" s="979"/>
-      <c r="T122" s="980"/>
-      <c r="U122" s="981"/>
-      <c r="V122" s="979"/>
-      <c r="W122" s="980"/>
-      <c r="X122" s="992"/>
+      <c r="P122" s="980"/>
+      <c r="Q122" s="981"/>
+      <c r="R122" s="982"/>
+      <c r="S122" s="980"/>
+      <c r="T122" s="981"/>
+      <c r="U122" s="982"/>
+      <c r="V122" s="980"/>
+      <c r="W122" s="981"/>
+      <c r="X122" s="984"/>
       <c r="Y122" s="32"/>
       <c r="AA122" s="35" t="s">
         <v>604</v>
@@ -40445,21 +40452,21 @@
       <c r="O129" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="P129" s="976" t="s">
+      <c r="P129" s="977" t="s">
         <v>64</v>
       </c>
-      <c r="Q129" s="977"/>
-      <c r="R129" s="978"/>
-      <c r="S129" s="976" t="s">
+      <c r="Q129" s="978"/>
+      <c r="R129" s="979"/>
+      <c r="S129" s="977" t="s">
         <v>515</v>
       </c>
-      <c r="T129" s="977"/>
-      <c r="U129" s="978"/>
-      <c r="V129" s="982" t="s">
+      <c r="T129" s="978"/>
+      <c r="U129" s="979"/>
+      <c r="V129" s="985" t="s">
         <v>66</v>
       </c>
-      <c r="W129" s="983"/>
-      <c r="X129" s="984"/>
+      <c r="W129" s="986"/>
+      <c r="X129" s="987"/>
       <c r="Y129" s="32"/>
       <c r="AA129" s="35" t="s">
         <v>611</v>
@@ -40520,15 +40527,15 @@
       <c r="O130" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="P130" s="979"/>
-      <c r="Q130" s="980"/>
-      <c r="R130" s="981"/>
-      <c r="S130" s="979"/>
-      <c r="T130" s="980"/>
-      <c r="U130" s="981"/>
-      <c r="V130" s="985"/>
-      <c r="W130" s="986"/>
-      <c r="X130" s="987"/>
+      <c r="P130" s="980"/>
+      <c r="Q130" s="981"/>
+      <c r="R130" s="982"/>
+      <c r="S130" s="980"/>
+      <c r="T130" s="981"/>
+      <c r="U130" s="982"/>
+      <c r="V130" s="988"/>
+      <c r="W130" s="964"/>
+      <c r="X130" s="989"/>
       <c r="Y130" s="32"/>
       <c r="AA130" s="21" t="s">
         <v>612</v>
@@ -42250,12 +42257,12 @@
       <c r="L173" s="68"/>
       <c r="M173" s="69"/>
       <c r="O173" s="30"/>
-      <c r="P173" s="988" t="s">
+      <c r="P173" s="968" t="s">
         <v>227</v>
       </c>
-      <c r="Q173" s="988"/>
-      <c r="R173" s="988"/>
-      <c r="S173" s="988"/>
+      <c r="Q173" s="968"/>
+      <c r="R173" s="968"/>
+      <c r="S173" s="968"/>
       <c r="U173" s="576" t="s">
         <v>228</v>
       </c>
@@ -42425,12 +42432,12 @@
       </c>
       <c r="B179" s="67"/>
       <c r="C179" s="68"/>
-      <c r="D179" s="988" t="s">
+      <c r="D179" s="968" t="s">
         <v>227</v>
       </c>
-      <c r="E179" s="988"/>
-      <c r="F179" s="988"/>
-      <c r="G179" s="988"/>
+      <c r="E179" s="968"/>
+      <c r="F179" s="968"/>
+      <c r="G179" s="968"/>
       <c r="H179" s="68"/>
       <c r="I179" s="576" t="s">
         <v>228</v>
@@ -42568,17 +42575,17 @@
       <c r="M182" s="69"/>
       <c r="O182" s="30"/>
       <c r="P182" s="68"/>
-      <c r="Q182" s="966" t="s">
+      <c r="Q182" s="961" t="s">
         <v>239</v>
       </c>
-      <c r="R182" s="966"/>
-      <c r="S182" s="966"/>
+      <c r="R182" s="961"/>
+      <c r="S182" s="961"/>
       <c r="T182" s="4"/>
-      <c r="U182" s="966" t="s">
+      <c r="U182" s="961" t="s">
         <v>239</v>
       </c>
-      <c r="V182" s="966"/>
-      <c r="W182" s="966"/>
+      <c r="V182" s="961"/>
+      <c r="W182" s="961"/>
       <c r="X182" s="4"/>
       <c r="Y182" s="32"/>
     </row>
@@ -42707,22 +42714,22 @@
       </c>
       <c r="B186" s="67"/>
       <c r="C186" s="107"/>
-      <c r="D186" s="1000" t="s">
+      <c r="D186" s="965" t="s">
         <v>239</v>
       </c>
-      <c r="E186" s="1001"/>
-      <c r="F186" s="1002"/>
+      <c r="E186" s="966"/>
+      <c r="F186" s="967"/>
       <c r="G186" s="162"/>
-      <c r="H186" s="1000" t="s">
+      <c r="H186" s="965" t="s">
         <v>239</v>
       </c>
-      <c r="I186" s="1001"/>
-      <c r="J186" s="1002"/>
-      <c r="K186" s="1000" t="s">
+      <c r="I186" s="966"/>
+      <c r="J186" s="967"/>
+      <c r="K186" s="965" t="s">
         <v>239</v>
       </c>
-      <c r="L186" s="1001"/>
-      <c r="M186" s="1003"/>
+      <c r="L186" s="966"/>
+      <c r="M186" s="969"/>
       <c r="O186" s="161"/>
       <c r="P186" s="162" t="s">
         <v>245</v>
@@ -43195,17 +43202,17 @@
       <c r="M194" s="69"/>
       <c r="O194" s="161"/>
       <c r="P194" s="68"/>
-      <c r="Q194" s="966" t="s">
+      <c r="Q194" s="961" t="s">
         <v>239</v>
       </c>
-      <c r="R194" s="966"/>
-      <c r="S194" s="966"/>
+      <c r="R194" s="961"/>
+      <c r="S194" s="961"/>
       <c r="T194" s="4"/>
-      <c r="U194" s="966" t="s">
+      <c r="U194" s="961" t="s">
         <v>239</v>
       </c>
-      <c r="V194" s="966"/>
-      <c r="W194" s="966"/>
+      <c r="V194" s="961"/>
+      <c r="W194" s="961"/>
       <c r="X194" s="4"/>
       <c r="Y194" s="32"/>
     </row>
@@ -45389,11 +45396,11 @@
         <v>237</v>
       </c>
       <c r="T245" s="4"/>
-      <c r="U245" s="966" t="s">
+      <c r="U245" s="961" t="s">
         <v>295</v>
       </c>
-      <c r="V245" s="966"/>
-      <c r="W245" s="966"/>
+      <c r="V245" s="961"/>
+      <c r="W245" s="961"/>
       <c r="X245" s="4"/>
       <c r="Y245" s="234"/>
       <c r="Z245" s="577"/>
@@ -45591,11 +45598,11 @@
         <v>237</v>
       </c>
       <c r="G250" s="68"/>
-      <c r="H250" s="1000" t="s">
+      <c r="H250" s="965" t="s">
         <v>295</v>
       </c>
-      <c r="I250" s="1001"/>
-      <c r="J250" s="1002"/>
+      <c r="I250" s="966"/>
+      <c r="J250" s="967"/>
       <c r="K250" s="68"/>
       <c r="L250" s="68"/>
       <c r="M250" s="69"/>
@@ -45824,15 +45831,15 @@
       <c r="P254" s="235" t="s">
         <v>309</v>
       </c>
-      <c r="Q254" s="1011" t="str">
+      <c r="Q254" s="895" t="str">
         <f>IF(U247="","",MAX(U247:U251))</f>
         <v/>
       </c>
-      <c r="R254" s="1011" t="str">
+      <c r="R254" s="895" t="str">
         <f t="shared" ref="R254:S254" si="42">IF(V247="","",MAX(V247:V251))</f>
         <v/>
       </c>
-      <c r="S254" s="1011" t="str">
+      <c r="S254" s="895" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -47821,11 +47828,11 @@
       <c r="H291" s="266" t="s">
         <v>330</v>
       </c>
-      <c r="I291" s="998">
+      <c r="I291" s="962">
         <f>IF(S367="","",S367)</f>
         <v>43014</v>
       </c>
-      <c r="J291" s="998"/>
+      <c r="J291" s="962"/>
       <c r="K291" s="59"/>
       <c r="L291" s="59"/>
       <c r="M291" s="61"/>
@@ -47872,11 +47879,11 @@
       <c r="H292" s="162" t="s">
         <v>332</v>
       </c>
-      <c r="I292" s="999">
+      <c r="I292" s="963">
         <f>IF(S368="","",S368)</f>
         <v>43744</v>
       </c>
-      <c r="J292" s="999"/>
+      <c r="J292" s="963"/>
       <c r="K292" s="4"/>
       <c r="M292" s="69"/>
       <c r="O292" s="461"/>
@@ -47976,11 +47983,11 @@
       </c>
       <c r="B294" s="67"/>
       <c r="C294" s="162"/>
-      <c r="F294" s="966" t="s">
+      <c r="F294" s="961" t="s">
         <v>333</v>
       </c>
-      <c r="G294" s="966"/>
-      <c r="H294" s="966"/>
+      <c r="G294" s="961"/>
+      <c r="H294" s="961"/>
       <c r="I294" s="577"/>
       <c r="J294" s="577"/>
       <c r="K294" s="107"/>
@@ -51788,13 +51795,13 @@
       <c r="L369" s="68"/>
       <c r="M369" s="69"/>
       <c r="O369" s="30"/>
-      <c r="S369" s="966" t="s">
+      <c r="S369" s="961" t="s">
         <v>333</v>
       </c>
-      <c r="T369" s="966"/>
-      <c r="U369" s="966"/>
-      <c r="V369" s="966"/>
-      <c r="W369" s="966"/>
+      <c r="T369" s="961"/>
+      <c r="U369" s="961"/>
+      <c r="V369" s="961"/>
+      <c r="W369" s="961"/>
       <c r="Y369" s="32"/>
     </row>
     <row r="370" spans="1:25" ht="14.1" customHeight="1" thickBot="1">
@@ -51880,7 +51887,7 @@
       <c r="L371" s="68"/>
       <c r="M371" s="69"/>
       <c r="O371" s="30"/>
-      <c r="P371" s="973" t="str">
+      <c r="P371" s="990" t="str">
         <f>AK10&amp;"/"&amp;AL10</f>
         <v>/</v>
       </c>
@@ -51939,7 +51946,7 @@
       <c r="L372" s="68"/>
       <c r="M372" s="69"/>
       <c r="O372" s="30"/>
-      <c r="P372" s="974"/>
+      <c r="P372" s="991"/>
       <c r="Q372" s="307">
         <f>AH18</f>
         <v>25</v>
@@ -51993,7 +52000,7 @@
       <c r="L373" s="68"/>
       <c r="M373" s="69"/>
       <c r="O373" s="30"/>
-      <c r="P373" s="974"/>
+      <c r="P373" s="991"/>
       <c r="Q373" s="306">
         <f>AH26</f>
         <v>26</v>
@@ -52056,7 +52063,7 @@
       <c r="L374"/>
       <c r="M374" s="69"/>
       <c r="O374" s="30"/>
-      <c r="P374" s="974"/>
+      <c r="P374" s="991"/>
       <c r="Q374" s="306">
         <f>AH28</f>
         <v>28</v>
@@ -52119,7 +52126,7 @@
       <c r="L375"/>
       <c r="M375" s="69"/>
       <c r="O375" s="30"/>
-      <c r="P375" s="974"/>
+      <c r="P375" s="991"/>
       <c r="Q375" s="306">
         <f>AH40</f>
         <v>30</v>
@@ -52182,7 +52189,7 @@
       <c r="L376"/>
       <c r="M376" s="69"/>
       <c r="O376" s="30"/>
-      <c r="P376" s="974"/>
+      <c r="P376" s="991"/>
       <c r="Q376" s="306">
         <f>AH41</f>
         <v>32</v>
@@ -52245,7 +52252,7 @@
       <c r="L377"/>
       <c r="M377" s="69"/>
       <c r="O377" s="30"/>
-      <c r="P377" s="975"/>
+      <c r="P377" s="992"/>
       <c r="Q377" s="306">
         <f>AH49</f>
         <v>34</v>
@@ -52308,7 +52315,7 @@
       <c r="L378"/>
       <c r="M378" s="69"/>
       <c r="O378" s="30"/>
-      <c r="P378" s="967" t="str">
+      <c r="P378" s="999" t="str">
         <f>AK57&amp;"/"&amp;AL57</f>
         <v>/</v>
       </c>
@@ -52367,7 +52374,7 @@
       <c r="L379"/>
       <c r="M379" s="69"/>
       <c r="O379" s="161"/>
-      <c r="P379" s="968"/>
+      <c r="P379" s="1000"/>
       <c r="Q379" s="306">
         <f>AH65</f>
         <v>30</v>
@@ -52409,7 +52416,7 @@
       <c r="B380" s="67"/>
       <c r="M380" s="69"/>
       <c r="O380" s="30"/>
-      <c r="P380" s="968"/>
+      <c r="P380" s="1000"/>
       <c r="Q380" s="306">
         <f>AH73</f>
         <v>32</v>
@@ -52463,7 +52470,7 @@
       <c r="L381" s="68"/>
       <c r="M381" s="69"/>
       <c r="O381" s="30"/>
-      <c r="P381" s="968"/>
+      <c r="P381" s="1000"/>
       <c r="Q381" s="306">
         <f>AH81</f>
         <v>34</v>
@@ -52530,7 +52537,7 @@
       </c>
       <c r="M382" s="69"/>
       <c r="O382" s="30"/>
-      <c r="P382" s="968"/>
+      <c r="P382" s="1000"/>
       <c r="Q382" s="306">
         <f t="shared" ref="Q382:R384" si="71">AH89</f>
         <v>36</v>
@@ -52604,7 +52611,7 @@
       </c>
       <c r="M383" s="69"/>
       <c r="O383" s="30"/>
-      <c r="P383" s="969"/>
+      <c r="P383" s="1001"/>
       <c r="Q383" s="306">
         <f t="shared" si="71"/>
         <v>38</v>
@@ -52678,7 +52685,7 @@
       </c>
       <c r="M384" s="69"/>
       <c r="O384" s="30"/>
-      <c r="P384" s="967" t="str">
+      <c r="P384" s="999" t="str">
         <f>AK91&amp;"/"&amp;AL91</f>
         <v>/</v>
       </c>
@@ -52738,7 +52745,7 @@
       <c r="L385" s="68"/>
       <c r="M385" s="69"/>
       <c r="O385" s="30"/>
-      <c r="P385" s="968"/>
+      <c r="P385" s="1000"/>
       <c r="Q385" s="307">
         <f>AH101</f>
         <v>30</v>
@@ -52794,7 +52801,7 @@
       <c r="L386" s="68"/>
       <c r="M386" s="69"/>
       <c r="O386" s="30"/>
-      <c r="P386" s="968"/>
+      <c r="P386" s="1000"/>
       <c r="Q386" s="306">
         <f>AH109</f>
         <v>32</v>
@@ -52848,7 +52855,7 @@
       <c r="L387" s="68"/>
       <c r="M387" s="69"/>
       <c r="O387" s="30"/>
-      <c r="P387" s="968"/>
+      <c r="P387" s="1000"/>
       <c r="Q387" s="306">
         <f>AH117</f>
         <v>34</v>
@@ -52900,7 +52907,7 @@
       <c r="L388" s="68"/>
       <c r="M388" s="69"/>
       <c r="O388" s="30"/>
-      <c r="P388" s="969"/>
+      <c r="P388" s="1001"/>
       <c r="Q388" s="306">
         <f>AH125</f>
         <v>38</v>
@@ -54388,11 +54395,11 @@
       <c r="P420" s="673" t="s">
         <v>352</v>
       </c>
-      <c r="Q420" s="970" t="s">
+      <c r="Q420" s="1002" t="s">
         <v>353</v>
       </c>
-      <c r="R420" s="971"/>
-      <c r="S420" s="972"/>
+      <c r="R420" s="1003"/>
+      <c r="S420" s="1004"/>
       <c r="T420"/>
       <c r="U420"/>
       <c r="V420"/>
@@ -54955,12 +54962,12 @@
         <v>4</v>
       </c>
       <c r="B436" s="67"/>
-      <c r="E436" s="963" t="s">
+      <c r="E436" s="996" t="s">
         <v>803</v>
       </c>
-      <c r="F436" s="964"/>
-      <c r="G436" s="964"/>
-      <c r="H436" s="965"/>
+      <c r="F436" s="997"/>
+      <c r="G436" s="997"/>
+      <c r="H436" s="998"/>
       <c r="M436" s="69"/>
       <c r="O436" s="30"/>
       <c r="P436" s="35" t="s">
@@ -55659,14 +55666,14 @@
       <c r="W454" s="41"/>
       <c r="X454" s="41"/>
       <c r="Y454" s="42"/>
-      <c r="AA454" s="966" t="s">
+      <c r="AA454" s="961" t="s">
         <v>787</v>
       </c>
-      <c r="AB454" s="966"/>
-      <c r="AC454" s="966" t="s">
+      <c r="AB454" s="961"/>
+      <c r="AC454" s="961" t="s">
         <v>788</v>
       </c>
-      <c r="AD454" s="966"/>
+      <c r="AD454" s="961"/>
     </row>
     <row r="455" spans="1:30" ht="14.1" customHeight="1">
       <c r="A455" s="17">
@@ -56180,12 +56187,12 @@
       <c r="K467" s="489"/>
       <c r="L467" s="489"/>
       <c r="M467" s="69"/>
-      <c r="Q467" s="960" t="s">
+      <c r="Q467" s="993" t="s">
         <v>803</v>
       </c>
-      <c r="R467" s="961"/>
-      <c r="S467" s="961"/>
-      <c r="T467" s="962"/>
+      <c r="R467" s="994"/>
+      <c r="S467" s="994"/>
+      <c r="T467" s="995"/>
     </row>
     <row r="468" spans="1:28" ht="14.1" customHeight="1">
       <c r="A468" s="17">
@@ -57327,7 +57334,56 @@
     </row>
     <row r="518" spans="15:25" ht="14.1" customHeight="1" thickTop="1"/>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="65">
+    <mergeCell ref="Q467:T467"/>
+    <mergeCell ref="E436:H436"/>
+    <mergeCell ref="AA454:AB454"/>
+    <mergeCell ref="AC454:AD454"/>
+    <mergeCell ref="P378:P383"/>
+    <mergeCell ref="P384:P388"/>
+    <mergeCell ref="Q420:S420"/>
+    <mergeCell ref="Q194:S194"/>
+    <mergeCell ref="U194:W194"/>
+    <mergeCell ref="U245:W245"/>
+    <mergeCell ref="S369:W369"/>
+    <mergeCell ref="P371:P377"/>
+    <mergeCell ref="P129:R130"/>
+    <mergeCell ref="S129:U130"/>
+    <mergeCell ref="V129:X130"/>
+    <mergeCell ref="P173:S173"/>
+    <mergeCell ref="Q182:S182"/>
+    <mergeCell ref="U182:W182"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P121:R122"/>
+    <mergeCell ref="V121:X122"/>
+    <mergeCell ref="S121:U122"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="F294:H294"/>
     <mergeCell ref="I291:J291"/>
     <mergeCell ref="I292:J292"/>
@@ -57344,54 +57400,6 @@
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P121:R122"/>
-    <mergeCell ref="V121:X122"/>
-    <mergeCell ref="S121:U122"/>
-    <mergeCell ref="P129:R130"/>
-    <mergeCell ref="S129:U130"/>
-    <mergeCell ref="V129:X130"/>
-    <mergeCell ref="P173:S173"/>
-    <mergeCell ref="Q182:S182"/>
-    <mergeCell ref="U182:W182"/>
-    <mergeCell ref="Q194:S194"/>
-    <mergeCell ref="U194:W194"/>
-    <mergeCell ref="U245:W245"/>
-    <mergeCell ref="S369:W369"/>
-    <mergeCell ref="P371:P377"/>
-    <mergeCell ref="Q467:T467"/>
-    <mergeCell ref="E436:H436"/>
-    <mergeCell ref="AA454:AB454"/>
-    <mergeCell ref="AC454:AD454"/>
-    <mergeCell ref="P378:P383"/>
-    <mergeCell ref="P384:P388"/>
-    <mergeCell ref="Q420:S420"/>
   </mergeCells>
   <conditionalFormatting sqref="Q260:S260">
     <cfRule type="cellIs" dxfId="112" priority="166" stopIfTrue="1" operator="equal">
@@ -59716,41 +59724,41 @@
     </row>
     <row r="2" spans="1:30" ht="14.1" customHeight="1">
       <c r="A2" s="303"/>
-      <c r="B2" s="1004" t="s">
+      <c r="B2" s="1005" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1004"/>
-      <c r="D2" s="1004"/>
-      <c r="E2" s="1004"/>
-      <c r="F2" s="1004"/>
-      <c r="G2" s="1004"/>
-      <c r="H2" s="1004"/>
-      <c r="I2" s="1004"/>
-      <c r="J2" s="1004"/>
+      <c r="C2" s="1005"/>
+      <c r="D2" s="1005"/>
+      <c r="E2" s="1005"/>
+      <c r="F2" s="1005"/>
+      <c r="G2" s="1005"/>
+      <c r="H2" s="1005"/>
+      <c r="I2" s="1005"/>
+      <c r="J2" s="1005"/>
       <c r="K2" s="303"/>
-      <c r="L2" s="1004" t="s">
+      <c r="L2" s="1005" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="1004"/>
-      <c r="N2" s="1004"/>
-      <c r="O2" s="1004"/>
-      <c r="P2" s="1004"/>
-      <c r="Q2" s="1004"/>
-      <c r="R2" s="1004"/>
-      <c r="S2" s="1004"/>
-      <c r="T2" s="1004"/>
+      <c r="M2" s="1005"/>
+      <c r="N2" s="1005"/>
+      <c r="O2" s="1005"/>
+      <c r="P2" s="1005"/>
+      <c r="Q2" s="1005"/>
+      <c r="R2" s="1005"/>
+      <c r="S2" s="1005"/>
+      <c r="T2" s="1005"/>
       <c r="U2" s="303"/>
-      <c r="V2" s="1004" t="s">
+      <c r="V2" s="1005" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="1004"/>
-      <c r="X2" s="1004"/>
-      <c r="Y2" s="1004"/>
-      <c r="Z2" s="1004"/>
-      <c r="AA2" s="1004"/>
-      <c r="AB2" s="1004"/>
-      <c r="AC2" s="1004"/>
-      <c r="AD2" s="1004"/>
+      <c r="W2" s="1005"/>
+      <c r="X2" s="1005"/>
+      <c r="Y2" s="1005"/>
+      <c r="Z2" s="1005"/>
+      <c r="AA2" s="1005"/>
+      <c r="AB2" s="1005"/>
+      <c r="AC2" s="1005"/>
+      <c r="AD2" s="1005"/>
     </row>
     <row r="3" spans="1:30" ht="14.1" customHeight="1">
       <c r="A3" s="206" t="s">
@@ -61210,36 +61218,36 @@
     </row>
     <row r="26" spans="1:30" ht="14.1" customHeight="1">
       <c r="A26" s="303"/>
-      <c r="B26" s="1005" t="s">
+      <c r="B26" s="1006" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="1005"/>
-      <c r="D26" s="1005"/>
-      <c r="E26" s="1005"/>
-      <c r="F26" s="1005"/>
-      <c r="G26" s="1005"/>
-      <c r="H26" s="1005"/>
-      <c r="I26" s="1005"/>
-      <c r="J26" s="1005"/>
-      <c r="K26" s="1005"/>
-      <c r="L26" s="1005"/>
+      <c r="C26" s="1006"/>
+      <c r="D26" s="1006"/>
+      <c r="E26" s="1006"/>
+      <c r="F26" s="1006"/>
+      <c r="G26" s="1006"/>
+      <c r="H26" s="1006"/>
+      <c r="I26" s="1006"/>
+      <c r="J26" s="1006"/>
+      <c r="K26" s="1006"/>
+      <c r="L26" s="1006"/>
       <c r="M26" s="218"/>
       <c r="N26" s="303"/>
-      <c r="O26" s="1004" t="s">
+      <c r="O26" s="1005" t="s">
         <v>24</v>
       </c>
-      <c r="P26" s="1004"/>
-      <c r="Q26" s="1004"/>
-      <c r="R26" s="1004"/>
-      <c r="S26" s="1004"/>
-      <c r="T26" s="1004"/>
-      <c r="U26" s="1004"/>
-      <c r="V26" s="1004"/>
-      <c r="W26" s="1004"/>
-      <c r="X26" s="1004"/>
-      <c r="Y26" s="1004"/>
-      <c r="Z26" s="1004"/>
-      <c r="AA26" s="1004"/>
+      <c r="P26" s="1005"/>
+      <c r="Q26" s="1005"/>
+      <c r="R26" s="1005"/>
+      <c r="S26" s="1005"/>
+      <c r="T26" s="1005"/>
+      <c r="U26" s="1005"/>
+      <c r="V26" s="1005"/>
+      <c r="W26" s="1005"/>
+      <c r="X26" s="1005"/>
+      <c r="Y26" s="1005"/>
+      <c r="Z26" s="1005"/>
+      <c r="AA26" s="1005"/>
     </row>
     <row r="27" spans="1:30" ht="14.1" customHeight="1">
       <c r="A27" s="206" t="s">
@@ -63073,26 +63081,26 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="14.1" customHeight="1">
-      <c r="B51" s="1006" t="s">
+      <c r="B51" s="1007" t="s">
         <v>426</v>
       </c>
-      <c r="C51" s="1006" t="s">
+      <c r="C51" s="1007" t="s">
         <v>427</v>
       </c>
-      <c r="D51" s="1008" t="s">
+      <c r="D51" s="1009" t="s">
         <v>428</v>
       </c>
-      <c r="E51" s="1009"/>
-      <c r="F51" s="1009"/>
-      <c r="G51" s="1009"/>
-      <c r="H51" s="1009"/>
-      <c r="I51" s="1009"/>
-      <c r="J51" s="1009"/>
-      <c r="K51" s="1010"/>
+      <c r="E51" s="1010"/>
+      <c r="F51" s="1010"/>
+      <c r="G51" s="1010"/>
+      <c r="H51" s="1010"/>
+      <c r="I51" s="1010"/>
+      <c r="J51" s="1010"/>
+      <c r="K51" s="1011"/>
     </row>
     <row r="52" spans="1:19" ht="14.1" customHeight="1">
-      <c r="B52" s="1007"/>
-      <c r="C52" s="1007"/>
+      <c r="B52" s="1008"/>
+      <c r="C52" s="1008"/>
       <c r="D52" s="233">
         <v>0.25</v>
       </c>
@@ -63387,11 +63395,11 @@
       <c r="L62" s="711" t="s">
         <v>334</v>
       </c>
-      <c r="O62" s="988"/>
-      <c r="P62" s="988"/>
-      <c r="Q62" s="988"/>
-      <c r="R62" s="988"/>
-      <c r="S62" s="988"/>
+      <c r="O62" s="968"/>
+      <c r="P62" s="968"/>
+      <c r="Q62" s="968"/>
+      <c r="R62" s="968"/>
+      <c r="S62" s="968"/>
     </row>
     <row r="63" spans="1:19" ht="14.1" customHeight="1">
       <c r="A63" s="711" t="str">

--- a/MUSCMammoSiemens.xlsx
+++ b/MUSCMammoSiemens.xlsx
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="799">
   <si>
     <t>Print Area</t>
   </si>
@@ -3253,9 +3253,6 @@
   </si>
   <si>
     <t>Piranha</t>
-  </si>
-  <si>
-    <t>CB2-17090320</t>
   </si>
   <si>
     <t>Mass</t>
@@ -8978,9 +8975,279 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="17" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="73" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="73" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="74" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="73" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="20" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="185" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="20" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="20" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="186" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="19" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="185" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="23" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="23" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="23" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="23" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="23" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="23" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="148" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="146" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="147" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8993,6 +9260,18 @@
     <xf numFmtId="0" fontId="26" fillId="18" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9020,24 +9299,51 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="149" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -9050,44 +9356,101 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="191" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9107,9 +9470,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="196" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9128,99 +9488,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9240,276 +9507,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="23" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="23" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="23" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="23" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="23" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="23" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="17" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="148" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="146" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="147" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="73" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="73" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="74" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="73" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="20" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="185" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="20" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="20" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="186" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="19" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="185" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11833,7 +11830,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11910,7 +11906,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -12241,7 +12236,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12318,7 +12312,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -12637,7 +12630,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12714,7 +12706,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -13040,7 +13031,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13117,7 +13107,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -13441,7 +13430,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13527,7 +13515,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -13675,7 +13662,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -13805,7 +13791,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -13945,7 +13930,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14064,7 +14048,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14157,7 +14140,6 @@
         <c:idx val="5"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14264,7 +14246,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14350,7 +14331,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -14498,7 +14478,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -14628,7 +14607,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -14768,7 +14746,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14888,7 +14865,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14981,7 +14957,6 @@
         <c:idx val="5"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -27413,1016 +27388,1018 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="918" t="s">
+      <c r="A1" s="892" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="918"/>
-      <c r="C1" s="918"/>
-      <c r="D1" s="918"/>
-      <c r="E1" s="918"/>
-      <c r="F1" s="918"/>
-      <c r="G1" s="918"/>
-      <c r="H1" s="918"/>
-      <c r="I1" s="918"/>
-      <c r="J1" s="918"/>
-      <c r="K1" s="918"/>
-      <c r="L1" s="918"/>
-      <c r="M1" s="918"/>
-      <c r="N1" s="918"/>
+      <c r="B1" s="892"/>
+      <c r="C1" s="892"/>
+      <c r="D1" s="892"/>
+      <c r="E1" s="892"/>
+      <c r="F1" s="892"/>
+      <c r="G1" s="892"/>
+      <c r="H1" s="892"/>
+      <c r="I1" s="892"/>
+      <c r="J1" s="892"/>
+      <c r="K1" s="892"/>
+      <c r="L1" s="892"/>
+      <c r="M1" s="892"/>
+      <c r="N1" s="892"/>
     </row>
     <row r="2" spans="1:14" ht="26.25">
-      <c r="A2" s="918" t="s">
+      <c r="A2" s="892" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="918"/>
-      <c r="C2" s="918"/>
-      <c r="D2" s="918"/>
-      <c r="E2" s="918"/>
-      <c r="F2" s="918"/>
-      <c r="G2" s="918"/>
-      <c r="H2" s="918"/>
-      <c r="I2" s="918"/>
-      <c r="J2" s="918"/>
-      <c r="K2" s="918"/>
-      <c r="L2" s="918"/>
-      <c r="M2" s="918"/>
-      <c r="N2" s="918"/>
+      <c r="B2" s="892"/>
+      <c r="C2" s="892"/>
+      <c r="D2" s="892"/>
+      <c r="E2" s="892"/>
+      <c r="F2" s="892"/>
+      <c r="G2" s="892"/>
+      <c r="H2" s="892"/>
+      <c r="I2" s="892"/>
+      <c r="J2" s="892"/>
+      <c r="K2" s="892"/>
+      <c r="L2" s="892"/>
+      <c r="M2" s="892"/>
+      <c r="N2" s="892"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A3" s="919"/>
-      <c r="B3" s="919"/>
-      <c r="C3" s="919"/>
-      <c r="D3" s="919"/>
-      <c r="E3" s="919"/>
-      <c r="F3" s="919"/>
-      <c r="G3" s="919"/>
-      <c r="H3" s="919"/>
-      <c r="I3" s="919"/>
-      <c r="J3" s="919"/>
-      <c r="K3" s="919"/>
-      <c r="L3" s="919"/>
-      <c r="M3" s="919"/>
-      <c r="N3" s="919"/>
+      <c r="A3" s="830"/>
+      <c r="B3" s="830"/>
+      <c r="C3" s="830"/>
+      <c r="D3" s="830"/>
+      <c r="E3" s="830"/>
+      <c r="F3" s="830"/>
+      <c r="G3" s="830"/>
+      <c r="H3" s="830"/>
+      <c r="I3" s="830"/>
+      <c r="J3" s="830"/>
+      <c r="K3" s="830"/>
+      <c r="L3" s="830"/>
+      <c r="M3" s="830"/>
+      <c r="N3" s="830"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A4" s="920" t="s">
+      <c r="A4" s="831" t="s">
         <v>375</v>
       </c>
-      <c r="B4" s="920"/>
-      <c r="C4" s="921"/>
-      <c r="D4" s="922"/>
-      <c r="E4" s="922"/>
-      <c r="F4" s="922"/>
-      <c r="G4" s="922"/>
-      <c r="H4" s="923"/>
-      <c r="J4" s="924"/>
-      <c r="K4" s="925" t="s">
+      <c r="B4" s="831"/>
+      <c r="C4" s="893"/>
+      <c r="D4" s="894"/>
+      <c r="E4" s="894"/>
+      <c r="F4" s="894"/>
+      <c r="G4" s="894"/>
+      <c r="H4" s="895"/>
+      <c r="J4" s="832"/>
+      <c r="K4" s="833" t="s">
         <v>376</v>
       </c>
-      <c r="L4" s="926"/>
-      <c r="M4" s="927"/>
-      <c r="N4" s="928"/>
+      <c r="L4" s="896"/>
+      <c r="M4" s="897"/>
+      <c r="N4" s="898"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A5" s="920" t="s">
+      <c r="A5" s="831" t="s">
         <v>377</v>
       </c>
-      <c r="B5" s="920"/>
-      <c r="C5" s="921"/>
-      <c r="D5" s="922"/>
-      <c r="E5" s="922"/>
-      <c r="F5" s="922"/>
-      <c r="G5" s="922"/>
-      <c r="H5" s="923"/>
-      <c r="J5" s="924"/>
-      <c r="K5" s="925" t="s">
+      <c r="B5" s="831"/>
+      <c r="C5" s="893"/>
+      <c r="D5" s="894"/>
+      <c r="E5" s="894"/>
+      <c r="F5" s="894"/>
+      <c r="G5" s="894"/>
+      <c r="H5" s="895"/>
+      <c r="J5" s="832"/>
+      <c r="K5" s="833" t="s">
         <v>378</v>
       </c>
-      <c r="L5" s="926">
+      <c r="L5" s="896">
         <f>Sheet1!P7</f>
         <v>0</v>
       </c>
-      <c r="M5" s="927"/>
-      <c r="N5" s="928"/>
+      <c r="M5" s="897"/>
+      <c r="N5" s="898"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A6" s="920" t="s">
+      <c r="A6" s="831" t="s">
         <v>379</v>
       </c>
-      <c r="B6" s="920"/>
-      <c r="C6" s="920"/>
-      <c r="D6" s="920"/>
-      <c r="E6" s="929" t="s">
+      <c r="B6" s="831"/>
+      <c r="C6" s="831"/>
+      <c r="D6" s="831"/>
+      <c r="E6" s="904" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="929"/>
-      <c r="G6" s="929"/>
-      <c r="H6" s="929"/>
-      <c r="J6" s="924"/>
-      <c r="K6" s="925" t="s">
+      <c r="F6" s="904"/>
+      <c r="G6" s="904"/>
+      <c r="H6" s="904"/>
+      <c r="J6" s="832"/>
+      <c r="K6" s="833" t="s">
         <v>380</v>
       </c>
-      <c r="L6" s="921"/>
-      <c r="M6" s="922"/>
-      <c r="N6" s="923"/>
+      <c r="L6" s="893"/>
+      <c r="M6" s="894"/>
+      <c r="N6" s="895"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A7" s="920" t="s">
+      <c r="A7" s="831" t="s">
         <v>381</v>
       </c>
-      <c r="B7" s="920"/>
-      <c r="C7" s="920"/>
-      <c r="D7" s="920"/>
-      <c r="E7" s="921" t="s">
+      <c r="B7" s="831"/>
+      <c r="C7" s="831"/>
+      <c r="D7" s="831"/>
+      <c r="E7" s="893" t="s">
         <v>382</v>
       </c>
-      <c r="F7" s="922"/>
-      <c r="G7" s="922"/>
-      <c r="H7" s="923"/>
-      <c r="J7" s="924"/>
-      <c r="K7" s="925" t="s">
+      <c r="F7" s="894"/>
+      <c r="G7" s="894"/>
+      <c r="H7" s="895"/>
+      <c r="J7" s="832"/>
+      <c r="K7" s="833" t="s">
         <v>383</v>
       </c>
-      <c r="L7" s="921" t="s">
+      <c r="L7" s="893" t="s">
         <v>765</v>
       </c>
-      <c r="M7" s="922"/>
-      <c r="N7" s="923"/>
+      <c r="M7" s="894"/>
+      <c r="N7" s="895"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A8" s="920" t="s">
+      <c r="A8" s="831" t="s">
         <v>384</v>
       </c>
-      <c r="B8" s="920"/>
-      <c r="C8" s="920"/>
-      <c r="D8" s="920"/>
-      <c r="E8" s="930" t="str">
+      <c r="B8" s="831"/>
+      <c r="C8" s="831"/>
+      <c r="D8" s="831"/>
+      <c r="E8" s="905" t="str">
         <f>Sheet1!K12</f>
         <v/>
       </c>
-      <c r="F8" s="931"/>
-      <c r="G8" s="931"/>
-      <c r="H8" s="932"/>
-      <c r="J8" s="924"/>
-      <c r="K8" s="925" t="s">
+      <c r="F8" s="906"/>
+      <c r="G8" s="906"/>
+      <c r="H8" s="907"/>
+      <c r="J8" s="832"/>
+      <c r="K8" s="833" t="s">
         <v>385</v>
       </c>
-      <c r="L8" s="921" t="str">
+      <c r="L8" s="893" t="str">
         <f>Sheet1!R14</f>
         <v/>
       </c>
-      <c r="M8" s="922"/>
-      <c r="N8" s="923"/>
+      <c r="M8" s="894"/>
+      <c r="N8" s="895"/>
     </row>
     <row r="9" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A9" s="920"/>
-      <c r="B9" s="920"/>
-      <c r="C9" s="920"/>
-      <c r="D9" s="920"/>
-      <c r="E9" s="933"/>
-      <c r="F9" s="934"/>
-      <c r="G9" s="934"/>
-      <c r="H9" s="934"/>
-      <c r="J9" s="924"/>
-      <c r="K9" s="925"/>
-      <c r="L9" s="934"/>
-      <c r="M9" s="934"/>
-      <c r="N9" s="934"/>
+      <c r="A9" s="831"/>
+      <c r="B9" s="831"/>
+      <c r="C9" s="831"/>
+      <c r="D9" s="831"/>
+      <c r="E9" s="834"/>
+      <c r="F9" s="835"/>
+      <c r="G9" s="835"/>
+      <c r="H9" s="835"/>
+      <c r="J9" s="832"/>
+      <c r="K9" s="833"/>
+      <c r="L9" s="835"/>
+      <c r="M9" s="835"/>
+      <c r="N9" s="835"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A10" s="935" t="s">
+      <c r="A10" s="836" t="s">
         <v>547</v>
       </c>
-      <c r="E10" s="936" t="s">
+      <c r="E10" s="908" t="s">
         <v>617</v>
       </c>
-      <c r="F10" s="937"/>
-      <c r="G10" s="937"/>
-      <c r="H10" s="938"/>
-      <c r="I10" s="939" t="s">
+      <c r="F10" s="909"/>
+      <c r="G10" s="909"/>
+      <c r="H10" s="910"/>
+      <c r="I10" s="837" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="11.25" customHeight="1">
-      <c r="C11" s="920"/>
-      <c r="D11" s="920"/>
-      <c r="E11" s="920"/>
-      <c r="F11" s="920"/>
-      <c r="G11" s="920"/>
-      <c r="H11" s="924"/>
-      <c r="I11" s="924"/>
-      <c r="K11" s="940"/>
-      <c r="L11" s="940"/>
-      <c r="M11" s="940"/>
-      <c r="N11" s="940"/>
+      <c r="C11" s="831"/>
+      <c r="D11" s="831"/>
+      <c r="E11" s="831"/>
+      <c r="F11" s="831"/>
+      <c r="G11" s="831"/>
+      <c r="H11" s="832"/>
+      <c r="I11" s="832"/>
+      <c r="K11" s="838"/>
+      <c r="L11" s="838"/>
+      <c r="M11" s="838"/>
+      <c r="N11" s="838"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A12" s="920" t="s">
+      <c r="A12" s="831" t="s">
         <v>387</v>
       </c>
-      <c r="B12" s="920"/>
-      <c r="C12" s="920"/>
-      <c r="D12" s="920"/>
-      <c r="E12" s="941" t="s">
+      <c r="B12" s="831"/>
+      <c r="C12" s="831"/>
+      <c r="D12" s="831"/>
+      <c r="E12" s="911" t="s">
         <v>388</v>
       </c>
-      <c r="F12" s="942"/>
-      <c r="G12" s="941" t="s">
+      <c r="F12" s="912"/>
+      <c r="G12" s="911" t="s">
         <v>383</v>
       </c>
-      <c r="H12" s="942"/>
-      <c r="I12" s="941" t="s">
+      <c r="H12" s="912"/>
+      <c r="I12" s="911" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="942"/>
-      <c r="K12" s="941" t="s">
+      <c r="J12" s="912"/>
+      <c r="K12" s="911" t="s">
         <v>386</v>
       </c>
-      <c r="L12" s="943"/>
-      <c r="M12" s="943"/>
-      <c r="N12" s="942"/>
+      <c r="L12" s="913"/>
+      <c r="M12" s="913"/>
+      <c r="N12" s="912"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A13" s="920"/>
-      <c r="B13" s="920"/>
-      <c r="C13" s="920"/>
-      <c r="D13" s="944" t="s">
+      <c r="A13" s="831"/>
+      <c r="B13" s="831"/>
+      <c r="C13" s="831"/>
+      <c r="D13" s="839" t="s">
         <v>389</v>
       </c>
-      <c r="E13" s="945" t="s">
+      <c r="E13" s="899" t="s">
         <v>767</v>
       </c>
-      <c r="F13" s="946"/>
-      <c r="G13" s="945" t="s">
+      <c r="F13" s="900"/>
+      <c r="G13" s="899" t="s">
         <v>768</v>
       </c>
-      <c r="H13" s="946"/>
-      <c r="I13" s="947"/>
-      <c r="J13" s="948"/>
-      <c r="K13" s="945" t="s">
+      <c r="H13" s="900"/>
+      <c r="I13" s="901"/>
+      <c r="J13" s="902"/>
+      <c r="K13" s="899" t="s">
         <v>769</v>
       </c>
-      <c r="L13" s="949"/>
-      <c r="M13" s="949"/>
-      <c r="N13" s="946"/>
+      <c r="L13" s="903"/>
+      <c r="M13" s="903"/>
+      <c r="N13" s="900"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
-      <c r="D14" s="944" t="s">
+      <c r="D14" s="839" t="s">
         <v>390</v>
       </c>
-      <c r="E14" s="950"/>
-      <c r="F14" s="951"/>
-      <c r="G14" s="950"/>
-      <c r="H14" s="951"/>
-      <c r="I14" s="952"/>
-      <c r="J14" s="953"/>
-      <c r="K14" s="950"/>
-      <c r="L14" s="954"/>
-      <c r="M14" s="954"/>
-      <c r="N14" s="951"/>
+      <c r="E14" s="916"/>
+      <c r="F14" s="917"/>
+      <c r="G14" s="916"/>
+      <c r="H14" s="917"/>
+      <c r="I14" s="918"/>
+      <c r="J14" s="919"/>
+      <c r="K14" s="916"/>
+      <c r="L14" s="920"/>
+      <c r="M14" s="920"/>
+      <c r="N14" s="917"/>
     </row>
     <row r="15" spans="1:14" ht="36" customHeight="1">
-      <c r="A15" s="831" t="s">
+      <c r="A15" s="921" t="s">
         <v>728</v>
       </c>
-      <c r="B15" s="831"/>
-      <c r="C15" s="831"/>
-      <c r="D15" s="831"/>
-      <c r="E15" s="831"/>
-      <c r="F15" s="831"/>
-      <c r="G15" s="831"/>
-      <c r="H15" s="831"/>
-      <c r="I15" s="831"/>
-      <c r="J15" s="831"/>
-      <c r="K15" s="831"/>
-      <c r="L15" s="831"/>
-      <c r="M15" s="831"/>
-      <c r="N15" s="831"/>
+      <c r="B15" s="921"/>
+      <c r="C15" s="921"/>
+      <c r="D15" s="921"/>
+      <c r="E15" s="921"/>
+      <c r="F15" s="921"/>
+      <c r="G15" s="921"/>
+      <c r="H15" s="921"/>
+      <c r="I15" s="921"/>
+      <c r="J15" s="921"/>
+      <c r="K15" s="921"/>
+      <c r="L15" s="921"/>
+      <c r="M15" s="921"/>
+      <c r="N15" s="921"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A16" s="935" t="s">
+      <c r="A16" s="836" t="s">
         <v>391</v>
       </c>
-      <c r="B16" s="935"/>
-      <c r="C16" s="955"/>
-      <c r="D16" s="956" t="s">
+      <c r="B16" s="836"/>
+      <c r="C16" s="840"/>
+      <c r="D16" s="841" t="s">
         <v>729</v>
       </c>
-      <c r="E16" s="956"/>
-      <c r="F16" s="956"/>
-      <c r="G16" s="957"/>
-      <c r="H16" s="958"/>
-      <c r="I16" s="959"/>
-      <c r="J16" s="957"/>
-      <c r="K16" s="956"/>
-      <c r="L16" s="956"/>
-      <c r="N16" s="944" t="s">
+      <c r="E16" s="841"/>
+      <c r="F16" s="841"/>
+      <c r="G16" s="842"/>
+      <c r="H16" s="843"/>
+      <c r="I16" s="844"/>
+      <c r="J16" s="842"/>
+      <c r="K16" s="841"/>
+      <c r="L16" s="841"/>
+      <c r="N16" s="839" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="967" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A17" s="960" t="s">
+    <row r="17" spans="1:15" s="852" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="845" t="s">
         <v>730</v>
       </c>
-      <c r="B17" s="961"/>
-      <c r="C17" s="962"/>
-      <c r="D17" s="963" t="s">
+      <c r="B17" s="846"/>
+      <c r="C17" s="847"/>
+      <c r="D17" s="848" t="s">
         <v>619</v>
       </c>
-      <c r="E17" s="962"/>
-      <c r="F17" s="963" t="s">
+      <c r="E17" s="847"/>
+      <c r="F17" s="848" t="s">
         <v>731</v>
       </c>
-      <c r="G17" s="964"/>
-      <c r="H17" s="965"/>
-      <c r="I17" s="966"/>
-      <c r="J17" s="966"/>
-      <c r="K17" s="966"/>
-      <c r="L17" s="966"/>
-      <c r="M17" s="966"/>
-      <c r="N17" s="966"/>
-      <c r="O17" s="962"/>
+      <c r="G17" s="849"/>
+      <c r="H17" s="850"/>
+      <c r="I17" s="851"/>
+      <c r="J17" s="851"/>
+      <c r="K17" s="851"/>
+      <c r="L17" s="851"/>
+      <c r="M17" s="851"/>
+      <c r="N17" s="851"/>
+      <c r="O17" s="847"/>
     </row>
     <row r="18" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A18" s="968"/>
-      <c r="B18" s="968"/>
-      <c r="C18" s="967"/>
-      <c r="D18" s="969"/>
-      <c r="E18" s="967"/>
-      <c r="F18" s="967"/>
-      <c r="G18" s="969"/>
-      <c r="H18" s="970"/>
-      <c r="I18" s="971"/>
-      <c r="J18" s="971"/>
-      <c r="K18" s="971"/>
-      <c r="L18" s="971"/>
-      <c r="M18" s="971"/>
+      <c r="A18" s="853"/>
+      <c r="B18" s="853"/>
+      <c r="C18" s="852"/>
+      <c r="D18" s="854"/>
+      <c r="E18" s="852"/>
+      <c r="F18" s="852"/>
+      <c r="G18" s="854"/>
+      <c r="H18" s="855"/>
+      <c r="I18" s="856"/>
+      <c r="J18" s="856"/>
+      <c r="K18" s="856"/>
+      <c r="L18" s="856"/>
+      <c r="M18" s="856"/>
     </row>
     <row r="19" spans="1:15" ht="21" customHeight="1">
-      <c r="A19" s="832" t="s">
+      <c r="A19" s="922" t="s">
         <v>393</v>
       </c>
-      <c r="B19" s="832"/>
-      <c r="C19" s="832"/>
-      <c r="D19" s="832"/>
-      <c r="E19" s="832"/>
-      <c r="F19" s="832"/>
-      <c r="G19" s="832"/>
-      <c r="H19" s="832"/>
-      <c r="I19" s="832"/>
-      <c r="J19" s="832"/>
-      <c r="K19" s="832"/>
-      <c r="L19" s="832"/>
-      <c r="M19" s="832"/>
-      <c r="N19" s="832"/>
+      <c r="B19" s="922"/>
+      <c r="C19" s="922"/>
+      <c r="D19" s="922"/>
+      <c r="E19" s="922"/>
+      <c r="F19" s="922"/>
+      <c r="G19" s="922"/>
+      <c r="H19" s="922"/>
+      <c r="I19" s="922"/>
+      <c r="J19" s="922"/>
+      <c r="K19" s="922"/>
+      <c r="L19" s="922"/>
+      <c r="M19" s="922"/>
+      <c r="N19" s="922"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="830" t="s">
+      <c r="A20" s="914" t="s">
         <v>545</v>
       </c>
-      <c r="B20" s="830"/>
-      <c r="C20" s="830"/>
-      <c r="D20" s="830"/>
-      <c r="E20" s="830"/>
-      <c r="F20" s="830"/>
-      <c r="G20" s="830"/>
-      <c r="H20" s="830"/>
-      <c r="I20" s="830"/>
-      <c r="J20" s="830"/>
-      <c r="K20" s="830"/>
-      <c r="L20" s="830"/>
-      <c r="M20" s="830"/>
-      <c r="N20" s="830"/>
+      <c r="B20" s="914"/>
+      <c r="C20" s="914"/>
+      <c r="D20" s="914"/>
+      <c r="E20" s="914"/>
+      <c r="F20" s="914"/>
+      <c r="G20" s="914"/>
+      <c r="H20" s="914"/>
+      <c r="I20" s="914"/>
+      <c r="J20" s="914"/>
+      <c r="K20" s="914"/>
+      <c r="L20" s="914"/>
+      <c r="M20" s="914"/>
+      <c r="N20" s="914"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
-      <c r="A21" s="920"/>
-      <c r="B21" s="920"/>
-      <c r="C21" s="920"/>
-      <c r="D21" s="920"/>
-      <c r="E21" s="920"/>
-      <c r="F21" s="920"/>
-      <c r="G21" s="920"/>
-      <c r="H21" s="920"/>
-      <c r="I21" s="920"/>
-      <c r="J21" s="920"/>
-      <c r="K21" s="920"/>
-      <c r="L21" s="920"/>
-      <c r="M21" s="920"/>
-      <c r="N21" s="972" t="s">
+      <c r="A21" s="831"/>
+      <c r="B21" s="831"/>
+      <c r="C21" s="831"/>
+      <c r="D21" s="831"/>
+      <c r="E21" s="831"/>
+      <c r="F21" s="831"/>
+      <c r="G21" s="831"/>
+      <c r="H21" s="831"/>
+      <c r="I21" s="831"/>
+      <c r="J21" s="831"/>
+      <c r="K21" s="831"/>
+      <c r="L21" s="831"/>
+      <c r="M21" s="831"/>
+      <c r="N21" s="857" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A22" s="973" t="s">
+      <c r="A22" s="858" t="s">
         <v>732</v>
       </c>
-      <c r="B22" s="973"/>
-      <c r="C22" s="973"/>
-      <c r="D22" s="973"/>
-      <c r="E22" s="973"/>
-      <c r="F22" s="973"/>
-      <c r="G22" s="973"/>
-      <c r="H22" s="973"/>
-      <c r="I22" s="973"/>
-      <c r="J22" s="973"/>
-      <c r="K22" s="973"/>
-      <c r="L22" s="973"/>
-      <c r="M22" s="973"/>
-      <c r="N22" s="974" t="str">
+      <c r="B22" s="858"/>
+      <c r="C22" s="858"/>
+      <c r="D22" s="858"/>
+      <c r="E22" s="858"/>
+      <c r="F22" s="858"/>
+      <c r="G22" s="858"/>
+      <c r="H22" s="858"/>
+      <c r="I22" s="858"/>
+      <c r="J22" s="858"/>
+      <c r="K22" s="858"/>
+      <c r="L22" s="858"/>
+      <c r="M22" s="858"/>
+      <c r="N22" s="859" t="str">
         <f>Sheet1!Q453</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A23" s="973"/>
-      <c r="B23" s="973"/>
-      <c r="C23" s="975" t="s">
+      <c r="A23" s="858"/>
+      <c r="B23" s="858"/>
+      <c r="C23" s="860" t="s">
         <v>543</v>
       </c>
-      <c r="D23" s="973"/>
-      <c r="E23" s="973"/>
-      <c r="F23" s="973"/>
-      <c r="G23" s="973"/>
-      <c r="H23" s="973"/>
-      <c r="I23" s="973"/>
-      <c r="J23" s="973"/>
-      <c r="K23" s="973"/>
-      <c r="L23" s="973"/>
-      <c r="M23" s="973"/>
+      <c r="D23" s="858"/>
+      <c r="E23" s="858"/>
+      <c r="F23" s="858"/>
+      <c r="G23" s="858"/>
+      <c r="H23" s="858"/>
+      <c r="I23" s="858"/>
+      <c r="J23" s="858"/>
+      <c r="K23" s="858"/>
+      <c r="L23" s="858"/>
+      <c r="M23" s="858"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A24" s="973"/>
-      <c r="B24" s="973"/>
-      <c r="C24" s="976" t="s">
+      <c r="A24" s="858"/>
+      <c r="B24" s="858"/>
+      <c r="C24" s="861" t="s">
         <v>542</v>
       </c>
-      <c r="D24" s="973"/>
-      <c r="E24" s="973"/>
-      <c r="F24" s="973"/>
-      <c r="G24" s="973"/>
-      <c r="H24" s="973"/>
-      <c r="I24" s="973"/>
-      <c r="J24" s="973"/>
-      <c r="K24" s="973"/>
-      <c r="L24" s="973"/>
-      <c r="M24" s="973"/>
+      <c r="D24" s="858"/>
+      <c r="E24" s="858"/>
+      <c r="F24" s="858"/>
+      <c r="G24" s="858"/>
+      <c r="H24" s="858"/>
+      <c r="I24" s="858"/>
+      <c r="J24" s="858"/>
+      <c r="K24" s="858"/>
+      <c r="L24" s="858"/>
+      <c r="M24" s="858"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A25" s="977"/>
-      <c r="B25" s="977"/>
-      <c r="C25" s="978" t="s">
+      <c r="A25" s="862"/>
+      <c r="B25" s="862"/>
+      <c r="C25" s="863" t="s">
         <v>397</v>
       </c>
-      <c r="D25" s="975"/>
-      <c r="E25" s="975"/>
-      <c r="F25" s="979"/>
-      <c r="G25" s="979" t="s">
+      <c r="D25" s="860"/>
+      <c r="E25" s="860"/>
+      <c r="F25" s="864"/>
+      <c r="G25" s="864" t="s">
         <v>361</v>
       </c>
-      <c r="H25" s="980">
+      <c r="H25" s="865">
         <f>Sheet1!Q450</f>
         <v>0</v>
       </c>
-      <c r="I25" s="979" t="s">
+      <c r="I25" s="864" t="s">
         <v>362</v>
       </c>
-      <c r="J25" s="980">
+      <c r="J25" s="865">
         <f>Sheet1!Q451</f>
         <v>0</v>
       </c>
-      <c r="K25" s="979" t="s">
+      <c r="K25" s="864" t="s">
         <v>363</v>
       </c>
-      <c r="L25" s="980">
+      <c r="L25" s="865">
         <f>Sheet1!Q452</f>
         <v>0</v>
       </c>
-      <c r="M25" s="981"/>
-      <c r="N25" s="977"/>
+      <c r="M25" s="866"/>
+      <c r="N25" s="862"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A26" s="973" t="s">
+      <c r="A26" s="858" t="s">
         <v>733</v>
       </c>
-      <c r="B26" s="973"/>
-      <c r="C26" s="973"/>
-      <c r="D26" s="973"/>
-      <c r="E26" s="973"/>
-      <c r="F26" s="973"/>
-      <c r="G26" s="973"/>
-      <c r="H26" s="973"/>
-      <c r="I26" s="973"/>
-      <c r="J26" s="973"/>
-      <c r="K26" s="973"/>
-      <c r="L26" s="973"/>
-      <c r="M26" s="973"/>
-      <c r="N26" s="974"/>
+      <c r="B26" s="858"/>
+      <c r="C26" s="858"/>
+      <c r="D26" s="858"/>
+      <c r="E26" s="858"/>
+      <c r="F26" s="858"/>
+      <c r="G26" s="858"/>
+      <c r="H26" s="858"/>
+      <c r="I26" s="858"/>
+      <c r="J26" s="858"/>
+      <c r="K26" s="858"/>
+      <c r="L26" s="858"/>
+      <c r="M26" s="858"/>
+      <c r="N26" s="859"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A27" s="973" t="s">
+      <c r="A27" s="858" t="s">
         <v>734</v>
       </c>
-      <c r="B27" s="973"/>
-      <c r="C27" s="973"/>
-      <c r="D27" s="973"/>
-      <c r="E27" s="973"/>
-      <c r="F27" s="973"/>
-      <c r="G27" s="973"/>
-      <c r="H27" s="973"/>
-      <c r="I27" s="973"/>
-      <c r="J27" s="973"/>
-      <c r="K27" s="973"/>
-      <c r="L27" s="973"/>
-      <c r="M27" s="973"/>
-      <c r="N27" s="974"/>
+      <c r="B27" s="858"/>
+      <c r="C27" s="858"/>
+      <c r="D27" s="858"/>
+      <c r="E27" s="858"/>
+      <c r="F27" s="858"/>
+      <c r="G27" s="858"/>
+      <c r="H27" s="858"/>
+      <c r="I27" s="858"/>
+      <c r="J27" s="858"/>
+      <c r="K27" s="858"/>
+      <c r="L27" s="858"/>
+      <c r="M27" s="858"/>
+      <c r="N27" s="859"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A28" s="973" t="s">
+      <c r="A28" s="858" t="s">
         <v>735</v>
       </c>
-      <c r="B28" s="973"/>
-      <c r="C28" s="973"/>
-      <c r="D28" s="973"/>
-      <c r="E28" s="973"/>
-      <c r="F28" s="979"/>
-      <c r="G28" s="982"/>
-      <c r="H28" s="983"/>
-      <c r="I28" s="982"/>
-      <c r="J28" s="973"/>
-      <c r="K28" s="973"/>
-      <c r="L28" s="973"/>
-      <c r="M28" s="973"/>
-      <c r="N28" s="974"/>
+      <c r="B28" s="858"/>
+      <c r="C28" s="858"/>
+      <c r="D28" s="858"/>
+      <c r="E28" s="858"/>
+      <c r="F28" s="864"/>
+      <c r="G28" s="867"/>
+      <c r="H28" s="868"/>
+      <c r="I28" s="867"/>
+      <c r="J28" s="858"/>
+      <c r="K28" s="858"/>
+      <c r="L28" s="858"/>
+      <c r="M28" s="858"/>
+      <c r="N28" s="859"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A29" s="973"/>
-      <c r="B29" s="973"/>
-      <c r="C29" s="975" t="s">
+      <c r="A29" s="858"/>
+      <c r="B29" s="858"/>
+      <c r="C29" s="860" t="s">
         <v>395</v>
       </c>
-      <c r="D29" s="973"/>
-      <c r="E29" s="973"/>
-      <c r="F29" s="979" t="s">
+      <c r="D29" s="858"/>
+      <c r="E29" s="858"/>
+      <c r="F29" s="864" t="s">
         <v>285</v>
       </c>
-      <c r="G29" s="984" t="str">
+      <c r="G29" s="869" t="str">
         <f>Sheet1!T461</f>
         <v/>
       </c>
-      <c r="H29" s="979" t="s">
+      <c r="H29" s="864" t="s">
         <v>286</v>
       </c>
-      <c r="I29" s="984" t="str">
+      <c r="I29" s="869" t="str">
         <f>Sheet1!T462</f>
         <v/>
       </c>
-      <c r="J29" s="973"/>
-      <c r="K29" s="973"/>
-      <c r="L29" s="973"/>
-      <c r="M29" s="973"/>
-      <c r="N29" s="985"/>
+      <c r="J29" s="858"/>
+      <c r="K29" s="858"/>
+      <c r="L29" s="858"/>
+      <c r="M29" s="858"/>
+      <c r="N29" s="870"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A30" s="973"/>
-      <c r="B30" s="973"/>
-      <c r="C30" s="975" t="s">
+      <c r="A30" s="858"/>
+      <c r="B30" s="858"/>
+      <c r="C30" s="860" t="s">
         <v>544</v>
       </c>
-      <c r="D30" s="973"/>
-      <c r="E30" s="973"/>
-      <c r="F30" s="973"/>
-      <c r="G30" s="973"/>
-      <c r="H30" s="973"/>
-      <c r="I30" s="973"/>
-      <c r="J30" s="973"/>
-      <c r="K30" s="973"/>
-      <c r="L30" s="973"/>
-      <c r="M30" s="973"/>
-      <c r="N30" s="974"/>
+      <c r="D30" s="858"/>
+      <c r="E30" s="858"/>
+      <c r="F30" s="858"/>
+      <c r="G30" s="858"/>
+      <c r="H30" s="858"/>
+      <c r="I30" s="858"/>
+      <c r="J30" s="858"/>
+      <c r="K30" s="858"/>
+      <c r="L30" s="858"/>
+      <c r="M30" s="858"/>
+      <c r="N30" s="859"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A31" s="973"/>
-      <c r="B31" s="973"/>
-      <c r="C31" s="975" t="s">
+      <c r="A31" s="858"/>
+      <c r="B31" s="858"/>
+      <c r="C31" s="860" t="s">
         <v>396</v>
       </c>
-      <c r="D31" s="973"/>
-      <c r="E31" s="973"/>
-      <c r="F31" s="973"/>
-      <c r="G31" s="973"/>
-      <c r="H31" s="973"/>
-      <c r="I31" s="973"/>
-      <c r="J31" s="973"/>
-      <c r="K31" s="973"/>
-      <c r="L31" s="973"/>
-      <c r="M31" s="973"/>
-      <c r="N31" s="974"/>
+      <c r="D31" s="858"/>
+      <c r="E31" s="858"/>
+      <c r="F31" s="858"/>
+      <c r="G31" s="858"/>
+      <c r="H31" s="858"/>
+      <c r="I31" s="858"/>
+      <c r="J31" s="858"/>
+      <c r="K31" s="858"/>
+      <c r="L31" s="858"/>
+      <c r="M31" s="858"/>
+      <c r="N31" s="859"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A32" s="973" t="s">
+      <c r="A32" s="858" t="s">
         <v>736</v>
       </c>
-      <c r="B32" s="973"/>
-      <c r="C32" s="973"/>
-      <c r="D32" s="973"/>
-      <c r="E32" s="973"/>
-      <c r="F32" s="973"/>
-      <c r="G32" s="973"/>
-      <c r="H32" s="973"/>
-      <c r="I32" s="973"/>
-      <c r="J32" s="973"/>
-      <c r="K32" s="973"/>
-      <c r="L32" s="973"/>
-      <c r="M32" s="973"/>
-      <c r="N32" s="974"/>
+      <c r="B32" s="858"/>
+      <c r="C32" s="858"/>
+      <c r="D32" s="858"/>
+      <c r="E32" s="858"/>
+      <c r="F32" s="858"/>
+      <c r="G32" s="858"/>
+      <c r="H32" s="858"/>
+      <c r="I32" s="858"/>
+      <c r="J32" s="858"/>
+      <c r="K32" s="858"/>
+      <c r="L32" s="858"/>
+      <c r="M32" s="858"/>
+      <c r="N32" s="859"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A33" s="973"/>
-      <c r="B33" s="973"/>
-      <c r="C33" s="975" t="s">
+      <c r="A33" s="858"/>
+      <c r="B33" s="858"/>
+      <c r="C33" s="860" t="s">
         <v>541</v>
       </c>
-      <c r="D33" s="975"/>
-      <c r="E33" s="975"/>
-      <c r="F33" s="973"/>
-      <c r="G33" s="973"/>
-      <c r="H33" s="973"/>
-      <c r="I33" s="973"/>
-      <c r="J33" s="973"/>
-      <c r="K33" s="973"/>
-      <c r="L33" s="984" t="e">
+      <c r="D33" s="860"/>
+      <c r="E33" s="860"/>
+      <c r="F33" s="858"/>
+      <c r="G33" s="858"/>
+      <c r="H33" s="858"/>
+      <c r="I33" s="858"/>
+      <c r="J33" s="858"/>
+      <c r="K33" s="858"/>
+      <c r="L33" s="869" t="e">
         <f>MGD</f>
         <v>#N/A</v>
       </c>
-      <c r="M33" s="975" t="s">
+      <c r="M33" s="860" t="s">
         <v>341</v>
       </c>
-      <c r="N33" s="977"/>
+      <c r="N33" s="862"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A34" s="973" t="s">
+      <c r="A34" s="858" t="s">
         <v>737</v>
       </c>
-      <c r="B34" s="973"/>
-      <c r="C34" s="973"/>
-      <c r="D34" s="973"/>
-      <c r="E34" s="973"/>
-      <c r="F34" s="973"/>
-      <c r="G34" s="973"/>
-      <c r="H34" s="973"/>
-      <c r="I34" s="973"/>
-      <c r="J34" s="973"/>
-      <c r="K34" s="973"/>
-      <c r="L34" s="973"/>
-      <c r="M34" s="973"/>
-      <c r="N34" s="974"/>
+      <c r="B34" s="858"/>
+      <c r="C34" s="858"/>
+      <c r="D34" s="858"/>
+      <c r="E34" s="858"/>
+      <c r="F34" s="858"/>
+      <c r="G34" s="858"/>
+      <c r="H34" s="858"/>
+      <c r="I34" s="858"/>
+      <c r="J34" s="858"/>
+      <c r="K34" s="858"/>
+      <c r="L34" s="858"/>
+      <c r="M34" s="858"/>
+      <c r="N34" s="859"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A35" s="973" t="s">
+      <c r="A35" s="858" t="s">
         <v>738</v>
       </c>
-      <c r="B35" s="973"/>
-      <c r="C35" s="973"/>
-      <c r="D35" s="973"/>
-      <c r="E35" s="973"/>
-      <c r="F35" s="973"/>
-      <c r="G35" s="973"/>
-      <c r="H35" s="973"/>
-      <c r="I35" s="973"/>
-      <c r="J35" s="973"/>
-      <c r="K35" s="973"/>
-      <c r="L35" s="973"/>
-      <c r="M35" s="973"/>
-      <c r="N35" s="974" t="str">
+      <c r="B35" s="858"/>
+      <c r="C35" s="858"/>
+      <c r="D35" s="858"/>
+      <c r="E35" s="858"/>
+      <c r="F35" s="858"/>
+      <c r="G35" s="858"/>
+      <c r="H35" s="858"/>
+      <c r="I35" s="858"/>
+      <c r="J35" s="858"/>
+      <c r="K35" s="858"/>
+      <c r="L35" s="858"/>
+      <c r="M35" s="858"/>
+      <c r="N35" s="859" t="str">
         <f>Sheet1!X221</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A36" s="973" t="s">
+      <c r="A36" s="858" t="s">
         <v>739</v>
       </c>
-      <c r="B36" s="973"/>
-      <c r="C36" s="973"/>
-      <c r="D36" s="973"/>
-      <c r="E36" s="973"/>
-      <c r="F36" s="973"/>
-      <c r="G36" s="973"/>
-      <c r="H36" s="973"/>
-      <c r="I36" s="973"/>
-      <c r="J36" s="973"/>
-      <c r="K36" s="973"/>
-      <c r="L36" s="973"/>
-      <c r="M36" s="973"/>
-      <c r="N36" s="974"/>
+      <c r="B36" s="858"/>
+      <c r="C36" s="858"/>
+      <c r="D36" s="858"/>
+      <c r="E36" s="858"/>
+      <c r="F36" s="858"/>
+      <c r="G36" s="858"/>
+      <c r="H36" s="858"/>
+      <c r="I36" s="858"/>
+      <c r="J36" s="858"/>
+      <c r="K36" s="858"/>
+      <c r="L36" s="858"/>
+      <c r="M36" s="858"/>
+      <c r="N36" s="859"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A37" s="973" t="s">
+      <c r="A37" s="858" t="s">
         <v>740</v>
       </c>
-      <c r="B37" s="973"/>
-      <c r="C37" s="973"/>
-      <c r="D37" s="973"/>
-      <c r="E37" s="973"/>
-      <c r="F37" s="973"/>
-      <c r="G37" s="973"/>
-      <c r="H37" s="973"/>
-      <c r="I37" s="973"/>
-      <c r="J37" s="973"/>
-      <c r="K37" s="973"/>
-      <c r="L37" s="973"/>
-      <c r="M37" s="973"/>
-      <c r="N37" s="974"/>
+      <c r="B37" s="858"/>
+      <c r="C37" s="858"/>
+      <c r="D37" s="858"/>
+      <c r="E37" s="858"/>
+      <c r="F37" s="858"/>
+      <c r="G37" s="858"/>
+      <c r="H37" s="858"/>
+      <c r="I37" s="858"/>
+      <c r="J37" s="858"/>
+      <c r="K37" s="858"/>
+      <c r="L37" s="858"/>
+      <c r="M37" s="858"/>
+      <c r="N37" s="859"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A38" s="973" t="s">
+      <c r="A38" s="858" t="s">
         <v>741</v>
       </c>
-      <c r="B38" s="973"/>
-      <c r="C38" s="973"/>
-      <c r="D38" s="973"/>
-      <c r="E38" s="973"/>
-      <c r="F38" s="973"/>
-      <c r="G38" s="973"/>
-      <c r="H38" s="973"/>
-      <c r="I38" s="973"/>
-      <c r="J38" s="973"/>
-      <c r="K38" s="973"/>
-      <c r="L38" s="973"/>
-      <c r="M38" s="973"/>
-      <c r="N38" s="974"/>
+      <c r="B38" s="858"/>
+      <c r="C38" s="858"/>
+      <c r="D38" s="858"/>
+      <c r="E38" s="858"/>
+      <c r="F38" s="858"/>
+      <c r="G38" s="858"/>
+      <c r="H38" s="858"/>
+      <c r="I38" s="858"/>
+      <c r="J38" s="858"/>
+      <c r="K38" s="858"/>
+      <c r="L38" s="858"/>
+      <c r="M38" s="858"/>
+      <c r="N38" s="859"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A39" s="973" t="s">
+      <c r="A39" s="858" t="s">
         <v>742</v>
       </c>
-      <c r="B39" s="973"/>
-      <c r="C39" s="973"/>
-      <c r="D39" s="973"/>
-      <c r="E39" s="973"/>
-      <c r="F39" s="973"/>
-      <c r="G39" s="973"/>
-      <c r="H39" s="973"/>
-      <c r="I39" s="973"/>
-      <c r="J39" s="973"/>
-      <c r="K39" s="973"/>
-      <c r="L39" s="973"/>
-      <c r="M39" s="973"/>
-      <c r="N39" s="974"/>
+      <c r="B39" s="858"/>
+      <c r="C39" s="858"/>
+      <c r="D39" s="858"/>
+      <c r="E39" s="858"/>
+      <c r="F39" s="858"/>
+      <c r="G39" s="858"/>
+      <c r="H39" s="858"/>
+      <c r="I39" s="858"/>
+      <c r="J39" s="858"/>
+      <c r="K39" s="858"/>
+      <c r="L39" s="858"/>
+      <c r="M39" s="858"/>
+      <c r="N39" s="859"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A40" s="973" t="s">
+      <c r="A40" s="858" t="s">
         <v>743</v>
       </c>
-      <c r="B40" s="973"/>
-      <c r="C40" s="973"/>
-      <c r="D40" s="973"/>
-      <c r="E40" s="973"/>
-      <c r="F40" s="973"/>
-      <c r="G40" s="973"/>
-      <c r="H40" s="973"/>
-      <c r="I40" s="973"/>
-      <c r="J40" s="973"/>
-      <c r="K40" s="973"/>
-      <c r="L40" s="973"/>
-      <c r="M40" s="973"/>
-      <c r="N40" s="974"/>
+      <c r="B40" s="858"/>
+      <c r="C40" s="858"/>
+      <c r="D40" s="858"/>
+      <c r="E40" s="858"/>
+      <c r="F40" s="858"/>
+      <c r="G40" s="858"/>
+      <c r="H40" s="858"/>
+      <c r="I40" s="858"/>
+      <c r="J40" s="858"/>
+      <c r="K40" s="858"/>
+      <c r="L40" s="858"/>
+      <c r="M40" s="858"/>
+      <c r="N40" s="859"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A41" s="973" t="s">
+      <c r="A41" s="858" t="s">
         <v>744</v>
       </c>
-      <c r="B41" s="973"/>
-      <c r="C41" s="973"/>
-      <c r="D41" s="973"/>
-      <c r="E41" s="973"/>
-      <c r="F41" s="973"/>
-      <c r="G41" s="973"/>
-      <c r="H41" s="973"/>
-      <c r="I41" s="973"/>
-      <c r="J41" s="973"/>
-      <c r="K41" s="973"/>
-      <c r="L41" s="973"/>
-      <c r="M41" s="973"/>
-      <c r="N41" s="974"/>
+      <c r="B41" s="858"/>
+      <c r="C41" s="858"/>
+      <c r="D41" s="858"/>
+      <c r="E41" s="858"/>
+      <c r="F41" s="858"/>
+      <c r="G41" s="858"/>
+      <c r="H41" s="858"/>
+      <c r="I41" s="858"/>
+      <c r="J41" s="858"/>
+      <c r="K41" s="858"/>
+      <c r="L41" s="858"/>
+      <c r="M41" s="858"/>
+      <c r="N41" s="859"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A42" s="973" t="s">
+      <c r="A42" s="858" t="s">
         <v>745</v>
       </c>
-      <c r="B42" s="973"/>
-      <c r="C42" s="973"/>
-      <c r="D42" s="973"/>
-      <c r="E42" s="973"/>
-      <c r="F42" s="973"/>
-      <c r="G42" s="973"/>
-      <c r="H42" s="973"/>
-      <c r="I42" s="973"/>
-      <c r="J42" s="973"/>
-      <c r="K42" s="973"/>
-      <c r="L42" s="973"/>
-      <c r="M42" s="973"/>
-      <c r="N42" s="974"/>
+      <c r="B42" s="858"/>
+      <c r="C42" s="858"/>
+      <c r="D42" s="858"/>
+      <c r="E42" s="858"/>
+      <c r="F42" s="858"/>
+      <c r="G42" s="858"/>
+      <c r="H42" s="858"/>
+      <c r="I42" s="858"/>
+      <c r="J42" s="858"/>
+      <c r="K42" s="858"/>
+      <c r="L42" s="858"/>
+      <c r="M42" s="858"/>
+      <c r="N42" s="859"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A43" s="973" t="s">
+      <c r="A43" s="858" t="s">
         <v>746</v>
       </c>
-      <c r="B43" s="973"/>
-      <c r="C43" s="973"/>
-      <c r="D43" s="973"/>
-      <c r="E43" s="973"/>
-      <c r="F43" s="973"/>
-      <c r="G43" s="973"/>
-      <c r="H43" s="973"/>
-      <c r="I43" s="973"/>
-      <c r="J43" s="973"/>
-      <c r="K43" s="973"/>
-      <c r="L43" s="973"/>
-      <c r="M43" s="973"/>
-      <c r="N43" s="974"/>
+      <c r="B43" s="858"/>
+      <c r="C43" s="858"/>
+      <c r="D43" s="858"/>
+      <c r="E43" s="858"/>
+      <c r="F43" s="858"/>
+      <c r="G43" s="858"/>
+      <c r="H43" s="858"/>
+      <c r="I43" s="858"/>
+      <c r="J43" s="858"/>
+      <c r="K43" s="858"/>
+      <c r="L43" s="858"/>
+      <c r="M43" s="858"/>
+      <c r="N43" s="859"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A44" s="973" t="s">
+      <c r="A44" s="858" t="s">
         <v>747</v>
       </c>
-      <c r="B44" s="973"/>
-      <c r="C44" s="973"/>
-      <c r="D44" s="973"/>
-      <c r="E44" s="973"/>
-      <c r="F44" s="973"/>
-      <c r="G44" s="973"/>
-      <c r="H44" s="973"/>
-      <c r="I44" s="973"/>
-      <c r="J44" s="973"/>
-      <c r="K44" s="973"/>
-      <c r="L44" s="973"/>
-      <c r="M44" s="973"/>
-      <c r="N44" s="974"/>
+      <c r="B44" s="858"/>
+      <c r="C44" s="858"/>
+      <c r="D44" s="858"/>
+      <c r="E44" s="858"/>
+      <c r="F44" s="858"/>
+      <c r="G44" s="858"/>
+      <c r="H44" s="858"/>
+      <c r="I44" s="858"/>
+      <c r="J44" s="858"/>
+      <c r="K44" s="858"/>
+      <c r="L44" s="858"/>
+      <c r="M44" s="858"/>
+      <c r="N44" s="859"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A45" s="973" t="s">
+      <c r="A45" s="858" t="s">
         <v>748</v>
       </c>
-      <c r="B45" s="973"/>
-      <c r="C45" s="973"/>
-      <c r="D45" s="973"/>
-      <c r="E45" s="973"/>
-      <c r="F45" s="973"/>
-      <c r="G45" s="973"/>
-      <c r="H45" s="973"/>
-      <c r="I45" s="973"/>
-      <c r="J45" s="973"/>
-      <c r="K45" s="973"/>
-      <c r="L45" s="973"/>
-      <c r="M45" s="973"/>
-      <c r="N45" s="974"/>
+      <c r="B45" s="858"/>
+      <c r="C45" s="858"/>
+      <c r="D45" s="858"/>
+      <c r="E45" s="858"/>
+      <c r="F45" s="858"/>
+      <c r="G45" s="858"/>
+      <c r="H45" s="858"/>
+      <c r="I45" s="858"/>
+      <c r="J45" s="858"/>
+      <c r="K45" s="858"/>
+      <c r="L45" s="858"/>
+      <c r="M45" s="858"/>
+      <c r="N45" s="859"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A46" s="973" t="s">
+      <c r="A46" s="858" t="s">
         <v>749</v>
       </c>
-      <c r="B46" s="973"/>
-      <c r="C46" s="973"/>
-      <c r="D46" s="973"/>
-      <c r="E46" s="973"/>
-      <c r="F46" s="973"/>
-      <c r="G46" s="973"/>
-      <c r="H46" s="973"/>
-      <c r="I46" s="973"/>
-      <c r="J46" s="973"/>
-      <c r="K46" s="973"/>
-      <c r="L46" s="973"/>
-      <c r="M46" s="973"/>
-      <c r="N46" s="974"/>
+      <c r="B46" s="858"/>
+      <c r="C46" s="858"/>
+      <c r="D46" s="858"/>
+      <c r="E46" s="858"/>
+      <c r="F46" s="858"/>
+      <c r="G46" s="858"/>
+      <c r="H46" s="858"/>
+      <c r="I46" s="858"/>
+      <c r="J46" s="858"/>
+      <c r="K46" s="858"/>
+      <c r="L46" s="858"/>
+      <c r="M46" s="858"/>
+      <c r="N46" s="859"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A47" s="973"/>
-      <c r="B47" s="973"/>
-      <c r="C47" s="975" t="s">
+      <c r="A47" s="858"/>
+      <c r="B47" s="858"/>
+      <c r="C47" s="860" t="s">
         <v>750</v>
       </c>
-      <c r="D47" s="973"/>
-      <c r="E47" s="973"/>
-      <c r="F47" s="973"/>
-      <c r="G47" s="973"/>
-      <c r="H47" s="973"/>
-      <c r="I47" s="973"/>
-      <c r="J47" s="973"/>
-      <c r="K47" s="973"/>
-      <c r="L47" s="973"/>
-      <c r="M47" s="973"/>
+      <c r="D47" s="858"/>
+      <c r="E47" s="858"/>
+      <c r="F47" s="858"/>
+      <c r="G47" s="858"/>
+      <c r="H47" s="858"/>
+      <c r="I47" s="858"/>
+      <c r="J47" s="858"/>
+      <c r="K47" s="858"/>
+      <c r="L47" s="858"/>
+      <c r="M47" s="858"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A48" s="977"/>
-      <c r="B48" s="977"/>
-      <c r="C48" s="978" t="s">
+      <c r="A48" s="862"/>
+      <c r="B48" s="862"/>
+      <c r="C48" s="863" t="s">
         <v>397</v>
       </c>
-      <c r="D48" s="975"/>
-      <c r="E48" s="975"/>
-      <c r="F48" s="979"/>
-      <c r="G48" s="979" t="s">
+      <c r="D48" s="860"/>
+      <c r="E48" s="860"/>
+      <c r="F48" s="864"/>
+      <c r="G48" s="864" t="s">
         <v>361</v>
       </c>
-      <c r="H48" s="980">
+      <c r="H48" s="865">
         <f>Sheet1!S450</f>
         <v>0</v>
       </c>
-      <c r="I48" s="979" t="s">
+      <c r="I48" s="864" t="s">
         <v>362</v>
       </c>
-      <c r="J48" s="980">
+      <c r="J48" s="865">
         <f>Sheet1!S451</f>
         <v>0</v>
       </c>
-      <c r="K48" s="979" t="s">
+      <c r="K48" s="864" t="s">
         <v>363</v>
       </c>
-      <c r="L48" s="980">
+      <c r="L48" s="865">
         <f>Sheet1!S452</f>
         <v>0</v>
       </c>
-      <c r="M48" s="981"/>
-      <c r="N48" s="977"/>
+      <c r="M48" s="866"/>
+      <c r="N48" s="862"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A49" s="973" t="s">
+      <c r="A49" s="858" t="s">
         <v>751</v>
       </c>
-      <c r="B49" s="973"/>
-      <c r="C49" s="973"/>
-      <c r="D49" s="973"/>
-      <c r="E49" s="973"/>
-      <c r="F49" s="973"/>
-      <c r="G49" s="973"/>
-      <c r="H49" s="973"/>
-      <c r="I49" s="973"/>
-      <c r="J49" s="973"/>
-      <c r="K49" s="973"/>
-      <c r="L49" s="973"/>
-      <c r="M49" s="973"/>
-      <c r="N49" s="974"/>
+      <c r="B49" s="858"/>
+      <c r="C49" s="858"/>
+      <c r="D49" s="858"/>
+      <c r="E49" s="858"/>
+      <c r="F49" s="858"/>
+      <c r="G49" s="858"/>
+      <c r="H49" s="858"/>
+      <c r="I49" s="858"/>
+      <c r="J49" s="858"/>
+      <c r="K49" s="858"/>
+      <c r="L49" s="858"/>
+      <c r="M49" s="858"/>
+      <c r="N49" s="859"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A50" s="973" t="s">
+      <c r="A50" s="858" t="s">
         <v>752</v>
       </c>
-      <c r="B50" s="973"/>
-      <c r="C50" s="973"/>
-      <c r="D50" s="973"/>
-      <c r="E50" s="973"/>
-      <c r="F50" s="973"/>
-      <c r="G50" s="973"/>
-      <c r="H50" s="973"/>
-      <c r="I50" s="973"/>
-      <c r="J50" s="973"/>
-      <c r="K50" s="973"/>
-      <c r="L50" s="973"/>
-      <c r="M50" s="973"/>
-      <c r="N50" s="974"/>
+      <c r="B50" s="858"/>
+      <c r="C50" s="858"/>
+      <c r="D50" s="858"/>
+      <c r="E50" s="858"/>
+      <c r="F50" s="858"/>
+      <c r="G50" s="858"/>
+      <c r="H50" s="858"/>
+      <c r="I50" s="858"/>
+      <c r="J50" s="858"/>
+      <c r="K50" s="858"/>
+      <c r="L50" s="858"/>
+      <c r="M50" s="858"/>
+      <c r="N50" s="859"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A51" s="973"/>
-      <c r="B51" s="973"/>
-      <c r="C51" s="973"/>
-      <c r="D51" s="973"/>
-      <c r="E51" s="973"/>
-      <c r="F51" s="973"/>
-      <c r="G51" s="973"/>
-      <c r="H51" s="973"/>
-      <c r="I51" s="973"/>
-      <c r="J51" s="973"/>
-      <c r="K51" s="973"/>
-      <c r="L51" s="973"/>
-      <c r="M51" s="973"/>
+      <c r="A51" s="858"/>
+      <c r="B51" s="858"/>
+      <c r="C51" s="858"/>
+      <c r="D51" s="858"/>
+      <c r="E51" s="858"/>
+      <c r="F51" s="858"/>
+      <c r="G51" s="858"/>
+      <c r="H51" s="858"/>
+      <c r="I51" s="858"/>
+      <c r="J51" s="858"/>
+      <c r="K51" s="858"/>
+      <c r="L51" s="858"/>
+      <c r="M51" s="858"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A52" s="986" t="s">
+      <c r="A52" s="915" t="s">
         <v>540</v>
       </c>
-      <c r="B52" s="986"/>
-      <c r="C52" s="986"/>
-      <c r="D52" s="986"/>
-      <c r="E52" s="986"/>
-      <c r="F52" s="986"/>
-      <c r="G52" s="986"/>
-      <c r="H52" s="986"/>
-      <c r="I52" s="986"/>
-      <c r="J52" s="986"/>
-      <c r="K52" s="986"/>
-      <c r="L52" s="986"/>
-      <c r="M52" s="986"/>
-      <c r="N52" s="986"/>
+      <c r="B52" s="915"/>
+      <c r="C52" s="915"/>
+      <c r="D52" s="915"/>
+      <c r="E52" s="915"/>
+      <c r="F52" s="915"/>
+      <c r="G52" s="915"/>
+      <c r="H52" s="915"/>
+      <c r="I52" s="915"/>
+      <c r="J52" s="915"/>
+      <c r="K52" s="915"/>
+      <c r="L52" s="915"/>
+      <c r="M52" s="915"/>
+      <c r="N52" s="915"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A19:N19"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
@@ -28438,14 +28415,12 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:N12"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="L5:N5"/>
   </mergeCells>
   <conditionalFormatting sqref="N27:N38 N48 N41:N42 N50">
     <cfRule type="cellIs" dxfId="162" priority="13" stopIfTrue="1" operator="equal">
@@ -28759,19 +28734,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="844" t="s">
+      <c r="A1" s="925" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="844"/>
-      <c r="C1" s="844"/>
-      <c r="D1" s="844"/>
-      <c r="E1" s="844"/>
-      <c r="F1" s="844"/>
-      <c r="G1" s="844"/>
-      <c r="H1" s="844"/>
-      <c r="I1" s="844"/>
-      <c r="J1" s="844"/>
-      <c r="K1" s="844"/>
+      <c r="B1" s="925"/>
+      <c r="C1" s="925"/>
+      <c r="D1" s="925"/>
+      <c r="E1" s="925"/>
+      <c r="F1" s="925"/>
+      <c r="G1" s="925"/>
+      <c r="H1" s="925"/>
+      <c r="I1" s="925"/>
+      <c r="J1" s="925"/>
+      <c r="K1" s="925"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
       <c r="A2" s="531" t="s">
@@ -28805,19 +28780,19 @@
       <c r="K4" s="526"/>
     </row>
     <row r="5" spans="1:12" ht="42" customHeight="1">
-      <c r="A5" s="845" t="s">
+      <c r="A5" s="926" t="s">
         <v>552</v>
       </c>
-      <c r="B5" s="845"/>
-      <c r="C5" s="845"/>
-      <c r="D5" s="845"/>
-      <c r="E5" s="845"/>
-      <c r="F5" s="845"/>
-      <c r="G5" s="845"/>
-      <c r="H5" s="845"/>
-      <c r="I5" s="845"/>
-      <c r="J5" s="845"/>
-      <c r="K5" s="845"/>
+      <c r="B5" s="926"/>
+      <c r="C5" s="926"/>
+      <c r="D5" s="926"/>
+      <c r="E5" s="926"/>
+      <c r="F5" s="926"/>
+      <c r="G5" s="926"/>
+      <c r="H5" s="926"/>
+      <c r="I5" s="926"/>
+      <c r="J5" s="926"/>
+      <c r="K5" s="926"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="525" t="s">
@@ -28850,8 +28825,8 @@
       <c r="K7" s="520"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="J8" s="846"/>
-      <c r="K8" s="846"/>
+      <c r="J8" s="927"/>
+      <c r="K8" s="927"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="506"/>
@@ -28860,10 +28835,10 @@
         <v>400</v>
       </c>
       <c r="I9" s="519"/>
-      <c r="J9" s="847" t="s">
+      <c r="J9" s="928" t="s">
         <v>394</v>
       </c>
-      <c r="K9" s="847"/>
+      <c r="K9" s="928"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="518" t="s">
@@ -28879,8 +28854,8 @@
       <c r="I10" s="732" t="s">
         <v>753</v>
       </c>
-      <c r="J10" s="833"/>
-      <c r="K10" s="834"/>
+      <c r="J10" s="923"/>
+      <c r="K10" s="924"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="513" t="s">
@@ -28894,8 +28869,8 @@
       <c r="H11" s="514" t="s">
         <v>407</v>
       </c>
-      <c r="J11" s="833"/>
-      <c r="K11" s="834"/>
+      <c r="J11" s="923"/>
+      <c r="K11" s="924"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="518" t="s">
@@ -28909,8 +28884,8 @@
       <c r="H12" s="514" t="s">
         <v>407</v>
       </c>
-      <c r="J12" s="833"/>
-      <c r="K12" s="834"/>
+      <c r="J12" s="923"/>
+      <c r="K12" s="924"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="513" t="s">
@@ -28925,8 +28900,8 @@
       <c r="I13" s="516" t="s">
         <v>754</v>
       </c>
-      <c r="J13" s="833"/>
-      <c r="K13" s="834"/>
+      <c r="J13" s="923"/>
+      <c r="K13" s="924"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="515" t="s">
@@ -28940,8 +28915,8 @@
       <c r="H14" s="514" t="s">
         <v>411</v>
       </c>
-      <c r="J14" s="833"/>
-      <c r="K14" s="834"/>
+      <c r="J14" s="923"/>
+      <c r="K14" s="924"/>
       <c r="L14" s="506"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
@@ -28956,8 +28931,8 @@
       <c r="H15" s="514" t="s">
         <v>414</v>
       </c>
-      <c r="J15" s="833"/>
-      <c r="K15" s="834"/>
+      <c r="J15" s="923"/>
+      <c r="K15" s="924"/>
       <c r="L15" s="506"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
@@ -28988,10 +28963,10 @@
       <c r="H17" s="514" t="s">
         <v>416</v>
       </c>
-      <c r="J17" s="833" t="s">
+      <c r="J17" s="923" t="s">
         <v>492</v>
       </c>
-      <c r="K17" s="834"/>
+      <c r="K17" s="924"/>
       <c r="L17" s="506"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
@@ -29006,8 +28981,8 @@
         <v>418</v>
       </c>
       <c r="I18" s="498"/>
-      <c r="J18" s="833"/>
-      <c r="K18" s="834"/>
+      <c r="J18" s="923"/>
+      <c r="K18" s="924"/>
       <c r="L18" s="510"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
@@ -29022,10 +28997,10 @@
         <v>762</v>
       </c>
       <c r="I19" s="498"/>
-      <c r="J19" s="833" t="s">
+      <c r="J19" s="923" t="s">
         <v>492</v>
       </c>
-      <c r="K19" s="834"/>
+      <c r="K19" s="924"/>
       <c r="L19" s="510"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
@@ -29038,19 +29013,19 @@
       <c r="L20" s="506"/>
     </row>
     <row r="21" spans="1:12" ht="24" customHeight="1">
-      <c r="A21" s="835" t="s">
+      <c r="A21" s="929" t="s">
         <v>419</v>
       </c>
-      <c r="B21" s="835"/>
-      <c r="C21" s="835"/>
-      <c r="D21" s="835"/>
-      <c r="E21" s="835"/>
-      <c r="F21" s="835"/>
-      <c r="G21" s="835"/>
-      <c r="H21" s="835"/>
-      <c r="I21" s="835"/>
-      <c r="J21" s="835"/>
-      <c r="K21" s="835"/>
+      <c r="B21" s="929"/>
+      <c r="C21" s="929"/>
+      <c r="D21" s="929"/>
+      <c r="E21" s="929"/>
+      <c r="F21" s="929"/>
+      <c r="G21" s="929"/>
+      <c r="H21" s="929"/>
+      <c r="I21" s="929"/>
+      <c r="J21" s="929"/>
+      <c r="K21" s="929"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="505"/>
@@ -29066,126 +29041,131 @@
       <c r="K22" s="504"/>
     </row>
     <row r="23" spans="1:12" ht="290.25" customHeight="1">
-      <c r="A23" s="836"/>
-      <c r="B23" s="837"/>
-      <c r="C23" s="837"/>
-      <c r="D23" s="837"/>
-      <c r="E23" s="837"/>
-      <c r="F23" s="837"/>
-      <c r="G23" s="837"/>
-      <c r="H23" s="837"/>
-      <c r="I23" s="837"/>
-      <c r="J23" s="837"/>
-      <c r="K23" s="838"/>
+      <c r="A23" s="930"/>
+      <c r="B23" s="931"/>
+      <c r="C23" s="931"/>
+      <c r="D23" s="931"/>
+      <c r="E23" s="931"/>
+      <c r="F23" s="931"/>
+      <c r="G23" s="931"/>
+      <c r="H23" s="931"/>
+      <c r="I23" s="931"/>
+      <c r="J23" s="931"/>
+      <c r="K23" s="932"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="839"/>
-      <c r="B24" s="839"/>
-      <c r="C24" s="839"/>
-      <c r="D24" s="839"/>
-      <c r="E24" s="839"/>
-      <c r="F24" s="839"/>
-      <c r="G24" s="839"/>
-      <c r="H24" s="839"/>
-      <c r="I24" s="839"/>
-      <c r="J24" s="839"/>
-      <c r="K24" s="839"/>
+      <c r="A24" s="933"/>
+      <c r="B24" s="933"/>
+      <c r="C24" s="933"/>
+      <c r="D24" s="933"/>
+      <c r="E24" s="933"/>
+      <c r="F24" s="933"/>
+      <c r="G24" s="933"/>
+      <c r="H24" s="933"/>
+      <c r="I24" s="933"/>
+      <c r="J24" s="933"/>
+      <c r="K24" s="933"/>
     </row>
     <row r="25" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A25" s="840"/>
-      <c r="B25" s="840"/>
-      <c r="C25" s="840"/>
-      <c r="D25" s="840"/>
-      <c r="E25" s="840"/>
-      <c r="F25" s="840"/>
-      <c r="G25" s="840"/>
-      <c r="H25" s="840"/>
-      <c r="I25" s="840"/>
-      <c r="J25" s="840"/>
-      <c r="K25" s="840"/>
+      <c r="A25" s="934"/>
+      <c r="B25" s="934"/>
+      <c r="C25" s="934"/>
+      <c r="D25" s="934"/>
+      <c r="E25" s="934"/>
+      <c r="F25" s="934"/>
+      <c r="G25" s="934"/>
+      <c r="H25" s="934"/>
+      <c r="I25" s="934"/>
+      <c r="J25" s="934"/>
+      <c r="K25" s="934"/>
     </row>
     <row r="26" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A26" s="840"/>
-      <c r="B26" s="840"/>
-      <c r="C26" s="840"/>
-      <c r="D26" s="840"/>
-      <c r="E26" s="840"/>
-      <c r="F26" s="840"/>
-      <c r="G26" s="840"/>
-      <c r="H26" s="840"/>
-      <c r="I26" s="840"/>
-      <c r="J26" s="840"/>
-      <c r="K26" s="840"/>
+      <c r="A26" s="934"/>
+      <c r="B26" s="934"/>
+      <c r="C26" s="934"/>
+      <c r="D26" s="934"/>
+      <c r="E26" s="934"/>
+      <c r="F26" s="934"/>
+      <c r="G26" s="934"/>
+      <c r="H26" s="934"/>
+      <c r="I26" s="934"/>
+      <c r="J26" s="934"/>
+      <c r="K26" s="934"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A27" s="840"/>
-      <c r="B27" s="840"/>
-      <c r="C27" s="840"/>
-      <c r="D27" s="840"/>
-      <c r="E27" s="840"/>
-      <c r="F27" s="840"/>
-      <c r="G27" s="840"/>
-      <c r="H27" s="840"/>
-      <c r="I27" s="840"/>
-      <c r="J27" s="840"/>
-      <c r="K27" s="840"/>
+      <c r="A27" s="934"/>
+      <c r="B27" s="934"/>
+      <c r="C27" s="934"/>
+      <c r="D27" s="934"/>
+      <c r="E27" s="934"/>
+      <c r="F27" s="934"/>
+      <c r="G27" s="934"/>
+      <c r="H27" s="934"/>
+      <c r="I27" s="934"/>
+      <c r="J27" s="934"/>
+      <c r="K27" s="934"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A28" s="840"/>
-      <c r="B28" s="840"/>
-      <c r="C28" s="840"/>
-      <c r="D28" s="840"/>
-      <c r="E28" s="840"/>
-      <c r="F28" s="840"/>
-      <c r="G28" s="840"/>
-      <c r="H28" s="840"/>
-      <c r="I28" s="840"/>
-      <c r="J28" s="840"/>
-      <c r="K28" s="840"/>
+      <c r="A28" s="934"/>
+      <c r="B28" s="934"/>
+      <c r="C28" s="934"/>
+      <c r="D28" s="934"/>
+      <c r="E28" s="934"/>
+      <c r="F28" s="934"/>
+      <c r="G28" s="934"/>
+      <c r="H28" s="934"/>
+      <c r="I28" s="934"/>
+      <c r="J28" s="934"/>
+      <c r="K28" s="934"/>
     </row>
     <row r="29" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A29" s="840"/>
-      <c r="B29" s="840"/>
-      <c r="C29" s="840"/>
-      <c r="D29" s="840"/>
-      <c r="E29" s="840"/>
-      <c r="F29" s="840"/>
-      <c r="G29" s="840"/>
-      <c r="H29" s="840"/>
-      <c r="I29" s="840"/>
-      <c r="J29" s="840"/>
-      <c r="K29" s="840"/>
+      <c r="A29" s="934"/>
+      <c r="B29" s="934"/>
+      <c r="C29" s="934"/>
+      <c r="D29" s="934"/>
+      <c r="E29" s="934"/>
+      <c r="F29" s="934"/>
+      <c r="G29" s="934"/>
+      <c r="H29" s="934"/>
+      <c r="I29" s="934"/>
+      <c r="J29" s="934"/>
+      <c r="K29" s="934"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A30" s="840"/>
-      <c r="B30" s="840"/>
-      <c r="C30" s="840"/>
-      <c r="D30" s="840"/>
-      <c r="E30" s="840"/>
-      <c r="F30" s="840"/>
-      <c r="G30" s="840"/>
-      <c r="H30" s="840"/>
-      <c r="I30" s="840"/>
-      <c r="J30" s="840"/>
-      <c r="K30" s="840"/>
+      <c r="A30" s="934"/>
+      <c r="B30" s="934"/>
+      <c r="C30" s="934"/>
+      <c r="D30" s="934"/>
+      <c r="E30" s="934"/>
+      <c r="F30" s="934"/>
+      <c r="G30" s="934"/>
+      <c r="H30" s="934"/>
+      <c r="I30" s="934"/>
+      <c r="J30" s="934"/>
+      <c r="K30" s="934"/>
     </row>
     <row r="31" spans="1:12" ht="201.75" customHeight="1" thickBot="1">
-      <c r="A31" s="841" t="s">
+      <c r="A31" s="935" t="s">
         <v>548</v>
       </c>
-      <c r="B31" s="842"/>
-      <c r="C31" s="842"/>
-      <c r="D31" s="842"/>
-      <c r="E31" s="842"/>
-      <c r="F31" s="842"/>
-      <c r="G31" s="842"/>
-      <c r="H31" s="842"/>
-      <c r="I31" s="842"/>
-      <c r="J31" s="842"/>
-      <c r="K31" s="843"/>
+      <c r="B31" s="936"/>
+      <c r="C31" s="936"/>
+      <c r="D31" s="936"/>
+      <c r="E31" s="936"/>
+      <c r="F31" s="936"/>
+      <c r="G31" s="936"/>
+      <c r="H31" s="936"/>
+      <c r="I31" s="936"/>
+      <c r="J31" s="936"/>
+      <c r="K31" s="937"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K30"/>
+    <mergeCell ref="A31:K31"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A5:K5"/>
@@ -29198,11 +29178,6 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K30"/>
-    <mergeCell ref="A31:K31"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:K18">
     <cfRule type="cellIs" dxfId="149" priority="2" stopIfTrue="1" operator="equal">
@@ -29757,13 +29732,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="850" t="s">
+      <c r="A1" s="953" t="s">
         <v>641</v>
       </c>
-      <c r="B1" s="851"/>
-      <c r="C1" s="851"/>
-      <c r="D1" s="851"/>
-      <c r="E1" s="851"/>
+      <c r="B1" s="954"/>
+      <c r="C1" s="954"/>
+      <c r="D1" s="954"/>
+      <c r="E1" s="954"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="733"/>
@@ -29776,23 +29751,23 @@
       <c r="A3" s="734" t="s">
         <v>642</v>
       </c>
-      <c r="B3" s="852">
+      <c r="B3" s="955">
         <f>'QC Test Summary-Siemens'!C4</f>
         <v>0</v>
       </c>
-      <c r="C3" s="852"/>
-      <c r="D3" s="852"/>
-      <c r="E3" s="852"/>
+      <c r="C3" s="955"/>
+      <c r="D3" s="955"/>
+      <c r="E3" s="955"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="734" t="s">
         <v>643</v>
       </c>
-      <c r="B4" s="853" t="str">
+      <c r="B4" s="956" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="C4" s="853"/>
+      <c r="C4" s="956"/>
       <c r="D4" s="735" t="s">
         <v>43</v>
       </c>
@@ -29822,11 +29797,11 @@
       <c r="A6" s="734" t="s">
         <v>646</v>
       </c>
-      <c r="B6" s="853" t="str">
+      <c r="B6" s="956" t="str">
         <f>Sheet1!X7</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="C6" s="853"/>
+      <c r="C6" s="956"/>
       <c r="D6" s="735" t="s">
         <v>647</v>
       </c>
@@ -29839,8 +29814,8 @@
       <c r="A7" s="734" t="s">
         <v>648</v>
       </c>
-      <c r="B7" s="853"/>
-      <c r="C7" s="853"/>
+      <c r="B7" s="956"/>
+      <c r="C7" s="956"/>
       <c r="D7" s="735" t="s">
         <v>649</v>
       </c>
@@ -29868,7 +29843,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" thickTop="1">
-      <c r="A10" s="848" t="s">
+      <c r="A10" s="952" t="s">
         <v>654</v>
       </c>
       <c r="B10" s="742" t="s">
@@ -29883,7 +29858,7 @@
       <c r="E10" s="745"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A11" s="849"/>
+      <c r="A11" s="948"/>
       <c r="B11" s="746" t="s">
         <v>658</v>
       </c>
@@ -29896,7 +29871,7 @@
       <c r="E11" s="749"/>
     </row>
     <row r="12" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A12" s="859" t="s">
+      <c r="A12" s="943" t="s">
         <v>660</v>
       </c>
       <c r="B12" s="750" t="s">
@@ -29911,7 +29886,7 @@
       <c r="E12" s="753"/>
     </row>
     <row r="13" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A13" s="860"/>
+      <c r="A13" s="944"/>
       <c r="B13" s="754" t="s">
         <v>664</v>
       </c>
@@ -29924,7 +29899,7 @@
       <c r="E13" s="757"/>
     </row>
     <row r="14" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A14" s="861"/>
+      <c r="A14" s="945"/>
       <c r="B14" s="758" t="s">
         <v>666</v>
       </c>
@@ -29937,7 +29912,7 @@
       <c r="E14" s="760"/>
     </row>
     <row r="15" spans="1:5" ht="56.25">
-      <c r="A15" s="862" t="s">
+      <c r="A15" s="946" t="s">
         <v>668</v>
       </c>
       <c r="B15" s="761" t="s">
@@ -29952,7 +29927,7 @@
       <c r="E15" s="763"/>
     </row>
     <row r="16" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A16" s="863"/>
+      <c r="A16" s="947"/>
       <c r="B16" s="746" t="s">
         <v>671</v>
       </c>
@@ -29965,7 +29940,7 @@
       <c r="E16" s="765"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A17" s="854" t="s">
+      <c r="A17" s="938" t="s">
         <v>673</v>
       </c>
       <c r="B17" s="766" t="s">
@@ -29980,7 +29955,7 @@
       <c r="E17" s="767"/>
     </row>
     <row r="18" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A18" s="849"/>
+      <c r="A18" s="948"/>
       <c r="B18" s="768" t="s">
         <v>676</v>
       </c>
@@ -29993,7 +29968,7 @@
       <c r="E18" s="749"/>
     </row>
     <row r="19" spans="1:5" ht="33.75">
-      <c r="A19" s="864" t="s">
+      <c r="A19" s="949" t="s">
         <v>678</v>
       </c>
       <c r="B19" s="766" t="s">
@@ -30008,7 +29983,7 @@
       <c r="E19" s="767"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A20" s="865"/>
+      <c r="A20" s="950"/>
       <c r="B20" s="770" t="s">
         <v>681</v>
       </c>
@@ -30021,7 +29996,7 @@
       <c r="E20" s="772"/>
     </row>
     <row r="21" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A21" s="866"/>
+      <c r="A21" s="951"/>
       <c r="B21" s="768" t="s">
         <v>683</v>
       </c>
@@ -30034,7 +30009,7 @@
       <c r="E21" s="749"/>
     </row>
     <row r="22" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A22" s="854" t="s">
+      <c r="A22" s="938" t="s">
         <v>685</v>
       </c>
       <c r="B22" s="766" t="s">
@@ -30049,7 +30024,7 @@
       <c r="E22" s="767"/>
     </row>
     <row r="23" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A23" s="849"/>
+      <c r="A23" s="948"/>
       <c r="B23" s="746" t="s">
         <v>688</v>
       </c>
@@ -30062,7 +30037,7 @@
       <c r="E23" s="765"/>
     </row>
     <row r="24" spans="1:5" ht="33.75">
-      <c r="A24" s="864" t="s">
+      <c r="A24" s="949" t="s">
         <v>690</v>
       </c>
       <c r="B24" s="766" t="s">
@@ -30077,7 +30052,7 @@
       <c r="E24" s="767"/>
     </row>
     <row r="25" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A25" s="865"/>
+      <c r="A25" s="950"/>
       <c r="B25" s="770" t="s">
         <v>693</v>
       </c>
@@ -30090,7 +30065,7 @@
       <c r="E25" s="772"/>
     </row>
     <row r="26" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A26" s="865"/>
+      <c r="A26" s="950"/>
       <c r="B26" s="773" t="s">
         <v>695</v>
       </c>
@@ -30103,7 +30078,7 @@
       <c r="E26" s="772"/>
     </row>
     <row r="27" spans="1:5" ht="22.5">
-      <c r="A27" s="865"/>
+      <c r="A27" s="950"/>
       <c r="B27" s="773" t="s">
         <v>697</v>
       </c>
@@ -30116,7 +30091,7 @@
       <c r="E27" s="772"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A28" s="866"/>
+      <c r="A28" s="951"/>
       <c r="B28" s="774" t="s">
         <v>699</v>
       </c>
@@ -30129,7 +30104,7 @@
       <c r="E28" s="765"/>
     </row>
     <row r="29" spans="1:5" ht="22.5">
-      <c r="A29" s="854" t="s">
+      <c r="A29" s="938" t="s">
         <v>701</v>
       </c>
       <c r="B29" s="775" t="s">
@@ -30144,7 +30119,7 @@
       <c r="E29" s="767"/>
     </row>
     <row r="30" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A30" s="855"/>
+      <c r="A30" s="939"/>
       <c r="B30" s="773" t="s">
         <v>704</v>
       </c>
@@ -30157,7 +30132,7 @@
       <c r="E30" s="772"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A31" s="856"/>
+      <c r="A31" s="940"/>
       <c r="B31" s="774" t="s">
         <v>706</v>
       </c>
@@ -30170,7 +30145,7 @@
       <c r="E31" s="765"/>
     </row>
     <row r="32" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A32" s="854" t="s">
+      <c r="A32" s="938" t="s">
         <v>708</v>
       </c>
       <c r="B32" s="775" t="s">
@@ -30185,7 +30160,7 @@
       <c r="E32" s="767"/>
     </row>
     <row r="33" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A33" s="855"/>
+      <c r="A33" s="939"/>
       <c r="B33" s="773" t="s">
         <v>711</v>
       </c>
@@ -30198,7 +30173,7 @@
       <c r="E33" s="772"/>
     </row>
     <row r="34" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A34" s="856"/>
+      <c r="A34" s="940"/>
       <c r="B34" s="774" t="s">
         <v>712</v>
       </c>
@@ -30286,13 +30261,13 @@
       <c r="E39" s="749"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="857" t="s">
+      <c r="A40" s="941" t="s">
         <v>777</v>
       </c>
-      <c r="B40" s="858"/>
-      <c r="C40" s="858"/>
-      <c r="D40" s="858"/>
-      <c r="E40" s="858"/>
+      <c r="B40" s="942"/>
+      <c r="C40" s="942"/>
+      <c r="D40" s="942"/>
+      <c r="E40" s="942"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="784"/>
@@ -30989,6 +30964,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A40:E40"/>
@@ -30998,12 +30979,6 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E10 JA10 SW10 ACS10 AMO10 AWK10 BGG10 BQC10 BZY10 CJU10 CTQ10 DDM10 DNI10 DXE10 EHA10 EQW10 FAS10 FKO10 FUK10 GEG10 GOC10 GXY10 HHU10 HRQ10 IBM10 ILI10 IVE10 JFA10 JOW10 JYS10 KIO10 KSK10 LCG10 LMC10 LVY10 MFU10 MPQ10 MZM10 NJI10 NTE10 ODA10 OMW10 OWS10 PGO10 PQK10 QAG10 QKC10 QTY10 RDU10 RNQ10 RXM10 SHI10 SRE10 TBA10 TKW10 TUS10 UEO10 UOK10 UYG10 VIC10 VRY10 WBU10 WLQ10 WVM10 E65546 JA65546 SW65546 ACS65546 AMO65546 AWK65546 BGG65546 BQC65546 BZY65546 CJU65546 CTQ65546 DDM65546 DNI65546 DXE65546 EHA65546 EQW65546 FAS65546 FKO65546 FUK65546 GEG65546 GOC65546 GXY65546 HHU65546 HRQ65546 IBM65546 ILI65546 IVE65546 JFA65546 JOW65546 JYS65546 KIO65546 KSK65546 LCG65546 LMC65546 LVY65546 MFU65546 MPQ65546 MZM65546 NJI65546 NTE65546 ODA65546 OMW65546 OWS65546 PGO65546 PQK65546 QAG65546 QKC65546 QTY65546 RDU65546 RNQ65546 RXM65546 SHI65546 SRE65546 TBA65546 TKW65546 TUS65546 UEO65546 UOK65546 UYG65546 VIC65546 VRY65546 WBU65546 WLQ65546 WVM65546 E131082 JA131082 SW131082 ACS131082 AMO131082 AWK131082 BGG131082 BQC131082 BZY131082 CJU131082 CTQ131082 DDM131082 DNI131082 DXE131082 EHA131082 EQW131082 FAS131082 FKO131082 FUK131082 GEG131082 GOC131082 GXY131082 HHU131082 HRQ131082 IBM131082 ILI131082 IVE131082 JFA131082 JOW131082 JYS131082 KIO131082 KSK131082 LCG131082 LMC131082 LVY131082 MFU131082 MPQ131082 MZM131082 NJI131082 NTE131082 ODA131082 OMW131082 OWS131082 PGO131082 PQK131082 QAG131082 QKC131082 QTY131082 RDU131082 RNQ131082 RXM131082 SHI131082 SRE131082 TBA131082 TKW131082 TUS131082 UEO131082 UOK131082 UYG131082 VIC131082 VRY131082 WBU131082 WLQ131082 WVM131082 E196618 JA196618 SW196618 ACS196618 AMO196618 AWK196618 BGG196618 BQC196618 BZY196618 CJU196618 CTQ196618 DDM196618 DNI196618 DXE196618 EHA196618 EQW196618 FAS196618 FKO196618 FUK196618 GEG196618 GOC196618 GXY196618 HHU196618 HRQ196618 IBM196618 ILI196618 IVE196618 JFA196618 JOW196618 JYS196618 KIO196618 KSK196618 LCG196618 LMC196618 LVY196618 MFU196618 MPQ196618 MZM196618 NJI196618 NTE196618 ODA196618 OMW196618 OWS196618 PGO196618 PQK196618 QAG196618 QKC196618 QTY196618 RDU196618 RNQ196618 RXM196618 SHI196618 SRE196618 TBA196618 TKW196618 TUS196618 UEO196618 UOK196618 UYG196618 VIC196618 VRY196618 WBU196618 WLQ196618 WVM196618 E262154 JA262154 SW262154 ACS262154 AMO262154 AWK262154 BGG262154 BQC262154 BZY262154 CJU262154 CTQ262154 DDM262154 DNI262154 DXE262154 EHA262154 EQW262154 FAS262154 FKO262154 FUK262154 GEG262154 GOC262154 GXY262154 HHU262154 HRQ262154 IBM262154 ILI262154 IVE262154 JFA262154 JOW262154 JYS262154 KIO262154 KSK262154 LCG262154 LMC262154 LVY262154 MFU262154 MPQ262154 MZM262154 NJI262154 NTE262154 ODA262154 OMW262154 OWS262154 PGO262154 PQK262154 QAG262154 QKC262154 QTY262154 RDU262154 RNQ262154 RXM262154 SHI262154 SRE262154 TBA262154 TKW262154 TUS262154 UEO262154 UOK262154 UYG262154 VIC262154 VRY262154 WBU262154 WLQ262154 WVM262154 E327690 JA327690 SW327690 ACS327690 AMO327690 AWK327690 BGG327690 BQC327690 BZY327690 CJU327690 CTQ327690 DDM327690 DNI327690 DXE327690 EHA327690 EQW327690 FAS327690 FKO327690 FUK327690 GEG327690 GOC327690 GXY327690 HHU327690 HRQ327690 IBM327690 ILI327690 IVE327690 JFA327690 JOW327690 JYS327690 KIO327690 KSK327690 LCG327690 LMC327690 LVY327690 MFU327690 MPQ327690 MZM327690 NJI327690 NTE327690 ODA327690 OMW327690 OWS327690 PGO327690 PQK327690 QAG327690 QKC327690 QTY327690 RDU327690 RNQ327690 RXM327690 SHI327690 SRE327690 TBA327690 TKW327690 TUS327690 UEO327690 UOK327690 UYG327690 VIC327690 VRY327690 WBU327690 WLQ327690 WVM327690 E393226 JA393226 SW393226 ACS393226 AMO393226 AWK393226 BGG393226 BQC393226 BZY393226 CJU393226 CTQ393226 DDM393226 DNI393226 DXE393226 EHA393226 EQW393226 FAS393226 FKO393226 FUK393226 GEG393226 GOC393226 GXY393226 HHU393226 HRQ393226 IBM393226 ILI393226 IVE393226 JFA393226 JOW393226 JYS393226 KIO393226 KSK393226 LCG393226 LMC393226 LVY393226 MFU393226 MPQ393226 MZM393226 NJI393226 NTE393226 ODA393226 OMW393226 OWS393226 PGO393226 PQK393226 QAG393226 QKC393226 QTY393226 RDU393226 RNQ393226 RXM393226 SHI393226 SRE393226 TBA393226 TKW393226 TUS393226 UEO393226 UOK393226 UYG393226 VIC393226 VRY393226 WBU393226 WLQ393226 WVM393226 E458762 JA458762 SW458762 ACS458762 AMO458762 AWK458762 BGG458762 BQC458762 BZY458762 CJU458762 CTQ458762 DDM458762 DNI458762 DXE458762 EHA458762 EQW458762 FAS458762 FKO458762 FUK458762 GEG458762 GOC458762 GXY458762 HHU458762 HRQ458762 IBM458762 ILI458762 IVE458762 JFA458762 JOW458762 JYS458762 KIO458762 KSK458762 LCG458762 LMC458762 LVY458762 MFU458762 MPQ458762 MZM458762 NJI458762 NTE458762 ODA458762 OMW458762 OWS458762 PGO458762 PQK458762 QAG458762 QKC458762 QTY458762 RDU458762 RNQ458762 RXM458762 SHI458762 SRE458762 TBA458762 TKW458762 TUS458762 UEO458762 UOK458762 UYG458762 VIC458762 VRY458762 WBU458762 WLQ458762 WVM458762 E524298 JA524298 SW524298 ACS524298 AMO524298 AWK524298 BGG524298 BQC524298 BZY524298 CJU524298 CTQ524298 DDM524298 DNI524298 DXE524298 EHA524298 EQW524298 FAS524298 FKO524298 FUK524298 GEG524298 GOC524298 GXY524298 HHU524298 HRQ524298 IBM524298 ILI524298 IVE524298 JFA524298 JOW524298 JYS524298 KIO524298 KSK524298 LCG524298 LMC524298 LVY524298 MFU524298 MPQ524298 MZM524298 NJI524298 NTE524298 ODA524298 OMW524298 OWS524298 PGO524298 PQK524298 QAG524298 QKC524298 QTY524298 RDU524298 RNQ524298 RXM524298 SHI524298 SRE524298 TBA524298 TKW524298 TUS524298 UEO524298 UOK524298 UYG524298 VIC524298 VRY524298 WBU524298 WLQ524298 WVM524298 E589834 JA589834 SW589834 ACS589834 AMO589834 AWK589834 BGG589834 BQC589834 BZY589834 CJU589834 CTQ589834 DDM589834 DNI589834 DXE589834 EHA589834 EQW589834 FAS589834 FKO589834 FUK589834 GEG589834 GOC589834 GXY589834 HHU589834 HRQ589834 IBM589834 ILI589834 IVE589834 JFA589834 JOW589834 JYS589834 KIO589834 KSK589834 LCG589834 LMC589834 LVY589834 MFU589834 MPQ589834 MZM589834 NJI589834 NTE589834 ODA589834 OMW589834 OWS589834 PGO589834 PQK589834 QAG589834 QKC589834 QTY589834 RDU589834 RNQ589834 RXM589834 SHI589834 SRE589834 TBA589834 TKW589834 TUS589834 UEO589834 UOK589834 UYG589834 VIC589834 VRY589834 WBU589834 WLQ589834 WVM589834 E655370 JA655370 SW655370 ACS655370 AMO655370 AWK655370 BGG655370 BQC655370 BZY655370 CJU655370 CTQ655370 DDM655370 DNI655370 DXE655370 EHA655370 EQW655370 FAS655370 FKO655370 FUK655370 GEG655370 GOC655370 GXY655370 HHU655370 HRQ655370 IBM655370 ILI655370 IVE655370 JFA655370 JOW655370 JYS655370 KIO655370 KSK655370 LCG655370 LMC655370 LVY655370 MFU655370 MPQ655370 MZM655370 NJI655370 NTE655370 ODA655370 OMW655370 OWS655370 PGO655370 PQK655370 QAG655370 QKC655370 QTY655370 RDU655370 RNQ655370 RXM655370 SHI655370 SRE655370 TBA655370 TKW655370 TUS655370 UEO655370 UOK655370 UYG655370 VIC655370 VRY655370 WBU655370 WLQ655370 WVM655370 E720906 JA720906 SW720906 ACS720906 AMO720906 AWK720906 BGG720906 BQC720906 BZY720906 CJU720906 CTQ720906 DDM720906 DNI720906 DXE720906 EHA720906 EQW720906 FAS720906 FKO720906 FUK720906 GEG720906 GOC720906 GXY720906 HHU720906 HRQ720906 IBM720906 ILI720906 IVE720906 JFA720906 JOW720906 JYS720906 KIO720906 KSK720906 LCG720906 LMC720906 LVY720906 MFU720906 MPQ720906 MZM720906 NJI720906 NTE720906 ODA720906 OMW720906 OWS720906 PGO720906 PQK720906 QAG720906 QKC720906 QTY720906 RDU720906 RNQ720906 RXM720906 SHI720906 SRE720906 TBA720906 TKW720906 TUS720906 UEO720906 UOK720906 UYG720906 VIC720906 VRY720906 WBU720906 WLQ720906 WVM720906 E786442 JA786442 SW786442 ACS786442 AMO786442 AWK786442 BGG786442 BQC786442 BZY786442 CJU786442 CTQ786442 DDM786442 DNI786442 DXE786442 EHA786442 EQW786442 FAS786442 FKO786442 FUK786442 GEG786442 GOC786442 GXY786442 HHU786442 HRQ786442 IBM786442 ILI786442 IVE786442 JFA786442 JOW786442 JYS786442 KIO786442 KSK786442 LCG786442 LMC786442 LVY786442 MFU786442 MPQ786442 MZM786442 NJI786442 NTE786442 ODA786442 OMW786442 OWS786442 PGO786442 PQK786442 QAG786442 QKC786442 QTY786442 RDU786442 RNQ786442 RXM786442 SHI786442 SRE786442 TBA786442 TKW786442 TUS786442 UEO786442 UOK786442 UYG786442 VIC786442 VRY786442 WBU786442 WLQ786442 WVM786442 E851978 JA851978 SW851978 ACS851978 AMO851978 AWK851978 BGG851978 BQC851978 BZY851978 CJU851978 CTQ851978 DDM851978 DNI851978 DXE851978 EHA851978 EQW851978 FAS851978 FKO851978 FUK851978 GEG851978 GOC851978 GXY851978 HHU851978 HRQ851978 IBM851978 ILI851978 IVE851978 JFA851978 JOW851978 JYS851978 KIO851978 KSK851978 LCG851978 LMC851978 LVY851978 MFU851978 MPQ851978 MZM851978 NJI851978 NTE851978 ODA851978 OMW851978 OWS851978 PGO851978 PQK851978 QAG851978 QKC851978 QTY851978 RDU851978 RNQ851978 RXM851978 SHI851978 SRE851978 TBA851978 TKW851978 TUS851978 UEO851978 UOK851978 UYG851978 VIC851978 VRY851978 WBU851978 WLQ851978 WVM851978 E917514 JA917514 SW917514 ACS917514 AMO917514 AWK917514 BGG917514 BQC917514 BZY917514 CJU917514 CTQ917514 DDM917514 DNI917514 DXE917514 EHA917514 EQW917514 FAS917514 FKO917514 FUK917514 GEG917514 GOC917514 GXY917514 HHU917514 HRQ917514 IBM917514 ILI917514 IVE917514 JFA917514 JOW917514 JYS917514 KIO917514 KSK917514 LCG917514 LMC917514 LVY917514 MFU917514 MPQ917514 MZM917514 NJI917514 NTE917514 ODA917514 OMW917514 OWS917514 PGO917514 PQK917514 QAG917514 QKC917514 QTY917514 RDU917514 RNQ917514 RXM917514 SHI917514 SRE917514 TBA917514 TKW917514 TUS917514 UEO917514 UOK917514 UYG917514 VIC917514 VRY917514 WBU917514 WLQ917514 WVM917514 E983050 JA983050 SW983050 ACS983050 AMO983050 AWK983050 BGG983050 BQC983050 BZY983050 CJU983050 CTQ983050 DDM983050 DNI983050 DXE983050 EHA983050 EQW983050 FAS983050 FKO983050 FUK983050 GEG983050 GOC983050 GXY983050 HHU983050 HRQ983050 IBM983050 ILI983050 IVE983050 JFA983050 JOW983050 JYS983050 KIO983050 KSK983050 LCG983050 LMC983050 LVY983050 MFU983050 MPQ983050 MZM983050 NJI983050 NTE983050 ODA983050 OMW983050 OWS983050 PGO983050 PQK983050 QAG983050 QKC983050 QTY983050 RDU983050 RNQ983050 RXM983050 SHI983050 SRE983050 TBA983050 TKW983050 TUS983050 UEO983050 UOK983050 UYG983050 VIC983050 VRY983050 WBU983050 WLQ983050 WVM983050"/>
@@ -33019,9 +32994,7 @@
   </sheetPr>
   <dimension ref="A1:AR518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="U382" sqref="U382"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1"/>
   <cols>
@@ -33366,19 +33339,19 @@
       <c r="E10" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="901" t="str">
+      <c r="F10" s="967" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="901"/>
+      <c r="G10" s="967"/>
       <c r="J10" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="893" t="str">
+      <c r="K10" s="960" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="893"/>
+      <c r="L10" s="960"/>
       <c r="M10" s="69"/>
       <c r="O10" s="30"/>
       <c r="Q10" s="35" t="s">
@@ -33443,19 +33416,19 @@
       <c r="E11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="902" t="str">
+      <c r="F11" s="968" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="902"/>
+      <c r="G11" s="968"/>
       <c r="J11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="893" t="str">
+      <c r="K11" s="960" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="893"/>
+      <c r="L11" s="960"/>
       <c r="M11" s="69"/>
       <c r="O11" s="30"/>
       <c r="Q11" s="35" t="s">
@@ -33497,11 +33470,11 @@
         <v>0</v>
       </c>
       <c r="AK11" s="16" t="str">
-        <f t="shared" ref="AK11:AK74" si="1">IF($V$21="","",$V$21)</f>
+        <f t="shared" ref="AK11:AK38" si="1">IF($V$21="","",$V$21)</f>
         <v/>
       </c>
       <c r="AL11" s="16" t="str">
-        <f t="shared" ref="AL11:AL56" si="2">IF($V$24="","",$V$24)</f>
+        <f t="shared" ref="AL11:AL32" si="2">IF($V$24="","",$V$24)</f>
         <v/>
       </c>
       <c r="AM11" s="16"/>
@@ -33520,19 +33493,19 @@
       <c r="E12" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="902" t="str">
+      <c r="F12" s="968" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="902"/>
+      <c r="G12" s="968"/>
       <c r="J12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="903" t="str">
+      <c r="K12" s="966" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="903"/>
+      <c r="L12" s="966"/>
       <c r="M12" s="69"/>
       <c r="O12" s="30"/>
       <c r="Q12" s="35" t="s">
@@ -33597,19 +33570,19 @@
       <c r="E13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="902" t="str">
+      <c r="F13" s="968" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="902"/>
+      <c r="G13" s="968"/>
       <c r="J13" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="893" t="str">
+      <c r="K13" s="960" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="893"/>
+      <c r="L13" s="960"/>
       <c r="M13" s="69"/>
       <c r="O13" s="30"/>
       <c r="Q13" s="35" t="s">
@@ -33783,19 +33756,19 @@
       <c r="E16" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="893" t="str">
+      <c r="F16" s="960" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="893"/>
+      <c r="G16" s="960"/>
       <c r="J16" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="903" t="str">
+      <c r="K16" s="966" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="903"/>
+      <c r="L16" s="966"/>
       <c r="M16" s="69"/>
       <c r="O16" s="30"/>
       <c r="P16" s="75" t="s">
@@ -33847,19 +33820,19 @@
       <c r="E17" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="893" t="str">
+      <c r="F17" s="960" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="893"/>
+      <c r="G17" s="960"/>
       <c r="J17" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="904" t="str">
+      <c r="K17" s="969" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="904"/>
+      <c r="L17" s="969"/>
       <c r="M17" s="69"/>
       <c r="O17" s="30"/>
       <c r="Q17" s="35" t="s">
@@ -33924,19 +33897,19 @@
       <c r="E18" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="893" t="str">
+      <c r="F18" s="960" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="893"/>
+      <c r="G18" s="960"/>
       <c r="J18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="893" t="str">
+      <c r="K18" s="960" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="893"/>
+      <c r="L18" s="960"/>
       <c r="M18" s="69"/>
       <c r="O18" s="30"/>
       <c r="Q18" s="35" t="s">
@@ -34102,19 +34075,19 @@
       <c r="E21" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="893" t="str">
+      <c r="F21" s="960" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="893"/>
+      <c r="G21" s="960"/>
       <c r="J21" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="893" t="str">
+      <c r="K21" s="960" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L21" s="893"/>
+      <c r="L21" s="960"/>
       <c r="M21" s="69"/>
       <c r="O21" s="30"/>
       <c r="P21" s="75" t="s">
@@ -34174,17 +34147,17 @@
       <c r="E22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="903" t="str">
+      <c r="F22" s="966" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="903"/>
+      <c r="G22" s="966"/>
       <c r="J22" s="35"/>
-      <c r="K22" s="893" t="str">
+      <c r="K22" s="960" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="893"/>
+      <c r="L22" s="960"/>
       <c r="M22" s="69"/>
       <c r="O22" s="30"/>
       <c r="Q22" s="35" t="s">
@@ -34249,11 +34222,11 @@
       <c r="J23" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="893" t="str">
+      <c r="K23" s="960" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="893"/>
+      <c r="L23" s="960"/>
       <c r="M23" s="69"/>
       <c r="O23" s="30"/>
       <c r="Q23" s="35" t="s">
@@ -34312,16 +34285,16 @@
       <c r="E24" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="893" t="str">
+      <c r="F24" s="960" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="893"/>
-      <c r="K24" s="893" t="str">
+      <c r="G24" s="960"/>
+      <c r="K24" s="960" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="893"/>
+      <c r="L24" s="960"/>
       <c r="M24" s="69"/>
       <c r="O24" s="30"/>
       <c r="P24" s="75" t="s">
@@ -34381,17 +34354,17 @@
       <c r="E25" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="893" t="str">
+      <c r="F25" s="960" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="893"/>
+      <c r="G25" s="960"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="893" t="str">
+      <c r="K25" s="960" t="str">
         <f>IF(V26="","",V26)</f>
         <v/>
       </c>
-      <c r="L25" s="893"/>
+      <c r="L25" s="960"/>
       <c r="M25" s="69"/>
       <c r="O25" s="30"/>
       <c r="Q25" s="35" t="s">
@@ -34453,11 +34426,11 @@
       <c r="E26" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="893" t="str">
+      <c r="F26" s="960" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="893"/>
+      <c r="G26" s="960"/>
       <c r="I26" s="75" t="s">
         <v>55</v>
       </c>
@@ -34525,11 +34498,11 @@
       <c r="J27" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="893" t="str">
+      <c r="K27" s="960" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="893"/>
+      <c r="L27" s="960"/>
       <c r="M27" s="69"/>
       <c r="O27" s="30"/>
       <c r="Q27" s="35" t="s">
@@ -34580,20 +34553,20 @@
       <c r="E28" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="893" t="str">
+      <c r="F28" s="960" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="893"/>
+      <c r="G28" s="960"/>
       <c r="I28" s="4"/>
       <c r="J28" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="K28" s="893" t="str">
+      <c r="K28" s="960" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="893"/>
+      <c r="L28" s="960"/>
       <c r="M28" s="69"/>
       <c r="O28" s="30"/>
       <c r="P28" s="75" t="s">
@@ -34653,22 +34626,22 @@
       <c r="E29" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="893" t="str">
+      <c r="F29" s="960" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="893"/>
+      <c r="G29" s="960"/>
       <c r="I29" s="75" t="s">
         <v>59</v>
       </c>
       <c r="J29" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="K29" s="893" t="str">
+      <c r="K29" s="960" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="893"/>
+      <c r="L29" s="960"/>
       <c r="M29" s="69"/>
       <c r="O29" s="30"/>
       <c r="Q29" s="35" t="s">
@@ -34733,19 +34706,19 @@
       <c r="E30" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="893" t="str">
+      <c r="F30" s="960" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="893"/>
+      <c r="G30" s="960"/>
       <c r="J30" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="K30" s="893" t="str">
+      <c r="K30" s="960" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="893"/>
+      <c r="L30" s="960"/>
       <c r="M30" s="69"/>
       <c r="O30" s="30"/>
       <c r="Q30" s="35" t="s">
@@ -34937,29 +34910,29 @@
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="AH33" s="987">
+      <c r="AH33" s="871">
         <v>28</v>
       </c>
-      <c r="AI33" s="988">
+      <c r="AI33" s="872">
         <v>50</v>
       </c>
-      <c r="AJ33" s="989">
+      <c r="AJ33" s="873">
         <v>0</v>
       </c>
-      <c r="AK33" s="988" t="str">
+      <c r="AK33" s="872" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AL33" s="988" t="str">
+      <c r="AL33" s="872" t="str">
         <f>IF($V$25="","",$V$25)</f>
         <v/>
       </c>
-      <c r="AM33" s="988"/>
-      <c r="AN33" s="988"/>
-      <c r="AO33" s="988"/>
-      <c r="AP33" s="988"/>
-      <c r="AQ33" s="990"/>
-      <c r="AR33" s="991"/>
+      <c r="AM33" s="872"/>
+      <c r="AN33" s="872"/>
+      <c r="AO33" s="872"/>
+      <c r="AP33" s="872"/>
+      <c r="AQ33" s="874"/>
+      <c r="AR33" s="875"/>
     </row>
     <row r="34" spans="1:44" ht="14.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A34" s="17">
@@ -35011,7 +34984,7 @@
         <v/>
       </c>
       <c r="AL34" s="561" t="str">
-        <f t="shared" ref="AL34:AL90" si="5">IF($V$25="","",$V$25)</f>
+        <f t="shared" ref="AL34:AL42" si="5">IF($V$25="","",$V$25)</f>
         <v/>
       </c>
       <c r="AM34" s="561"/>
@@ -35029,21 +35002,21 @@
       <c r="C35" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="900" t="s">
+      <c r="D35" s="970" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="900"/>
-      <c r="F35" s="900"/>
-      <c r="G35" s="900" t="s">
+      <c r="E35" s="970"/>
+      <c r="F35" s="970"/>
+      <c r="G35" s="970" t="s">
         <v>65</v>
       </c>
-      <c r="H35" s="900"/>
-      <c r="I35" s="900"/>
-      <c r="J35" s="900" t="s">
+      <c r="H35" s="970"/>
+      <c r="I35" s="970"/>
+      <c r="J35" s="970" t="s">
         <v>66</v>
       </c>
-      <c r="K35" s="900"/>
-      <c r="L35" s="900"/>
+      <c r="K35" s="970"/>
+      <c r="L35" s="970"/>
       <c r="M35" s="69"/>
       <c r="O35" s="40"/>
       <c r="P35" s="41"/>
@@ -35103,11 +35076,11 @@
       <c r="D36" s="544"/>
       <c r="E36" s="545"/>
       <c r="F36" s="550"/>
-      <c r="G36" s="896" t="s">
+      <c r="G36" s="971" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="896"/>
-      <c r="I36" s="896"/>
+      <c r="H36" s="971"/>
+      <c r="I36" s="971"/>
       <c r="J36" s="544"/>
       <c r="K36" s="545"/>
       <c r="L36" s="550"/>
@@ -35199,29 +35172,29 @@
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="AH37" s="992">
+      <c r="AH37" s="876">
         <v>32</v>
       </c>
-      <c r="AI37" s="993">
+      <c r="AI37" s="877">
         <v>50</v>
       </c>
-      <c r="AJ37" s="994">
+      <c r="AJ37" s="878">
         <v>0</v>
       </c>
-      <c r="AK37" s="993" t="str">
+      <c r="AK37" s="877" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AL37" s="993" t="str">
+      <c r="AL37" s="877" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AM37" s="993"/>
-      <c r="AN37" s="993"/>
-      <c r="AO37" s="993"/>
-      <c r="AP37" s="993"/>
-      <c r="AQ37" s="995"/>
-      <c r="AR37" s="996"/>
+      <c r="AM37" s="877"/>
+      <c r="AN37" s="877"/>
+      <c r="AO37" s="877"/>
+      <c r="AP37" s="877"/>
+      <c r="AQ37" s="879"/>
+      <c r="AR37" s="880"/>
     </row>
     <row r="38" spans="1:44" ht="14.1" customHeight="1" thickTop="1">
       <c r="A38" s="17">
@@ -35389,7 +35362,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="561" t="str">
-        <f t="shared" ref="AK39:AK90" si="7">IF($V$21="","",$V$21)</f>
+        <f t="shared" ref="AK39:AK42" si="7">IF($V$21="","",$V$21)</f>
         <v/>
       </c>
       <c r="AL39" s="561" t="str">
@@ -35598,29 +35571,29 @@
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="AH42" s="997">
+      <c r="AH42" s="881">
         <v>38</v>
       </c>
-      <c r="AI42" s="998">
+      <c r="AI42" s="882">
         <v>50</v>
       </c>
-      <c r="AJ42" s="999">
+      <c r="AJ42" s="883">
         <v>0</v>
       </c>
-      <c r="AK42" s="998" t="str">
+      <c r="AK42" s="882" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL42" s="998" t="str">
+      <c r="AL42" s="882" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AM42" s="998"/>
-      <c r="AN42" s="998"/>
-      <c r="AO42" s="998"/>
-      <c r="AP42" s="998"/>
-      <c r="AQ42" s="1000"/>
-      <c r="AR42" s="1001"/>
+      <c r="AM42" s="882"/>
+      <c r="AN42" s="882"/>
+      <c r="AO42" s="882"/>
+      <c r="AP42" s="882"/>
+      <c r="AQ42" s="884"/>
+      <c r="AR42" s="885"/>
     </row>
     <row r="43" spans="1:44" ht="14.1" customHeight="1">
       <c r="A43" s="17">
@@ -35648,29 +35621,29 @@
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="AH43" s="1002">
+      <c r="AH43" s="886">
         <v>28</v>
       </c>
-      <c r="AI43" s="1003">
+      <c r="AI43" s="887">
         <v>50</v>
       </c>
-      <c r="AJ43" s="1004">
+      <c r="AJ43" s="888">
         <v>0</v>
       </c>
-      <c r="AK43" s="1003" t="str">
+      <c r="AK43" s="887" t="str">
         <f>IF($V$22="","",$V$22)</f>
         <v/>
       </c>
-      <c r="AL43" s="1003" t="str">
+      <c r="AL43" s="887" t="str">
         <f>IF($V$25="","",$V$25)</f>
         <v/>
       </c>
-      <c r="AM43" s="1003"/>
-      <c r="AN43" s="1003"/>
-      <c r="AO43" s="1003"/>
-      <c r="AP43" s="1003"/>
-      <c r="AQ43" s="1005"/>
-      <c r="AR43" s="1006"/>
+      <c r="AM43" s="887"/>
+      <c r="AN43" s="887"/>
+      <c r="AO43" s="887"/>
+      <c r="AP43" s="887"/>
+      <c r="AQ43" s="889"/>
+      <c r="AR43" s="890"/>
     </row>
     <row r="44" spans="1:44" ht="14.1" customHeight="1">
       <c r="A44" s="17">
@@ -35680,10 +35653,10 @@
       <c r="C44" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="L44" s="897" t="s">
+      <c r="L44" s="972" t="s">
         <v>89</v>
       </c>
-      <c r="M44" s="897"/>
+      <c r="M44" s="972"/>
       <c r="O44" s="30"/>
       <c r="Y44" s="32"/>
       <c r="AA44" s="75" t="s">
@@ -35699,11 +35672,11 @@
         <v>0</v>
       </c>
       <c r="AK44" s="556" t="str">
-        <f t="shared" ref="AK44:AK132" si="8">IF($V$22="","",$V$22)</f>
+        <f t="shared" ref="AK44:AK54" si="8">IF($V$22="","",$V$22)</f>
         <v/>
       </c>
       <c r="AL44" s="556" t="str">
-        <f t="shared" ref="AL44:AL132" si="9">IF($V$25="","",$V$25)</f>
+        <f t="shared" ref="AL44:AL54" si="9">IF($V$25="","",$V$25)</f>
         <v/>
       </c>
       <c r="AM44" s="556"/>
@@ -35711,7 +35684,7 @@
       <c r="AO44" s="556"/>
       <c r="AP44" s="556"/>
       <c r="AQ44" s="789"/>
-      <c r="AR44" s="1007"/>
+      <c r="AR44" s="891"/>
     </row>
     <row r="45" spans="1:44" ht="14.1" customHeight="1">
       <c r="A45" s="17">
@@ -35762,7 +35735,7 @@
       <c r="AO45" s="556"/>
       <c r="AP45" s="556"/>
       <c r="AQ45" s="789"/>
-      <c r="AR45" s="1007"/>
+      <c r="AR45" s="891"/>
     </row>
     <row r="46" spans="1:44" ht="14.1" customHeight="1">
       <c r="A46" s="17">
@@ -35818,7 +35791,7 @@
       <c r="AO46" s="556"/>
       <c r="AP46" s="556"/>
       <c r="AQ46" s="789"/>
-      <c r="AR46" s="1007"/>
+      <c r="AR46" s="891"/>
     </row>
     <row r="47" spans="1:44" ht="14.1" customHeight="1">
       <c r="A47" s="17">
@@ -35874,7 +35847,7 @@
       <c r="AO47" s="556"/>
       <c r="AP47" s="556"/>
       <c r="AQ47" s="789"/>
-      <c r="AR47" s="1007"/>
+      <c r="AR47" s="891"/>
     </row>
     <row r="48" spans="1:44" ht="14.1" customHeight="1">
       <c r="A48" s="17">
@@ -35927,7 +35900,7 @@
       <c r="AO48" s="556"/>
       <c r="AP48" s="556"/>
       <c r="AQ48" s="789"/>
-      <c r="AR48" s="1007"/>
+      <c r="AR48" s="891"/>
     </row>
     <row r="49" spans="1:44" ht="14.1" customHeight="1">
       <c r="A49" s="17">
@@ -35980,7 +35953,7 @@
       <c r="AO49" s="556"/>
       <c r="AP49" s="556"/>
       <c r="AQ49" s="789"/>
-      <c r="AR49" s="1007"/>
+      <c r="AR49" s="891"/>
     </row>
     <row r="50" spans="1:44" ht="14.1" customHeight="1">
       <c r="A50" s="17">
@@ -36026,7 +35999,7 @@
       <c r="AO50" s="556"/>
       <c r="AP50" s="556"/>
       <c r="AQ50" s="789"/>
-      <c r="AR50" s="1007"/>
+      <c r="AR50" s="891"/>
     </row>
     <row r="51" spans="1:44" ht="14.1" customHeight="1">
       <c r="A51" s="17">
@@ -36079,7 +36052,7 @@
       <c r="AO51" s="556"/>
       <c r="AP51" s="556"/>
       <c r="AQ51" s="789"/>
-      <c r="AR51" s="1007"/>
+      <c r="AR51" s="891"/>
     </row>
     <row r="52" spans="1:44" ht="14.1" customHeight="1">
       <c r="A52" s="17">
@@ -36132,7 +36105,7 @@
       <c r="AO52" s="556"/>
       <c r="AP52" s="556"/>
       <c r="AQ52" s="789"/>
-      <c r="AR52" s="1007"/>
+      <c r="AR52" s="891"/>
     </row>
     <row r="53" spans="1:44" ht="14.1" customHeight="1">
       <c r="A53" s="17">
@@ -36185,7 +36158,7 @@
       <c r="AO53" s="556"/>
       <c r="AP53" s="556"/>
       <c r="AQ53" s="789"/>
-      <c r="AR53" s="1007"/>
+      <c r="AR53" s="891"/>
     </row>
     <row r="54" spans="1:44" ht="14.1" customHeight="1">
       <c r="A54" s="17">
@@ -36238,7 +36211,7 @@
       <c r="AO54" s="556"/>
       <c r="AP54" s="556"/>
       <c r="AQ54" s="789"/>
-      <c r="AR54" s="1007"/>
+      <c r="AR54" s="891"/>
     </row>
     <row r="55" spans="1:44" ht="14.1" customHeight="1">
       <c r="A55" s="17">
@@ -39367,21 +39340,21 @@
       <c r="O121" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="P121" s="883" t="s">
+      <c r="P121" s="973" t="s">
         <v>64</v>
       </c>
-      <c r="Q121" s="884"/>
-      <c r="R121" s="885"/>
-      <c r="S121" s="883" t="s">
+      <c r="Q121" s="974"/>
+      <c r="R121" s="975"/>
+      <c r="S121" s="973" t="s">
         <v>515</v>
       </c>
-      <c r="T121" s="884"/>
-      <c r="U121" s="885"/>
-      <c r="V121" s="883" t="s">
+      <c r="T121" s="974"/>
+      <c r="U121" s="975"/>
+      <c r="V121" s="973" t="s">
         <v>66</v>
       </c>
-      <c r="W121" s="884"/>
-      <c r="X121" s="898"/>
+      <c r="W121" s="974"/>
+      <c r="X121" s="979"/>
       <c r="Y121" s="32"/>
       <c r="AA121" s="35" t="s">
         <v>597</v>
@@ -39430,15 +39403,15 @@
       <c r="O122" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="P122" s="886"/>
-      <c r="Q122" s="887"/>
-      <c r="R122" s="888"/>
-      <c r="S122" s="886"/>
-      <c r="T122" s="887"/>
-      <c r="U122" s="888"/>
-      <c r="V122" s="886"/>
-      <c r="W122" s="887"/>
-      <c r="X122" s="899"/>
+      <c r="P122" s="976"/>
+      <c r="Q122" s="977"/>
+      <c r="R122" s="978"/>
+      <c r="S122" s="976"/>
+      <c r="T122" s="977"/>
+      <c r="U122" s="978"/>
+      <c r="V122" s="976"/>
+      <c r="W122" s="977"/>
+      <c r="X122" s="980"/>
       <c r="Y122" s="32"/>
       <c r="AA122" s="35" t="s">
         <v>598</v>
@@ -39930,21 +39903,21 @@
       <c r="O129" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="P129" s="883" t="s">
+      <c r="P129" s="973" t="s">
         <v>64</v>
       </c>
-      <c r="Q129" s="884"/>
-      <c r="R129" s="885"/>
-      <c r="S129" s="883" t="s">
+      <c r="Q129" s="974"/>
+      <c r="R129" s="975"/>
+      <c r="S129" s="973" t="s">
         <v>515</v>
       </c>
-      <c r="T129" s="884"/>
-      <c r="U129" s="885"/>
-      <c r="V129" s="889" t="s">
+      <c r="T129" s="974"/>
+      <c r="U129" s="975"/>
+      <c r="V129" s="981" t="s">
         <v>66</v>
       </c>
-      <c r="W129" s="890"/>
-      <c r="X129" s="891"/>
+      <c r="W129" s="982"/>
+      <c r="X129" s="983"/>
       <c r="Y129" s="32"/>
       <c r="AA129" s="35" t="s">
         <v>605</v>
@@ -39993,15 +39966,15 @@
       <c r="O130" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="P130" s="886"/>
-      <c r="Q130" s="887"/>
-      <c r="R130" s="888"/>
-      <c r="S130" s="886"/>
-      <c r="T130" s="887"/>
-      <c r="U130" s="888"/>
-      <c r="V130" s="892"/>
-      <c r="W130" s="893"/>
-      <c r="X130" s="894"/>
+      <c r="P130" s="976"/>
+      <c r="Q130" s="977"/>
+      <c r="R130" s="978"/>
+      <c r="S130" s="976"/>
+      <c r="T130" s="977"/>
+      <c r="U130" s="978"/>
+      <c r="V130" s="984"/>
+      <c r="W130" s="960"/>
+      <c r="X130" s="985"/>
       <c r="Y130" s="32"/>
       <c r="AA130" s="21" t="s">
         <v>606</v>
@@ -41689,12 +41662,12 @@
       <c r="L173" s="68"/>
       <c r="M173" s="69"/>
       <c r="O173" s="30"/>
-      <c r="P173" s="895" t="s">
+      <c r="P173" s="964" t="s">
         <v>227</v>
       </c>
-      <c r="Q173" s="895"/>
-      <c r="R173" s="895"/>
-      <c r="S173" s="895"/>
+      <c r="Q173" s="964"/>
+      <c r="R173" s="964"/>
+      <c r="S173" s="964"/>
       <c r="U173" s="548" t="s">
         <v>228</v>
       </c>
@@ -41864,12 +41837,12 @@
       </c>
       <c r="B179" s="67"/>
       <c r="C179" s="68"/>
-      <c r="D179" s="895" t="s">
+      <c r="D179" s="964" t="s">
         <v>227</v>
       </c>
-      <c r="E179" s="895"/>
-      <c r="F179" s="895"/>
-      <c r="G179" s="895"/>
+      <c r="E179" s="964"/>
+      <c r="F179" s="964"/>
+      <c r="G179" s="964"/>
       <c r="H179" s="68"/>
       <c r="I179" s="548" t="s">
         <v>228</v>
@@ -42007,17 +41980,17 @@
       <c r="M182" s="69"/>
       <c r="O182" s="30"/>
       <c r="P182" s="68"/>
-      <c r="Q182" s="873" t="s">
+      <c r="Q182" s="957" t="s">
         <v>239</v>
       </c>
-      <c r="R182" s="873"/>
-      <c r="S182" s="873"/>
+      <c r="R182" s="957"/>
+      <c r="S182" s="957"/>
       <c r="T182" s="4"/>
-      <c r="U182" s="873" t="s">
+      <c r="U182" s="957" t="s">
         <v>239</v>
       </c>
-      <c r="V182" s="873"/>
-      <c r="W182" s="873"/>
+      <c r="V182" s="957"/>
+      <c r="W182" s="957"/>
       <c r="X182" s="4"/>
       <c r="Y182" s="32"/>
     </row>
@@ -42146,22 +42119,22 @@
       </c>
       <c r="B186" s="67"/>
       <c r="C186" s="107"/>
-      <c r="D186" s="907" t="s">
+      <c r="D186" s="961" t="s">
         <v>239</v>
       </c>
-      <c r="E186" s="908"/>
-      <c r="F186" s="909"/>
+      <c r="E186" s="962"/>
+      <c r="F186" s="963"/>
       <c r="G186" s="162"/>
-      <c r="H186" s="907" t="s">
+      <c r="H186" s="961" t="s">
         <v>239</v>
       </c>
-      <c r="I186" s="908"/>
-      <c r="J186" s="909"/>
-      <c r="K186" s="907" t="s">
+      <c r="I186" s="962"/>
+      <c r="J186" s="963"/>
+      <c r="K186" s="961" t="s">
         <v>239</v>
       </c>
-      <c r="L186" s="908"/>
-      <c r="M186" s="910"/>
+      <c r="L186" s="962"/>
+      <c r="M186" s="965"/>
       <c r="O186" s="161"/>
       <c r="P186" s="162" t="s">
         <v>245</v>
@@ -42634,17 +42607,17 @@
       <c r="M194" s="69"/>
       <c r="O194" s="161"/>
       <c r="P194" s="68"/>
-      <c r="Q194" s="873" t="s">
+      <c r="Q194" s="957" t="s">
         <v>239</v>
       </c>
-      <c r="R194" s="873"/>
-      <c r="S194" s="873"/>
+      <c r="R194" s="957"/>
+      <c r="S194" s="957"/>
       <c r="T194" s="4"/>
-      <c r="U194" s="873" t="s">
+      <c r="U194" s="957" t="s">
         <v>239</v>
       </c>
-      <c r="V194" s="873"/>
-      <c r="W194" s="873"/>
+      <c r="V194" s="957"/>
+      <c r="W194" s="957"/>
       <c r="X194" s="4"/>
       <c r="Y194" s="32"/>
     </row>
@@ -44828,11 +44801,11 @@
         <v>237</v>
       </c>
       <c r="T245" s="4"/>
-      <c r="U245" s="873" t="s">
+      <c r="U245" s="957" t="s">
         <v>295</v>
       </c>
-      <c r="V245" s="873"/>
-      <c r="W245" s="873"/>
+      <c r="V245" s="957"/>
+      <c r="W245" s="957"/>
       <c r="X245" s="4"/>
       <c r="Y245" s="234"/>
       <c r="Z245" s="549"/>
@@ -45030,11 +45003,11 @@
         <v>237</v>
       </c>
       <c r="G250" s="68"/>
-      <c r="H250" s="907" t="s">
+      <c r="H250" s="961" t="s">
         <v>295</v>
       </c>
-      <c r="I250" s="908"/>
-      <c r="J250" s="909"/>
+      <c r="I250" s="962"/>
+      <c r="J250" s="963"/>
       <c r="K250" s="68"/>
       <c r="L250" s="68"/>
       <c r="M250" s="69"/>
@@ -47254,17 +47227,17 @@
       </c>
       <c r="F291" s="496" t="str">
         <f>IF(P368="","",P368)</f>
-        <v>CB2-17090320</v>
+        <v/>
       </c>
       <c r="G291" s="59"/>
       <c r="H291" s="266" t="s">
         <v>330</v>
       </c>
-      <c r="I291" s="905">
+      <c r="I291" s="958" t="str">
         <f>IF(S367="","",S367)</f>
-        <v>43014</v>
-      </c>
-      <c r="J291" s="905"/>
+        <v/>
+      </c>
+      <c r="J291" s="958"/>
       <c r="K291" s="59"/>
       <c r="L291" s="59"/>
       <c r="M291" s="61"/>
@@ -47311,11 +47284,11 @@
       <c r="H292" s="162" t="s">
         <v>332</v>
       </c>
-      <c r="I292" s="906">
+      <c r="I292" s="959" t="str">
         <f>IF(S368="","",S368)</f>
-        <v>43744</v>
-      </c>
-      <c r="J292" s="906"/>
+        <v/>
+      </c>
+      <c r="J292" s="959"/>
       <c r="K292" s="4"/>
       <c r="M292" s="69"/>
       <c r="O292" s="461"/>
@@ -47415,11 +47388,11 @@
       </c>
       <c r="B294" s="67"/>
       <c r="C294" s="162"/>
-      <c r="F294" s="873" t="s">
+      <c r="F294" s="957" t="s">
         <v>333</v>
       </c>
-      <c r="G294" s="873"/>
-      <c r="H294" s="873"/>
+      <c r="G294" s="957"/>
+      <c r="H294" s="957"/>
       <c r="I294" s="549"/>
       <c r="J294" s="549"/>
       <c r="K294" s="107"/>
@@ -51145,9 +51118,7 @@
       <c r="R367" s="35" t="s">
         <v>330</v>
       </c>
-      <c r="S367" s="263">
-        <v>43014</v>
-      </c>
+      <c r="S367" s="263"/>
       <c r="Y367" s="32"/>
     </row>
     <row r="368" spans="1:25" ht="14.1" customHeight="1">
@@ -51184,15 +51155,11 @@
       <c r="O368" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="P368" s="137" t="s">
-        <v>780</v>
-      </c>
+      <c r="P368" s="137"/>
       <c r="R368" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="S368" s="263">
-        <v>43744</v>
-      </c>
+      <c r="S368" s="263"/>
       <c r="Y368" s="32"/>
     </row>
     <row r="369" spans="1:25" ht="14.1" customHeight="1">
@@ -51227,13 +51194,13 @@
       <c r="L369" s="68"/>
       <c r="M369" s="69"/>
       <c r="O369" s="30"/>
-      <c r="S369" s="873" t="s">
+      <c r="S369" s="957" t="s">
         <v>333</v>
       </c>
-      <c r="T369" s="873"/>
-      <c r="U369" s="873"/>
-      <c r="V369" s="873"/>
-      <c r="W369" s="873"/>
+      <c r="T369" s="957"/>
+      <c r="U369" s="957"/>
+      <c r="V369" s="957"/>
+      <c r="W369" s="957"/>
       <c r="Y369" s="32"/>
     </row>
     <row r="370" spans="1:25" ht="14.1" customHeight="1" thickBot="1">
@@ -51319,7 +51286,7 @@
       <c r="L371" s="68"/>
       <c r="M371" s="69"/>
       <c r="O371" s="30"/>
-      <c r="P371" s="880" t="str">
+      <c r="P371" s="986" t="str">
         <f>AK10&amp;"/"&amp;AL10</f>
         <v>/</v>
       </c>
@@ -51378,7 +51345,7 @@
       <c r="L372" s="68"/>
       <c r="M372" s="69"/>
       <c r="O372" s="30"/>
-      <c r="P372" s="881"/>
+      <c r="P372" s="987"/>
       <c r="Q372" s="307">
         <f>AH12</f>
         <v>25</v>
@@ -51432,7 +51399,7 @@
       <c r="L373" s="68"/>
       <c r="M373" s="69"/>
       <c r="O373" s="30"/>
-      <c r="P373" s="881"/>
+      <c r="P373" s="987"/>
       <c r="Q373" s="306">
         <f>AH18</f>
         <v>26</v>
@@ -51495,7 +51462,7 @@
       <c r="L374"/>
       <c r="M374" s="69"/>
       <c r="O374" s="30"/>
-      <c r="P374" s="881"/>
+      <c r="P374" s="987"/>
       <c r="Q374" s="306">
         <f>AH20</f>
         <v>28</v>
@@ -51558,7 +51525,7 @@
       <c r="L375"/>
       <c r="M375" s="69"/>
       <c r="O375" s="30"/>
-      <c r="P375" s="881"/>
+      <c r="P375" s="987"/>
       <c r="Q375" s="306">
         <f>AH28</f>
         <v>30</v>
@@ -51621,7 +51588,7 @@
       <c r="L376"/>
       <c r="M376" s="69"/>
       <c r="O376" s="30"/>
-      <c r="P376" s="881"/>
+      <c r="P376" s="987"/>
       <c r="Q376" s="306">
         <f>AH29</f>
         <v>32</v>
@@ -51684,7 +51651,7 @@
       <c r="L377"/>
       <c r="M377" s="69"/>
       <c r="O377" s="30"/>
-      <c r="P377" s="882"/>
+      <c r="P377" s="988"/>
       <c r="Q377" s="306">
         <f>AH31</f>
         <v>34</v>
@@ -51747,7 +51714,7 @@
       <c r="L378"/>
       <c r="M378" s="69"/>
       <c r="O378" s="30"/>
-      <c r="P378" s="874" t="str">
+      <c r="P378" s="995" t="str">
         <f>AK33&amp;"/"&amp;AL33</f>
         <v>/</v>
       </c>
@@ -51806,7 +51773,7 @@
       <c r="L379"/>
       <c r="M379" s="69"/>
       <c r="O379" s="161"/>
-      <c r="P379" s="875"/>
+      <c r="P379" s="996"/>
       <c r="Q379" s="306">
         <f>AH35</f>
         <v>30</v>
@@ -51848,7 +51815,7 @@
       <c r="B380" s="67"/>
       <c r="M380" s="69"/>
       <c r="O380" s="30"/>
-      <c r="P380" s="875"/>
+      <c r="P380" s="996"/>
       <c r="Q380" s="306">
         <f>AH37</f>
         <v>32</v>
@@ -51902,7 +51869,7 @@
       <c r="L381" s="68"/>
       <c r="M381" s="69"/>
       <c r="O381" s="30"/>
-      <c r="P381" s="875"/>
+      <c r="P381" s="996"/>
       <c r="Q381" s="306">
         <f>AH39</f>
         <v>34</v>
@@ -51969,25 +51936,25 @@
       </c>
       <c r="M382" s="69"/>
       <c r="O382" s="30"/>
-      <c r="P382" s="875"/>
+      <c r="P382" s="996"/>
       <c r="Q382" s="306">
-        <f>AH41</f>
+        <f t="shared" ref="Q382:R384" si="71">AH41</f>
         <v>36</v>
       </c>
       <c r="R382" s="11">
-        <f>AI41</f>
+        <f t="shared" si="71"/>
         <v>50</v>
       </c>
       <c r="S382" s="12" t="str">
-        <f>IF(AM41="","",AM41)</f>
+        <f t="shared" ref="S382:U383" si="72">IF(AM41="","",AM41)</f>
         <v/>
       </c>
       <c r="T382" s="12" t="str">
-        <f>IF(AN41="","",AN41)</f>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U382" s="12" t="str">
-        <f>IF(AO41="","",AO41)</f>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="V382" s="13" t="str">
@@ -52043,25 +52010,25 @@
       </c>
       <c r="M383" s="69"/>
       <c r="O383" s="30"/>
-      <c r="P383" s="876"/>
+      <c r="P383" s="997"/>
       <c r="Q383" s="306">
-        <f>AH42</f>
+        <f t="shared" si="71"/>
         <v>38</v>
       </c>
       <c r="R383" s="11">
-        <f>AI42</f>
+        <f t="shared" si="71"/>
         <v>50</v>
       </c>
       <c r="S383" s="12" t="str">
-        <f>IF(AM42="","",AM42)</f>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="T383" s="12" t="str">
-        <f>IF(AN42="","",AN42)</f>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U383" s="12" t="str">
-        <f>IF(AO42="","",AO42)</f>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="V383" s="13" t="str">
@@ -52117,16 +52084,16 @@
       </c>
       <c r="M384" s="69"/>
       <c r="O384" s="30"/>
-      <c r="P384" s="874" t="str">
+      <c r="P384" s="995" t="str">
         <f>AK43&amp;"/"&amp;AL43</f>
         <v>/</v>
       </c>
       <c r="Q384" s="307">
-        <f>AH43</f>
+        <f t="shared" si="71"/>
         <v>28</v>
       </c>
       <c r="R384" s="11">
-        <f>AI43</f>
+        <f t="shared" si="71"/>
         <v>50</v>
       </c>
       <c r="S384" s="12" t="str">
@@ -52177,7 +52144,7 @@
       <c r="L385" s="68"/>
       <c r="M385" s="69"/>
       <c r="O385" s="30"/>
-      <c r="P385" s="875"/>
+      <c r="P385" s="996"/>
       <c r="Q385" s="307">
         <f>AH47</f>
         <v>30</v>
@@ -52233,7 +52200,7 @@
       <c r="L386" s="68"/>
       <c r="M386" s="69"/>
       <c r="O386" s="30"/>
-      <c r="P386" s="875"/>
+      <c r="P386" s="996"/>
       <c r="Q386" s="306">
         <f>AH49</f>
         <v>32</v>
@@ -52287,7 +52254,7 @@
       <c r="L387" s="68"/>
       <c r="M387" s="69"/>
       <c r="O387" s="30"/>
-      <c r="P387" s="875"/>
+      <c r="P387" s="996"/>
       <c r="Q387" s="306">
         <f>AH51</f>
         <v>34</v>
@@ -52339,7 +52306,7 @@
       <c r="L388" s="68"/>
       <c r="M388" s="69"/>
       <c r="O388" s="30"/>
-      <c r="P388" s="876"/>
+      <c r="P388" s="997"/>
       <c r="Q388" s="306">
         <f>AH53</f>
         <v>38</v>
@@ -52445,7 +52412,7 @@
         <v>172</v>
       </c>
       <c r="E391" s="484" t="str">
-        <f t="shared" ref="E391:E396" si="71">IF(Q432="","",Q432)</f>
+        <f t="shared" ref="E391:E396" si="73">IF(Q432="","",Q432)</f>
         <v/>
       </c>
       <c r="F391" s="332"/>
@@ -52453,15 +52420,15 @@
         <v>70</v>
       </c>
       <c r="H391" s="337" t="str">
-        <f t="shared" ref="H391:J396" si="72">IF(Q447="","",Q447)</f>
+        <f t="shared" ref="H391:J396" si="74">IF(Q447="","",Q447)</f>
         <v>Mo/Mo</v>
       </c>
       <c r="I391" s="295" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>Mo/Rh</v>
       </c>
       <c r="J391" s="338" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>W/Rh</v>
       </c>
       <c r="K391" s="332"/>
@@ -52495,7 +52462,7 @@
         <v>175</v>
       </c>
       <c r="E392" s="485" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="F392" s="332"/>
@@ -52503,15 +52470,15 @@
         <v>172</v>
       </c>
       <c r="H392" s="337" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="I392" s="295" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="J392" s="338" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="K392" s="332"/>
@@ -52564,7 +52531,7 @@
         <v>328</v>
       </c>
       <c r="E393" s="485" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="F393" s="332"/>
@@ -52572,26 +52539,26 @@
         <v>175</v>
       </c>
       <c r="H393" s="337" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="I393" s="295" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="J393" s="338" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="K393" s="162" t="s">
         <v>186</v>
       </c>
       <c r="L393" s="204" t="str">
-        <f t="shared" ref="L393:M395" si="73">IF(Q442="","",Q442)</f>
+        <f t="shared" ref="L393:M395" si="75">IF(Q442="","",Q442)</f>
         <v/>
       </c>
       <c r="M393" s="262" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="O393" s="317"/>
@@ -52623,7 +52590,7 @@
         <v>181</v>
       </c>
       <c r="E394" s="485" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="F394" s="332"/>
@@ -52631,26 +52598,26 @@
         <v>186</v>
       </c>
       <c r="H394" s="337" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="I394" s="295" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="J394" s="338" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="K394" s="162" t="s">
         <v>188</v>
       </c>
       <c r="L394" s="206" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="M394" s="264" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="O394" s="318"/>
@@ -52695,7 +52662,7 @@
         <v>183</v>
       </c>
       <c r="E395" s="485" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="F395" s="332"/>
@@ -52703,39 +52670,39 @@
         <v>188</v>
       </c>
       <c r="H395" s="337" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="I395" s="295" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="J395" s="338" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="K395" s="162" t="s">
         <v>190</v>
       </c>
       <c r="L395" s="207" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="M395" s="265" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="O395" s="318"/>
       <c r="P395" s="326" t="str">
-        <f>IF(AM20="","",AM20)</f>
+        <f t="shared" ref="P395:R398" si="76">IF(AM20="","",AM20)</f>
         <v/>
       </c>
       <c r="Q395" s="274" t="str">
-        <f>IF(AN20="","",AN20)</f>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="R395" s="274" t="str">
-        <f>IF(AO20="","",AO20)</f>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="S395" s="238" t="str">
@@ -52747,15 +52714,15 @@
         <v/>
       </c>
       <c r="U395" s="326" t="str">
-        <f>IF(AM43="","",AM43)</f>
+        <f t="shared" ref="U395:W398" si="77">IF(AM43="","",AM43)</f>
         <v/>
       </c>
       <c r="V395" s="274" t="str">
-        <f>IF(AN43="","",AN43)</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="W395" s="274" t="str">
-        <f>IF(AO43="","",AO43)</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="X395" s="238" t="str">
@@ -52777,7 +52744,7 @@
         <v>184</v>
       </c>
       <c r="E396" s="485" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="F396" s="332"/>
@@ -52785,15 +52752,15 @@
         <v>190</v>
       </c>
       <c r="H396" s="448" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="I396" s="426" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="J396" s="541" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="K396" s="332"/>
@@ -52806,15 +52773,15 @@
       </c>
       <c r="O396" s="318"/>
       <c r="P396" s="323" t="str">
-        <f>IF(AM21="","",AM21)</f>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="Q396" s="12" t="str">
-        <f>IF(AN21="","",AN21)</f>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="R396" s="12" t="str">
-        <f>IF(AO21="","",AO21)</f>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="S396" s="13" t="str">
@@ -52826,15 +52793,15 @@
         <v/>
       </c>
       <c r="U396" s="323" t="str">
-        <f>IF(AM44="","",AM44)</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="V396" s="12" t="str">
-        <f>IF(AN44="","",AN44)</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="W396" s="12" t="str">
-        <f>IF(AO44="","",AO44)</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="X396" s="13" t="str">
@@ -52842,7 +52809,7 @@
         <v/>
       </c>
       <c r="Y396" s="241" t="str">
-        <f t="shared" ref="Y396:Y398" si="74">IF(OR(W396="",V396=""),"",W396/(V396/1000))</f>
+        <f t="shared" ref="Y396:Y398" si="78">IF(OR(W396="",V396=""),"",W396/(V396/1000))</f>
         <v/>
       </c>
     </row>
@@ -52877,24 +52844,24 @@
         <v>186</v>
       </c>
       <c r="L397" s="204" t="str">
-        <f t="shared" ref="L397:M399" si="75">IF(U442="","",U442)</f>
+        <f t="shared" ref="L397:M399" si="79">IF(U442="","",U442)</f>
         <v/>
       </c>
       <c r="M397" s="262" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="O397" s="318"/>
       <c r="P397" s="323" t="str">
-        <f>IF(AM22="","",AM22)</f>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="Q397" s="12" t="str">
-        <f>IF(AN22="","",AN22)</f>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="R397" s="12" t="str">
-        <f>IF(AO22="","",AO22)</f>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="S397" s="13" t="str">
@@ -52906,15 +52873,15 @@
         <v/>
       </c>
       <c r="U397" s="323" t="str">
-        <f>IF(AM45="","",AM45)</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="V397" s="12" t="str">
-        <f>IF(AN45="","",AN45)</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="W397" s="12" t="str">
-        <f>IF(AO45="","",AO45)</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="X397" s="13" t="str">
@@ -52922,7 +52889,7 @@
         <v/>
       </c>
       <c r="Y397" s="241" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
@@ -52948,24 +52915,24 @@
         <v>188</v>
       </c>
       <c r="L398" s="206" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="M398" s="264" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="O398" s="318"/>
       <c r="P398" s="467" t="str">
-        <f>IF(AM23="","",AM23)</f>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="Q398" s="231" t="str">
-        <f>IF(AN23="","",AN23)</f>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="R398" s="231" t="str">
-        <f>IF(AO23="","",AO23)</f>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="S398" s="244" t="str">
@@ -52977,15 +52944,15 @@
         <v/>
       </c>
       <c r="U398" s="467" t="str">
-        <f>IF(AM46="","",AM46)</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="V398" s="231" t="str">
-        <f>IF(AN46="","",AN46)</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="W398" s="231" t="str">
-        <f>IF(AO46="","",AO46)</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="X398" s="244" t="str">
@@ -52993,7 +52960,7 @@
         <v/>
       </c>
       <c r="Y398" s="245" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
@@ -53019,54 +52986,54 @@
         <v>190</v>
       </c>
       <c r="L399" s="207" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="M399" s="265" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="O399" s="317" t="s">
         <v>209</v>
       </c>
       <c r="P399" s="462" t="str">
-        <f t="shared" ref="P399:Y399" si="76">IF(OR(P395="",P396="",P397="",P398=""),"",AVERAGE(P395:P398))</f>
+        <f t="shared" ref="P399:Y399" si="80">IF(OR(P395="",P396="",P397="",P398=""),"",AVERAGE(P395:P398))</f>
         <v/>
       </c>
       <c r="Q399" s="463" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="R399" s="464" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="S399" s="465" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="T399" s="466" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="U399" s="462" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="V399" s="463" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="W399" s="464" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="X399" s="465" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="Y399" s="466" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
     </row>
@@ -53086,43 +53053,43 @@
         <v>340</v>
       </c>
       <c r="P400" s="323" t="str">
-        <f t="shared" ref="P400:Y400" si="77">IF(OR(P395="",P396="",P397="",P398=""),"",_xlfn.STDEV.S(P395:P398))</f>
+        <f t="shared" ref="P400:Y400" si="81">IF(OR(P395="",P396="",P397="",P398=""),"",_xlfn.STDEV.S(P395:P398))</f>
         <v/>
       </c>
       <c r="Q400" s="12" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="R400" s="12" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="S400" s="13" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="T400" s="241" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="U400" s="323" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="V400" s="12" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="W400" s="12" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="X400" s="13" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="Y400" s="241" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
     </row>
@@ -53146,43 +53113,43 @@
         <v>273</v>
       </c>
       <c r="P401" s="190" t="str">
-        <f t="shared" ref="P401:Y401" si="78">IF(OR(P399="",P400=""),"",P400/P399)</f>
+        <f t="shared" ref="P401:Y401" si="82">IF(OR(P399="",P400=""),"",P400/P399)</f>
         <v/>
       </c>
       <c r="Q401" s="184" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="R401" s="184" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="S401" s="324" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="T401" s="325" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="U401" s="190" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="V401" s="184" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="W401" s="184" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="X401" s="324" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="Y401" s="325" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
     </row>
@@ -53331,15 +53298,15 @@
         <v>575</v>
       </c>
       <c r="D407" s="645" t="str">
-        <f t="shared" ref="D407:F409" si="79">IF(P313="","",P313)</f>
+        <f t="shared" ref="D407:F409" si="83">IF(P313="","",P313)</f>
         <v/>
       </c>
       <c r="E407" s="646" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="F407" s="647" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="M407" s="69"/>
@@ -53370,15 +53337,15 @@
         <v>576</v>
       </c>
       <c r="D408" s="337" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="E408" s="295" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="F408" s="338" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="M408" s="69"/>
@@ -53415,15 +53382,15 @@
         <v>577</v>
       </c>
       <c r="D409" s="386" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="E409" s="442" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="F409" s="387" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="M409" s="69"/>
@@ -53513,15 +53480,15 @@
         <v>100</v>
       </c>
       <c r="Q411" s="12" t="str">
-        <f>IF(AM26="","",AM26)</f>
+        <f t="shared" ref="Q411:S412" si="84">IF(AM26="","",AM26)</f>
         <v/>
       </c>
       <c r="R411" s="106" t="str">
-        <f>IF(AN26="","",AN26)</f>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="S411" s="12" t="str">
-        <f>IF(AO26="","",AO26)</f>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="T411" s="13" t="str">
@@ -53552,15 +53519,15 @@
         <v>320</v>
       </c>
       <c r="Q412" s="12" t="str">
-        <f>IF(AM27="","",AM27)</f>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="R412" s="106" t="str">
-        <f>IF(AN27="","",AN27)</f>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="S412" s="12" t="str">
-        <f>IF(AO27="","",AO27)</f>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="T412" s="13" t="str">
@@ -53827,11 +53794,11 @@
       <c r="P420" s="627" t="s">
         <v>352</v>
       </c>
-      <c r="Q420" s="877" t="s">
+      <c r="Q420" s="998" t="s">
         <v>353</v>
       </c>
-      <c r="R420" s="878"/>
-      <c r="S420" s="879"/>
+      <c r="R420" s="999"/>
+      <c r="S420" s="1000"/>
       <c r="T420"/>
       <c r="U420"/>
       <c r="V420"/>
@@ -53848,19 +53815,19 @@
         <v>186</v>
       </c>
       <c r="D421" s="645" t="str">
-        <f t="shared" ref="D421:G424" si="80">IF(P357="","",P357)</f>
+        <f t="shared" ref="D421:G424" si="85">IF(P357="","",P357)</f>
         <v/>
       </c>
       <c r="E421" s="646" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="F421" s="646" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="G421" s="647" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="M421" s="69"/>
@@ -53896,19 +53863,19 @@
         <v>188</v>
       </c>
       <c r="D422" s="337" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="E422" s="295" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="F422" s="295" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="G422" s="338" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="M422" s="69"/>
@@ -53944,19 +53911,19 @@
         <v>190</v>
       </c>
       <c r="D423" s="337" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="E423" s="295" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="F423" s="295" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="G423" s="338" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="M423" s="69"/>
@@ -53992,19 +53959,19 @@
         <v>217</v>
       </c>
       <c r="D424" s="386" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="E424" s="442" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="F424" s="442" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="G424" s="387" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="M424" s="69"/>
@@ -54017,11 +53984,11 @@
         <v/>
       </c>
       <c r="R424" s="677" t="str">
-        <f t="shared" ref="R424:S424" si="81">IF(OR(R421="",R422=""),"",ABS(R422-R421)/R421)</f>
+        <f t="shared" ref="R424:S424" si="86">IF(OR(R421="",R422=""),"",ABS(R422-R421)/R421)</f>
         <v/>
       </c>
       <c r="S424" s="707" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="T424"/>
@@ -54050,11 +54017,11 @@
         <v>217</v>
       </c>
       <c r="Q425" s="442" t="str">
-        <f t="shared" ref="Q425:R425" si="82">IF(Q423="","",IF(Q423&gt;=0.28,"Pass","Fail"))</f>
+        <f t="shared" ref="Q425:R425" si="87">IF(Q423="","",IF(Q423&gt;=0.28,"Pass","Fail"))</f>
         <v/>
       </c>
       <c r="R425" s="442" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="S425" s="387" t="str">
@@ -54264,7 +54231,7 @@
       </c>
       <c r="Q432" s="145"/>
       <c r="R432" s="122" t="str">
-        <f t="shared" ref="R432:R437" si="83">IF(AB93="","",AB93)</f>
+        <f t="shared" ref="R432:R437" si="88">IF(AB93="","",AB93)</f>
         <v/>
       </c>
       <c r="T432" s="35" t="s">
@@ -54301,7 +54268,7 @@
       </c>
       <c r="Q433" s="145"/>
       <c r="R433" s="122" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="T433" s="35" t="s">
@@ -54340,7 +54307,7 @@
       </c>
       <c r="Q434" s="145"/>
       <c r="R434" s="122" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="T434" s="35" t="s">
@@ -54359,7 +54326,7 @@
       </c>
       <c r="B435" s="58"/>
       <c r="C435" s="60" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D435" s="59"/>
       <c r="E435" s="59"/>
@@ -54377,7 +54344,7 @@
       </c>
       <c r="Q435" s="145"/>
       <c r="R435" s="122" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="T435" s="35" t="s">
@@ -54394,12 +54361,12 @@
         <v>4</v>
       </c>
       <c r="B436" s="67"/>
-      <c r="E436" s="870" t="s">
-        <v>797</v>
-      </c>
-      <c r="F436" s="871"/>
-      <c r="G436" s="871"/>
-      <c r="H436" s="872"/>
+      <c r="E436" s="992" t="s">
+        <v>796</v>
+      </c>
+      <c r="F436" s="993"/>
+      <c r="G436" s="993"/>
+      <c r="H436" s="994"/>
       <c r="M436" s="69"/>
       <c r="O436" s="30"/>
       <c r="P436" s="35" t="s">
@@ -54407,7 +54374,7 @@
       </c>
       <c r="Q436" s="145"/>
       <c r="R436" s="122" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="T436" s="113" t="s">
@@ -54424,26 +54391,26 @@
       </c>
       <c r="B437" s="67"/>
       <c r="C437" s="817" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D437" s="821" t="str">
-        <f t="shared" ref="D437:H438" si="84">IF(P468="","",P468)</f>
+        <f t="shared" ref="D437:H438" si="89">IF(P468="","",P468)</f>
         <v/>
       </c>
       <c r="E437" s="821" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="F437" s="821" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="G437" s="821" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="H437" s="821" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="M437" s="69"/>
@@ -54456,7 +54423,7 @@
         <v/>
       </c>
       <c r="R437" s="122" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y437" s="32"/>
@@ -54467,26 +54434,26 @@
       </c>
       <c r="B438" s="67"/>
       <c r="C438" s="817" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D438" s="821" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="E438" s="821" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="F438" s="821" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="G438" s="821" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="H438" s="821" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="M438" s="69"/>
@@ -54516,26 +54483,26 @@
       </c>
       <c r="B440" s="67"/>
       <c r="C440" s="822" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D440" s="295" t="str">
-        <f t="shared" ref="D440:H444" si="85">IF(P471="","",P471)</f>
+        <f t="shared" ref="D440:H444" si="90">IF(P471="","",P471)</f>
         <v/>
       </c>
       <c r="E440" s="295" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="F440" s="295" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="G440" s="295" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H440" s="295" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="M440" s="69"/>
@@ -54556,26 +54523,26 @@
       </c>
       <c r="B441" s="67"/>
       <c r="C441" s="822" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D441" s="295" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="E441" s="295" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="F441" s="295" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="G441" s="295" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H441" s="295" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="M441" s="69"/>
@@ -54600,26 +54567,26 @@
       </c>
       <c r="B442" s="67"/>
       <c r="C442" s="822" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D442" s="295" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="E442" s="295" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="F442" s="295" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="G442" s="295" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H442" s="295" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="M442" s="69"/>
@@ -54642,26 +54609,26 @@
       </c>
       <c r="B443" s="67"/>
       <c r="C443" s="822" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D443" s="15" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="E443" s="15" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="F443" s="15" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="G443" s="15" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H443" s="15" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="M443" s="69"/>
@@ -54684,26 +54651,26 @@
       </c>
       <c r="B444" s="67"/>
       <c r="C444" s="822" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D444" s="15" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="E444" s="15" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="F444" s="15" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="G444" s="15" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H444" s="817" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="M444" s="69"/>
@@ -54730,7 +54697,7 @@
         <v>203</v>
       </c>
       <c r="E445" s="138" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F445" s="826"/>
       <c r="G445" s="826"/>
@@ -55098,14 +55065,14 @@
       <c r="W454" s="41"/>
       <c r="X454" s="41"/>
       <c r="Y454" s="42"/>
-      <c r="AA454" s="873" t="s">
+      <c r="AA454" s="957" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB454" s="957"/>
+      <c r="AC454" s="957" t="s">
         <v>781</v>
       </c>
-      <c r="AB454" s="873"/>
-      <c r="AC454" s="873" t="s">
-        <v>782</v>
-      </c>
-      <c r="AD454" s="873"/>
+      <c r="AD454" s="957"/>
     </row>
     <row r="455" spans="1:30" ht="14.1" customHeight="1">
       <c r="A455" s="17">
@@ -55596,7 +55563,7 @@
       <c r="L466" s="489"/>
       <c r="M466" s="69"/>
       <c r="O466" s="139" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="P466" s="331"/>
     </row>
@@ -55619,12 +55586,12 @@
       <c r="K467" s="489"/>
       <c r="L467" s="489"/>
       <c r="M467" s="69"/>
-      <c r="Q467" s="867" t="s">
-        <v>797</v>
-      </c>
-      <c r="R467" s="868"/>
-      <c r="S467" s="868"/>
-      <c r="T467" s="869"/>
+      <c r="Q467" s="989" t="s">
+        <v>796</v>
+      </c>
+      <c r="R467" s="990"/>
+      <c r="S467" s="990"/>
+      <c r="T467" s="991"/>
     </row>
     <row r="468" spans="1:28" ht="14.1" customHeight="1">
       <c r="A468" s="17">
@@ -55646,7 +55613,7 @@
       <c r="L468" s="489"/>
       <c r="M468" s="69"/>
       <c r="O468" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="P468" s="816"/>
       <c r="Q468" s="814"/>
@@ -55654,7 +55621,7 @@
       <c r="S468" s="814"/>
       <c r="T468" s="814"/>
       <c r="AA468" s="21" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="469" spans="1:28" ht="14.1" customHeight="1">
@@ -55677,7 +55644,7 @@
       <c r="L469" s="489"/>
       <c r="M469" s="69"/>
       <c r="O469" s="21" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="P469" s="814"/>
       <c r="Q469" s="814"/>
@@ -55685,7 +55652,7 @@
       <c r="S469" s="814"/>
       <c r="T469" s="814"/>
       <c r="AA469" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AB469" s="795">
         <v>43203</v>
@@ -55716,7 +55683,7 @@
       <c r="S470" s="815"/>
       <c r="T470" s="815"/>
       <c r="AA470" s="21" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AB470" s="795">
         <v>43241</v>
@@ -55742,7 +55709,7 @@
       <c r="L471" s="489"/>
       <c r="M471" s="69"/>
       <c r="O471" s="35" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="P471" s="818"/>
       <c r="Q471" s="818"/>
@@ -55750,7 +55717,7 @@
       <c r="S471" s="818"/>
       <c r="T471" s="818"/>
       <c r="AA471" s="21" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AB471" s="21">
         <v>1657</v>
@@ -55763,7 +55730,7 @@
       <c r="B472" s="67"/>
       <c r="M472" s="69"/>
       <c r="O472" s="35" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="P472" s="818"/>
       <c r="Q472" s="818"/>
@@ -55771,7 +55738,7 @@
       <c r="S472" s="818"/>
       <c r="T472" s="818"/>
       <c r="AA472" s="21" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AB472" s="21">
         <v>17</v>
@@ -55784,7 +55751,7 @@
       <c r="B473" s="67"/>
       <c r="M473" s="69"/>
       <c r="O473" s="35" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P473" s="819"/>
       <c r="Q473" s="819"/>
@@ -55792,7 +55759,7 @@
       <c r="S473" s="819"/>
       <c r="T473" s="819"/>
       <c r="AA473" s="21" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AB473" s="21">
         <v>41</v>
@@ -55805,30 +55772,30 @@
       <c r="B474" s="67"/>
       <c r="M474" s="69"/>
       <c r="O474" s="35" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="P474" s="15" t="str">
         <f>IF(P471="","",(P472+P473)/P471)</f>
         <v/>
       </c>
       <c r="Q474" s="15" t="str">
-        <f t="shared" ref="Q474:T474" si="86">IF(Q471="","",(Q472+Q473)/Q471)</f>
+        <f t="shared" ref="Q474:T474" si="91">IF(Q471="","",(Q472+Q473)/Q471)</f>
         <v/>
       </c>
       <c r="R474" s="15" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="S474" s="15" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="T474" s="15" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="AA474" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AB474" s="796">
         <f>(AB472+AB473)/AB471</f>
@@ -55842,7 +55809,7 @@
       <c r="B475" s="67"/>
       <c r="M475" s="69"/>
       <c r="O475" s="35" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="P475" s="820" t="str">
         <f>IF(OR(P474="",Q474=""),"",P474-Q474)</f>
@@ -55871,7 +55838,7 @@
         <v>203</v>
       </c>
       <c r="Q476" s="138" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="477" spans="1:28" ht="14.1" customHeight="1">
@@ -56767,6 +56734,55 @@
     <row r="518" spans="15:25" ht="14.1" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="Q467:T467"/>
+    <mergeCell ref="E436:H436"/>
+    <mergeCell ref="AA454:AB454"/>
+    <mergeCell ref="AC454:AD454"/>
+    <mergeCell ref="P378:P383"/>
+    <mergeCell ref="P384:P388"/>
+    <mergeCell ref="Q420:S420"/>
+    <mergeCell ref="Q194:S194"/>
+    <mergeCell ref="U194:W194"/>
+    <mergeCell ref="U245:W245"/>
+    <mergeCell ref="S369:W369"/>
+    <mergeCell ref="P371:P377"/>
+    <mergeCell ref="P129:R130"/>
+    <mergeCell ref="S129:U130"/>
+    <mergeCell ref="V129:X130"/>
+    <mergeCell ref="P173:S173"/>
+    <mergeCell ref="Q182:S182"/>
+    <mergeCell ref="U182:W182"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P121:R122"/>
+    <mergeCell ref="V121:X122"/>
+    <mergeCell ref="S121:U122"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="F294:H294"/>
     <mergeCell ref="I291:J291"/>
     <mergeCell ref="I292:J292"/>
@@ -56783,55 +56799,6 @@
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P121:R122"/>
-    <mergeCell ref="V121:X122"/>
-    <mergeCell ref="S121:U122"/>
-    <mergeCell ref="P129:R130"/>
-    <mergeCell ref="S129:U130"/>
-    <mergeCell ref="V129:X130"/>
-    <mergeCell ref="P173:S173"/>
-    <mergeCell ref="Q182:S182"/>
-    <mergeCell ref="U182:W182"/>
-    <mergeCell ref="Q194:S194"/>
-    <mergeCell ref="U194:W194"/>
-    <mergeCell ref="U245:W245"/>
-    <mergeCell ref="S369:W369"/>
-    <mergeCell ref="P371:P377"/>
-    <mergeCell ref="Q467:T467"/>
-    <mergeCell ref="E436:H436"/>
-    <mergeCell ref="AA454:AB454"/>
-    <mergeCell ref="AC454:AD454"/>
-    <mergeCell ref="P378:P383"/>
-    <mergeCell ref="P384:P388"/>
-    <mergeCell ref="Q420:S420"/>
   </mergeCells>
   <conditionalFormatting sqref="Q260:S260">
     <cfRule type="cellIs" dxfId="147" priority="207" stopIfTrue="1" operator="equal">
@@ -57550,41 +57517,41 @@
     </row>
     <row r="2" spans="1:30" ht="14.1" customHeight="1">
       <c r="A2" s="303"/>
-      <c r="B2" s="911" t="s">
+      <c r="B2" s="1001" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="911"/>
-      <c r="D2" s="911"/>
-      <c r="E2" s="911"/>
-      <c r="F2" s="911"/>
-      <c r="G2" s="911"/>
-      <c r="H2" s="911"/>
-      <c r="I2" s="911"/>
-      <c r="J2" s="911"/>
+      <c r="C2" s="1001"/>
+      <c r="D2" s="1001"/>
+      <c r="E2" s="1001"/>
+      <c r="F2" s="1001"/>
+      <c r="G2" s="1001"/>
+      <c r="H2" s="1001"/>
+      <c r="I2" s="1001"/>
+      <c r="J2" s="1001"/>
       <c r="K2" s="303"/>
-      <c r="L2" s="911" t="s">
+      <c r="L2" s="1001" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="911"/>
-      <c r="N2" s="911"/>
-      <c r="O2" s="911"/>
-      <c r="P2" s="911"/>
-      <c r="Q2" s="911"/>
-      <c r="R2" s="911"/>
-      <c r="S2" s="911"/>
-      <c r="T2" s="911"/>
+      <c r="M2" s="1001"/>
+      <c r="N2" s="1001"/>
+      <c r="O2" s="1001"/>
+      <c r="P2" s="1001"/>
+      <c r="Q2" s="1001"/>
+      <c r="R2" s="1001"/>
+      <c r="S2" s="1001"/>
+      <c r="T2" s="1001"/>
       <c r="U2" s="303"/>
-      <c r="V2" s="911" t="s">
+      <c r="V2" s="1001" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="911"/>
-      <c r="X2" s="911"/>
-      <c r="Y2" s="911"/>
-      <c r="Z2" s="911"/>
-      <c r="AA2" s="911"/>
-      <c r="AB2" s="911"/>
-      <c r="AC2" s="911"/>
-      <c r="AD2" s="911"/>
+      <c r="W2" s="1001"/>
+      <c r="X2" s="1001"/>
+      <c r="Y2" s="1001"/>
+      <c r="Z2" s="1001"/>
+      <c r="AA2" s="1001"/>
+      <c r="AB2" s="1001"/>
+      <c r="AC2" s="1001"/>
+      <c r="AD2" s="1001"/>
     </row>
     <row r="3" spans="1:30" ht="14.1" customHeight="1">
       <c r="A3" s="206" t="s">
@@ -59044,36 +59011,36 @@
     </row>
     <row r="26" spans="1:30" ht="14.1" customHeight="1">
       <c r="A26" s="303"/>
-      <c r="B26" s="912" t="s">
+      <c r="B26" s="1002" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="912"/>
-      <c r="D26" s="912"/>
-      <c r="E26" s="912"/>
-      <c r="F26" s="912"/>
-      <c r="G26" s="912"/>
-      <c r="H26" s="912"/>
-      <c r="I26" s="912"/>
-      <c r="J26" s="912"/>
-      <c r="K26" s="912"/>
-      <c r="L26" s="912"/>
+      <c r="C26" s="1002"/>
+      <c r="D26" s="1002"/>
+      <c r="E26" s="1002"/>
+      <c r="F26" s="1002"/>
+      <c r="G26" s="1002"/>
+      <c r="H26" s="1002"/>
+      <c r="I26" s="1002"/>
+      <c r="J26" s="1002"/>
+      <c r="K26" s="1002"/>
+      <c r="L26" s="1002"/>
       <c r="M26" s="218"/>
       <c r="N26" s="303"/>
-      <c r="O26" s="911" t="s">
+      <c r="O26" s="1001" t="s">
         <v>24</v>
       </c>
-      <c r="P26" s="911"/>
-      <c r="Q26" s="911"/>
-      <c r="R26" s="911"/>
-      <c r="S26" s="911"/>
-      <c r="T26" s="911"/>
-      <c r="U26" s="911"/>
-      <c r="V26" s="911"/>
-      <c r="W26" s="911"/>
-      <c r="X26" s="911"/>
-      <c r="Y26" s="911"/>
-      <c r="Z26" s="911"/>
-      <c r="AA26" s="911"/>
+      <c r="P26" s="1001"/>
+      <c r="Q26" s="1001"/>
+      <c r="R26" s="1001"/>
+      <c r="S26" s="1001"/>
+      <c r="T26" s="1001"/>
+      <c r="U26" s="1001"/>
+      <c r="V26" s="1001"/>
+      <c r="W26" s="1001"/>
+      <c r="X26" s="1001"/>
+      <c r="Y26" s="1001"/>
+      <c r="Z26" s="1001"/>
+      <c r="AA26" s="1001"/>
     </row>
     <row r="27" spans="1:30" ht="14.1" customHeight="1">
       <c r="A27" s="206" t="s">
@@ -60907,26 +60874,26 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="14.1" customHeight="1">
-      <c r="B51" s="913" t="s">
+      <c r="B51" s="1003" t="s">
         <v>426</v>
       </c>
-      <c r="C51" s="913" t="s">
+      <c r="C51" s="1003" t="s">
         <v>427</v>
       </c>
-      <c r="D51" s="915" t="s">
+      <c r="D51" s="1005" t="s">
         <v>428</v>
       </c>
-      <c r="E51" s="916"/>
-      <c r="F51" s="916"/>
-      <c r="G51" s="916"/>
-      <c r="H51" s="916"/>
-      <c r="I51" s="916"/>
-      <c r="J51" s="916"/>
-      <c r="K51" s="917"/>
+      <c r="E51" s="1006"/>
+      <c r="F51" s="1006"/>
+      <c r="G51" s="1006"/>
+      <c r="H51" s="1006"/>
+      <c r="I51" s="1006"/>
+      <c r="J51" s="1006"/>
+      <c r="K51" s="1007"/>
     </row>
     <row r="52" spans="1:19" ht="14.1" customHeight="1">
-      <c r="B52" s="914"/>
-      <c r="C52" s="914"/>
+      <c r="B52" s="1004"/>
+      <c r="C52" s="1004"/>
       <c r="D52" s="233">
         <v>0.25</v>
       </c>
@@ -61221,11 +61188,11 @@
       <c r="L62" s="665" t="s">
         <v>334</v>
       </c>
-      <c r="O62" s="895"/>
-      <c r="P62" s="895"/>
-      <c r="Q62" s="895"/>
-      <c r="R62" s="895"/>
-      <c r="S62" s="895"/>
+      <c r="O62" s="964"/>
+      <c r="P62" s="964"/>
+      <c r="Q62" s="964"/>
+      <c r="R62" s="964"/>
+      <c r="S62" s="964"/>
     </row>
     <row r="63" spans="1:19" ht="14.1" customHeight="1">
       <c r="A63" s="665" t="str">

--- a/MUSCMammoSiemens.xlsx
+++ b/MUSCMammoSiemens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maheug\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FB1808-E77F-4A55-BAC3-7C810693C4F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55647489-CDD8-4D34-A0A5-51B9129B0E20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="9636" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,13 +17,14 @@
     <sheet name="Tech QC Eval-Siemens" sheetId="15" r:id="rId2"/>
     <sheet name="MQSA Requirements" sheetId="17" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Tables" sheetId="4" r:id="rId5"/>
-    <sheet name="DataPage" sheetId="13" r:id="rId6"/>
-    <sheet name="dropdowns" sheetId="16" r:id="rId7"/>
-    <sheet name="Corrected kV" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId5"/>
+    <sheet name="Tables" sheetId="4" r:id="rId6"/>
+    <sheet name="DataPage" sheetId="13" r:id="rId7"/>
+    <sheet name="dropdowns" sheetId="16" r:id="rId8"/>
+    <sheet name="Corrected kV" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">dropdowns!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">dropdowns!#REF!</definedName>
     <definedName name="ESE">Sheet1!$X$263</definedName>
     <definedName name="FiberLst">dropdowns!$A$11:$A$22</definedName>
     <definedName name="MGD">Sheet1!$X$265</definedName>
@@ -239,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="787">
   <si>
     <t>Print Area</t>
   </si>
@@ -1532,9 +1533,6 @@
   </si>
   <si>
     <t>kV Accuracy/Output</t>
-  </si>
-  <si>
-    <t>Calculate Radiation output (mGy/mAs and mGy/s) as a function of kV^2</t>
   </si>
   <si>
     <t>kV^2</t>
@@ -3282,6 +3280,9 @@
   </si>
   <si>
     <t>3D</t>
+  </si>
+  <si>
+    <t>Calculate Radiation output (mGy/mAs and mGy/s) as a function of kV</t>
   </si>
 </sst>
 </file>
@@ -8961,6 +8962,72 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="121" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="27" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="27" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="148" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="146" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="147" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8988,78 +9055,24 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="27" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="148" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="146" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="147" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="27" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9087,24 +9100,51 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="149" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -9117,44 +9157,101 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9174,9 +9271,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9194,99 +9288,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13509,7 +13510,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tables!$D$63:$D$69</c:f>
+              <c:f>Tables!$C$63:$C$69</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -13549,7 +13550,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tables!$E$63</c:f>
+              <c:f>Tables!$D$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13626,7 +13627,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Tables!$F$63:$F$66</c:f>
+              <c:f>Tables!$E$63:$E$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -13647,7 +13648,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tables!$H$63:$H$66</c:f>
+              <c:f>Tables!$F$63:$F$66</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -13678,7 +13679,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tables!$I$63</c:f>
+              <c:f>Tables!$G$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13755,7 +13756,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Tables!$J$63:$J$66</c:f>
+              <c:f>Tables!$H$63:$H$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -13776,7 +13777,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tables!$L$63:$L$66</c:f>
+              <c:f>Tables!$I$63:$I$66</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -27316,7 +27317,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27352,7 +27353,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27388,7 +27389,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27424,7 +27425,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27460,7 +27461,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27496,7 +27497,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27532,7 +27533,7 @@
         <xdr:cNvPr id="2" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27854,40 +27855,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.6">
-      <c r="A1" s="897" t="s">
+      <c r="A1" s="870" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="897"/>
-      <c r="C1" s="897"/>
-      <c r="D1" s="897"/>
-      <c r="E1" s="897"/>
-      <c r="F1" s="897"/>
-      <c r="G1" s="897"/>
-      <c r="H1" s="897"/>
-      <c r="I1" s="897"/>
-      <c r="J1" s="897"/>
-      <c r="K1" s="897"/>
-      <c r="L1" s="897"/>
-      <c r="M1" s="897"/>
-      <c r="N1" s="897"/>
+      <c r="B1" s="870"/>
+      <c r="C1" s="870"/>
+      <c r="D1" s="870"/>
+      <c r="E1" s="870"/>
+      <c r="F1" s="870"/>
+      <c r="G1" s="870"/>
+      <c r="H1" s="870"/>
+      <c r="I1" s="870"/>
+      <c r="J1" s="870"/>
+      <c r="K1" s="870"/>
+      <c r="L1" s="870"/>
+      <c r="M1" s="870"/>
+      <c r="N1" s="870"/>
     </row>
     <row r="2" spans="1:14" ht="24.6">
-      <c r="A2" s="897" t="s">
+      <c r="A2" s="870" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="897"/>
-      <c r="C2" s="897"/>
-      <c r="D2" s="897"/>
-      <c r="E2" s="897"/>
-      <c r="F2" s="897"/>
-      <c r="G2" s="897"/>
-      <c r="H2" s="897"/>
-      <c r="I2" s="897"/>
-      <c r="J2" s="897"/>
-      <c r="K2" s="897"/>
-      <c r="L2" s="897"/>
-      <c r="M2" s="897"/>
-      <c r="N2" s="897"/>
+      <c r="B2" s="870"/>
+      <c r="C2" s="870"/>
+      <c r="D2" s="870"/>
+      <c r="E2" s="870"/>
+      <c r="F2" s="870"/>
+      <c r="G2" s="870"/>
+      <c r="H2" s="870"/>
+      <c r="I2" s="870"/>
+      <c r="J2" s="870"/>
+      <c r="K2" s="870"/>
+      <c r="L2" s="870"/>
+      <c r="M2" s="870"/>
+      <c r="N2" s="870"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1">
       <c r="A3" s="797"/>
@@ -27910,41 +27911,41 @@
         <v>371</v>
       </c>
       <c r="B4" s="798"/>
-      <c r="C4" s="885"/>
-      <c r="D4" s="886"/>
-      <c r="E4" s="886"/>
-      <c r="F4" s="886"/>
-      <c r="G4" s="886"/>
-      <c r="H4" s="887"/>
+      <c r="C4" s="871"/>
+      <c r="D4" s="872"/>
+      <c r="E4" s="872"/>
+      <c r="F4" s="872"/>
+      <c r="G4" s="872"/>
+      <c r="H4" s="873"/>
       <c r="J4" s="799"/>
       <c r="K4" s="800" t="s">
         <v>372</v>
       </c>
-      <c r="L4" s="898"/>
-      <c r="M4" s="899"/>
-      <c r="N4" s="900"/>
+      <c r="L4" s="874"/>
+      <c r="M4" s="875"/>
+      <c r="N4" s="876"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1">
       <c r="A5" s="798" t="s">
         <v>373</v>
       </c>
       <c r="B5" s="798"/>
-      <c r="C5" s="885"/>
-      <c r="D5" s="886"/>
-      <c r="E5" s="886"/>
-      <c r="F5" s="886"/>
-      <c r="G5" s="886"/>
-      <c r="H5" s="887"/>
+      <c r="C5" s="871"/>
+      <c r="D5" s="872"/>
+      <c r="E5" s="872"/>
+      <c r="F5" s="872"/>
+      <c r="G5" s="872"/>
+      <c r="H5" s="873"/>
       <c r="J5" s="799"/>
       <c r="K5" s="800" t="s">
         <v>374</v>
       </c>
-      <c r="L5" s="898">
+      <c r="L5" s="874">
         <f>Sheet1!P7</f>
         <v>0</v>
       </c>
-      <c r="M5" s="899"/>
-      <c r="N5" s="900"/>
+      <c r="M5" s="875"/>
+      <c r="N5" s="876"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1">
       <c r="A6" s="798" t="s">
@@ -27953,19 +27954,19 @@
       <c r="B6" s="798"/>
       <c r="C6" s="798"/>
       <c r="D6" s="798"/>
-      <c r="E6" s="884" t="s">
+      <c r="E6" s="882" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="884"/>
-      <c r="G6" s="884"/>
-      <c r="H6" s="884"/>
+      <c r="F6" s="882"/>
+      <c r="G6" s="882"/>
+      <c r="H6" s="882"/>
       <c r="J6" s="799"/>
       <c r="K6" s="800" t="s">
         <v>376</v>
       </c>
-      <c r="L6" s="885"/>
-      <c r="M6" s="886"/>
-      <c r="N6" s="887"/>
+      <c r="L6" s="871"/>
+      <c r="M6" s="872"/>
+      <c r="N6" s="873"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1">
       <c r="A7" s="798" t="s">
@@ -27974,21 +27975,21 @@
       <c r="B7" s="798"/>
       <c r="C7" s="798"/>
       <c r="D7" s="798"/>
-      <c r="E7" s="885" t="s">
+      <c r="E7" s="871" t="s">
         <v>378</v>
       </c>
-      <c r="F7" s="886"/>
-      <c r="G7" s="886"/>
-      <c r="H7" s="887"/>
+      <c r="F7" s="872"/>
+      <c r="G7" s="872"/>
+      <c r="H7" s="873"/>
       <c r="J7" s="799"/>
       <c r="K7" s="800" t="s">
         <v>379</v>
       </c>
-      <c r="L7" s="885" t="s">
-        <v>769</v>
-      </c>
-      <c r="M7" s="886"/>
-      <c r="N7" s="887"/>
+      <c r="L7" s="871" t="s">
+        <v>768</v>
+      </c>
+      <c r="M7" s="872"/>
+      <c r="N7" s="873"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1">
       <c r="A8" s="798" t="s">
@@ -27997,23 +27998,23 @@
       <c r="B8" s="798"/>
       <c r="C8" s="798"/>
       <c r="D8" s="798"/>
-      <c r="E8" s="888" t="str">
+      <c r="E8" s="883" t="str">
         <f>Sheet1!K12</f>
         <v/>
       </c>
-      <c r="F8" s="889"/>
-      <c r="G8" s="889"/>
-      <c r="H8" s="890"/>
+      <c r="F8" s="884"/>
+      <c r="G8" s="884"/>
+      <c r="H8" s="885"/>
       <c r="J8" s="799"/>
       <c r="K8" s="800" t="s">
         <v>381</v>
       </c>
-      <c r="L8" s="885" t="str">
+      <c r="L8" s="871" t="str">
         <f>Sheet1!R14</f>
         <v/>
       </c>
-      <c r="M8" s="886"/>
-      <c r="N8" s="887"/>
+      <c r="M8" s="872"/>
+      <c r="N8" s="873"/>
     </row>
     <row r="9" spans="1:14" ht="11.25" customHeight="1">
       <c r="A9" s="798"/>
@@ -28032,16 +28033,16 @@
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1">
       <c r="A10" s="803" t="s">
-        <v>541</v>
-      </c>
-      <c r="E10" s="891" t="s">
-        <v>770</v>
-      </c>
-      <c r="F10" s="892"/>
-      <c r="G10" s="892"/>
-      <c r="H10" s="893"/>
+        <v>540</v>
+      </c>
+      <c r="E10" s="886" t="s">
+        <v>769</v>
+      </c>
+      <c r="F10" s="887"/>
+      <c r="G10" s="887"/>
+      <c r="H10" s="888"/>
       <c r="I10" s="804" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="11.25" customHeight="1">
@@ -28064,24 +28065,24 @@
       <c r="B12" s="798"/>
       <c r="C12" s="798"/>
       <c r="D12" s="798"/>
-      <c r="E12" s="894" t="s">
+      <c r="E12" s="889" t="s">
         <v>384</v>
       </c>
-      <c r="F12" s="895"/>
-      <c r="G12" s="894" t="s">
+      <c r="F12" s="890"/>
+      <c r="G12" s="889" t="s">
         <v>379</v>
       </c>
-      <c r="H12" s="895"/>
-      <c r="I12" s="894" t="s">
+      <c r="H12" s="890"/>
+      <c r="I12" s="889" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="895"/>
-      <c r="K12" s="894" t="s">
+      <c r="J12" s="890"/>
+      <c r="K12" s="889" t="s">
         <v>382</v>
       </c>
-      <c r="L12" s="896"/>
-      <c r="M12" s="896"/>
-      <c r="N12" s="895"/>
+      <c r="L12" s="891"/>
+      <c r="M12" s="891"/>
+      <c r="N12" s="890"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" thickTop="1">
       <c r="A13" s="798"/>
@@ -28090,55 +28091,55 @@
       <c r="D13" s="806" t="s">
         <v>385</v>
       </c>
-      <c r="E13" s="879" t="s">
+      <c r="E13" s="877" t="s">
+        <v>755</v>
+      </c>
+      <c r="F13" s="878"/>
+      <c r="G13" s="877" t="s">
         <v>756</v>
       </c>
-      <c r="F13" s="880"/>
-      <c r="G13" s="879" t="s">
+      <c r="H13" s="878"/>
+      <c r="I13" s="879"/>
+      <c r="J13" s="880"/>
+      <c r="K13" s="877" t="s">
         <v>757</v>
       </c>
-      <c r="H13" s="880"/>
-      <c r="I13" s="881"/>
-      <c r="J13" s="882"/>
-      <c r="K13" s="879" t="s">
-        <v>758</v>
-      </c>
-      <c r="L13" s="883"/>
-      <c r="M13" s="883"/>
-      <c r="N13" s="880"/>
+      <c r="L13" s="881"/>
+      <c r="M13" s="881"/>
+      <c r="N13" s="878"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="D14" s="806" t="s">
         <v>386</v>
       </c>
-      <c r="E14" s="872"/>
-      <c r="F14" s="873"/>
-      <c r="G14" s="872"/>
-      <c r="H14" s="873"/>
-      <c r="I14" s="874"/>
-      <c r="J14" s="875"/>
-      <c r="K14" s="872"/>
-      <c r="L14" s="876"/>
-      <c r="M14" s="876"/>
-      <c r="N14" s="873"/>
+      <c r="E14" s="894"/>
+      <c r="F14" s="895"/>
+      <c r="G14" s="894"/>
+      <c r="H14" s="895"/>
+      <c r="I14" s="896"/>
+      <c r="J14" s="897"/>
+      <c r="K14" s="894"/>
+      <c r="L14" s="898"/>
+      <c r="M14" s="898"/>
+      <c r="N14" s="895"/>
     </row>
     <row r="15" spans="1:14" ht="36" customHeight="1">
-      <c r="A15" s="877" t="s">
-        <v>717</v>
-      </c>
-      <c r="B15" s="877"/>
-      <c r="C15" s="877"/>
-      <c r="D15" s="877"/>
-      <c r="E15" s="877"/>
-      <c r="F15" s="877"/>
-      <c r="G15" s="877"/>
-      <c r="H15" s="877"/>
-      <c r="I15" s="877"/>
-      <c r="J15" s="877"/>
-      <c r="K15" s="877"/>
-      <c r="L15" s="877"/>
-      <c r="M15" s="877"/>
-      <c r="N15" s="877"/>
+      <c r="A15" s="899" t="s">
+        <v>716</v>
+      </c>
+      <c r="B15" s="899"/>
+      <c r="C15" s="899"/>
+      <c r="D15" s="899"/>
+      <c r="E15" s="899"/>
+      <c r="F15" s="899"/>
+      <c r="G15" s="899"/>
+      <c r="H15" s="899"/>
+      <c r="I15" s="899"/>
+      <c r="J15" s="899"/>
+      <c r="K15" s="899"/>
+      <c r="L15" s="899"/>
+      <c r="M15" s="899"/>
+      <c r="N15" s="899"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1">
       <c r="A16" s="803" t="s">
@@ -28147,7 +28148,7 @@
       <c r="B16" s="803"/>
       <c r="C16" s="807"/>
       <c r="D16" s="808" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E16" s="808"/>
       <c r="F16" s="808"/>
@@ -28163,16 +28164,16 @@
     </row>
     <row r="17" spans="1:15" s="819" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="812" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B17" s="813"/>
       <c r="C17" s="814"/>
       <c r="D17" s="815" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E17" s="814"/>
       <c r="F17" s="815" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G17" s="816"/>
       <c r="H17" s="817"/>
@@ -28200,40 +28201,40 @@
       <c r="M18" s="823"/>
     </row>
     <row r="19" spans="1:15" ht="21" customHeight="1">
-      <c r="A19" s="878" t="s">
+      <c r="A19" s="900" t="s">
         <v>389</v>
       </c>
-      <c r="B19" s="878"/>
-      <c r="C19" s="878"/>
-      <c r="D19" s="878"/>
-      <c r="E19" s="878"/>
-      <c r="F19" s="878"/>
-      <c r="G19" s="878"/>
-      <c r="H19" s="878"/>
-      <c r="I19" s="878"/>
-      <c r="J19" s="878"/>
-      <c r="K19" s="878"/>
-      <c r="L19" s="878"/>
-      <c r="M19" s="878"/>
-      <c r="N19" s="878"/>
+      <c r="B19" s="900"/>
+      <c r="C19" s="900"/>
+      <c r="D19" s="900"/>
+      <c r="E19" s="900"/>
+      <c r="F19" s="900"/>
+      <c r="G19" s="900"/>
+      <c r="H19" s="900"/>
+      <c r="I19" s="900"/>
+      <c r="J19" s="900"/>
+      <c r="K19" s="900"/>
+      <c r="L19" s="900"/>
+      <c r="M19" s="900"/>
+      <c r="N19" s="900"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="870" t="s">
-        <v>539</v>
-      </c>
-      <c r="B20" s="870"/>
-      <c r="C20" s="870"/>
-      <c r="D20" s="870"/>
-      <c r="E20" s="870"/>
-      <c r="F20" s="870"/>
-      <c r="G20" s="870"/>
-      <c r="H20" s="870"/>
-      <c r="I20" s="870"/>
-      <c r="J20" s="870"/>
-      <c r="K20" s="870"/>
-      <c r="L20" s="870"/>
-      <c r="M20" s="870"/>
-      <c r="N20" s="870"/>
+      <c r="A20" s="892" t="s">
+        <v>538</v>
+      </c>
+      <c r="B20" s="892"/>
+      <c r="C20" s="892"/>
+      <c r="D20" s="892"/>
+      <c r="E20" s="892"/>
+      <c r="F20" s="892"/>
+      <c r="G20" s="892"/>
+      <c r="H20" s="892"/>
+      <c r="I20" s="892"/>
+      <c r="J20" s="892"/>
+      <c r="K20" s="892"/>
+      <c r="L20" s="892"/>
+      <c r="M20" s="892"/>
+      <c r="N20" s="892"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="798"/>
@@ -28255,7 +28256,7 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="A22" s="825" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B22" s="825"/>
       <c r="C22" s="825"/>
@@ -28278,7 +28279,7 @@
       <c r="A23" s="825"/>
       <c r="B23" s="825"/>
       <c r="C23" s="827" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D23" s="825"/>
       <c r="E23" s="825"/>
@@ -28295,7 +28296,7 @@
       <c r="A24" s="825"/>
       <c r="B24" s="825"/>
       <c r="C24" s="828" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D24" s="825"/>
       <c r="E24" s="825"/>
@@ -28343,7 +28344,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="A26" s="825" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B26" s="825"/>
       <c r="C26" s="825"/>
@@ -28361,7 +28362,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="A27" s="825" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B27" s="825"/>
       <c r="C27" s="825"/>
@@ -28379,7 +28380,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="A28" s="825" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B28" s="825"/>
       <c r="C28" s="825"/>
@@ -28427,7 +28428,7 @@
       <c r="A30" s="825"/>
       <c r="B30" s="825"/>
       <c r="C30" s="827" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D30" s="825"/>
       <c r="E30" s="825"/>
@@ -28461,7 +28462,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="825" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B32" s="825"/>
       <c r="C32" s="825"/>
@@ -28481,7 +28482,7 @@
       <c r="A33" s="825"/>
       <c r="B33" s="825"/>
       <c r="C33" s="827" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D33" s="827"/>
       <c r="E33" s="827"/>
@@ -28502,7 +28503,7 @@
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="825" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B34" s="825"/>
       <c r="C34" s="825"/>
@@ -28520,7 +28521,7 @@
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="A35" s="825" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B35" s="825"/>
       <c r="C35" s="825"/>
@@ -28541,7 +28542,7 @@
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
       <c r="A36" s="825" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B36" s="825"/>
       <c r="C36" s="825"/>
@@ -28559,7 +28560,7 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="825" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B37" s="825"/>
       <c r="C37" s="825"/>
@@ -28577,7 +28578,7 @@
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="825" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B38" s="825"/>
       <c r="C38" s="825"/>
@@ -28595,7 +28596,7 @@
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1">
       <c r="A39" s="825" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B39" s="825"/>
       <c r="C39" s="825"/>
@@ -28613,7 +28614,7 @@
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="A40" s="825" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B40" s="825"/>
       <c r="C40" s="825"/>
@@ -28631,7 +28632,7 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1">
       <c r="A41" s="825" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B41" s="825"/>
       <c r="C41" s="825"/>
@@ -28649,7 +28650,7 @@
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="A42" s="825" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B42" s="825"/>
       <c r="C42" s="825"/>
@@ -28667,7 +28668,7 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="825" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B43" s="825"/>
       <c r="C43" s="825"/>
@@ -28685,7 +28686,7 @@
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1">
       <c r="A44" s="825" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B44" s="825"/>
       <c r="C44" s="825"/>
@@ -28703,7 +28704,7 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="825" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B45" s="825"/>
       <c r="C45" s="825"/>
@@ -28721,7 +28722,7 @@
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="825" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B46" s="825"/>
       <c r="C46" s="825"/>
@@ -28741,7 +28742,7 @@
       <c r="A47" s="825"/>
       <c r="B47" s="825"/>
       <c r="C47" s="827" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D47" s="825"/>
       <c r="E47" s="825"/>
@@ -28789,7 +28790,7 @@
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1">
       <c r="A49" s="825" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B49" s="825"/>
       <c r="C49" s="825"/>
@@ -28807,7 +28808,7 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1">
       <c r="A50" s="825" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B50" s="825"/>
       <c r="C50" s="825"/>
@@ -28839,31 +28840,33 @@
       <c r="M51" s="825"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A52" s="871" t="s">
-        <v>534</v>
-      </c>
-      <c r="B52" s="871"/>
-      <c r="C52" s="871"/>
-      <c r="D52" s="871"/>
-      <c r="E52" s="871"/>
-      <c r="F52" s="871"/>
-      <c r="G52" s="871"/>
-      <c r="H52" s="871"/>
-      <c r="I52" s="871"/>
-      <c r="J52" s="871"/>
-      <c r="K52" s="871"/>
-      <c r="L52" s="871"/>
-      <c r="M52" s="871"/>
-      <c r="N52" s="871"/>
+      <c r="A52" s="893" t="s">
+        <v>533</v>
+      </c>
+      <c r="B52" s="893"/>
+      <c r="C52" s="893"/>
+      <c r="D52" s="893"/>
+      <c r="E52" s="893"/>
+      <c r="F52" s="893"/>
+      <c r="G52" s="893"/>
+      <c r="H52" s="893"/>
+      <c r="I52" s="893"/>
+      <c r="J52" s="893"/>
+      <c r="K52" s="893"/>
+      <c r="L52" s="893"/>
+      <c r="M52" s="893"/>
+      <c r="N52" s="893"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A19:N19"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
@@ -28879,14 +28882,12 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:N12"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="L5:N5"/>
   </mergeCells>
   <conditionalFormatting sqref="N27:N38 N48 N41:N42 N50">
     <cfRule type="cellIs" dxfId="176" priority="13" stopIfTrue="1" operator="equal">
@@ -29197,19 +29198,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="912" t="s">
+      <c r="A1" s="903" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="912"/>
-      <c r="C1" s="912"/>
-      <c r="D1" s="912"/>
-      <c r="E1" s="912"/>
-      <c r="F1" s="912"/>
-      <c r="G1" s="912"/>
-      <c r="H1" s="912"/>
-      <c r="I1" s="912"/>
-      <c r="J1" s="912"/>
-      <c r="K1" s="912"/>
+      <c r="B1" s="903"/>
+      <c r="C1" s="903"/>
+      <c r="D1" s="903"/>
+      <c r="E1" s="903"/>
+      <c r="F1" s="903"/>
+      <c r="G1" s="903"/>
+      <c r="H1" s="903"/>
+      <c r="I1" s="903"/>
+      <c r="J1" s="903"/>
+      <c r="K1" s="903"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
       <c r="A2" s="517" t="s">
@@ -29243,23 +29244,23 @@
       <c r="K4" s="512"/>
     </row>
     <row r="5" spans="1:12" ht="42" customHeight="1">
-      <c r="A5" s="913" t="s">
-        <v>546</v>
-      </c>
-      <c r="B5" s="913"/>
-      <c r="C5" s="913"/>
-      <c r="D5" s="913"/>
-      <c r="E5" s="913"/>
-      <c r="F5" s="913"/>
-      <c r="G5" s="913"/>
-      <c r="H5" s="913"/>
-      <c r="I5" s="913"/>
-      <c r="J5" s="913"/>
-      <c r="K5" s="913"/>
+      <c r="A5" s="904" t="s">
+        <v>545</v>
+      </c>
+      <c r="B5" s="904"/>
+      <c r="C5" s="904"/>
+      <c r="D5" s="904"/>
+      <c r="E5" s="904"/>
+      <c r="F5" s="904"/>
+      <c r="G5" s="904"/>
+      <c r="H5" s="904"/>
+      <c r="I5" s="904"/>
+      <c r="J5" s="904"/>
+      <c r="K5" s="904"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="511" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B6" s="510"/>
       <c r="C6" s="510"/>
@@ -29274,7 +29275,7 @@
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7" s="507" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B7" s="506"/>
       <c r="C7" s="506"/>
@@ -29288,8 +29289,8 @@
       <c r="K7" s="506"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="J8" s="914"/>
-      <c r="K8" s="914"/>
+      <c r="J8" s="905"/>
+      <c r="K8" s="905"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="492"/>
@@ -29298,10 +29299,10 @@
         <v>396</v>
       </c>
       <c r="I9" s="505"/>
-      <c r="J9" s="915" t="s">
+      <c r="J9" s="906" t="s">
         <v>390</v>
       </c>
-      <c r="K9" s="915"/>
+      <c r="K9" s="906"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="504" t="s">
@@ -29315,7 +29316,7 @@
       <c r="G10" s="715"/>
       <c r="H10" s="716"/>
       <c r="I10" s="716" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J10" s="901"/>
       <c r="K10" s="902"/>
@@ -29361,7 +29362,7 @@
       <c r="E13" s="492"/>
       <c r="H13" s="502"/>
       <c r="I13" s="502" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J13" s="901"/>
       <c r="K13" s="902"/>
@@ -29371,7 +29372,7 @@
         <v>406</v>
       </c>
       <c r="B14" s="486" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C14" s="485"/>
       <c r="E14" s="492"/>
@@ -29403,12 +29404,12 @@
         <v>411</v>
       </c>
       <c r="B16" s="486" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C16" s="485"/>
       <c r="E16" s="492"/>
       <c r="H16" s="500" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J16" s="711"/>
       <c r="K16" s="712"/>
@@ -29419,7 +29420,7 @@
         <v>413</v>
       </c>
       <c r="B17" s="486" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C17" s="485"/>
       <c r="E17" s="492"/>
@@ -29427,17 +29428,17 @@
         <v>412</v>
       </c>
       <c r="J17" s="901" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K17" s="902"/>
       <c r="L17" s="492"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="499" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B18" s="498" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C18" s="485"/>
       <c r="H18" s="497" t="s">
@@ -29450,18 +29451,18 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="499" t="s">
+        <v>748</v>
+      </c>
+      <c r="B19" s="498" t="s">
         <v>749</v>
-      </c>
-      <c r="B19" s="498" t="s">
-        <v>750</v>
       </c>
       <c r="C19" s="485"/>
       <c r="H19" s="503" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I19" s="484"/>
       <c r="J19" s="901" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K19" s="902"/>
       <c r="L19" s="496"/>
@@ -29476,19 +29477,19 @@
       <c r="L20" s="492"/>
     </row>
     <row r="21" spans="1:12" ht="24" customHeight="1">
-      <c r="A21" s="903" t="s">
+      <c r="A21" s="907" t="s">
         <v>415</v>
       </c>
-      <c r="B21" s="903"/>
-      <c r="C21" s="903"/>
-      <c r="D21" s="903"/>
-      <c r="E21" s="903"/>
-      <c r="F21" s="903"/>
-      <c r="G21" s="903"/>
-      <c r="H21" s="903"/>
-      <c r="I21" s="903"/>
-      <c r="J21" s="903"/>
-      <c r="K21" s="903"/>
+      <c r="B21" s="907"/>
+      <c r="C21" s="907"/>
+      <c r="D21" s="907"/>
+      <c r="E21" s="907"/>
+      <c r="F21" s="907"/>
+      <c r="G21" s="907"/>
+      <c r="H21" s="907"/>
+      <c r="I21" s="907"/>
+      <c r="J21" s="907"/>
+      <c r="K21" s="907"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="491"/>
@@ -29504,126 +29505,131 @@
       <c r="K22" s="490"/>
     </row>
     <row r="23" spans="1:12" ht="290.25" customHeight="1">
-      <c r="A23" s="904"/>
-      <c r="B23" s="905"/>
-      <c r="C23" s="905"/>
-      <c r="D23" s="905"/>
-      <c r="E23" s="905"/>
-      <c r="F23" s="905"/>
-      <c r="G23" s="905"/>
-      <c r="H23" s="905"/>
-      <c r="I23" s="905"/>
-      <c r="J23" s="905"/>
-      <c r="K23" s="906"/>
+      <c r="A23" s="908"/>
+      <c r="B23" s="909"/>
+      <c r="C23" s="909"/>
+      <c r="D23" s="909"/>
+      <c r="E23" s="909"/>
+      <c r="F23" s="909"/>
+      <c r="G23" s="909"/>
+      <c r="H23" s="909"/>
+      <c r="I23" s="909"/>
+      <c r="J23" s="909"/>
+      <c r="K23" s="910"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="907"/>
-      <c r="B24" s="907"/>
-      <c r="C24" s="907"/>
-      <c r="D24" s="907"/>
-      <c r="E24" s="907"/>
-      <c r="F24" s="907"/>
-      <c r="G24" s="907"/>
-      <c r="H24" s="907"/>
-      <c r="I24" s="907"/>
-      <c r="J24" s="907"/>
-      <c r="K24" s="907"/>
+      <c r="A24" s="911"/>
+      <c r="B24" s="911"/>
+      <c r="C24" s="911"/>
+      <c r="D24" s="911"/>
+      <c r="E24" s="911"/>
+      <c r="F24" s="911"/>
+      <c r="G24" s="911"/>
+      <c r="H24" s="911"/>
+      <c r="I24" s="911"/>
+      <c r="J24" s="911"/>
+      <c r="K24" s="911"/>
     </row>
     <row r="25" spans="1:12" ht="13.8" hidden="1" thickBot="1">
-      <c r="A25" s="908"/>
-      <c r="B25" s="908"/>
-      <c r="C25" s="908"/>
-      <c r="D25" s="908"/>
-      <c r="E25" s="908"/>
-      <c r="F25" s="908"/>
-      <c r="G25" s="908"/>
-      <c r="H25" s="908"/>
-      <c r="I25" s="908"/>
-      <c r="J25" s="908"/>
-      <c r="K25" s="908"/>
+      <c r="A25" s="912"/>
+      <c r="B25" s="912"/>
+      <c r="C25" s="912"/>
+      <c r="D25" s="912"/>
+      <c r="E25" s="912"/>
+      <c r="F25" s="912"/>
+      <c r="G25" s="912"/>
+      <c r="H25" s="912"/>
+      <c r="I25" s="912"/>
+      <c r="J25" s="912"/>
+      <c r="K25" s="912"/>
     </row>
     <row r="26" spans="1:12" ht="13.8" hidden="1" thickBot="1">
-      <c r="A26" s="908"/>
-      <c r="B26" s="908"/>
-      <c r="C26" s="908"/>
-      <c r="D26" s="908"/>
-      <c r="E26" s="908"/>
-      <c r="F26" s="908"/>
-      <c r="G26" s="908"/>
-      <c r="H26" s="908"/>
-      <c r="I26" s="908"/>
-      <c r="J26" s="908"/>
-      <c r="K26" s="908"/>
+      <c r="A26" s="912"/>
+      <c r="B26" s="912"/>
+      <c r="C26" s="912"/>
+      <c r="D26" s="912"/>
+      <c r="E26" s="912"/>
+      <c r="F26" s="912"/>
+      <c r="G26" s="912"/>
+      <c r="H26" s="912"/>
+      <c r="I26" s="912"/>
+      <c r="J26" s="912"/>
+      <c r="K26" s="912"/>
     </row>
     <row r="27" spans="1:12" ht="13.8" hidden="1" thickBot="1">
-      <c r="A27" s="908"/>
-      <c r="B27" s="908"/>
-      <c r="C27" s="908"/>
-      <c r="D27" s="908"/>
-      <c r="E27" s="908"/>
-      <c r="F27" s="908"/>
-      <c r="G27" s="908"/>
-      <c r="H27" s="908"/>
-      <c r="I27" s="908"/>
-      <c r="J27" s="908"/>
-      <c r="K27" s="908"/>
+      <c r="A27" s="912"/>
+      <c r="B27" s="912"/>
+      <c r="C27" s="912"/>
+      <c r="D27" s="912"/>
+      <c r="E27" s="912"/>
+      <c r="F27" s="912"/>
+      <c r="G27" s="912"/>
+      <c r="H27" s="912"/>
+      <c r="I27" s="912"/>
+      <c r="J27" s="912"/>
+      <c r="K27" s="912"/>
     </row>
     <row r="28" spans="1:12" ht="13.8" hidden="1" thickBot="1">
-      <c r="A28" s="908"/>
-      <c r="B28" s="908"/>
-      <c r="C28" s="908"/>
-      <c r="D28" s="908"/>
-      <c r="E28" s="908"/>
-      <c r="F28" s="908"/>
-      <c r="G28" s="908"/>
-      <c r="H28" s="908"/>
-      <c r="I28" s="908"/>
-      <c r="J28" s="908"/>
-      <c r="K28" s="908"/>
+      <c r="A28" s="912"/>
+      <c r="B28" s="912"/>
+      <c r="C28" s="912"/>
+      <c r="D28" s="912"/>
+      <c r="E28" s="912"/>
+      <c r="F28" s="912"/>
+      <c r="G28" s="912"/>
+      <c r="H28" s="912"/>
+      <c r="I28" s="912"/>
+      <c r="J28" s="912"/>
+      <c r="K28" s="912"/>
     </row>
     <row r="29" spans="1:12" ht="13.8" hidden="1" thickBot="1">
-      <c r="A29" s="908"/>
-      <c r="B29" s="908"/>
-      <c r="C29" s="908"/>
-      <c r="D29" s="908"/>
-      <c r="E29" s="908"/>
-      <c r="F29" s="908"/>
-      <c r="G29" s="908"/>
-      <c r="H29" s="908"/>
-      <c r="I29" s="908"/>
-      <c r="J29" s="908"/>
-      <c r="K29" s="908"/>
+      <c r="A29" s="912"/>
+      <c r="B29" s="912"/>
+      <c r="C29" s="912"/>
+      <c r="D29" s="912"/>
+      <c r="E29" s="912"/>
+      <c r="F29" s="912"/>
+      <c r="G29" s="912"/>
+      <c r="H29" s="912"/>
+      <c r="I29" s="912"/>
+      <c r="J29" s="912"/>
+      <c r="K29" s="912"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" hidden="1" thickBot="1">
-      <c r="A30" s="908"/>
-      <c r="B30" s="908"/>
-      <c r="C30" s="908"/>
-      <c r="D30" s="908"/>
-      <c r="E30" s="908"/>
-      <c r="F30" s="908"/>
-      <c r="G30" s="908"/>
-      <c r="H30" s="908"/>
-      <c r="I30" s="908"/>
-      <c r="J30" s="908"/>
-      <c r="K30" s="908"/>
+      <c r="A30" s="912"/>
+      <c r="B30" s="912"/>
+      <c r="C30" s="912"/>
+      <c r="D30" s="912"/>
+      <c r="E30" s="912"/>
+      <c r="F30" s="912"/>
+      <c r="G30" s="912"/>
+      <c r="H30" s="912"/>
+      <c r="I30" s="912"/>
+      <c r="J30" s="912"/>
+      <c r="K30" s="912"/>
     </row>
     <row r="31" spans="1:12" ht="201.75" customHeight="1" thickBot="1">
-      <c r="A31" s="909" t="s">
-        <v>542</v>
-      </c>
-      <c r="B31" s="910"/>
-      <c r="C31" s="910"/>
-      <c r="D31" s="910"/>
-      <c r="E31" s="910"/>
-      <c r="F31" s="910"/>
-      <c r="G31" s="910"/>
-      <c r="H31" s="910"/>
-      <c r="I31" s="910"/>
-      <c r="J31" s="910"/>
-      <c r="K31" s="911"/>
+      <c r="A31" s="913" t="s">
+        <v>541</v>
+      </c>
+      <c r="B31" s="914"/>
+      <c r="C31" s="914"/>
+      <c r="D31" s="914"/>
+      <c r="E31" s="914"/>
+      <c r="F31" s="914"/>
+      <c r="G31" s="914"/>
+      <c r="H31" s="914"/>
+      <c r="I31" s="914"/>
+      <c r="J31" s="914"/>
+      <c r="K31" s="915"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K30"/>
+    <mergeCell ref="A31:K31"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A5:K5"/>
@@ -29636,11 +29642,6 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K30"/>
-    <mergeCell ref="A31:K31"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:K18">
     <cfRule type="cellIs" dxfId="163" priority="2" stopIfTrue="1" operator="equal">
@@ -30195,13 +30196,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="918" t="s">
-        <v>630</v>
-      </c>
-      <c r="B1" s="919"/>
-      <c r="C1" s="919"/>
-      <c r="D1" s="919"/>
-      <c r="E1" s="919"/>
+      <c r="A1" s="931" t="s">
+        <v>629</v>
+      </c>
+      <c r="B1" s="932"/>
+      <c r="C1" s="932"/>
+      <c r="D1" s="932"/>
+      <c r="E1" s="932"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="717"/>
@@ -30212,25 +30213,25 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1">
       <c r="A3" s="718" t="s">
-        <v>631</v>
-      </c>
-      <c r="B3" s="920">
+        <v>630</v>
+      </c>
+      <c r="B3" s="933">
         <f>'QC Test Summary-Siemens'!C4</f>
         <v>0</v>
       </c>
-      <c r="C3" s="920"/>
-      <c r="D3" s="920"/>
-      <c r="E3" s="920"/>
+      <c r="C3" s="933"/>
+      <c r="D3" s="933"/>
+      <c r="E3" s="933"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="718" t="s">
-        <v>632</v>
-      </c>
-      <c r="B4" s="921" t="str">
+        <v>631</v>
+      </c>
+      <c r="B4" s="934" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="C4" s="921"/>
+      <c r="C4" s="934"/>
       <c r="D4" s="719" t="s">
         <v>43</v>
       </c>
@@ -30241,7 +30242,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
       <c r="A5" s="718" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B5" s="720" t="str">
         <f>Sheet1!V18</f>
@@ -30249,7 +30250,7 @@
       </c>
       <c r="C5" s="720"/>
       <c r="D5" s="719" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E5" s="769" t="str">
         <f>Sheet1!V17</f>
@@ -30258,15 +30259,15 @@
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" s="718" t="s">
-        <v>635</v>
-      </c>
-      <c r="B6" s="921" t="str">
+        <v>634</v>
+      </c>
+      <c r="B6" s="934" t="str">
         <f>Sheet1!X7</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="C6" s="921"/>
+      <c r="C6" s="934"/>
       <c r="D6" s="719" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E6" s="721" t="str">
         <f>Sheet1!R14</f>
@@ -30275,12 +30276,12 @@
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">
       <c r="A7" s="718" t="s">
+        <v>636</v>
+      </c>
+      <c r="B7" s="934"/>
+      <c r="C7" s="934"/>
+      <c r="D7" s="719" t="s">
         <v>637</v>
-      </c>
-      <c r="B7" s="921"/>
-      <c r="C7" s="921"/>
-      <c r="D7" s="719" t="s">
-        <v>638</v>
       </c>
       <c r="E7" s="770">
         <f>Sheet1!P7</f>
@@ -30290,447 +30291,447 @@
     <row r="8" spans="1:5" ht="21.75" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
       <c r="A9" s="722" t="s">
+        <v>638</v>
+      </c>
+      <c r="B9" s="723" t="s">
         <v>639</v>
       </c>
-      <c r="B9" s="723" t="s">
+      <c r="C9" s="724" t="s">
         <v>640</v>
       </c>
-      <c r="C9" s="724" t="s">
+      <c r="D9" s="723" t="s">
         <v>641</v>
       </c>
-      <c r="D9" s="723" t="s">
+      <c r="E9" s="725" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="33" customHeight="1" thickTop="1">
+      <c r="A10" s="930" t="s">
         <v>642</v>
       </c>
-      <c r="E9" s="725" t="s">
+      <c r="B10" s="726" t="s">
+        <v>643</v>
+      </c>
+      <c r="C10" s="727" t="s">
+        <v>644</v>
+      </c>
+      <c r="D10" s="728" t="s">
+        <v>645</v>
+      </c>
+      <c r="E10" s="729"/>
+    </row>
+    <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A11" s="926"/>
+      <c r="B11" s="730" t="s">
+        <v>646</v>
+      </c>
+      <c r="C11" s="731" t="s">
+        <v>647</v>
+      </c>
+      <c r="D11" s="732" t="s">
+        <v>645</v>
+      </c>
+      <c r="E11" s="733"/>
+    </row>
+    <row r="12" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A12" s="921" t="s">
+        <v>648</v>
+      </c>
+      <c r="B12" s="734" t="s">
+        <v>649</v>
+      </c>
+      <c r="C12" s="735" t="s">
+        <v>650</v>
+      </c>
+      <c r="D12" s="736" t="s">
+        <v>651</v>
+      </c>
+      <c r="E12" s="737"/>
+    </row>
+    <row r="13" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A13" s="922"/>
+      <c r="B13" s="738" t="s">
+        <v>652</v>
+      </c>
+      <c r="C13" s="739" t="s">
+        <v>653</v>
+      </c>
+      <c r="D13" s="740" t="s">
+        <v>651</v>
+      </c>
+      <c r="E13" s="741"/>
+    </row>
+    <row r="14" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A14" s="923"/>
+      <c r="B14" s="742" t="s">
+        <v>654</v>
+      </c>
+      <c r="C14" s="743" t="s">
+        <v>655</v>
+      </c>
+      <c r="D14" s="732" t="s">
+        <v>645</v>
+      </c>
+      <c r="E14" s="744"/>
+    </row>
+    <row r="15" spans="1:5" ht="40.799999999999997">
+      <c r="A15" s="924" t="s">
+        <v>656</v>
+      </c>
+      <c r="B15" s="745" t="s">
+        <v>657</v>
+      </c>
+      <c r="C15" s="746" t="s">
+        <v>658</v>
+      </c>
+      <c r="D15" s="736" t="s">
+        <v>645</v>
+      </c>
+      <c r="E15" s="747"/>
+    </row>
+    <row r="16" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
+      <c r="A16" s="925"/>
+      <c r="B16" s="730" t="s">
+        <v>659</v>
+      </c>
+      <c r="C16" s="748" t="s">
+        <v>708</v>
+      </c>
+      <c r="D16" s="732" t="s">
+        <v>660</v>
+      </c>
+      <c r="E16" s="749"/>
+    </row>
+    <row r="17" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A17" s="916" t="s">
+        <v>661</v>
+      </c>
+      <c r="B17" s="750" t="s">
+        <v>662</v>
+      </c>
+      <c r="C17" s="735" t="s">
+        <v>663</v>
+      </c>
+      <c r="D17" s="736" t="s">
+        <v>645</v>
+      </c>
+      <c r="E17" s="751"/>
+    </row>
+    <row r="18" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A18" s="926"/>
+      <c r="B18" s="752" t="s">
+        <v>664</v>
+      </c>
+      <c r="C18" s="753" t="s">
+        <v>665</v>
+      </c>
+      <c r="D18" s="732" t="s">
+        <v>645</v>
+      </c>
+      <c r="E18" s="733"/>
+    </row>
+    <row r="19" spans="1:5" ht="20.399999999999999">
+      <c r="A19" s="927" t="s">
+        <v>666</v>
+      </c>
+      <c r="B19" s="750" t="s">
+        <v>667</v>
+      </c>
+      <c r="C19" s="735" t="s">
+        <v>668</v>
+      </c>
+      <c r="D19" s="736" t="s">
+        <v>645</v>
+      </c>
+      <c r="E19" s="751"/>
+    </row>
+    <row r="20" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A20" s="928"/>
+      <c r="B20" s="754" t="s">
+        <v>669</v>
+      </c>
+      <c r="C20" s="755" t="s">
+        <v>670</v>
+      </c>
+      <c r="D20" s="728" t="s">
+        <v>645</v>
+      </c>
+      <c r="E20" s="756"/>
+    </row>
+    <row r="21" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
+      <c r="A21" s="929"/>
+      <c r="B21" s="752" t="s">
+        <v>671</v>
+      </c>
+      <c r="C21" s="753" t="s">
+        <v>672</v>
+      </c>
+      <c r="D21" s="732" t="s">
+        <v>645</v>
+      </c>
+      <c r="E21" s="733"/>
+    </row>
+    <row r="22" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A22" s="916" t="s">
+        <v>673</v>
+      </c>
+      <c r="B22" s="750" t="s">
+        <v>674</v>
+      </c>
+      <c r="C22" s="735" t="s">
+        <v>675</v>
+      </c>
+      <c r="D22" s="736" t="s">
+        <v>645</v>
+      </c>
+      <c r="E22" s="751"/>
+    </row>
+    <row r="23" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A23" s="926"/>
+      <c r="B23" s="730" t="s">
+        <v>676</v>
+      </c>
+      <c r="C23" s="743" t="s">
+        <v>677</v>
+      </c>
+      <c r="D23" s="732" t="s">
+        <v>645</v>
+      </c>
+      <c r="E23" s="749"/>
+    </row>
+    <row r="24" spans="1:5" ht="30.6">
+      <c r="A24" s="927" t="s">
+        <v>678</v>
+      </c>
+      <c r="B24" s="750" t="s">
+        <v>679</v>
+      </c>
+      <c r="C24" s="735" t="s">
+        <v>680</v>
+      </c>
+      <c r="D24" s="736" t="s">
+        <v>645</v>
+      </c>
+      <c r="E24" s="751"/>
+    </row>
+    <row r="25" spans="1:5" ht="45.75" customHeight="1">
+      <c r="A25" s="928"/>
+      <c r="B25" s="754" t="s">
+        <v>681</v>
+      </c>
+      <c r="C25" s="739" t="s">
+        <v>682</v>
+      </c>
+      <c r="D25" s="728" t="s">
+        <v>660</v>
+      </c>
+      <c r="E25" s="756"/>
+    </row>
+    <row r="26" spans="1:5" ht="46.5" customHeight="1">
+      <c r="A26" s="928"/>
+      <c r="B26" s="757" t="s">
+        <v>683</v>
+      </c>
+      <c r="C26" s="739" t="s">
+        <v>684</v>
+      </c>
+      <c r="D26" s="728" t="s">
+        <v>645</v>
+      </c>
+      <c r="E26" s="756"/>
+    </row>
+    <row r="27" spans="1:5" ht="20.399999999999999">
+      <c r="A27" s="928"/>
+      <c r="B27" s="757" t="s">
+        <v>685</v>
+      </c>
+      <c r="C27" s="739" t="s">
+        <v>686</v>
+      </c>
+      <c r="D27" s="728" t="s">
+        <v>645</v>
+      </c>
+      <c r="E27" s="756"/>
+    </row>
+    <row r="28" spans="1:5" ht="21" thickBot="1">
+      <c r="A28" s="929"/>
+      <c r="B28" s="758" t="s">
+        <v>687</v>
+      </c>
+      <c r="C28" s="743" t="s">
+        <v>688</v>
+      </c>
+      <c r="D28" s="732" t="s">
+        <v>645</v>
+      </c>
+      <c r="E28" s="749"/>
+    </row>
+    <row r="29" spans="1:5" ht="20.399999999999999">
+      <c r="A29" s="916" t="s">
+        <v>689</v>
+      </c>
+      <c r="B29" s="759" t="s">
+        <v>690</v>
+      </c>
+      <c r="C29" s="735" t="s">
+        <v>691</v>
+      </c>
+      <c r="D29" s="736" t="s">
+        <v>645</v>
+      </c>
+      <c r="E29" s="751"/>
+    </row>
+    <row r="30" spans="1:5" ht="54.75" customHeight="1">
+      <c r="A30" s="917"/>
+      <c r="B30" s="757" t="s">
+        <v>692</v>
+      </c>
+      <c r="C30" s="739" t="s">
+        <v>693</v>
+      </c>
+      <c r="D30" s="728" t="s">
+        <v>645</v>
+      </c>
+      <c r="E30" s="756"/>
+    </row>
+    <row r="31" spans="1:5" ht="31.2" thickBot="1">
+      <c r="A31" s="918"/>
+      <c r="B31" s="758" t="s">
+        <v>694</v>
+      </c>
+      <c r="C31" s="743" t="s">
+        <v>695</v>
+      </c>
+      <c r="D31" s="732" t="s">
+        <v>645</v>
+      </c>
+      <c r="E31" s="749"/>
+    </row>
+    <row r="32" spans="1:5" ht="46.5" customHeight="1">
+      <c r="A32" s="916" t="s">
+        <v>696</v>
+      </c>
+      <c r="B32" s="759" t="s">
+        <v>697</v>
+      </c>
+      <c r="C32" s="735" t="s">
+        <v>698</v>
+      </c>
+      <c r="D32" s="736" t="s">
+        <v>651</v>
+      </c>
+      <c r="E32" s="751"/>
+    </row>
+    <row r="33" spans="1:5" ht="66.75" customHeight="1">
+      <c r="A33" s="917"/>
+      <c r="B33" s="757" t="s">
+        <v>699</v>
+      </c>
+      <c r="C33" s="739" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="33" customHeight="1" thickTop="1">
-      <c r="A10" s="916" t="s">
-        <v>643</v>
-      </c>
-      <c r="B10" s="726" t="s">
-        <v>644</v>
-      </c>
-      <c r="C10" s="727" t="s">
-        <v>645</v>
-      </c>
-      <c r="D10" s="728" t="s">
-        <v>646</v>
-      </c>
-      <c r="E10" s="729"/>
-    </row>
-    <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A11" s="917"/>
-      <c r="B11" s="730" t="s">
-        <v>647</v>
-      </c>
-      <c r="C11" s="731" t="s">
-        <v>648</v>
-      </c>
-      <c r="D11" s="732" t="s">
-        <v>646</v>
-      </c>
-      <c r="E11" s="733"/>
-    </row>
-    <row r="12" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A12" s="927" t="s">
-        <v>649</v>
-      </c>
-      <c r="B12" s="734" t="s">
-        <v>650</v>
-      </c>
-      <c r="C12" s="735" t="s">
+      <c r="D33" s="740" t="s">
         <v>651</v>
       </c>
-      <c r="D12" s="736" t="s">
-        <v>652</v>
-      </c>
-      <c r="E12" s="737"/>
-    </row>
-    <row r="13" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A13" s="928"/>
-      <c r="B13" s="738" t="s">
-        <v>653</v>
-      </c>
-      <c r="C13" s="739" t="s">
-        <v>654</v>
-      </c>
-      <c r="D13" s="740" t="s">
-        <v>652</v>
-      </c>
-      <c r="E13" s="741"/>
-    </row>
-    <row r="14" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A14" s="929"/>
-      <c r="B14" s="742" t="s">
-        <v>655</v>
-      </c>
-      <c r="C14" s="743" t="s">
-        <v>656</v>
-      </c>
-      <c r="D14" s="732" t="s">
-        <v>646</v>
-      </c>
-      <c r="E14" s="744"/>
-    </row>
-    <row r="15" spans="1:5" ht="40.799999999999997">
-      <c r="A15" s="930" t="s">
-        <v>657</v>
-      </c>
-      <c r="B15" s="745" t="s">
-        <v>658</v>
-      </c>
-      <c r="C15" s="746" t="s">
-        <v>659</v>
-      </c>
-      <c r="D15" s="736" t="s">
-        <v>646</v>
-      </c>
-      <c r="E15" s="747"/>
-    </row>
-    <row r="16" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A16" s="931"/>
-      <c r="B16" s="730" t="s">
-        <v>660</v>
-      </c>
-      <c r="C16" s="748" t="s">
-        <v>709</v>
-      </c>
-      <c r="D16" s="732" t="s">
-        <v>661</v>
-      </c>
-      <c r="E16" s="749"/>
-    </row>
-    <row r="17" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A17" s="922" t="s">
-        <v>662</v>
-      </c>
-      <c r="B17" s="750" t="s">
-        <v>663</v>
-      </c>
-      <c r="C17" s="735" t="s">
-        <v>664</v>
-      </c>
-      <c r="D17" s="736" t="s">
-        <v>646</v>
-      </c>
-      <c r="E17" s="751"/>
-    </row>
-    <row r="18" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A18" s="917"/>
-      <c r="B18" s="752" t="s">
-        <v>665</v>
-      </c>
-      <c r="C18" s="753" t="s">
-        <v>666</v>
-      </c>
-      <c r="D18" s="732" t="s">
-        <v>646</v>
-      </c>
-      <c r="E18" s="733"/>
-    </row>
-    <row r="19" spans="1:5" ht="20.399999999999999">
-      <c r="A19" s="932" t="s">
-        <v>667</v>
-      </c>
-      <c r="B19" s="750" t="s">
-        <v>668</v>
-      </c>
-      <c r="C19" s="735" t="s">
-        <v>669</v>
-      </c>
-      <c r="D19" s="736" t="s">
-        <v>646</v>
-      </c>
-      <c r="E19" s="751"/>
-    </row>
-    <row r="20" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A20" s="933"/>
-      <c r="B20" s="754" t="s">
-        <v>670</v>
-      </c>
-      <c r="C20" s="755" t="s">
-        <v>671</v>
-      </c>
-      <c r="D20" s="728" t="s">
-        <v>646</v>
-      </c>
-      <c r="E20" s="756"/>
-    </row>
-    <row r="21" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A21" s="934"/>
-      <c r="B21" s="752" t="s">
-        <v>672</v>
-      </c>
-      <c r="C21" s="753" t="s">
-        <v>673</v>
-      </c>
-      <c r="D21" s="732" t="s">
-        <v>646</v>
-      </c>
-      <c r="E21" s="733"/>
-    </row>
-    <row r="22" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A22" s="922" t="s">
-        <v>674</v>
-      </c>
-      <c r="B22" s="750" t="s">
-        <v>675</v>
-      </c>
-      <c r="C22" s="735" t="s">
-        <v>676</v>
-      </c>
-      <c r="D22" s="736" t="s">
-        <v>646</v>
-      </c>
-      <c r="E22" s="751"/>
-    </row>
-    <row r="23" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A23" s="917"/>
-      <c r="B23" s="730" t="s">
-        <v>677</v>
-      </c>
-      <c r="C23" s="743" t="s">
-        <v>678</v>
-      </c>
-      <c r="D23" s="732" t="s">
-        <v>646</v>
-      </c>
-      <c r="E23" s="749"/>
-    </row>
-    <row r="24" spans="1:5" ht="30.6">
-      <c r="A24" s="932" t="s">
-        <v>679</v>
-      </c>
-      <c r="B24" s="750" t="s">
-        <v>680</v>
-      </c>
-      <c r="C24" s="735" t="s">
-        <v>681</v>
-      </c>
-      <c r="D24" s="736" t="s">
-        <v>646</v>
-      </c>
-      <c r="E24" s="751"/>
-    </row>
-    <row r="25" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A25" s="933"/>
-      <c r="B25" s="754" t="s">
-        <v>682</v>
-      </c>
-      <c r="C25" s="739" t="s">
-        <v>683</v>
-      </c>
-      <c r="D25" s="728" t="s">
-        <v>661</v>
-      </c>
-      <c r="E25" s="756"/>
-    </row>
-    <row r="26" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A26" s="933"/>
-      <c r="B26" s="757" t="s">
-        <v>684</v>
-      </c>
-      <c r="C26" s="739" t="s">
-        <v>685</v>
-      </c>
-      <c r="D26" s="728" t="s">
-        <v>646</v>
-      </c>
-      <c r="E26" s="756"/>
-    </row>
-    <row r="27" spans="1:5" ht="20.399999999999999">
-      <c r="A27" s="933"/>
-      <c r="B27" s="757" t="s">
-        <v>686</v>
-      </c>
-      <c r="C27" s="739" t="s">
-        <v>687</v>
-      </c>
-      <c r="D27" s="728" t="s">
-        <v>646</v>
-      </c>
-      <c r="E27" s="756"/>
-    </row>
-    <row r="28" spans="1:5" ht="21" thickBot="1">
-      <c r="A28" s="934"/>
-      <c r="B28" s="758" t="s">
-        <v>688</v>
-      </c>
-      <c r="C28" s="743" t="s">
-        <v>689</v>
-      </c>
-      <c r="D28" s="732" t="s">
-        <v>646</v>
-      </c>
-      <c r="E28" s="749"/>
-    </row>
-    <row r="29" spans="1:5" ht="20.399999999999999">
-      <c r="A29" s="922" t="s">
-        <v>690</v>
-      </c>
-      <c r="B29" s="759" t="s">
-        <v>691</v>
-      </c>
-      <c r="C29" s="735" t="s">
-        <v>692</v>
-      </c>
-      <c r="D29" s="736" t="s">
-        <v>646</v>
-      </c>
-      <c r="E29" s="751"/>
-    </row>
-    <row r="30" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A30" s="923"/>
-      <c r="B30" s="757" t="s">
-        <v>693</v>
-      </c>
-      <c r="C30" s="739" t="s">
-        <v>694</v>
-      </c>
-      <c r="D30" s="728" t="s">
-        <v>646</v>
-      </c>
-      <c r="E30" s="756"/>
-    </row>
-    <row r="31" spans="1:5" ht="31.2" thickBot="1">
-      <c r="A31" s="924"/>
-      <c r="B31" s="758" t="s">
-        <v>695</v>
-      </c>
-      <c r="C31" s="743" t="s">
-        <v>696</v>
-      </c>
-      <c r="D31" s="732" t="s">
-        <v>646</v>
-      </c>
-      <c r="E31" s="749"/>
-    </row>
-    <row r="32" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A32" s="922" t="s">
-        <v>697</v>
-      </c>
-      <c r="B32" s="759" t="s">
-        <v>698</v>
-      </c>
-      <c r="C32" s="735" t="s">
-        <v>699</v>
-      </c>
-      <c r="D32" s="736" t="s">
-        <v>652</v>
-      </c>
-      <c r="E32" s="751"/>
-    </row>
-    <row r="33" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A33" s="923"/>
-      <c r="B33" s="757" t="s">
+      <c r="E33" s="756"/>
+    </row>
+    <row r="34" spans="1:5" ht="21" thickBot="1">
+      <c r="A34" s="918"/>
+      <c r="B34" s="758" t="s">
         <v>700</v>
       </c>
-      <c r="C33" s="739" t="s">
-        <v>760</v>
-      </c>
-      <c r="D33" s="740" t="s">
-        <v>652</v>
-      </c>
-      <c r="E33" s="756"/>
-    </row>
-    <row r="34" spans="1:5" ht="21" thickBot="1">
-      <c r="A34" s="924"/>
-      <c r="B34" s="758" t="s">
+      <c r="C34" s="743" t="s">
         <v>701</v>
       </c>
-      <c r="C34" s="743" t="s">
-        <v>702</v>
-      </c>
       <c r="D34" s="760" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E34" s="749"/>
     </row>
     <row r="35" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A35" s="761" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B35" s="762">
         <v>11</v>
       </c>
       <c r="C35" s="763" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D35" s="764" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E35" s="765"/>
     </row>
     <row r="36" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
       <c r="A36" s="761" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B36" s="762">
         <v>12</v>
       </c>
       <c r="C36" s="763" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D36" s="764" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E36" s="765"/>
     </row>
     <row r="37" spans="1:5" ht="41.4" thickBot="1">
       <c r="A37" s="761" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B37" s="762">
         <v>13</v>
       </c>
       <c r="C37" s="763" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D37" s="764" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E37" s="765"/>
     </row>
     <row r="38" spans="1:5" ht="46.5" customHeight="1" thickBot="1">
       <c r="A38" s="761" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B38" s="762">
         <v>14</v>
       </c>
       <c r="C38" s="763" t="s">
+        <v>705</v>
+      </c>
+      <c r="D38" s="764" t="s">
         <v>706</v>
-      </c>
-      <c r="D38" s="764" t="s">
-        <v>707</v>
       </c>
       <c r="E38" s="765"/>
     </row>
     <row r="39" spans="1:5" ht="46.5" customHeight="1" thickBot="1">
       <c r="A39" s="766" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B39" s="767">
         <v>15</v>
       </c>
       <c r="C39" s="753" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D39" s="732" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E39" s="733"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="925" t="s">
-        <v>766</v>
-      </c>
-      <c r="B40" s="926"/>
-      <c r="C40" s="926"/>
-      <c r="D40" s="926"/>
-      <c r="E40" s="926"/>
+      <c r="A40" s="919" t="s">
+        <v>765</v>
+      </c>
+      <c r="B40" s="920"/>
+      <c r="C40" s="920"/>
+      <c r="D40" s="920"/>
+      <c r="E40" s="920"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="768"/>
@@ -31427,6 +31428,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A40:E40"/>
@@ -31436,12 +31443,6 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E10 JA10 SW10 ACS10 AMO10 AWK10 BGG10 BQC10 BZY10 CJU10 CTQ10 DDM10 DNI10 DXE10 EHA10 EQW10 FAS10 FKO10 FUK10 GEG10 GOC10 GXY10 HHU10 HRQ10 IBM10 ILI10 IVE10 JFA10 JOW10 JYS10 KIO10 KSK10 LCG10 LMC10 LVY10 MFU10 MPQ10 MZM10 NJI10 NTE10 ODA10 OMW10 OWS10 PGO10 PQK10 QAG10 QKC10 QTY10 RDU10 RNQ10 RXM10 SHI10 SRE10 TBA10 TKW10 TUS10 UEO10 UOK10 UYG10 VIC10 VRY10 WBU10 WLQ10 WVM10 E65546 JA65546 SW65546 ACS65546 AMO65546 AWK65546 BGG65546 BQC65546 BZY65546 CJU65546 CTQ65546 DDM65546 DNI65546 DXE65546 EHA65546 EQW65546 FAS65546 FKO65546 FUK65546 GEG65546 GOC65546 GXY65546 HHU65546 HRQ65546 IBM65546 ILI65546 IVE65546 JFA65546 JOW65546 JYS65546 KIO65546 KSK65546 LCG65546 LMC65546 LVY65546 MFU65546 MPQ65546 MZM65546 NJI65546 NTE65546 ODA65546 OMW65546 OWS65546 PGO65546 PQK65546 QAG65546 QKC65546 QTY65546 RDU65546 RNQ65546 RXM65546 SHI65546 SRE65546 TBA65546 TKW65546 TUS65546 UEO65546 UOK65546 UYG65546 VIC65546 VRY65546 WBU65546 WLQ65546 WVM65546 E131082 JA131082 SW131082 ACS131082 AMO131082 AWK131082 BGG131082 BQC131082 BZY131082 CJU131082 CTQ131082 DDM131082 DNI131082 DXE131082 EHA131082 EQW131082 FAS131082 FKO131082 FUK131082 GEG131082 GOC131082 GXY131082 HHU131082 HRQ131082 IBM131082 ILI131082 IVE131082 JFA131082 JOW131082 JYS131082 KIO131082 KSK131082 LCG131082 LMC131082 LVY131082 MFU131082 MPQ131082 MZM131082 NJI131082 NTE131082 ODA131082 OMW131082 OWS131082 PGO131082 PQK131082 QAG131082 QKC131082 QTY131082 RDU131082 RNQ131082 RXM131082 SHI131082 SRE131082 TBA131082 TKW131082 TUS131082 UEO131082 UOK131082 UYG131082 VIC131082 VRY131082 WBU131082 WLQ131082 WVM131082 E196618 JA196618 SW196618 ACS196618 AMO196618 AWK196618 BGG196618 BQC196618 BZY196618 CJU196618 CTQ196618 DDM196618 DNI196618 DXE196618 EHA196618 EQW196618 FAS196618 FKO196618 FUK196618 GEG196618 GOC196618 GXY196618 HHU196618 HRQ196618 IBM196618 ILI196618 IVE196618 JFA196618 JOW196618 JYS196618 KIO196618 KSK196618 LCG196618 LMC196618 LVY196618 MFU196618 MPQ196618 MZM196618 NJI196618 NTE196618 ODA196618 OMW196618 OWS196618 PGO196618 PQK196618 QAG196618 QKC196618 QTY196618 RDU196618 RNQ196618 RXM196618 SHI196618 SRE196618 TBA196618 TKW196618 TUS196618 UEO196618 UOK196618 UYG196618 VIC196618 VRY196618 WBU196618 WLQ196618 WVM196618 E262154 JA262154 SW262154 ACS262154 AMO262154 AWK262154 BGG262154 BQC262154 BZY262154 CJU262154 CTQ262154 DDM262154 DNI262154 DXE262154 EHA262154 EQW262154 FAS262154 FKO262154 FUK262154 GEG262154 GOC262154 GXY262154 HHU262154 HRQ262154 IBM262154 ILI262154 IVE262154 JFA262154 JOW262154 JYS262154 KIO262154 KSK262154 LCG262154 LMC262154 LVY262154 MFU262154 MPQ262154 MZM262154 NJI262154 NTE262154 ODA262154 OMW262154 OWS262154 PGO262154 PQK262154 QAG262154 QKC262154 QTY262154 RDU262154 RNQ262154 RXM262154 SHI262154 SRE262154 TBA262154 TKW262154 TUS262154 UEO262154 UOK262154 UYG262154 VIC262154 VRY262154 WBU262154 WLQ262154 WVM262154 E327690 JA327690 SW327690 ACS327690 AMO327690 AWK327690 BGG327690 BQC327690 BZY327690 CJU327690 CTQ327690 DDM327690 DNI327690 DXE327690 EHA327690 EQW327690 FAS327690 FKO327690 FUK327690 GEG327690 GOC327690 GXY327690 HHU327690 HRQ327690 IBM327690 ILI327690 IVE327690 JFA327690 JOW327690 JYS327690 KIO327690 KSK327690 LCG327690 LMC327690 LVY327690 MFU327690 MPQ327690 MZM327690 NJI327690 NTE327690 ODA327690 OMW327690 OWS327690 PGO327690 PQK327690 QAG327690 QKC327690 QTY327690 RDU327690 RNQ327690 RXM327690 SHI327690 SRE327690 TBA327690 TKW327690 TUS327690 UEO327690 UOK327690 UYG327690 VIC327690 VRY327690 WBU327690 WLQ327690 WVM327690 E393226 JA393226 SW393226 ACS393226 AMO393226 AWK393226 BGG393226 BQC393226 BZY393226 CJU393226 CTQ393226 DDM393226 DNI393226 DXE393226 EHA393226 EQW393226 FAS393226 FKO393226 FUK393226 GEG393226 GOC393226 GXY393226 HHU393226 HRQ393226 IBM393226 ILI393226 IVE393226 JFA393226 JOW393226 JYS393226 KIO393226 KSK393226 LCG393226 LMC393226 LVY393226 MFU393226 MPQ393226 MZM393226 NJI393226 NTE393226 ODA393226 OMW393226 OWS393226 PGO393226 PQK393226 QAG393226 QKC393226 QTY393226 RDU393226 RNQ393226 RXM393226 SHI393226 SRE393226 TBA393226 TKW393226 TUS393226 UEO393226 UOK393226 UYG393226 VIC393226 VRY393226 WBU393226 WLQ393226 WVM393226 E458762 JA458762 SW458762 ACS458762 AMO458762 AWK458762 BGG458762 BQC458762 BZY458762 CJU458762 CTQ458762 DDM458762 DNI458762 DXE458762 EHA458762 EQW458762 FAS458762 FKO458762 FUK458762 GEG458762 GOC458762 GXY458762 HHU458762 HRQ458762 IBM458762 ILI458762 IVE458762 JFA458762 JOW458762 JYS458762 KIO458762 KSK458762 LCG458762 LMC458762 LVY458762 MFU458762 MPQ458762 MZM458762 NJI458762 NTE458762 ODA458762 OMW458762 OWS458762 PGO458762 PQK458762 QAG458762 QKC458762 QTY458762 RDU458762 RNQ458762 RXM458762 SHI458762 SRE458762 TBA458762 TKW458762 TUS458762 UEO458762 UOK458762 UYG458762 VIC458762 VRY458762 WBU458762 WLQ458762 WVM458762 E524298 JA524298 SW524298 ACS524298 AMO524298 AWK524298 BGG524298 BQC524298 BZY524298 CJU524298 CTQ524298 DDM524298 DNI524298 DXE524298 EHA524298 EQW524298 FAS524298 FKO524298 FUK524298 GEG524298 GOC524298 GXY524298 HHU524298 HRQ524298 IBM524298 ILI524298 IVE524298 JFA524298 JOW524298 JYS524298 KIO524298 KSK524298 LCG524298 LMC524298 LVY524298 MFU524298 MPQ524298 MZM524298 NJI524298 NTE524298 ODA524298 OMW524298 OWS524298 PGO524298 PQK524298 QAG524298 QKC524298 QTY524298 RDU524298 RNQ524298 RXM524298 SHI524298 SRE524298 TBA524298 TKW524298 TUS524298 UEO524298 UOK524298 UYG524298 VIC524298 VRY524298 WBU524298 WLQ524298 WVM524298 E589834 JA589834 SW589834 ACS589834 AMO589834 AWK589834 BGG589834 BQC589834 BZY589834 CJU589834 CTQ589834 DDM589834 DNI589834 DXE589834 EHA589834 EQW589834 FAS589834 FKO589834 FUK589834 GEG589834 GOC589834 GXY589834 HHU589834 HRQ589834 IBM589834 ILI589834 IVE589834 JFA589834 JOW589834 JYS589834 KIO589834 KSK589834 LCG589834 LMC589834 LVY589834 MFU589834 MPQ589834 MZM589834 NJI589834 NTE589834 ODA589834 OMW589834 OWS589834 PGO589834 PQK589834 QAG589834 QKC589834 QTY589834 RDU589834 RNQ589834 RXM589834 SHI589834 SRE589834 TBA589834 TKW589834 TUS589834 UEO589834 UOK589834 UYG589834 VIC589834 VRY589834 WBU589834 WLQ589834 WVM589834 E655370 JA655370 SW655370 ACS655370 AMO655370 AWK655370 BGG655370 BQC655370 BZY655370 CJU655370 CTQ655370 DDM655370 DNI655370 DXE655370 EHA655370 EQW655370 FAS655370 FKO655370 FUK655370 GEG655370 GOC655370 GXY655370 HHU655370 HRQ655370 IBM655370 ILI655370 IVE655370 JFA655370 JOW655370 JYS655370 KIO655370 KSK655370 LCG655370 LMC655370 LVY655370 MFU655370 MPQ655370 MZM655370 NJI655370 NTE655370 ODA655370 OMW655370 OWS655370 PGO655370 PQK655370 QAG655370 QKC655370 QTY655370 RDU655370 RNQ655370 RXM655370 SHI655370 SRE655370 TBA655370 TKW655370 TUS655370 UEO655370 UOK655370 UYG655370 VIC655370 VRY655370 WBU655370 WLQ655370 WVM655370 E720906 JA720906 SW720906 ACS720906 AMO720906 AWK720906 BGG720906 BQC720906 BZY720906 CJU720906 CTQ720906 DDM720906 DNI720906 DXE720906 EHA720906 EQW720906 FAS720906 FKO720906 FUK720906 GEG720906 GOC720906 GXY720906 HHU720906 HRQ720906 IBM720906 ILI720906 IVE720906 JFA720906 JOW720906 JYS720906 KIO720906 KSK720906 LCG720906 LMC720906 LVY720906 MFU720906 MPQ720906 MZM720906 NJI720906 NTE720906 ODA720906 OMW720906 OWS720906 PGO720906 PQK720906 QAG720906 QKC720906 QTY720906 RDU720906 RNQ720906 RXM720906 SHI720906 SRE720906 TBA720906 TKW720906 TUS720906 UEO720906 UOK720906 UYG720906 VIC720906 VRY720906 WBU720906 WLQ720906 WVM720906 E786442 JA786442 SW786442 ACS786442 AMO786442 AWK786442 BGG786442 BQC786442 BZY786442 CJU786442 CTQ786442 DDM786442 DNI786442 DXE786442 EHA786442 EQW786442 FAS786442 FKO786442 FUK786442 GEG786442 GOC786442 GXY786442 HHU786442 HRQ786442 IBM786442 ILI786442 IVE786442 JFA786442 JOW786442 JYS786442 KIO786442 KSK786442 LCG786442 LMC786442 LVY786442 MFU786442 MPQ786442 MZM786442 NJI786442 NTE786442 ODA786442 OMW786442 OWS786442 PGO786442 PQK786442 QAG786442 QKC786442 QTY786442 RDU786442 RNQ786442 RXM786442 SHI786442 SRE786442 TBA786442 TKW786442 TUS786442 UEO786442 UOK786442 UYG786442 VIC786442 VRY786442 WBU786442 WLQ786442 WVM786442 E851978 JA851978 SW851978 ACS851978 AMO851978 AWK851978 BGG851978 BQC851978 BZY851978 CJU851978 CTQ851978 DDM851978 DNI851978 DXE851978 EHA851978 EQW851978 FAS851978 FKO851978 FUK851978 GEG851978 GOC851978 GXY851978 HHU851978 HRQ851978 IBM851978 ILI851978 IVE851978 JFA851978 JOW851978 JYS851978 KIO851978 KSK851978 LCG851978 LMC851978 LVY851978 MFU851978 MPQ851978 MZM851978 NJI851978 NTE851978 ODA851978 OMW851978 OWS851978 PGO851978 PQK851978 QAG851978 QKC851978 QTY851978 RDU851978 RNQ851978 RXM851978 SHI851978 SRE851978 TBA851978 TKW851978 TUS851978 UEO851978 UOK851978 UYG851978 VIC851978 VRY851978 WBU851978 WLQ851978 WVM851978 E917514 JA917514 SW917514 ACS917514 AMO917514 AWK917514 BGG917514 BQC917514 BZY917514 CJU917514 CTQ917514 DDM917514 DNI917514 DXE917514 EHA917514 EQW917514 FAS917514 FKO917514 FUK917514 GEG917514 GOC917514 GXY917514 HHU917514 HRQ917514 IBM917514 ILI917514 IVE917514 JFA917514 JOW917514 JYS917514 KIO917514 KSK917514 LCG917514 LMC917514 LVY917514 MFU917514 MPQ917514 MZM917514 NJI917514 NTE917514 ODA917514 OMW917514 OWS917514 PGO917514 PQK917514 QAG917514 QKC917514 QTY917514 RDU917514 RNQ917514 RXM917514 SHI917514 SRE917514 TBA917514 TKW917514 TUS917514 UEO917514 UOK917514 UYG917514 VIC917514 VRY917514 WBU917514 WLQ917514 WVM917514 E983050 JA983050 SW983050 ACS983050 AMO983050 AWK983050 BGG983050 BQC983050 BZY983050 CJU983050 CTQ983050 DDM983050 DNI983050 DXE983050 EHA983050 EQW983050 FAS983050 FKO983050 FUK983050 GEG983050 GOC983050 GXY983050 HHU983050 HRQ983050 IBM983050 ILI983050 IVE983050 JFA983050 JOW983050 JYS983050 KIO983050 KSK983050 LCG983050 LMC983050 LVY983050 MFU983050 MPQ983050 MZM983050 NJI983050 NTE983050 ODA983050 OMW983050 OWS983050 PGO983050 PQK983050 QAG983050 QKC983050 QTY983050 RDU983050 RNQ983050 RXM983050 SHI983050 SRE983050 TBA983050 TKW983050 TUS983050 UEO983050 UOK983050 UYG983050 VIC983050 VRY983050 WBU983050 WLQ983050 WVM983050" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
@@ -33457,9 +33458,7 @@
   </sheetPr>
   <dimension ref="A1:AR518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J253" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T282" sqref="T282"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="K268" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" customHeight="1"/>
   <cols>
@@ -33491,7 +33490,7 @@
       <c r="L1" s="18"/>
       <c r="M1" s="19"/>
       <c r="O1" s="21" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="P1" s="22"/>
       <c r="Q1" s="22"/>
@@ -33808,19 +33807,19 @@
       <c r="E10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="969" t="str">
+      <c r="F10" s="945" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="969"/>
+      <c r="G10" s="945"/>
       <c r="J10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="961" t="str">
+      <c r="K10" s="938" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="961"/>
+      <c r="L10" s="938"/>
       <c r="M10" s="68"/>
       <c r="O10" s="29"/>
       <c r="Q10" s="34" t="s">
@@ -33885,19 +33884,19 @@
       <c r="E11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="970" t="str">
+      <c r="F11" s="946" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="970"/>
+      <c r="G11" s="946"/>
       <c r="J11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="961" t="str">
+      <c r="K11" s="938" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="961"/>
+      <c r="L11" s="938"/>
       <c r="M11" s="68"/>
       <c r="O11" s="29"/>
       <c r="Q11" s="34" t="s">
@@ -33962,19 +33961,19 @@
       <c r="E12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="970" t="str">
+      <c r="F12" s="946" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="970"/>
+      <c r="G12" s="946"/>
       <c r="J12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="971" t="str">
+      <c r="K12" s="944" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="971"/>
+      <c r="L12" s="944"/>
       <c r="M12" s="68"/>
       <c r="O12" s="29"/>
       <c r="Q12" s="34" t="s">
@@ -34039,19 +34038,19 @@
       <c r="E13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="970" t="str">
+      <c r="F13" s="946" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="970"/>
+      <c r="G13" s="946"/>
       <c r="J13" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="961" t="str">
+      <c r="K13" s="938" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="961"/>
+      <c r="L13" s="938"/>
       <c r="M13" s="68"/>
       <c r="O13" s="29"/>
       <c r="Q13" s="34" t="s">
@@ -34225,19 +34224,19 @@
       <c r="E16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="961" t="str">
+      <c r="F16" s="938" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="961"/>
+      <c r="G16" s="938"/>
       <c r="J16" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="971" t="str">
+      <c r="K16" s="944" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="971"/>
+      <c r="L16" s="944"/>
       <c r="M16" s="68"/>
       <c r="O16" s="29"/>
       <c r="P16" s="74" t="s">
@@ -34289,19 +34288,19 @@
       <c r="E17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="961" t="str">
+      <c r="F17" s="938" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="961"/>
+      <c r="G17" s="938"/>
       <c r="J17" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="972" t="str">
+      <c r="K17" s="947" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="972"/>
+      <c r="L17" s="947"/>
       <c r="M17" s="68"/>
       <c r="O17" s="29"/>
       <c r="Q17" s="34" t="s">
@@ -34366,19 +34365,19 @@
       <c r="E18" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="961" t="str">
+      <c r="F18" s="938" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="961"/>
+      <c r="G18" s="938"/>
       <c r="J18" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="961" t="str">
+      <c r="K18" s="938" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="961"/>
+      <c r="L18" s="938"/>
       <c r="M18" s="68"/>
       <c r="O18" s="29"/>
       <c r="Q18" s="34" t="s">
@@ -34544,19 +34543,19 @@
       <c r="E21" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="961" t="str">
+      <c r="F21" s="938" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="961"/>
+      <c r="G21" s="938"/>
       <c r="J21" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="961" t="str">
+      <c r="K21" s="938" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L21" s="961"/>
+      <c r="L21" s="938"/>
       <c r="M21" s="68"/>
       <c r="O21" s="29"/>
       <c r="P21" s="74" t="s">
@@ -34616,17 +34615,17 @@
       <c r="E22" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="971" t="str">
+      <c r="F22" s="944" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="971"/>
+      <c r="G22" s="944"/>
       <c r="J22" s="34"/>
-      <c r="K22" s="961" t="str">
+      <c r="K22" s="938" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="961"/>
+      <c r="L22" s="938"/>
       <c r="M22" s="68"/>
       <c r="O22" s="29"/>
       <c r="Q22" s="34" t="s">
@@ -34691,11 +34690,11 @@
       <c r="J23" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="961" t="str">
+      <c r="K23" s="938" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="961"/>
+      <c r="L23" s="938"/>
       <c r="M23" s="68"/>
       <c r="O23" s="29"/>
       <c r="Q23" s="34" t="s">
@@ -34754,16 +34753,16 @@
       <c r="E24" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="961" t="str">
+      <c r="F24" s="938" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="961"/>
-      <c r="K24" s="961" t="str">
+      <c r="G24" s="938"/>
+      <c r="K24" s="938" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="961"/>
+      <c r="L24" s="938"/>
       <c r="M24" s="68"/>
       <c r="O24" s="29"/>
       <c r="P24" s="74" t="s">
@@ -34823,17 +34822,17 @@
       <c r="E25" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="961" t="str">
+      <c r="F25" s="938" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="961"/>
+      <c r="G25" s="938"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="961" t="str">
+      <c r="K25" s="938" t="str">
         <f>IF(V26="","",V26)</f>
         <v/>
       </c>
-      <c r="L25" s="961"/>
+      <c r="L25" s="938"/>
       <c r="M25" s="68"/>
       <c r="O25" s="29"/>
       <c r="Q25" s="34" t="s">
@@ -34895,11 +34894,11 @@
       <c r="E26" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="961" t="str">
+      <c r="F26" s="938" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="961"/>
+      <c r="G26" s="938"/>
       <c r="I26" s="74" t="s">
         <v>54</v>
       </c>
@@ -34967,11 +34966,11 @@
       <c r="J27" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="K27" s="961" t="str">
+      <c r="K27" s="938" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="961"/>
+      <c r="L27" s="938"/>
       <c r="M27" s="68"/>
       <c r="O27" s="29"/>
       <c r="Q27" s="34" t="s">
@@ -35022,20 +35021,20 @@
       <c r="E28" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="961" t="str">
+      <c r="F28" s="938" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="961"/>
+      <c r="G28" s="938"/>
       <c r="I28" s="4"/>
       <c r="J28" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="K28" s="961" t="str">
+      <c r="K28" s="938" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="961"/>
+      <c r="L28" s="938"/>
       <c r="M28" s="68"/>
       <c r="O28" s="29"/>
       <c r="P28" s="74" t="s">
@@ -35095,22 +35094,22 @@
       <c r="E29" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="961" t="str">
+      <c r="F29" s="938" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="961"/>
+      <c r="G29" s="938"/>
       <c r="I29" s="74" t="s">
         <v>58</v>
       </c>
       <c r="J29" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="K29" s="961" t="str">
+      <c r="K29" s="938" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="961"/>
+      <c r="L29" s="938"/>
       <c r="M29" s="68"/>
       <c r="O29" s="29"/>
       <c r="Q29" s="34" t="s">
@@ -35175,19 +35174,19 @@
       <c r="E30" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="961" t="str">
+      <c r="F30" s="938" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="961"/>
+      <c r="G30" s="938"/>
       <c r="J30" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="961" t="str">
+      <c r="K30" s="938" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="961"/>
+      <c r="L30" s="938"/>
       <c r="M30" s="68"/>
       <c r="O30" s="29"/>
       <c r="Q30" s="34" t="s">
@@ -35423,7 +35422,7 @@
         <v>1</v>
       </c>
       <c r="P34" s="20" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
@@ -35473,27 +35472,27 @@
       <c r="C35" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="968" t="s">
+      <c r="D35" s="948" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="968"/>
-      <c r="F35" s="968"/>
-      <c r="G35" s="968" t="s">
+      <c r="E35" s="948"/>
+      <c r="F35" s="948"/>
+      <c r="G35" s="948" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="968"/>
-      <c r="I35" s="968"/>
-      <c r="J35" s="968" t="s">
+      <c r="H35" s="948"/>
+      <c r="I35" s="948"/>
+      <c r="J35" s="948" t="s">
         <v>65</v>
       </c>
-      <c r="K35" s="968"/>
-      <c r="L35" s="968"/>
+      <c r="K35" s="948"/>
+      <c r="L35" s="948"/>
       <c r="M35" s="68"/>
       <c r="O35" s="862">
         <v>1</v>
       </c>
       <c r="P35" s="40" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Q35" s="40"/>
       <c r="R35" s="40"/>
@@ -35551,11 +35550,11 @@
       <c r="D36" s="530"/>
       <c r="E36" s="531"/>
       <c r="F36" s="536"/>
-      <c r="G36" s="964" t="s">
+      <c r="G36" s="949" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="964"/>
-      <c r="I36" s="964"/>
+      <c r="H36" s="949"/>
+      <c r="I36" s="949"/>
       <c r="J36" s="530"/>
       <c r="K36" s="531"/>
       <c r="L36" s="536"/>
@@ -36128,13 +36127,13 @@
       <c r="C44" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="L44" s="965" t="s">
+      <c r="L44" s="950" t="s">
         <v>88</v>
       </c>
-      <c r="M44" s="965"/>
+      <c r="M44" s="950"/>
       <c r="O44" s="29"/>
       <c r="T44" s="255" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="Y44" s="31"/>
       <c r="AA44" s="74" t="s">
@@ -36185,7 +36184,7 @@
       </c>
       <c r="O45" s="95"/>
       <c r="P45" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Y45" s="31"/>
       <c r="AA45" s="42" t="s">
@@ -36236,7 +36235,7 @@
       </c>
       <c r="O46" s="95"/>
       <c r="P46" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Y46" s="31"/>
       <c r="AA46" s="34" t="s">
@@ -36292,7 +36291,7 @@
       </c>
       <c r="O47" s="95"/>
       <c r="P47" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Y47" s="31"/>
       <c r="AA47" s="34" t="s">
@@ -36345,7 +36344,7 @@
       </c>
       <c r="O48" s="95"/>
       <c r="P48" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Y48" s="31"/>
       <c r="AA48" s="34" t="s">
@@ -36398,7 +36397,7 @@
       </c>
       <c r="O49" s="95"/>
       <c r="P49" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Y49" s="31"/>
       <c r="AA49" s="34" t="s">
@@ -36421,7 +36420,7 @@
       <c r="M50" s="68"/>
       <c r="O50" s="95"/>
       <c r="P50" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Y50" s="31"/>
       <c r="AA50" s="34" t="s">
@@ -36451,7 +36450,7 @@
       </c>
       <c r="O51" s="95"/>
       <c r="P51" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Y51" s="31"/>
       <c r="AA51" s="34" t="s">
@@ -36481,7 +36480,7 @@
       </c>
       <c r="O52" s="95"/>
       <c r="P52" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Y52" s="31"/>
       <c r="AA52" s="34" t="s">
@@ -36511,7 +36510,7 @@
       </c>
       <c r="O53" s="95"/>
       <c r="P53" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Y53" s="31"/>
       <c r="AA53" s="34" t="s">
@@ -36541,7 +36540,7 @@
       </c>
       <c r="O54" s="95"/>
       <c r="P54" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Y54" s="31"/>
       <c r="AA54" s="34" t="s">
@@ -36571,7 +36570,7 @@
       </c>
       <c r="O55" s="95"/>
       <c r="P55" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Y55" s="31"/>
       <c r="AA55" s="34" t="s">
@@ -36612,7 +36611,7 @@
       </c>
       <c r="O56" s="95"/>
       <c r="P56" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Y56" s="31"/>
       <c r="AA56" s="34" t="s">
@@ -36650,7 +36649,7 @@
       </c>
       <c r="O57" s="95"/>
       <c r="P57" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Y57" s="31"/>
       <c r="AA57" s="34" t="s">
@@ -36688,7 +36687,7 @@
       </c>
       <c r="O58" s="95"/>
       <c r="P58" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Y58" s="31"/>
       <c r="AA58" s="42" t="s">
@@ -36724,7 +36723,7 @@
       </c>
       <c r="O59" s="95"/>
       <c r="P59" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Y59" s="31"/>
       <c r="AA59" s="34" t="s">
@@ -36765,7 +36764,7 @@
       </c>
       <c r="O60" s="95"/>
       <c r="P60" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y60" s="31"/>
       <c r="AA60" s="34" t="s">
@@ -36806,7 +36805,7 @@
       </c>
       <c r="O61" s="268"/>
       <c r="P61" s="20" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="Y61" s="31"/>
       <c r="AA61" s="34" t="s">
@@ -37938,7 +37937,7 @@
       </c>
       <c r="Y86" s="31"/>
       <c r="AA86" s="34" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AB86" s="64"/>
       <c r="AD86" s="115" t="str">
@@ -37989,7 +37988,7 @@
       </c>
       <c r="Y87" s="31"/>
       <c r="AA87" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AB87" s="64"/>
       <c r="AD87" s="115" t="str">
@@ -38040,7 +38039,7 @@
       </c>
       <c r="Y88" s="31"/>
       <c r="AA88" s="34" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AB88" s="64"/>
       <c r="AD88" s="116" t="str">
@@ -38089,7 +38088,7 @@
       </c>
       <c r="Y89" s="31"/>
       <c r="AA89" s="34" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AB89" s="64"/>
       <c r="AD89" s="115" t="str">
@@ -38140,7 +38139,7 @@
       </c>
       <c r="Y90" s="31"/>
       <c r="AA90" s="34" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AB90" s="64"/>
       <c r="AD90" s="116" t="str">
@@ -38191,7 +38190,7 @@
       </c>
       <c r="Y91" s="31"/>
       <c r="AA91" s="34" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AB91" s="64"/>
       <c r="AD91" s="115" t="str">
@@ -39075,7 +39074,7 @@
       <c r="C109" s="67"/>
       <c r="D109" s="67"/>
       <c r="E109" s="67" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F109" s="67"/>
       <c r="G109" s="67"/>
@@ -39124,7 +39123,7 @@
       <c r="C110" s="67"/>
       <c r="D110" s="67"/>
       <c r="E110" s="67" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F110" s="67"/>
       <c r="G110" s="67"/>
@@ -39173,7 +39172,7 @@
       <c r="C111" s="67"/>
       <c r="D111" s="67"/>
       <c r="E111" s="67" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F111" s="67"/>
       <c r="G111" s="67"/>
@@ -39191,7 +39190,7 @@
       </c>
       <c r="O111" s="473"/>
       <c r="T111" s="74" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="Y111" s="31"/>
       <c r="AA111" s="34" t="s">
@@ -39222,7 +39221,7 @@
       <c r="C112" s="67"/>
       <c r="D112" s="67"/>
       <c r="E112" s="67" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F112" s="67"/>
       <c r="G112" s="67"/>
@@ -39240,7 +39239,7 @@
       </c>
       <c r="O112" s="95"/>
       <c r="P112" s="67" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Y112" s="31"/>
       <c r="AA112" s="34" t="s">
@@ -39271,7 +39270,7 @@
       <c r="C113" s="67"/>
       <c r="D113" s="67"/>
       <c r="E113" s="67" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F113" s="67"/>
       <c r="G113" s="67"/>
@@ -39289,7 +39288,7 @@
       </c>
       <c r="O113" s="95"/>
       <c r="P113" s="67" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Y113" s="31"/>
       <c r="AA113" s="34" t="s">
@@ -39320,7 +39319,7 @@
       <c r="C114" s="67"/>
       <c r="D114" s="67"/>
       <c r="E114" s="67" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F114" s="67"/>
       <c r="G114" s="67"/>
@@ -39338,7 +39337,7 @@
       </c>
       <c r="O114" s="95"/>
       <c r="P114" s="67" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="Y114" s="31"/>
       <c r="AA114" s="34" t="s">
@@ -39369,7 +39368,7 @@
       <c r="C115" s="67"/>
       <c r="D115" s="67"/>
       <c r="E115" s="67" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F115" s="67"/>
       <c r="G115" s="67"/>
@@ -39387,7 +39386,7 @@
       </c>
       <c r="O115" s="95"/>
       <c r="P115" s="67" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Y115" s="31"/>
       <c r="AA115" s="34" t="s">
@@ -39418,7 +39417,7 @@
       <c r="C116" s="67"/>
       <c r="D116" s="67"/>
       <c r="E116" s="67" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F116" s="67"/>
       <c r="G116" s="67"/>
@@ -39436,7 +39435,7 @@
       </c>
       <c r="O116" s="95"/>
       <c r="P116" s="67" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y116" s="31"/>
       <c r="AA116" s="34" t="s">
@@ -39467,7 +39466,7 @@
       <c r="C117" s="67"/>
       <c r="D117" s="67"/>
       <c r="E117" s="67" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F117" s="67"/>
       <c r="G117" s="67"/>
@@ -39522,7 +39521,7 @@
       <c r="C118" s="67"/>
       <c r="D118" s="67"/>
       <c r="E118" s="67" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F118" s="67"/>
       <c r="G118" s="67"/>
@@ -39566,7 +39565,7 @@
       <c r="C119" s="67"/>
       <c r="D119" s="67"/>
       <c r="E119" s="67" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F119" s="67"/>
       <c r="G119" s="67"/>
@@ -39613,7 +39612,7 @@
       <c r="C120" s="67"/>
       <c r="D120" s="67"/>
       <c r="E120" s="67" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F120" s="67"/>
       <c r="G120" s="67"/>
@@ -39668,7 +39667,7 @@
       <c r="C121" s="67"/>
       <c r="D121" s="67"/>
       <c r="E121" s="67" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F121" s="67"/>
       <c r="G121" s="67"/>
@@ -39693,7 +39692,7 @@
       <c r="Q121" s="952"/>
       <c r="R121" s="953"/>
       <c r="S121" s="951" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="T121" s="952"/>
       <c r="U121" s="953"/>
@@ -39701,7 +39700,7 @@
         <v>65</v>
       </c>
       <c r="W121" s="952"/>
-      <c r="X121" s="966"/>
+      <c r="X121" s="957"/>
       <c r="Y121" s="31"/>
       <c r="AA121" s="34" t="s">
         <v>196</v>
@@ -39731,7 +39730,7 @@
       <c r="C122" s="67"/>
       <c r="D122" s="67"/>
       <c r="E122" s="67" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F122" s="67"/>
       <c r="G122" s="67"/>
@@ -39758,7 +39757,7 @@
       <c r="U122" s="956"/>
       <c r="V122" s="954"/>
       <c r="W122" s="955"/>
-      <c r="X122" s="967"/>
+      <c r="X122" s="958"/>
       <c r="Y122" s="31"/>
       <c r="AA122" s="34" t="s">
         <v>197</v>
@@ -39788,7 +39787,7 @@
       <c r="C123" s="67"/>
       <c r="D123" s="67"/>
       <c r="E123" s="67" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F123" s="67"/>
       <c r="G123" s="67"/>
@@ -39836,7 +39835,7 @@
       </c>
       <c r="Y123" s="31"/>
       <c r="AA123" s="74" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AH123"/>
       <c r="AI123"/>
@@ -39858,7 +39857,7 @@
       <c r="C124" s="67"/>
       <c r="D124" s="67"/>
       <c r="E124" s="67" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F124" s="67"/>
       <c r="G124" s="67"/>
@@ -39915,7 +39914,7 @@
       </c>
       <c r="Y124" s="31"/>
       <c r="AA124" s="34" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AB124" s="64"/>
       <c r="AD124" s="65" t="str">
@@ -39942,7 +39941,7 @@
       <c r="C125" s="67"/>
       <c r="D125" s="67"/>
       <c r="E125" s="67" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F125" s="67"/>
       <c r="G125" s="67"/>
@@ -39999,7 +39998,7 @@
       </c>
       <c r="Y125" s="31"/>
       <c r="AA125" s="34" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AB125" s="64"/>
       <c r="AD125" s="65" t="str">
@@ -40075,7 +40074,7 @@
       </c>
       <c r="Y126" s="31"/>
       <c r="AA126" s="34" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AB126" s="64"/>
       <c r="AD126" s="65" t="str">
@@ -40105,7 +40104,7 @@
       <c r="F127" s="67"/>
       <c r="G127" s="67"/>
       <c r="H127" s="474" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I127" s="67"/>
       <c r="J127" s="67"/>
@@ -40153,7 +40152,7 @@
       </c>
       <c r="Y127" s="31"/>
       <c r="AA127" s="34" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AB127" s="64"/>
       <c r="AD127" s="65" t="str">
@@ -40180,7 +40179,7 @@
       <c r="C128" s="67"/>
       <c r="D128" s="67"/>
       <c r="E128" s="67" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F128" s="67"/>
       <c r="G128" s="67"/>
@@ -40199,7 +40198,7 @@
       <c r="O128" s="29"/>
       <c r="Y128" s="31"/>
       <c r="AA128" s="34" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AB128" s="64"/>
       <c r="AD128" s="65" t="str">
@@ -40226,7 +40225,7 @@
       <c r="C129" s="67"/>
       <c r="D129" s="67"/>
       <c r="E129" s="67" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F129" s="67"/>
       <c r="G129" s="67"/>
@@ -40251,18 +40250,18 @@
       <c r="Q129" s="952"/>
       <c r="R129" s="953"/>
       <c r="S129" s="951" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="T129" s="952"/>
       <c r="U129" s="953"/>
-      <c r="V129" s="957" t="s">
+      <c r="V129" s="959" t="s">
         <v>65</v>
       </c>
-      <c r="W129" s="958"/>
-      <c r="X129" s="959"/>
+      <c r="W129" s="960"/>
+      <c r="X129" s="961"/>
       <c r="Y129" s="31"/>
       <c r="AA129" s="34" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AB129" s="64"/>
       <c r="AD129" s="65" t="str">
@@ -40289,7 +40288,7 @@
       <c r="C130" s="67"/>
       <c r="D130" s="67"/>
       <c r="E130" s="67" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F130" s="67"/>
       <c r="G130" s="67"/>
@@ -40314,12 +40313,12 @@
       <c r="S130" s="954"/>
       <c r="T130" s="955"/>
       <c r="U130" s="956"/>
-      <c r="V130" s="960"/>
-      <c r="W130" s="961"/>
-      <c r="X130" s="962"/>
+      <c r="V130" s="962"/>
+      <c r="W130" s="938"/>
+      <c r="X130" s="963"/>
       <c r="Y130" s="31"/>
       <c r="AA130" s="34" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB130" s="64"/>
       <c r="AD130" s="65" t="str">
@@ -40346,7 +40345,7 @@
       <c r="C131" s="67"/>
       <c r="D131" s="67"/>
       <c r="E131" s="67" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F131" s="67"/>
       <c r="G131" s="67"/>
@@ -40394,7 +40393,7 @@
       </c>
       <c r="Y131" s="31"/>
       <c r="AA131" s="34" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AB131" s="64"/>
       <c r="AD131" s="65" t="str">
@@ -40421,7 +40420,7 @@
       <c r="C132" s="67"/>
       <c r="D132" s="67"/>
       <c r="E132" s="67" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F132" s="67"/>
       <c r="G132" s="67"/>
@@ -40451,7 +40450,7 @@
       <c r="X132" s="128"/>
       <c r="Y132" s="31"/>
       <c r="AA132" s="34" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AB132" s="64"/>
       <c r="AD132" s="65" t="str">
@@ -40500,7 +40499,7 @@
       <c r="X133" s="131"/>
       <c r="Y133" s="31"/>
       <c r="AA133" s="20" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AB133" s="64"/>
       <c r="AD133" s="65" t="str">
@@ -40519,7 +40518,7 @@
       <c r="F134" s="67"/>
       <c r="G134" s="67"/>
       <c r="H134" s="474" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I134" s="67"/>
       <c r="J134" s="67"/>
@@ -40540,7 +40539,7 @@
       <c r="X134" s="131"/>
       <c r="Y134" s="31"/>
       <c r="AA134" s="20" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AB134" s="64"/>
       <c r="AD134" s="65" t="str">
@@ -40556,7 +40555,7 @@
       <c r="C135" s="67"/>
       <c r="D135" s="67"/>
       <c r="E135" s="67" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F135" s="67"/>
       <c r="G135" s="67"/>
@@ -40586,7 +40585,7 @@
       <c r="X135" s="134"/>
       <c r="Y135" s="41"/>
       <c r="AA135" s="20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AB135" s="64"/>
       <c r="AD135" s="65" t="str">
@@ -40602,7 +40601,7 @@
       <c r="C136" s="67"/>
       <c r="D136" s="67"/>
       <c r="E136" s="20" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L136" s="146" t="str">
         <f>IF(O34=2,"NA",IF(V304="","TBD",IF(V304="Pass","YES","")))</f>
@@ -40623,7 +40622,7 @@
       <c r="W136" s="4"/>
       <c r="X136" s="4"/>
       <c r="AA136" s="20" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AB136" s="64"/>
       <c r="AD136" s="65" t="str">
@@ -40639,7 +40638,7 @@
       <c r="C137" s="67"/>
       <c r="D137" s="67"/>
       <c r="E137" s="67" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F137" s="67"/>
       <c r="G137" s="67"/>
@@ -40659,7 +40658,7 @@
         <v>71</v>
       </c>
       <c r="AA137" s="20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AB137" s="64"/>
       <c r="AD137" s="65" t="str">
@@ -40675,7 +40674,7 @@
       <c r="C138" s="67"/>
       <c r="D138" s="67"/>
       <c r="E138" s="67" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F138" s="67"/>
       <c r="G138" s="67"/>
@@ -40700,7 +40699,7 @@
         <v>205</v>
       </c>
       <c r="S138" s="22" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="T138" s="22"/>
       <c r="U138" s="22"/>
@@ -40709,7 +40708,7 @@
       <c r="X138" s="22"/>
       <c r="Y138" s="23"/>
       <c r="AA138" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AB138" s="64"/>
       <c r="AD138" s="65" t="str">
@@ -40725,7 +40724,7 @@
       <c r="C139" s="67"/>
       <c r="D139" s="67"/>
       <c r="E139" s="67" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F139" s="67"/>
       <c r="G139" s="67"/>
@@ -40751,7 +40750,7 @@
       <c r="T139" s="4"/>
       <c r="Y139" s="31"/>
       <c r="AA139" s="34" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="140" spans="1:44" ht="14.1" customHeight="1">
@@ -40762,7 +40761,7 @@
       <c r="C140" s="67"/>
       <c r="D140" s="67"/>
       <c r="E140" s="67" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F140" s="67"/>
       <c r="G140" s="67"/>
@@ -40806,7 +40805,7 @@
       <c r="C141" s="67"/>
       <c r="D141" s="67"/>
       <c r="E141" s="67" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F141" s="67"/>
       <c r="G141" s="67"/>
@@ -40900,11 +40899,11 @@
       </c>
       <c r="O143" s="29"/>
       <c r="Q143" s="26" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="Y143" s="31"/>
       <c r="AA143" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="144" spans="1:44" ht="14.1" customHeight="1">
@@ -41145,7 +41144,7 @@
       <c r="B151" s="66"/>
       <c r="C151" s="67"/>
       <c r="E151" s="26" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G151" s="67"/>
       <c r="H151" s="67"/>
@@ -41564,7 +41563,7 @@
       <c r="M162" s="68"/>
       <c r="O162" s="29"/>
       <c r="P162" s="34" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="Q162" s="143"/>
       <c r="R162" s="143"/>
@@ -41712,7 +41711,7 @@
       </c>
       <c r="B167" s="66"/>
       <c r="C167" s="34" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D167" s="373" t="str">
         <f t="shared" si="22"/>
@@ -41987,12 +41986,12 @@
       <c r="L173" s="67"/>
       <c r="M173" s="68"/>
       <c r="O173" s="29"/>
-      <c r="P173" s="963" t="s">
+      <c r="P173" s="942" t="s">
         <v>225</v>
       </c>
-      <c r="Q173" s="963"/>
-      <c r="R173" s="963"/>
-      <c r="S173" s="963"/>
+      <c r="Q173" s="942"/>
+      <c r="R173" s="942"/>
+      <c r="S173" s="942"/>
       <c r="U173" s="534" t="s">
         <v>226</v>
       </c>
@@ -42162,12 +42161,12 @@
       </c>
       <c r="B179" s="66"/>
       <c r="C179" s="67"/>
-      <c r="D179" s="963" t="s">
+      <c r="D179" s="942" t="s">
         <v>225</v>
       </c>
-      <c r="E179" s="963"/>
-      <c r="F179" s="963"/>
-      <c r="G179" s="963"/>
+      <c r="E179" s="942"/>
+      <c r="F179" s="942"/>
+      <c r="G179" s="942"/>
       <c r="H179" s="67"/>
       <c r="I179" s="534" t="s">
         <v>226</v>
@@ -42305,17 +42304,17 @@
       <c r="M182" s="68"/>
       <c r="O182" s="29"/>
       <c r="P182" s="67"/>
-      <c r="Q182" s="941" t="s">
+      <c r="Q182" s="935" t="s">
         <v>237</v>
       </c>
-      <c r="R182" s="941"/>
-      <c r="S182" s="941"/>
+      <c r="R182" s="935"/>
+      <c r="S182" s="935"/>
       <c r="T182" s="4"/>
-      <c r="U182" s="941" t="s">
+      <c r="U182" s="935" t="s">
         <v>237</v>
       </c>
-      <c r="V182" s="941"/>
-      <c r="W182" s="941"/>
+      <c r="V182" s="935"/>
+      <c r="W182" s="935"/>
       <c r="X182" s="4"/>
       <c r="Y182" s="31"/>
     </row>
@@ -42444,22 +42443,22 @@
       </c>
       <c r="B186" s="66"/>
       <c r="C186" s="106"/>
-      <c r="D186" s="975" t="s">
+      <c r="D186" s="939" t="s">
         <v>237</v>
       </c>
-      <c r="E186" s="976"/>
-      <c r="F186" s="977"/>
+      <c r="E186" s="940"/>
+      <c r="F186" s="941"/>
       <c r="G186" s="160"/>
-      <c r="H186" s="975" t="s">
+      <c r="H186" s="939" t="s">
         <v>237</v>
       </c>
-      <c r="I186" s="976"/>
-      <c r="J186" s="977"/>
-      <c r="K186" s="975" t="s">
+      <c r="I186" s="940"/>
+      <c r="J186" s="941"/>
+      <c r="K186" s="939" t="s">
         <v>237</v>
       </c>
-      <c r="L186" s="976"/>
-      <c r="M186" s="978"/>
+      <c r="L186" s="940"/>
+      <c r="M186" s="943"/>
       <c r="O186" s="159"/>
       <c r="P186" s="160" t="s">
         <v>243</v>
@@ -42727,7 +42726,7 @@
         <v>201</v>
       </c>
       <c r="Q190" s="26" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="R190" s="4"/>
       <c r="X190" s="4"/>
@@ -42783,7 +42782,7 @@
       <c r="O191" s="29"/>
       <c r="P191" s="26"/>
       <c r="Q191" s="26" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="R191" s="4"/>
       <c r="S191" s="4"/>
@@ -42924,7 +42923,7 @@
         <v/>
       </c>
       <c r="I194" s="67" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J194" s="67"/>
       <c r="K194" s="67"/>
@@ -42932,17 +42931,17 @@
       <c r="M194" s="68"/>
       <c r="O194" s="159"/>
       <c r="P194" s="67"/>
-      <c r="Q194" s="941" t="s">
+      <c r="Q194" s="935" t="s">
         <v>237</v>
       </c>
-      <c r="R194" s="941"/>
-      <c r="S194" s="941"/>
+      <c r="R194" s="935"/>
+      <c r="S194" s="935"/>
       <c r="T194" s="4"/>
-      <c r="U194" s="941" t="s">
+      <c r="U194" s="935" t="s">
         <v>237</v>
       </c>
-      <c r="V194" s="941"/>
-      <c r="W194" s="941"/>
+      <c r="V194" s="935"/>
+      <c r="W194" s="935"/>
       <c r="X194" s="4"/>
       <c r="Y194" s="31"/>
     </row>
@@ -42972,7 +42971,7 @@
         <v/>
       </c>
       <c r="I195" s="67" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J195" s="67"/>
       <c r="K195" s="67"/>
@@ -43028,7 +43027,7 @@
         <v/>
       </c>
       <c r="I196" s="67" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J196" s="67"/>
       <c r="K196" s="67"/>
@@ -43222,7 +43221,7 @@
       <c r="E201" s="190"/>
       <c r="F201" s="67"/>
       <c r="H201" s="26" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I201" s="67"/>
       <c r="J201" s="67"/>
@@ -43253,7 +43252,7 @@
       <c r="F202" s="365"/>
       <c r="G202" s="360"/>
       <c r="H202" s="864" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I202" s="365"/>
       <c r="J202" s="365"/>
@@ -43265,7 +43264,7 @@
         <v>201</v>
       </c>
       <c r="Q202" s="26" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="R202" s="4"/>
       <c r="X202" s="67"/>
@@ -43292,7 +43291,7 @@
       <c r="O203" s="159"/>
       <c r="P203" s="26"/>
       <c r="Q203" s="26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="R203" s="4"/>
       <c r="Y203" s="31"/>
@@ -43733,7 +43732,7 @@
         <v>265</v>
       </c>
       <c r="Q217" s="684" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="R217" s="684" t="s">
         <v>266</v>
@@ -43925,7 +43924,7 @@
         <v>265</v>
       </c>
       <c r="D222" s="106" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E222" s="106" t="s">
         <v>266</v>
@@ -45133,11 +45132,11 @@
         <v>/</v>
       </c>
       <c r="T245" s="4"/>
-      <c r="U245" s="941" t="s">
+      <c r="U245" s="935" t="s">
         <v>293</v>
       </c>
-      <c r="V245" s="941"/>
-      <c r="W245" s="941"/>
+      <c r="V245" s="935"/>
+      <c r="W245" s="935"/>
       <c r="X245" s="4"/>
       <c r="Y245" s="231"/>
       <c r="Z245" s="535"/>
@@ -45350,11 +45349,11 @@
         <v>/</v>
       </c>
       <c r="G250" s="67"/>
-      <c r="H250" s="975" t="s">
+      <c r="H250" s="939" t="s">
         <v>293</v>
       </c>
-      <c r="I250" s="976"/>
-      <c r="J250" s="977"/>
+      <c r="I250" s="940"/>
+      <c r="J250" s="941"/>
       <c r="K250" s="67"/>
       <c r="L250" s="67"/>
       <c r="M250" s="68"/>
@@ -45781,7 +45780,7 @@
       <c r="L258" s="67"/>
       <c r="M258" s="68"/>
       <c r="O258" s="135" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P258" s="22"/>
       <c r="Q258" s="22"/>
@@ -45826,7 +45825,7 @@
         <v>295</v>
       </c>
       <c r="Q259" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R259" s="67"/>
       <c r="S259" s="160" t="s">
@@ -45968,7 +45967,7 @@
         <v>302</v>
       </c>
       <c r="X262" s="266" t="e">
-        <f>IF($T$259="","",$T$259*HLOOKUP($Q$260,Tables!$D$83:$F$85,2,FALSE)+HLOOKUP(Sheet1!$Q$260,Tables!$D$83:$F$85,3,FALSE))</f>
+        <f>IF($T$259="","",$T$259*HLOOKUP($Q$260,Tables!$B$83:$D$85,2,FALSE)+HLOOKUP(Sheet1!$Q$260,Tables!$B$83:$D$85,3,FALSE))</f>
         <v>#N/A</v>
       </c>
       <c r="Y262" s="31"/>
@@ -46009,7 +46008,7 @@
         <v>0</v>
       </c>
       <c r="U263" s="296" t="e">
-        <f>IF(Q263="","",($T$259*HLOOKUP($Q$260,Tables!$D$70:$F$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$D$70:$F$72,3))*Q263)</f>
+        <f>IF(Q263="","",($T$259*HLOOKUP($Q$260,Tables!$B$70:$D$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$B$70:$D$72,3))*Q263)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V263" s="67"/>
@@ -46065,7 +46064,7 @@
         <v>0</v>
       </c>
       <c r="U264" s="296" t="e">
-        <f>IF(Q264="","",($T$259*HLOOKUP($Q$260,Tables!$D$70:$F$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$D$70:$F$72,3))*Q264)</f>
+        <f>IF(Q264="","",($T$259*HLOOKUP($Q$260,Tables!$B$70:$D$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$B$70:$D$72,3))*Q264)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V264" s="67"/>
@@ -46121,7 +46120,7 @@
         <v>0</v>
       </c>
       <c r="U265" s="296" t="e">
-        <f>IF(Q265="","",($T$259*HLOOKUP($Q$260,Tables!$D$70:$F$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$D$70:$F$72,3))*Q265)</f>
+        <f>IF(Q265="","",($T$259*HLOOKUP($Q$260,Tables!$B$70:$D$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$B$70:$D$72,3))*Q265)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V265" s="67"/>
@@ -46171,7 +46170,7 @@
         <v>0</v>
       </c>
       <c r="U266" s="296" t="e">
-        <f>IF(Q266="","",($T$259*HLOOKUP($Q$260,Tables!$D$70:$F$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$D$70:$F$72,3))*Q266)</f>
+        <f>IF(Q266="","",($T$259*HLOOKUP($Q$260,Tables!$B$70:$D$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$B$70:$D$72,3))*Q266)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V266" s="67"/>
@@ -46356,7 +46355,7 @@
         <v>201</v>
       </c>
       <c r="Q269" s="190" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R269" s="67"/>
       <c r="S269" s="67"/>
@@ -46411,7 +46410,7 @@
       <c r="O270" s="29"/>
       <c r="P270" s="190"/>
       <c r="Q270" s="190" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="R270" s="67"/>
       <c r="S270" s="67"/>
@@ -46517,7 +46516,7 @@
       <c r="L272" s="67"/>
       <c r="M272" s="68"/>
       <c r="O272" s="137" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P272" s="67"/>
       <c r="Q272" s="67"/>
@@ -46577,7 +46576,7 @@
       <c r="M273" s="68"/>
       <c r="O273" s="29"/>
       <c r="P273" s="658" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Q273" s="659" t="s">
         <v>266</v>
@@ -46589,10 +46588,10 @@
         <v>273</v>
       </c>
       <c r="T273" s="616" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="U273" s="659" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="V273" s="660" t="s">
         <v>288</v>
@@ -46622,7 +46621,7 @@
         <v>201</v>
       </c>
       <c r="D274" s="190" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E274" s="67"/>
       <c r="F274" s="67"/>
@@ -46812,7 +46811,7 @@
         <v>201</v>
       </c>
       <c r="Q277" s="190" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R277" s="67"/>
       <c r="S277" s="67"/>
@@ -46841,7 +46840,7 @@
       </c>
       <c r="B278" s="66"/>
       <c r="C278" s="627" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D278" s="628" t="s">
         <v>266</v>
@@ -46853,7 +46852,7 @@
         <v>273</v>
       </c>
       <c r="G278" s="628" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H278" s="629" t="s">
         <v>288</v>
@@ -46863,7 +46862,7 @@
       <c r="K278" s="661"/>
       <c r="L278" s="67"/>
       <c r="M278" s="68" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="O278" s="447"/>
       <c r="P278" s="67"/>
@@ -46925,10 +46924,10 @@
         <v>70</v>
       </c>
       <c r="M279" s="256" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O279" s="701" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="P279" s="160"/>
       <c r="Q279" s="661"/>
@@ -46982,7 +46981,7 @@
       </c>
       <c r="I280" s="67"/>
       <c r="J280" s="160" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K280" s="658">
         <f>IF(Q304="","",Q304)</f>
@@ -46998,7 +46997,7 @@
       </c>
       <c r="O280" s="447"/>
       <c r="P280" s="144" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="Q280" s="67"/>
       <c r="R280" s="67"/>
@@ -47055,7 +47054,7 @@
       </c>
       <c r="I281" s="67"/>
       <c r="J281" s="160" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K281" s="379">
         <f>IF(Q305="","",Q305)</f>
@@ -47091,7 +47090,7 @@
         <v>302</v>
       </c>
       <c r="X281" s="266" t="e">
-        <f>IF($T$259="","",$T$259*HLOOKUP($Q$260,Tables!$D$83:$F$85,2,FALSE)+HLOOKUP(Sheet1!$Q$260,Tables!$D$83:$F$85,3,FALSE))</f>
+        <f>IF($T$259="","",$T$259*HLOOKUP($Q$260,Tables!$B$83:$D$85,2,FALSE)+HLOOKUP(Sheet1!$Q$260,Tables!$B$83:$D$85,3,FALSE))</f>
         <v>#N/A</v>
       </c>
       <c r="Y281" s="700"/>
@@ -47117,7 +47116,7 @@
         <v>201</v>
       </c>
       <c r="D282" s="190" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E282" s="67"/>
       <c r="F282" s="67"/>
@@ -47127,7 +47126,7 @@
       <c r="J282" s="67"/>
       <c r="K282" s="67"/>
       <c r="L282" s="160" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M282" s="709" t="str">
         <f>IF(T306="","",T306)</f>
@@ -47143,7 +47142,7 @@
         <v/>
       </c>
       <c r="U282" s="296" t="str">
-        <f>IF(Q282="","",($T$259*HLOOKUP($Q$260,Tables!$D$70:$F$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$D$70:$F$72,3))*Q282)</f>
+        <f>IF(Q282="","",($T$259*HLOOKUP($Q$260,Tables!$B$70:$D$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$B$70:$D$72,3))*Q282)</f>
         <v/>
       </c>
       <c r="V282" s="67"/>
@@ -47193,7 +47192,7 @@
         <v/>
       </c>
       <c r="U283" s="296" t="str">
-        <f>IF(Q283="","",($T$259*HLOOKUP($Q$260,Tables!$D$70:$F$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$D$70:$F$72,3))*Q283)</f>
+        <f>IF(Q283="","",($T$259*HLOOKUP($Q$260,Tables!$B$70:$D$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$B$70:$D$72,3))*Q283)</f>
         <v/>
       </c>
       <c r="V283" s="67"/>
@@ -47235,7 +47234,7 @@
         <v/>
       </c>
       <c r="U284" s="296" t="str">
-        <f>IF(Q284="","",($T$259*HLOOKUP($Q$260,Tables!$D$70:$F$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$D$70:$F$72,3))*Q284)</f>
+        <f>IF(Q284="","",($T$259*HLOOKUP($Q$260,Tables!$B$70:$D$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$B$70:$D$72,3))*Q284)</f>
         <v/>
       </c>
       <c r="V284" s="67"/>
@@ -47286,7 +47285,7 @@
         <v/>
       </c>
       <c r="U285" s="296" t="str">
-        <f>IF(Q285="","",($T$259*HLOOKUP($Q$260,Tables!$D$70:$F$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$D$70:$F$72,3))*Q285)</f>
+        <f>IF(Q285="","",($T$259*HLOOKUP($Q$260,Tables!$B$70:$D$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$B$70:$D$72,3))*Q285)</f>
         <v/>
       </c>
       <c r="V285" s="67"/>
@@ -47508,7 +47507,7 @@
       <c r="O289" s="447"/>
       <c r="P289" s="190"/>
       <c r="Q289" s="190" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="R289" s="67"/>
       <c r="S289" s="67"/>
@@ -47594,17 +47593,17 @@
       <c r="H291" s="263" t="s">
         <v>328</v>
       </c>
-      <c r="I291" s="973" t="str">
+      <c r="I291" s="936" t="str">
         <f>IF(S367="","",S367)</f>
         <v/>
       </c>
-      <c r="J291" s="973"/>
+      <c r="J291" s="936"/>
       <c r="K291" s="58"/>
       <c r="L291" s="58"/>
       <c r="M291" s="60"/>
       <c r="O291" s="447"/>
       <c r="P291" s="144" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Q291" s="67"/>
       <c r="R291" s="67"/>
@@ -47645,11 +47644,11 @@
       <c r="H292" s="160" t="s">
         <v>330</v>
       </c>
-      <c r="I292" s="974" t="str">
+      <c r="I292" s="937" t="str">
         <f>IF(S368="","",S368)</f>
         <v/>
       </c>
-      <c r="J292" s="974"/>
+      <c r="J292" s="937"/>
       <c r="K292" s="4"/>
       <c r="M292" s="68"/>
       <c r="O292" s="447"/>
@@ -47674,7 +47673,7 @@
         <v>302</v>
       </c>
       <c r="X292" s="266" t="e">
-        <f>IF($T$259="","",$T$259*HLOOKUP($Q$260,Tables!$D$83:$F$85,2,FALSE)+HLOOKUP(Sheet1!$Q$260,Tables!$D$83:$F$85,3,FALSE))</f>
+        <f>IF($T$259="","",$T$259*HLOOKUP($Q$260,Tables!$B$83:$D$85,2,FALSE)+HLOOKUP(Sheet1!$Q$260,Tables!$B$83:$D$85,3,FALSE))</f>
         <v>#N/A</v>
       </c>
       <c r="Y292" s="700"/>
@@ -47718,7 +47717,7 @@
         <v/>
       </c>
       <c r="U293" s="296" t="str">
-        <f>IF(Q293="","",($T$259^2*HLOOKUP($Q$260,Tables!$D$70:$F$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$D$70:$F$72,3))*Q293)</f>
+        <f>IF(Q293="","",($T$259*HLOOKUP($Q$260,Tables!$B$70:$D$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$B$70:$D$72,3))*Q293)</f>
         <v/>
       </c>
       <c r="V293" s="67"/>
@@ -47749,11 +47748,11 @@
       </c>
       <c r="B294" s="66"/>
       <c r="C294" s="160"/>
-      <c r="F294" s="941" t="s">
+      <c r="F294" s="935" t="s">
         <v>331</v>
       </c>
-      <c r="G294" s="941"/>
-      <c r="H294" s="941"/>
+      <c r="G294" s="935"/>
+      <c r="H294" s="935"/>
       <c r="I294" s="535"/>
       <c r="J294" s="535"/>
       <c r="K294" s="106"/>
@@ -47768,7 +47767,7 @@
         <v/>
       </c>
       <c r="U294" s="296" t="str">
-        <f>IF(Q294="","",($T$259^2*HLOOKUP($Q$260,Tables!$D$70:$F$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$D$70:$F$72,3))*Q294)</f>
+        <f>IF(Q294="","",($T$259*HLOOKUP($Q$260,Tables!$B$70:$D$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$B$70:$D$72,3))*Q294)</f>
         <v/>
       </c>
       <c r="V294" s="67"/>
@@ -47823,7 +47822,7 @@
         <v>333</v>
       </c>
       <c r="K295" s="535" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M295" s="68"/>
       <c r="O295" s="447"/>
@@ -47836,7 +47835,7 @@
         <v/>
       </c>
       <c r="U295" s="296" t="str">
-        <f>IF(Q295="","",($T$259^2*HLOOKUP($Q$260,Tables!$D$70:$F$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$D$70:$F$72,3))*Q295)</f>
+        <f>IF(Q295="","",($T$259*HLOOKUP($Q$260,Tables!$B$70:$D$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$B$70:$D$72,3))*Q295)</f>
         <v/>
       </c>
       <c r="V295" s="67"/>
@@ -47866,7 +47865,7 @@
         <v>8</v>
       </c>
       <c r="B296" s="66"/>
-      <c r="C296" s="935" t="str">
+      <c r="C296" s="967" t="str">
         <f>P371</f>
         <v>/</v>
       </c>
@@ -47913,7 +47912,7 @@
         <v/>
       </c>
       <c r="U296" s="296" t="str">
-        <f>IF(Q296="","",($T$259^2*HLOOKUP($Q$260,Tables!$D$70:$F$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$D$70:$F$72,3))*Q296)</f>
+        <f>IF(Q296="","",($T$259*HLOOKUP($Q$260,Tables!$B$70:$D$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$B$70:$D$72,3))*Q296)</f>
         <v/>
       </c>
       <c r="V296" s="67"/>
@@ -47943,7 +47942,7 @@
         <v>9</v>
       </c>
       <c r="B297" s="66"/>
-      <c r="C297" s="936"/>
+      <c r="C297" s="968"/>
       <c r="D297" s="289">
         <f t="shared" si="65"/>
         <v>25</v>
@@ -48028,7 +48027,7 @@
         <v>10</v>
       </c>
       <c r="B298" s="66"/>
-      <c r="C298" s="936"/>
+      <c r="C298" s="968"/>
       <c r="D298" s="289">
         <f t="shared" si="65"/>
         <v>26</v>
@@ -48108,7 +48107,7 @@
         <v>11</v>
       </c>
       <c r="B299" s="66"/>
-      <c r="C299" s="936"/>
+      <c r="C299" s="968"/>
       <c r="D299" s="289">
         <f t="shared" si="65"/>
         <v>28</v>
@@ -48180,7 +48179,7 @@
         <v>12</v>
       </c>
       <c r="B300" s="66"/>
-      <c r="C300" s="936"/>
+      <c r="C300" s="968"/>
       <c r="D300" s="289">
         <f t="shared" si="65"/>
         <v>30</v>
@@ -48217,7 +48216,7 @@
       <c r="O300" s="447"/>
       <c r="P300" s="190"/>
       <c r="Q300" s="190" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="R300" s="67"/>
       <c r="S300" s="67"/>
@@ -48250,7 +48249,7 @@
         <v>13</v>
       </c>
       <c r="B301" s="66"/>
-      <c r="C301" s="936"/>
+      <c r="C301" s="968"/>
       <c r="D301" s="289">
         <f t="shared" si="65"/>
         <v>32</v>
@@ -48313,7 +48312,7 @@
         <v>14</v>
       </c>
       <c r="B302" s="66"/>
-      <c r="C302" s="937"/>
+      <c r="C302" s="969"/>
       <c r="D302" s="419">
         <f t="shared" ref="D302" si="68">IF(Q377="","",Q377)</f>
         <v>34</v>
@@ -48359,7 +48358,7 @@
         <v>272</v>
       </c>
       <c r="T302" s="661" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="U302" s="67"/>
       <c r="V302" s="67"/>
@@ -48384,7 +48383,7 @@
         <v>15</v>
       </c>
       <c r="B303" s="66"/>
-      <c r="C303" s="938" t="str">
+      <c r="C303" s="970" t="str">
         <f>P378</f>
         <v>/</v>
       </c>
@@ -48430,10 +48429,10 @@
         <v>70</v>
       </c>
       <c r="S303" s="67" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="T303" s="67" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="U303" s="67"/>
       <c r="V303" s="67"/>
@@ -48458,7 +48457,7 @@
         <v>16</v>
       </c>
       <c r="B304" s="66"/>
-      <c r="C304" s="939"/>
+      <c r="C304" s="971"/>
       <c r="D304" s="289">
         <f t="shared" si="76"/>
         <v>30</v>
@@ -48494,7 +48493,7 @@
       <c r="M304" s="68"/>
       <c r="O304" s="447"/>
       <c r="P304" s="160" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="Q304" s="695">
         <f>T259</f>
@@ -48540,7 +48539,7 @@
         <v>17</v>
       </c>
       <c r="B305" s="66"/>
-      <c r="C305" s="939"/>
+      <c r="C305" s="971"/>
       <c r="D305" s="289">
         <f t="shared" si="76"/>
         <v>32</v>
@@ -48576,7 +48575,7 @@
       <c r="M305" s="68"/>
       <c r="O305" s="447"/>
       <c r="P305" s="160" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="Q305" s="343">
         <f>T259</f>
@@ -48617,7 +48616,7 @@
         <v>18</v>
       </c>
       <c r="B306" s="66"/>
-      <c r="C306" s="939"/>
+      <c r="C306" s="971"/>
       <c r="D306" s="289">
         <f t="shared" si="76"/>
         <v>34</v>
@@ -48655,7 +48654,7 @@
       <c r="P306" s="67"/>
       <c r="Q306" s="67"/>
       <c r="R306" s="160" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S306" s="677" t="str">
         <f>IF(OR(S304="",S305=""),"",S304+S305)</f>
@@ -48690,7 +48689,7 @@
         <v>19</v>
       </c>
       <c r="B307" s="66"/>
-      <c r="C307" s="940"/>
+      <c r="C307" s="972"/>
       <c r="D307" s="429">
         <f t="shared" si="76"/>
         <v>36</v>
@@ -48761,7 +48760,7 @@
         <v>20</v>
       </c>
       <c r="B308" s="66"/>
-      <c r="C308" s="938" t="str">
+      <c r="C308" s="970" t="str">
         <f>P384</f>
         <v>/</v>
       </c>
@@ -48825,7 +48824,7 @@
         <v>21</v>
       </c>
       <c r="B309" s="66"/>
-      <c r="C309" s="939"/>
+      <c r="C309" s="971"/>
       <c r="D309" s="289">
         <f t="shared" si="77"/>
         <v>30</v>
@@ -48860,7 +48859,7 @@
       </c>
       <c r="M309" s="68"/>
       <c r="O309" s="135" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="P309" s="22"/>
       <c r="Q309" s="22"/>
@@ -48890,7 +48889,7 @@
         <v>22</v>
       </c>
       <c r="B310" s="66"/>
-      <c r="C310" s="939"/>
+      <c r="C310" s="971"/>
       <c r="D310" s="289">
         <f t="shared" si="77"/>
         <v>32</v>
@@ -48926,10 +48925,10 @@
       <c r="M310" s="68"/>
       <c r="O310" s="29"/>
       <c r="P310" s="160" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="Q310" s="160" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="R310" s="1">
         <v>101.3</v>
@@ -48959,7 +48958,7 @@
         <v>23</v>
       </c>
       <c r="B311" s="66"/>
-      <c r="C311" s="939"/>
+      <c r="C311" s="971"/>
       <c r="D311" s="289">
         <f t="shared" si="77"/>
         <v>34</v>
@@ -48996,7 +48995,7 @@
       <c r="O311" s="29"/>
       <c r="P311" s="67"/>
       <c r="Q311" s="160" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="R311" s="619">
         <v>108</v>
@@ -49028,7 +49027,7 @@
         <v>24</v>
       </c>
       <c r="B312" s="66"/>
-      <c r="C312" s="940"/>
+      <c r="C312" s="972"/>
       <c r="D312" s="429">
         <f t="shared" si="77"/>
         <v>38</v>
@@ -49068,19 +49067,19 @@
       <c r="M312" s="68"/>
       <c r="O312" s="29"/>
       <c r="P312" s="658" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q312" s="659" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R312" s="660" t="s">
         <v>288</v>
       </c>
       <c r="S312" s="658" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="T312" s="660" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="U312" s="67"/>
       <c r="V312" s="67"/>
@@ -49107,7 +49106,7 @@
       <c r="B313" s="66"/>
       <c r="M313" s="68"/>
       <c r="O313" s="159" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="P313" s="620"/>
       <c r="Q313" s="143"/>
@@ -49148,7 +49147,7 @@
       <c r="B314" s="66"/>
       <c r="M314" s="68"/>
       <c r="O314" s="159" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P314" s="620"/>
       <c r="Q314" s="143"/>
@@ -49191,7 +49190,7 @@
       <c r="J315" s="4"/>
       <c r="M315" s="68"/>
       <c r="O315" s="159" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="P315" s="621"/>
       <c r="Q315" s="622"/>
@@ -49238,7 +49237,7 @@
         <v>201</v>
       </c>
       <c r="Q316" s="190" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="R316" s="67"/>
       <c r="S316" s="67"/>
@@ -49300,7 +49299,7 @@
       <c r="B318" s="66"/>
       <c r="M318" s="68"/>
       <c r="O318" s="137" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="P318" s="67"/>
       <c r="Q318" s="67"/>
@@ -49332,35 +49331,35 @@
       <c r="B319" s="66"/>
       <c r="M319" s="68"/>
       <c r="O319" s="634" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="P319" s="623" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Q319" s="682">
         <f>U319-2</f>
         <v>-2</v>
       </c>
       <c r="R319" s="623" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="S319" s="682">
         <f>U319-1</f>
         <v>-1</v>
       </c>
       <c r="T319" s="623" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="U319" s="624"/>
       <c r="V319" s="623" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="W319" s="682">
         <f>U319+1</f>
         <v>1</v>
       </c>
       <c r="X319" s="623" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Y319" s="683">
         <f>U319+2</f>
@@ -49386,34 +49385,34 @@
       <c r="B320" s="66"/>
       <c r="M320" s="68"/>
       <c r="O320" s="635" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="P320" s="289" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="Q320" s="289" t="s">
         <v>281</v>
       </c>
       <c r="R320" s="289" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="S320" s="289" t="s">
         <v>281</v>
       </c>
       <c r="T320" s="289" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="U320" s="289" t="s">
         <v>281</v>
       </c>
       <c r="V320" s="289" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="W320" s="289" t="s">
         <v>281</v>
       </c>
       <c r="X320" s="289" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="Y320" s="644" t="s">
         <v>281</v>
@@ -49678,35 +49677,35 @@
       <c r="L327" s="67"/>
       <c r="M327" s="68"/>
       <c r="O327" s="638" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P327" s="623" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Q327" s="682">
         <f>U327-2</f>
         <v>-2</v>
       </c>
       <c r="R327" s="623" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="S327" s="682">
         <f>U327-1</f>
         <v>-1</v>
       </c>
       <c r="T327" s="623" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="U327" s="624"/>
       <c r="V327" s="623" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="W327" s="682">
         <f>U327+1</f>
         <v>1</v>
       </c>
       <c r="X327" s="623" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Y327" s="683">
         <f>U327+2</f>
@@ -49910,35 +49909,35 @@
       <c r="L334" s="67"/>
       <c r="M334" s="68"/>
       <c r="O334" s="638" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="P334" s="623" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Q334" s="682">
         <f>U334-2</f>
         <v>-2</v>
       </c>
       <c r="R334" s="623" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="S334" s="682">
         <f>U334-1</f>
         <v>-1</v>
       </c>
       <c r="T334" s="623" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="U334" s="624"/>
       <c r="V334" s="623" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="W334" s="682">
         <f>U334+1</f>
         <v>1</v>
       </c>
       <c r="X334" s="623" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Y334" s="683">
         <f>U334+2</f>
@@ -50123,17 +50122,17 @@
       <c r="M342" s="68"/>
       <c r="O342" s="29"/>
       <c r="P342" s="658" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Q342" s="659"/>
       <c r="R342" s="659"/>
       <c r="S342" s="659" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="T342" s="659"/>
       <c r="U342" s="659"/>
       <c r="V342" s="659" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="W342" s="659"/>
       <c r="X342" s="660"/>
@@ -50177,31 +50176,31 @@
       <c r="M343" s="457"/>
       <c r="O343" s="29"/>
       <c r="P343" s="330" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q343" s="289" t="s">
         <v>566</v>
       </c>
-      <c r="Q343" s="289" t="s">
+      <c r="R343" s="289" t="s">
         <v>567</v>
       </c>
-      <c r="R343" s="289" t="s">
-        <v>568</v>
-      </c>
       <c r="S343" s="289" t="s">
+        <v>565</v>
+      </c>
+      <c r="T343" s="289" t="s">
         <v>566</v>
       </c>
-      <c r="T343" s="289" t="s">
+      <c r="U343" s="289" t="s">
         <v>567</v>
       </c>
-      <c r="U343" s="289" t="s">
-        <v>568</v>
-      </c>
       <c r="V343" s="289" t="s">
+        <v>565</v>
+      </c>
+      <c r="W343" s="289" t="s">
         <v>566</v>
       </c>
-      <c r="W343" s="289" t="s">
+      <c r="X343" s="331" t="s">
         <v>567</v>
-      </c>
-      <c r="X343" s="331" t="s">
-        <v>568</v>
       </c>
       <c r="Y343" s="31"/>
     </row>
@@ -50232,7 +50231,7 @@
       </c>
       <c r="M344" s="68"/>
       <c r="O344" s="639" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="P344" s="438" t="str">
         <f>IF(P321="","",AVERAGE(P321:P326))</f>
@@ -50309,7 +50308,7 @@
         <v>333</v>
       </c>
       <c r="O345" s="640" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P345" s="438" t="str">
         <f>IF(R321="","",AVERAGE(R321:R326))</f>
@@ -50396,7 +50395,7 @@
         <v/>
       </c>
       <c r="O346" s="640" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P346" s="438" t="str">
         <f>IF(T321="","",AVERAGE(T321:T326))</f>
@@ -50474,7 +50473,7 @@
         <v/>
       </c>
       <c r="O347" s="640" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P347" s="438" t="str">
         <f>IF(V321="","",AVERAGE(V321:V326))</f>
@@ -50561,7 +50560,7 @@
         <v/>
       </c>
       <c r="O348" s="641" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="P348" s="440" t="str">
         <f>IF(X321="","",AVERAGE(X321:X326))</f>
@@ -50649,7 +50648,7 @@
       </c>
       <c r="O349" s="29"/>
       <c r="P349" s="413" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Q349" s="426" t="str">
         <f>IF(OR(R345="",R347=""),"",AVERAGE(R345,R347))</f>
@@ -50660,7 +50659,7 @@
         <v/>
       </c>
       <c r="S349" s="413" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="T349" s="426" t="str">
         <f>IF(OR(U345="",U347=""),"",AVERAGE(U345,U347))</f>
@@ -50671,7 +50670,7 @@
         <v/>
       </c>
       <c r="V349" s="413" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="W349" s="426" t="str">
         <f>IF(OR(X345="",X347=""),"",AVERAGE(X345,X347))</f>
@@ -50733,7 +50732,7 @@
       </c>
       <c r="O350" s="29"/>
       <c r="P350" s="415" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Q350" s="430" t="str">
         <f>IF(OR(R344="",R348=""),"",AVERAGE(R344,R348))</f>
@@ -50744,7 +50743,7 @@
         <v/>
       </c>
       <c r="S350" s="415" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="T350" s="430" t="str">
         <f>IF(OR(U344="",U348=""),"",AVERAGE(U344,U348))</f>
@@ -50755,7 +50754,7 @@
         <v/>
       </c>
       <c r="V350" s="415" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="W350" s="430" t="str">
         <f>IF(OR(X344="",X348=""),"",AVERAGE(X344,X348))</f>
@@ -50819,7 +50818,7 @@
         <v>318</v>
       </c>
       <c r="P351" s="413" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Q351" s="787" t="str">
         <f>IF(AB133="","",AB133)</f>
@@ -50827,7 +50826,7 @@
       </c>
       <c r="R351" s="67"/>
       <c r="S351" s="413" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="T351" s="787" t="str">
         <f>IF(AB135="","",AB135)</f>
@@ -50835,7 +50834,7 @@
       </c>
       <c r="U351" s="67"/>
       <c r="V351" s="413" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="W351" s="787" t="str">
         <f>IF(AB137="","",AB137)</f>
@@ -50882,7 +50881,7 @@
       <c r="M352" s="463"/>
       <c r="O352" s="29"/>
       <c r="P352" s="415" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Q352" s="788" t="str">
         <f>IF(AB134="","",AB134)</f>
@@ -50890,7 +50889,7 @@
       </c>
       <c r="R352" s="67"/>
       <c r="S352" s="415" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="T352" s="788" t="str">
         <f>IF(AB136="","",AB136)</f>
@@ -50898,7 +50897,7 @@
       </c>
       <c r="U352" s="67"/>
       <c r="V352" s="415" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="W352" s="788" t="str">
         <f>IF(AB138="","",AB138)</f>
@@ -50917,7 +50916,7 @@
       <c r="E353" s="326"/>
       <c r="F353" s="326"/>
       <c r="G353" s="454" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H353" s="369" t="str">
         <f>IF(H350="","",IF(H350&gt;2.7,"Pass","Fail"))</f>
@@ -50927,7 +50926,7 @@
       <c r="J353" s="67"/>
       <c r="K353" s="67"/>
       <c r="L353" s="160" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M353" s="464" t="str">
         <f>IF(M350="","",IF(M350&gt;2.7,"Pass","Fail"))</f>
@@ -50938,7 +50937,7 @@
         <v>201</v>
       </c>
       <c r="Q353" s="190" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="R353" s="67"/>
       <c r="S353" s="67"/>
@@ -50998,7 +50997,7 @@
       <c r="L355" s="67"/>
       <c r="M355" s="68"/>
       <c r="O355" s="135" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P355" s="22"/>
       <c r="Q355" s="22"/>
@@ -51019,7 +51018,7 @@
       <c r="C356" s="67"/>
       <c r="D356" s="67"/>
       <c r="E356" s="190" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F356" s="67"/>
       <c r="G356" s="67"/>
@@ -51031,20 +51030,20 @@
       <c r="M356" s="68"/>
       <c r="O356" s="29"/>
       <c r="P356" s="658" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q356" s="660" t="s">
         <v>582</v>
-      </c>
-      <c r="Q356" s="660" t="s">
-        <v>583</v>
       </c>
       <c r="R356"/>
       <c r="S356" s="67" t="s">
         <v>318</v>
       </c>
       <c r="T356" s="658" t="s">
+        <v>581</v>
+      </c>
+      <c r="U356" s="660" t="s">
         <v>582</v>
-      </c>
-      <c r="U356" s="660" t="s">
-        <v>583</v>
       </c>
       <c r="W356"/>
       <c r="X356"/>
@@ -51238,7 +51237,7 @@
         <v>201</v>
       </c>
       <c r="Q361" s="190" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="R361" s="67"/>
       <c r="S361" s="67"/>
@@ -51272,7 +51271,7 @@
       </c>
       <c r="O362" s="95"/>
       <c r="P362" s="67" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="Q362" s="67"/>
       <c r="R362" s="67"/>
@@ -51304,7 +51303,7 @@
       <c r="M363" s="68"/>
       <c r="O363" s="95"/>
       <c r="P363" s="67" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="Q363" s="67"/>
       <c r="R363" s="67"/>
@@ -51344,7 +51343,7 @@
       <c r="M364" s="68"/>
       <c r="O364" s="95"/>
       <c r="P364" s="67" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q364" s="67"/>
       <c r="R364" s="67"/>
@@ -51410,7 +51409,7 @@
         <v/>
       </c>
       <c r="J366" s="67" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K366" s="67"/>
       <c r="L366" s="67"/>
@@ -51460,7 +51459,7 @@
         <v>NA</v>
       </c>
       <c r="J367" s="67" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K367" s="67"/>
       <c r="L367" s="67"/>
@@ -51469,7 +51468,7 @@
         <v>327</v>
       </c>
       <c r="P367" s="136" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="R367" s="34" t="s">
         <v>328</v>
@@ -51508,7 +51507,7 @@
         <v>NA</v>
       </c>
       <c r="J368" s="866" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K368" s="67"/>
       <c r="L368" s="67"/>
@@ -51555,13 +51554,13 @@
       <c r="L369" s="67"/>
       <c r="M369" s="68"/>
       <c r="O369" s="29"/>
-      <c r="S369" s="941" t="s">
+      <c r="S369" s="935" t="s">
         <v>331</v>
       </c>
-      <c r="T369" s="941"/>
-      <c r="U369" s="941"/>
-      <c r="V369" s="941"/>
-      <c r="W369" s="941"/>
+      <c r="T369" s="935"/>
+      <c r="U369" s="935"/>
+      <c r="V369" s="935"/>
+      <c r="W369" s="935"/>
       <c r="Y369" s="31"/>
     </row>
     <row r="370" spans="1:25" ht="14.1" customHeight="1" thickBot="1">
@@ -51621,7 +51620,7 @@
         <v>333</v>
       </c>
       <c r="X370" s="684" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Y370" s="31"/>
     </row>
@@ -51647,7 +51646,7 @@
       <c r="L371" s="67"/>
       <c r="M371" s="68"/>
       <c r="O371" s="29"/>
-      <c r="P371" s="948" t="str">
+      <c r="P371" s="964" t="str">
         <f>AK10&amp;"/"&amp;AL10</f>
         <v>/</v>
       </c>
@@ -51706,7 +51705,7 @@
       <c r="L372" s="67"/>
       <c r="M372" s="68"/>
       <c r="O372" s="29"/>
-      <c r="P372" s="949"/>
+      <c r="P372" s="965"/>
       <c r="Q372" s="301">
         <f>AH12</f>
         <v>25</v>
@@ -51760,7 +51759,7 @@
       <c r="L373" s="67"/>
       <c r="M373" s="68"/>
       <c r="O373" s="29"/>
-      <c r="P373" s="949"/>
+      <c r="P373" s="965"/>
       <c r="Q373" s="300">
         <f>AH14</f>
         <v>26</v>
@@ -51823,7 +51822,7 @@
       <c r="L374"/>
       <c r="M374" s="68"/>
       <c r="O374" s="29"/>
-      <c r="P374" s="949"/>
+      <c r="P374" s="965"/>
       <c r="Q374" s="300">
         <f>AH16</f>
         <v>28</v>
@@ -51886,7 +51885,7 @@
       <c r="L375"/>
       <c r="M375" s="68"/>
       <c r="O375" s="29"/>
-      <c r="P375" s="949"/>
+      <c r="P375" s="965"/>
       <c r="Q375" s="300">
         <f>AH22</f>
         <v>30</v>
@@ -51949,7 +51948,7 @@
       <c r="L376"/>
       <c r="M376" s="68"/>
       <c r="O376" s="29"/>
-      <c r="P376" s="949"/>
+      <c r="P376" s="965"/>
       <c r="Q376" s="300">
         <f>AH23</f>
         <v>32</v>
@@ -51990,7 +51989,7 @@
       </c>
       <c r="B377" s="66"/>
       <c r="C377" s="414" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D377" s="14" t="str">
         <f t="shared" si="86"/>
@@ -52012,7 +52011,7 @@
       <c r="L377"/>
       <c r="M377" s="68"/>
       <c r="O377" s="29"/>
-      <c r="P377" s="950"/>
+      <c r="P377" s="966"/>
       <c r="Q377" s="300">
         <f>AH25</f>
         <v>34</v>
@@ -52075,7 +52074,7 @@
       <c r="L378"/>
       <c r="M378" s="68"/>
       <c r="O378" s="29"/>
-      <c r="P378" s="942" t="str">
+      <c r="P378" s="973" t="str">
         <f>AK27&amp;"/"&amp;AL27</f>
         <v>/</v>
       </c>
@@ -52123,7 +52122,7 @@
         <v>201</v>
       </c>
       <c r="E379" s="190" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F379"/>
       <c r="G379"/>
@@ -52134,7 +52133,7 @@
       <c r="L379"/>
       <c r="M379" s="68"/>
       <c r="O379" s="159"/>
-      <c r="P379" s="943"/>
+      <c r="P379" s="974"/>
       <c r="Q379" s="300">
         <f>AH29</f>
         <v>30</v>
@@ -52175,11 +52174,11 @@
       </c>
       <c r="B380" s="66"/>
       <c r="E380" s="26" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M380" s="68"/>
       <c r="O380" s="29"/>
-      <c r="P380" s="943"/>
+      <c r="P380" s="974"/>
       <c r="Q380" s="300">
         <f>AH31</f>
         <v>32</v>
@@ -52233,7 +52232,7 @@
       <c r="L381" s="67"/>
       <c r="M381" s="68"/>
       <c r="O381" s="29"/>
-      <c r="P381" s="943"/>
+      <c r="P381" s="974"/>
       <c r="Q381" s="300">
         <f>AH33</f>
         <v>34</v>
@@ -52300,7 +52299,7 @@
       </c>
       <c r="M382" s="68"/>
       <c r="O382" s="29"/>
-      <c r="P382" s="943"/>
+      <c r="P382" s="974"/>
       <c r="Q382" s="300">
         <f t="shared" ref="Q382:R384" si="93">AH35</f>
         <v>36</v>
@@ -52374,7 +52373,7 @@
       </c>
       <c r="M383" s="68"/>
       <c r="O383" s="29"/>
-      <c r="P383" s="944"/>
+      <c r="P383" s="975"/>
       <c r="Q383" s="300">
         <f t="shared" si="93"/>
         <v>38</v>
@@ -52448,7 +52447,7 @@
       </c>
       <c r="M384" s="68"/>
       <c r="O384" s="29"/>
-      <c r="P384" s="942" t="str">
+      <c r="P384" s="973" t="str">
         <f>AK37&amp;"/"&amp;AL37</f>
         <v>/</v>
       </c>
@@ -52508,7 +52507,7 @@
       <c r="L385" s="67"/>
       <c r="M385" s="68"/>
       <c r="O385" s="29"/>
-      <c r="P385" s="943"/>
+      <c r="P385" s="974"/>
       <c r="Q385" s="301">
         <f>AH41</f>
         <v>30</v>
@@ -52564,7 +52563,7 @@
       <c r="L386" s="67"/>
       <c r="M386" s="68"/>
       <c r="O386" s="29"/>
-      <c r="P386" s="943"/>
+      <c r="P386" s="974"/>
       <c r="Q386" s="300">
         <f>AH43</f>
         <v>32</v>
@@ -52618,7 +52617,7 @@
       <c r="L387" s="67"/>
       <c r="M387" s="68"/>
       <c r="O387" s="29"/>
-      <c r="P387" s="943"/>
+      <c r="P387" s="974"/>
       <c r="Q387" s="300">
         <f>AH45</f>
         <v>34</v>
@@ -52670,7 +52669,7 @@
       <c r="L388" s="67"/>
       <c r="M388" s="68"/>
       <c r="O388" s="29"/>
-      <c r="P388" s="944"/>
+      <c r="P388" s="975"/>
       <c r="Q388" s="300">
         <f>AH47</f>
         <v>38</v>
@@ -52781,7 +52780,7 @@
       </c>
       <c r="F391" s="325"/>
       <c r="G391" s="34" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H391" s="658" t="str">
         <f t="shared" ref="H391:J398" si="96">IF(Q447="","",Q447)</f>
@@ -53574,7 +53573,7 @@
       </c>
       <c r="B403" s="66"/>
       <c r="C403" s="74" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M403" s="68"/>
       <c r="O403" s="29"/>
@@ -53592,10 +53591,10 @@
       </c>
       <c r="B404" s="66"/>
       <c r="D404" s="34" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E404" s="34" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F404" s="327">
         <f>IF(R310="","",R310)</f>
@@ -53604,7 +53603,7 @@
       <c r="M404" s="68"/>
       <c r="O404" s="29"/>
       <c r="Q404" s="26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="Y404" s="31"/>
     </row>
@@ -53614,7 +53613,7 @@
       </c>
       <c r="B405" s="66"/>
       <c r="E405" s="34" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F405" s="673">
         <f>IF(R311="","",R311)</f>
@@ -53639,10 +53638,10 @@
       </c>
       <c r="B406" s="66"/>
       <c r="D406" s="630" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E406" s="630" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F406" s="630" t="s">
         <v>288</v>
@@ -53668,7 +53667,7 @@
       </c>
       <c r="B407" s="66"/>
       <c r="C407" s="34" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D407" s="631" t="str">
         <f t="shared" ref="D407:F409" si="105">IF(P313="","",P313)</f>
@@ -53707,7 +53706,7 @@
       </c>
       <c r="B408" s="66"/>
       <c r="C408" s="34" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D408" s="330" t="str">
         <f t="shared" si="105"/>
@@ -53752,7 +53751,7 @@
       </c>
       <c r="B409" s="66"/>
       <c r="C409" s="34" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D409" s="379" t="str">
         <f t="shared" si="105"/>
@@ -53883,7 +53882,7 @@
       </c>
       <c r="B412" s="66"/>
       <c r="C412" s="74" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M412" s="68"/>
       <c r="O412" s="29"/>
@@ -53922,13 +53921,13 @@
       </c>
       <c r="B413" s="66"/>
       <c r="D413" s="630" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E413" s="630" t="s">
+        <v>577</v>
+      </c>
+      <c r="F413" s="630" t="s">
         <v>578</v>
-      </c>
-      <c r="F413" s="630" t="s">
-        <v>579</v>
       </c>
       <c r="G413" s="630" t="s">
         <v>288</v>
@@ -53953,7 +53952,7 @@
       </c>
       <c r="B414" s="66"/>
       <c r="C414" s="34" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D414" s="631" t="str">
         <f>IF(U319="","",U319)</f>
@@ -53987,7 +53986,7 @@
       </c>
       <c r="B415" s="66"/>
       <c r="C415" s="34" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D415" s="330" t="str">
         <f>IF(U327="","",U327)</f>
@@ -54021,7 +54020,7 @@
       </c>
       <c r="B416" s="66"/>
       <c r="C416" s="34" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D416" s="379" t="str">
         <f>IF(U334="","",U334)</f>
@@ -54045,7 +54044,7 @@
         <v>3</v>
       </c>
       <c r="P416" s="40" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="Q416" s="40"/>
       <c r="R416" s="40"/>
@@ -54079,7 +54078,7 @@
         <v>1</v>
       </c>
       <c r="R417" s="22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="S417" s="22"/>
       <c r="T417" s="22"/>
@@ -54124,7 +54123,7 @@
       </c>
       <c r="B419" s="66"/>
       <c r="C419" s="74" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M419" s="68"/>
       <c r="O419" s="29"/>
@@ -54156,10 +54155,10 @@
       </c>
       <c r="B420" s="66"/>
       <c r="D420" s="630" t="s">
+        <v>581</v>
+      </c>
+      <c r="E420" s="630" t="s">
         <v>582</v>
-      </c>
-      <c r="E420" s="630" t="s">
-        <v>583</v>
       </c>
       <c r="G420"/>
       <c r="M420" s="68"/>
@@ -54167,11 +54166,11 @@
       <c r="P420" s="613" t="s">
         <v>348</v>
       </c>
-      <c r="Q420" s="945" t="s">
+      <c r="Q420" s="976" t="s">
         <v>349</v>
       </c>
-      <c r="R420" s="946"/>
-      <c r="S420" s="947"/>
+      <c r="R420" s="977"/>
+      <c r="S420" s="978"/>
       <c r="T420"/>
       <c r="U420"/>
       <c r="V420"/>
@@ -54391,20 +54390,20 @@
         <v>201</v>
       </c>
       <c r="Q426" s="26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="R426" s="551"/>
       <c r="S426" s="551"/>
       <c r="T426" s="551"/>
       <c r="U426" s="551"/>
       <c r="V426" s="551" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="W426" s="299" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="X426" s="299" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y426" s="31"/>
     </row>
@@ -54418,12 +54417,12 @@
         <v/>
       </c>
       <c r="D427" s="67" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M427" s="68"/>
       <c r="O427" s="39"/>
       <c r="Q427" s="26" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="R427" s="4"/>
       <c r="S427" s="4"/>
@@ -54444,7 +54443,7 @@
         <v/>
       </c>
       <c r="D428" s="20" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M428" s="68"/>
       <c r="O428" s="135" t="s">
@@ -54471,7 +54470,7 @@
         <v/>
       </c>
       <c r="D429" s="67" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J429" s="67"/>
       <c r="K429" s="67"/>
@@ -55054,14 +55053,14 @@
       <c r="M447" s="68"/>
       <c r="O447" s="29"/>
       <c r="P447" s="34" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="Q447" s="274" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="R447" s="275"/>
       <c r="S447" s="276" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="Y447" s="31"/>
     </row>
@@ -55368,10 +55367,10 @@
       <c r="U454" s="4"/>
       <c r="V454" s="4"/>
       <c r="Y454" s="31"/>
-      <c r="AA454" s="941"/>
-      <c r="AB454" s="941"/>
-      <c r="AC454" s="941"/>
-      <c r="AD454" s="941"/>
+      <c r="AA454" s="935"/>
+      <c r="AB454" s="935"/>
+      <c r="AC454" s="935"/>
+      <c r="AD454" s="935"/>
     </row>
     <row r="455" spans="1:30" ht="14.1" customHeight="1">
       <c r="A455" s="16">
@@ -55397,7 +55396,7 @@
         <v>201</v>
       </c>
       <c r="Q455" s="26" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="Y455" s="31"/>
       <c r="AA455" s="776"/>
@@ -55427,7 +55426,7 @@
       <c r="O456" s="39"/>
       <c r="P456" s="287"/>
       <c r="Q456" s="859" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R456" s="189"/>
       <c r="S456" s="189"/>
@@ -56148,7 +56147,7 @@
       <c r="R488" s="552"/>
       <c r="S488" s="552"/>
       <c r="T488" s="553" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="U488" s="552"/>
       <c r="V488" s="552"/>
@@ -56174,7 +56173,7 @@
       <c r="M489" s="68"/>
       <c r="O489" s="552"/>
       <c r="P489" s="554" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q489" s="552"/>
       <c r="R489" s="552"/>
@@ -56207,7 +56206,7 @@
       <c r="Q490" s="556"/>
       <c r="R490" s="557"/>
       <c r="S490" s="558" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="T490" s="556"/>
       <c r="U490" s="556"/>
@@ -56243,7 +56242,7 @@
       </c>
       <c r="O492" s="567"/>
       <c r="P492" s="568" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q492" s="569"/>
       <c r="R492" s="570">
@@ -56267,7 +56266,7 @@
       </c>
       <c r="O493" s="567"/>
       <c r="P493" s="561" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q493" s="562"/>
       <c r="R493" s="563"/>
@@ -56288,7 +56287,7 @@
       </c>
       <c r="O494" s="567"/>
       <c r="P494" s="568" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q494" s="569"/>
       <c r="R494" s="570">
@@ -56312,7 +56311,7 @@
       </c>
       <c r="O495" s="576"/>
       <c r="P495" s="561" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q495" s="562"/>
       <c r="R495" s="563"/>
@@ -56333,7 +56332,7 @@
       </c>
       <c r="O496" s="567"/>
       <c r="P496" s="568" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q496" s="569"/>
       <c r="R496" s="570">
@@ -56357,7 +56356,7 @@
       </c>
       <c r="O497" s="567"/>
       <c r="P497" s="561" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q497" s="562"/>
       <c r="R497" s="563"/>
@@ -56378,7 +56377,7 @@
       </c>
       <c r="O498" s="576"/>
       <c r="P498" s="568" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q498" s="569"/>
       <c r="R498" s="570">
@@ -56402,7 +56401,7 @@
       </c>
       <c r="O499" s="567"/>
       <c r="P499" s="561" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q499" s="562"/>
       <c r="R499" s="563"/>
@@ -56423,7 +56422,7 @@
       </c>
       <c r="O500" s="567"/>
       <c r="P500" s="568" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q500" s="569"/>
       <c r="R500" s="570">
@@ -56447,7 +56446,7 @@
       </c>
       <c r="O501" s="576"/>
       <c r="P501" s="561" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q501" s="562"/>
       <c r="R501" s="563"/>
@@ -56468,7 +56467,7 @@
       </c>
       <c r="O502" s="567"/>
       <c r="P502" s="568" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q502" s="577"/>
       <c r="R502" s="578">
@@ -56513,7 +56512,7 @@
       </c>
       <c r="O503" s="567"/>
       <c r="P503" s="561" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q503" s="562"/>
       <c r="R503" s="563"/>
@@ -56555,7 +56554,7 @@
       </c>
       <c r="O504" s="576"/>
       <c r="P504" s="568" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q504" s="577"/>
       <c r="R504" s="578">
@@ -56576,7 +56575,7 @@
     <row r="505" spans="1:25" ht="14.1" customHeight="1">
       <c r="O505" s="567"/>
       <c r="P505" s="561" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q505" s="562"/>
       <c r="R505" s="563"/>
@@ -56594,7 +56593,7 @@
     <row r="506" spans="1:25" ht="14.1" customHeight="1">
       <c r="O506" s="567"/>
       <c r="P506" s="568" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q506" s="577"/>
       <c r="R506" s="578">
@@ -56758,6 +56757,56 @@
     <row r="518" spans="15:25" ht="14.1" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="C296:C302"/>
+    <mergeCell ref="C303:C307"/>
+    <mergeCell ref="C308:C312"/>
+    <mergeCell ref="AA454:AB454"/>
+    <mergeCell ref="AC454:AD454"/>
+    <mergeCell ref="P378:P383"/>
+    <mergeCell ref="P384:P388"/>
+    <mergeCell ref="Q420:S420"/>
+    <mergeCell ref="Q194:S194"/>
+    <mergeCell ref="U194:W194"/>
+    <mergeCell ref="U245:W245"/>
+    <mergeCell ref="S369:W369"/>
+    <mergeCell ref="P371:P377"/>
+    <mergeCell ref="P129:R130"/>
+    <mergeCell ref="S129:U130"/>
+    <mergeCell ref="V129:X130"/>
+    <mergeCell ref="P173:S173"/>
+    <mergeCell ref="Q182:S182"/>
+    <mergeCell ref="U182:W182"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P121:R122"/>
+    <mergeCell ref="V121:X122"/>
+    <mergeCell ref="S121:U122"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="F294:H294"/>
     <mergeCell ref="I291:J291"/>
     <mergeCell ref="I292:J292"/>
@@ -56774,56 +56823,6 @@
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P121:R122"/>
-    <mergeCell ref="V121:X122"/>
-    <mergeCell ref="S121:U122"/>
-    <mergeCell ref="P129:R130"/>
-    <mergeCell ref="S129:U130"/>
-    <mergeCell ref="V129:X130"/>
-    <mergeCell ref="P173:S173"/>
-    <mergeCell ref="Q182:S182"/>
-    <mergeCell ref="U182:W182"/>
-    <mergeCell ref="Q194:S194"/>
-    <mergeCell ref="U194:W194"/>
-    <mergeCell ref="U245:W245"/>
-    <mergeCell ref="S369:W369"/>
-    <mergeCell ref="P371:P377"/>
-    <mergeCell ref="C296:C302"/>
-    <mergeCell ref="C303:C307"/>
-    <mergeCell ref="C308:C312"/>
-    <mergeCell ref="AA454:AB454"/>
-    <mergeCell ref="AC454:AD454"/>
-    <mergeCell ref="P378:P383"/>
-    <mergeCell ref="P384:P388"/>
-    <mergeCell ref="Q420:S420"/>
   </mergeCells>
   <conditionalFormatting sqref="R260:S260">
     <cfRule type="cellIs" dxfId="161" priority="230" stopIfTrue="1" operator="equal">
@@ -57550,11 +57549,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E66647B-FA27-4FB5-BF9A-D8E09A808D58}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AD130"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView topLeftCell="A64" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" customHeight="1"/>
@@ -59815,7 +59826,7 @@
         <v>298</v>
       </c>
       <c r="Q35" s="10">
-        <v>3090</v>
+        <v>300</v>
       </c>
       <c r="R35" s="10">
         <v>302</v>
@@ -60553,7 +60564,7 @@
         <v>350</v>
       </c>
       <c r="N44" s="203">
-        <v>0.79999999999999905</v>
+        <v>0.8</v>
       </c>
       <c r="O44" s="10">
         <v>384</v>
@@ -60636,7 +60647,7 @@
         <v>360</v>
       </c>
       <c r="N45" s="203">
-        <v>0.82499999999999896</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="O45" s="10">
         <v>393</v>
@@ -60719,7 +60730,7 @@
         <v>369</v>
       </c>
       <c r="N46" s="203">
-        <v>0.84999999999999898</v>
+        <v>0.85</v>
       </c>
       <c r="O46" s="10">
         <v>402</v>
@@ -60802,7 +60813,7 @@
         <v>379</v>
       </c>
       <c r="N47" s="203">
-        <v>0.874999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="O47" s="10">
         <v>410</v>
@@ -60884,8 +60895,8 @@
       <c r="M48" s="175">
         <v>389</v>
       </c>
-      <c r="N48" s="203">
-        <v>0.89999999999999902</v>
+      <c r="N48" s="204">
+        <v>0.9</v>
       </c>
       <c r="O48" s="205">
         <v>419</v>
@@ -60984,7 +60995,7 @@
         <v>426</v>
       </c>
       <c r="N52" s="20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="14.1" customHeight="1">
@@ -61201,7 +61212,7 @@
         <v>430</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>431</v>
+        <v>786</v>
       </c>
       <c r="N61" s="144"/>
       <c r="O61" s="67"/>
@@ -61218,40 +61229,32 @@
         <v>266</v>
       </c>
       <c r="C62" s="650" t="s">
-        <v>432</v>
-      </c>
-      <c r="D62" s="650" t="s">
         <v>332</v>
       </c>
-      <c r="E62" s="255" t="s">
+      <c r="D62" s="255" t="s">
         <v>69</v>
       </c>
+      <c r="E62" s="650" t="s">
+        <v>266</v>
+      </c>
       <c r="F62" s="650" t="s">
+        <v>332</v>
+      </c>
+      <c r="G62" s="255" t="s">
+        <v>69</v>
+      </c>
+      <c r="H62" s="650" t="s">
         <v>266</v>
       </c>
-      <c r="G62" s="650" t="s">
-        <v>432</v>
-      </c>
-      <c r="H62" s="650" t="s">
+      <c r="I62" s="650" t="s">
         <v>332</v>
       </c>
-      <c r="I62" s="255" t="s">
-        <v>69</v>
-      </c>
-      <c r="J62" s="650" t="s">
-        <v>266</v>
-      </c>
-      <c r="K62" s="650" t="s">
-        <v>432</v>
-      </c>
-      <c r="L62" s="650" t="s">
-        <v>332</v>
-      </c>
-      <c r="O62" s="963"/>
-      <c r="P62" s="963"/>
-      <c r="Q62" s="963"/>
-      <c r="R62" s="963"/>
-      <c r="S62" s="963"/>
+      <c r="K62" s="650"/>
+      <c r="O62" s="942"/>
+      <c r="P62" s="942"/>
+      <c r="Q62" s="942"/>
+      <c r="R62" s="942"/>
+      <c r="S62" s="942"/>
     </row>
     <row r="63" spans="1:19" ht="14.1" customHeight="1">
       <c r="A63" s="650" t="str">
@@ -61262,46 +61265,35 @@
         <f>Sheet1!Q371</f>
         <v>24</v>
       </c>
-      <c r="C63" s="650">
-        <f t="shared" ref="C63:C69" si="0">B63^2</f>
-        <v>576</v>
-      </c>
-      <c r="D63" s="292" t="str">
+      <c r="C63" s="292" t="str">
         <f>Sheet1!V371</f>
         <v/>
       </c>
-      <c r="E63" s="650" t="str">
+      <c r="D63" s="650" t="str">
         <f>Sheet1!P378</f>
         <v>/</v>
       </c>
-      <c r="F63" s="650">
+      <c r="E63" s="650">
         <f>Sheet1!Q378</f>
         <v>28</v>
       </c>
-      <c r="G63" s="650">
-        <f t="shared" ref="G63:G68" si="1">F63^2</f>
-        <v>784</v>
-      </c>
-      <c r="H63" s="292" t="str">
+      <c r="F63" s="292" t="str">
         <f>Sheet1!V378</f>
         <v/>
       </c>
-      <c r="I63" s="293" t="str">
+      <c r="G63" s="293" t="str">
         <f>Sheet1!P384</f>
         <v>/</v>
       </c>
-      <c r="J63" s="650">
+      <c r="H63" s="650">
         <f>Sheet1!Q384</f>
         <v>28</v>
       </c>
-      <c r="K63" s="650">
-        <f t="shared" ref="K63:K67" si="2">J63^2</f>
-        <v>784</v>
-      </c>
-      <c r="L63" s="291" t="str">
+      <c r="I63" s="291" t="str">
         <f>Sheet1!V384</f>
         <v/>
       </c>
+      <c r="K63" s="650"/>
       <c r="O63" s="654"/>
       <c r="P63" s="654"/>
       <c r="Q63" s="654"/>
@@ -61314,40 +61306,29 @@
         <f>Sheet1!Q372</f>
         <v>25</v>
       </c>
-      <c r="C64" s="650">
-        <f t="shared" si="0"/>
-        <v>625</v>
-      </c>
-      <c r="D64" s="292" t="str">
+      <c r="C64" s="292" t="str">
         <f>Sheet1!V372</f>
         <v/>
       </c>
-      <c r="E64" s="255"/>
-      <c r="F64" s="650">
+      <c r="D64" s="255"/>
+      <c r="E64" s="650">
         <f>Sheet1!Q379</f>
         <v>30</v>
       </c>
-      <c r="G64" s="650">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="H64" s="292" t="str">
+      <c r="F64" s="292" t="str">
         <f>Sheet1!V379</f>
         <v/>
       </c>
-      <c r="I64" s="293"/>
-      <c r="J64" s="650">
+      <c r="G64" s="293"/>
+      <c r="H64" s="650">
         <f>Sheet1!Q385</f>
         <v>30</v>
       </c>
-      <c r="K64" s="650">
-        <f t="shared" si="2"/>
-        <v>900</v>
-      </c>
-      <c r="L64" s="291" t="str">
+      <c r="I64" s="291" t="str">
         <f>Sheet1!V385</f>
         <v/>
       </c>
+      <c r="K64" s="650"/>
       <c r="O64" s="266"/>
       <c r="P64" s="266"/>
       <c r="Q64" s="266"/>
@@ -61360,40 +61341,29 @@
         <f>Sheet1!Q373</f>
         <v>26</v>
       </c>
-      <c r="C65" s="650">
-        <f t="shared" si="0"/>
-        <v>676</v>
-      </c>
-      <c r="D65" s="292" t="str">
+      <c r="C65" s="292" t="str">
         <f>Sheet1!V373</f>
         <v/>
       </c>
-      <c r="E65" s="650"/>
-      <c r="F65" s="650">
+      <c r="D65" s="650"/>
+      <c r="E65" s="650">
         <f>Sheet1!Q380</f>
         <v>32</v>
       </c>
-      <c r="G65" s="650">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-      <c r="H65" s="292" t="str">
+      <c r="F65" s="292" t="str">
         <f>Sheet1!V380</f>
         <v/>
       </c>
-      <c r="I65" s="293"/>
-      <c r="J65" s="650">
+      <c r="G65" s="293"/>
+      <c r="H65" s="650">
         <f>Sheet1!Q386</f>
         <v>32</v>
       </c>
-      <c r="K65" s="650">
-        <f t="shared" si="2"/>
-        <v>1024</v>
-      </c>
-      <c r="L65" s="291" t="str">
+      <c r="I65" s="291" t="str">
         <f>Sheet1!V386</f>
         <v/>
       </c>
+      <c r="K65" s="650"/>
       <c r="O65" s="266"/>
       <c r="P65" s="266"/>
       <c r="Q65" s="266"/>
@@ -61406,40 +61376,29 @@
         <f>Sheet1!Q374</f>
         <v>28</v>
       </c>
-      <c r="C66" s="650">
-        <f t="shared" si="0"/>
-        <v>784</v>
-      </c>
-      <c r="D66" s="292" t="str">
+      <c r="C66" s="292" t="str">
         <f>Sheet1!V374</f>
         <v/>
       </c>
-      <c r="E66" s="650"/>
-      <c r="F66" s="650">
+      <c r="D66" s="650"/>
+      <c r="E66" s="650">
         <f>Sheet1!Q381</f>
         <v>34</v>
       </c>
-      <c r="G66" s="650">
-        <f t="shared" si="1"/>
-        <v>1156</v>
-      </c>
-      <c r="H66" s="292" t="str">
+      <c r="F66" s="292" t="str">
         <f>Sheet1!V381</f>
         <v/>
       </c>
-      <c r="I66" s="293"/>
-      <c r="J66" s="650">
+      <c r="G66" s="293"/>
+      <c r="H66" s="650">
         <f>Sheet1!Q387</f>
         <v>34</v>
       </c>
-      <c r="K66" s="650">
-        <f t="shared" si="2"/>
-        <v>1156</v>
-      </c>
-      <c r="L66" s="291" t="str">
+      <c r="I66" s="291" t="str">
         <f>Sheet1!V387</f>
         <v/>
       </c>
+      <c r="K66" s="650"/>
       <c r="O66" s="266"/>
       <c r="P66" s="266"/>
       <c r="Q66" s="266"/>
@@ -61452,40 +61411,29 @@
         <f>Sheet1!Q375</f>
         <v>30</v>
       </c>
-      <c r="C67" s="650">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="D67" s="292" t="str">
+      <c r="C67" s="292" t="str">
         <f>Sheet1!V375</f>
         <v/>
       </c>
-      <c r="E67" s="650"/>
-      <c r="F67" s="650">
+      <c r="D67" s="650"/>
+      <c r="E67" s="650">
         <f>Sheet1!Q382</f>
         <v>36</v>
       </c>
-      <c r="G67" s="795">
-        <f t="shared" si="1"/>
-        <v>1296</v>
-      </c>
-      <c r="H67" s="292" t="str">
+      <c r="F67" s="292" t="str">
         <f>Sheet1!V382</f>
         <v/>
       </c>
-      <c r="I67" s="293"/>
-      <c r="J67" s="650">
+      <c r="G67" s="293"/>
+      <c r="H67" s="650">
         <f>Sheet1!Q388</f>
         <v>38</v>
       </c>
-      <c r="K67" s="795">
-        <f t="shared" si="2"/>
-        <v>1444</v>
-      </c>
-      <c r="L67" s="291" t="str">
+      <c r="I67" s="291" t="str">
         <f>Sheet1!V388</f>
         <v/>
       </c>
+      <c r="K67" s="795"/>
       <c r="O67" s="266"/>
       <c r="P67" s="266"/>
       <c r="Q67" s="266"/>
@@ -61498,27 +61446,20 @@
         <f>Sheet1!Q376</f>
         <v>32</v>
       </c>
-      <c r="C68" s="650">
-        <f t="shared" si="0"/>
-        <v>1024</v>
-      </c>
-      <c r="D68" s="292" t="str">
+      <c r="C68" s="292" t="str">
         <f>Sheet1!V376</f>
         <v/>
       </c>
-      <c r="E68" s="650"/>
-      <c r="F68" s="650">
+      <c r="D68" s="650"/>
+      <c r="E68" s="650">
         <f>Sheet1!Q383</f>
         <v>38</v>
       </c>
-      <c r="G68" s="795">
-        <f t="shared" si="1"/>
-        <v>1444</v>
-      </c>
-      <c r="H68" s="292" t="str">
+      <c r="F68" s="292" t="str">
         <f>Sheet1!V383</f>
         <v/>
       </c>
+      <c r="G68" s="795"/>
       <c r="I68" s="267"/>
       <c r="L68" s="67"/>
       <c r="O68" s="266"/>
@@ -61532,11 +61473,7 @@
       <c r="B69" s="776">
         <v>34</v>
       </c>
-      <c r="C69" s="776">
-        <f t="shared" si="0"/>
-        <v>1156</v>
-      </c>
-      <c r="D69" s="292" t="str">
+      <c r="C69" s="292" t="str">
         <f>Sheet1!V377</f>
         <v/>
       </c>
@@ -61553,18 +61490,16 @@
     </row>
     <row r="70" spans="1:19" ht="14.1" customHeight="1">
       <c r="A70" s="650"/>
-      <c r="B70" s="650"/>
-      <c r="C70" s="650"/>
-      <c r="D70" s="650" t="str">
+      <c r="B70" s="650" t="str">
         <f>A63</f>
         <v>/</v>
       </c>
-      <c r="E70" s="650" t="str">
-        <f>E63</f>
+      <c r="C70" s="650" t="str">
+        <f>D63</f>
         <v>/</v>
       </c>
-      <c r="F70" s="293" t="str">
-        <f>I63</f>
+      <c r="D70" s="293" t="str">
+        <f>G63</f>
         <v>/</v>
       </c>
       <c r="O70" s="266"/>
@@ -61574,19 +61509,19 @@
       <c r="S70" s="266"/>
     </row>
     <row r="71" spans="1:19" ht="14.1" customHeight="1">
-      <c r="C71" s="34" t="s">
-        <v>435</v>
+      <c r="A71" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="B71" s="20" t="e">
+        <f>SLOPE(C63:C69,$B$63:$B$69)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C71" s="20" t="e">
+        <f>SLOPE(F63:F68,$E$63:$E$68)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="D71" s="20" t="e">
-        <f>SLOPE(D63:D69,$B$63:$B$69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E71" s="20" t="e">
-        <f>SLOPE(H63:H68,$F$63:$F$68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F71" s="20" t="e">
-        <f>SLOPE(L63:L67,$J$63:$J$67)</f>
+        <f>SLOPE(I63:I67,$H$63:$H$67)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G71" s="34"/>
@@ -61598,19 +61533,19 @@
       <c r="S71" s="266"/>
     </row>
     <row r="72" spans="1:19" ht="14.1" customHeight="1">
-      <c r="C72" s="34" t="s">
-        <v>436</v>
+      <c r="A72" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="B72" s="20" t="e">
+        <f>INTERCEPT(C63:C69,$B$63:$B$69)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C72" s="20" t="e">
+        <f>INTERCEPT(F63:F68,$E$63:$E$68)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="D72" s="20" t="e">
-        <f>INTERCEPT(D63:D69,$B$63:$B$69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E72" s="20" t="e">
-        <f>INTERCEPT(H63:H68,$F$63:$F$68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F72" s="20" t="e">
-        <f>INTERCEPT(L63:L67,$J$63:$J$67)</f>
+        <f>INTERCEPT(I63:I67,$H$63:$H$67)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G72" s="34"/>
@@ -61623,19 +61558,19 @@
       <c r="S72" s="266"/>
     </row>
     <row r="73" spans="1:19" ht="14.1" customHeight="1">
-      <c r="C73" s="34" t="s">
-        <v>533</v>
+      <c r="A73" s="34" t="s">
+        <v>532</v>
+      </c>
+      <c r="B73" s="20" t="e">
+        <f>RSQ(C63:C69,B63:B69)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C73" s="20" t="e">
+        <f>RSQ(F63:F68,E63:E68)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="D73" s="20" t="e">
-        <f>RSQ(D63:D69,B63:B69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E73" s="20" t="e">
-        <f>RSQ(H63:H68,F63:F68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F73" s="20" t="e">
-        <f>RSQ(L63:L67,J63:J67)</f>
+        <f>RSQ(I63:I67,H63:H67)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N73" s="67"/>
@@ -61650,7 +61585,7 @@
         <v>347</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N74" s="67"/>
       <c r="O74" s="266"/>
@@ -61694,7 +61629,7 @@
         <v>23</v>
       </c>
       <c r="M75" s="271" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O75" s="266"/>
       <c r="P75" s="266"/>
@@ -61864,10 +61799,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K79" s="298" t="s">
+        <v>437</v>
+      </c>
+      <c r="L79" s="298" t="s">
         <v>438</v>
-      </c>
-      <c r="L79" s="298" t="s">
-        <v>439</v>
       </c>
       <c r="M79" s="298"/>
       <c r="O79" s="266"/>
@@ -61903,7 +61838,7 @@
       </c>
       <c r="K80" s="298"/>
       <c r="L80" s="298" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M80" s="298"/>
       <c r="O80" s="266"/>
@@ -61932,7 +61867,7 @@
       <c r="H81" s="34"/>
       <c r="K81" s="298"/>
       <c r="L81" s="298" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M81" s="298"/>
       <c r="O81" s="266"/>
@@ -61961,15 +61896,15 @@
       <c r="S82" s="266"/>
     </row>
     <row r="83" spans="1:19" ht="14.1" customHeight="1">
-      <c r="D83" s="650" t="str">
+      <c r="B83" s="650" t="str">
         <f>A76</f>
         <v>/</v>
       </c>
-      <c r="E83" s="650" t="str">
+      <c r="C83" s="650" t="str">
         <f>D76</f>
         <v>/</v>
       </c>
-      <c r="F83" s="650" t="str">
+      <c r="D83" s="650" t="str">
         <f>G76</f>
         <v>/</v>
       </c>
@@ -61982,18 +61917,18 @@
       <c r="S83" s="266"/>
     </row>
     <row r="84" spans="1:19" ht="14.1" customHeight="1">
-      <c r="C84" s="34" t="s">
-        <v>435</v>
-      </c>
-      <c r="D84" s="650" t="e">
+      <c r="A84" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="B84" s="650" t="e">
         <f>SLOPE(C76:C82,B76:B82)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E84" s="650" t="e">
+      <c r="C84" s="650" t="e">
         <f>SLOPE(F76:F81,E76:E81)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F84" s="650" t="e">
+      <c r="D84" s="650" t="e">
         <f>SLOPE(I76:I80,H76:H80)</f>
         <v>#DIV/0!</v>
       </c>
@@ -62007,18 +61942,18 @@
       <c r="S84" s="266"/>
     </row>
     <row r="85" spans="1:19" ht="14.1" customHeight="1">
-      <c r="C85" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="D85" s="650" t="e">
+      <c r="A85" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="B85" s="650" t="e">
         <f>INTERCEPT(C76:C82,B76:B82)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E85" s="650" t="e">
+      <c r="C85" s="650" t="e">
         <f>INTERCEPT(F76:F81,E76:E81)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F85" s="650" t="e">
+      <c r="D85" s="650" t="e">
         <f>INTERCEPT(I76:I80,H76:H80)</f>
         <v>#DIV/0!</v>
       </c>
@@ -62032,18 +61967,18 @@
       <c r="S85" s="266"/>
     </row>
     <row r="86" spans="1:19" ht="14.1" customHeight="1">
-      <c r="C86" s="34" t="s">
-        <v>533</v>
-      </c>
-      <c r="D86" s="20" t="e">
+      <c r="A86" s="34" t="s">
+        <v>532</v>
+      </c>
+      <c r="B86" s="20" t="e">
         <f>RSQ(C76:C82,B76:B82)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E86" s="20" t="e">
+      <c r="C86" s="20" t="e">
         <f>RSQ(F76:F81,E76:E81)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F86" s="20" t="e">
+      <c r="D86" s="20" t="e">
         <f>RSQ(I76:I80,H76:H80)</f>
         <v>#DIV/0!</v>
       </c>
@@ -62056,7 +61991,7 @@
     </row>
     <row r="87" spans="1:19" ht="14.1" customHeight="1">
       <c r="A87" s="74" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B87" s="20" t="e">
         <f>"DGN values (mrad/R) for "&amp;Sheet1!$T$259&amp;" kV and HVL="&amp;ROUND(Sheet1!$X$262,2)&amp;" mm Al"</f>
@@ -62077,14 +62012,14 @@
         <v>259</v>
       </c>
       <c r="C88" s="272" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D88" s="272" t="str">
         <f>Sheet1!R18</f>
         <v/>
       </c>
       <c r="E88" s="272" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F88" s="272" t="s">
         <v>235</v>
@@ -62138,7 +62073,7 @@
     </row>
     <row r="91" spans="1:19" ht="14.1" customHeight="1">
       <c r="A91" s="74" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N91" s="67"/>
       <c r="O91" s="266"/>
@@ -62152,25 +62087,25 @@
         <v>266</v>
       </c>
       <c r="D92" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="E92" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="F92" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="G92" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="F92" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="G92" s="10" t="s">
+      <c r="H92" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="H92" s="10" t="s">
+      <c r="I92" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="I92" s="10" t="s">
+      <c r="J92" s="10" t="s">
         <v>449</v>
-      </c>
-      <c r="J92" s="10" t="s">
-        <v>450</v>
       </c>
       <c r="N92" s="67"/>
       <c r="O92" s="266"/>
@@ -62184,7 +62119,7 @@
         <v>235</v>
       </c>
       <c r="B93" s="650" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C93" s="10">
         <v>27.585999999999999</v>
@@ -62219,7 +62154,7 @@
     </row>
     <row r="94" spans="1:19" ht="14.1" customHeight="1">
       <c r="B94" s="650" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C94" s="10">
         <v>27.585999999999999</v>
@@ -62254,7 +62189,7 @@
     </row>
     <row r="95" spans="1:19" ht="14.1" customHeight="1">
       <c r="C95" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N95" s="67"/>
       <c r="O95" s="266"/>
@@ -62265,7 +62200,7 @@
     </row>
     <row r="96" spans="1:19" ht="14.1" customHeight="1">
       <c r="C96" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N96" s="67"/>
       <c r="O96" s="266"/>
@@ -62279,25 +62214,25 @@
         <v>266</v>
       </c>
       <c r="D97" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="E97" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="F97" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="G97" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="F97" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="G97" s="10" t="s">
+      <c r="H97" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="H97" s="10" t="s">
+      <c r="I97" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="I97" s="10" t="s">
+      <c r="J97" s="10" t="s">
         <v>449</v>
-      </c>
-      <c r="J97" s="10" t="s">
-        <v>450</v>
       </c>
       <c r="N97" s="67"/>
       <c r="O97" s="266"/>
@@ -62308,10 +62243,10 @@
     </row>
     <row r="98" spans="1:19" ht="14.1" customHeight="1">
       <c r="A98" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B98" s="650" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C98" s="10">
         <v>30.1</v>
@@ -62346,7 +62281,7 @@
     </row>
     <row r="99" spans="1:19" ht="14.1" customHeight="1">
       <c r="B99" s="650" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C99" s="10">
         <v>30.1</v>
@@ -62381,7 +62316,7 @@
     </row>
     <row r="100" spans="1:19" ht="14.1" customHeight="1">
       <c r="C100" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N100" s="67"/>
       <c r="O100" s="266"/>
@@ -62392,7 +62327,7 @@
     </row>
     <row r="101" spans="1:19" ht="14.1" customHeight="1">
       <c r="C101" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N101" s="67"/>
       <c r="O101" s="266"/>
@@ -62411,7 +62346,7 @@
     </row>
     <row r="103" spans="1:19" ht="14.1" customHeight="1">
       <c r="A103" s="74" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N103" s="67"/>
       <c r="O103" s="266"/>
@@ -62425,19 +62360,19 @@
         <v>266</v>
       </c>
       <c r="D104" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="E104" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="E104" s="10" t="s">
+      <c r="F104" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="G104" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="F104" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="G104" s="10" t="s">
+      <c r="H104" s="10" t="s">
         <v>447</v>
-      </c>
-      <c r="H104" s="10" t="s">
-        <v>448</v>
       </c>
       <c r="N104" s="67"/>
       <c r="O104" s="266"/>
@@ -62451,7 +62386,7 @@
         <v>235</v>
       </c>
       <c r="B105" s="650" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C105" s="10">
         <v>26.9</v>
@@ -62478,7 +62413,7 @@
     </row>
     <row r="106" spans="1:19" ht="14.1" customHeight="1">
       <c r="B106" s="650" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C106" s="10">
         <v>26.9</v>
@@ -62515,25 +62450,25 @@
     </row>
     <row r="108" spans="1:19" ht="14.1" customHeight="1">
       <c r="A108" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B108" s="650" t="s">
         <v>266</v>
       </c>
       <c r="D108" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="E108" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="F108" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="G108" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="F108" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="G108" s="10" t="s">
+      <c r="H108" s="10" t="s">
         <v>447</v>
-      </c>
-      <c r="H108" s="10" t="s">
-        <v>448</v>
       </c>
       <c r="N108" s="67"/>
       <c r="O108" s="266"/>
@@ -62544,7 +62479,7 @@
     </row>
     <row r="109" spans="1:19" ht="14.1" customHeight="1">
       <c r="B109" s="650" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C109" s="10">
         <v>28.7</v>
@@ -62571,7 +62506,7 @@
     </row>
     <row r="110" spans="1:19" ht="14.1" customHeight="1">
       <c r="B110" s="650" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C110" s="10">
         <v>28.7</v>
@@ -62602,22 +62537,22 @@
     </row>
     <row r="112" spans="1:19" ht="14.1" customHeight="1">
       <c r="A112" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D112" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="E112" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="E112" s="10" t="s">
+      <c r="F112" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="G112" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="F112" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="G112" s="10" t="s">
+      <c r="H112" s="10" t="s">
         <v>447</v>
-      </c>
-      <c r="H112" s="10" t="s">
-        <v>448</v>
       </c>
       <c r="N112" s="67"/>
       <c r="O112" s="266"/>
@@ -62628,7 +62563,7 @@
     </row>
     <row r="113" spans="1:19" ht="14.1" customHeight="1">
       <c r="B113" s="650" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C113" s="10">
         <v>28.7</v>
@@ -62654,7 +62589,7 @@
     <row r="114" spans="1:19" ht="14.1" customHeight="1">
       <c r="B114" s="650"/>
       <c r="C114" s="232" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D114" s="10">
         <v>-24.875</v>
@@ -62674,7 +62609,7 @@
     </row>
     <row r="115" spans="1:19" ht="14.1" customHeight="1">
       <c r="B115" s="650" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C115" s="10">
         <v>30.1</v>
@@ -62713,7 +62648,7 @@
     </row>
     <row r="118" spans="1:19" ht="14.1" customHeight="1">
       <c r="A118" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N118" s="67"/>
       <c r="O118" s="266"/>
@@ -62724,19 +62659,19 @@
     </row>
     <row r="119" spans="1:19" ht="14.1" customHeight="1">
       <c r="C119" s="650" t="s">
+        <v>459</v>
+      </c>
+      <c r="D119" s="650" t="s">
         <v>460</v>
       </c>
-      <c r="D119" s="650" t="s">
+      <c r="E119" s="650" t="s">
         <v>461</v>
       </c>
-      <c r="E119" s="650" t="s">
+      <c r="F119" s="650" t="s">
         <v>462</v>
       </c>
-      <c r="F119" s="650" t="s">
+      <c r="G119" s="650" t="s">
         <v>463</v>
-      </c>
-      <c r="G119" s="650" t="s">
-        <v>464</v>
       </c>
       <c r="N119" s="67"/>
       <c r="O119" s="266"/>
@@ -62750,16 +62685,16 @@
         <v>398</v>
       </c>
       <c r="C120" s="650" t="s">
+        <v>464</v>
+      </c>
+      <c r="D120" s="650" t="s">
         <v>465</v>
       </c>
-      <c r="D120" s="650" t="s">
+      <c r="E120" s="650" t="s">
         <v>466</v>
       </c>
-      <c r="E120" s="650" t="s">
-        <v>467</v>
-      </c>
       <c r="F120" s="650" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G120" s="650" t="s">
         <v>323</v>
@@ -62776,16 +62711,16 @@
         <v>402</v>
       </c>
       <c r="C121" s="650" t="s">
+        <v>464</v>
+      </c>
+      <c r="D121" s="650" t="s">
         <v>465</v>
       </c>
-      <c r="D121" s="650" t="s">
-        <v>466</v>
-      </c>
       <c r="E121" s="650" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F121" s="650" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G121" s="650" t="s">
         <v>323</v>
@@ -62799,19 +62734,19 @@
     </row>
     <row r="122" spans="1:19" ht="14.1" customHeight="1">
       <c r="B122" s="34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C122" s="650" t="s">
+        <v>464</v>
+      </c>
+      <c r="D122" s="650" t="s">
         <v>465</v>
       </c>
-      <c r="D122" s="650" t="s">
+      <c r="E122" s="650" t="s">
         <v>466</v>
       </c>
-      <c r="E122" s="650" t="s">
-        <v>467</v>
-      </c>
       <c r="F122" s="650" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G122" s="650" t="s">
         <v>323</v>
@@ -62825,19 +62760,19 @@
     </row>
     <row r="123" spans="1:19" ht="14.1" customHeight="1">
       <c r="B123" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C123" s="650" t="s">
+        <v>464</v>
+      </c>
+      <c r="D123" s="650" t="s">
         <v>465</v>
       </c>
-      <c r="D123" s="650" t="s">
-        <v>466</v>
-      </c>
       <c r="E123" s="650" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F123" s="650" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G123" s="650" t="s">
         <v>323</v>
@@ -62851,19 +62786,19 @@
     </row>
     <row r="124" spans="1:19" ht="14.1" customHeight="1">
       <c r="B124" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C124" s="650" t="s">
+        <v>464</v>
+      </c>
+      <c r="D124" s="650" t="s">
         <v>465</v>
       </c>
-      <c r="D124" s="650" t="s">
-        <v>466</v>
-      </c>
       <c r="E124" s="650" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F124" s="650" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G124" s="650" t="s">
         <v>323</v>
@@ -62877,19 +62812,19 @@
     </row>
     <row r="125" spans="1:19" ht="14.1" customHeight="1">
       <c r="B125" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C125" s="650" t="s">
+        <v>464</v>
+      </c>
+      <c r="D125" s="650" t="s">
         <v>465</v>
       </c>
-      <c r="D125" s="650" t="s">
-        <v>466</v>
-      </c>
       <c r="E125" s="650" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F125" s="650" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G125" s="650" t="s">
         <v>323</v>
@@ -62906,16 +62841,16 @@
         <v>292</v>
       </c>
       <c r="C126" s="650" t="s">
+        <v>464</v>
+      </c>
+      <c r="D126" s="650" t="s">
         <v>465</v>
       </c>
-      <c r="D126" s="650" t="s">
-        <v>466</v>
-      </c>
       <c r="E126" s="650" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F126" s="650" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G126" s="650" t="s">
         <v>323</v>
@@ -62929,19 +62864,19 @@
     </row>
     <row r="127" spans="1:19" ht="14.1" customHeight="1">
       <c r="B127" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C127" s="650" t="s">
+        <v>464</v>
+      </c>
+      <c r="D127" s="650" t="s">
         <v>465</v>
       </c>
-      <c r="D127" s="650" t="s">
-        <v>466</v>
-      </c>
       <c r="E127" s="650" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F127" s="650" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G127" s="650" t="s">
         <v>323</v>
@@ -62955,19 +62890,19 @@
     </row>
     <row r="128" spans="1:19" ht="14.1" customHeight="1">
       <c r="B128" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C128" s="650" t="s">
+        <v>464</v>
+      </c>
+      <c r="D128" s="650" t="s">
         <v>465</v>
       </c>
-      <c r="D128" s="650" t="s">
-        <v>466</v>
-      </c>
       <c r="E128" s="650" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F128" s="650" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G128" s="650" t="s">
         <v>323</v>
@@ -62984,16 +62919,16 @@
         <v>350</v>
       </c>
       <c r="C129" s="650" t="s">
+        <v>464</v>
+      </c>
+      <c r="D129" s="650" t="s">
         <v>465</v>
       </c>
-      <c r="D129" s="650" t="s">
-        <v>466</v>
-      </c>
       <c r="E129" s="650" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F129" s="650" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G129" s="650" t="s">
         <v>323</v>
@@ -63004,16 +62939,16 @@
         <v>266</v>
       </c>
       <c r="C130" s="650" t="s">
+        <v>464</v>
+      </c>
+      <c r="D130" s="650" t="s">
         <v>465</v>
       </c>
-      <c r="D130" s="650" t="s">
-        <v>466</v>
-      </c>
       <c r="E130" s="650" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F130" s="650" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G130" s="650" t="s">
         <v>323</v>
@@ -63043,7 +62978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -63055,15 +62990,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B1" t="s">
         <v>714</v>
-      </c>
-      <c r="B1" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="713" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B2" s="714" t="str">
         <f>Sheet1!F13</f>
@@ -63075,7 +63010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A29"/>
   <sheetViews>
@@ -63091,42 +63026,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="520" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="483" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="483" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="520" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="483" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="483" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="483" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="519" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -63196,27 +63131,27 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="488" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="488" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="488" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="488" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="488" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -63226,7 +63161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
@@ -63241,57 +63176,57 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7"/>
       <c r="B9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7"/>
       <c r="B10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>481</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -63305,27 +63240,27 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="7"/>
       <c r="B15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="7"/>
       <c r="B16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>481</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:8">

--- a/MUSCMammoSiemens.xlsx
+++ b/MUSCMammoSiemens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maheug\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55647489-CDD8-4D34-A0A5-51B9129B0E20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32577460-F53C-4F7C-9DA8-2A114E358DC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="9636" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="788">
   <si>
     <t>Print Area</t>
   </si>
@@ -3284,6 +3284,9 @@
   <si>
     <t>Calculate Radiation output (mGy/mAs and mGy/s) as a function of kV</t>
   </si>
+  <si>
+    <t>Is this a new installation?</t>
+  </si>
 </sst>
 </file>
 
@@ -3303,7 +3306,7 @@
     <numFmt numFmtId="174" formatCode="#"/>
     <numFmt numFmtId="175" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
-  <fonts count="73">
+  <fonts count="75">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3761,8 +3764,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3913,8 +3927,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="190">
+  <borders count="191">
     <border>
       <left/>
       <right/>
@@ -6332,13 +6352,24 @@
     </border>
     <border>
       <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -6378,7 +6409,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="986">
+  <cellXfs count="990">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -8938,9 +8969,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="189" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8962,18 +8990,90 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="121" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="27" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="148" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="146" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="147" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="175" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8983,84 +9083,39 @@
     <xf numFmtId="175" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="27" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="148" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="146" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="147" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="142" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="122" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="151" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="150" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="149" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9073,32 +9128,23 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="80" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="142" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="122" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="151" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="150" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="149" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -9130,9 +9176,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9142,33 +9185,126 @@
     <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="80" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9178,117 +9314,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9308,6 +9336,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="26" borderId="189" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="26" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="190" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27855,40 +27898,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.6">
-      <c r="A1" s="870" t="s">
+      <c r="A1" s="896" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="870"/>
-      <c r="C1" s="870"/>
-      <c r="D1" s="870"/>
-      <c r="E1" s="870"/>
-      <c r="F1" s="870"/>
-      <c r="G1" s="870"/>
-      <c r="H1" s="870"/>
-      <c r="I1" s="870"/>
-      <c r="J1" s="870"/>
-      <c r="K1" s="870"/>
-      <c r="L1" s="870"/>
-      <c r="M1" s="870"/>
-      <c r="N1" s="870"/>
+      <c r="B1" s="896"/>
+      <c r="C1" s="896"/>
+      <c r="D1" s="896"/>
+      <c r="E1" s="896"/>
+      <c r="F1" s="896"/>
+      <c r="G1" s="896"/>
+      <c r="H1" s="896"/>
+      <c r="I1" s="896"/>
+      <c r="J1" s="896"/>
+      <c r="K1" s="896"/>
+      <c r="L1" s="896"/>
+      <c r="M1" s="896"/>
+      <c r="N1" s="896"/>
     </row>
     <row r="2" spans="1:14" ht="24.6">
-      <c r="A2" s="870" t="s">
+      <c r="A2" s="896" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="870"/>
-      <c r="C2" s="870"/>
-      <c r="D2" s="870"/>
-      <c r="E2" s="870"/>
-      <c r="F2" s="870"/>
-      <c r="G2" s="870"/>
-      <c r="H2" s="870"/>
-      <c r="I2" s="870"/>
-      <c r="J2" s="870"/>
-      <c r="K2" s="870"/>
-      <c r="L2" s="870"/>
-      <c r="M2" s="870"/>
-      <c r="N2" s="870"/>
+      <c r="B2" s="896"/>
+      <c r="C2" s="896"/>
+      <c r="D2" s="896"/>
+      <c r="E2" s="896"/>
+      <c r="F2" s="896"/>
+      <c r="G2" s="896"/>
+      <c r="H2" s="896"/>
+      <c r="I2" s="896"/>
+      <c r="J2" s="896"/>
+      <c r="K2" s="896"/>
+      <c r="L2" s="896"/>
+      <c r="M2" s="896"/>
+      <c r="N2" s="896"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1">
       <c r="A3" s="797"/>
@@ -27911,41 +27954,41 @@
         <v>371</v>
       </c>
       <c r="B4" s="798"/>
-      <c r="C4" s="871"/>
-      <c r="D4" s="872"/>
-      <c r="E4" s="872"/>
-      <c r="F4" s="872"/>
-      <c r="G4" s="872"/>
-      <c r="H4" s="873"/>
+      <c r="C4" s="884"/>
+      <c r="D4" s="885"/>
+      <c r="E4" s="885"/>
+      <c r="F4" s="885"/>
+      <c r="G4" s="885"/>
+      <c r="H4" s="886"/>
       <c r="J4" s="799"/>
       <c r="K4" s="800" t="s">
         <v>372</v>
       </c>
-      <c r="L4" s="874"/>
-      <c r="M4" s="875"/>
-      <c r="N4" s="876"/>
+      <c r="L4" s="897"/>
+      <c r="M4" s="898"/>
+      <c r="N4" s="899"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1">
       <c r="A5" s="798" t="s">
         <v>373</v>
       </c>
       <c r="B5" s="798"/>
-      <c r="C5" s="871"/>
-      <c r="D5" s="872"/>
-      <c r="E5" s="872"/>
-      <c r="F5" s="872"/>
-      <c r="G5" s="872"/>
-      <c r="H5" s="873"/>
+      <c r="C5" s="884"/>
+      <c r="D5" s="885"/>
+      <c r="E5" s="885"/>
+      <c r="F5" s="885"/>
+      <c r="G5" s="885"/>
+      <c r="H5" s="886"/>
       <c r="J5" s="799"/>
       <c r="K5" s="800" t="s">
         <v>374</v>
       </c>
-      <c r="L5" s="874">
+      <c r="L5" s="897">
         <f>Sheet1!P7</f>
         <v>0</v>
       </c>
-      <c r="M5" s="875"/>
-      <c r="N5" s="876"/>
+      <c r="M5" s="898"/>
+      <c r="N5" s="899"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1">
       <c r="A6" s="798" t="s">
@@ -27954,19 +27997,19 @@
       <c r="B6" s="798"/>
       <c r="C6" s="798"/>
       <c r="D6" s="798"/>
-      <c r="E6" s="882" t="s">
+      <c r="E6" s="883" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="882"/>
-      <c r="G6" s="882"/>
-      <c r="H6" s="882"/>
+      <c r="F6" s="883"/>
+      <c r="G6" s="883"/>
+      <c r="H6" s="883"/>
       <c r="J6" s="799"/>
       <c r="K6" s="800" t="s">
         <v>376</v>
       </c>
-      <c r="L6" s="871"/>
-      <c r="M6" s="872"/>
-      <c r="N6" s="873"/>
+      <c r="L6" s="884"/>
+      <c r="M6" s="885"/>
+      <c r="N6" s="886"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1">
       <c r="A7" s="798" t="s">
@@ -27975,21 +28018,21 @@
       <c r="B7" s="798"/>
       <c r="C7" s="798"/>
       <c r="D7" s="798"/>
-      <c r="E7" s="871" t="s">
+      <c r="E7" s="884" t="s">
         <v>378</v>
       </c>
-      <c r="F7" s="872"/>
-      <c r="G7" s="872"/>
-      <c r="H7" s="873"/>
+      <c r="F7" s="885"/>
+      <c r="G7" s="885"/>
+      <c r="H7" s="886"/>
       <c r="J7" s="799"/>
       <c r="K7" s="800" t="s">
         <v>379</v>
       </c>
-      <c r="L7" s="871" t="s">
+      <c r="L7" s="884" t="s">
         <v>768</v>
       </c>
-      <c r="M7" s="872"/>
-      <c r="N7" s="873"/>
+      <c r="M7" s="885"/>
+      <c r="N7" s="886"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1">
       <c r="A8" s="798" t="s">
@@ -27998,23 +28041,23 @@
       <c r="B8" s="798"/>
       <c r="C8" s="798"/>
       <c r="D8" s="798"/>
-      <c r="E8" s="883" t="str">
+      <c r="E8" s="887" t="str">
         <f>Sheet1!K12</f>
         <v/>
       </c>
-      <c r="F8" s="884"/>
-      <c r="G8" s="884"/>
-      <c r="H8" s="885"/>
+      <c r="F8" s="888"/>
+      <c r="G8" s="888"/>
+      <c r="H8" s="889"/>
       <c r="J8" s="799"/>
       <c r="K8" s="800" t="s">
         <v>381</v>
       </c>
-      <c r="L8" s="871" t="str">
+      <c r="L8" s="884" t="str">
         <f>Sheet1!R14</f>
         <v/>
       </c>
-      <c r="M8" s="872"/>
-      <c r="N8" s="873"/>
+      <c r="M8" s="885"/>
+      <c r="N8" s="886"/>
     </row>
     <row r="9" spans="1:14" ht="11.25" customHeight="1">
       <c r="A9" s="798"/>
@@ -28035,12 +28078,12 @@
       <c r="A10" s="803" t="s">
         <v>540</v>
       </c>
-      <c r="E10" s="886" t="s">
+      <c r="E10" s="890" t="s">
         <v>769</v>
       </c>
-      <c r="F10" s="887"/>
-      <c r="G10" s="887"/>
-      <c r="H10" s="888"/>
+      <c r="F10" s="891"/>
+      <c r="G10" s="891"/>
+      <c r="H10" s="892"/>
       <c r="I10" s="804" t="s">
         <v>539</v>
       </c>
@@ -28065,24 +28108,24 @@
       <c r="B12" s="798"/>
       <c r="C12" s="798"/>
       <c r="D12" s="798"/>
-      <c r="E12" s="889" t="s">
+      <c r="E12" s="893" t="s">
         <v>384</v>
       </c>
-      <c r="F12" s="890"/>
-      <c r="G12" s="889" t="s">
+      <c r="F12" s="894"/>
+      <c r="G12" s="893" t="s">
         <v>379</v>
       </c>
-      <c r="H12" s="890"/>
-      <c r="I12" s="889" t="s">
+      <c r="H12" s="894"/>
+      <c r="I12" s="893" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="890"/>
-      <c r="K12" s="889" t="s">
+      <c r="J12" s="894"/>
+      <c r="K12" s="893" t="s">
         <v>382</v>
       </c>
-      <c r="L12" s="891"/>
-      <c r="M12" s="891"/>
-      <c r="N12" s="890"/>
+      <c r="L12" s="895"/>
+      <c r="M12" s="895"/>
+      <c r="N12" s="894"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" thickTop="1">
       <c r="A13" s="798"/>
@@ -28091,55 +28134,55 @@
       <c r="D13" s="806" t="s">
         <v>385</v>
       </c>
-      <c r="E13" s="877" t="s">
+      <c r="E13" s="878" t="s">
         <v>755</v>
       </c>
-      <c r="F13" s="878"/>
-      <c r="G13" s="877" t="s">
+      <c r="F13" s="879"/>
+      <c r="G13" s="878" t="s">
         <v>756</v>
       </c>
-      <c r="H13" s="878"/>
-      <c r="I13" s="879"/>
-      <c r="J13" s="880"/>
-      <c r="K13" s="877" t="s">
+      <c r="H13" s="879"/>
+      <c r="I13" s="880"/>
+      <c r="J13" s="881"/>
+      <c r="K13" s="878" t="s">
         <v>757</v>
       </c>
-      <c r="L13" s="881"/>
-      <c r="M13" s="881"/>
-      <c r="N13" s="878"/>
+      <c r="L13" s="882"/>
+      <c r="M13" s="882"/>
+      <c r="N13" s="879"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="D14" s="806" t="s">
         <v>386</v>
       </c>
-      <c r="E14" s="894"/>
-      <c r="F14" s="895"/>
-      <c r="G14" s="894"/>
-      <c r="H14" s="895"/>
-      <c r="I14" s="896"/>
-      <c r="J14" s="897"/>
-      <c r="K14" s="894"/>
-      <c r="L14" s="898"/>
-      <c r="M14" s="898"/>
-      <c r="N14" s="895"/>
+      <c r="E14" s="871"/>
+      <c r="F14" s="872"/>
+      <c r="G14" s="871"/>
+      <c r="H14" s="872"/>
+      <c r="I14" s="873"/>
+      <c r="J14" s="874"/>
+      <c r="K14" s="871"/>
+      <c r="L14" s="875"/>
+      <c r="M14" s="875"/>
+      <c r="N14" s="872"/>
     </row>
     <row r="15" spans="1:14" ht="36" customHeight="1">
-      <c r="A15" s="899" t="s">
+      <c r="A15" s="876" t="s">
         <v>716</v>
       </c>
-      <c r="B15" s="899"/>
-      <c r="C15" s="899"/>
-      <c r="D15" s="899"/>
-      <c r="E15" s="899"/>
-      <c r="F15" s="899"/>
-      <c r="G15" s="899"/>
-      <c r="H15" s="899"/>
-      <c r="I15" s="899"/>
-      <c r="J15" s="899"/>
-      <c r="K15" s="899"/>
-      <c r="L15" s="899"/>
-      <c r="M15" s="899"/>
-      <c r="N15" s="899"/>
+      <c r="B15" s="876"/>
+      <c r="C15" s="876"/>
+      <c r="D15" s="876"/>
+      <c r="E15" s="876"/>
+      <c r="F15" s="876"/>
+      <c r="G15" s="876"/>
+      <c r="H15" s="876"/>
+      <c r="I15" s="876"/>
+      <c r="J15" s="876"/>
+      <c r="K15" s="876"/>
+      <c r="L15" s="876"/>
+      <c r="M15" s="876"/>
+      <c r="N15" s="876"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1">
       <c r="A16" s="803" t="s">
@@ -28201,40 +28244,40 @@
       <c r="M18" s="823"/>
     </row>
     <row r="19" spans="1:15" ht="21" customHeight="1">
-      <c r="A19" s="900" t="s">
+      <c r="A19" s="877" t="s">
         <v>389</v>
       </c>
-      <c r="B19" s="900"/>
-      <c r="C19" s="900"/>
-      <c r="D19" s="900"/>
-      <c r="E19" s="900"/>
-      <c r="F19" s="900"/>
-      <c r="G19" s="900"/>
-      <c r="H19" s="900"/>
-      <c r="I19" s="900"/>
-      <c r="J19" s="900"/>
-      <c r="K19" s="900"/>
-      <c r="L19" s="900"/>
-      <c r="M19" s="900"/>
-      <c r="N19" s="900"/>
+      <c r="B19" s="877"/>
+      <c r="C19" s="877"/>
+      <c r="D19" s="877"/>
+      <c r="E19" s="877"/>
+      <c r="F19" s="877"/>
+      <c r="G19" s="877"/>
+      <c r="H19" s="877"/>
+      <c r="I19" s="877"/>
+      <c r="J19" s="877"/>
+      <c r="K19" s="877"/>
+      <c r="L19" s="877"/>
+      <c r="M19" s="877"/>
+      <c r="N19" s="877"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="892" t="s">
+      <c r="A20" s="869" t="s">
         <v>538</v>
       </c>
-      <c r="B20" s="892"/>
-      <c r="C20" s="892"/>
-      <c r="D20" s="892"/>
-      <c r="E20" s="892"/>
-      <c r="F20" s="892"/>
-      <c r="G20" s="892"/>
-      <c r="H20" s="892"/>
-      <c r="I20" s="892"/>
-      <c r="J20" s="892"/>
-      <c r="K20" s="892"/>
-      <c r="L20" s="892"/>
-      <c r="M20" s="892"/>
-      <c r="N20" s="892"/>
+      <c r="B20" s="869"/>
+      <c r="C20" s="869"/>
+      <c r="D20" s="869"/>
+      <c r="E20" s="869"/>
+      <c r="F20" s="869"/>
+      <c r="G20" s="869"/>
+      <c r="H20" s="869"/>
+      <c r="I20" s="869"/>
+      <c r="J20" s="869"/>
+      <c r="K20" s="869"/>
+      <c r="L20" s="869"/>
+      <c r="M20" s="869"/>
+      <c r="N20" s="869"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="798"/>
@@ -28840,33 +28883,31 @@
       <c r="M51" s="825"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A52" s="893" t="s">
+      <c r="A52" s="870" t="s">
         <v>533</v>
       </c>
-      <c r="B52" s="893"/>
-      <c r="C52" s="893"/>
-      <c r="D52" s="893"/>
-      <c r="E52" s="893"/>
-      <c r="F52" s="893"/>
-      <c r="G52" s="893"/>
-      <c r="H52" s="893"/>
-      <c r="I52" s="893"/>
-      <c r="J52" s="893"/>
-      <c r="K52" s="893"/>
-      <c r="L52" s="893"/>
-      <c r="M52" s="893"/>
-      <c r="N52" s="893"/>
+      <c r="B52" s="870"/>
+      <c r="C52" s="870"/>
+      <c r="D52" s="870"/>
+      <c r="E52" s="870"/>
+      <c r="F52" s="870"/>
+      <c r="G52" s="870"/>
+      <c r="H52" s="870"/>
+      <c r="I52" s="870"/>
+      <c r="J52" s="870"/>
+      <c r="K52" s="870"/>
+      <c r="L52" s="870"/>
+      <c r="M52" s="870"/>
+      <c r="N52" s="870"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="L5:N5"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
@@ -28882,12 +28923,14 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:N12"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A19:N19"/>
   </mergeCells>
   <conditionalFormatting sqref="N27:N38 N48 N41:N42 N50">
     <cfRule type="cellIs" dxfId="176" priority="13" stopIfTrue="1" operator="equal">
@@ -29198,19 +29241,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="903" t="s">
+      <c r="A1" s="911" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="903"/>
-      <c r="C1" s="903"/>
-      <c r="D1" s="903"/>
-      <c r="E1" s="903"/>
-      <c r="F1" s="903"/>
-      <c r="G1" s="903"/>
-      <c r="H1" s="903"/>
-      <c r="I1" s="903"/>
-      <c r="J1" s="903"/>
-      <c r="K1" s="903"/>
+      <c r="B1" s="911"/>
+      <c r="C1" s="911"/>
+      <c r="D1" s="911"/>
+      <c r="E1" s="911"/>
+      <c r="F1" s="911"/>
+      <c r="G1" s="911"/>
+      <c r="H1" s="911"/>
+      <c r="I1" s="911"/>
+      <c r="J1" s="911"/>
+      <c r="K1" s="911"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
       <c r="A2" s="517" t="s">
@@ -29244,19 +29287,19 @@
       <c r="K4" s="512"/>
     </row>
     <row r="5" spans="1:12" ht="42" customHeight="1">
-      <c r="A5" s="904" t="s">
+      <c r="A5" s="912" t="s">
         <v>545</v>
       </c>
-      <c r="B5" s="904"/>
-      <c r="C5" s="904"/>
-      <c r="D5" s="904"/>
-      <c r="E5" s="904"/>
-      <c r="F5" s="904"/>
-      <c r="G5" s="904"/>
-      <c r="H5" s="904"/>
-      <c r="I5" s="904"/>
-      <c r="J5" s="904"/>
-      <c r="K5" s="904"/>
+      <c r="B5" s="912"/>
+      <c r="C5" s="912"/>
+      <c r="D5" s="912"/>
+      <c r="E5" s="912"/>
+      <c r="F5" s="912"/>
+      <c r="G5" s="912"/>
+      <c r="H5" s="912"/>
+      <c r="I5" s="912"/>
+      <c r="J5" s="912"/>
+      <c r="K5" s="912"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="511" t="s">
@@ -29289,8 +29332,8 @@
       <c r="K7" s="506"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="J8" s="905"/>
-      <c r="K8" s="905"/>
+      <c r="J8" s="913"/>
+      <c r="K8" s="913"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="492"/>
@@ -29299,10 +29342,10 @@
         <v>396</v>
       </c>
       <c r="I9" s="505"/>
-      <c r="J9" s="906" t="s">
+      <c r="J9" s="914" t="s">
         <v>390</v>
       </c>
-      <c r="K9" s="906"/>
+      <c r="K9" s="914"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="504" t="s">
@@ -29318,8 +29361,8 @@
       <c r="I10" s="716" t="s">
         <v>741</v>
       </c>
-      <c r="J10" s="901"/>
-      <c r="K10" s="902"/>
+      <c r="J10" s="900"/>
+      <c r="K10" s="901"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="499" t="s">
@@ -29333,8 +29376,8 @@
       <c r="H11" s="500" t="s">
         <v>403</v>
       </c>
-      <c r="J11" s="901"/>
-      <c r="K11" s="902"/>
+      <c r="J11" s="900"/>
+      <c r="K11" s="901"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="504" t="s">
@@ -29348,8 +29391,8 @@
       <c r="H12" s="500" t="s">
         <v>403</v>
       </c>
-      <c r="J12" s="901"/>
-      <c r="K12" s="902"/>
+      <c r="J12" s="900"/>
+      <c r="K12" s="901"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="499" t="s">
@@ -29364,8 +29407,8 @@
       <c r="I13" s="502" t="s">
         <v>742</v>
       </c>
-      <c r="J13" s="901"/>
-      <c r="K13" s="902"/>
+      <c r="J13" s="900"/>
+      <c r="K13" s="901"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="501" t="s">
@@ -29379,8 +29422,8 @@
       <c r="H14" s="500" t="s">
         <v>407</v>
       </c>
-      <c r="J14" s="901"/>
-      <c r="K14" s="902"/>
+      <c r="J14" s="900"/>
+      <c r="K14" s="901"/>
       <c r="L14" s="492"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
@@ -29395,8 +29438,8 @@
       <c r="H15" s="500" t="s">
         <v>410</v>
       </c>
-      <c r="J15" s="901"/>
-      <c r="K15" s="902"/>
+      <c r="J15" s="900"/>
+      <c r="K15" s="901"/>
       <c r="L15" s="492"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
@@ -29427,10 +29470,10 @@
       <c r="H17" s="500" t="s">
         <v>412</v>
       </c>
-      <c r="J17" s="901" t="s">
+      <c r="J17" s="900" t="s">
         <v>487</v>
       </c>
-      <c r="K17" s="902"/>
+      <c r="K17" s="901"/>
       <c r="L17" s="492"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
@@ -29445,8 +29488,8 @@
         <v>414</v>
       </c>
       <c r="I18" s="484"/>
-      <c r="J18" s="901"/>
-      <c r="K18" s="902"/>
+      <c r="J18" s="900"/>
+      <c r="K18" s="901"/>
       <c r="L18" s="496"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
@@ -29461,10 +29504,10 @@
         <v>750</v>
       </c>
       <c r="I19" s="484"/>
-      <c r="J19" s="901" t="s">
+      <c r="J19" s="900" t="s">
         <v>487</v>
       </c>
-      <c r="K19" s="902"/>
+      <c r="K19" s="901"/>
       <c r="L19" s="496"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
@@ -29477,19 +29520,19 @@
       <c r="L20" s="492"/>
     </row>
     <row r="21" spans="1:12" ht="24" customHeight="1">
-      <c r="A21" s="907" t="s">
+      <c r="A21" s="902" t="s">
         <v>415</v>
       </c>
-      <c r="B21" s="907"/>
-      <c r="C21" s="907"/>
-      <c r="D21" s="907"/>
-      <c r="E21" s="907"/>
-      <c r="F21" s="907"/>
-      <c r="G21" s="907"/>
-      <c r="H21" s="907"/>
-      <c r="I21" s="907"/>
-      <c r="J21" s="907"/>
-      <c r="K21" s="907"/>
+      <c r="B21" s="902"/>
+      <c r="C21" s="902"/>
+      <c r="D21" s="902"/>
+      <c r="E21" s="902"/>
+      <c r="F21" s="902"/>
+      <c r="G21" s="902"/>
+      <c r="H21" s="902"/>
+      <c r="I21" s="902"/>
+      <c r="J21" s="902"/>
+      <c r="K21" s="902"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="491"/>
@@ -29505,131 +29548,126 @@
       <c r="K22" s="490"/>
     </row>
     <row r="23" spans="1:12" ht="290.25" customHeight="1">
-      <c r="A23" s="908"/>
-      <c r="B23" s="909"/>
-      <c r="C23" s="909"/>
-      <c r="D23" s="909"/>
-      <c r="E23" s="909"/>
-      <c r="F23" s="909"/>
-      <c r="G23" s="909"/>
-      <c r="H23" s="909"/>
-      <c r="I23" s="909"/>
-      <c r="J23" s="909"/>
-      <c r="K23" s="910"/>
+      <c r="A23" s="903"/>
+      <c r="B23" s="904"/>
+      <c r="C23" s="904"/>
+      <c r="D23" s="904"/>
+      <c r="E23" s="904"/>
+      <c r="F23" s="904"/>
+      <c r="G23" s="904"/>
+      <c r="H23" s="904"/>
+      <c r="I23" s="904"/>
+      <c r="J23" s="904"/>
+      <c r="K23" s="905"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="911"/>
-      <c r="B24" s="911"/>
-      <c r="C24" s="911"/>
-      <c r="D24" s="911"/>
-      <c r="E24" s="911"/>
-      <c r="F24" s="911"/>
-      <c r="G24" s="911"/>
-      <c r="H24" s="911"/>
-      <c r="I24" s="911"/>
-      <c r="J24" s="911"/>
-      <c r="K24" s="911"/>
+      <c r="A24" s="906"/>
+      <c r="B24" s="906"/>
+      <c r="C24" s="906"/>
+      <c r="D24" s="906"/>
+      <c r="E24" s="906"/>
+      <c r="F24" s="906"/>
+      <c r="G24" s="906"/>
+      <c r="H24" s="906"/>
+      <c r="I24" s="906"/>
+      <c r="J24" s="906"/>
+      <c r="K24" s="906"/>
     </row>
     <row r="25" spans="1:12" ht="13.8" hidden="1" thickBot="1">
-      <c r="A25" s="912"/>
-      <c r="B25" s="912"/>
-      <c r="C25" s="912"/>
-      <c r="D25" s="912"/>
-      <c r="E25" s="912"/>
-      <c r="F25" s="912"/>
-      <c r="G25" s="912"/>
-      <c r="H25" s="912"/>
-      <c r="I25" s="912"/>
-      <c r="J25" s="912"/>
-      <c r="K25" s="912"/>
+      <c r="A25" s="907"/>
+      <c r="B25" s="907"/>
+      <c r="C25" s="907"/>
+      <c r="D25" s="907"/>
+      <c r="E25" s="907"/>
+      <c r="F25" s="907"/>
+      <c r="G25" s="907"/>
+      <c r="H25" s="907"/>
+      <c r="I25" s="907"/>
+      <c r="J25" s="907"/>
+      <c r="K25" s="907"/>
     </row>
     <row r="26" spans="1:12" ht="13.8" hidden="1" thickBot="1">
-      <c r="A26" s="912"/>
-      <c r="B26" s="912"/>
-      <c r="C26" s="912"/>
-      <c r="D26" s="912"/>
-      <c r="E26" s="912"/>
-      <c r="F26" s="912"/>
-      <c r="G26" s="912"/>
-      <c r="H26" s="912"/>
-      <c r="I26" s="912"/>
-      <c r="J26" s="912"/>
-      <c r="K26" s="912"/>
+      <c r="A26" s="907"/>
+      <c r="B26" s="907"/>
+      <c r="C26" s="907"/>
+      <c r="D26" s="907"/>
+      <c r="E26" s="907"/>
+      <c r="F26" s="907"/>
+      <c r="G26" s="907"/>
+      <c r="H26" s="907"/>
+      <c r="I26" s="907"/>
+      <c r="J26" s="907"/>
+      <c r="K26" s="907"/>
     </row>
     <row r="27" spans="1:12" ht="13.8" hidden="1" thickBot="1">
-      <c r="A27" s="912"/>
-      <c r="B27" s="912"/>
-      <c r="C27" s="912"/>
-      <c r="D27" s="912"/>
-      <c r="E27" s="912"/>
-      <c r="F27" s="912"/>
-      <c r="G27" s="912"/>
-      <c r="H27" s="912"/>
-      <c r="I27" s="912"/>
-      <c r="J27" s="912"/>
-      <c r="K27" s="912"/>
+      <c r="A27" s="907"/>
+      <c r="B27" s="907"/>
+      <c r="C27" s="907"/>
+      <c r="D27" s="907"/>
+      <c r="E27" s="907"/>
+      <c r="F27" s="907"/>
+      <c r="G27" s="907"/>
+      <c r="H27" s="907"/>
+      <c r="I27" s="907"/>
+      <c r="J27" s="907"/>
+      <c r="K27" s="907"/>
     </row>
     <row r="28" spans="1:12" ht="13.8" hidden="1" thickBot="1">
-      <c r="A28" s="912"/>
-      <c r="B28" s="912"/>
-      <c r="C28" s="912"/>
-      <c r="D28" s="912"/>
-      <c r="E28" s="912"/>
-      <c r="F28" s="912"/>
-      <c r="G28" s="912"/>
-      <c r="H28" s="912"/>
-      <c r="I28" s="912"/>
-      <c r="J28" s="912"/>
-      <c r="K28" s="912"/>
+      <c r="A28" s="907"/>
+      <c r="B28" s="907"/>
+      <c r="C28" s="907"/>
+      <c r="D28" s="907"/>
+      <c r="E28" s="907"/>
+      <c r="F28" s="907"/>
+      <c r="G28" s="907"/>
+      <c r="H28" s="907"/>
+      <c r="I28" s="907"/>
+      <c r="J28" s="907"/>
+      <c r="K28" s="907"/>
     </row>
     <row r="29" spans="1:12" ht="13.8" hidden="1" thickBot="1">
-      <c r="A29" s="912"/>
-      <c r="B29" s="912"/>
-      <c r="C29" s="912"/>
-      <c r="D29" s="912"/>
-      <c r="E29" s="912"/>
-      <c r="F29" s="912"/>
-      <c r="G29" s="912"/>
-      <c r="H29" s="912"/>
-      <c r="I29" s="912"/>
-      <c r="J29" s="912"/>
-      <c r="K29" s="912"/>
+      <c r="A29" s="907"/>
+      <c r="B29" s="907"/>
+      <c r="C29" s="907"/>
+      <c r="D29" s="907"/>
+      <c r="E29" s="907"/>
+      <c r="F29" s="907"/>
+      <c r="G29" s="907"/>
+      <c r="H29" s="907"/>
+      <c r="I29" s="907"/>
+      <c r="J29" s="907"/>
+      <c r="K29" s="907"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" hidden="1" thickBot="1">
-      <c r="A30" s="912"/>
-      <c r="B30" s="912"/>
-      <c r="C30" s="912"/>
-      <c r="D30" s="912"/>
-      <c r="E30" s="912"/>
-      <c r="F30" s="912"/>
-      <c r="G30" s="912"/>
-      <c r="H30" s="912"/>
-      <c r="I30" s="912"/>
-      <c r="J30" s="912"/>
-      <c r="K30" s="912"/>
+      <c r="A30" s="907"/>
+      <c r="B30" s="907"/>
+      <c r="C30" s="907"/>
+      <c r="D30" s="907"/>
+      <c r="E30" s="907"/>
+      <c r="F30" s="907"/>
+      <c r="G30" s="907"/>
+      <c r="H30" s="907"/>
+      <c r="I30" s="907"/>
+      <c r="J30" s="907"/>
+      <c r="K30" s="907"/>
     </row>
     <row r="31" spans="1:12" ht="201.75" customHeight="1" thickBot="1">
-      <c r="A31" s="913" t="s">
+      <c r="A31" s="908" t="s">
         <v>541</v>
       </c>
-      <c r="B31" s="914"/>
-      <c r="C31" s="914"/>
-      <c r="D31" s="914"/>
-      <c r="E31" s="914"/>
-      <c r="F31" s="914"/>
-      <c r="G31" s="914"/>
-      <c r="H31" s="914"/>
-      <c r="I31" s="914"/>
-      <c r="J31" s="914"/>
-      <c r="K31" s="915"/>
+      <c r="B31" s="909"/>
+      <c r="C31" s="909"/>
+      <c r="D31" s="909"/>
+      <c r="E31" s="909"/>
+      <c r="F31" s="909"/>
+      <c r="G31" s="909"/>
+      <c r="H31" s="909"/>
+      <c r="I31" s="909"/>
+      <c r="J31" s="909"/>
+      <c r="K31" s="910"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K30"/>
-    <mergeCell ref="A31:K31"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A5:K5"/>
@@ -29642,6 +29680,11 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K30"/>
+    <mergeCell ref="A31:K31"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:K18">
     <cfRule type="cellIs" dxfId="163" priority="2" stopIfTrue="1" operator="equal">
@@ -30196,13 +30239,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="931" t="s">
+      <c r="A1" s="917" t="s">
         <v>629</v>
       </c>
-      <c r="B1" s="932"/>
-      <c r="C1" s="932"/>
-      <c r="D1" s="932"/>
-      <c r="E1" s="932"/>
+      <c r="B1" s="918"/>
+      <c r="C1" s="918"/>
+      <c r="D1" s="918"/>
+      <c r="E1" s="918"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="717"/>
@@ -30215,23 +30258,23 @@
       <c r="A3" s="718" t="s">
         <v>630</v>
       </c>
-      <c r="B3" s="933">
+      <c r="B3" s="919">
         <f>'QC Test Summary-Siemens'!C4</f>
         <v>0</v>
       </c>
-      <c r="C3" s="933"/>
-      <c r="D3" s="933"/>
-      <c r="E3" s="933"/>
+      <c r="C3" s="919"/>
+      <c r="D3" s="919"/>
+      <c r="E3" s="919"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="718" t="s">
         <v>631</v>
       </c>
-      <c r="B4" s="934" t="str">
+      <c r="B4" s="920" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="C4" s="934"/>
+      <c r="C4" s="920"/>
       <c r="D4" s="719" t="s">
         <v>43</v>
       </c>
@@ -30261,11 +30304,11 @@
       <c r="A6" s="718" t="s">
         <v>634</v>
       </c>
-      <c r="B6" s="934" t="str">
+      <c r="B6" s="920" t="str">
         <f>Sheet1!X7</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="C6" s="934"/>
+      <c r="C6" s="920"/>
       <c r="D6" s="719" t="s">
         <v>635</v>
       </c>
@@ -30278,8 +30321,8 @@
       <c r="A7" s="718" t="s">
         <v>636</v>
       </c>
-      <c r="B7" s="934"/>
-      <c r="C7" s="934"/>
+      <c r="B7" s="920"/>
+      <c r="C7" s="920"/>
       <c r="D7" s="719" t="s">
         <v>637</v>
       </c>
@@ -30307,7 +30350,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" thickTop="1">
-      <c r="A10" s="930" t="s">
+      <c r="A10" s="915" t="s">
         <v>642</v>
       </c>
       <c r="B10" s="726" t="s">
@@ -30322,7 +30365,7 @@
       <c r="E10" s="729"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A11" s="926"/>
+      <c r="A11" s="916"/>
       <c r="B11" s="730" t="s">
         <v>646</v>
       </c>
@@ -30335,7 +30378,7 @@
       <c r="E11" s="733"/>
     </row>
     <row r="12" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A12" s="921" t="s">
+      <c r="A12" s="926" t="s">
         <v>648</v>
       </c>
       <c r="B12" s="734" t="s">
@@ -30350,7 +30393,7 @@
       <c r="E12" s="737"/>
     </row>
     <row r="13" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A13" s="922"/>
+      <c r="A13" s="927"/>
       <c r="B13" s="738" t="s">
         <v>652</v>
       </c>
@@ -30363,7 +30406,7 @@
       <c r="E13" s="741"/>
     </row>
     <row r="14" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A14" s="923"/>
+      <c r="A14" s="928"/>
       <c r="B14" s="742" t="s">
         <v>654</v>
       </c>
@@ -30376,7 +30419,7 @@
       <c r="E14" s="744"/>
     </row>
     <row r="15" spans="1:5" ht="40.799999999999997">
-      <c r="A15" s="924" t="s">
+      <c r="A15" s="929" t="s">
         <v>656</v>
       </c>
       <c r="B15" s="745" t="s">
@@ -30391,7 +30434,7 @@
       <c r="E15" s="747"/>
     </row>
     <row r="16" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A16" s="925"/>
+      <c r="A16" s="930"/>
       <c r="B16" s="730" t="s">
         <v>659</v>
       </c>
@@ -30404,7 +30447,7 @@
       <c r="E16" s="749"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A17" s="916" t="s">
+      <c r="A17" s="921" t="s">
         <v>661</v>
       </c>
       <c r="B17" s="750" t="s">
@@ -30419,7 +30462,7 @@
       <c r="E17" s="751"/>
     </row>
     <row r="18" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A18" s="926"/>
+      <c r="A18" s="916"/>
       <c r="B18" s="752" t="s">
         <v>664</v>
       </c>
@@ -30432,7 +30475,7 @@
       <c r="E18" s="733"/>
     </row>
     <row r="19" spans="1:5" ht="20.399999999999999">
-      <c r="A19" s="927" t="s">
+      <c r="A19" s="931" t="s">
         <v>666</v>
       </c>
       <c r="B19" s="750" t="s">
@@ -30447,7 +30490,7 @@
       <c r="E19" s="751"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A20" s="928"/>
+      <c r="A20" s="932"/>
       <c r="B20" s="754" t="s">
         <v>669</v>
       </c>
@@ -30460,7 +30503,7 @@
       <c r="E20" s="756"/>
     </row>
     <row r="21" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A21" s="929"/>
+      <c r="A21" s="933"/>
       <c r="B21" s="752" t="s">
         <v>671</v>
       </c>
@@ -30473,7 +30516,7 @@
       <c r="E21" s="733"/>
     </row>
     <row r="22" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A22" s="916" t="s">
+      <c r="A22" s="921" t="s">
         <v>673</v>
       </c>
       <c r="B22" s="750" t="s">
@@ -30488,7 +30531,7 @@
       <c r="E22" s="751"/>
     </row>
     <row r="23" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A23" s="926"/>
+      <c r="A23" s="916"/>
       <c r="B23" s="730" t="s">
         <v>676</v>
       </c>
@@ -30501,7 +30544,7 @@
       <c r="E23" s="749"/>
     </row>
     <row r="24" spans="1:5" ht="30.6">
-      <c r="A24" s="927" t="s">
+      <c r="A24" s="931" t="s">
         <v>678</v>
       </c>
       <c r="B24" s="750" t="s">
@@ -30516,7 +30559,7 @@
       <c r="E24" s="751"/>
     </row>
     <row r="25" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A25" s="928"/>
+      <c r="A25" s="932"/>
       <c r="B25" s="754" t="s">
         <v>681</v>
       </c>
@@ -30529,7 +30572,7 @@
       <c r="E25" s="756"/>
     </row>
     <row r="26" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A26" s="928"/>
+      <c r="A26" s="932"/>
       <c r="B26" s="757" t="s">
         <v>683</v>
       </c>
@@ -30542,7 +30585,7 @@
       <c r="E26" s="756"/>
     </row>
     <row r="27" spans="1:5" ht="20.399999999999999">
-      <c r="A27" s="928"/>
+      <c r="A27" s="932"/>
       <c r="B27" s="757" t="s">
         <v>685</v>
       </c>
@@ -30555,7 +30598,7 @@
       <c r="E27" s="756"/>
     </row>
     <row r="28" spans="1:5" ht="21" thickBot="1">
-      <c r="A28" s="929"/>
+      <c r="A28" s="933"/>
       <c r="B28" s="758" t="s">
         <v>687</v>
       </c>
@@ -30568,7 +30611,7 @@
       <c r="E28" s="749"/>
     </row>
     <row r="29" spans="1:5" ht="20.399999999999999">
-      <c r="A29" s="916" t="s">
+      <c r="A29" s="921" t="s">
         <v>689</v>
       </c>
       <c r="B29" s="759" t="s">
@@ -30583,7 +30626,7 @@
       <c r="E29" s="751"/>
     </row>
     <row r="30" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A30" s="917"/>
+      <c r="A30" s="922"/>
       <c r="B30" s="757" t="s">
         <v>692</v>
       </c>
@@ -30596,7 +30639,7 @@
       <c r="E30" s="756"/>
     </row>
     <row r="31" spans="1:5" ht="31.2" thickBot="1">
-      <c r="A31" s="918"/>
+      <c r="A31" s="923"/>
       <c r="B31" s="758" t="s">
         <v>694</v>
       </c>
@@ -30609,7 +30652,7 @@
       <c r="E31" s="749"/>
     </row>
     <row r="32" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A32" s="916" t="s">
+      <c r="A32" s="921" t="s">
         <v>696</v>
       </c>
       <c r="B32" s="759" t="s">
@@ -30624,7 +30667,7 @@
       <c r="E32" s="751"/>
     </row>
     <row r="33" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A33" s="917"/>
+      <c r="A33" s="922"/>
       <c r="B33" s="757" t="s">
         <v>699</v>
       </c>
@@ -30637,7 +30680,7 @@
       <c r="E33" s="756"/>
     </row>
     <row r="34" spans="1:5" ht="21" thickBot="1">
-      <c r="A34" s="918"/>
+      <c r="A34" s="923"/>
       <c r="B34" s="758" t="s">
         <v>700</v>
       </c>
@@ -30725,13 +30768,13 @@
       <c r="E39" s="733"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="919" t="s">
+      <c r="A40" s="924" t="s">
         <v>765</v>
       </c>
-      <c r="B40" s="920"/>
-      <c r="C40" s="920"/>
-      <c r="D40" s="920"/>
-      <c r="E40" s="920"/>
+      <c r="B40" s="925"/>
+      <c r="C40" s="925"/>
+      <c r="D40" s="925"/>
+      <c r="E40" s="925"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="768"/>
@@ -31428,12 +31471,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A40:E40"/>
@@ -31443,6 +31480,12 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E10 JA10 SW10 ACS10 AMO10 AWK10 BGG10 BQC10 BZY10 CJU10 CTQ10 DDM10 DNI10 DXE10 EHA10 EQW10 FAS10 FKO10 FUK10 GEG10 GOC10 GXY10 HHU10 HRQ10 IBM10 ILI10 IVE10 JFA10 JOW10 JYS10 KIO10 KSK10 LCG10 LMC10 LVY10 MFU10 MPQ10 MZM10 NJI10 NTE10 ODA10 OMW10 OWS10 PGO10 PQK10 QAG10 QKC10 QTY10 RDU10 RNQ10 RXM10 SHI10 SRE10 TBA10 TKW10 TUS10 UEO10 UOK10 UYG10 VIC10 VRY10 WBU10 WLQ10 WVM10 E65546 JA65546 SW65546 ACS65546 AMO65546 AWK65546 BGG65546 BQC65546 BZY65546 CJU65546 CTQ65546 DDM65546 DNI65546 DXE65546 EHA65546 EQW65546 FAS65546 FKO65546 FUK65546 GEG65546 GOC65546 GXY65546 HHU65546 HRQ65546 IBM65546 ILI65546 IVE65546 JFA65546 JOW65546 JYS65546 KIO65546 KSK65546 LCG65546 LMC65546 LVY65546 MFU65546 MPQ65546 MZM65546 NJI65546 NTE65546 ODA65546 OMW65546 OWS65546 PGO65546 PQK65546 QAG65546 QKC65546 QTY65546 RDU65546 RNQ65546 RXM65546 SHI65546 SRE65546 TBA65546 TKW65546 TUS65546 UEO65546 UOK65546 UYG65546 VIC65546 VRY65546 WBU65546 WLQ65546 WVM65546 E131082 JA131082 SW131082 ACS131082 AMO131082 AWK131082 BGG131082 BQC131082 BZY131082 CJU131082 CTQ131082 DDM131082 DNI131082 DXE131082 EHA131082 EQW131082 FAS131082 FKO131082 FUK131082 GEG131082 GOC131082 GXY131082 HHU131082 HRQ131082 IBM131082 ILI131082 IVE131082 JFA131082 JOW131082 JYS131082 KIO131082 KSK131082 LCG131082 LMC131082 LVY131082 MFU131082 MPQ131082 MZM131082 NJI131082 NTE131082 ODA131082 OMW131082 OWS131082 PGO131082 PQK131082 QAG131082 QKC131082 QTY131082 RDU131082 RNQ131082 RXM131082 SHI131082 SRE131082 TBA131082 TKW131082 TUS131082 UEO131082 UOK131082 UYG131082 VIC131082 VRY131082 WBU131082 WLQ131082 WVM131082 E196618 JA196618 SW196618 ACS196618 AMO196618 AWK196618 BGG196618 BQC196618 BZY196618 CJU196618 CTQ196618 DDM196618 DNI196618 DXE196618 EHA196618 EQW196618 FAS196618 FKO196618 FUK196618 GEG196618 GOC196618 GXY196618 HHU196618 HRQ196618 IBM196618 ILI196618 IVE196618 JFA196618 JOW196618 JYS196618 KIO196618 KSK196618 LCG196618 LMC196618 LVY196618 MFU196618 MPQ196618 MZM196618 NJI196618 NTE196618 ODA196618 OMW196618 OWS196618 PGO196618 PQK196618 QAG196618 QKC196618 QTY196618 RDU196618 RNQ196618 RXM196618 SHI196618 SRE196618 TBA196618 TKW196618 TUS196618 UEO196618 UOK196618 UYG196618 VIC196618 VRY196618 WBU196618 WLQ196618 WVM196618 E262154 JA262154 SW262154 ACS262154 AMO262154 AWK262154 BGG262154 BQC262154 BZY262154 CJU262154 CTQ262154 DDM262154 DNI262154 DXE262154 EHA262154 EQW262154 FAS262154 FKO262154 FUK262154 GEG262154 GOC262154 GXY262154 HHU262154 HRQ262154 IBM262154 ILI262154 IVE262154 JFA262154 JOW262154 JYS262154 KIO262154 KSK262154 LCG262154 LMC262154 LVY262154 MFU262154 MPQ262154 MZM262154 NJI262154 NTE262154 ODA262154 OMW262154 OWS262154 PGO262154 PQK262154 QAG262154 QKC262154 QTY262154 RDU262154 RNQ262154 RXM262154 SHI262154 SRE262154 TBA262154 TKW262154 TUS262154 UEO262154 UOK262154 UYG262154 VIC262154 VRY262154 WBU262154 WLQ262154 WVM262154 E327690 JA327690 SW327690 ACS327690 AMO327690 AWK327690 BGG327690 BQC327690 BZY327690 CJU327690 CTQ327690 DDM327690 DNI327690 DXE327690 EHA327690 EQW327690 FAS327690 FKO327690 FUK327690 GEG327690 GOC327690 GXY327690 HHU327690 HRQ327690 IBM327690 ILI327690 IVE327690 JFA327690 JOW327690 JYS327690 KIO327690 KSK327690 LCG327690 LMC327690 LVY327690 MFU327690 MPQ327690 MZM327690 NJI327690 NTE327690 ODA327690 OMW327690 OWS327690 PGO327690 PQK327690 QAG327690 QKC327690 QTY327690 RDU327690 RNQ327690 RXM327690 SHI327690 SRE327690 TBA327690 TKW327690 TUS327690 UEO327690 UOK327690 UYG327690 VIC327690 VRY327690 WBU327690 WLQ327690 WVM327690 E393226 JA393226 SW393226 ACS393226 AMO393226 AWK393226 BGG393226 BQC393226 BZY393226 CJU393226 CTQ393226 DDM393226 DNI393226 DXE393226 EHA393226 EQW393226 FAS393226 FKO393226 FUK393226 GEG393226 GOC393226 GXY393226 HHU393226 HRQ393226 IBM393226 ILI393226 IVE393226 JFA393226 JOW393226 JYS393226 KIO393226 KSK393226 LCG393226 LMC393226 LVY393226 MFU393226 MPQ393226 MZM393226 NJI393226 NTE393226 ODA393226 OMW393226 OWS393226 PGO393226 PQK393226 QAG393226 QKC393226 QTY393226 RDU393226 RNQ393226 RXM393226 SHI393226 SRE393226 TBA393226 TKW393226 TUS393226 UEO393226 UOK393226 UYG393226 VIC393226 VRY393226 WBU393226 WLQ393226 WVM393226 E458762 JA458762 SW458762 ACS458762 AMO458762 AWK458762 BGG458762 BQC458762 BZY458762 CJU458762 CTQ458762 DDM458762 DNI458762 DXE458762 EHA458762 EQW458762 FAS458762 FKO458762 FUK458762 GEG458762 GOC458762 GXY458762 HHU458762 HRQ458762 IBM458762 ILI458762 IVE458762 JFA458762 JOW458762 JYS458762 KIO458762 KSK458762 LCG458762 LMC458762 LVY458762 MFU458762 MPQ458762 MZM458762 NJI458762 NTE458762 ODA458762 OMW458762 OWS458762 PGO458762 PQK458762 QAG458762 QKC458762 QTY458762 RDU458762 RNQ458762 RXM458762 SHI458762 SRE458762 TBA458762 TKW458762 TUS458762 UEO458762 UOK458762 UYG458762 VIC458762 VRY458762 WBU458762 WLQ458762 WVM458762 E524298 JA524298 SW524298 ACS524298 AMO524298 AWK524298 BGG524298 BQC524298 BZY524298 CJU524298 CTQ524298 DDM524298 DNI524298 DXE524298 EHA524298 EQW524298 FAS524298 FKO524298 FUK524298 GEG524298 GOC524298 GXY524298 HHU524298 HRQ524298 IBM524298 ILI524298 IVE524298 JFA524298 JOW524298 JYS524298 KIO524298 KSK524298 LCG524298 LMC524298 LVY524298 MFU524298 MPQ524298 MZM524298 NJI524298 NTE524298 ODA524298 OMW524298 OWS524298 PGO524298 PQK524298 QAG524298 QKC524298 QTY524298 RDU524298 RNQ524298 RXM524298 SHI524298 SRE524298 TBA524298 TKW524298 TUS524298 UEO524298 UOK524298 UYG524298 VIC524298 VRY524298 WBU524298 WLQ524298 WVM524298 E589834 JA589834 SW589834 ACS589834 AMO589834 AWK589834 BGG589834 BQC589834 BZY589834 CJU589834 CTQ589834 DDM589834 DNI589834 DXE589834 EHA589834 EQW589834 FAS589834 FKO589834 FUK589834 GEG589834 GOC589834 GXY589834 HHU589834 HRQ589834 IBM589834 ILI589834 IVE589834 JFA589834 JOW589834 JYS589834 KIO589834 KSK589834 LCG589834 LMC589834 LVY589834 MFU589834 MPQ589834 MZM589834 NJI589834 NTE589834 ODA589834 OMW589834 OWS589834 PGO589834 PQK589834 QAG589834 QKC589834 QTY589834 RDU589834 RNQ589834 RXM589834 SHI589834 SRE589834 TBA589834 TKW589834 TUS589834 UEO589834 UOK589834 UYG589834 VIC589834 VRY589834 WBU589834 WLQ589834 WVM589834 E655370 JA655370 SW655370 ACS655370 AMO655370 AWK655370 BGG655370 BQC655370 BZY655370 CJU655370 CTQ655370 DDM655370 DNI655370 DXE655370 EHA655370 EQW655370 FAS655370 FKO655370 FUK655370 GEG655370 GOC655370 GXY655370 HHU655370 HRQ655370 IBM655370 ILI655370 IVE655370 JFA655370 JOW655370 JYS655370 KIO655370 KSK655370 LCG655370 LMC655370 LVY655370 MFU655370 MPQ655370 MZM655370 NJI655370 NTE655370 ODA655370 OMW655370 OWS655370 PGO655370 PQK655370 QAG655370 QKC655370 QTY655370 RDU655370 RNQ655370 RXM655370 SHI655370 SRE655370 TBA655370 TKW655370 TUS655370 UEO655370 UOK655370 UYG655370 VIC655370 VRY655370 WBU655370 WLQ655370 WVM655370 E720906 JA720906 SW720906 ACS720906 AMO720906 AWK720906 BGG720906 BQC720906 BZY720906 CJU720906 CTQ720906 DDM720906 DNI720906 DXE720906 EHA720906 EQW720906 FAS720906 FKO720906 FUK720906 GEG720906 GOC720906 GXY720906 HHU720906 HRQ720906 IBM720906 ILI720906 IVE720906 JFA720906 JOW720906 JYS720906 KIO720906 KSK720906 LCG720906 LMC720906 LVY720906 MFU720906 MPQ720906 MZM720906 NJI720906 NTE720906 ODA720906 OMW720906 OWS720906 PGO720906 PQK720906 QAG720906 QKC720906 QTY720906 RDU720906 RNQ720906 RXM720906 SHI720906 SRE720906 TBA720906 TKW720906 TUS720906 UEO720906 UOK720906 UYG720906 VIC720906 VRY720906 WBU720906 WLQ720906 WVM720906 E786442 JA786442 SW786442 ACS786442 AMO786442 AWK786442 BGG786442 BQC786442 BZY786442 CJU786442 CTQ786442 DDM786442 DNI786442 DXE786442 EHA786442 EQW786442 FAS786442 FKO786442 FUK786442 GEG786442 GOC786442 GXY786442 HHU786442 HRQ786442 IBM786442 ILI786442 IVE786442 JFA786442 JOW786442 JYS786442 KIO786442 KSK786442 LCG786442 LMC786442 LVY786442 MFU786442 MPQ786442 MZM786442 NJI786442 NTE786442 ODA786442 OMW786442 OWS786442 PGO786442 PQK786442 QAG786442 QKC786442 QTY786442 RDU786442 RNQ786442 RXM786442 SHI786442 SRE786442 TBA786442 TKW786442 TUS786442 UEO786442 UOK786442 UYG786442 VIC786442 VRY786442 WBU786442 WLQ786442 WVM786442 E851978 JA851978 SW851978 ACS851978 AMO851978 AWK851978 BGG851978 BQC851978 BZY851978 CJU851978 CTQ851978 DDM851978 DNI851978 DXE851978 EHA851978 EQW851978 FAS851978 FKO851978 FUK851978 GEG851978 GOC851978 GXY851978 HHU851978 HRQ851978 IBM851978 ILI851978 IVE851978 JFA851978 JOW851978 JYS851978 KIO851978 KSK851978 LCG851978 LMC851978 LVY851978 MFU851978 MPQ851978 MZM851978 NJI851978 NTE851978 ODA851978 OMW851978 OWS851978 PGO851978 PQK851978 QAG851978 QKC851978 QTY851978 RDU851978 RNQ851978 RXM851978 SHI851978 SRE851978 TBA851978 TKW851978 TUS851978 UEO851978 UOK851978 UYG851978 VIC851978 VRY851978 WBU851978 WLQ851978 WVM851978 E917514 JA917514 SW917514 ACS917514 AMO917514 AWK917514 BGG917514 BQC917514 BZY917514 CJU917514 CTQ917514 DDM917514 DNI917514 DXE917514 EHA917514 EQW917514 FAS917514 FKO917514 FUK917514 GEG917514 GOC917514 GXY917514 HHU917514 HRQ917514 IBM917514 ILI917514 IVE917514 JFA917514 JOW917514 JYS917514 KIO917514 KSK917514 LCG917514 LMC917514 LVY917514 MFU917514 MPQ917514 MZM917514 NJI917514 NTE917514 ODA917514 OMW917514 OWS917514 PGO917514 PQK917514 QAG917514 QKC917514 QTY917514 RDU917514 RNQ917514 RXM917514 SHI917514 SRE917514 TBA917514 TKW917514 TUS917514 UEO917514 UOK917514 UYG917514 VIC917514 VRY917514 WBU917514 WLQ917514 WVM917514 E983050 JA983050 SW983050 ACS983050 AMO983050 AWK983050 BGG983050 BQC983050 BZY983050 CJU983050 CTQ983050 DDM983050 DNI983050 DXE983050 EHA983050 EQW983050 FAS983050 FKO983050 FUK983050 GEG983050 GOC983050 GXY983050 HHU983050 HRQ983050 IBM983050 ILI983050 IVE983050 JFA983050 JOW983050 JYS983050 KIO983050 KSK983050 LCG983050 LMC983050 LVY983050 MFU983050 MPQ983050 MZM983050 NJI983050 NTE983050 ODA983050 OMW983050 OWS983050 PGO983050 PQK983050 QAG983050 QKC983050 QTY983050 RDU983050 RNQ983050 RXM983050 SHI983050 SRE983050 TBA983050 TKW983050 TUS983050 UEO983050 UOK983050 UYG983050 VIC983050 VRY983050 WBU983050 WLQ983050 WVM983050" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
@@ -33458,7 +33501,9 @@
   </sheetPr>
   <dimension ref="A1:AR518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K268" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" customHeight="1"/>
   <cols>
@@ -33807,19 +33852,19 @@
       <c r="E10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="945" t="str">
+      <c r="F10" s="968" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="945"/>
+      <c r="G10" s="968"/>
       <c r="J10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="938" t="str">
+      <c r="K10" s="960" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="938"/>
+      <c r="L10" s="960"/>
       <c r="M10" s="68"/>
       <c r="O10" s="29"/>
       <c r="Q10" s="34" t="s">
@@ -33884,19 +33929,19 @@
       <c r="E11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="946" t="str">
+      <c r="F11" s="969" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="946"/>
+      <c r="G11" s="969"/>
       <c r="J11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="938" t="str">
+      <c r="K11" s="960" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="938"/>
+      <c r="L11" s="960"/>
       <c r="M11" s="68"/>
       <c r="O11" s="29"/>
       <c r="Q11" s="34" t="s">
@@ -33961,19 +34006,19 @@
       <c r="E12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="946" t="str">
+      <c r="F12" s="969" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="946"/>
+      <c r="G12" s="969"/>
       <c r="J12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="944" t="str">
+      <c r="K12" s="970" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="944"/>
+      <c r="L12" s="970"/>
       <c r="M12" s="68"/>
       <c r="O12" s="29"/>
       <c r="Q12" s="34" t="s">
@@ -34038,19 +34083,19 @@
       <c r="E13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="946" t="str">
+      <c r="F13" s="969" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="946"/>
+      <c r="G13" s="969"/>
       <c r="J13" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="938" t="str">
+      <c r="K13" s="960" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="938"/>
+      <c r="L13" s="960"/>
       <c r="M13" s="68"/>
       <c r="O13" s="29"/>
       <c r="Q13" s="34" t="s">
@@ -34224,19 +34269,19 @@
       <c r="E16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="938" t="str">
+      <c r="F16" s="960" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="938"/>
+      <c r="G16" s="960"/>
       <c r="J16" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="944" t="str">
+      <c r="K16" s="970" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="944"/>
+      <c r="L16" s="970"/>
       <c r="M16" s="68"/>
       <c r="O16" s="29"/>
       <c r="P16" s="74" t="s">
@@ -34288,19 +34333,19 @@
       <c r="E17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="938" t="str">
+      <c r="F17" s="960" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="938"/>
+      <c r="G17" s="960"/>
       <c r="J17" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="947" t="str">
+      <c r="K17" s="971" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="947"/>
+      <c r="L17" s="971"/>
       <c r="M17" s="68"/>
       <c r="O17" s="29"/>
       <c r="Q17" s="34" t="s">
@@ -34365,19 +34410,19 @@
       <c r="E18" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="938" t="str">
+      <c r="F18" s="960" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="938"/>
+      <c r="G18" s="960"/>
       <c r="J18" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="938" t="str">
+      <c r="K18" s="960" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="938"/>
+      <c r="L18" s="960"/>
       <c r="M18" s="68"/>
       <c r="O18" s="29"/>
       <c r="Q18" s="34" t="s">
@@ -34543,19 +34588,19 @@
       <c r="E21" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="938" t="str">
+      <c r="F21" s="960" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="938"/>
+      <c r="G21" s="960"/>
       <c r="J21" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="938" t="str">
+      <c r="K21" s="960" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L21" s="938"/>
+      <c r="L21" s="960"/>
       <c r="M21" s="68"/>
       <c r="O21" s="29"/>
       <c r="P21" s="74" t="s">
@@ -34615,17 +34660,17 @@
       <c r="E22" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="944" t="str">
+      <c r="F22" s="970" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="944"/>
+      <c r="G22" s="970"/>
       <c r="J22" s="34"/>
-      <c r="K22" s="938" t="str">
+      <c r="K22" s="960" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="938"/>
+      <c r="L22" s="960"/>
       <c r="M22" s="68"/>
       <c r="O22" s="29"/>
       <c r="Q22" s="34" t="s">
@@ -34690,11 +34735,11 @@
       <c r="J23" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="938" t="str">
+      <c r="K23" s="960" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="938"/>
+      <c r="L23" s="960"/>
       <c r="M23" s="68"/>
       <c r="O23" s="29"/>
       <c r="Q23" s="34" t="s">
@@ -34753,16 +34798,16 @@
       <c r="E24" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="938" t="str">
+      <c r="F24" s="960" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="938"/>
-      <c r="K24" s="938" t="str">
+      <c r="G24" s="960"/>
+      <c r="K24" s="960" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="938"/>
+      <c r="L24" s="960"/>
       <c r="M24" s="68"/>
       <c r="O24" s="29"/>
       <c r="P24" s="74" t="s">
@@ -34822,17 +34867,17 @@
       <c r="E25" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="938" t="str">
+      <c r="F25" s="960" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="938"/>
+      <c r="G25" s="960"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="938" t="str">
+      <c r="K25" s="960" t="str">
         <f>IF(V26="","",V26)</f>
         <v/>
       </c>
-      <c r="L25" s="938"/>
+      <c r="L25" s="960"/>
       <c r="M25" s="68"/>
       <c r="O25" s="29"/>
       <c r="Q25" s="34" t="s">
@@ -34894,11 +34939,11 @@
       <c r="E26" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="938" t="str">
+      <c r="F26" s="960" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="938"/>
+      <c r="G26" s="960"/>
       <c r="I26" s="74" t="s">
         <v>54</v>
       </c>
@@ -34966,11 +35011,11 @@
       <c r="J27" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="K27" s="938" t="str">
+      <c r="K27" s="960" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="938"/>
+      <c r="L27" s="960"/>
       <c r="M27" s="68"/>
       <c r="O27" s="29"/>
       <c r="Q27" s="34" t="s">
@@ -35021,20 +35066,20 @@
       <c r="E28" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="938" t="str">
+      <c r="F28" s="960" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="938"/>
+      <c r="G28" s="960"/>
       <c r="I28" s="4"/>
       <c r="J28" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="K28" s="938" t="str">
+      <c r="K28" s="960" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="938"/>
+      <c r="L28" s="960"/>
       <c r="M28" s="68"/>
       <c r="O28" s="29"/>
       <c r="P28" s="74" t="s">
@@ -35094,22 +35139,22 @@
       <c r="E29" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="938" t="str">
+      <c r="F29" s="960" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="938"/>
+      <c r="G29" s="960"/>
       <c r="I29" s="74" t="s">
         <v>58</v>
       </c>
       <c r="J29" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="K29" s="938" t="str">
+      <c r="K29" s="960" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="938"/>
+      <c r="L29" s="960"/>
       <c r="M29" s="68"/>
       <c r="O29" s="29"/>
       <c r="Q29" s="34" t="s">
@@ -35174,19 +35219,19 @@
       <c r="E30" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="938" t="str">
+      <c r="F30" s="960" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="938"/>
+      <c r="G30" s="960"/>
       <c r="J30" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="938" t="str">
+      <c r="K30" s="960" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="938"/>
+      <c r="L30" s="960"/>
       <c r="M30" s="68"/>
       <c r="O30" s="29"/>
       <c r="Q30" s="34" t="s">
@@ -35356,7 +35401,12 @@
       <c r="H33" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="29"/>
+      <c r="O33" s="95">
+        <v>1</v>
+      </c>
+      <c r="P33" s="20" t="s">
+        <v>628</v>
+      </c>
       <c r="U33" s="34" t="s">
         <v>60</v>
       </c>
@@ -35418,11 +35468,11 @@
       <c r="K34" s="58"/>
       <c r="L34" s="58"/>
       <c r="M34" s="60"/>
-      <c r="O34" s="95">
+      <c r="O34" s="989">
         <v>1</v>
       </c>
-      <c r="P34" s="20" t="s">
-        <v>628</v>
+      <c r="P34" s="67" t="s">
+        <v>770</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
@@ -35472,27 +35522,25 @@
       <c r="C35" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="948" t="s">
+      <c r="D35" s="967" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="948"/>
-      <c r="F35" s="948"/>
-      <c r="G35" s="948" t="s">
+      <c r="E35" s="967"/>
+      <c r="F35" s="967"/>
+      <c r="G35" s="967" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="948"/>
-      <c r="I35" s="948"/>
-      <c r="J35" s="948" t="s">
+      <c r="H35" s="967"/>
+      <c r="I35" s="967"/>
+      <c r="J35" s="967" t="s">
         <v>65</v>
       </c>
-      <c r="K35" s="948"/>
-      <c r="L35" s="948"/>
+      <c r="K35" s="967"/>
+      <c r="L35" s="967"/>
       <c r="M35" s="68"/>
-      <c r="O35" s="862">
-        <v>1</v>
-      </c>
-      <c r="P35" s="40" t="s">
-        <v>770</v>
+      <c r="O35" s="985"/>
+      <c r="P35" s="986" t="s">
+        <v>787</v>
       </c>
       <c r="Q35" s="40"/>
       <c r="R35" s="40"/>
@@ -35550,11 +35598,11 @@
       <c r="D36" s="530"/>
       <c r="E36" s="531"/>
       <c r="F36" s="536"/>
-      <c r="G36" s="949" t="s">
+      <c r="G36" s="963" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="949"/>
-      <c r="I36" s="949"/>
+      <c r="H36" s="963"/>
+      <c r="I36" s="963"/>
       <c r="J36" s="530"/>
       <c r="K36" s="531"/>
       <c r="L36" s="536"/>
@@ -36127,13 +36175,14 @@
       <c r="C44" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="L44" s="950" t="s">
+      <c r="L44" s="964" t="s">
         <v>88</v>
       </c>
-      <c r="M44" s="950"/>
-      <c r="O44" s="29"/>
-      <c r="T44" s="255" t="s">
-        <v>773</v>
+      <c r="M44" s="964"/>
+      <c r="O44" s="987"/>
+      <c r="P44" s="988" t="str">
+        <f>IF(OR(O35="",O35=1),"Unit installed as shown on shielding plan","")</f>
+        <v>Unit installed as shown on shielding plan</v>
       </c>
       <c r="Y44" s="31"/>
       <c r="AA44" s="74" t="s">
@@ -36182,9 +36231,9 @@
         <f>IF(O39=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O45" s="95"/>
-      <c r="P45" s="20" t="s">
-        <v>493</v>
+      <c r="O45" s="29"/>
+      <c r="T45" s="255" t="s">
+        <v>773</v>
       </c>
       <c r="Y45" s="31"/>
       <c r="AA45" s="42" t="s">
@@ -36235,7 +36284,7 @@
       </c>
       <c r="O46" s="95"/>
       <c r="P46" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Y46" s="31"/>
       <c r="AA46" s="34" t="s">
@@ -36291,7 +36340,7 @@
       </c>
       <c r="O47" s="95"/>
       <c r="P47" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Y47" s="31"/>
       <c r="AA47" s="34" t="s">
@@ -36344,7 +36393,7 @@
       </c>
       <c r="O48" s="95"/>
       <c r="P48" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Y48" s="31"/>
       <c r="AA48" s="34" t="s">
@@ -36397,7 +36446,7 @@
       </c>
       <c r="O49" s="95"/>
       <c r="P49" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Y49" s="31"/>
       <c r="AA49" s="34" t="s">
@@ -36414,13 +36463,21 @@
         <v>50</v>
       </c>
       <c r="B50" s="66"/>
-      <c r="H50" s="255" t="s">
-        <v>90</v>
-      </c>
-      <c r="M50" s="68"/>
+      <c r="E50" s="20" t="str">
+        <f>P44</f>
+        <v>Unit installed as shown on shielding plan</v>
+      </c>
+      <c r="L50" s="102" t="str">
+        <f>IF(O35=2,"",IF(O44="","TBD",IF(O44=1,"YES",IF(O44=3,"NA",""))))</f>
+        <v>TBD</v>
+      </c>
+      <c r="M50" s="103" t="str">
+        <f>IF(O44=2,"NO","")</f>
+        <v/>
+      </c>
       <c r="O50" s="95"/>
       <c r="P50" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Y50" s="31"/>
       <c r="AA50" s="34" t="s">
@@ -36437,20 +36494,13 @@
         <v>51</v>
       </c>
       <c r="B51" s="66"/>
-      <c r="E51" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="L51" s="102" t="str">
-        <f t="shared" ref="L51:L63" si="10">IF(O64="","TBD",IF(O64=1,"YES",IF(O64=3,"NA","")))</f>
-        <v>TBD</v>
-      </c>
-      <c r="M51" s="103" t="str">
-        <f t="shared" ref="M51:M63" si="11">IF(O64=2,"NO","")</f>
-        <v/>
-      </c>
+      <c r="H51" s="255" t="s">
+        <v>90</v>
+      </c>
+      <c r="M51" s="68"/>
       <c r="O51" s="95"/>
       <c r="P51" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Y51" s="31"/>
       <c r="AA51" s="34" t="s">
@@ -36468,19 +36518,19 @@
       </c>
       <c r="B52" s="66"/>
       <c r="E52" s="67" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L52" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(O64="","TBD",IF(O64=1,"YES",IF(O64=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M52" s="103" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(O64=2,"NO","")</f>
         <v/>
       </c>
       <c r="O52" s="95"/>
       <c r="P52" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Y52" s="31"/>
       <c r="AA52" s="34" t="s">
@@ -36498,19 +36548,19 @@
       </c>
       <c r="B53" s="66"/>
       <c r="E53" s="67" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L53" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(O65="","TBD",IF(O65=1,"YES",IF(O65=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M53" s="103" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(O65=2,"NO","")</f>
         <v/>
       </c>
       <c r="O53" s="95"/>
       <c r="P53" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Y53" s="31"/>
       <c r="AA53" s="34" t="s">
@@ -36528,19 +36578,19 @@
       </c>
       <c r="B54" s="66"/>
       <c r="E54" s="67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L54" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(O66="","TBD",IF(O66=1,"YES",IF(O66=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M54" s="103" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(O66=2,"NO","")</f>
         <v/>
       </c>
       <c r="O54" s="95"/>
       <c r="P54" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Y54" s="31"/>
       <c r="AA54" s="34" t="s">
@@ -36558,19 +36608,19 @@
       </c>
       <c r="B55" s="66"/>
       <c r="E55" s="67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L55" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(O67="","TBD",IF(O67=1,"YES",IF(O67=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M55" s="103" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(O67=2,"NO","")</f>
         <v/>
       </c>
       <c r="O55" s="95"/>
       <c r="P55" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Y55" s="31"/>
       <c r="AA55" s="34" t="s">
@@ -36599,19 +36649,19 @@
       </c>
       <c r="B56" s="66"/>
       <c r="E56" s="67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L56" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(O68="","TBD",IF(O68=1,"YES",IF(O68=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M56" s="103" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(O68=2,"NO","")</f>
         <v/>
       </c>
       <c r="O56" s="95"/>
       <c r="P56" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Y56" s="31"/>
       <c r="AA56" s="34" t="s">
@@ -36637,19 +36687,19 @@
       </c>
       <c r="B57" s="66"/>
       <c r="E57" s="67" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L57" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(O69="","TBD",IF(O69=1,"YES",IF(O69=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M57" s="103" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(O69=2,"NO","")</f>
         <v/>
       </c>
       <c r="O57" s="95"/>
       <c r="P57" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Y57" s="31"/>
       <c r="AA57" s="34" t="s">
@@ -36675,19 +36725,19 @@
       </c>
       <c r="B58" s="66"/>
       <c r="E58" s="67" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L58" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(O70="","TBD",IF(O70=1,"YES",IF(O70=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M58" s="103" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(O70=2,"NO","")</f>
         <v/>
       </c>
       <c r="O58" s="95"/>
       <c r="P58" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Y58" s="31"/>
       <c r="AA58" s="42" t="s">
@@ -36711,19 +36761,19 @@
       </c>
       <c r="B59" s="66"/>
       <c r="E59" s="67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L59" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(O71="","TBD",IF(O71=1,"YES",IF(O71=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M59" s="103" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(O71=2,"NO","")</f>
         <v/>
       </c>
       <c r="O59" s="95"/>
       <c r="P59" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Y59" s="31"/>
       <c r="AA59" s="34" t="s">
@@ -36752,19 +36802,19 @@
       </c>
       <c r="B60" s="66"/>
       <c r="E60" s="67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L60" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(O72="","TBD",IF(O72=1,"YES",IF(O72=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M60" s="103" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(O72=2,"NO","")</f>
         <v/>
       </c>
       <c r="O60" s="95"/>
       <c r="P60" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Y60" s="31"/>
       <c r="AA60" s="34" t="s">
@@ -36793,19 +36843,19 @@
       </c>
       <c r="B61" s="66"/>
       <c r="E61" s="67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L61" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(O73="","TBD",IF(O73=1,"YES",IF(O73=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M61" s="103" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O61" s="268"/>
+        <f>IF(O73=2,"NO","")</f>
+        <v/>
+      </c>
+      <c r="O61" s="95"/>
       <c r="P61" s="20" t="s">
-        <v>611</v>
+        <v>508</v>
       </c>
       <c r="Y61" s="31"/>
       <c r="AA61" s="34" t="s">
@@ -36834,17 +36884,20 @@
       </c>
       <c r="B62" s="66"/>
       <c r="E62" s="67" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L62" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(O74="","TBD",IF(O74=1,"YES",IF(O74=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M62" s="103" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O62" s="29"/>
+        <f>IF(O74=2,"NO","")</f>
+        <v/>
+      </c>
+      <c r="O62" s="268"/>
+      <c r="P62" s="20" t="s">
+        <v>611</v>
+      </c>
       <c r="Y62" s="31"/>
       <c r="AA62" s="34" t="s">
         <v>93</v>
@@ -36871,15 +36924,15 @@
         <v>63</v>
       </c>
       <c r="B63" s="66"/>
-      <c r="E63" s="20" t="s">
-        <v>115</v>
+      <c r="E63" s="67" t="s">
+        <v>113</v>
       </c>
       <c r="L63" s="102" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(O75="","TBD",IF(O75=1,"YES",IF(O75=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M63" s="103" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(O75=2,"NO","")</f>
         <v/>
       </c>
       <c r="O63" s="29"/>
@@ -36914,15 +36967,17 @@
       <c r="B64" s="66"/>
       <c r="C64" s="67"/>
       <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="68"/>
+      <c r="E64" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="L64" s="102" t="str">
+        <f>IF(O76="","TBD",IF(O76=1,"YES",IF(O76=3,"NA","")))</f>
+        <v>TBD</v>
+      </c>
+      <c r="M64" s="103" t="str">
+        <f>IF(O76=2,"NO","")</f>
+        <v/>
+      </c>
       <c r="O64" s="95"/>
       <c r="P64" s="67" t="s">
         <v>92</v>
@@ -37422,11 +37477,11 @@
       <c r="J76" s="67"/>
       <c r="K76" s="67"/>
       <c r="L76" s="146" t="str">
-        <f t="shared" ref="L76:L107" si="12">IF(O79="","TBD",IF(O79=1,"YES",IF(O79=3,"NA","")))</f>
+        <f t="shared" ref="L76:L107" si="10">IF(O79="","TBD",IF(O79=1,"YES",IF(O79=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M76" s="103" t="str">
-        <f t="shared" ref="M76:M107" si="13">IF(O79=2,"NO","")</f>
+        <f t="shared" ref="M76:M107" si="11">IF(O79=2,"NO","")</f>
         <v/>
       </c>
       <c r="O76" s="95"/>
@@ -37473,11 +37528,11 @@
       <c r="J77" s="67"/>
       <c r="K77" s="67"/>
       <c r="L77" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M77" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O77" s="29"/>
@@ -37521,11 +37576,11 @@
       <c r="J78" s="67"/>
       <c r="K78" s="67"/>
       <c r="L78" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M78" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O78" s="29"/>
@@ -37572,11 +37627,11 @@
       <c r="J79" s="67"/>
       <c r="K79" s="67"/>
       <c r="L79" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M79" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O79" s="95"/>
@@ -37623,11 +37678,11 @@
       <c r="J80" s="67"/>
       <c r="K80" s="67"/>
       <c r="L80" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M80" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O80" s="95"/>
@@ -37674,11 +37729,11 @@
       <c r="J81" s="67"/>
       <c r="K81" s="67"/>
       <c r="L81" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M81" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O81" s="95"/>
@@ -37725,11 +37780,11 @@
       <c r="J82" s="67"/>
       <c r="K82" s="67"/>
       <c r="L82" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>YES</v>
       </c>
       <c r="M82" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O82" s="95"/>
@@ -37776,11 +37831,11 @@
       <c r="J83" s="67"/>
       <c r="K83" s="67"/>
       <c r="L83" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M83" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O83" s="95"/>
@@ -37827,11 +37882,11 @@
       <c r="J84" s="67"/>
       <c r="K84" s="67"/>
       <c r="L84" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M84" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O84" s="95"/>
@@ -37870,11 +37925,11 @@
       <c r="J85" s="67"/>
       <c r="K85" s="67"/>
       <c r="L85" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M85" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O85" s="268">
@@ -37924,11 +37979,11 @@
       <c r="J86" s="67"/>
       <c r="K86" s="67"/>
       <c r="L86" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M86" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O86" s="95"/>
@@ -37975,11 +38030,11 @@
       <c r="J87" s="67"/>
       <c r="K87" s="67"/>
       <c r="L87" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M87" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O87" s="95"/>
@@ -38026,11 +38081,11 @@
       <c r="J88" s="67"/>
       <c r="K88" s="67"/>
       <c r="L88" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M88" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O88" s="95"/>
@@ -38075,11 +38130,11 @@
       <c r="J89" s="67"/>
       <c r="K89" s="67"/>
       <c r="L89" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M89" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O89" s="95"/>
@@ -38126,11 +38181,11 @@
       <c r="J90" s="67"/>
       <c r="K90" s="67"/>
       <c r="L90" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M90" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O90" s="95"/>
@@ -38177,11 +38232,11 @@
       <c r="J91" s="67"/>
       <c r="K91" s="67"/>
       <c r="L91" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M91" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O91" s="95"/>
@@ -38228,11 +38283,11 @@
       <c r="J92" s="67"/>
       <c r="K92" s="67"/>
       <c r="L92" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M92" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O92" s="95"/>
@@ -38274,11 +38329,11 @@
       <c r="J93" s="67"/>
       <c r="K93" s="67"/>
       <c r="L93" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M93" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O93" s="95"/>
@@ -38291,7 +38346,7 @@
       </c>
       <c r="AB93" s="64"/>
       <c r="AD93" s="65" t="str">
-        <f t="shared" ref="AD93:AD98" si="14">IF(Q432="","",Q432)</f>
+        <f t="shared" ref="AD93:AD98" si="12">IF(Q432="","",Q432)</f>
         <v/>
       </c>
       <c r="AH93"/>
@@ -38325,11 +38380,11 @@
       <c r="J94" s="67"/>
       <c r="K94" s="67"/>
       <c r="L94" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M94" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O94" s="95"/>
@@ -38342,7 +38397,7 @@
       </c>
       <c r="AB94" s="64"/>
       <c r="AD94" s="65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AH94"/>
@@ -38376,11 +38431,11 @@
       <c r="J95" s="67"/>
       <c r="K95" s="67"/>
       <c r="L95" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M95" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O95" s="95"/>
@@ -38393,7 +38448,7 @@
       </c>
       <c r="AB95" s="64"/>
       <c r="AD95" s="65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AH95"/>
@@ -38427,11 +38482,11 @@
       <c r="J96" s="67"/>
       <c r="K96" s="67"/>
       <c r="L96" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M96" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O96" s="95"/>
@@ -38444,7 +38499,7 @@
       </c>
       <c r="AB96" s="64"/>
       <c r="AD96" s="65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AH96"/>
@@ -38478,11 +38533,11 @@
       <c r="J97" s="67"/>
       <c r="K97" s="67"/>
       <c r="L97" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M97" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O97" s="95"/>
@@ -38495,7 +38550,7 @@
       </c>
       <c r="AB97" s="64"/>
       <c r="AD97" s="65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AH97"/>
@@ -38529,11 +38584,11 @@
       <c r="J98" s="67"/>
       <c r="K98" s="67"/>
       <c r="L98" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M98" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O98" s="95"/>
@@ -38546,7 +38601,7 @@
       </c>
       <c r="AB98" s="64"/>
       <c r="AD98" s="65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AH98"/>
@@ -38580,11 +38635,11 @@
       <c r="J99" s="67"/>
       <c r="K99" s="67"/>
       <c r="L99" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="M99" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O99" s="95"/>
@@ -38629,11 +38684,11 @@
       <c r="J100" s="67"/>
       <c r="K100" s="67"/>
       <c r="L100" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="M100" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O100" s="95"/>
@@ -38678,11 +38733,11 @@
       <c r="J101" s="67"/>
       <c r="K101" s="67"/>
       <c r="L101" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="M101" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O101" s="95"/>
@@ -38729,11 +38784,11 @@
       <c r="J102" s="67"/>
       <c r="K102" s="67"/>
       <c r="L102" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="M102" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O102" s="95">
@@ -38777,11 +38832,11 @@
       <c r="J103" s="67"/>
       <c r="K103" s="67"/>
       <c r="L103" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="M103" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O103" s="95">
@@ -38796,7 +38851,7 @@
       </c>
       <c r="AB103" s="64"/>
       <c r="AD103" s="65" t="str">
-        <f t="shared" ref="AD103:AD108" si="15">IF(Q448="","",Q448)</f>
+        <f t="shared" ref="AD103:AD108" si="13">IF(Q448="","",Q448)</f>
         <v/>
       </c>
       <c r="AH103"/>
@@ -38830,11 +38885,11 @@
       <c r="J104" s="67"/>
       <c r="K104" s="67"/>
       <c r="L104" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="M104" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O104" s="95">
@@ -38849,7 +38904,7 @@
       </c>
       <c r="AB104" s="64"/>
       <c r="AD104" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH104"/>
@@ -38883,11 +38938,11 @@
       <c r="J105" s="67"/>
       <c r="K105" s="67"/>
       <c r="L105" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="M105" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O105" s="95">
@@ -38902,7 +38957,7 @@
       </c>
       <c r="AB105" s="64"/>
       <c r="AD105" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH105"/>
@@ -38936,11 +38991,11 @@
       <c r="J106" s="67"/>
       <c r="K106" s="67"/>
       <c r="L106" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M106" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O106" s="95">
@@ -38955,7 +39010,7 @@
       </c>
       <c r="AB106" s="64"/>
       <c r="AD106" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH106"/>
@@ -38989,11 +39044,11 @@
       <c r="J107" s="67"/>
       <c r="K107" s="67"/>
       <c r="L107" s="146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>TBD</v>
       </c>
       <c r="M107" s="103" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O107" s="95">
@@ -39008,7 +39063,7 @@
       </c>
       <c r="AB107" s="64"/>
       <c r="AD107" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH107"/>
@@ -39051,7 +39106,7 @@
       </c>
       <c r="AB108" s="64"/>
       <c r="AD108" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AH108"/>
@@ -39083,11 +39138,11 @@
       <c r="J109" s="67"/>
       <c r="K109" s="67"/>
       <c r="L109" s="146" t="str">
-        <f t="shared" ref="L109:L125" si="16">IF(O45="","TBD",IF(O45=1,"YES",IF(O45=3,"NA","")))</f>
+        <f>IF(O46="","TBD",IF(O46=1,"YES",IF(O46=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M109" s="103" t="str">
-        <f t="shared" ref="M109:M125" si="17">IF(O45=2,"NO","")</f>
+        <f>IF(O46=2,"NO","")</f>
         <v/>
       </c>
       <c r="O109" s="95"/>
@@ -39100,7 +39155,7 @@
       </c>
       <c r="AB109" s="64"/>
       <c r="AD109" s="65" t="str">
-        <f t="shared" ref="AD109:AD114" si="18">IF(R448="","",R448)</f>
+        <f t="shared" ref="AD109:AD114" si="14">IF(R448="","",R448)</f>
         <v/>
       </c>
       <c r="AH109"/>
@@ -39132,11 +39187,11 @@
       <c r="J110" s="67"/>
       <c r="K110" s="67"/>
       <c r="L110" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O47="","TBD",IF(O47=1,"YES",IF(O47=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M110" s="103" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O47=2,"NO","")</f>
         <v/>
       </c>
       <c r="O110" s="95"/>
@@ -39149,7 +39204,7 @@
       </c>
       <c r="AB110" s="64"/>
       <c r="AD110" s="65" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AH110"/>
@@ -39181,11 +39236,11 @@
       <c r="J111" s="67"/>
       <c r="K111" s="67"/>
       <c r="L111" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O48="","TBD",IF(O48=1,"YES",IF(O48=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M111" s="103" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O48=2,"NO","")</f>
         <v/>
       </c>
       <c r="O111" s="473"/>
@@ -39198,7 +39253,7 @@
       </c>
       <c r="AB111" s="64"/>
       <c r="AD111" s="65" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AH111"/>
@@ -39230,11 +39285,11 @@
       <c r="J112" s="67"/>
       <c r="K112" s="67"/>
       <c r="L112" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O49="","TBD",IF(O49=1,"YES",IF(O49=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M112" s="103" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O49=2,"NO","")</f>
         <v/>
       </c>
       <c r="O112" s="95"/>
@@ -39247,7 +39302,7 @@
       </c>
       <c r="AB112" s="64"/>
       <c r="AD112" s="65" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AH112"/>
@@ -39279,11 +39334,11 @@
       <c r="J113" s="67"/>
       <c r="K113" s="67"/>
       <c r="L113" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O50="","TBD",IF(O50=1,"YES",IF(O50=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M113" s="103" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O50=2,"NO","")</f>
         <v/>
       </c>
       <c r="O113" s="95"/>
@@ -39296,7 +39351,7 @@
       </c>
       <c r="AB113" s="64"/>
       <c r="AD113" s="65" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AH113"/>
@@ -39328,11 +39383,11 @@
       <c r="J114" s="67"/>
       <c r="K114" s="67"/>
       <c r="L114" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O51="","TBD",IF(O51=1,"YES",IF(O51=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M114" s="103" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O51=2,"NO","")</f>
         <v/>
       </c>
       <c r="O114" s="95"/>
@@ -39345,7 +39400,7 @@
       </c>
       <c r="AB114" s="64"/>
       <c r="AD114" s="65" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AH114"/>
@@ -39377,11 +39432,11 @@
       <c r="J115" s="67"/>
       <c r="K115" s="67"/>
       <c r="L115" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O52="","TBD",IF(O52=1,"YES",IF(O52=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M115" s="103" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O52=2,"NO","")</f>
         <v/>
       </c>
       <c r="O115" s="95"/>
@@ -39394,7 +39449,7 @@
       </c>
       <c r="AB115" s="64"/>
       <c r="AD115" s="65" t="str">
-        <f t="shared" ref="AD115:AD120" si="19">IF(S448="","",S448)</f>
+        <f t="shared" ref="AD115:AD120" si="15">IF(S448="","",S448)</f>
         <v/>
       </c>
       <c r="AH115"/>
@@ -39426,11 +39481,11 @@
       <c r="J116" s="67"/>
       <c r="K116" s="67"/>
       <c r="L116" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O53="","TBD",IF(O53=1,"YES",IF(O53=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M116" s="103" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O53=2,"NO","")</f>
         <v/>
       </c>
       <c r="O116" s="95"/>
@@ -39443,7 +39498,7 @@
       </c>
       <c r="AB116" s="64"/>
       <c r="AD116" s="65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH116"/>
@@ -39475,11 +39530,11 @@
       <c r="J117" s="67"/>
       <c r="K117" s="67"/>
       <c r="L117" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O54="","TBD",IF(O54=1,"YES",IF(O54=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M117" s="103" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O54=2,"NO","")</f>
         <v/>
       </c>
       <c r="O117" s="39"/>
@@ -39498,7 +39553,7 @@
       </c>
       <c r="AB117" s="64"/>
       <c r="AD117" s="65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH117"/>
@@ -39530,11 +39585,11 @@
       <c r="J118" s="67"/>
       <c r="K118" s="67"/>
       <c r="L118" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O55="","TBD",IF(O55=1,"YES",IF(O55=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M118" s="103" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O55=2,"NO","")</f>
         <v/>
       </c>
       <c r="AA118" s="34" t="s">
@@ -39542,7 +39597,7 @@
       </c>
       <c r="AB118" s="64"/>
       <c r="AD118" s="65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH118"/>
@@ -39574,11 +39629,11 @@
       <c r="J119" s="67"/>
       <c r="K119" s="67"/>
       <c r="L119" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O56="","TBD",IF(O56=1,"YES",IF(O56=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M119" s="103" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O56=2,"NO","")</f>
         <v/>
       </c>
       <c r="T119" s="255" t="s">
@@ -39589,7 +39644,7 @@
       </c>
       <c r="AB119" s="64"/>
       <c r="AD119" s="65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH119"/>
@@ -39621,11 +39676,11 @@
       <c r="J120" s="67"/>
       <c r="K120" s="67"/>
       <c r="L120" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O57="","TBD",IF(O57=1,"YES",IF(O57=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M120" s="103" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O57=2,"NO","")</f>
         <v/>
       </c>
       <c r="O120" s="61"/>
@@ -39644,7 +39699,7 @@
       </c>
       <c r="AB120" s="64"/>
       <c r="AD120" s="65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH120"/>
@@ -39676,31 +39731,31 @@
       <c r="J121" s="67"/>
       <c r="K121" s="67"/>
       <c r="L121" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O58="","TBD",IF(O58=1,"YES",IF(O58=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M121" s="103" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O58=2,"NO","")</f>
         <v/>
       </c>
       <c r="O121" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="P121" s="951" t="s">
+      <c r="P121" s="950" t="s">
         <v>63</v>
       </c>
-      <c r="Q121" s="952"/>
-      <c r="R121" s="953"/>
-      <c r="S121" s="951" t="s">
+      <c r="Q121" s="951"/>
+      <c r="R121" s="952"/>
+      <c r="S121" s="950" t="s">
         <v>510</v>
       </c>
-      <c r="T121" s="952"/>
-      <c r="U121" s="953"/>
-      <c r="V121" s="951" t="s">
+      <c r="T121" s="951"/>
+      <c r="U121" s="952"/>
+      <c r="V121" s="950" t="s">
         <v>65</v>
       </c>
-      <c r="W121" s="952"/>
-      <c r="X121" s="957"/>
+      <c r="W121" s="951"/>
+      <c r="X121" s="965"/>
       <c r="Y121" s="31"/>
       <c r="AA121" s="34" t="s">
         <v>196</v>
@@ -39739,25 +39794,25 @@
       <c r="J122" s="67"/>
       <c r="K122" s="67"/>
       <c r="L122" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O59="","TBD",IF(O59=1,"YES",IF(O59=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M122" s="103" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O59=2,"NO","")</f>
         <v/>
       </c>
       <c r="O122" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="P122" s="954"/>
-      <c r="Q122" s="955"/>
-      <c r="R122" s="956"/>
-      <c r="S122" s="954"/>
-      <c r="T122" s="955"/>
-      <c r="U122" s="956"/>
-      <c r="V122" s="954"/>
-      <c r="W122" s="955"/>
-      <c r="X122" s="958"/>
+      <c r="P122" s="953"/>
+      <c r="Q122" s="954"/>
+      <c r="R122" s="955"/>
+      <c r="S122" s="953"/>
+      <c r="T122" s="954"/>
+      <c r="U122" s="955"/>
+      <c r="V122" s="953"/>
+      <c r="W122" s="954"/>
+      <c r="X122" s="966"/>
       <c r="Y122" s="31"/>
       <c r="AA122" s="34" t="s">
         <v>197</v>
@@ -39796,11 +39851,11 @@
       <c r="J123" s="67"/>
       <c r="K123" s="67"/>
       <c r="L123" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O60="","TBD",IF(O60=1,"YES",IF(O60=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M123" s="103" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O60=2,"NO","")</f>
         <v/>
       </c>
       <c r="O123" s="83" t="s">
@@ -39866,11 +39921,11 @@
       <c r="J124" s="67"/>
       <c r="K124" s="67"/>
       <c r="L124" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O61="","TBD",IF(O61=1,"YES",IF(O61=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M124" s="103" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O61=2,"NO","")</f>
         <v/>
       </c>
       <c r="O124" s="87" t="s">
@@ -39950,11 +40005,11 @@
       <c r="J125" s="67"/>
       <c r="K125" s="67"/>
       <c r="L125" s="146" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(O62="","TBD",IF(O62=1,"YES",IF(O62=3,"NA","")))</f>
         <v>TBD</v>
       </c>
       <c r="M125" s="103" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(O62=2,"NO","")</f>
         <v/>
       </c>
       <c r="O125" s="92" t="s">
@@ -40244,21 +40299,21 @@
       <c r="O129" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="P129" s="951" t="s">
+      <c r="P129" s="950" t="s">
         <v>63</v>
       </c>
-      <c r="Q129" s="952"/>
-      <c r="R129" s="953"/>
-      <c r="S129" s="951" t="s">
+      <c r="Q129" s="951"/>
+      <c r="R129" s="952"/>
+      <c r="S129" s="950" t="s">
         <v>510</v>
       </c>
-      <c r="T129" s="952"/>
-      <c r="U129" s="953"/>
-      <c r="V129" s="959" t="s">
+      <c r="T129" s="951"/>
+      <c r="U129" s="952"/>
+      <c r="V129" s="956" t="s">
         <v>65</v>
       </c>
-      <c r="W129" s="960"/>
-      <c r="X129" s="961"/>
+      <c r="W129" s="957"/>
+      <c r="X129" s="958"/>
       <c r="Y129" s="31"/>
       <c r="AA129" s="34" t="s">
         <v>593</v>
@@ -40307,15 +40362,15 @@
       <c r="O130" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="P130" s="954"/>
-      <c r="Q130" s="955"/>
-      <c r="R130" s="956"/>
-      <c r="S130" s="954"/>
-      <c r="T130" s="955"/>
-      <c r="U130" s="956"/>
-      <c r="V130" s="962"/>
-      <c r="W130" s="938"/>
-      <c r="X130" s="963"/>
+      <c r="P130" s="953"/>
+      <c r="Q130" s="954"/>
+      <c r="R130" s="955"/>
+      <c r="S130" s="953"/>
+      <c r="T130" s="954"/>
+      <c r="U130" s="955"/>
+      <c r="V130" s="959"/>
+      <c r="W130" s="960"/>
+      <c r="X130" s="961"/>
       <c r="Y130" s="31"/>
       <c r="AA130" s="34" t="s">
         <v>594</v>
@@ -40564,7 +40619,7 @@
       <c r="J135" s="67"/>
       <c r="K135" s="67"/>
       <c r="L135" s="146" t="str">
-        <f>IF(O34=2,"NA",IF(V274="","TBD",IF(AND(V274="Pass",V275="Pass",V276="Pass"),"YES","")))</f>
+        <f>IF(O33=2,"NA",IF(V274="","TBD",IF(AND(V274="Pass",V275="Pass",V276="Pass"),"YES","")))</f>
         <v>TBD</v>
       </c>
       <c r="M135" s="103" t="str">
@@ -40604,7 +40659,7 @@
         <v>618</v>
       </c>
       <c r="L136" s="146" t="str">
-        <f>IF(O34=2,"NA",IF(V304="","TBD",IF(V304="Pass","YES","")))</f>
+        <f>IF(O33=2,"NA",IF(V304="","TBD",IF(V304="Pass","YES","")))</f>
         <v>TBD</v>
       </c>
       <c r="M136" s="103" t="str">
@@ -40647,7 +40702,7 @@
       <c r="J137" s="67"/>
       <c r="K137" s="67"/>
       <c r="L137" s="146" t="str">
-        <f>IF(O34=2,"NA",IF(R313="","TBD",IF(AND(R313="Pass",R314="Pass",R315="Pass"),"YES","")))</f>
+        <f>IF(O33=2,"NA",IF(R313="","TBD",IF(AND(R313="Pass",R314="Pass",R315="Pass"),"YES","")))</f>
         <v>TBD</v>
       </c>
       <c r="M137" s="103" t="str">
@@ -40683,7 +40738,7 @@
       <c r="J138" s="67"/>
       <c r="K138" s="67"/>
       <c r="L138" s="146" t="str">
-        <f>IF(O34=2,"NA",IF(G414="","TBD",IF(AND(G414="Pass",G415="Pass",G416="Pass"),"YES","")))</f>
+        <f>IF(O33=2,"NA",IF(G414="","TBD",IF(AND(G414="Pass",G415="Pass",G416="Pass"),"YES","")))</f>
         <v>TBD</v>
       </c>
       <c r="M138" s="103" t="str">
@@ -41018,7 +41073,7 @@
       </c>
       <c r="Q147" s="136"/>
       <c r="R147" s="138" t="str">
-        <f t="shared" ref="R147:R154" si="20">IF(Q147="","",ABS(Q147-P147))</f>
+        <f t="shared" ref="R147:R154" si="16">IF(Q147="","",ABS(Q147-P147))</f>
         <v/>
       </c>
       <c r="Y147" s="31"/>
@@ -41033,7 +41088,7 @@
       <c r="E148" s="160" t="s">
         <v>199</v>
       </c>
-      <c r="F148" s="865" t="str">
+      <c r="F148" s="864" t="str">
         <f>IF(R139="","",R139)</f>
         <v/>
       </c>
@@ -41055,7 +41110,7 @@
       </c>
       <c r="Q148" s="136"/>
       <c r="R148" s="138" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Y148" s="31"/>
@@ -41087,7 +41142,7 @@
       </c>
       <c r="Q149" s="136"/>
       <c r="R149" s="138" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="S149" s="34" t="s">
@@ -41125,7 +41180,7 @@
       </c>
       <c r="Q150" s="136"/>
       <c r="R150" s="138" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="S150" s="34" t="s">
@@ -41159,7 +41214,7 @@
       </c>
       <c r="Q151" s="136"/>
       <c r="R151" s="138" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Y151" s="31"/>
@@ -41190,7 +41245,7 @@
       </c>
       <c r="Q152" s="136"/>
       <c r="R152" s="138" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="T152" s="112" t="s">
@@ -41229,7 +41284,7 @@
       </c>
       <c r="Q153" s="136"/>
       <c r="R153" s="138" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U153" s="26" t="s">
@@ -41276,7 +41331,7 @@
       </c>
       <c r="Q154" s="136"/>
       <c r="R154" s="138" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Y154" s="31"/>
@@ -41294,11 +41349,11 @@
         <v>1</v>
       </c>
       <c r="D155" s="303" t="str">
-        <f t="shared" ref="D155:E162" si="21">IF(Q147="","",Q147)</f>
+        <f t="shared" ref="D155:E162" si="17">IF(Q147="","",Q147)</f>
         <v/>
       </c>
       <c r="E155" s="331" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="F155" s="67"/>
@@ -41330,11 +41385,11 @@
         <v>2</v>
       </c>
       <c r="D156" s="303" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E156" s="331" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="F156" s="67"/>
@@ -41374,11 +41429,11 @@
         <v>4</v>
       </c>
       <c r="D157" s="303" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E157" s="331" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="F157" s="67"/>
@@ -41411,11 +41466,11 @@
         <v>4</v>
       </c>
       <c r="D158" s="303" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E158" s="331" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="F158" s="67"/>
@@ -41443,11 +41498,11 @@
         <v>4</v>
       </c>
       <c r="D159" s="303" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E159" s="331" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="F159" s="67"/>
@@ -41472,11 +41527,11 @@
         <v>4</v>
       </c>
       <c r="D160" s="303" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E160" s="331" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="F160" s="3" t="s">
@@ -41510,11 +41565,11 @@
         <v>6</v>
       </c>
       <c r="D161" s="303" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E161" s="331" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="F161" s="144"/>
@@ -41546,11 +41601,11 @@
         <v>8</v>
       </c>
       <c r="D162" s="344" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E162" s="380" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="F162" s="67"/>
@@ -41634,15 +41689,15 @@
         <v>50</v>
       </c>
       <c r="D165" s="370" t="str">
-        <f t="shared" ref="D165:F167" si="22">IF(Q160="","",Q160)</f>
+        <f t="shared" ref="D165:F167" si="18">IF(Q160="","",Q160)</f>
         <v/>
       </c>
       <c r="E165" s="371" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F165" s="372" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G165" s="67"/>
@@ -41674,15 +41729,15 @@
         <v>52</v>
       </c>
       <c r="D166" s="373" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E166" s="15" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F166" s="374" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G166" s="67"/>
@@ -41714,15 +41769,15 @@
         <v>778</v>
       </c>
       <c r="D167" s="373" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E167" s="15" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F167" s="374" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G167" s="67"/>
@@ -41803,15 +41858,15 @@
         <v>171</v>
       </c>
       <c r="D169" s="373" t="str">
-        <f t="shared" ref="D169:F172" si="23">IF(Q163="","",Q163)</f>
+        <f t="shared" ref="D169:F172" si="19">IF(Q163="","",Q163)</f>
         <v/>
       </c>
       <c r="E169" s="15" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F169" s="374" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="G169" s="67"/>
@@ -41847,15 +41902,15 @@
         <v>216</v>
       </c>
       <c r="D170" s="373" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E170" s="15" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F170" s="374" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="G170" s="67"/>
@@ -41891,15 +41946,15 @@
         <v>217</v>
       </c>
       <c r="D171" s="373" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E171" s="15" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F171" s="374" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="G171" s="67"/>
@@ -41933,15 +41988,15 @@
         <v>215</v>
       </c>
       <c r="D172" s="375" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E172" s="376" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F172" s="377" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="G172" s="67"/>
@@ -41986,12 +42041,12 @@
       <c r="L173" s="67"/>
       <c r="M173" s="68"/>
       <c r="O173" s="29"/>
-      <c r="P173" s="942" t="s">
+      <c r="P173" s="962" t="s">
         <v>225</v>
       </c>
-      <c r="Q173" s="942"/>
-      <c r="R173" s="942"/>
-      <c r="S173" s="942"/>
+      <c r="Q173" s="962"/>
+      <c r="R173" s="962"/>
+      <c r="S173" s="962"/>
       <c r="U173" s="534" t="s">
         <v>226</v>
       </c>
@@ -42161,12 +42216,12 @@
       </c>
       <c r="B179" s="66"/>
       <c r="C179" s="67"/>
-      <c r="D179" s="942" t="s">
+      <c r="D179" s="962" t="s">
         <v>225</v>
       </c>
-      <c r="E179" s="942"/>
-      <c r="F179" s="942"/>
-      <c r="G179" s="942"/>
+      <c r="E179" s="962"/>
+      <c r="F179" s="962"/>
+      <c r="G179" s="962"/>
       <c r="H179" s="67"/>
       <c r="I179" s="534" t="s">
         <v>226</v>
@@ -42304,17 +42359,17 @@
       <c r="M182" s="68"/>
       <c r="O182" s="29"/>
       <c r="P182" s="67"/>
-      <c r="Q182" s="935" t="s">
+      <c r="Q182" s="940" t="s">
         <v>237</v>
       </c>
-      <c r="R182" s="935"/>
-      <c r="S182" s="935"/>
+      <c r="R182" s="940"/>
+      <c r="S182" s="940"/>
       <c r="T182" s="4"/>
-      <c r="U182" s="935" t="s">
+      <c r="U182" s="940" t="s">
         <v>237</v>
       </c>
-      <c r="V182" s="935"/>
-      <c r="W182" s="935"/>
+      <c r="V182" s="940"/>
+      <c r="W182" s="940"/>
       <c r="X182" s="4"/>
       <c r="Y182" s="31"/>
     </row>
@@ -42443,22 +42498,22 @@
       </c>
       <c r="B186" s="66"/>
       <c r="C186" s="106"/>
-      <c r="D186" s="939" t="s">
+      <c r="D186" s="974" t="s">
         <v>237</v>
       </c>
-      <c r="E186" s="940"/>
-      <c r="F186" s="941"/>
+      <c r="E186" s="975"/>
+      <c r="F186" s="976"/>
       <c r="G186" s="160"/>
-      <c r="H186" s="939" t="s">
+      <c r="H186" s="974" t="s">
         <v>237</v>
       </c>
-      <c r="I186" s="940"/>
-      <c r="J186" s="941"/>
-      <c r="K186" s="939" t="s">
+      <c r="I186" s="975"/>
+      <c r="J186" s="976"/>
+      <c r="K186" s="974" t="s">
         <v>237</v>
       </c>
-      <c r="L186" s="940"/>
-      <c r="M186" s="943"/>
+      <c r="L186" s="975"/>
+      <c r="M186" s="977"/>
       <c r="O186" s="159"/>
       <c r="P186" s="160" t="s">
         <v>243</v>
@@ -42533,38 +42588,38 @@
         <v/>
       </c>
       <c r="E188" s="303" t="str">
-        <f t="shared" ref="E188:F188" si="24">IF(R184="","",R184)</f>
+        <f t="shared" ref="E188:F188" si="20">IF(R184="","",R184)</f>
         <v/>
       </c>
       <c r="F188" s="342" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G188" s="340" t="s">
         <v>241</v>
       </c>
       <c r="H188" s="332" t="str">
-        <f t="shared" ref="H188:J193" si="25">IF(Q196="","",Q196)</f>
+        <f t="shared" ref="H188:J193" si="21">IF(Q196="","",Q196)</f>
         <v/>
       </c>
       <c r="I188" s="329" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J188" s="333" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K188" s="337" t="str">
-        <f t="shared" ref="K188:M193" si="26">IF(U196="","",U196)</f>
+        <f t="shared" ref="K188:M193" si="22">IF(U196="","",U196)</f>
         <v/>
       </c>
       <c r="L188" s="328" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="M188" s="479" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O188" s="159"/>
@@ -42606,42 +42661,42 @@
         <v>242</v>
       </c>
       <c r="D189" s="341" t="str">
-        <f t="shared" ref="D189:F193" si="27">IF(Q185="","",Q185)</f>
+        <f t="shared" ref="D189:F193" si="23">IF(Q185="","",Q185)</f>
         <v/>
       </c>
       <c r="E189" s="303" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F189" s="342" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G189" s="340" t="s">
         <v>242</v>
       </c>
       <c r="H189" s="332" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="I189" s="329" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J189" s="333" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K189" s="337" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="L189" s="328" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="M189" s="479" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O189" s="159"/>
@@ -42683,42 +42738,42 @@
         <v>243</v>
       </c>
       <c r="D190" s="341" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E190" s="303" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F190" s="342" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G190" s="340" t="s">
         <v>243</v>
       </c>
       <c r="H190" s="332" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="I190" s="329" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J190" s="333" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K190" s="337" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="L190" s="328" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="M190" s="479" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O190" s="29"/>
@@ -42741,42 +42796,42 @@
         <v>244</v>
       </c>
       <c r="D191" s="343" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E191" s="344" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F191" s="345" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G191" s="340" t="s">
         <v>244</v>
       </c>
       <c r="H191" s="334" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="I191" s="335" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J191" s="336" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K191" s="338" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="L191" s="339" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="M191" s="480" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O191" s="29"/>
@@ -42802,42 +42857,42 @@
         <v>245</v>
       </c>
       <c r="D192" s="351" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E192" s="352" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F192" s="353" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G192" s="340" t="s">
         <v>254</v>
       </c>
       <c r="H192" s="357" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="I192" s="358" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J192" s="359" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K192" s="354" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="L192" s="355" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="M192" s="481" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O192" s="29"/>
@@ -42860,42 +42915,42 @@
         <v>246</v>
       </c>
       <c r="D193" s="343" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E193" s="344" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F193" s="345" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G193" s="340" t="s">
         <v>255</v>
       </c>
       <c r="H193" s="334" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="I193" s="335" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J193" s="336" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K193" s="338" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="L193" s="339" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="M193" s="480" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O193" s="137" t="s">
@@ -42931,17 +42986,17 @@
       <c r="M194" s="68"/>
       <c r="O194" s="159"/>
       <c r="P194" s="67"/>
-      <c r="Q194" s="935" t="s">
+      <c r="Q194" s="940" t="s">
         <v>237</v>
       </c>
-      <c r="R194" s="935"/>
-      <c r="S194" s="935"/>
+      <c r="R194" s="940"/>
+      <c r="S194" s="940"/>
       <c r="T194" s="4"/>
-      <c r="U194" s="935" t="s">
+      <c r="U194" s="940" t="s">
         <v>237</v>
       </c>
-      <c r="V194" s="935"/>
-      <c r="W194" s="935"/>
+      <c r="V194" s="940"/>
+      <c r="W194" s="940"/>
       <c r="X194" s="4"/>
       <c r="Y194" s="31"/>
     </row>
@@ -42958,11 +43013,11 @@
         <v/>
       </c>
       <c r="E195" s="347" t="str">
-        <f t="shared" ref="E195:F200" si="28">IF(V184="","",V184)</f>
+        <f t="shared" ref="E195:F200" si="24">IF(V184="","",V184)</f>
         <v/>
       </c>
       <c r="F195" s="348" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="G195" s="67"/>
@@ -43010,15 +43065,15 @@
         <v>242</v>
       </c>
       <c r="D196" s="337" t="str">
-        <f t="shared" ref="D196:D200" si="29">IF(U185="","",U185)</f>
+        <f t="shared" ref="D196:D200" si="25">IF(U185="","",U185)</f>
         <v/>
       </c>
       <c r="E196" s="328" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F196" s="349" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="G196" s="67"/>
@@ -43056,15 +43111,15 @@
         <v>243</v>
       </c>
       <c r="D197" s="337" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E197" s="328" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F197" s="349" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="G197" s="3" t="s">
@@ -43097,15 +43152,15 @@
         <v>244</v>
       </c>
       <c r="D198" s="338" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E198" s="339" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F198" s="350" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="H198" s="190" t="s">
@@ -43135,15 +43190,15 @@
         <v>245</v>
       </c>
       <c r="D199" s="354" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E199" s="355" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F199" s="356" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="G199" s="363"/>
@@ -43178,15 +43233,15 @@
         <v>246</v>
       </c>
       <c r="D200" s="338" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E200" s="339" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F200" s="350" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="G200" s="3"/>
@@ -43251,7 +43306,7 @@
       <c r="E202" s="365"/>
       <c r="F202" s="365"/>
       <c r="G202" s="360"/>
-      <c r="H202" s="864" t="s">
+      <c r="H202" s="863" t="s">
         <v>777</v>
       </c>
       <c r="I202" s="365"/>
@@ -43305,11 +43360,11 @@
         <v>50</v>
       </c>
       <c r="D204" s="381" t="str">
-        <f t="shared" ref="D204:E207" si="30">IF(Q207="","",Q207)</f>
+        <f t="shared" ref="D204:E207" si="26">IF(Q207="","",Q207)</f>
         <v/>
       </c>
       <c r="E204" s="382" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F204" s="67"/>
@@ -43337,11 +43392,11 @@
         <v>171</v>
       </c>
       <c r="D205" s="383" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E205" s="384" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F205" s="67"/>
@@ -43378,11 +43433,11 @@
         <v>216</v>
       </c>
       <c r="D206" s="383" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E206" s="384" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F206" s="67"/>
@@ -43407,11 +43462,11 @@
         <v>260</v>
       </c>
       <c r="D207" s="385" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E207" s="386" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F207" s="67"/>
@@ -43959,27 +44014,27 @@
       </c>
       <c r="B223" s="66"/>
       <c r="C223" s="381">
-        <f t="shared" ref="C223:H225" si="31">IF(P218="","",P218)</f>
+        <f t="shared" ref="C223:H225" si="27">IF(P218="","",P218)</f>
         <v>2</v>
       </c>
       <c r="D223" s="387" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="E223" s="387" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="F223" s="387" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="G223" s="387" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H223" s="388" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="I223" s="326"/>
@@ -44004,27 +44059,27 @@
       </c>
       <c r="B224" s="66"/>
       <c r="C224" s="383">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="D224" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="E224" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="F224" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="G224" s="10" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H224" s="389" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="I224" s="326"/>
@@ -44056,27 +44111,27 @@
       </c>
       <c r="B225" s="66"/>
       <c r="C225" s="385">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
       <c r="D225" s="390" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="E225" s="674" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="F225" s="674" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="G225" s="674" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H225" s="675" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="I225" s="326"/>
@@ -44394,7 +44449,7 @@
         <v/>
       </c>
       <c r="V233" s="656" t="str">
-        <f t="shared" ref="V233:V236" si="32">IF($S$399="","",$S$399*P233)</f>
+        <f t="shared" ref="V233:V236" si="28">IF($S$399="","",$S$399*P233)</f>
         <v/>
       </c>
       <c r="X233" s="209" t="str">
@@ -44437,7 +44492,7 @@
         <v/>
       </c>
       <c r="V234" s="656" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="X234" s="209" t="str">
@@ -44482,7 +44537,7 @@
         <v/>
       </c>
       <c r="V235" s="656" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="X235" s="209" t="str">
@@ -44543,7 +44598,7 @@
         <v/>
       </c>
       <c r="V236" s="657" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="X236" s="209" t="str">
@@ -44563,39 +44618,39 @@
       <c r="B237" s="66"/>
       <c r="C237" s="67"/>
       <c r="D237" s="416" t="str">
-        <f t="shared" ref="D237:J244" si="33">IF(P232="","",P232)</f>
+        <f t="shared" ref="D237:J244" si="29">IF(P232="","",P232)</f>
         <v/>
       </c>
       <c r="E237" s="417" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F237" s="417" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G237" s="417" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H237" s="417" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I237" s="417" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="J237" s="418" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="K237" s="407" t="str">
-        <f t="shared" ref="K237:L243" si="34">IF(X232="","",X232)</f>
+        <f t="shared" ref="K237:L243" si="30">IF(X232="","",X232)</f>
         <v/>
       </c>
       <c r="L237" s="412" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="M237" s="68"/>
@@ -44603,31 +44658,31 @@
         <v>269</v>
       </c>
       <c r="P237" s="216" t="str">
-        <f t="shared" ref="P237:V237" si="35">IF(P232="","",AVERAGE(P232:P236))</f>
+        <f t="shared" ref="P237:V237" si="31">IF(P232="","",AVERAGE(P232:P236))</f>
         <v/>
       </c>
       <c r="Q237" s="207" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="R237" s="207" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="S237" s="207" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T237" s="207" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="U237" s="208" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="V237" s="217" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="W237" s="34" t="s">
@@ -44650,39 +44705,39 @@
       <c r="B238" s="66"/>
       <c r="C238" s="67"/>
       <c r="D238" s="394" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E238" s="392" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F238" s="392" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G238" s="392" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H238" s="392" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I238" s="392" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="J238" s="395" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="K238" s="407" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="L238" s="412" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="M238" s="68"/>
@@ -44694,27 +44749,27 @@
         <v/>
       </c>
       <c r="Q238" s="69" t="str">
-        <f t="shared" ref="Q238:V238" si="36">IF(Q232="","",STDEV(Q232:Q236))</f>
+        <f t="shared" ref="Q238:V238" si="32">IF(Q232="","",STDEV(Q232:Q236))</f>
         <v/>
       </c>
       <c r="R238" s="69" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="S238" s="69" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="T238" s="69" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U238" s="70" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="V238" s="220" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="X238" s="142" t="str">
@@ -44734,39 +44789,39 @@
       <c r="B239" s="66"/>
       <c r="C239" s="67"/>
       <c r="D239" s="394" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E239" s="392" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F239" s="392" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G239" s="392" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H239" s="392" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I239" s="392" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="J239" s="395" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="K239" s="407" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="L239" s="412" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="M239" s="68"/>
@@ -44774,31 +44829,31 @@
         <v>271</v>
       </c>
       <c r="P239" s="221" t="str">
-        <f t="shared" ref="P239:V239" si="37">IF(OR(P237="",P238=""),"",P238/P237)</f>
+        <f t="shared" ref="P239:V239" si="33">IF(OR(P237="",P238=""),"",P238/P237)</f>
         <v/>
       </c>
       <c r="Q239" s="222" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="R239" s="222" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="S239" s="222" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="T239" s="222" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U239" s="222" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="V239" s="223" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="X239" s="684"/>
@@ -44812,39 +44867,39 @@
       <c r="B240" s="66"/>
       <c r="C240" s="67"/>
       <c r="D240" s="394" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E240" s="392" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F240" s="392" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G240" s="392" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H240" s="392" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I240" s="392" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="J240" s="395" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="K240" s="407" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="L240" s="412" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="M240" s="68"/>
@@ -44872,39 +44927,39 @@
       <c r="B241" s="66"/>
       <c r="C241" s="67"/>
       <c r="D241" s="396" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E241" s="397" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F241" s="397" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G241" s="397" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H241" s="397" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I241" s="397" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="J241" s="398" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="K241" s="408" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="L241" s="424" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="M241" s="68"/>
@@ -44933,39 +44988,39 @@
         <v>269</v>
       </c>
       <c r="D242" s="399" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E242" s="400" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F242" s="400" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G242" s="400" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H242" s="400" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I242" s="400" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="J242" s="401" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="K242" s="409" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="L242" s="409" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="M242" s="68"/>
@@ -44992,39 +45047,39 @@
         <v>270</v>
       </c>
       <c r="D243" s="394" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E243" s="392" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F243" s="392" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G243" s="392" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H243" s="392" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I243" s="392" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="J243" s="395" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="K243" s="409" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="L243" s="409" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="M243" s="68"/>
@@ -45049,31 +45104,31 @@
         <v>271</v>
       </c>
       <c r="D244" s="402" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E244" s="403" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F244" s="403" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G244" s="403" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H244" s="403" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I244" s="403" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="J244" s="404" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="K244" s="67"/>
@@ -45124,19 +45179,19 @@
         <v>/</v>
       </c>
       <c r="R245" s="230" t="str">
-        <f t="shared" ref="R245:S245" si="38">R160&amp;"/"&amp;R161</f>
+        <f t="shared" ref="R245:S245" si="34">R160&amp;"/"&amp;R161</f>
         <v>/</v>
       </c>
       <c r="S245" s="230" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="34"/>
         <v>/</v>
       </c>
       <c r="T245" s="4"/>
-      <c r="U245" s="935" t="s">
+      <c r="U245" s="940" t="s">
         <v>293</v>
       </c>
-      <c r="V245" s="935"/>
-      <c r="W245" s="935"/>
+      <c r="V245" s="940"/>
+      <c r="W245" s="940"/>
       <c r="X245" s="4"/>
       <c r="Y245" s="231"/>
       <c r="Z245" s="535"/>
@@ -45171,11 +45226,11 @@
         <v/>
       </c>
       <c r="R246" s="10" t="str">
-        <f t="shared" ref="R246:S246" si="39">IF(R162="","",R162)</f>
+        <f t="shared" ref="R246:S246" si="35">IF(R162="","",R162)</f>
         <v/>
       </c>
       <c r="S246" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="T246" s="4"/>
@@ -45184,11 +45239,11 @@
         <v>/</v>
       </c>
       <c r="V246" s="230" t="str">
-        <f t="shared" ref="V246:W246" si="40">IF(R245="","",R245)</f>
+        <f t="shared" ref="V246:W246" si="36">IF(R245="","",R245)</f>
         <v>/</v>
       </c>
       <c r="W246" s="230" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>/</v>
       </c>
       <c r="X246" s="4"/>
@@ -45223,11 +45278,11 @@
         <v/>
       </c>
       <c r="R247" s="526" t="str">
-        <f t="shared" ref="R247:S247" si="41">IF(R163="","",R163)</f>
+        <f t="shared" ref="R247:S247" si="37">IF(R163="","",R163)</f>
         <v/>
       </c>
       <c r="S247" s="526" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T247" s="4"/>
@@ -45273,15 +45328,15 @@
       <c r="S248" s="664"/>
       <c r="T248" s="4"/>
       <c r="U248" s="179" t="str">
-        <f t="shared" ref="U248:U251" si="42">IF(Q249="","",ABS(Q249-Q$253)/Q$253)</f>
+        <f t="shared" ref="U248:U251" si="38">IF(Q249="","",ABS(Q249-Q$253)/Q$253)</f>
         <v/>
       </c>
       <c r="V248" s="179" t="str">
-        <f t="shared" ref="V248:V251" si="43">IF(R249="","",ABS(R249-R$253)/R$253)</f>
+        <f t="shared" ref="V248:V251" si="39">IF(R249="","",ABS(R249-R$253)/R$253)</f>
         <v/>
       </c>
       <c r="W248" s="179" t="str">
-        <f t="shared" ref="W248:W251" si="44">IF(S249="","",ABS(S249-S$253)/S$253)</f>
+        <f t="shared" ref="W248:W251" si="40">IF(S249="","",ABS(S249-S$253)/S$253)</f>
         <v/>
       </c>
       <c r="X248" s="4"/>
@@ -45314,15 +45369,15 @@
       <c r="S249" s="665"/>
       <c r="T249" s="4"/>
       <c r="U249" s="179" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="V249" s="179" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="W249" s="179" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="X249" s="4"/>
@@ -45337,23 +45392,23 @@
         <v>69</v>
       </c>
       <c r="D250" s="410" t="str">
-        <f t="shared" ref="D250:D251" si="45">IF(Q245="","",Q245)</f>
+        <f t="shared" ref="D250:D251" si="41">IF(Q245="","",Q245)</f>
         <v>/</v>
       </c>
       <c r="E250" s="410" t="str">
-        <f t="shared" ref="E250:E251" si="46">IF(R245="","",R245)</f>
+        <f t="shared" ref="E250:E251" si="42">IF(R245="","",R245)</f>
         <v>/</v>
       </c>
       <c r="F250" s="411" t="str">
-        <f t="shared" ref="F250:F251" si="47">IF(S245="","",S245)</f>
+        <f t="shared" ref="F250:F251" si="43">IF(S245="","",S245)</f>
         <v>/</v>
       </c>
       <c r="G250" s="67"/>
-      <c r="H250" s="939" t="s">
+      <c r="H250" s="974" t="s">
         <v>293</v>
       </c>
-      <c r="I250" s="940"/>
-      <c r="J250" s="941"/>
+      <c r="I250" s="975"/>
+      <c r="J250" s="976"/>
       <c r="K250" s="67"/>
       <c r="L250" s="67"/>
       <c r="M250" s="68"/>
@@ -45366,15 +45421,15 @@
       <c r="S250" s="665"/>
       <c r="T250" s="4"/>
       <c r="U250" s="179" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="V250" s="179" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="W250" s="179" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="X250" s="4"/>
@@ -45389,28 +45444,28 @@
         <v>266</v>
       </c>
       <c r="D251" s="289" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="E251" s="289" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="F251" s="331" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="G251" s="67"/>
       <c r="H251" s="330" t="str">
-        <f t="shared" ref="H251" si="48">IF(U246="","",U246)</f>
+        <f t="shared" ref="H251" si="44">IF(U246="","",U246)</f>
         <v>/</v>
       </c>
       <c r="I251" s="289" t="str">
-        <f t="shared" ref="I251" si="49">IF(V246="","",V246)</f>
+        <f t="shared" ref="I251" si="45">IF(V246="","",V246)</f>
         <v>/</v>
       </c>
       <c r="J251" s="331" t="str">
-        <f t="shared" ref="J251" si="50">IF(W246="","",W246)</f>
+        <f t="shared" ref="J251" si="46">IF(W246="","",W246)</f>
         <v>/</v>
       </c>
       <c r="K251" s="67"/>
@@ -45425,15 +45480,15 @@
       <c r="S251" s="665"/>
       <c r="T251" s="4"/>
       <c r="U251" s="179" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="V251" s="179" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="W251" s="179" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="X251" s="4"/>
@@ -45448,28 +45503,28 @@
         <v>70</v>
       </c>
       <c r="D252" s="289" t="str">
-        <f t="shared" ref="D252:D260" si="51">IF(Q247="","",Q247)</f>
+        <f t="shared" ref="D252:D260" si="47">IF(Q247="","",Q247)</f>
         <v/>
       </c>
       <c r="E252" s="289" t="str">
-        <f t="shared" ref="E252:E260" si="52">IF(R247="","",R247)</f>
+        <f t="shared" ref="E252:E260" si="48">IF(R247="","",R247)</f>
         <v/>
       </c>
       <c r="F252" s="331" t="str">
-        <f t="shared" ref="F252:F260" si="53">IF(S247="","",S247)</f>
+        <f t="shared" ref="F252:F260" si="49">IF(S247="","",S247)</f>
         <v/>
       </c>
       <c r="G252" s="67"/>
       <c r="H252" s="781" t="str">
-        <f t="shared" ref="H252:J256" si="54">IF(U247="","",U247)</f>
+        <f t="shared" ref="H252:J256" si="50">IF(U247="","",U247)</f>
         <v/>
       </c>
       <c r="I252" s="782" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="J252" s="783" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="K252" s="67"/>
@@ -45498,28 +45553,28 @@
         <v>294</v>
       </c>
       <c r="D253" s="392" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="E253" s="289" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="F253" s="331" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="G253" s="67"/>
       <c r="H253" s="781" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="I253" s="782" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="J253" s="783" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="K253" s="67"/>
@@ -45557,28 +45612,28 @@
         <v>296</v>
       </c>
       <c r="D254" s="392" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="E254" s="289" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="F254" s="331" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="G254" s="67"/>
       <c r="H254" s="781" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="I254" s="782" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="J254" s="783" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="K254" s="67"/>
@@ -45593,11 +45648,11 @@
         <v/>
       </c>
       <c r="R254" s="794" t="str">
-        <f t="shared" ref="R254:S254" si="55">IF(V247="","",MAX(V247:V251))</f>
+        <f t="shared" ref="R254:S254" si="51">IF(V247="","",MAX(V247:V251))</f>
         <v/>
       </c>
       <c r="S254" s="794" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="T254" s="4"/>
@@ -45616,28 +45671,28 @@
         <v>297</v>
       </c>
       <c r="D255" s="392" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="E255" s="289" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="F255" s="331" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="G255" s="67"/>
       <c r="H255" s="781" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="I255" s="782" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="J255" s="783" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="K255" s="67"/>
@@ -45649,11 +45704,11 @@
         <v/>
       </c>
       <c r="R255" s="2" t="str">
-        <f t="shared" ref="R255:S255" si="56">IF(R254="","",IF(R254&lt;=0.07,"Pass","Fail"))</f>
+        <f t="shared" ref="R255:S255" si="52">IF(R254="","",IF(R254&lt;=0.07,"Pass","Fail"))</f>
         <v/>
       </c>
       <c r="S255" s="2" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="T255" s="4"/>
@@ -45672,28 +45727,28 @@
         <v>299</v>
       </c>
       <c r="D256" s="392" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="E256" s="289" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="F256" s="331" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="G256" s="67"/>
       <c r="H256" s="784" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="I256" s="785" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="J256" s="786" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="K256" s="67"/>
@@ -45722,15 +45777,15 @@
         <v>303</v>
       </c>
       <c r="D257" s="392" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="E257" s="289" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="F257" s="331" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="G257" s="67"/>
@@ -45761,15 +45816,15 @@
         <v>305</v>
       </c>
       <c r="D258" s="392" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="E258" s="289" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="F258" s="331" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="G258" s="67"/>
@@ -45802,15 +45857,15 @@
         <v>307</v>
       </c>
       <c r="D259" s="403" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="E259" s="403" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="F259" s="404" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="G259" s="67"/>
@@ -45848,15 +45903,15 @@
       <c r="B260" s="66"/>
       <c r="C260" s="67"/>
       <c r="D260" s="369" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="E260" s="369" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="F260" s="369" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="G260" s="67"/>
@@ -46051,11 +46106,11 @@
       <c r="O264" s="184"/>
       <c r="P264" s="67"/>
       <c r="Q264" s="165">
-        <f t="shared" ref="Q264:Q266" si="57">P233</f>
+        <f t="shared" ref="Q264:Q266" si="53">P233</f>
         <v>0</v>
       </c>
       <c r="R264" s="165">
-        <f t="shared" ref="R264:R266" si="58">R233</f>
+        <f t="shared" ref="R264:R266" si="54">R233</f>
         <v>0</v>
       </c>
       <c r="S264" s="143"/>
@@ -46107,11 +46162,11 @@
       <c r="O265" s="184"/>
       <c r="P265" s="67"/>
       <c r="Q265" s="165">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R265" s="165">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="S265" s="143"/>
@@ -46157,11 +46212,11 @@
       <c r="O266" s="184"/>
       <c r="P266" s="67"/>
       <c r="Q266" s="165">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R266" s="165">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="S266" s="143"/>
@@ -46210,7 +46265,7 @@
         <v>302</v>
       </c>
       <c r="K267" s="139" t="e">
-        <f t="shared" ref="K267:K272" si="59">IF(X262="","",X262)</f>
+        <f t="shared" ref="K267:K272" si="55">IF(X262="","",X262)</f>
         <v>#N/A</v>
       </c>
       <c r="L267" s="67"/>
@@ -46256,23 +46311,23 @@
       <c r="B268" s="66"/>
       <c r="C268" s="67"/>
       <c r="D268" s="234">
-        <f t="shared" ref="D268:H273" si="60">IF(Q263="","",Q263)</f>
+        <f t="shared" ref="D268:H273" si="56">IF(Q263="","",Q263)</f>
         <v>0</v>
       </c>
       <c r="E268" s="528">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="F268" s="202" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="G268" s="235">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="H268" s="236" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I268" s="67"/>
@@ -46280,7 +46335,7 @@
         <v>304</v>
       </c>
       <c r="K268" s="140" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L268" s="67"/>
@@ -46321,23 +46376,23 @@
       <c r="B269" s="66"/>
       <c r="C269" s="67"/>
       <c r="D269" s="237">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="E269" s="105">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="F269" s="10" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="G269" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="H269" s="238" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I269" s="67"/>
@@ -46345,7 +46400,7 @@
         <v>306</v>
       </c>
       <c r="K269" s="239" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>#N/A</v>
       </c>
       <c r="L269" s="67"/>
@@ -46378,23 +46433,23 @@
       <c r="B270" s="66"/>
       <c r="C270" s="67"/>
       <c r="D270" s="237">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="E270" s="105">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="F270" s="10" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="G270" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="H270" s="238" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I270" s="67"/>
@@ -46402,7 +46457,7 @@
         <v>308</v>
       </c>
       <c r="K270" s="140" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L270" s="67"/>
@@ -46433,23 +46488,23 @@
       <c r="B271" s="66"/>
       <c r="C271" s="67"/>
       <c r="D271" s="240">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="E271" s="529">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="F271" s="205" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="G271" s="241">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="H271" s="242" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I271" s="67"/>
@@ -46457,7 +46512,7 @@
         <v>309</v>
       </c>
       <c r="K271" s="140" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="L271" s="67"/>
@@ -46486,23 +46541,23 @@
         <v>269</v>
       </c>
       <c r="D272" s="237">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="E272" s="105">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="F272" s="11" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="G272" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="H272" s="238" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I272" s="67"/>
@@ -46510,7 +46565,7 @@
         <v>311</v>
       </c>
       <c r="K272" s="243" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L272" s="67"/>
@@ -46550,23 +46605,23 @@
         <v>271</v>
       </c>
       <c r="D273" s="188" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E273" s="182" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F273" s="182" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="G273" s="182" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H273" s="183" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I273" s="67"/>
@@ -46900,11 +46955,11 @@
         <v>26</v>
       </c>
       <c r="E279" s="289" t="str">
-        <f t="shared" ref="E279:F281" si="61">IF(R274="","",R274)</f>
+        <f t="shared" ref="E279:F281" si="57">IF(R274="","",R274)</f>
         <v/>
       </c>
       <c r="F279" s="289" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="G279" s="392">
@@ -46964,15 +47019,15 @@
         <v>28</v>
       </c>
       <c r="E280" s="289" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="F280" s="289" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="G280" s="392">
-        <f t="shared" ref="G280:G281" si="62">IF(U275="","",U275)</f>
+        <f t="shared" ref="G280:G281" si="58">IF(U275="","",U275)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="H280" s="331" t="str">
@@ -47037,15 +47092,15 @@
         <v>30</v>
       </c>
       <c r="E281" s="429" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="F281" s="429" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="G281" s="618">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>4.7</v>
       </c>
       <c r="H281" s="380" t="str">
@@ -47331,23 +47386,23 @@
         <v>269</v>
       </c>
       <c r="Q286" s="69" t="str">
-        <f t="shared" ref="Q286:U286" si="63">IF(OR(Q282="",Q283="",Q284="",Q285=""),"",AVERAGE(Q282:Q285))</f>
+        <f t="shared" ref="Q286:U286" si="59">IF(OR(Q282="",Q283="",Q284="",Q285=""),"",AVERAGE(Q282:Q285))</f>
         <v/>
       </c>
       <c r="R286" s="252" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="S286" s="70" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="T286" s="253" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U286" s="295" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="V286" s="693"/>
@@ -47402,23 +47457,23 @@
         <v>271</v>
       </c>
       <c r="Q287" s="247" t="str">
-        <f t="shared" ref="Q287:U287" si="64">IF(Q286="","",_xlfn.STDEV.S(Q282:Q285)/Q286)</f>
+        <f t="shared" ref="Q287:U287" si="60">IF(Q286="","",_xlfn.STDEV.S(Q282:Q285)/Q286)</f>
         <v/>
       </c>
       <c r="R287" s="247" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="S287" s="247" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="T287" s="247" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="U287" s="247" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="V287" s="694"/>
@@ -47593,11 +47648,11 @@
       <c r="H291" s="263" t="s">
         <v>328</v>
       </c>
-      <c r="I291" s="936" t="str">
+      <c r="I291" s="972" t="str">
         <f>IF(S367="","",S367)</f>
         <v/>
       </c>
-      <c r="J291" s="936"/>
+      <c r="J291" s="972"/>
       <c r="K291" s="58"/>
       <c r="L291" s="58"/>
       <c r="M291" s="60"/>
@@ -47644,11 +47699,11 @@
       <c r="H292" s="160" t="s">
         <v>330</v>
       </c>
-      <c r="I292" s="937" t="str">
+      <c r="I292" s="973" t="str">
         <f>IF(S368="","",S368)</f>
         <v/>
       </c>
-      <c r="J292" s="937"/>
+      <c r="J292" s="973"/>
       <c r="K292" s="4"/>
       <c r="M292" s="68"/>
       <c r="O292" s="447"/>
@@ -47748,11 +47803,11 @@
       </c>
       <c r="B294" s="66"/>
       <c r="C294" s="160"/>
-      <c r="F294" s="935" t="s">
+      <c r="F294" s="940" t="s">
         <v>331</v>
       </c>
-      <c r="G294" s="935"/>
-      <c r="H294" s="935"/>
+      <c r="G294" s="940"/>
+      <c r="H294" s="940"/>
       <c r="I294" s="535"/>
       <c r="J294" s="535"/>
       <c r="K294" s="106"/>
@@ -47865,40 +47920,40 @@
         <v>8</v>
       </c>
       <c r="B296" s="66"/>
-      <c r="C296" s="967" t="str">
+      <c r="C296" s="934" t="str">
         <f>P371</f>
         <v>/</v>
       </c>
       <c r="D296" s="410">
-        <f t="shared" ref="D296:K301" si="65">IF(Q371="","",Q371)</f>
+        <f t="shared" ref="D296:K301" si="61">IF(Q371="","",Q371)</f>
         <v>24</v>
       </c>
       <c r="E296" s="410">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>50</v>
       </c>
       <c r="F296" s="426" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="G296" s="426" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="H296" s="426" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="I296" s="427" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="J296" s="426" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="K296" s="428" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="M296" s="68"/>
@@ -47942,37 +47997,37 @@
         <v>9</v>
       </c>
       <c r="B297" s="66"/>
-      <c r="C297" s="968"/>
+      <c r="C297" s="935"/>
       <c r="D297" s="289">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>25</v>
       </c>
       <c r="E297" s="289">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>50</v>
       </c>
       <c r="F297" s="296" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="G297" s="296" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="H297" s="296" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="I297" s="290" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="J297" s="296" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="K297" s="412" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="M297" s="68"/>
@@ -47981,11 +48036,11 @@
         <v>269</v>
       </c>
       <c r="Q297" s="69" t="str">
-        <f t="shared" ref="Q297:U297" si="66">IF(OR(Q293="",Q294="",Q295="",Q296=""),"",AVERAGE(Q293:Q296))</f>
+        <f t="shared" ref="Q297:U297" si="62">IF(OR(Q293="",Q294="",Q295="",Q296=""),"",AVERAGE(Q293:Q296))</f>
         <v/>
       </c>
       <c r="R297" s="252" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="S297" s="70" t="str">
@@ -47993,11 +48048,11 @@
         <v/>
       </c>
       <c r="T297" s="253" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U297" s="295" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="V297" s="693"/>
@@ -48027,37 +48082,37 @@
         <v>10</v>
       </c>
       <c r="B298" s="66"/>
-      <c r="C298" s="968"/>
+      <c r="C298" s="935"/>
       <c r="D298" s="289">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>26</v>
       </c>
       <c r="E298" s="289">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>50</v>
       </c>
       <c r="F298" s="296" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="G298" s="296" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="H298" s="296" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="I298" s="290" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="J298" s="296" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="K298" s="412" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="M298" s="68"/>
@@ -48066,23 +48121,23 @@
         <v>271</v>
       </c>
       <c r="Q298" s="247" t="str">
-        <f t="shared" ref="Q298:U298" si="67">IF(Q297="","",_xlfn.STDEV.S(Q293:Q296)/Q297)</f>
+        <f t="shared" ref="Q298:U298" si="63">IF(Q297="","",_xlfn.STDEV.S(Q293:Q296)/Q297)</f>
         <v/>
       </c>
       <c r="R298" s="247" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="S298" s="247" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="T298" s="247" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U298" s="247" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="V298" s="694"/>
@@ -48107,37 +48162,37 @@
         <v>11</v>
       </c>
       <c r="B299" s="66"/>
-      <c r="C299" s="968"/>
+      <c r="C299" s="935"/>
       <c r="D299" s="289">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>28</v>
       </c>
       <c r="E299" s="289">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>50</v>
       </c>
       <c r="F299" s="296" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="G299" s="296" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="H299" s="296" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="I299" s="290" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="J299" s="296" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="K299" s="412" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="M299" s="68"/>
@@ -48179,37 +48234,37 @@
         <v>12</v>
       </c>
       <c r="B300" s="66"/>
-      <c r="C300" s="968"/>
+      <c r="C300" s="935"/>
       <c r="D300" s="289">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>30</v>
       </c>
       <c r="E300" s="289">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>50</v>
       </c>
       <c r="F300" s="296" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="G300" s="296" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="H300" s="296" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="I300" s="290" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="J300" s="296" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="K300" s="412" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="M300" s="68"/>
@@ -48249,37 +48304,37 @@
         <v>13</v>
       </c>
       <c r="B301" s="66"/>
-      <c r="C301" s="968"/>
+      <c r="C301" s="935"/>
       <c r="D301" s="289">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>32</v>
       </c>
       <c r="E301" s="289">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>50</v>
       </c>
       <c r="F301" s="296" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="G301" s="296" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="H301" s="296" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="I301" s="290" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="J301" s="296" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="K301" s="412" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="M301" s="68"/>
@@ -48312,37 +48367,37 @@
         <v>14</v>
       </c>
       <c r="B302" s="66"/>
-      <c r="C302" s="969"/>
+      <c r="C302" s="936"/>
       <c r="D302" s="419">
-        <f t="shared" ref="D302" si="68">IF(Q377="","",Q377)</f>
+        <f t="shared" ref="D302" si="64">IF(Q377="","",Q377)</f>
         <v>34</v>
       </c>
       <c r="E302" s="419">
-        <f t="shared" ref="E302" si="69">IF(R377="","",R377)</f>
+        <f t="shared" ref="E302" si="65">IF(R377="","",R377)</f>
         <v>50</v>
       </c>
-      <c r="F302" s="867" t="str">
-        <f t="shared" ref="F302" si="70">IF(S377="","",S377)</f>
-        <v/>
-      </c>
-      <c r="G302" s="867" t="str">
-        <f t="shared" ref="G302" si="71">IF(T377="","",T377)</f>
-        <v/>
-      </c>
-      <c r="H302" s="867" t="str">
-        <f t="shared" ref="H302" si="72">IF(U377="","",U377)</f>
-        <v/>
-      </c>
-      <c r="I302" s="868" t="str">
-        <f t="shared" ref="I302" si="73">IF(V377="","",V377)</f>
-        <v/>
-      </c>
-      <c r="J302" s="867" t="str">
-        <f t="shared" ref="J302" si="74">IF(W377="","",W377)</f>
-        <v/>
-      </c>
-      <c r="K302" s="869" t="str">
-        <f t="shared" ref="K302" si="75">IF(X377="","",X377)</f>
+      <c r="F302" s="866" t="str">
+        <f t="shared" ref="F302" si="66">IF(S377="","",S377)</f>
+        <v/>
+      </c>
+      <c r="G302" s="866" t="str">
+        <f t="shared" ref="G302" si="67">IF(T377="","",T377)</f>
+        <v/>
+      </c>
+      <c r="H302" s="866" t="str">
+        <f t="shared" ref="H302" si="68">IF(U377="","",U377)</f>
+        <v/>
+      </c>
+      <c r="I302" s="867" t="str">
+        <f t="shared" ref="I302" si="69">IF(V377="","",V377)</f>
+        <v/>
+      </c>
+      <c r="J302" s="866" t="str">
+        <f t="shared" ref="J302" si="70">IF(W377="","",W377)</f>
+        <v/>
+      </c>
+      <c r="K302" s="868" t="str">
+        <f t="shared" ref="K302" si="71">IF(X377="","",X377)</f>
         <v/>
       </c>
       <c r="L302" s="369" t="str">
@@ -48383,40 +48438,40 @@
         <v>15</v>
       </c>
       <c r="B303" s="66"/>
-      <c r="C303" s="970" t="str">
+      <c r="C303" s="937" t="str">
         <f>P378</f>
         <v>/</v>
       </c>
       <c r="D303" s="410">
-        <f t="shared" ref="D303:K307" si="76">IF(Q378="","",Q378)</f>
+        <f t="shared" ref="D303:K307" si="72">IF(Q378="","",Q378)</f>
         <v>28</v>
       </c>
       <c r="E303" s="410">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>50</v>
       </c>
       <c r="F303" s="426" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="G303" s="426" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="H303" s="426" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="I303" s="427" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="J303" s="426" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="K303" s="428" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="M303" s="68"/>
@@ -48457,37 +48512,37 @@
         <v>16</v>
       </c>
       <c r="B304" s="66"/>
-      <c r="C304" s="971"/>
+      <c r="C304" s="938"/>
       <c r="D304" s="289">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>30</v>
       </c>
       <c r="E304" s="289">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>50</v>
       </c>
       <c r="F304" s="296" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="G304" s="296" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="H304" s="296" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="I304" s="290" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="J304" s="296" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="K304" s="412" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="M304" s="68"/>
@@ -48539,37 +48594,37 @@
         <v>17</v>
       </c>
       <c r="B305" s="66"/>
-      <c r="C305" s="971"/>
+      <c r="C305" s="938"/>
       <c r="D305" s="289">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>32</v>
       </c>
       <c r="E305" s="289">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>50</v>
       </c>
       <c r="F305" s="296" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="G305" s="296" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="H305" s="296" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="I305" s="290" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="J305" s="296" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="K305" s="412" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="M305" s="68"/>
@@ -48616,37 +48671,37 @@
         <v>18</v>
       </c>
       <c r="B306" s="66"/>
-      <c r="C306" s="971"/>
+      <c r="C306" s="938"/>
       <c r="D306" s="289">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>34</v>
       </c>
       <c r="E306" s="289">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>50</v>
       </c>
       <c r="F306" s="296" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="G306" s="296" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="H306" s="296" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="I306" s="290" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="J306" s="296" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="K306" s="412" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="M306" s="68"/>
@@ -48689,37 +48744,37 @@
         <v>19</v>
       </c>
       <c r="B307" s="66"/>
-      <c r="C307" s="972"/>
+      <c r="C307" s="939"/>
       <c r="D307" s="429">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>36</v>
       </c>
       <c r="E307" s="429">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>50</v>
       </c>
       <c r="F307" s="430" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="G307" s="430" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="H307" s="430" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="I307" s="431" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="J307" s="430" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="K307" s="404" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="L307" s="369" t="str">
@@ -48760,40 +48815,40 @@
         <v>20</v>
       </c>
       <c r="B308" s="66"/>
-      <c r="C308" s="970" t="str">
+      <c r="C308" s="937" t="str">
         <f>P384</f>
         <v>/</v>
       </c>
       <c r="D308" s="406">
-        <f t="shared" ref="D308:K312" si="77">IF(Q384="","",Q384)</f>
+        <f t="shared" ref="D308:K312" si="73">IF(Q384="","",Q384)</f>
         <v>28</v>
       </c>
       <c r="E308" s="406">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>50</v>
       </c>
       <c r="F308" s="432" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="G308" s="432" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="H308" s="432" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="I308" s="433" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J308" s="432" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="K308" s="434" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="M308" s="68"/>
@@ -48824,37 +48879,37 @@
         <v>21</v>
       </c>
       <c r="B309" s="66"/>
-      <c r="C309" s="971"/>
+      <c r="C309" s="938"/>
       <c r="D309" s="289">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>30</v>
       </c>
       <c r="E309" s="289">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>50</v>
       </c>
       <c r="F309" s="296" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="G309" s="296" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="H309" s="296" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="I309" s="290" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J309" s="296" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="K309" s="412" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="M309" s="68"/>
@@ -48889,37 +48944,37 @@
         <v>22</v>
       </c>
       <c r="B310" s="66"/>
-      <c r="C310" s="971"/>
+      <c r="C310" s="938"/>
       <c r="D310" s="289">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>32</v>
       </c>
       <c r="E310" s="289">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>50</v>
       </c>
       <c r="F310" s="296" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="G310" s="296" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="H310" s="296" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="I310" s="290" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J310" s="296" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="K310" s="412" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="M310" s="68"/>
@@ -48958,37 +49013,37 @@
         <v>23</v>
       </c>
       <c r="B311" s="66"/>
-      <c r="C311" s="971"/>
+      <c r="C311" s="938"/>
       <c r="D311" s="289">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>34</v>
       </c>
       <c r="E311" s="289">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>50</v>
       </c>
       <c r="F311" s="296" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="G311" s="296" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="H311" s="296" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="I311" s="290" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J311" s="296" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="K311" s="412" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="M311" s="68"/>
@@ -49027,37 +49082,37 @@
         <v>24</v>
       </c>
       <c r="B312" s="66"/>
-      <c r="C312" s="972"/>
+      <c r="C312" s="939"/>
       <c r="D312" s="429">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>38</v>
       </c>
       <c r="E312" s="429">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>50</v>
       </c>
       <c r="F312" s="430" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="G312" s="430" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="H312" s="430" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="I312" s="431" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J312" s="430" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="K312" s="404" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="L312" s="369" t="str">
@@ -50355,43 +50410,43 @@
       <c r="B346" s="66"/>
       <c r="C346" s="106"/>
       <c r="D346" s="441" t="str">
-        <f t="shared" ref="D346:M351" si="78">IF(P395="","",P395)</f>
+        <f t="shared" ref="D346:M351" si="74">IF(P395="","",P395)</f>
         <v/>
       </c>
       <c r="E346" s="432" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="F346" s="432" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="G346" s="433" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="H346" s="443" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="I346" s="446" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="J346" s="426" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="K346" s="426" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="L346" s="427" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="M346" s="459" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="O346" s="640" t="s">
@@ -50433,43 +50488,43 @@
       <c r="B347" s="66"/>
       <c r="C347" s="106"/>
       <c r="D347" s="438" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="E347" s="296" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="F347" s="296" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="G347" s="290" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="H347" s="444" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="I347" s="438" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="J347" s="296" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="K347" s="296" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="L347" s="290" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="M347" s="460" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="O347" s="640" t="s">
@@ -50520,43 +50575,43 @@
       <c r="B348" s="66"/>
       <c r="C348" s="106"/>
       <c r="D348" s="438" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="E348" s="296" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="F348" s="296" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="G348" s="290" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="H348" s="444" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="I348" s="438" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="J348" s="296" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="K348" s="296" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="L348" s="290" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="M348" s="460" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="O348" s="641" t="s">
@@ -50607,43 +50662,43 @@
       <c r="B349" s="66"/>
       <c r="C349" s="106"/>
       <c r="D349" s="440" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="E349" s="430" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="F349" s="430" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="G349" s="431" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="H349" s="445" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="I349" s="440" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="J349" s="430" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="K349" s="430" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="L349" s="431" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="M349" s="461" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="O349" s="29"/>
@@ -50691,43 +50746,43 @@
         <v>207</v>
       </c>
       <c r="D350" s="441" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="E350" s="432" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="F350" s="432" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="G350" s="433" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="H350" s="443" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="I350" s="441" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="J350" s="432" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="K350" s="432" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="L350" s="433" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="M350" s="462" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="O350" s="29"/>
@@ -50775,43 +50830,43 @@
         <v>338</v>
       </c>
       <c r="D351" s="438" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="E351" s="296" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="F351" s="296" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="G351" s="290" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="H351" s="444" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="I351" s="438" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="J351" s="296" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="K351" s="296" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="L351" s="290" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="M351" s="460" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="O351" s="29" t="s">
@@ -51202,7 +51257,7 @@
         <v/>
       </c>
       <c r="Q360" s="380" t="str">
-        <f t="shared" ref="Q360" si="79">IF(OR(Q357="",Q358="",Q359=""),"",IF(AND(Q357&gt;=4,Q358&gt;=3,Q359&gt;=3),"Pass","Fail"))</f>
+        <f t="shared" ref="Q360" si="75">IF(OR(Q357="",Q358="",Q359=""),"",IF(AND(Q357&gt;=4,Q358&gt;=3,Q359&gt;=3),"Pass","Fail"))</f>
         <v/>
       </c>
       <c r="R360"/>
@@ -51434,23 +51489,23 @@
       </c>
       <c r="B367" s="66"/>
       <c r="C367" s="10">
-        <f t="shared" ref="C367:D370" si="80">IF(P409="","",P409)</f>
+        <f t="shared" ref="C367:D370" si="76">IF(P409="","",P409)</f>
         <v>20</v>
       </c>
       <c r="D367" s="11" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="E367" s="11" t="str">
-        <f t="shared" ref="E367:G370" si="81">IF(S409="","",S409)</f>
+        <f t="shared" ref="E367:G370" si="77">IF(S409="","",S409)</f>
         <v/>
       </c>
       <c r="F367" s="12" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="G367" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="H367" s="67"/>
@@ -51482,23 +51537,23 @@
       </c>
       <c r="B368" s="66"/>
       <c r="C368" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>50</v>
       </c>
       <c r="D368" s="11" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="E368" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="F368" s="12" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="G368" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="H368" s="67"/>
@@ -51506,7 +51561,7 @@
         <f>IF(O416=3,"NA",IF(O416=2,"Fail",IF(O416=1,"Pass","NA")))</f>
         <v>NA</v>
       </c>
-      <c r="J368" s="866" t="s">
+      <c r="J368" s="865" t="s">
         <v>781</v>
       </c>
       <c r="K368" s="67"/>
@@ -51528,23 +51583,23 @@
       </c>
       <c r="B369" s="66"/>
       <c r="C369" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>100</v>
       </c>
       <c r="D369" s="11" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="E369" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="F369" s="12" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="G369" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="H369" s="67"/>
@@ -51554,13 +51609,13 @@
       <c r="L369" s="67"/>
       <c r="M369" s="68"/>
       <c r="O369" s="29"/>
-      <c r="S369" s="935" t="s">
+      <c r="S369" s="940" t="s">
         <v>331</v>
       </c>
-      <c r="T369" s="935"/>
-      <c r="U369" s="935"/>
-      <c r="V369" s="935"/>
-      <c r="W369" s="935"/>
+      <c r="T369" s="940"/>
+      <c r="U369" s="940"/>
+      <c r="V369" s="940"/>
+      <c r="W369" s="940"/>
       <c r="Y369" s="31"/>
     </row>
     <row r="370" spans="1:25" ht="14.1" customHeight="1" thickBot="1">
@@ -51569,23 +51624,23 @@
       </c>
       <c r="B370" s="66"/>
       <c r="C370" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>320</v>
       </c>
       <c r="D370" s="11" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="E370" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="F370" s="12" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="G370" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="H370" s="67"/>
@@ -51646,7 +51701,7 @@
       <c r="L371" s="67"/>
       <c r="M371" s="68"/>
       <c r="O371" s="29"/>
-      <c r="P371" s="964" t="str">
+      <c r="P371" s="947" t="str">
         <f>AK10&amp;"/"&amp;AL10</f>
         <v>/</v>
       </c>
@@ -51705,7 +51760,7 @@
       <c r="L372" s="67"/>
       <c r="M372" s="68"/>
       <c r="O372" s="29"/>
-      <c r="P372" s="965"/>
+      <c r="P372" s="948"/>
       <c r="Q372" s="301">
         <f>AH12</f>
         <v>25</v>
@@ -51727,15 +51782,15 @@
         <v/>
       </c>
       <c r="V372" s="12" t="str">
-        <f t="shared" ref="V372:V376" si="82">IF(U372="","",U372/R372)</f>
+        <f t="shared" ref="V372:V376" si="78">IF(U372="","",U372/R372)</f>
         <v/>
       </c>
       <c r="W372" s="11" t="str">
-        <f t="shared" ref="W372:W376" si="83">IF(U372="","",U372/(T372/1000))</f>
+        <f t="shared" ref="W372:W376" si="79">IF(U372="","",U372/(T372/1000))</f>
         <v/>
       </c>
       <c r="X372" s="14" t="str">
-        <f t="shared" ref="X372:X376" si="84">IF(S372="","",(S372-Q372)/Q372)</f>
+        <f t="shared" ref="X372:X376" si="80">IF(S372="","",(S372-Q372)/Q372)</f>
         <v/>
       </c>
       <c r="Y372" s="31"/>
@@ -51759,7 +51814,7 @@
       <c r="L373" s="67"/>
       <c r="M373" s="68"/>
       <c r="O373" s="29"/>
-      <c r="P373" s="965"/>
+      <c r="P373" s="948"/>
       <c r="Q373" s="300">
         <f>AH14</f>
         <v>26</v>
@@ -51781,15 +51836,15 @@
         <v/>
       </c>
       <c r="V373" s="12" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="W373" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="X373" s="14" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="Y373" s="31"/>
@@ -51803,15 +51858,15 @@
         <v>69</v>
       </c>
       <c r="D374" s="652" t="str">
-        <f t="shared" ref="D374:F375" si="85">IF(Q418="","",Q418)</f>
+        <f t="shared" ref="D374:F375" si="81">IF(Q418="","",Q418)</f>
         <v>/</v>
       </c>
       <c r="E374" s="652" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>/</v>
       </c>
       <c r="F374" s="653" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>/</v>
       </c>
       <c r="G374"/>
@@ -51822,7 +51877,7 @@
       <c r="L374"/>
       <c r="M374" s="68"/>
       <c r="O374" s="29"/>
-      <c r="P374" s="965"/>
+      <c r="P374" s="948"/>
       <c r="Q374" s="300">
         <f>AH16</f>
         <v>28</v>
@@ -51844,15 +51899,15 @@
         <v/>
       </c>
       <c r="V374" s="12" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="W374" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="X374" s="14" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="Y374" s="31"/>
@@ -51866,15 +51921,15 @@
         <v>24</v>
       </c>
       <c r="D375" s="328">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>28</v>
       </c>
       <c r="E375" s="328">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>28</v>
       </c>
       <c r="F375" s="349">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>28</v>
       </c>
       <c r="G375"/>
@@ -51885,7 +51940,7 @@
       <c r="L375"/>
       <c r="M375" s="68"/>
       <c r="O375" s="29"/>
-      <c r="P375" s="965"/>
+      <c r="P375" s="948"/>
       <c r="Q375" s="300">
         <f>AH22</f>
         <v>30</v>
@@ -51907,15 +51962,15 @@
         <v/>
       </c>
       <c r="V375" s="12" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="W375" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="X375" s="14" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="Y375" s="31"/>
@@ -51929,15 +51984,15 @@
         <v>424</v>
       </c>
       <c r="D376" s="296" t="str">
-        <f t="shared" ref="D376:F377" si="86">IF(Q423="","",Q423)</f>
+        <f t="shared" ref="D376:F377" si="82">IF(Q423="","",Q423)</f>
         <v/>
       </c>
       <c r="E376" s="296" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="F376" s="439" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="G376"/>
@@ -51948,7 +52003,7 @@
       <c r="L376"/>
       <c r="M376" s="68"/>
       <c r="O376" s="29"/>
-      <c r="P376" s="965"/>
+      <c r="P376" s="948"/>
       <c r="Q376" s="300">
         <f>AH23</f>
         <v>32</v>
@@ -51970,15 +52025,15 @@
         <v/>
       </c>
       <c r="V376" s="12" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="W376" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="X376" s="14" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="Y376" s="31"/>
@@ -51992,15 +52047,15 @@
         <v>520</v>
       </c>
       <c r="D377" s="14" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="E377" s="14" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="F377" s="412" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="G377"/>
@@ -52011,7 +52066,7 @@
       <c r="L377"/>
       <c r="M377" s="68"/>
       <c r="O377" s="29"/>
-      <c r="P377" s="966"/>
+      <c r="P377" s="949"/>
       <c r="Q377" s="300">
         <f>AH25</f>
         <v>34</v>
@@ -52033,15 +52088,15 @@
         <v/>
       </c>
       <c r="V377" s="12" t="str">
-        <f t="shared" ref="V377" si="87">IF(U377="","",U377/R377)</f>
+        <f t="shared" ref="V377" si="83">IF(U377="","",U377/R377)</f>
         <v/>
       </c>
       <c r="W377" s="11" t="str">
-        <f t="shared" ref="W377" si="88">IF(U377="","",U377/(T377/1000))</f>
+        <f t="shared" ref="W377" si="84">IF(U377="","",U377/(T377/1000))</f>
         <v/>
       </c>
       <c r="X377" s="14" t="str">
-        <f t="shared" ref="X377" si="89">IF(S377="","",(S377-Q377)/Q377)</f>
+        <f t="shared" ref="X377" si="85">IF(S377="","",(S377-Q377)/Q377)</f>
         <v/>
       </c>
       <c r="Y377" s="31"/>
@@ -52074,7 +52129,7 @@
       <c r="L378"/>
       <c r="M378" s="68"/>
       <c r="O378" s="29"/>
-      <c r="P378" s="973" t="str">
+      <c r="P378" s="941" t="str">
         <f>AK27&amp;"/"&amp;AL27</f>
         <v>/</v>
       </c>
@@ -52099,15 +52154,15 @@
         <v/>
       </c>
       <c r="V378" s="12" t="str">
-        <f t="shared" ref="V378:V388" si="90">IF(U378="","",U378/R378)</f>
+        <f t="shared" ref="V378:V388" si="86">IF(U378="","",U378/R378)</f>
         <v/>
       </c>
       <c r="W378" s="11" t="str">
-        <f t="shared" ref="W378:W388" si="91">IF(U378="","",U378/(T378/1000))</f>
+        <f t="shared" ref="W378:W388" si="87">IF(U378="","",U378/(T378/1000))</f>
         <v/>
       </c>
       <c r="X378" s="14" t="str">
-        <f t="shared" ref="X378:X388" si="92">IF(S378="","",(S378-Q378)/Q378)</f>
+        <f t="shared" ref="X378:X388" si="88">IF(S378="","",(S378-Q378)/Q378)</f>
         <v/>
       </c>
       <c r="Y378" s="31"/>
@@ -52133,7 +52188,7 @@
       <c r="L379"/>
       <c r="M379" s="68"/>
       <c r="O379" s="159"/>
-      <c r="P379" s="974"/>
+      <c r="P379" s="942"/>
       <c r="Q379" s="300">
         <f>AH29</f>
         <v>30</v>
@@ -52155,15 +52210,15 @@
         <v/>
       </c>
       <c r="V379" s="12" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="W379" s="11" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="X379" s="14" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y379" s="31"/>
@@ -52178,7 +52233,7 @@
       </c>
       <c r="M380" s="68"/>
       <c r="O380" s="29"/>
-      <c r="P380" s="974"/>
+      <c r="P380" s="942"/>
       <c r="Q380" s="300">
         <f>AH31</f>
         <v>32</v>
@@ -52200,15 +52255,15 @@
         <v/>
       </c>
       <c r="V380" s="12" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="W380" s="11" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="X380" s="14" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y380" s="31"/>
@@ -52232,7 +52287,7 @@
       <c r="L381" s="67"/>
       <c r="M381" s="68"/>
       <c r="O381" s="29"/>
-      <c r="P381" s="974"/>
+      <c r="P381" s="942"/>
       <c r="Q381" s="300">
         <f>AH33</f>
         <v>34</v>
@@ -52254,15 +52309,15 @@
         <v/>
       </c>
       <c r="V381" s="12" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="W381" s="11" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="X381" s="14" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y381" s="31"/>
@@ -52299,37 +52354,37 @@
       </c>
       <c r="M382" s="68"/>
       <c r="O382" s="29"/>
-      <c r="P382" s="974"/>
+      <c r="P382" s="942"/>
       <c r="Q382" s="300">
-        <f t="shared" ref="Q382:R384" si="93">AH35</f>
+        <f t="shared" ref="Q382:R384" si="89">AH35</f>
         <v>36</v>
       </c>
       <c r="R382" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>50</v>
       </c>
       <c r="S382" s="11" t="str">
-        <f t="shared" ref="S382:U383" si="94">IF(AM35="","",AM35)</f>
+        <f t="shared" ref="S382:U383" si="90">IF(AM35="","",AM35)</f>
         <v/>
       </c>
       <c r="T382" s="11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="U382" s="11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="V382" s="12" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="W382" s="11" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="X382" s="14" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y382" s="31"/>
@@ -52373,37 +52428,37 @@
       </c>
       <c r="M383" s="68"/>
       <c r="O383" s="29"/>
-      <c r="P383" s="975"/>
+      <c r="P383" s="943"/>
       <c r="Q383" s="300">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>38</v>
       </c>
       <c r="R383" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>50</v>
       </c>
       <c r="S383" s="11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="T383" s="11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="U383" s="11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="V383" s="12" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="W383" s="11" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="X383" s="14" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y383" s="31"/>
@@ -52447,16 +52502,16 @@
       </c>
       <c r="M384" s="68"/>
       <c r="O384" s="29"/>
-      <c r="P384" s="973" t="str">
+      <c r="P384" s="941" t="str">
         <f>AK37&amp;"/"&amp;AL37</f>
         <v>/</v>
       </c>
       <c r="Q384" s="301">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>28</v>
       </c>
       <c r="R384" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>50</v>
       </c>
       <c r="S384" s="11" t="str">
@@ -52472,15 +52527,15 @@
         <v/>
       </c>
       <c r="V384" s="12" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="W384" s="11" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="X384" s="14" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y384" s="31"/>
@@ -52507,7 +52562,7 @@
       <c r="L385" s="67"/>
       <c r="M385" s="68"/>
       <c r="O385" s="29"/>
-      <c r="P385" s="974"/>
+      <c r="P385" s="942"/>
       <c r="Q385" s="301">
         <f>AH41</f>
         <v>30</v>
@@ -52529,15 +52584,15 @@
         <v/>
       </c>
       <c r="V385" s="12" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="W385" s="11" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="X385" s="14" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y385" s="31"/>
@@ -52563,7 +52618,7 @@
       <c r="L386" s="67"/>
       <c r="M386" s="68"/>
       <c r="O386" s="29"/>
-      <c r="P386" s="974"/>
+      <c r="P386" s="942"/>
       <c r="Q386" s="300">
         <f>AH43</f>
         <v>32</v>
@@ -52585,15 +52640,15 @@
         <v/>
       </c>
       <c r="V386" s="12" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="W386" s="11" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="X386" s="14" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y386" s="31"/>
@@ -52617,7 +52672,7 @@
       <c r="L387" s="67"/>
       <c r="M387" s="68"/>
       <c r="O387" s="29"/>
-      <c r="P387" s="974"/>
+      <c r="P387" s="942"/>
       <c r="Q387" s="300">
         <f>AH45</f>
         <v>34</v>
@@ -52639,15 +52694,15 @@
         <v/>
       </c>
       <c r="V387" s="12" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="W387" s="11" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="X387" s="14" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y387" s="31"/>
@@ -52669,7 +52724,7 @@
       <c r="L388" s="67"/>
       <c r="M388" s="68"/>
       <c r="O388" s="29"/>
-      <c r="P388" s="975"/>
+      <c r="P388" s="943"/>
       <c r="Q388" s="300">
         <f>AH47</f>
         <v>38</v>
@@ -52691,15 +52746,15 @@
         <v/>
       </c>
       <c r="V388" s="12" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="W388" s="11" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="X388" s="14" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y388" s="31"/>
@@ -52775,7 +52830,7 @@
         <v>171</v>
       </c>
       <c r="E391" s="470" t="str">
-        <f t="shared" ref="E391:E396" si="95">IF(Q432="","",Q432)</f>
+        <f t="shared" ref="E391:E396" si="91">IF(Q432="","",Q432)</f>
         <v/>
       </c>
       <c r="F391" s="325"/>
@@ -52783,15 +52838,15 @@
         <v>784</v>
       </c>
       <c r="H391" s="658" t="str">
-        <f t="shared" ref="H391:J398" si="96">IF(Q447="","",Q447)</f>
+        <f t="shared" ref="H391:J398" si="92">IF(Q447="","",Q447)</f>
         <v>2D</v>
       </c>
       <c r="I391" s="659" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="J391" s="660" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v>3D</v>
       </c>
       <c r="K391" s="325"/>
@@ -52825,7 +52880,7 @@
         <v>174</v>
       </c>
       <c r="E392" s="471" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="F392" s="325"/>
@@ -52833,15 +52888,15 @@
         <v>69</v>
       </c>
       <c r="H392" s="330" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I392" s="289" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="J392" s="331" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="K392" s="325"/>
@@ -52894,7 +52949,7 @@
         <v>326</v>
       </c>
       <c r="E393" s="471" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="F393" s="325"/>
@@ -52902,26 +52957,26 @@
         <v>171</v>
       </c>
       <c r="H393" s="330" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I393" s="289" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="J393" s="331" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="K393" s="160" t="s">
         <v>185</v>
       </c>
       <c r="L393" s="201" t="str">
-        <f t="shared" ref="L393:M395" si="97">IF(Q442="","",Q442)</f>
+        <f t="shared" ref="L393:M395" si="93">IF(Q442="","",Q442)</f>
         <v/>
       </c>
       <c r="M393" s="259" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="O393" s="311"/>
@@ -52953,7 +53008,7 @@
         <v>180</v>
       </c>
       <c r="E394" s="471" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="F394" s="325"/>
@@ -52961,26 +53016,26 @@
         <v>174</v>
       </c>
       <c r="H394" s="330" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I394" s="289" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="J394" s="331" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="K394" s="160" t="s">
         <v>187</v>
       </c>
       <c r="L394" s="203" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="M394" s="261" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="O394" s="312"/>
@@ -53025,7 +53080,7 @@
         <v>182</v>
       </c>
       <c r="E395" s="471" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="F395" s="325"/>
@@ -53033,39 +53088,39 @@
         <v>185</v>
       </c>
       <c r="H395" s="330" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I395" s="289" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="J395" s="331" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="K395" s="160" t="s">
         <v>189</v>
       </c>
       <c r="L395" s="204" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="M395" s="262" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="O395" s="312"/>
       <c r="P395" s="320" t="str">
-        <f t="shared" ref="P395:R398" si="98">IF(AM16="","",AM16)</f>
+        <f t="shared" ref="P395:R398" si="94">IF(AM16="","",AM16)</f>
         <v/>
       </c>
       <c r="Q395" s="270" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="R395" s="270" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="S395" s="235" t="str">
@@ -53077,15 +53132,15 @@
         <v/>
       </c>
       <c r="U395" s="320" t="str">
-        <f t="shared" ref="U395:W398" si="99">IF(AM37="","",AM37)</f>
+        <f t="shared" ref="U395:W398" si="95">IF(AM37="","",AM37)</f>
         <v/>
       </c>
       <c r="V395" s="270" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="W395" s="270" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="X395" s="235" t="str">
@@ -53107,7 +53162,7 @@
         <v>183</v>
       </c>
       <c r="E396" s="471" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="F396" s="325"/>
@@ -53115,15 +53170,15 @@
         <v>187</v>
       </c>
       <c r="H396" s="330" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I396" s="289" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="J396" s="331" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="K396" s="325"/>
@@ -53136,15 +53191,15 @@
       </c>
       <c r="O396" s="312"/>
       <c r="P396" s="317" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="Q396" s="11" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="R396" s="11" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="S396" s="12" t="str">
@@ -53156,15 +53211,15 @@
         <v/>
       </c>
       <c r="U396" s="317" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="V396" s="11" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="W396" s="11" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="X396" s="12" t="str">
@@ -53172,7 +53227,7 @@
         <v/>
       </c>
       <c r="Y396" s="238" t="str">
-        <f t="shared" ref="Y396:Y398" si="100">IF(OR(W396="",V396=""),"",W396/(V396/1000))</f>
+        <f t="shared" ref="Y396:Y398" si="96">IF(OR(W396="",V396=""),"",W396/(V396/1000))</f>
         <v/>
       </c>
     </row>
@@ -53194,39 +53249,39 @@
         <v>189</v>
       </c>
       <c r="H397" s="435" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I397" s="419" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="J397" s="527" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="K397" s="160" t="s">
         <v>185</v>
       </c>
       <c r="L397" s="201" t="str">
-        <f t="shared" ref="L397:M399" si="101">IF(U442="","",U442)</f>
+        <f t="shared" ref="L397:M399" si="97">IF(U442="","",U442)</f>
         <v/>
       </c>
       <c r="M397" s="259" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="O397" s="312"/>
       <c r="P397" s="317" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="Q397" s="11" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="R397" s="11" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="S397" s="12" t="str">
@@ -53238,15 +53293,15 @@
         <v/>
       </c>
       <c r="U397" s="317" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="V397" s="11" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="W397" s="11" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="X397" s="12" t="str">
@@ -53254,7 +53309,7 @@
         <v/>
       </c>
       <c r="Y397" s="238" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
     </row>
@@ -53274,39 +53329,39 @@
       <c r="F398" s="67"/>
       <c r="G398" s="160"/>
       <c r="H398" s="435" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="I398" s="419" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="J398" s="527" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="K398" s="160" t="s">
         <v>187</v>
       </c>
       <c r="L398" s="203" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="M398" s="261" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="O398" s="312"/>
       <c r="P398" s="453" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="Q398" s="228" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="R398" s="228" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="S398" s="241" t="str">
@@ -53318,15 +53373,15 @@
         <v/>
       </c>
       <c r="U398" s="453" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="V398" s="228" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="W398" s="228" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="X398" s="241" t="str">
@@ -53334,7 +53389,7 @@
         <v/>
       </c>
       <c r="Y398" s="242" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
     </row>
@@ -53360,54 +53415,54 @@
         <v>189</v>
       </c>
       <c r="L399" s="204" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="M399" s="262" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="O399" s="311" t="s">
         <v>207</v>
       </c>
       <c r="P399" s="448" t="str">
-        <f t="shared" ref="P399:Y399" si="102">IF(OR(P395="",P396="",P397="",P398=""),"",AVERAGE(P395:P398))</f>
+        <f t="shared" ref="P399:Y399" si="98">IF(OR(P395="",P396="",P397="",P398=""),"",AVERAGE(P395:P398))</f>
         <v/>
       </c>
       <c r="Q399" s="449" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="R399" s="450" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="S399" s="451" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="T399" s="452" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="U399" s="448" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="V399" s="449" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="W399" s="450" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="X399" s="451" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="Y399" s="452" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
     </row>
@@ -53427,43 +53482,43 @@
         <v>338</v>
       </c>
       <c r="P400" s="317" t="str">
-        <f t="shared" ref="P400:Y400" si="103">IF(OR(P395="",P396="",P397="",P398=""),"",_xlfn.STDEV.S(P395:P398))</f>
+        <f t="shared" ref="P400:Y400" si="99">IF(OR(P395="",P396="",P397="",P398=""),"",_xlfn.STDEV.S(P395:P398))</f>
         <v/>
       </c>
       <c r="Q400" s="11" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="R400" s="11" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="S400" s="12" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="T400" s="238" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="U400" s="317" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="V400" s="11" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="W400" s="11" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="X400" s="12" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="Y400" s="238" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
     </row>
@@ -53487,43 +53542,43 @@
         <v>271</v>
       </c>
       <c r="P401" s="188" t="str">
-        <f t="shared" ref="P401:Y401" si="104">IF(OR(P399="",P400=""),"",P400/P399)</f>
+        <f t="shared" ref="P401:Y401" si="100">IF(OR(P399="",P400=""),"",P400/P399)</f>
         <v/>
       </c>
       <c r="Q401" s="182" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="R401" s="182" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="S401" s="318" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="T401" s="319" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="U401" s="188" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="V401" s="182" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="W401" s="182" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="X401" s="318" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="Y401" s="319" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
     </row>
@@ -53670,15 +53725,15 @@
         <v>568</v>
       </c>
       <c r="D407" s="631" t="str">
-        <f t="shared" ref="D407:F409" si="105">IF(P313="","",P313)</f>
+        <f t="shared" ref="D407:F409" si="101">IF(P313="","",P313)</f>
         <v/>
       </c>
       <c r="E407" s="632" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="F407" s="633" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="M407" s="68"/>
@@ -53709,15 +53764,15 @@
         <v>569</v>
       </c>
       <c r="D408" s="330" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="E408" s="289" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="F408" s="331" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="M408" s="68"/>
@@ -53754,15 +53809,15 @@
         <v>570</v>
       </c>
       <c r="D409" s="379" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="E409" s="429" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="F409" s="380" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="M409" s="68"/>
@@ -53852,15 +53907,15 @@
         <v>100</v>
       </c>
       <c r="Q411" s="11" t="str">
-        <f t="shared" ref="Q411:S412" si="106">IF(AM20="","",AM20)</f>
+        <f t="shared" ref="Q411:S412" si="102">IF(AM20="","",AM20)</f>
         <v/>
       </c>
       <c r="R411" s="105" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="S411" s="11" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="T411" s="12" t="str">
@@ -53891,15 +53946,15 @@
         <v>320</v>
       </c>
       <c r="Q412" s="11" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="R412" s="105" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="S412" s="11" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="T412" s="12" t="str">
@@ -54166,11 +54221,11 @@
       <c r="P420" s="613" t="s">
         <v>348</v>
       </c>
-      <c r="Q420" s="976" t="s">
+      <c r="Q420" s="944" t="s">
         <v>349</v>
       </c>
-      <c r="R420" s="977"/>
-      <c r="S420" s="978"/>
+      <c r="R420" s="945"/>
+      <c r="S420" s="946"/>
       <c r="T420"/>
       <c r="U420"/>
       <c r="V420"/>
@@ -54187,7 +54242,7 @@
         <v>185</v>
       </c>
       <c r="D421" s="631" t="str">
-        <f t="shared" ref="D421:D424" si="107">IF(P357="","",P357)</f>
+        <f t="shared" ref="D421:D424" si="103">IF(P357="","",P357)</f>
         <v/>
       </c>
       <c r="E421" s="660" t="str">
@@ -54228,7 +54283,7 @@
         <v>187</v>
       </c>
       <c r="D422" s="330" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="E422" s="331" t="str">
@@ -54269,7 +54324,7 @@
         <v>189</v>
       </c>
       <c r="D423" s="330" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="E423" s="331" t="str">
@@ -54310,7 +54365,7 @@
         <v>215</v>
       </c>
       <c r="D424" s="379" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="E424" s="380" t="str">
@@ -54328,11 +54383,11 @@
         <v/>
       </c>
       <c r="R424" s="662" t="str">
-        <f t="shared" ref="R424:S424" si="108">IF(OR(R421="",R422=""),"",ABS(R422-R421)/R421)</f>
+        <f t="shared" ref="R424:S424" si="104">IF(OR(R421="",R422=""),"",ABS(R422-R421)/R421)</f>
         <v/>
       </c>
       <c r="S424" s="691" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="T424"/>
@@ -54361,11 +54416,11 @@
         <v>215</v>
       </c>
       <c r="Q425" s="429" t="str">
-        <f t="shared" ref="Q425:R425" si="109">IF(Q423="","",IF(Q423&gt;=0.28,"Pass","Fail"))</f>
+        <f t="shared" ref="Q425:R425" si="105">IF(Q423="","",IF(Q423&gt;=0.28,"Pass","Fail"))</f>
         <v/>
       </c>
       <c r="R425" s="429" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="105"/>
         <v/>
       </c>
       <c r="S425" s="380" t="str">
@@ -54578,7 +54633,7 @@
       </c>
       <c r="Q432" s="143"/>
       <c r="R432" s="121" t="str">
-        <f t="shared" ref="R432:R437" si="110">IF(AB93="","",AB93)</f>
+        <f t="shared" ref="R432:R437" si="106">IF(AB93="","",AB93)</f>
         <v/>
       </c>
       <c r="T432" s="34" t="s">
@@ -54615,7 +54670,7 @@
       </c>
       <c r="Q433" s="143"/>
       <c r="R433" s="121" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="T433" s="34" t="s">
@@ -54654,7 +54709,7 @@
       </c>
       <c r="Q434" s="143"/>
       <c r="R434" s="121" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="T434" s="34" t="s">
@@ -54689,7 +54744,7 @@
       </c>
       <c r="Q435" s="143"/>
       <c r="R435" s="121" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="T435" s="34" t="s">
@@ -54728,7 +54783,7 @@
       </c>
       <c r="Q436" s="143"/>
       <c r="R436" s="121" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="T436" s="112" t="s">
@@ -54767,7 +54822,7 @@
         <v/>
       </c>
       <c r="R437" s="121" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="Y437" s="31"/>
@@ -55026,7 +55081,7 @@
       <c r="R446" s="34" t="s">
         <v>356</v>
       </c>
-      <c r="S446" s="863" t="str">
+      <c r="S446" s="862" t="str">
         <f>Q259</f>
         <v>800004-1204146</v>
       </c>
@@ -55097,15 +55152,15 @@
         <v>69</v>
       </c>
       <c r="V448" s="277" t="str">
-        <f t="shared" ref="V448:V453" si="111">IF(AB103="","",AB103)</f>
+        <f t="shared" ref="V448:V453" si="107">IF(AB103="","",AB103)</f>
         <v/>
       </c>
       <c r="W448" s="278" t="str">
-        <f t="shared" ref="W448:W453" si="112">IF(AB109="","",AB109)</f>
+        <f t="shared" ref="W448:W453" si="108">IF(AB109="","",AB109)</f>
         <v/>
       </c>
       <c r="X448" s="279" t="str">
-        <f t="shared" ref="X448:X453" si="113">IF(AB115="","",AB115)</f>
+        <f t="shared" ref="X448:X453" si="109">IF(AB115="","",AB115)</f>
         <v/>
       </c>
       <c r="Y448" s="31"/>
@@ -55141,15 +55196,15 @@
         <v>266</v>
       </c>
       <c r="V449" s="277" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="W449" s="278" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="X449" s="279" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="Y449" s="31"/>
@@ -55185,15 +55240,15 @@
         <v>70</v>
       </c>
       <c r="V450" s="283" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="W450" s="284" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="X450" s="285" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="Y450" s="31"/>
@@ -55229,15 +55284,15 @@
         <v>357</v>
       </c>
       <c r="V451" s="283" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="W451" s="284" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="X451" s="285" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="Y451" s="31"/>
@@ -55273,15 +55328,15 @@
         <v>358</v>
       </c>
       <c r="V452" s="283" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="W452" s="284" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="X452" s="285" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="Y452" s="31"/>
@@ -55317,15 +55372,15 @@
         <v>359</v>
       </c>
       <c r="V453" s="283" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="W453" s="284" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="X453" s="285" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="Y453" s="31"/>
@@ -55367,10 +55422,10 @@
       <c r="U454" s="4"/>
       <c r="V454" s="4"/>
       <c r="Y454" s="31"/>
-      <c r="AA454" s="935"/>
-      <c r="AB454" s="935"/>
-      <c r="AC454" s="935"/>
-      <c r="AD454" s="935"/>
+      <c r="AA454" s="940"/>
+      <c r="AB454" s="940"/>
+      <c r="AC454" s="940"/>
+      <c r="AD454" s="940"/>
     </row>
     <row r="455" spans="1:30" ht="14.1" customHeight="1">
       <c r="A455" s="16">
@@ -56757,56 +56812,6 @@
     <row r="518" spans="15:25" ht="14.1" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C296:C302"/>
-    <mergeCell ref="C303:C307"/>
-    <mergeCell ref="C308:C312"/>
-    <mergeCell ref="AA454:AB454"/>
-    <mergeCell ref="AC454:AD454"/>
-    <mergeCell ref="P378:P383"/>
-    <mergeCell ref="P384:P388"/>
-    <mergeCell ref="Q420:S420"/>
-    <mergeCell ref="Q194:S194"/>
-    <mergeCell ref="U194:W194"/>
-    <mergeCell ref="U245:W245"/>
-    <mergeCell ref="S369:W369"/>
-    <mergeCell ref="P371:P377"/>
-    <mergeCell ref="P129:R130"/>
-    <mergeCell ref="S129:U130"/>
-    <mergeCell ref="V129:X130"/>
-    <mergeCell ref="P173:S173"/>
-    <mergeCell ref="Q182:S182"/>
-    <mergeCell ref="U182:W182"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P121:R122"/>
-    <mergeCell ref="V121:X122"/>
-    <mergeCell ref="S121:U122"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
     <mergeCell ref="F294:H294"/>
     <mergeCell ref="I291:J291"/>
     <mergeCell ref="I292:J292"/>
@@ -56823,6 +56828,56 @@
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P121:R122"/>
+    <mergeCell ref="V121:X122"/>
+    <mergeCell ref="S121:U122"/>
+    <mergeCell ref="P129:R130"/>
+    <mergeCell ref="S129:U130"/>
+    <mergeCell ref="V129:X130"/>
+    <mergeCell ref="P173:S173"/>
+    <mergeCell ref="Q182:S182"/>
+    <mergeCell ref="U182:W182"/>
+    <mergeCell ref="Q194:S194"/>
+    <mergeCell ref="U194:W194"/>
+    <mergeCell ref="U245:W245"/>
+    <mergeCell ref="S369:W369"/>
+    <mergeCell ref="P371:P377"/>
+    <mergeCell ref="C296:C302"/>
+    <mergeCell ref="C303:C307"/>
+    <mergeCell ref="C308:C312"/>
+    <mergeCell ref="AA454:AB454"/>
+    <mergeCell ref="AC454:AD454"/>
+    <mergeCell ref="P378:P383"/>
+    <mergeCell ref="P384:P388"/>
+    <mergeCell ref="Q420:S420"/>
   </mergeCells>
   <conditionalFormatting sqref="R260:S260">
     <cfRule type="cellIs" dxfId="161" priority="230" stopIfTrue="1" operator="equal">
@@ -57269,12 +57324,12 @@
       <formula>$R$311*1.02</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M45:M49 M51:M63 M76:M107 M109:M125 M128:M132 M135:M141">
+  <conditionalFormatting sqref="M52:M64 M76:M107 M109:M125 M128:M132 M135:M141 M45:M50">
     <cfRule type="cellIs" dxfId="55" priority="63" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L45:L49 L51:L63 L76:L107 L109:L125 L128:L132 L135:L141">
+  <conditionalFormatting sqref="L52:L64 L76:L107 L109:L125 L128:L132 L135:L141 L45:L50">
     <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
@@ -57587,41 +57642,41 @@
     </row>
     <row r="2" spans="1:30" ht="14.1" customHeight="1">
       <c r="A2" s="297"/>
-      <c r="B2" s="979" t="s">
+      <c r="B2" s="978" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="979"/>
-      <c r="D2" s="979"/>
-      <c r="E2" s="979"/>
-      <c r="F2" s="979"/>
-      <c r="G2" s="979"/>
-      <c r="H2" s="979"/>
-      <c r="I2" s="979"/>
-      <c r="J2" s="979"/>
+      <c r="C2" s="978"/>
+      <c r="D2" s="978"/>
+      <c r="E2" s="978"/>
+      <c r="F2" s="978"/>
+      <c r="G2" s="978"/>
+      <c r="H2" s="978"/>
+      <c r="I2" s="978"/>
+      <c r="J2" s="978"/>
       <c r="K2" s="297"/>
-      <c r="L2" s="979" t="s">
+      <c r="L2" s="978" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="979"/>
-      <c r="N2" s="979"/>
-      <c r="O2" s="979"/>
-      <c r="P2" s="979"/>
-      <c r="Q2" s="979"/>
-      <c r="R2" s="979"/>
-      <c r="S2" s="979"/>
-      <c r="T2" s="979"/>
+      <c r="M2" s="978"/>
+      <c r="N2" s="978"/>
+      <c r="O2" s="978"/>
+      <c r="P2" s="978"/>
+      <c r="Q2" s="978"/>
+      <c r="R2" s="978"/>
+      <c r="S2" s="978"/>
+      <c r="T2" s="978"/>
       <c r="U2" s="297"/>
-      <c r="V2" s="979" t="s">
+      <c r="V2" s="978" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="979"/>
-      <c r="X2" s="979"/>
-      <c r="Y2" s="979"/>
-      <c r="Z2" s="979"/>
-      <c r="AA2" s="979"/>
-      <c r="AB2" s="979"/>
-      <c r="AC2" s="979"/>
-      <c r="AD2" s="979"/>
+      <c r="W2" s="978"/>
+      <c r="X2" s="978"/>
+      <c r="Y2" s="978"/>
+      <c r="Z2" s="978"/>
+      <c r="AA2" s="978"/>
+      <c r="AB2" s="978"/>
+      <c r="AC2" s="978"/>
+      <c r="AD2" s="978"/>
     </row>
     <row r="3" spans="1:30" ht="14.1" customHeight="1">
       <c r="A3" s="203" t="s">
@@ -59081,36 +59136,36 @@
     </row>
     <row r="26" spans="1:30" ht="14.1" customHeight="1">
       <c r="A26" s="297"/>
-      <c r="B26" s="980" t="s">
+      <c r="B26" s="979" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="980"/>
-      <c r="D26" s="980"/>
-      <c r="E26" s="980"/>
-      <c r="F26" s="980"/>
-      <c r="G26" s="980"/>
-      <c r="H26" s="980"/>
-      <c r="I26" s="980"/>
-      <c r="J26" s="980"/>
-      <c r="K26" s="980"/>
-      <c r="L26" s="980"/>
+      <c r="C26" s="979"/>
+      <c r="D26" s="979"/>
+      <c r="E26" s="979"/>
+      <c r="F26" s="979"/>
+      <c r="G26" s="979"/>
+      <c r="H26" s="979"/>
+      <c r="I26" s="979"/>
+      <c r="J26" s="979"/>
+      <c r="K26" s="979"/>
+      <c r="L26" s="979"/>
       <c r="M26" s="215"/>
       <c r="N26" s="297"/>
-      <c r="O26" s="979" t="s">
+      <c r="O26" s="978" t="s">
         <v>24</v>
       </c>
-      <c r="P26" s="979"/>
-      <c r="Q26" s="979"/>
-      <c r="R26" s="979"/>
-      <c r="S26" s="979"/>
-      <c r="T26" s="979"/>
-      <c r="U26" s="979"/>
-      <c r="V26" s="979"/>
-      <c r="W26" s="979"/>
-      <c r="X26" s="979"/>
-      <c r="Y26" s="979"/>
-      <c r="Z26" s="979"/>
-      <c r="AA26" s="979"/>
+      <c r="P26" s="978"/>
+      <c r="Q26" s="978"/>
+      <c r="R26" s="978"/>
+      <c r="S26" s="978"/>
+      <c r="T26" s="978"/>
+      <c r="U26" s="978"/>
+      <c r="V26" s="978"/>
+      <c r="W26" s="978"/>
+      <c r="X26" s="978"/>
+      <c r="Y26" s="978"/>
+      <c r="Z26" s="978"/>
+      <c r="AA26" s="978"/>
     </row>
     <row r="27" spans="1:30" ht="14.1" customHeight="1">
       <c r="A27" s="203" t="s">
@@ -60944,26 +60999,26 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="14.1" customHeight="1">
-      <c r="B51" s="981" t="s">
+      <c r="B51" s="980" t="s">
         <v>422</v>
       </c>
-      <c r="C51" s="981" t="s">
+      <c r="C51" s="980" t="s">
         <v>423</v>
       </c>
-      <c r="D51" s="983" t="s">
+      <c r="D51" s="982" t="s">
         <v>424</v>
       </c>
-      <c r="E51" s="984"/>
-      <c r="F51" s="984"/>
-      <c r="G51" s="984"/>
-      <c r="H51" s="984"/>
-      <c r="I51" s="984"/>
-      <c r="J51" s="984"/>
-      <c r="K51" s="985"/>
+      <c r="E51" s="983"/>
+      <c r="F51" s="983"/>
+      <c r="G51" s="983"/>
+      <c r="H51" s="983"/>
+      <c r="I51" s="983"/>
+      <c r="J51" s="983"/>
+      <c r="K51" s="984"/>
     </row>
     <row r="52" spans="1:19" ht="14.1" customHeight="1">
-      <c r="B52" s="982"/>
-      <c r="C52" s="982"/>
+      <c r="B52" s="981"/>
+      <c r="C52" s="981"/>
       <c r="D52" s="230">
         <v>0.25</v>
       </c>
@@ -61250,11 +61305,11 @@
         <v>332</v>
       </c>
       <c r="K62" s="650"/>
-      <c r="O62" s="942"/>
-      <c r="P62" s="942"/>
-      <c r="Q62" s="942"/>
-      <c r="R62" s="942"/>
-      <c r="S62" s="942"/>
+      <c r="O62" s="962"/>
+      <c r="P62" s="962"/>
+      <c r="Q62" s="962"/>
+      <c r="R62" s="962"/>
+      <c r="S62" s="962"/>
     </row>
     <row r="63" spans="1:19" ht="14.1" customHeight="1">
       <c r="A63" s="650" t="str">

--- a/MUSCMammoSiemens.xlsx
+++ b/MUSCMammoSiemens.xlsx
@@ -64,7 +64,7 @@
     <author>pennyb</author>
   </authors>
   <commentList>
-    <comment ref="N22" authorId="0" guid="{C1A1FE5D-5C18-4EBC-B0EB-F4348FD54B50}" shapeId="0">
+    <comment ref="N22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H25" authorId="0" guid="{6A727133-7ED9-4DBA-8E11-4F5FD813D5A4}" shapeId="0">
+    <comment ref="H25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H48" authorId="0" guid="{833BB902-24D0-44CC-A7C4-E54735324305}" shapeId="0">
+    <comment ref="H48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
     <author>pennyb</author>
   </authors>
   <commentList>
-    <comment ref="J10" authorId="0" guid="{79CA72F0-8969-481F-94AE-386EC780B588}" shapeId="0">
+    <comment ref="J10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="L56" authorId="0" guid="{B878AC86-668F-4FC2-8EDE-DD4772CE8D62}" shapeId="0">
+    <comment ref="L56" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A91" authorId="1" guid="{6C025C44-3522-40DC-B855-04ED2041BCC3}" shapeId="0">
+    <comment ref="A91" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A103" authorId="1" guid="{274B916A-61E5-4725-8730-2C021BCC3E26}" shapeId="0">
+    <comment ref="A103" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -9013,18 +9013,90 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="190" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="27" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="148" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="146" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="147" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="175" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9034,84 +9106,39 @@
     <xf numFmtId="175" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="27" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="148" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="146" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="147" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="142" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="122" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="151" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="150" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="149" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9124,32 +9151,23 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="80" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="142" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="122" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="151" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="150" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="149" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -9181,9 +9199,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9193,33 +9208,126 @@
     <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="80" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9229,116 +9337,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -27621,32 +27621,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{58149045-672E-40AC-AEF2-C7EBF216C914}">
-  <header guid="{58149045-672E-40AC-AEF2-C7EBF216C914}" dateTime="2020-06-03T09:45:21" maxSheetId="10" userName="Eugene Mah" r:id="rId1">
-    <sheetIdMap count="9">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -27932,40 +27906,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="874" t="s">
+      <c r="A1" s="901" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="874"/>
-      <c r="C1" s="874"/>
-      <c r="D1" s="874"/>
-      <c r="E1" s="874"/>
-      <c r="F1" s="874"/>
-      <c r="G1" s="874"/>
-      <c r="H1" s="874"/>
-      <c r="I1" s="874"/>
-      <c r="J1" s="874"/>
-      <c r="K1" s="874"/>
-      <c r="L1" s="874"/>
-      <c r="M1" s="874"/>
-      <c r="N1" s="874"/>
+      <c r="B1" s="901"/>
+      <c r="C1" s="901"/>
+      <c r="D1" s="901"/>
+      <c r="E1" s="901"/>
+      <c r="F1" s="901"/>
+      <c r="G1" s="901"/>
+      <c r="H1" s="901"/>
+      <c r="I1" s="901"/>
+      <c r="J1" s="901"/>
+      <c r="K1" s="901"/>
+      <c r="L1" s="901"/>
+      <c r="M1" s="901"/>
+      <c r="N1" s="901"/>
     </row>
     <row r="2" spans="1:14" ht="26.25">
-      <c r="A2" s="874" t="s">
+      <c r="A2" s="901" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="874"/>
-      <c r="C2" s="874"/>
-      <c r="D2" s="874"/>
-      <c r="E2" s="874"/>
-      <c r="F2" s="874"/>
-      <c r="G2" s="874"/>
-      <c r="H2" s="874"/>
-      <c r="I2" s="874"/>
-      <c r="J2" s="874"/>
-      <c r="K2" s="874"/>
-      <c r="L2" s="874"/>
-      <c r="M2" s="874"/>
-      <c r="N2" s="874"/>
+      <c r="B2" s="901"/>
+      <c r="C2" s="901"/>
+      <c r="D2" s="901"/>
+      <c r="E2" s="901"/>
+      <c r="F2" s="901"/>
+      <c r="G2" s="901"/>
+      <c r="H2" s="901"/>
+      <c r="I2" s="901"/>
+      <c r="J2" s="901"/>
+      <c r="K2" s="901"/>
+      <c r="L2" s="901"/>
+      <c r="M2" s="901"/>
+      <c r="N2" s="901"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1">
       <c r="A3" s="797"/>
@@ -27988,41 +27962,41 @@
         <v>371</v>
       </c>
       <c r="B4" s="798"/>
-      <c r="C4" s="875"/>
-      <c r="D4" s="876"/>
-      <c r="E4" s="876"/>
-      <c r="F4" s="876"/>
-      <c r="G4" s="876"/>
-      <c r="H4" s="877"/>
+      <c r="C4" s="889"/>
+      <c r="D4" s="890"/>
+      <c r="E4" s="890"/>
+      <c r="F4" s="890"/>
+      <c r="G4" s="890"/>
+      <c r="H4" s="891"/>
       <c r="J4" s="799"/>
       <c r="K4" s="800" t="s">
         <v>372</v>
       </c>
-      <c r="L4" s="878"/>
-      <c r="M4" s="879"/>
-      <c r="N4" s="880"/>
+      <c r="L4" s="902"/>
+      <c r="M4" s="903"/>
+      <c r="N4" s="904"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1">
       <c r="A5" s="798" t="s">
         <v>373</v>
       </c>
       <c r="B5" s="798"/>
-      <c r="C5" s="875"/>
-      <c r="D5" s="876"/>
-      <c r="E5" s="876"/>
-      <c r="F5" s="876"/>
-      <c r="G5" s="876"/>
-      <c r="H5" s="877"/>
+      <c r="C5" s="889"/>
+      <c r="D5" s="890"/>
+      <c r="E5" s="890"/>
+      <c r="F5" s="890"/>
+      <c r="G5" s="890"/>
+      <c r="H5" s="891"/>
       <c r="J5" s="799"/>
       <c r="K5" s="800" t="s">
         <v>374</v>
       </c>
-      <c r="L5" s="878">
+      <c r="L5" s="902">
         <f>Sheet1!P7</f>
         <v>0</v>
       </c>
-      <c r="M5" s="879"/>
-      <c r="N5" s="880"/>
+      <c r="M5" s="903"/>
+      <c r="N5" s="904"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1">
       <c r="A6" s="798" t="s">
@@ -28031,19 +28005,19 @@
       <c r="B6" s="798"/>
       <c r="C6" s="798"/>
       <c r="D6" s="798"/>
-      <c r="E6" s="886" t="s">
+      <c r="E6" s="888" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="886"/>
-      <c r="G6" s="886"/>
-      <c r="H6" s="886"/>
+      <c r="F6" s="888"/>
+      <c r="G6" s="888"/>
+      <c r="H6" s="888"/>
       <c r="J6" s="799"/>
       <c r="K6" s="800" t="s">
         <v>376</v>
       </c>
-      <c r="L6" s="875"/>
-      <c r="M6" s="876"/>
-      <c r="N6" s="877"/>
+      <c r="L6" s="889"/>
+      <c r="M6" s="890"/>
+      <c r="N6" s="891"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1">
       <c r="A7" s="798" t="s">
@@ -28052,21 +28026,21 @@
       <c r="B7" s="798"/>
       <c r="C7" s="798"/>
       <c r="D7" s="798"/>
-      <c r="E7" s="875" t="s">
+      <c r="E7" s="889" t="s">
         <v>378</v>
       </c>
-      <c r="F7" s="876"/>
-      <c r="G7" s="876"/>
-      <c r="H7" s="877"/>
+      <c r="F7" s="890"/>
+      <c r="G7" s="890"/>
+      <c r="H7" s="891"/>
       <c r="J7" s="799"/>
       <c r="K7" s="800" t="s">
         <v>379</v>
       </c>
-      <c r="L7" s="875" t="s">
+      <c r="L7" s="889" t="s">
         <v>768</v>
       </c>
-      <c r="M7" s="876"/>
-      <c r="N7" s="877"/>
+      <c r="M7" s="890"/>
+      <c r="N7" s="891"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1">
       <c r="A8" s="798" t="s">
@@ -28075,23 +28049,23 @@
       <c r="B8" s="798"/>
       <c r="C8" s="798"/>
       <c r="D8" s="798"/>
-      <c r="E8" s="887" t="str">
+      <c r="E8" s="892" t="str">
         <f>Sheet1!K12</f>
         <v/>
       </c>
-      <c r="F8" s="888"/>
-      <c r="G8" s="888"/>
-      <c r="H8" s="889"/>
+      <c r="F8" s="893"/>
+      <c r="G8" s="893"/>
+      <c r="H8" s="894"/>
       <c r="J8" s="799"/>
       <c r="K8" s="800" t="s">
         <v>381</v>
       </c>
-      <c r="L8" s="875" t="str">
+      <c r="L8" s="889" t="str">
         <f>Sheet1!R14</f>
         <v/>
       </c>
-      <c r="M8" s="876"/>
-      <c r="N8" s="877"/>
+      <c r="M8" s="890"/>
+      <c r="N8" s="891"/>
     </row>
     <row r="9" spans="1:14" ht="11.25" customHeight="1">
       <c r="A9" s="798"/>
@@ -28112,12 +28086,12 @@
       <c r="A10" s="803" t="s">
         <v>540</v>
       </c>
-      <c r="E10" s="890" t="s">
+      <c r="E10" s="895" t="s">
         <v>769</v>
       </c>
-      <c r="F10" s="891"/>
-      <c r="G10" s="891"/>
-      <c r="H10" s="892"/>
+      <c r="F10" s="896"/>
+      <c r="G10" s="896"/>
+      <c r="H10" s="897"/>
       <c r="I10" s="804" t="s">
         <v>539</v>
       </c>
@@ -28142,24 +28116,24 @@
       <c r="B12" s="798"/>
       <c r="C12" s="798"/>
       <c r="D12" s="798"/>
-      <c r="E12" s="893" t="s">
+      <c r="E12" s="898" t="s">
         <v>384</v>
       </c>
-      <c r="F12" s="894"/>
-      <c r="G12" s="893" t="s">
+      <c r="F12" s="899"/>
+      <c r="G12" s="898" t="s">
         <v>379</v>
       </c>
-      <c r="H12" s="894"/>
-      <c r="I12" s="893" t="s">
+      <c r="H12" s="899"/>
+      <c r="I12" s="898" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="894"/>
-      <c r="K12" s="893" t="s">
+      <c r="J12" s="899"/>
+      <c r="K12" s="898" t="s">
         <v>382</v>
       </c>
-      <c r="L12" s="895"/>
-      <c r="M12" s="895"/>
-      <c r="N12" s="894"/>
+      <c r="L12" s="900"/>
+      <c r="M12" s="900"/>
+      <c r="N12" s="899"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" thickTop="1">
       <c r="A13" s="798"/>
@@ -28168,55 +28142,55 @@
       <c r="D13" s="806" t="s">
         <v>385</v>
       </c>
-      <c r="E13" s="881" t="s">
+      <c r="E13" s="883" t="s">
         <v>755</v>
       </c>
-      <c r="F13" s="882"/>
-      <c r="G13" s="881" t="s">
+      <c r="F13" s="884"/>
+      <c r="G13" s="883" t="s">
         <v>756</v>
       </c>
-      <c r="H13" s="882"/>
-      <c r="I13" s="883"/>
-      <c r="J13" s="884"/>
-      <c r="K13" s="881" t="s">
+      <c r="H13" s="884"/>
+      <c r="I13" s="885"/>
+      <c r="J13" s="886"/>
+      <c r="K13" s="883" t="s">
         <v>757</v>
       </c>
-      <c r="L13" s="885"/>
-      <c r="M13" s="885"/>
-      <c r="N13" s="882"/>
+      <c r="L13" s="887"/>
+      <c r="M13" s="887"/>
+      <c r="N13" s="884"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="D14" s="806" t="s">
         <v>386</v>
       </c>
-      <c r="E14" s="898"/>
-      <c r="F14" s="899"/>
-      <c r="G14" s="898"/>
-      <c r="H14" s="899"/>
-      <c r="I14" s="900"/>
-      <c r="J14" s="901"/>
-      <c r="K14" s="898"/>
-      <c r="L14" s="902"/>
-      <c r="M14" s="902"/>
-      <c r="N14" s="899"/>
+      <c r="E14" s="876"/>
+      <c r="F14" s="877"/>
+      <c r="G14" s="876"/>
+      <c r="H14" s="877"/>
+      <c r="I14" s="878"/>
+      <c r="J14" s="879"/>
+      <c r="K14" s="876"/>
+      <c r="L14" s="880"/>
+      <c r="M14" s="880"/>
+      <c r="N14" s="877"/>
     </row>
     <row r="15" spans="1:14" ht="36" customHeight="1">
-      <c r="A15" s="903" t="s">
+      <c r="A15" s="881" t="s">
         <v>716</v>
       </c>
-      <c r="B15" s="903"/>
-      <c r="C15" s="903"/>
-      <c r="D15" s="903"/>
-      <c r="E15" s="903"/>
-      <c r="F15" s="903"/>
-      <c r="G15" s="903"/>
-      <c r="H15" s="903"/>
-      <c r="I15" s="903"/>
-      <c r="J15" s="903"/>
-      <c r="K15" s="903"/>
-      <c r="L15" s="903"/>
-      <c r="M15" s="903"/>
-      <c r="N15" s="903"/>
+      <c r="B15" s="881"/>
+      <c r="C15" s="881"/>
+      <c r="D15" s="881"/>
+      <c r="E15" s="881"/>
+      <c r="F15" s="881"/>
+      <c r="G15" s="881"/>
+      <c r="H15" s="881"/>
+      <c r="I15" s="881"/>
+      <c r="J15" s="881"/>
+      <c r="K15" s="881"/>
+      <c r="L15" s="881"/>
+      <c r="M15" s="881"/>
+      <c r="N15" s="881"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1">
       <c r="A16" s="803" t="s">
@@ -28278,40 +28252,40 @@
       <c r="M18" s="823"/>
     </row>
     <row r="19" spans="1:15" ht="21" customHeight="1">
-      <c r="A19" s="904" t="s">
+      <c r="A19" s="882" t="s">
         <v>389</v>
       </c>
-      <c r="B19" s="904"/>
-      <c r="C19" s="904"/>
-      <c r="D19" s="904"/>
-      <c r="E19" s="904"/>
-      <c r="F19" s="904"/>
-      <c r="G19" s="904"/>
-      <c r="H19" s="904"/>
-      <c r="I19" s="904"/>
-      <c r="J19" s="904"/>
-      <c r="K19" s="904"/>
-      <c r="L19" s="904"/>
-      <c r="M19" s="904"/>
-      <c r="N19" s="904"/>
+      <c r="B19" s="882"/>
+      <c r="C19" s="882"/>
+      <c r="D19" s="882"/>
+      <c r="E19" s="882"/>
+      <c r="F19" s="882"/>
+      <c r="G19" s="882"/>
+      <c r="H19" s="882"/>
+      <c r="I19" s="882"/>
+      <c r="J19" s="882"/>
+      <c r="K19" s="882"/>
+      <c r="L19" s="882"/>
+      <c r="M19" s="882"/>
+      <c r="N19" s="882"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="896" t="s">
+      <c r="A20" s="874" t="s">
         <v>538</v>
       </c>
-      <c r="B20" s="896"/>
-      <c r="C20" s="896"/>
-      <c r="D20" s="896"/>
-      <c r="E20" s="896"/>
-      <c r="F20" s="896"/>
-      <c r="G20" s="896"/>
-      <c r="H20" s="896"/>
-      <c r="I20" s="896"/>
-      <c r="J20" s="896"/>
-      <c r="K20" s="896"/>
-      <c r="L20" s="896"/>
-      <c r="M20" s="896"/>
-      <c r="N20" s="896"/>
+      <c r="B20" s="874"/>
+      <c r="C20" s="874"/>
+      <c r="D20" s="874"/>
+      <c r="E20" s="874"/>
+      <c r="F20" s="874"/>
+      <c r="G20" s="874"/>
+      <c r="H20" s="874"/>
+      <c r="I20" s="874"/>
+      <c r="J20" s="874"/>
+      <c r="K20" s="874"/>
+      <c r="L20" s="874"/>
+      <c r="M20" s="874"/>
+      <c r="N20" s="874"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="798"/>
@@ -28917,26 +28891,26 @@
       <c r="M51" s="825"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A52" s="897" t="s">
+      <c r="A52" s="875" t="s">
         <v>533</v>
       </c>
-      <c r="B52" s="897"/>
-      <c r="C52" s="897"/>
-      <c r="D52" s="897"/>
-      <c r="E52" s="897"/>
-      <c r="F52" s="897"/>
-      <c r="G52" s="897"/>
-      <c r="H52" s="897"/>
-      <c r="I52" s="897"/>
-      <c r="J52" s="897"/>
-      <c r="K52" s="897"/>
-      <c r="L52" s="897"/>
-      <c r="M52" s="897"/>
-      <c r="N52" s="897"/>
+      <c r="B52" s="875"/>
+      <c r="C52" s="875"/>
+      <c r="D52" s="875"/>
+      <c r="E52" s="875"/>
+      <c r="F52" s="875"/>
+      <c r="G52" s="875"/>
+      <c r="H52" s="875"/>
+      <c r="I52" s="875"/>
+      <c r="J52" s="875"/>
+      <c r="K52" s="875"/>
+      <c r="L52" s="875"/>
+      <c r="M52" s="875"/>
+      <c r="N52" s="875"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F38AF2A4-EC1D-460A-B405-E4A69D902BA6}" showGridLines="0">
+    <customSheetView guid="{F38AF2A4-EC1D-460A-B405-E4A69D902BA6}" showPageBreaks="1" showGridLines="0" printArea="1">
       <selection activeCell="L7" sqref="L7:N7"/>
       <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
       <printOptions horizontalCentered="1"/>
@@ -28947,14 +28921,12 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="29">
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="L5:N5"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
@@ -28970,12 +28942,14 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:N12"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A19:N19"/>
   </mergeCells>
   <conditionalFormatting sqref="N27:N38 N48 N41:N42 N50">
     <cfRule type="cellIs" dxfId="176" priority="13" stopIfTrue="1" operator="equal">
@@ -29286,19 +29260,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="907" t="s">
+      <c r="A1" s="916" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="907"/>
-      <c r="C1" s="907"/>
-      <c r="D1" s="907"/>
-      <c r="E1" s="907"/>
-      <c r="F1" s="907"/>
-      <c r="G1" s="907"/>
-      <c r="H1" s="907"/>
-      <c r="I1" s="907"/>
-      <c r="J1" s="907"/>
-      <c r="K1" s="907"/>
+      <c r="B1" s="916"/>
+      <c r="C1" s="916"/>
+      <c r="D1" s="916"/>
+      <c r="E1" s="916"/>
+      <c r="F1" s="916"/>
+      <c r="G1" s="916"/>
+      <c r="H1" s="916"/>
+      <c r="I1" s="916"/>
+      <c r="J1" s="916"/>
+      <c r="K1" s="916"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
       <c r="A2" s="517" t="s">
@@ -29332,19 +29306,19 @@
       <c r="K4" s="512"/>
     </row>
     <row r="5" spans="1:12" ht="42" customHeight="1">
-      <c r="A5" s="908" t="s">
+      <c r="A5" s="917" t="s">
         <v>545</v>
       </c>
-      <c r="B5" s="908"/>
-      <c r="C5" s="908"/>
-      <c r="D5" s="908"/>
-      <c r="E5" s="908"/>
-      <c r="F5" s="908"/>
-      <c r="G5" s="908"/>
-      <c r="H5" s="908"/>
-      <c r="I5" s="908"/>
-      <c r="J5" s="908"/>
-      <c r="K5" s="908"/>
+      <c r="B5" s="917"/>
+      <c r="C5" s="917"/>
+      <c r="D5" s="917"/>
+      <c r="E5" s="917"/>
+      <c r="F5" s="917"/>
+      <c r="G5" s="917"/>
+      <c r="H5" s="917"/>
+      <c r="I5" s="917"/>
+      <c r="J5" s="917"/>
+      <c r="K5" s="917"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="511" t="s">
@@ -29377,8 +29351,8 @@
       <c r="K7" s="506"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="J8" s="909"/>
-      <c r="K8" s="909"/>
+      <c r="J8" s="918"/>
+      <c r="K8" s="918"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="492"/>
@@ -29387,10 +29361,10 @@
         <v>396</v>
       </c>
       <c r="I9" s="505"/>
-      <c r="J9" s="910" t="s">
+      <c r="J9" s="919" t="s">
         <v>390</v>
       </c>
-      <c r="K9" s="910"/>
+      <c r="K9" s="919"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="504" t="s">
@@ -29565,19 +29539,19 @@
       <c r="L20" s="492"/>
     </row>
     <row r="21" spans="1:12" ht="24" customHeight="1">
-      <c r="A21" s="911" t="s">
+      <c r="A21" s="907" t="s">
         <v>415</v>
       </c>
-      <c r="B21" s="911"/>
-      <c r="C21" s="911"/>
-      <c r="D21" s="911"/>
-      <c r="E21" s="911"/>
-      <c r="F21" s="911"/>
-      <c r="G21" s="911"/>
-      <c r="H21" s="911"/>
-      <c r="I21" s="911"/>
-      <c r="J21" s="911"/>
-      <c r="K21" s="911"/>
+      <c r="B21" s="907"/>
+      <c r="C21" s="907"/>
+      <c r="D21" s="907"/>
+      <c r="E21" s="907"/>
+      <c r="F21" s="907"/>
+      <c r="G21" s="907"/>
+      <c r="H21" s="907"/>
+      <c r="I21" s="907"/>
+      <c r="J21" s="907"/>
+      <c r="K21" s="907"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="491"/>
@@ -29593,127 +29567,127 @@
       <c r="K22" s="490"/>
     </row>
     <row r="23" spans="1:12" ht="290.25" customHeight="1">
-      <c r="A23" s="912"/>
-      <c r="B23" s="913"/>
-      <c r="C23" s="913"/>
-      <c r="D23" s="913"/>
-      <c r="E23" s="913"/>
-      <c r="F23" s="913"/>
-      <c r="G23" s="913"/>
-      <c r="H23" s="913"/>
-      <c r="I23" s="913"/>
-      <c r="J23" s="913"/>
-      <c r="K23" s="914"/>
+      <c r="A23" s="908"/>
+      <c r="B23" s="909"/>
+      <c r="C23" s="909"/>
+      <c r="D23" s="909"/>
+      <c r="E23" s="909"/>
+      <c r="F23" s="909"/>
+      <c r="G23" s="909"/>
+      <c r="H23" s="909"/>
+      <c r="I23" s="909"/>
+      <c r="J23" s="909"/>
+      <c r="K23" s="910"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="915"/>
-      <c r="B24" s="915"/>
-      <c r="C24" s="915"/>
-      <c r="D24" s="915"/>
-      <c r="E24" s="915"/>
-      <c r="F24" s="915"/>
-      <c r="G24" s="915"/>
-      <c r="H24" s="915"/>
-      <c r="I24" s="915"/>
-      <c r="J24" s="915"/>
-      <c r="K24" s="915"/>
-    </row>
-    <row r="25" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A25" s="916"/>
-      <c r="B25" s="916"/>
-      <c r="C25" s="916"/>
-      <c r="D25" s="916"/>
-      <c r="E25" s="916"/>
-      <c r="F25" s="916"/>
-      <c r="G25" s="916"/>
-      <c r="H25" s="916"/>
-      <c r="I25" s="916"/>
-      <c r="J25" s="916"/>
-      <c r="K25" s="916"/>
-    </row>
-    <row r="26" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A26" s="916"/>
-      <c r="B26" s="916"/>
-      <c r="C26" s="916"/>
-      <c r="D26" s="916"/>
-      <c r="E26" s="916"/>
-      <c r="F26" s="916"/>
-      <c r="G26" s="916"/>
-      <c r="H26" s="916"/>
-      <c r="I26" s="916"/>
-      <c r="J26" s="916"/>
-      <c r="K26" s="916"/>
-    </row>
-    <row r="27" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A27" s="916"/>
-      <c r="B27" s="916"/>
-      <c r="C27" s="916"/>
-      <c r="D27" s="916"/>
-      <c r="E27" s="916"/>
-      <c r="F27" s="916"/>
-      <c r="G27" s="916"/>
-      <c r="H27" s="916"/>
-      <c r="I27" s="916"/>
-      <c r="J27" s="916"/>
-      <c r="K27" s="916"/>
-    </row>
-    <row r="28" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A28" s="916"/>
-      <c r="B28" s="916"/>
-      <c r="C28" s="916"/>
-      <c r="D28" s="916"/>
-      <c r="E28" s="916"/>
-      <c r="F28" s="916"/>
-      <c r="G28" s="916"/>
-      <c r="H28" s="916"/>
-      <c r="I28" s="916"/>
-      <c r="J28" s="916"/>
-      <c r="K28" s="916"/>
-    </row>
-    <row r="29" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A29" s="916"/>
-      <c r="B29" s="916"/>
-      <c r="C29" s="916"/>
-      <c r="D29" s="916"/>
-      <c r="E29" s="916"/>
-      <c r="F29" s="916"/>
-      <c r="G29" s="916"/>
-      <c r="H29" s="916"/>
-      <c r="I29" s="916"/>
-      <c r="J29" s="916"/>
-      <c r="K29" s="916"/>
+      <c r="A24" s="911"/>
+      <c r="B24" s="911"/>
+      <c r="C24" s="911"/>
+      <c r="D24" s="911"/>
+      <c r="E24" s="911"/>
+      <c r="F24" s="911"/>
+      <c r="G24" s="911"/>
+      <c r="H24" s="911"/>
+      <c r="I24" s="911"/>
+      <c r="J24" s="911"/>
+      <c r="K24" s="911"/>
+    </row>
+    <row r="25" spans="1:12" hidden="1">
+      <c r="A25" s="912"/>
+      <c r="B25" s="912"/>
+      <c r="C25" s="912"/>
+      <c r="D25" s="912"/>
+      <c r="E25" s="912"/>
+      <c r="F25" s="912"/>
+      <c r="G25" s="912"/>
+      <c r="H25" s="912"/>
+      <c r="I25" s="912"/>
+      <c r="J25" s="912"/>
+      <c r="K25" s="912"/>
+    </row>
+    <row r="26" spans="1:12" hidden="1">
+      <c r="A26" s="912"/>
+      <c r="B26" s="912"/>
+      <c r="C26" s="912"/>
+      <c r="D26" s="912"/>
+      <c r="E26" s="912"/>
+      <c r="F26" s="912"/>
+      <c r="G26" s="912"/>
+      <c r="H26" s="912"/>
+      <c r="I26" s="912"/>
+      <c r="J26" s="912"/>
+      <c r="K26" s="912"/>
+    </row>
+    <row r="27" spans="1:12" hidden="1">
+      <c r="A27" s="912"/>
+      <c r="B27" s="912"/>
+      <c r="C27" s="912"/>
+      <c r="D27" s="912"/>
+      <c r="E27" s="912"/>
+      <c r="F27" s="912"/>
+      <c r="G27" s="912"/>
+      <c r="H27" s="912"/>
+      <c r="I27" s="912"/>
+      <c r="J27" s="912"/>
+      <c r="K27" s="912"/>
+    </row>
+    <row r="28" spans="1:12" hidden="1">
+      <c r="A28" s="912"/>
+      <c r="B28" s="912"/>
+      <c r="C28" s="912"/>
+      <c r="D28" s="912"/>
+      <c r="E28" s="912"/>
+      <c r="F28" s="912"/>
+      <c r="G28" s="912"/>
+      <c r="H28" s="912"/>
+      <c r="I28" s="912"/>
+      <c r="J28" s="912"/>
+      <c r="K28" s="912"/>
+    </row>
+    <row r="29" spans="1:12" hidden="1">
+      <c r="A29" s="912"/>
+      <c r="B29" s="912"/>
+      <c r="C29" s="912"/>
+      <c r="D29" s="912"/>
+      <c r="E29" s="912"/>
+      <c r="F29" s="912"/>
+      <c r="G29" s="912"/>
+      <c r="H29" s="912"/>
+      <c r="I29" s="912"/>
+      <c r="J29" s="912"/>
+      <c r="K29" s="912"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A30" s="916"/>
-      <c r="B30" s="916"/>
-      <c r="C30" s="916"/>
-      <c r="D30" s="916"/>
-      <c r="E30" s="916"/>
-      <c r="F30" s="916"/>
-      <c r="G30" s="916"/>
-      <c r="H30" s="916"/>
-      <c r="I30" s="916"/>
-      <c r="J30" s="916"/>
-      <c r="K30" s="916"/>
+      <c r="A30" s="912"/>
+      <c r="B30" s="912"/>
+      <c r="C30" s="912"/>
+      <c r="D30" s="912"/>
+      <c r="E30" s="912"/>
+      <c r="F30" s="912"/>
+      <c r="G30" s="912"/>
+      <c r="H30" s="912"/>
+      <c r="I30" s="912"/>
+      <c r="J30" s="912"/>
+      <c r="K30" s="912"/>
     </row>
     <row r="31" spans="1:12" ht="201.75" customHeight="1" thickBot="1">
-      <c r="A31" s="917" t="s">
+      <c r="A31" s="913" t="s">
         <v>541</v>
       </c>
-      <c r="B31" s="918"/>
-      <c r="C31" s="918"/>
-      <c r="D31" s="918"/>
-      <c r="E31" s="918"/>
-      <c r="F31" s="918"/>
-      <c r="G31" s="918"/>
-      <c r="H31" s="918"/>
-      <c r="I31" s="918"/>
-      <c r="J31" s="918"/>
-      <c r="K31" s="919"/>
+      <c r="B31" s="914"/>
+      <c r="C31" s="914"/>
+      <c r="D31" s="914"/>
+      <c r="E31" s="914"/>
+      <c r="F31" s="914"/>
+      <c r="G31" s="914"/>
+      <c r="H31" s="914"/>
+      <c r="I31" s="914"/>
+      <c r="J31" s="914"/>
+      <c r="K31" s="915"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F38AF2A4-EC1D-460A-B405-E4A69D902BA6}" showGridLines="0" hiddenRows="1">
+    <customSheetView guid="{F38AF2A4-EC1D-460A-B405-E4A69D902BA6}" showPageBreaks="1" showGridLines="0" printArea="1" hiddenRows="1">
       <selection activeCell="L17" sqref="L17"/>
       <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
       <printOptions horizontalCentered="1"/>
@@ -29724,11 +29698,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="17">
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K30"/>
-    <mergeCell ref="A31:K31"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A5:K5"/>
@@ -29741,6 +29710,11 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K30"/>
+    <mergeCell ref="A31:K31"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:K18">
     <cfRule type="cellIs" dxfId="163" priority="2" stopIfTrue="1" operator="equal">
@@ -30295,13 +30269,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="935" t="s">
+      <c r="A1" s="922" t="s">
         <v>629</v>
       </c>
-      <c r="B1" s="936"/>
-      <c r="C1" s="936"/>
-      <c r="D1" s="936"/>
-      <c r="E1" s="936"/>
+      <c r="B1" s="923"/>
+      <c r="C1" s="923"/>
+      <c r="D1" s="923"/>
+      <c r="E1" s="923"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="717"/>
@@ -30314,23 +30288,23 @@
       <c r="A3" s="718" t="s">
         <v>630</v>
       </c>
-      <c r="B3" s="937">
+      <c r="B3" s="924">
         <f>'QC Test Summary-Siemens'!C4</f>
         <v>0</v>
       </c>
-      <c r="C3" s="937"/>
-      <c r="D3" s="937"/>
-      <c r="E3" s="937"/>
+      <c r="C3" s="924"/>
+      <c r="D3" s="924"/>
+      <c r="E3" s="924"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="718" t="s">
         <v>631</v>
       </c>
-      <c r="B4" s="938" t="str">
+      <c r="B4" s="925" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="C4" s="938"/>
+      <c r="C4" s="925"/>
       <c r="D4" s="719" t="s">
         <v>43</v>
       </c>
@@ -30360,11 +30334,11 @@
       <c r="A6" s="718" t="s">
         <v>634</v>
       </c>
-      <c r="B6" s="938" t="str">
+      <c r="B6" s="925" t="str">
         <f>Sheet1!X7</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="C6" s="938"/>
+      <c r="C6" s="925"/>
       <c r="D6" s="719" t="s">
         <v>635</v>
       </c>
@@ -30377,8 +30351,8 @@
       <c r="A7" s="718" t="s">
         <v>636</v>
       </c>
-      <c r="B7" s="938"/>
-      <c r="C7" s="938"/>
+      <c r="B7" s="925"/>
+      <c r="C7" s="925"/>
       <c r="D7" s="719" t="s">
         <v>637</v>
       </c>
@@ -30406,7 +30380,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" thickTop="1">
-      <c r="A10" s="934" t="s">
+      <c r="A10" s="920" t="s">
         <v>642</v>
       </c>
       <c r="B10" s="726" t="s">
@@ -30421,7 +30395,7 @@
       <c r="E10" s="729"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A11" s="930"/>
+      <c r="A11" s="921"/>
       <c r="B11" s="730" t="s">
         <v>646</v>
       </c>
@@ -30434,7 +30408,7 @@
       <c r="E11" s="733"/>
     </row>
     <row r="12" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A12" s="925" t="s">
+      <c r="A12" s="931" t="s">
         <v>648</v>
       </c>
       <c r="B12" s="734" t="s">
@@ -30449,7 +30423,7 @@
       <c r="E12" s="737"/>
     </row>
     <row r="13" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A13" s="926"/>
+      <c r="A13" s="932"/>
       <c r="B13" s="738" t="s">
         <v>652</v>
       </c>
@@ -30462,7 +30436,7 @@
       <c r="E13" s="741"/>
     </row>
     <row r="14" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A14" s="927"/>
+      <c r="A14" s="933"/>
       <c r="B14" s="742" t="s">
         <v>654</v>
       </c>
@@ -30475,7 +30449,7 @@
       <c r="E14" s="744"/>
     </row>
     <row r="15" spans="1:5" ht="56.25">
-      <c r="A15" s="928" t="s">
+      <c r="A15" s="934" t="s">
         <v>656</v>
       </c>
       <c r="B15" s="745" t="s">
@@ -30490,7 +30464,7 @@
       <c r="E15" s="747"/>
     </row>
     <row r="16" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A16" s="929"/>
+      <c r="A16" s="935"/>
       <c r="B16" s="730" t="s">
         <v>659</v>
       </c>
@@ -30503,7 +30477,7 @@
       <c r="E16" s="749"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A17" s="920" t="s">
+      <c r="A17" s="926" t="s">
         <v>661</v>
       </c>
       <c r="B17" s="750" t="s">
@@ -30518,7 +30492,7 @@
       <c r="E17" s="751"/>
     </row>
     <row r="18" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A18" s="930"/>
+      <c r="A18" s="921"/>
       <c r="B18" s="752" t="s">
         <v>664</v>
       </c>
@@ -30531,7 +30505,7 @@
       <c r="E18" s="733"/>
     </row>
     <row r="19" spans="1:5" ht="33.75">
-      <c r="A19" s="931" t="s">
+      <c r="A19" s="936" t="s">
         <v>666</v>
       </c>
       <c r="B19" s="750" t="s">
@@ -30546,7 +30520,7 @@
       <c r="E19" s="751"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A20" s="932"/>
+      <c r="A20" s="937"/>
       <c r="B20" s="754" t="s">
         <v>669</v>
       </c>
@@ -30559,7 +30533,7 @@
       <c r="E20" s="756"/>
     </row>
     <row r="21" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A21" s="933"/>
+      <c r="A21" s="938"/>
       <c r="B21" s="752" t="s">
         <v>671</v>
       </c>
@@ -30572,7 +30546,7 @@
       <c r="E21" s="733"/>
     </row>
     <row r="22" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A22" s="920" t="s">
+      <c r="A22" s="926" t="s">
         <v>673</v>
       </c>
       <c r="B22" s="750" t="s">
@@ -30587,7 +30561,7 @@
       <c r="E22" s="751"/>
     </row>
     <row r="23" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A23" s="930"/>
+      <c r="A23" s="921"/>
       <c r="B23" s="730" t="s">
         <v>676</v>
       </c>
@@ -30600,7 +30574,7 @@
       <c r="E23" s="749"/>
     </row>
     <row r="24" spans="1:5" ht="33.75">
-      <c r="A24" s="931" t="s">
+      <c r="A24" s="936" t="s">
         <v>678</v>
       </c>
       <c r="B24" s="750" t="s">
@@ -30615,7 +30589,7 @@
       <c r="E24" s="751"/>
     </row>
     <row r="25" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A25" s="932"/>
+      <c r="A25" s="937"/>
       <c r="B25" s="754" t="s">
         <v>681</v>
       </c>
@@ -30628,7 +30602,7 @@
       <c r="E25" s="756"/>
     </row>
     <row r="26" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A26" s="932"/>
+      <c r="A26" s="937"/>
       <c r="B26" s="757" t="s">
         <v>683</v>
       </c>
@@ -30641,7 +30615,7 @@
       <c r="E26" s="756"/>
     </row>
     <row r="27" spans="1:5" ht="22.5">
-      <c r="A27" s="932"/>
+      <c r="A27" s="937"/>
       <c r="B27" s="757" t="s">
         <v>685</v>
       </c>
@@ -30654,7 +30628,7 @@
       <c r="E27" s="756"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A28" s="933"/>
+      <c r="A28" s="938"/>
       <c r="B28" s="758" t="s">
         <v>687</v>
       </c>
@@ -30667,7 +30641,7 @@
       <c r="E28" s="749"/>
     </row>
     <row r="29" spans="1:5" ht="22.5">
-      <c r="A29" s="920" t="s">
+      <c r="A29" s="926" t="s">
         <v>689</v>
       </c>
       <c r="B29" s="759" t="s">
@@ -30682,7 +30656,7 @@
       <c r="E29" s="751"/>
     </row>
     <row r="30" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A30" s="921"/>
+      <c r="A30" s="927"/>
       <c r="B30" s="757" t="s">
         <v>692</v>
       </c>
@@ -30695,7 +30669,7 @@
       <c r="E30" s="756"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A31" s="922"/>
+      <c r="A31" s="928"/>
       <c r="B31" s="758" t="s">
         <v>694</v>
       </c>
@@ -30708,7 +30682,7 @@
       <c r="E31" s="749"/>
     </row>
     <row r="32" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A32" s="920" t="s">
+      <c r="A32" s="926" t="s">
         <v>696</v>
       </c>
       <c r="B32" s="759" t="s">
@@ -30723,7 +30697,7 @@
       <c r="E32" s="751"/>
     </row>
     <row r="33" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A33" s="921"/>
+      <c r="A33" s="927"/>
       <c r="B33" s="757" t="s">
         <v>699</v>
       </c>
@@ -30736,7 +30710,7 @@
       <c r="E33" s="756"/>
     </row>
     <row r="34" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A34" s="922"/>
+      <c r="A34" s="928"/>
       <c r="B34" s="758" t="s">
         <v>700</v>
       </c>
@@ -30824,13 +30798,13 @@
       <c r="E39" s="733"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="923" t="s">
+      <c r="A40" s="929" t="s">
         <v>765</v>
       </c>
-      <c r="B40" s="924"/>
-      <c r="C40" s="924"/>
-      <c r="D40" s="924"/>
-      <c r="E40" s="924"/>
+      <c r="B40" s="930"/>
+      <c r="C40" s="930"/>
+      <c r="D40" s="930"/>
+      <c r="E40" s="930"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="768"/>
@@ -31527,7 +31501,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F38AF2A4-EC1D-460A-B405-E4A69D902BA6}" scale="125" showGridLines="0">
+    <customSheetView guid="{F38AF2A4-EC1D-460A-B405-E4A69D902BA6}" scale="125" showPageBreaks="1" showGridLines="0" printArea="1">
       <selection activeCell="B3" sqref="B3:E3"/>
       <rowBreaks count="1" manualBreakCount="1">
         <brk id="23" max="4" man="1"/>
@@ -31545,12 +31519,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="15">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A40:E40"/>
@@ -31560,6 +31528,12 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E10 JA10 SW10 ACS10 AMO10 AWK10 BGG10 BQC10 BZY10 CJU10 CTQ10 DDM10 DNI10 DXE10 EHA10 EQW10 FAS10 FKO10 FUK10 GEG10 GOC10 GXY10 HHU10 HRQ10 IBM10 ILI10 IVE10 JFA10 JOW10 JYS10 KIO10 KSK10 LCG10 LMC10 LVY10 MFU10 MPQ10 MZM10 NJI10 NTE10 ODA10 OMW10 OWS10 PGO10 PQK10 QAG10 QKC10 QTY10 RDU10 RNQ10 RXM10 SHI10 SRE10 TBA10 TKW10 TUS10 UEO10 UOK10 UYG10 VIC10 VRY10 WBU10 WLQ10 WVM10 E65546 JA65546 SW65546 ACS65546 AMO65546 AWK65546 BGG65546 BQC65546 BZY65546 CJU65546 CTQ65546 DDM65546 DNI65546 DXE65546 EHA65546 EQW65546 FAS65546 FKO65546 FUK65546 GEG65546 GOC65546 GXY65546 HHU65546 HRQ65546 IBM65546 ILI65546 IVE65546 JFA65546 JOW65546 JYS65546 KIO65546 KSK65546 LCG65546 LMC65546 LVY65546 MFU65546 MPQ65546 MZM65546 NJI65546 NTE65546 ODA65546 OMW65546 OWS65546 PGO65546 PQK65546 QAG65546 QKC65546 QTY65546 RDU65546 RNQ65546 RXM65546 SHI65546 SRE65546 TBA65546 TKW65546 TUS65546 UEO65546 UOK65546 UYG65546 VIC65546 VRY65546 WBU65546 WLQ65546 WVM65546 E131082 JA131082 SW131082 ACS131082 AMO131082 AWK131082 BGG131082 BQC131082 BZY131082 CJU131082 CTQ131082 DDM131082 DNI131082 DXE131082 EHA131082 EQW131082 FAS131082 FKO131082 FUK131082 GEG131082 GOC131082 GXY131082 HHU131082 HRQ131082 IBM131082 ILI131082 IVE131082 JFA131082 JOW131082 JYS131082 KIO131082 KSK131082 LCG131082 LMC131082 LVY131082 MFU131082 MPQ131082 MZM131082 NJI131082 NTE131082 ODA131082 OMW131082 OWS131082 PGO131082 PQK131082 QAG131082 QKC131082 QTY131082 RDU131082 RNQ131082 RXM131082 SHI131082 SRE131082 TBA131082 TKW131082 TUS131082 UEO131082 UOK131082 UYG131082 VIC131082 VRY131082 WBU131082 WLQ131082 WVM131082 E196618 JA196618 SW196618 ACS196618 AMO196618 AWK196618 BGG196618 BQC196618 BZY196618 CJU196618 CTQ196618 DDM196618 DNI196618 DXE196618 EHA196618 EQW196618 FAS196618 FKO196618 FUK196618 GEG196618 GOC196618 GXY196618 HHU196618 HRQ196618 IBM196618 ILI196618 IVE196618 JFA196618 JOW196618 JYS196618 KIO196618 KSK196618 LCG196618 LMC196618 LVY196618 MFU196618 MPQ196618 MZM196618 NJI196618 NTE196618 ODA196618 OMW196618 OWS196618 PGO196618 PQK196618 QAG196618 QKC196618 QTY196618 RDU196618 RNQ196618 RXM196618 SHI196618 SRE196618 TBA196618 TKW196618 TUS196618 UEO196618 UOK196618 UYG196618 VIC196618 VRY196618 WBU196618 WLQ196618 WVM196618 E262154 JA262154 SW262154 ACS262154 AMO262154 AWK262154 BGG262154 BQC262154 BZY262154 CJU262154 CTQ262154 DDM262154 DNI262154 DXE262154 EHA262154 EQW262154 FAS262154 FKO262154 FUK262154 GEG262154 GOC262154 GXY262154 HHU262154 HRQ262154 IBM262154 ILI262154 IVE262154 JFA262154 JOW262154 JYS262154 KIO262154 KSK262154 LCG262154 LMC262154 LVY262154 MFU262154 MPQ262154 MZM262154 NJI262154 NTE262154 ODA262154 OMW262154 OWS262154 PGO262154 PQK262154 QAG262154 QKC262154 QTY262154 RDU262154 RNQ262154 RXM262154 SHI262154 SRE262154 TBA262154 TKW262154 TUS262154 UEO262154 UOK262154 UYG262154 VIC262154 VRY262154 WBU262154 WLQ262154 WVM262154 E327690 JA327690 SW327690 ACS327690 AMO327690 AWK327690 BGG327690 BQC327690 BZY327690 CJU327690 CTQ327690 DDM327690 DNI327690 DXE327690 EHA327690 EQW327690 FAS327690 FKO327690 FUK327690 GEG327690 GOC327690 GXY327690 HHU327690 HRQ327690 IBM327690 ILI327690 IVE327690 JFA327690 JOW327690 JYS327690 KIO327690 KSK327690 LCG327690 LMC327690 LVY327690 MFU327690 MPQ327690 MZM327690 NJI327690 NTE327690 ODA327690 OMW327690 OWS327690 PGO327690 PQK327690 QAG327690 QKC327690 QTY327690 RDU327690 RNQ327690 RXM327690 SHI327690 SRE327690 TBA327690 TKW327690 TUS327690 UEO327690 UOK327690 UYG327690 VIC327690 VRY327690 WBU327690 WLQ327690 WVM327690 E393226 JA393226 SW393226 ACS393226 AMO393226 AWK393226 BGG393226 BQC393226 BZY393226 CJU393226 CTQ393226 DDM393226 DNI393226 DXE393226 EHA393226 EQW393226 FAS393226 FKO393226 FUK393226 GEG393226 GOC393226 GXY393226 HHU393226 HRQ393226 IBM393226 ILI393226 IVE393226 JFA393226 JOW393226 JYS393226 KIO393226 KSK393226 LCG393226 LMC393226 LVY393226 MFU393226 MPQ393226 MZM393226 NJI393226 NTE393226 ODA393226 OMW393226 OWS393226 PGO393226 PQK393226 QAG393226 QKC393226 QTY393226 RDU393226 RNQ393226 RXM393226 SHI393226 SRE393226 TBA393226 TKW393226 TUS393226 UEO393226 UOK393226 UYG393226 VIC393226 VRY393226 WBU393226 WLQ393226 WVM393226 E458762 JA458762 SW458762 ACS458762 AMO458762 AWK458762 BGG458762 BQC458762 BZY458762 CJU458762 CTQ458762 DDM458762 DNI458762 DXE458762 EHA458762 EQW458762 FAS458762 FKO458762 FUK458762 GEG458762 GOC458762 GXY458762 HHU458762 HRQ458762 IBM458762 ILI458762 IVE458762 JFA458762 JOW458762 JYS458762 KIO458762 KSK458762 LCG458762 LMC458762 LVY458762 MFU458762 MPQ458762 MZM458762 NJI458762 NTE458762 ODA458762 OMW458762 OWS458762 PGO458762 PQK458762 QAG458762 QKC458762 QTY458762 RDU458762 RNQ458762 RXM458762 SHI458762 SRE458762 TBA458762 TKW458762 TUS458762 UEO458762 UOK458762 UYG458762 VIC458762 VRY458762 WBU458762 WLQ458762 WVM458762 E524298 JA524298 SW524298 ACS524298 AMO524298 AWK524298 BGG524298 BQC524298 BZY524298 CJU524298 CTQ524298 DDM524298 DNI524298 DXE524298 EHA524298 EQW524298 FAS524298 FKO524298 FUK524298 GEG524298 GOC524298 GXY524298 HHU524298 HRQ524298 IBM524298 ILI524298 IVE524298 JFA524298 JOW524298 JYS524298 KIO524298 KSK524298 LCG524298 LMC524298 LVY524298 MFU524298 MPQ524298 MZM524298 NJI524298 NTE524298 ODA524298 OMW524298 OWS524298 PGO524298 PQK524298 QAG524298 QKC524298 QTY524298 RDU524298 RNQ524298 RXM524298 SHI524298 SRE524298 TBA524298 TKW524298 TUS524298 UEO524298 UOK524298 UYG524298 VIC524298 VRY524298 WBU524298 WLQ524298 WVM524298 E589834 JA589834 SW589834 ACS589834 AMO589834 AWK589834 BGG589834 BQC589834 BZY589834 CJU589834 CTQ589834 DDM589834 DNI589834 DXE589834 EHA589834 EQW589834 FAS589834 FKO589834 FUK589834 GEG589834 GOC589834 GXY589834 HHU589834 HRQ589834 IBM589834 ILI589834 IVE589834 JFA589834 JOW589834 JYS589834 KIO589834 KSK589834 LCG589834 LMC589834 LVY589834 MFU589834 MPQ589834 MZM589834 NJI589834 NTE589834 ODA589834 OMW589834 OWS589834 PGO589834 PQK589834 QAG589834 QKC589834 QTY589834 RDU589834 RNQ589834 RXM589834 SHI589834 SRE589834 TBA589834 TKW589834 TUS589834 UEO589834 UOK589834 UYG589834 VIC589834 VRY589834 WBU589834 WLQ589834 WVM589834 E655370 JA655370 SW655370 ACS655370 AMO655370 AWK655370 BGG655370 BQC655370 BZY655370 CJU655370 CTQ655370 DDM655370 DNI655370 DXE655370 EHA655370 EQW655370 FAS655370 FKO655370 FUK655370 GEG655370 GOC655370 GXY655370 HHU655370 HRQ655370 IBM655370 ILI655370 IVE655370 JFA655370 JOW655370 JYS655370 KIO655370 KSK655370 LCG655370 LMC655370 LVY655370 MFU655370 MPQ655370 MZM655370 NJI655370 NTE655370 ODA655370 OMW655370 OWS655370 PGO655370 PQK655370 QAG655370 QKC655370 QTY655370 RDU655370 RNQ655370 RXM655370 SHI655370 SRE655370 TBA655370 TKW655370 TUS655370 UEO655370 UOK655370 UYG655370 VIC655370 VRY655370 WBU655370 WLQ655370 WVM655370 E720906 JA720906 SW720906 ACS720906 AMO720906 AWK720906 BGG720906 BQC720906 BZY720906 CJU720906 CTQ720906 DDM720906 DNI720906 DXE720906 EHA720906 EQW720906 FAS720906 FKO720906 FUK720906 GEG720906 GOC720906 GXY720906 HHU720906 HRQ720906 IBM720906 ILI720906 IVE720906 JFA720906 JOW720906 JYS720906 KIO720906 KSK720906 LCG720906 LMC720906 LVY720906 MFU720906 MPQ720906 MZM720906 NJI720906 NTE720906 ODA720906 OMW720906 OWS720906 PGO720906 PQK720906 QAG720906 QKC720906 QTY720906 RDU720906 RNQ720906 RXM720906 SHI720906 SRE720906 TBA720906 TKW720906 TUS720906 UEO720906 UOK720906 UYG720906 VIC720906 VRY720906 WBU720906 WLQ720906 WVM720906 E786442 JA786442 SW786442 ACS786442 AMO786442 AWK786442 BGG786442 BQC786442 BZY786442 CJU786442 CTQ786442 DDM786442 DNI786442 DXE786442 EHA786442 EQW786442 FAS786442 FKO786442 FUK786442 GEG786442 GOC786442 GXY786442 HHU786442 HRQ786442 IBM786442 ILI786442 IVE786442 JFA786442 JOW786442 JYS786442 KIO786442 KSK786442 LCG786442 LMC786442 LVY786442 MFU786442 MPQ786442 MZM786442 NJI786442 NTE786442 ODA786442 OMW786442 OWS786442 PGO786442 PQK786442 QAG786442 QKC786442 QTY786442 RDU786442 RNQ786442 RXM786442 SHI786442 SRE786442 TBA786442 TKW786442 TUS786442 UEO786442 UOK786442 UYG786442 VIC786442 VRY786442 WBU786442 WLQ786442 WVM786442 E851978 JA851978 SW851978 ACS851978 AMO851978 AWK851978 BGG851978 BQC851978 BZY851978 CJU851978 CTQ851978 DDM851978 DNI851978 DXE851978 EHA851978 EQW851978 FAS851978 FKO851978 FUK851978 GEG851978 GOC851978 GXY851978 HHU851978 HRQ851978 IBM851978 ILI851978 IVE851978 JFA851978 JOW851978 JYS851978 KIO851978 KSK851978 LCG851978 LMC851978 LVY851978 MFU851978 MPQ851978 MZM851978 NJI851978 NTE851978 ODA851978 OMW851978 OWS851978 PGO851978 PQK851978 QAG851978 QKC851978 QTY851978 RDU851978 RNQ851978 RXM851978 SHI851978 SRE851978 TBA851978 TKW851978 TUS851978 UEO851978 UOK851978 UYG851978 VIC851978 VRY851978 WBU851978 WLQ851978 WVM851978 E917514 JA917514 SW917514 ACS917514 AMO917514 AWK917514 BGG917514 BQC917514 BZY917514 CJU917514 CTQ917514 DDM917514 DNI917514 DXE917514 EHA917514 EQW917514 FAS917514 FKO917514 FUK917514 GEG917514 GOC917514 GXY917514 HHU917514 HRQ917514 IBM917514 ILI917514 IVE917514 JFA917514 JOW917514 JYS917514 KIO917514 KSK917514 LCG917514 LMC917514 LVY917514 MFU917514 MPQ917514 MZM917514 NJI917514 NTE917514 ODA917514 OMW917514 OWS917514 PGO917514 PQK917514 QAG917514 QKC917514 QTY917514 RDU917514 RNQ917514 RXM917514 SHI917514 SRE917514 TBA917514 TKW917514 TUS917514 UEO917514 UOK917514 UYG917514 VIC917514 VRY917514 WBU917514 WLQ917514 WVM917514 E983050 JA983050 SW983050 ACS983050 AMO983050 AWK983050 BGG983050 BQC983050 BZY983050 CJU983050 CTQ983050 DDM983050 DNI983050 DXE983050 EHA983050 EQW983050 FAS983050 FKO983050 FUK983050 GEG983050 GOC983050 GXY983050 HHU983050 HRQ983050 IBM983050 ILI983050 IVE983050 JFA983050 JOW983050 JYS983050 KIO983050 KSK983050 LCG983050 LMC983050 LVY983050 MFU983050 MPQ983050 MZM983050 NJI983050 NTE983050 ODA983050 OMW983050 OWS983050 PGO983050 PQK983050 QAG983050 QKC983050 QTY983050 RDU983050 RNQ983050 RXM983050 SHI983050 SRE983050 TBA983050 TKW983050 TUS983050 UEO983050 UOK983050 UYG983050 VIC983050 VRY983050 WBU983050 WLQ983050 WVM983050"/>
@@ -33924,19 +33898,19 @@
       <c r="E10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="949" t="str">
+      <c r="F10" s="973" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="949"/>
+      <c r="G10" s="973"/>
       <c r="J10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="942" t="str">
+      <c r="K10" s="965" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="942"/>
+      <c r="L10" s="965"/>
       <c r="M10" s="68"/>
       <c r="O10" s="29"/>
       <c r="Q10" s="34" t="s">
@@ -34001,19 +33975,19 @@
       <c r="E11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="950" t="str">
+      <c r="F11" s="974" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="950"/>
+      <c r="G11" s="974"/>
       <c r="J11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="942" t="str">
+      <c r="K11" s="965" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="942"/>
+      <c r="L11" s="965"/>
       <c r="M11" s="68"/>
       <c r="O11" s="29"/>
       <c r="Q11" s="34" t="s">
@@ -34078,19 +34052,19 @@
       <c r="E12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="950" t="str">
+      <c r="F12" s="974" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="950"/>
+      <c r="G12" s="974"/>
       <c r="J12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="948" t="str">
+      <c r="K12" s="975" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="948"/>
+      <c r="L12" s="975"/>
       <c r="M12" s="68"/>
       <c r="O12" s="29"/>
       <c r="Q12" s="34" t="s">
@@ -34155,19 +34129,19 @@
       <c r="E13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="950" t="str">
+      <c r="F13" s="974" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="950"/>
+      <c r="G13" s="974"/>
       <c r="J13" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="942" t="str">
+      <c r="K13" s="965" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="942"/>
+      <c r="L13" s="965"/>
       <c r="M13" s="68"/>
       <c r="O13" s="29"/>
       <c r="Q13" s="34" t="s">
@@ -34341,19 +34315,19 @@
       <c r="E16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="942" t="str">
+      <c r="F16" s="965" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="942"/>
+      <c r="G16" s="965"/>
       <c r="J16" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="948" t="str">
+      <c r="K16" s="975" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="948"/>
+      <c r="L16" s="975"/>
       <c r="M16" s="68"/>
       <c r="O16" s="29"/>
       <c r="P16" s="74" t="s">
@@ -34405,19 +34379,19 @@
       <c r="E17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="942" t="str">
+      <c r="F17" s="965" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="942"/>
+      <c r="G17" s="965"/>
       <c r="J17" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="951" t="str">
+      <c r="K17" s="976" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="951"/>
+      <c r="L17" s="976"/>
       <c r="M17" s="68"/>
       <c r="O17" s="29"/>
       <c r="Q17" s="34" t="s">
@@ -34482,19 +34456,19 @@
       <c r="E18" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="942" t="str">
+      <c r="F18" s="965" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="942"/>
+      <c r="G18" s="965"/>
       <c r="J18" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="942" t="str">
+      <c r="K18" s="965" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="942"/>
+      <c r="L18" s="965"/>
       <c r="M18" s="68"/>
       <c r="O18" s="29"/>
       <c r="Q18" s="34" t="s">
@@ -34660,19 +34634,19 @@
       <c r="E21" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="942" t="str">
+      <c r="F21" s="965" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="942"/>
+      <c r="G21" s="965"/>
       <c r="J21" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="942" t="str">
+      <c r="K21" s="965" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L21" s="942"/>
+      <c r="L21" s="965"/>
       <c r="M21" s="68"/>
       <c r="O21" s="29"/>
       <c r="P21" s="74" t="s">
@@ -34732,17 +34706,17 @@
       <c r="E22" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="948" t="str">
+      <c r="F22" s="975" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="948"/>
+      <c r="G22" s="975"/>
       <c r="J22" s="34"/>
-      <c r="K22" s="942" t="str">
+      <c r="K22" s="965" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="942"/>
+      <c r="L22" s="965"/>
       <c r="M22" s="68"/>
       <c r="O22" s="29"/>
       <c r="Q22" s="34" t="s">
@@ -34807,11 +34781,11 @@
       <c r="J23" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="942" t="str">
+      <c r="K23" s="965" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="942"/>
+      <c r="L23" s="965"/>
       <c r="M23" s="68"/>
       <c r="O23" s="29"/>
       <c r="Q23" s="34" t="s">
@@ -34870,16 +34844,16 @@
       <c r="E24" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="942" t="str">
+      <c r="F24" s="965" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="942"/>
-      <c r="K24" s="942" t="str">
+      <c r="G24" s="965"/>
+      <c r="K24" s="965" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="942"/>
+      <c r="L24" s="965"/>
       <c r="M24" s="68"/>
       <c r="O24" s="29"/>
       <c r="P24" s="74" t="s">
@@ -34939,17 +34913,17 @@
       <c r="E25" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="942" t="str">
+      <c r="F25" s="965" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="942"/>
+      <c r="G25" s="965"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="942" t="str">
+      <c r="K25" s="965" t="str">
         <f>IF(V26="","",V26)</f>
         <v/>
       </c>
-      <c r="L25" s="942"/>
+      <c r="L25" s="965"/>
       <c r="M25" s="68"/>
       <c r="O25" s="29"/>
       <c r="Q25" s="34" t="s">
@@ -35011,11 +34985,11 @@
       <c r="E26" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="942" t="str">
+      <c r="F26" s="965" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="942"/>
+      <c r="G26" s="965"/>
       <c r="I26" s="74" t="s">
         <v>54</v>
       </c>
@@ -35083,11 +35057,11 @@
       <c r="J27" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="K27" s="942" t="str">
+      <c r="K27" s="965" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="942"/>
+      <c r="L27" s="965"/>
       <c r="M27" s="68"/>
       <c r="O27" s="29"/>
       <c r="Q27" s="34" t="s">
@@ -35138,20 +35112,20 @@
       <c r="E28" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="942" t="str">
+      <c r="F28" s="965" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="942"/>
+      <c r="G28" s="965"/>
       <c r="I28" s="4"/>
       <c r="J28" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="K28" s="942" t="str">
+      <c r="K28" s="965" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="942"/>
+      <c r="L28" s="965"/>
       <c r="M28" s="68"/>
       <c r="O28" s="29"/>
       <c r="P28" s="74" t="s">
@@ -35211,22 +35185,22 @@
       <c r="E29" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="942" t="str">
+      <c r="F29" s="965" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="942"/>
+      <c r="G29" s="965"/>
       <c r="I29" s="74" t="s">
         <v>58</v>
       </c>
       <c r="J29" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="K29" s="942" t="str">
+      <c r="K29" s="965" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="942"/>
+      <c r="L29" s="965"/>
       <c r="M29" s="68"/>
       <c r="O29" s="29"/>
       <c r="Q29" s="34" t="s">
@@ -35291,19 +35265,19 @@
       <c r="E30" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="942" t="str">
+      <c r="F30" s="965" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="942"/>
+      <c r="G30" s="965"/>
       <c r="J30" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="942" t="str">
+      <c r="K30" s="965" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="942"/>
+      <c r="L30" s="965"/>
       <c r="M30" s="68"/>
       <c r="O30" s="29"/>
       <c r="Q30" s="34" t="s">
@@ -35594,21 +35568,21 @@
       <c r="C35" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="952" t="s">
+      <c r="D35" s="972" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="952"/>
-      <c r="F35" s="952"/>
-      <c r="G35" s="952" t="s">
+      <c r="E35" s="972"/>
+      <c r="F35" s="972"/>
+      <c r="G35" s="972" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="952"/>
-      <c r="I35" s="952"/>
-      <c r="J35" s="952" t="s">
+      <c r="H35" s="972"/>
+      <c r="I35" s="972"/>
+      <c r="J35" s="972" t="s">
         <v>65</v>
       </c>
-      <c r="K35" s="952"/>
-      <c r="L35" s="952"/>
+      <c r="K35" s="972"/>
+      <c r="L35" s="972"/>
       <c r="M35" s="68"/>
       <c r="O35" s="869"/>
       <c r="P35" s="870" t="s">
@@ -35670,11 +35644,11 @@
       <c r="D36" s="530"/>
       <c r="E36" s="531"/>
       <c r="F36" s="536"/>
-      <c r="G36" s="953" t="s">
+      <c r="G36" s="968" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="953"/>
-      <c r="I36" s="953"/>
+      <c r="H36" s="968"/>
+      <c r="I36" s="968"/>
       <c r="J36" s="530"/>
       <c r="K36" s="531"/>
       <c r="L36" s="536"/>
@@ -36247,10 +36221,10 @@
       <c r="C44" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="L44" s="954" t="s">
+      <c r="L44" s="969" t="s">
         <v>88</v>
       </c>
-      <c r="M44" s="954"/>
+      <c r="M44" s="969"/>
       <c r="O44" s="871"/>
       <c r="P44" s="872" t="str">
         <f>IF(OR(O35="",O35=1),"Unit installed as shown on shielding plan","")</f>
@@ -39827,7 +39801,7 @@
         <v>65</v>
       </c>
       <c r="W121" s="956"/>
-      <c r="X121" s="961"/>
+      <c r="X121" s="970"/>
       <c r="Y121" s="31"/>
       <c r="AA121" s="34" t="s">
         <v>196</v>
@@ -39884,7 +39858,7 @@
       <c r="U122" s="960"/>
       <c r="V122" s="958"/>
       <c r="W122" s="959"/>
-      <c r="X122" s="962"/>
+      <c r="X122" s="971"/>
       <c r="Y122" s="31"/>
       <c r="AA122" s="34" t="s">
         <v>197</v>
@@ -40381,11 +40355,11 @@
       </c>
       <c r="T129" s="956"/>
       <c r="U129" s="957"/>
-      <c r="V129" s="963" t="s">
+      <c r="V129" s="961" t="s">
         <v>65</v>
       </c>
-      <c r="W129" s="964"/>
-      <c r="X129" s="965"/>
+      <c r="W129" s="962"/>
+      <c r="X129" s="963"/>
       <c r="Y129" s="31"/>
       <c r="AA129" s="34" t="s">
         <v>593</v>
@@ -40440,9 +40414,9 @@
       <c r="S130" s="958"/>
       <c r="T130" s="959"/>
       <c r="U130" s="960"/>
-      <c r="V130" s="966"/>
-      <c r="W130" s="942"/>
-      <c r="X130" s="967"/>
+      <c r="V130" s="964"/>
+      <c r="W130" s="965"/>
+      <c r="X130" s="966"/>
       <c r="Y130" s="31"/>
       <c r="AA130" s="34" t="s">
         <v>594</v>
@@ -42113,12 +42087,12 @@
       <c r="L173" s="67"/>
       <c r="M173" s="68"/>
       <c r="O173" s="29"/>
-      <c r="P173" s="946" t="s">
+      <c r="P173" s="967" t="s">
         <v>225</v>
       </c>
-      <c r="Q173" s="946"/>
-      <c r="R173" s="946"/>
-      <c r="S173" s="946"/>
+      <c r="Q173" s="967"/>
+      <c r="R173" s="967"/>
+      <c r="S173" s="967"/>
       <c r="U173" s="534" t="s">
         <v>226</v>
       </c>
@@ -42288,12 +42262,12 @@
       </c>
       <c r="B179" s="66"/>
       <c r="C179" s="67"/>
-      <c r="D179" s="946" t="s">
+      <c r="D179" s="967" t="s">
         <v>225</v>
       </c>
-      <c r="E179" s="946"/>
-      <c r="F179" s="946"/>
-      <c r="G179" s="946"/>
+      <c r="E179" s="967"/>
+      <c r="F179" s="967"/>
+      <c r="G179" s="967"/>
       <c r="H179" s="67"/>
       <c r="I179" s="534" t="s">
         <v>226</v>
@@ -42431,17 +42405,17 @@
       <c r="M182" s="68"/>
       <c r="O182" s="29"/>
       <c r="P182" s="67"/>
-      <c r="Q182" s="939" t="s">
+      <c r="Q182" s="945" t="s">
         <v>237</v>
       </c>
-      <c r="R182" s="939"/>
-      <c r="S182" s="939"/>
+      <c r="R182" s="945"/>
+      <c r="S182" s="945"/>
       <c r="T182" s="4"/>
-      <c r="U182" s="939" t="s">
+      <c r="U182" s="945" t="s">
         <v>237</v>
       </c>
-      <c r="V182" s="939"/>
-      <c r="W182" s="939"/>
+      <c r="V182" s="945"/>
+      <c r="W182" s="945"/>
       <c r="X182" s="4"/>
       <c r="Y182" s="31"/>
     </row>
@@ -42570,22 +42544,22 @@
       </c>
       <c r="B186" s="66"/>
       <c r="C186" s="106"/>
-      <c r="D186" s="943" t="s">
+      <c r="D186" s="979" t="s">
         <v>237</v>
       </c>
-      <c r="E186" s="944"/>
-      <c r="F186" s="945"/>
+      <c r="E186" s="980"/>
+      <c r="F186" s="981"/>
       <c r="G186" s="160"/>
-      <c r="H186" s="943" t="s">
+      <c r="H186" s="979" t="s">
         <v>237</v>
       </c>
-      <c r="I186" s="944"/>
-      <c r="J186" s="945"/>
-      <c r="K186" s="943" t="s">
+      <c r="I186" s="980"/>
+      <c r="J186" s="981"/>
+      <c r="K186" s="979" t="s">
         <v>237</v>
       </c>
-      <c r="L186" s="944"/>
-      <c r="M186" s="947"/>
+      <c r="L186" s="980"/>
+      <c r="M186" s="982"/>
       <c r="O186" s="159"/>
       <c r="P186" s="160" t="s">
         <v>243</v>
@@ -43058,17 +43032,17 @@
       <c r="M194" s="68"/>
       <c r="O194" s="159"/>
       <c r="P194" s="67"/>
-      <c r="Q194" s="939" t="s">
+      <c r="Q194" s="945" t="s">
         <v>237</v>
       </c>
-      <c r="R194" s="939"/>
-      <c r="S194" s="939"/>
+      <c r="R194" s="945"/>
+      <c r="S194" s="945"/>
       <c r="T194" s="4"/>
-      <c r="U194" s="939" t="s">
+      <c r="U194" s="945" t="s">
         <v>237</v>
       </c>
-      <c r="V194" s="939"/>
-      <c r="W194" s="939"/>
+      <c r="V194" s="945"/>
+      <c r="W194" s="945"/>
       <c r="X194" s="4"/>
       <c r="Y194" s="31"/>
     </row>
@@ -45259,11 +45233,11 @@
         <v>/</v>
       </c>
       <c r="T245" s="4"/>
-      <c r="U245" s="939" t="s">
+      <c r="U245" s="945" t="s">
         <v>293</v>
       </c>
-      <c r="V245" s="939"/>
-      <c r="W245" s="939"/>
+      <c r="V245" s="945"/>
+      <c r="W245" s="945"/>
       <c r="X245" s="4"/>
       <c r="Y245" s="231"/>
       <c r="Z245" s="535"/>
@@ -45476,11 +45450,11 @@
         <v>/</v>
       </c>
       <c r="G250" s="67"/>
-      <c r="H250" s="943" t="s">
+      <c r="H250" s="979" t="s">
         <v>293</v>
       </c>
-      <c r="I250" s="944"/>
-      <c r="J250" s="945"/>
+      <c r="I250" s="980"/>
+      <c r="J250" s="981"/>
       <c r="K250" s="67"/>
       <c r="L250" s="67"/>
       <c r="M250" s="68"/>
@@ -47720,11 +47694,11 @@
       <c r="H291" s="263" t="s">
         <v>328</v>
       </c>
-      <c r="I291" s="940" t="str">
+      <c r="I291" s="977" t="str">
         <f>IF(S367="","",S367)</f>
         <v/>
       </c>
-      <c r="J291" s="940"/>
+      <c r="J291" s="977"/>
       <c r="K291" s="58"/>
       <c r="L291" s="58"/>
       <c r="M291" s="60"/>
@@ -47771,11 +47745,11 @@
       <c r="H292" s="160" t="s">
         <v>330</v>
       </c>
-      <c r="I292" s="941" t="str">
+      <c r="I292" s="978" t="str">
         <f>IF(S368="","",S368)</f>
         <v/>
       </c>
-      <c r="J292" s="941"/>
+      <c r="J292" s="978"/>
       <c r="K292" s="4"/>
       <c r="M292" s="68"/>
       <c r="O292" s="447"/>
@@ -47875,11 +47849,11 @@
       </c>
       <c r="B294" s="66"/>
       <c r="C294" s="160"/>
-      <c r="F294" s="939" t="s">
+      <c r="F294" s="945" t="s">
         <v>331</v>
       </c>
-      <c r="G294" s="939"/>
-      <c r="H294" s="939"/>
+      <c r="G294" s="945"/>
+      <c r="H294" s="945"/>
       <c r="I294" s="535"/>
       <c r="J294" s="535"/>
       <c r="K294" s="106"/>
@@ -47992,7 +47966,7 @@
         <v>8</v>
       </c>
       <c r="B296" s="66"/>
-      <c r="C296" s="971" t="str">
+      <c r="C296" s="939" t="str">
         <f>P371</f>
         <v>/</v>
       </c>
@@ -48069,7 +48043,7 @@
         <v>9</v>
       </c>
       <c r="B297" s="66"/>
-      <c r="C297" s="972"/>
+      <c r="C297" s="940"/>
       <c r="D297" s="289">
         <f t="shared" si="66"/>
         <v>25</v>
@@ -48154,7 +48128,7 @@
         <v>10</v>
       </c>
       <c r="B298" s="66"/>
-      <c r="C298" s="972"/>
+      <c r="C298" s="940"/>
       <c r="D298" s="289">
         <f t="shared" si="66"/>
         <v>26</v>
@@ -48234,7 +48208,7 @@
         <v>11</v>
       </c>
       <c r="B299" s="66"/>
-      <c r="C299" s="972"/>
+      <c r="C299" s="940"/>
       <c r="D299" s="289">
         <f t="shared" si="66"/>
         <v>28</v>
@@ -48306,7 +48280,7 @@
         <v>12</v>
       </c>
       <c r="B300" s="66"/>
-      <c r="C300" s="972"/>
+      <c r="C300" s="940"/>
       <c r="D300" s="289">
         <f t="shared" si="66"/>
         <v>30</v>
@@ -48376,7 +48350,7 @@
         <v>13</v>
       </c>
       <c r="B301" s="66"/>
-      <c r="C301" s="972"/>
+      <c r="C301" s="940"/>
       <c r="D301" s="289">
         <f t="shared" si="66"/>
         <v>32</v>
@@ -48439,7 +48413,7 @@
         <v>14</v>
       </c>
       <c r="B302" s="66"/>
-      <c r="C302" s="973"/>
+      <c r="C302" s="941"/>
       <c r="D302" s="419">
         <f t="shared" ref="D302" si="69">IF(Q377="","",Q377)</f>
         <v>34</v>
@@ -48510,7 +48484,7 @@
         <v>15</v>
       </c>
       <c r="B303" s="66"/>
-      <c r="C303" s="974" t="str">
+      <c r="C303" s="942" t="str">
         <f>P378</f>
         <v>/</v>
       </c>
@@ -48584,7 +48558,7 @@
         <v>16</v>
       </c>
       <c r="B304" s="66"/>
-      <c r="C304" s="975"/>
+      <c r="C304" s="943"/>
       <c r="D304" s="289">
         <f t="shared" si="77"/>
         <v>30</v>
@@ -48666,7 +48640,7 @@
         <v>17</v>
       </c>
       <c r="B305" s="66"/>
-      <c r="C305" s="975"/>
+      <c r="C305" s="943"/>
       <c r="D305" s="289">
         <f t="shared" si="77"/>
         <v>32</v>
@@ -48743,7 +48717,7 @@
         <v>18</v>
       </c>
       <c r="B306" s="66"/>
-      <c r="C306" s="975"/>
+      <c r="C306" s="943"/>
       <c r="D306" s="289">
         <f t="shared" si="77"/>
         <v>34</v>
@@ -48816,7 +48790,7 @@
         <v>19</v>
       </c>
       <c r="B307" s="66"/>
-      <c r="C307" s="976"/>
+      <c r="C307" s="944"/>
       <c r="D307" s="429">
         <f t="shared" si="77"/>
         <v>36</v>
@@ -48887,7 +48861,7 @@
         <v>20</v>
       </c>
       <c r="B308" s="66"/>
-      <c r="C308" s="974" t="str">
+      <c r="C308" s="942" t="str">
         <f>P384</f>
         <v>/</v>
       </c>
@@ -48951,7 +48925,7 @@
         <v>21</v>
       </c>
       <c r="B309" s="66"/>
-      <c r="C309" s="975"/>
+      <c r="C309" s="943"/>
       <c r="D309" s="289">
         <f t="shared" si="78"/>
         <v>30</v>
@@ -49016,7 +48990,7 @@
         <v>22</v>
       </c>
       <c r="B310" s="66"/>
-      <c r="C310" s="975"/>
+      <c r="C310" s="943"/>
       <c r="D310" s="289">
         <f t="shared" si="78"/>
         <v>32</v>
@@ -49085,7 +49059,7 @@
         <v>23</v>
       </c>
       <c r="B311" s="66"/>
-      <c r="C311" s="975"/>
+      <c r="C311" s="943"/>
       <c r="D311" s="289">
         <f t="shared" si="78"/>
         <v>34</v>
@@ -49154,7 +49128,7 @@
         <v>24</v>
       </c>
       <c r="B312" s="66"/>
-      <c r="C312" s="976"/>
+      <c r="C312" s="944"/>
       <c r="D312" s="429">
         <f t="shared" si="78"/>
         <v>38</v>
@@ -51681,13 +51655,13 @@
       <c r="L369" s="67"/>
       <c r="M369" s="68"/>
       <c r="O369" s="29"/>
-      <c r="S369" s="939" t="s">
+      <c r="S369" s="945" t="s">
         <v>331</v>
       </c>
-      <c r="T369" s="939"/>
-      <c r="U369" s="939"/>
-      <c r="V369" s="939"/>
-      <c r="W369" s="939"/>
+      <c r="T369" s="945"/>
+      <c r="U369" s="945"/>
+      <c r="V369" s="945"/>
+      <c r="W369" s="945"/>
       <c r="Y369" s="31"/>
     </row>
     <row r="370" spans="1:25" ht="14.1" customHeight="1" thickBot="1">
@@ -51773,7 +51747,7 @@
       <c r="L371" s="67"/>
       <c r="M371" s="68"/>
       <c r="O371" s="29"/>
-      <c r="P371" s="968" t="str">
+      <c r="P371" s="952" t="str">
         <f>AK10&amp;"/"&amp;AL10</f>
         <v>/</v>
       </c>
@@ -51832,7 +51806,7 @@
       <c r="L372" s="67"/>
       <c r="M372" s="68"/>
       <c r="O372" s="29"/>
-      <c r="P372" s="969"/>
+      <c r="P372" s="953"/>
       <c r="Q372" s="301">
         <f>AH12</f>
         <v>25</v>
@@ -51886,7 +51860,7 @@
       <c r="L373" s="67"/>
       <c r="M373" s="68"/>
       <c r="O373" s="29"/>
-      <c r="P373" s="969"/>
+      <c r="P373" s="953"/>
       <c r="Q373" s="300">
         <f>AH14</f>
         <v>26</v>
@@ -51949,7 +51923,7 @@
       <c r="L374"/>
       <c r="M374" s="68"/>
       <c r="O374" s="29"/>
-      <c r="P374" s="969"/>
+      <c r="P374" s="953"/>
       <c r="Q374" s="300">
         <f>AH16</f>
         <v>28</v>
@@ -52012,7 +51986,7 @@
       <c r="L375"/>
       <c r="M375" s="68"/>
       <c r="O375" s="29"/>
-      <c r="P375" s="969"/>
+      <c r="P375" s="953"/>
       <c r="Q375" s="300">
         <f>AH22</f>
         <v>30</v>
@@ -52075,7 +52049,7 @@
       <c r="L376"/>
       <c r="M376" s="68"/>
       <c r="O376" s="29"/>
-      <c r="P376" s="969"/>
+      <c r="P376" s="953"/>
       <c r="Q376" s="300">
         <f>AH23</f>
         <v>32</v>
@@ -52138,7 +52112,7 @@
       <c r="L377"/>
       <c r="M377" s="68"/>
       <c r="O377" s="29"/>
-      <c r="P377" s="970"/>
+      <c r="P377" s="954"/>
       <c r="Q377" s="300">
         <f>AH25</f>
         <v>34</v>
@@ -52201,7 +52175,7 @@
       <c r="L378"/>
       <c r="M378" s="68"/>
       <c r="O378" s="29"/>
-      <c r="P378" s="977" t="str">
+      <c r="P378" s="946" t="str">
         <f>AK27&amp;"/"&amp;AL27</f>
         <v>/</v>
       </c>
@@ -52260,7 +52234,7 @@
       <c r="L379"/>
       <c r="M379" s="68"/>
       <c r="O379" s="159"/>
-      <c r="P379" s="978"/>
+      <c r="P379" s="947"/>
       <c r="Q379" s="300">
         <f>AH29</f>
         <v>30</v>
@@ -52305,7 +52279,7 @@
       </c>
       <c r="M380" s="68"/>
       <c r="O380" s="29"/>
-      <c r="P380" s="978"/>
+      <c r="P380" s="947"/>
       <c r="Q380" s="300">
         <f>AH31</f>
         <v>32</v>
@@ -52359,7 +52333,7 @@
       <c r="L381" s="67"/>
       <c r="M381" s="68"/>
       <c r="O381" s="29"/>
-      <c r="P381" s="978"/>
+      <c r="P381" s="947"/>
       <c r="Q381" s="300">
         <f>AH33</f>
         <v>34</v>
@@ -52426,7 +52400,7 @@
       </c>
       <c r="M382" s="68"/>
       <c r="O382" s="29"/>
-      <c r="P382" s="978"/>
+      <c r="P382" s="947"/>
       <c r="Q382" s="300">
         <f t="shared" ref="Q382:R384" si="94">AH35</f>
         <v>36</v>
@@ -52500,7 +52474,7 @@
       </c>
       <c r="M383" s="68"/>
       <c r="O383" s="29"/>
-      <c r="P383" s="979"/>
+      <c r="P383" s="948"/>
       <c r="Q383" s="300">
         <f t="shared" si="94"/>
         <v>38</v>
@@ -52574,7 +52548,7 @@
       </c>
       <c r="M384" s="68"/>
       <c r="O384" s="29"/>
-      <c r="P384" s="977" t="str">
+      <c r="P384" s="946" t="str">
         <f>AK37&amp;"/"&amp;AL37</f>
         <v>/</v>
       </c>
@@ -52634,7 +52608,7 @@
       <c r="L385" s="67"/>
       <c r="M385" s="68"/>
       <c r="O385" s="29"/>
-      <c r="P385" s="978"/>
+      <c r="P385" s="947"/>
       <c r="Q385" s="301">
         <f>AH41</f>
         <v>30</v>
@@ -52690,7 +52664,7 @@
       <c r="L386" s="67"/>
       <c r="M386" s="68"/>
       <c r="O386" s="29"/>
-      <c r="P386" s="978"/>
+      <c r="P386" s="947"/>
       <c r="Q386" s="300">
         <f>AH43</f>
         <v>32</v>
@@ -52744,7 +52718,7 @@
       <c r="L387" s="67"/>
       <c r="M387" s="68"/>
       <c r="O387" s="29"/>
-      <c r="P387" s="978"/>
+      <c r="P387" s="947"/>
       <c r="Q387" s="300">
         <f>AH45</f>
         <v>34</v>
@@ -52796,7 +52770,7 @@
       <c r="L388" s="67"/>
       <c r="M388" s="68"/>
       <c r="O388" s="29"/>
-      <c r="P388" s="979"/>
+      <c r="P388" s="948"/>
       <c r="Q388" s="300">
         <f>AH47</f>
         <v>38</v>
@@ -54293,11 +54267,11 @@
       <c r="P420" s="613" t="s">
         <v>348</v>
       </c>
-      <c r="Q420" s="980" t="s">
+      <c r="Q420" s="949" t="s">
         <v>349</v>
       </c>
-      <c r="R420" s="981"/>
-      <c r="S420" s="982"/>
+      <c r="R420" s="950"/>
+      <c r="S420" s="951"/>
       <c r="T420"/>
       <c r="U420"/>
       <c r="V420"/>
@@ -55494,10 +55468,10 @@
       <c r="U454" s="4"/>
       <c r="V454" s="4"/>
       <c r="Y454" s="31"/>
-      <c r="AA454" s="939"/>
-      <c r="AB454" s="939"/>
-      <c r="AC454" s="939"/>
-      <c r="AD454" s="939"/>
+      <c r="AA454" s="945"/>
+      <c r="AB454" s="945"/>
+      <c r="AC454" s="945"/>
+      <c r="AD454" s="945"/>
     </row>
     <row r="455" spans="1:30" ht="14.1" customHeight="1">
       <c r="A455" s="16">
@@ -56884,7 +56858,7 @@
     <row r="518" spans="15:25" ht="14.1" customHeight="1" thickTop="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F38AF2A4-EC1D-460A-B405-E4A69D902BA6}" fitToPage="1">
+    <customSheetView guid="{F38AF2A4-EC1D-460A-B405-E4A69D902BA6}" showPageBreaks="1" fitToPage="1" printArea="1">
       <rowBreaks count="6" manualBreakCount="6">
         <brk id="72" max="16383" man="1"/>
         <brk id="144" max="16383" man="1"/>
@@ -56901,56 +56875,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="66">
-    <mergeCell ref="C296:C302"/>
-    <mergeCell ref="C303:C307"/>
-    <mergeCell ref="C308:C312"/>
-    <mergeCell ref="AA454:AB454"/>
-    <mergeCell ref="AC454:AD454"/>
-    <mergeCell ref="P378:P383"/>
-    <mergeCell ref="P384:P388"/>
-    <mergeCell ref="Q420:S420"/>
-    <mergeCell ref="Q194:S194"/>
-    <mergeCell ref="U194:W194"/>
-    <mergeCell ref="U245:W245"/>
-    <mergeCell ref="S369:W369"/>
-    <mergeCell ref="P371:P377"/>
-    <mergeCell ref="P129:R130"/>
-    <mergeCell ref="S129:U130"/>
-    <mergeCell ref="V129:X130"/>
-    <mergeCell ref="P173:S173"/>
-    <mergeCell ref="Q182:S182"/>
-    <mergeCell ref="U182:W182"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P121:R122"/>
-    <mergeCell ref="V121:X122"/>
-    <mergeCell ref="S121:U122"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
     <mergeCell ref="F294:H294"/>
     <mergeCell ref="I291:J291"/>
     <mergeCell ref="I292:J292"/>
@@ -56967,6 +56891,56 @@
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P121:R122"/>
+    <mergeCell ref="V121:X122"/>
+    <mergeCell ref="S121:U122"/>
+    <mergeCell ref="P129:R130"/>
+    <mergeCell ref="S129:U130"/>
+    <mergeCell ref="V129:X130"/>
+    <mergeCell ref="P173:S173"/>
+    <mergeCell ref="Q182:S182"/>
+    <mergeCell ref="U182:W182"/>
+    <mergeCell ref="Q194:S194"/>
+    <mergeCell ref="U194:W194"/>
+    <mergeCell ref="U245:W245"/>
+    <mergeCell ref="S369:W369"/>
+    <mergeCell ref="P371:P377"/>
+    <mergeCell ref="C296:C302"/>
+    <mergeCell ref="C303:C307"/>
+    <mergeCell ref="C308:C312"/>
+    <mergeCell ref="AA454:AB454"/>
+    <mergeCell ref="AC454:AD454"/>
+    <mergeCell ref="P378:P383"/>
+    <mergeCell ref="P384:P388"/>
+    <mergeCell ref="Q420:S420"/>
   </mergeCells>
   <conditionalFormatting sqref="R260:S260">
     <cfRule type="cellIs" dxfId="161" priority="230" stopIfTrue="1" operator="equal">
@@ -61399,11 +61373,11 @@
         <v>332</v>
       </c>
       <c r="K62" s="650"/>
-      <c r="O62" s="946"/>
-      <c r="P62" s="946"/>
-      <c r="Q62" s="946"/>
-      <c r="R62" s="946"/>
-      <c r="S62" s="946"/>
+      <c r="O62" s="967"/>
+      <c r="P62" s="967"/>
+      <c r="Q62" s="967"/>
+      <c r="R62" s="967"/>
+      <c r="S62" s="967"/>
     </row>
     <row r="63" spans="1:19" ht="14.1" customHeight="1">
       <c r="A63" s="650" t="str">

--- a/MUSCMammoSiemens.xlsx
+++ b/MUSCMammoSiemens.xlsx
@@ -44,7 +44,7 @@
     <definedName name="Z_F38AF2A4_EC1D_460A_B405_E4A69D902BA6_.wvu.PrintTitles" localSheetId="2" hidden="1">'MQSA Requirements'!$9:$9</definedName>
     <definedName name="Z_F38AF2A4_EC1D_460A_B405_E4A69D902BA6_.wvu.Rows" localSheetId="1" hidden="1">'Tech QC Eval-Siemens'!$25:$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
     <customWorkbookView name="Eugene Mah - Personal View" guid="{F38AF2A4-EC1D-460A-B405-E4A69D902BA6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="784" activeSheetId="4"/>
   </customWorkbookViews>
@@ -248,7 +248,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="784">
   <si>
     <t>Print Area</t>
   </si>
@@ -1781,18 +1781,6 @@
   </si>
   <si>
     <t>50% Fatty - 50% Dense Breast</t>
-  </si>
-  <si>
-    <t>Mo/Mo mGy/mAs:</t>
-  </si>
-  <si>
-    <t>Mo/Mo mGy/s:</t>
-  </si>
-  <si>
-    <t>W/Rh mGy/mAs:</t>
-  </si>
-  <si>
-    <t>W/Rh mGy/s:</t>
   </si>
   <si>
     <t>Light field/X-ray field alignment acceptable</t>
@@ -9013,6 +9001,72 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="190" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="27" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="27" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="148" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="146" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="147" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9040,78 +9094,24 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="27" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="148" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="146" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="147" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="27" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9139,24 +9139,51 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="149" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -9169,44 +9196,101 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9226,9 +9310,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9246,99 +9327,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -27906,40 +27894,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="901" t="s">
+      <c r="A1" s="874" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="901"/>
-      <c r="C1" s="901"/>
-      <c r="D1" s="901"/>
-      <c r="E1" s="901"/>
-      <c r="F1" s="901"/>
-      <c r="G1" s="901"/>
-      <c r="H1" s="901"/>
-      <c r="I1" s="901"/>
-      <c r="J1" s="901"/>
-      <c r="K1" s="901"/>
-      <c r="L1" s="901"/>
-      <c r="M1" s="901"/>
-      <c r="N1" s="901"/>
+      <c r="B1" s="874"/>
+      <c r="C1" s="874"/>
+      <c r="D1" s="874"/>
+      <c r="E1" s="874"/>
+      <c r="F1" s="874"/>
+      <c r="G1" s="874"/>
+      <c r="H1" s="874"/>
+      <c r="I1" s="874"/>
+      <c r="J1" s="874"/>
+      <c r="K1" s="874"/>
+      <c r="L1" s="874"/>
+      <c r="M1" s="874"/>
+      <c r="N1" s="874"/>
     </row>
     <row r="2" spans="1:14" ht="26.25">
-      <c r="A2" s="901" t="s">
+      <c r="A2" s="874" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="901"/>
-      <c r="C2" s="901"/>
-      <c r="D2" s="901"/>
-      <c r="E2" s="901"/>
-      <c r="F2" s="901"/>
-      <c r="G2" s="901"/>
-      <c r="H2" s="901"/>
-      <c r="I2" s="901"/>
-      <c r="J2" s="901"/>
-      <c r="K2" s="901"/>
-      <c r="L2" s="901"/>
-      <c r="M2" s="901"/>
-      <c r="N2" s="901"/>
+      <c r="B2" s="874"/>
+      <c r="C2" s="874"/>
+      <c r="D2" s="874"/>
+      <c r="E2" s="874"/>
+      <c r="F2" s="874"/>
+      <c r="G2" s="874"/>
+      <c r="H2" s="874"/>
+      <c r="I2" s="874"/>
+      <c r="J2" s="874"/>
+      <c r="K2" s="874"/>
+      <c r="L2" s="874"/>
+      <c r="M2" s="874"/>
+      <c r="N2" s="874"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1">
       <c r="A3" s="797"/>
@@ -27962,41 +27950,41 @@
         <v>371</v>
       </c>
       <c r="B4" s="798"/>
-      <c r="C4" s="889"/>
-      <c r="D4" s="890"/>
-      <c r="E4" s="890"/>
-      <c r="F4" s="890"/>
-      <c r="G4" s="890"/>
-      <c r="H4" s="891"/>
+      <c r="C4" s="875"/>
+      <c r="D4" s="876"/>
+      <c r="E4" s="876"/>
+      <c r="F4" s="876"/>
+      <c r="G4" s="876"/>
+      <c r="H4" s="877"/>
       <c r="J4" s="799"/>
       <c r="K4" s="800" t="s">
         <v>372</v>
       </c>
-      <c r="L4" s="902"/>
-      <c r="M4" s="903"/>
-      <c r="N4" s="904"/>
+      <c r="L4" s="878"/>
+      <c r="M4" s="879"/>
+      <c r="N4" s="880"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1">
       <c r="A5" s="798" t="s">
         <v>373</v>
       </c>
       <c r="B5" s="798"/>
-      <c r="C5" s="889"/>
-      <c r="D5" s="890"/>
-      <c r="E5" s="890"/>
-      <c r="F5" s="890"/>
-      <c r="G5" s="890"/>
-      <c r="H5" s="891"/>
+      <c r="C5" s="875"/>
+      <c r="D5" s="876"/>
+      <c r="E5" s="876"/>
+      <c r="F5" s="876"/>
+      <c r="G5" s="876"/>
+      <c r="H5" s="877"/>
       <c r="J5" s="799"/>
       <c r="K5" s="800" t="s">
         <v>374</v>
       </c>
-      <c r="L5" s="902">
+      <c r="L5" s="878">
         <f>Sheet1!P7</f>
         <v>0</v>
       </c>
-      <c r="M5" s="903"/>
-      <c r="N5" s="904"/>
+      <c r="M5" s="879"/>
+      <c r="N5" s="880"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1">
       <c r="A6" s="798" t="s">
@@ -28005,19 +27993,19 @@
       <c r="B6" s="798"/>
       <c r="C6" s="798"/>
       <c r="D6" s="798"/>
-      <c r="E6" s="888" t="s">
+      <c r="E6" s="886" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="888"/>
-      <c r="G6" s="888"/>
-      <c r="H6" s="888"/>
+      <c r="F6" s="886"/>
+      <c r="G6" s="886"/>
+      <c r="H6" s="886"/>
       <c r="J6" s="799"/>
       <c r="K6" s="800" t="s">
         <v>376</v>
       </c>
-      <c r="L6" s="889"/>
-      <c r="M6" s="890"/>
-      <c r="N6" s="891"/>
+      <c r="L6" s="875"/>
+      <c r="M6" s="876"/>
+      <c r="N6" s="877"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1">
       <c r="A7" s="798" t="s">
@@ -28026,21 +28014,21 @@
       <c r="B7" s="798"/>
       <c r="C7" s="798"/>
       <c r="D7" s="798"/>
-      <c r="E7" s="889" t="s">
+      <c r="E7" s="875" t="s">
         <v>378</v>
       </c>
-      <c r="F7" s="890"/>
-      <c r="G7" s="890"/>
-      <c r="H7" s="891"/>
+      <c r="F7" s="876"/>
+      <c r="G7" s="876"/>
+      <c r="H7" s="877"/>
       <c r="J7" s="799"/>
       <c r="K7" s="800" t="s">
         <v>379</v>
       </c>
-      <c r="L7" s="889" t="s">
-        <v>768</v>
-      </c>
-      <c r="M7" s="890"/>
-      <c r="N7" s="891"/>
+      <c r="L7" s="875" t="s">
+        <v>764</v>
+      </c>
+      <c r="M7" s="876"/>
+      <c r="N7" s="877"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1">
       <c r="A8" s="798" t="s">
@@ -28049,23 +28037,23 @@
       <c r="B8" s="798"/>
       <c r="C8" s="798"/>
       <c r="D8" s="798"/>
-      <c r="E8" s="892" t="str">
+      <c r="E8" s="887" t="str">
         <f>Sheet1!K12</f>
         <v/>
       </c>
-      <c r="F8" s="893"/>
-      <c r="G8" s="893"/>
-      <c r="H8" s="894"/>
+      <c r="F8" s="888"/>
+      <c r="G8" s="888"/>
+      <c r="H8" s="889"/>
       <c r="J8" s="799"/>
       <c r="K8" s="800" t="s">
         <v>381</v>
       </c>
-      <c r="L8" s="889" t="str">
+      <c r="L8" s="875" t="str">
         <f>Sheet1!R14</f>
         <v/>
       </c>
-      <c r="M8" s="890"/>
-      <c r="N8" s="891"/>
+      <c r="M8" s="876"/>
+      <c r="N8" s="877"/>
     </row>
     <row r="9" spans="1:14" ht="11.25" customHeight="1">
       <c r="A9" s="798"/>
@@ -28084,16 +28072,16 @@
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1">
       <c r="A10" s="803" t="s">
-        <v>540</v>
-      </c>
-      <c r="E10" s="895" t="s">
-        <v>769</v>
-      </c>
-      <c r="F10" s="896"/>
-      <c r="G10" s="896"/>
-      <c r="H10" s="897"/>
+        <v>536</v>
+      </c>
+      <c r="E10" s="890" t="s">
+        <v>765</v>
+      </c>
+      <c r="F10" s="891"/>
+      <c r="G10" s="891"/>
+      <c r="H10" s="892"/>
       <c r="I10" s="804" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="11.25" customHeight="1">
@@ -28116,24 +28104,24 @@
       <c r="B12" s="798"/>
       <c r="C12" s="798"/>
       <c r="D12" s="798"/>
-      <c r="E12" s="898" t="s">
+      <c r="E12" s="893" t="s">
         <v>384</v>
       </c>
-      <c r="F12" s="899"/>
-      <c r="G12" s="898" t="s">
+      <c r="F12" s="894"/>
+      <c r="G12" s="893" t="s">
         <v>379</v>
       </c>
-      <c r="H12" s="899"/>
-      <c r="I12" s="898" t="s">
+      <c r="H12" s="894"/>
+      <c r="I12" s="893" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="899"/>
-      <c r="K12" s="898" t="s">
+      <c r="J12" s="894"/>
+      <c r="K12" s="893" t="s">
         <v>382</v>
       </c>
-      <c r="L12" s="900"/>
-      <c r="M12" s="900"/>
-      <c r="N12" s="899"/>
+      <c r="L12" s="895"/>
+      <c r="M12" s="895"/>
+      <c r="N12" s="894"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" thickTop="1">
       <c r="A13" s="798"/>
@@ -28142,55 +28130,55 @@
       <c r="D13" s="806" t="s">
         <v>385</v>
       </c>
-      <c r="E13" s="883" t="s">
-        <v>755</v>
-      </c>
-      <c r="F13" s="884"/>
-      <c r="G13" s="883" t="s">
-        <v>756</v>
-      </c>
-      <c r="H13" s="884"/>
-      <c r="I13" s="885"/>
-      <c r="J13" s="886"/>
-      <c r="K13" s="883" t="s">
-        <v>757</v>
-      </c>
-      <c r="L13" s="887"/>
-      <c r="M13" s="887"/>
-      <c r="N13" s="884"/>
+      <c r="E13" s="881" t="s">
+        <v>751</v>
+      </c>
+      <c r="F13" s="882"/>
+      <c r="G13" s="881" t="s">
+        <v>752</v>
+      </c>
+      <c r="H13" s="882"/>
+      <c r="I13" s="883"/>
+      <c r="J13" s="884"/>
+      <c r="K13" s="881" t="s">
+        <v>753</v>
+      </c>
+      <c r="L13" s="885"/>
+      <c r="M13" s="885"/>
+      <c r="N13" s="882"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="D14" s="806" t="s">
         <v>386</v>
       </c>
-      <c r="E14" s="876"/>
-      <c r="F14" s="877"/>
-      <c r="G14" s="876"/>
-      <c r="H14" s="877"/>
-      <c r="I14" s="878"/>
-      <c r="J14" s="879"/>
-      <c r="K14" s="876"/>
-      <c r="L14" s="880"/>
-      <c r="M14" s="880"/>
-      <c r="N14" s="877"/>
+      <c r="E14" s="898"/>
+      <c r="F14" s="899"/>
+      <c r="G14" s="898"/>
+      <c r="H14" s="899"/>
+      <c r="I14" s="900"/>
+      <c r="J14" s="901"/>
+      <c r="K14" s="898"/>
+      <c r="L14" s="902"/>
+      <c r="M14" s="902"/>
+      <c r="N14" s="899"/>
     </row>
     <row r="15" spans="1:14" ht="36" customHeight="1">
-      <c r="A15" s="881" t="s">
-        <v>716</v>
-      </c>
-      <c r="B15" s="881"/>
-      <c r="C15" s="881"/>
-      <c r="D15" s="881"/>
-      <c r="E15" s="881"/>
-      <c r="F15" s="881"/>
-      <c r="G15" s="881"/>
-      <c r="H15" s="881"/>
-      <c r="I15" s="881"/>
-      <c r="J15" s="881"/>
-      <c r="K15" s="881"/>
-      <c r="L15" s="881"/>
-      <c r="M15" s="881"/>
-      <c r="N15" s="881"/>
+      <c r="A15" s="903" t="s">
+        <v>712</v>
+      </c>
+      <c r="B15" s="903"/>
+      <c r="C15" s="903"/>
+      <c r="D15" s="903"/>
+      <c r="E15" s="903"/>
+      <c r="F15" s="903"/>
+      <c r="G15" s="903"/>
+      <c r="H15" s="903"/>
+      <c r="I15" s="903"/>
+      <c r="J15" s="903"/>
+      <c r="K15" s="903"/>
+      <c r="L15" s="903"/>
+      <c r="M15" s="903"/>
+      <c r="N15" s="903"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1">
       <c r="A16" s="803" t="s">
@@ -28199,7 +28187,7 @@
       <c r="B16" s="803"/>
       <c r="C16" s="807"/>
       <c r="D16" s="808" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E16" s="808"/>
       <c r="F16" s="808"/>
@@ -28215,16 +28203,16 @@
     </row>
     <row r="17" spans="1:15" s="819" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="812" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B17" s="813"/>
       <c r="C17" s="814"/>
       <c r="D17" s="815" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E17" s="814"/>
       <c r="F17" s="815" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="G17" s="816"/>
       <c r="H17" s="817"/>
@@ -28252,40 +28240,40 @@
       <c r="M18" s="823"/>
     </row>
     <row r="19" spans="1:15" ht="21" customHeight="1">
-      <c r="A19" s="882" t="s">
+      <c r="A19" s="904" t="s">
         <v>389</v>
       </c>
-      <c r="B19" s="882"/>
-      <c r="C19" s="882"/>
-      <c r="D19" s="882"/>
-      <c r="E19" s="882"/>
-      <c r="F19" s="882"/>
-      <c r="G19" s="882"/>
-      <c r="H19" s="882"/>
-      <c r="I19" s="882"/>
-      <c r="J19" s="882"/>
-      <c r="K19" s="882"/>
-      <c r="L19" s="882"/>
-      <c r="M19" s="882"/>
-      <c r="N19" s="882"/>
+      <c r="B19" s="904"/>
+      <c r="C19" s="904"/>
+      <c r="D19" s="904"/>
+      <c r="E19" s="904"/>
+      <c r="F19" s="904"/>
+      <c r="G19" s="904"/>
+      <c r="H19" s="904"/>
+      <c r="I19" s="904"/>
+      <c r="J19" s="904"/>
+      <c r="K19" s="904"/>
+      <c r="L19" s="904"/>
+      <c r="M19" s="904"/>
+      <c r="N19" s="904"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="874" t="s">
-        <v>538</v>
-      </c>
-      <c r="B20" s="874"/>
-      <c r="C20" s="874"/>
-      <c r="D20" s="874"/>
-      <c r="E20" s="874"/>
-      <c r="F20" s="874"/>
-      <c r="G20" s="874"/>
-      <c r="H20" s="874"/>
-      <c r="I20" s="874"/>
-      <c r="J20" s="874"/>
-      <c r="K20" s="874"/>
-      <c r="L20" s="874"/>
-      <c r="M20" s="874"/>
-      <c r="N20" s="874"/>
+      <c r="A20" s="896" t="s">
+        <v>534</v>
+      </c>
+      <c r="B20" s="896"/>
+      <c r="C20" s="896"/>
+      <c r="D20" s="896"/>
+      <c r="E20" s="896"/>
+      <c r="F20" s="896"/>
+      <c r="G20" s="896"/>
+      <c r="H20" s="896"/>
+      <c r="I20" s="896"/>
+      <c r="J20" s="896"/>
+      <c r="K20" s="896"/>
+      <c r="L20" s="896"/>
+      <c r="M20" s="896"/>
+      <c r="N20" s="896"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="798"/>
@@ -28307,7 +28295,7 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="A22" s="825" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B22" s="825"/>
       <c r="C22" s="825"/>
@@ -28330,7 +28318,7 @@
       <c r="A23" s="825"/>
       <c r="B23" s="825"/>
       <c r="C23" s="827" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D23" s="825"/>
       <c r="E23" s="825"/>
@@ -28347,7 +28335,7 @@
       <c r="A24" s="825"/>
       <c r="B24" s="825"/>
       <c r="C24" s="828" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D24" s="825"/>
       <c r="E24" s="825"/>
@@ -28395,7 +28383,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="A26" s="825" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B26" s="825"/>
       <c r="C26" s="825"/>
@@ -28413,7 +28401,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="A27" s="825" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B27" s="825"/>
       <c r="C27" s="825"/>
@@ -28431,7 +28419,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="A28" s="825" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B28" s="825"/>
       <c r="C28" s="825"/>
@@ -28479,7 +28467,7 @@
       <c r="A30" s="825"/>
       <c r="B30" s="825"/>
       <c r="C30" s="827" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D30" s="825"/>
       <c r="E30" s="825"/>
@@ -28513,7 +28501,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="825" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B32" s="825"/>
       <c r="C32" s="825"/>
@@ -28533,7 +28521,7 @@
       <c r="A33" s="825"/>
       <c r="B33" s="825"/>
       <c r="C33" s="827" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D33" s="827"/>
       <c r="E33" s="827"/>
@@ -28554,7 +28542,7 @@
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="825" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B34" s="825"/>
       <c r="C34" s="825"/>
@@ -28572,7 +28560,7 @@
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="A35" s="825" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B35" s="825"/>
       <c r="C35" s="825"/>
@@ -28593,7 +28581,7 @@
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
       <c r="A36" s="825" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B36" s="825"/>
       <c r="C36" s="825"/>
@@ -28611,7 +28599,7 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="825" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B37" s="825"/>
       <c r="C37" s="825"/>
@@ -28629,7 +28617,7 @@
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="825" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B38" s="825"/>
       <c r="C38" s="825"/>
@@ -28647,7 +28635,7 @@
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1">
       <c r="A39" s="825" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B39" s="825"/>
       <c r="C39" s="825"/>
@@ -28665,7 +28653,7 @@
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="A40" s="825" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B40" s="825"/>
       <c r="C40" s="825"/>
@@ -28683,7 +28671,7 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1">
       <c r="A41" s="825" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B41" s="825"/>
       <c r="C41" s="825"/>
@@ -28701,7 +28689,7 @@
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="A42" s="825" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B42" s="825"/>
       <c r="C42" s="825"/>
@@ -28719,7 +28707,7 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="825" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B43" s="825"/>
       <c r="C43" s="825"/>
@@ -28737,7 +28725,7 @@
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1">
       <c r="A44" s="825" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B44" s="825"/>
       <c r="C44" s="825"/>
@@ -28755,7 +28743,7 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="825" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B45" s="825"/>
       <c r="C45" s="825"/>
@@ -28773,7 +28761,7 @@
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="825" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B46" s="825"/>
       <c r="C46" s="825"/>
@@ -28793,7 +28781,7 @@
       <c r="A47" s="825"/>
       <c r="B47" s="825"/>
       <c r="C47" s="827" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D47" s="825"/>
       <c r="E47" s="825"/>
@@ -28841,7 +28829,7 @@
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1">
       <c r="A49" s="825" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B49" s="825"/>
       <c r="C49" s="825"/>
@@ -28859,7 +28847,7 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1">
       <c r="A50" s="825" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B50" s="825"/>
       <c r="C50" s="825"/>
@@ -28891,22 +28879,22 @@
       <c r="M51" s="825"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A52" s="875" t="s">
-        <v>533</v>
-      </c>
-      <c r="B52" s="875"/>
-      <c r="C52" s="875"/>
-      <c r="D52" s="875"/>
-      <c r="E52" s="875"/>
-      <c r="F52" s="875"/>
-      <c r="G52" s="875"/>
-      <c r="H52" s="875"/>
-      <c r="I52" s="875"/>
-      <c r="J52" s="875"/>
-      <c r="K52" s="875"/>
-      <c r="L52" s="875"/>
-      <c r="M52" s="875"/>
-      <c r="N52" s="875"/>
+      <c r="A52" s="897" t="s">
+        <v>529</v>
+      </c>
+      <c r="B52" s="897"/>
+      <c r="C52" s="897"/>
+      <c r="D52" s="897"/>
+      <c r="E52" s="897"/>
+      <c r="F52" s="897"/>
+      <c r="G52" s="897"/>
+      <c r="H52" s="897"/>
+      <c r="I52" s="897"/>
+      <c r="J52" s="897"/>
+      <c r="K52" s="897"/>
+      <c r="L52" s="897"/>
+      <c r="M52" s="897"/>
+      <c r="N52" s="897"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -28921,12 +28909,14 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="29">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A19:N19"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
@@ -28942,14 +28932,12 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:N12"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="L5:N5"/>
   </mergeCells>
   <conditionalFormatting sqref="N27:N38 N48 N41:N42 N50">
     <cfRule type="cellIs" dxfId="176" priority="13" stopIfTrue="1" operator="equal">
@@ -29260,19 +29248,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="916" t="s">
+      <c r="A1" s="907" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="916"/>
-      <c r="C1" s="916"/>
-      <c r="D1" s="916"/>
-      <c r="E1" s="916"/>
-      <c r="F1" s="916"/>
-      <c r="G1" s="916"/>
-      <c r="H1" s="916"/>
-      <c r="I1" s="916"/>
-      <c r="J1" s="916"/>
-      <c r="K1" s="916"/>
+      <c r="B1" s="907"/>
+      <c r="C1" s="907"/>
+      <c r="D1" s="907"/>
+      <c r="E1" s="907"/>
+      <c r="F1" s="907"/>
+      <c r="G1" s="907"/>
+      <c r="H1" s="907"/>
+      <c r="I1" s="907"/>
+      <c r="J1" s="907"/>
+      <c r="K1" s="907"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
       <c r="A2" s="517" t="s">
@@ -29306,23 +29294,23 @@
       <c r="K4" s="512"/>
     </row>
     <row r="5" spans="1:12" ht="42" customHeight="1">
-      <c r="A5" s="917" t="s">
-        <v>545</v>
-      </c>
-      <c r="B5" s="917"/>
-      <c r="C5" s="917"/>
-      <c r="D5" s="917"/>
-      <c r="E5" s="917"/>
-      <c r="F5" s="917"/>
-      <c r="G5" s="917"/>
-      <c r="H5" s="917"/>
-      <c r="I5" s="917"/>
-      <c r="J5" s="917"/>
-      <c r="K5" s="917"/>
+      <c r="A5" s="908" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5" s="908"/>
+      <c r="C5" s="908"/>
+      <c r="D5" s="908"/>
+      <c r="E5" s="908"/>
+      <c r="F5" s="908"/>
+      <c r="G5" s="908"/>
+      <c r="H5" s="908"/>
+      <c r="I5" s="908"/>
+      <c r="J5" s="908"/>
+      <c r="K5" s="908"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="511" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B6" s="510"/>
       <c r="C6" s="510"/>
@@ -29337,7 +29325,7 @@
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7" s="507" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B7" s="506"/>
       <c r="C7" s="506"/>
@@ -29351,8 +29339,8 @@
       <c r="K7" s="506"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="J8" s="918"/>
-      <c r="K8" s="918"/>
+      <c r="J8" s="909"/>
+      <c r="K8" s="909"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="492"/>
@@ -29361,10 +29349,10 @@
         <v>396</v>
       </c>
       <c r="I9" s="505"/>
-      <c r="J9" s="919" t="s">
+      <c r="J9" s="910" t="s">
         <v>390</v>
       </c>
-      <c r="K9" s="919"/>
+      <c r="K9" s="910"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="504" t="s">
@@ -29378,7 +29366,7 @@
       <c r="G10" s="715"/>
       <c r="H10" s="716"/>
       <c r="I10" s="716" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="J10" s="905"/>
       <c r="K10" s="906"/>
@@ -29424,7 +29412,7 @@
       <c r="E13" s="492"/>
       <c r="H13" s="502"/>
       <c r="I13" s="502" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="J13" s="905"/>
       <c r="K13" s="906"/>
@@ -29434,7 +29422,7 @@
         <v>406</v>
       </c>
       <c r="B14" s="486" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C14" s="485"/>
       <c r="E14" s="492"/>
@@ -29466,12 +29454,12 @@
         <v>411</v>
       </c>
       <c r="B16" s="486" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C16" s="485"/>
       <c r="E16" s="492"/>
       <c r="H16" s="500" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="J16" s="711"/>
       <c r="K16" s="712"/>
@@ -29482,7 +29470,7 @@
         <v>413</v>
       </c>
       <c r="B17" s="486" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C17" s="485"/>
       <c r="E17" s="492"/>
@@ -29497,10 +29485,10 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="499" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B18" s="498" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C18" s="485"/>
       <c r="H18" s="497" t="s">
@@ -29513,14 +29501,14 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="499" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B19" s="498" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C19" s="485"/>
       <c r="H19" s="503" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="I19" s="484"/>
       <c r="J19" s="905" t="s">
@@ -29539,19 +29527,19 @@
       <c r="L20" s="492"/>
     </row>
     <row r="21" spans="1:12" ht="24" customHeight="1">
-      <c r="A21" s="907" t="s">
+      <c r="A21" s="911" t="s">
         <v>415</v>
       </c>
-      <c r="B21" s="907"/>
-      <c r="C21" s="907"/>
-      <c r="D21" s="907"/>
-      <c r="E21" s="907"/>
-      <c r="F21" s="907"/>
-      <c r="G21" s="907"/>
-      <c r="H21" s="907"/>
-      <c r="I21" s="907"/>
-      <c r="J21" s="907"/>
-      <c r="K21" s="907"/>
+      <c r="B21" s="911"/>
+      <c r="C21" s="911"/>
+      <c r="D21" s="911"/>
+      <c r="E21" s="911"/>
+      <c r="F21" s="911"/>
+      <c r="G21" s="911"/>
+      <c r="H21" s="911"/>
+      <c r="I21" s="911"/>
+      <c r="J21" s="911"/>
+      <c r="K21" s="911"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="491"/>
@@ -29567,123 +29555,123 @@
       <c r="K22" s="490"/>
     </row>
     <row r="23" spans="1:12" ht="290.25" customHeight="1">
-      <c r="A23" s="908"/>
-      <c r="B23" s="909"/>
-      <c r="C23" s="909"/>
-      <c r="D23" s="909"/>
-      <c r="E23" s="909"/>
-      <c r="F23" s="909"/>
-      <c r="G23" s="909"/>
-      <c r="H23" s="909"/>
-      <c r="I23" s="909"/>
-      <c r="J23" s="909"/>
-      <c r="K23" s="910"/>
+      <c r="A23" s="912"/>
+      <c r="B23" s="913"/>
+      <c r="C23" s="913"/>
+      <c r="D23" s="913"/>
+      <c r="E23" s="913"/>
+      <c r="F23" s="913"/>
+      <c r="G23" s="913"/>
+      <c r="H23" s="913"/>
+      <c r="I23" s="913"/>
+      <c r="J23" s="913"/>
+      <c r="K23" s="914"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="911"/>
-      <c r="B24" s="911"/>
-      <c r="C24" s="911"/>
-      <c r="D24" s="911"/>
-      <c r="E24" s="911"/>
-      <c r="F24" s="911"/>
-      <c r="G24" s="911"/>
-      <c r="H24" s="911"/>
-      <c r="I24" s="911"/>
-      <c r="J24" s="911"/>
-      <c r="K24" s="911"/>
+      <c r="A24" s="915"/>
+      <c r="B24" s="915"/>
+      <c r="C24" s="915"/>
+      <c r="D24" s="915"/>
+      <c r="E24" s="915"/>
+      <c r="F24" s="915"/>
+      <c r="G24" s="915"/>
+      <c r="H24" s="915"/>
+      <c r="I24" s="915"/>
+      <c r="J24" s="915"/>
+      <c r="K24" s="915"/>
     </row>
     <row r="25" spans="1:12" hidden="1">
-      <c r="A25" s="912"/>
-      <c r="B25" s="912"/>
-      <c r="C25" s="912"/>
-      <c r="D25" s="912"/>
-      <c r="E25" s="912"/>
-      <c r="F25" s="912"/>
-      <c r="G25" s="912"/>
-      <c r="H25" s="912"/>
-      <c r="I25" s="912"/>
-      <c r="J25" s="912"/>
-      <c r="K25" s="912"/>
+      <c r="A25" s="916"/>
+      <c r="B25" s="916"/>
+      <c r="C25" s="916"/>
+      <c r="D25" s="916"/>
+      <c r="E25" s="916"/>
+      <c r="F25" s="916"/>
+      <c r="G25" s="916"/>
+      <c r="H25" s="916"/>
+      <c r="I25" s="916"/>
+      <c r="J25" s="916"/>
+      <c r="K25" s="916"/>
     </row>
     <row r="26" spans="1:12" hidden="1">
-      <c r="A26" s="912"/>
-      <c r="B26" s="912"/>
-      <c r="C26" s="912"/>
-      <c r="D26" s="912"/>
-      <c r="E26" s="912"/>
-      <c r="F26" s="912"/>
-      <c r="G26" s="912"/>
-      <c r="H26" s="912"/>
-      <c r="I26" s="912"/>
-      <c r="J26" s="912"/>
-      <c r="K26" s="912"/>
+      <c r="A26" s="916"/>
+      <c r="B26" s="916"/>
+      <c r="C26" s="916"/>
+      <c r="D26" s="916"/>
+      <c r="E26" s="916"/>
+      <c r="F26" s="916"/>
+      <c r="G26" s="916"/>
+      <c r="H26" s="916"/>
+      <c r="I26" s="916"/>
+      <c r="J26" s="916"/>
+      <c r="K26" s="916"/>
     </row>
     <row r="27" spans="1:12" hidden="1">
-      <c r="A27" s="912"/>
-      <c r="B27" s="912"/>
-      <c r="C27" s="912"/>
-      <c r="D27" s="912"/>
-      <c r="E27" s="912"/>
-      <c r="F27" s="912"/>
-      <c r="G27" s="912"/>
-      <c r="H27" s="912"/>
-      <c r="I27" s="912"/>
-      <c r="J27" s="912"/>
-      <c r="K27" s="912"/>
+      <c r="A27" s="916"/>
+      <c r="B27" s="916"/>
+      <c r="C27" s="916"/>
+      <c r="D27" s="916"/>
+      <c r="E27" s="916"/>
+      <c r="F27" s="916"/>
+      <c r="G27" s="916"/>
+      <c r="H27" s="916"/>
+      <c r="I27" s="916"/>
+      <c r="J27" s="916"/>
+      <c r="K27" s="916"/>
     </row>
     <row r="28" spans="1:12" hidden="1">
-      <c r="A28" s="912"/>
-      <c r="B28" s="912"/>
-      <c r="C28" s="912"/>
-      <c r="D28" s="912"/>
-      <c r="E28" s="912"/>
-      <c r="F28" s="912"/>
-      <c r="G28" s="912"/>
-      <c r="H28" s="912"/>
-      <c r="I28" s="912"/>
-      <c r="J28" s="912"/>
-      <c r="K28" s="912"/>
+      <c r="A28" s="916"/>
+      <c r="B28" s="916"/>
+      <c r="C28" s="916"/>
+      <c r="D28" s="916"/>
+      <c r="E28" s="916"/>
+      <c r="F28" s="916"/>
+      <c r="G28" s="916"/>
+      <c r="H28" s="916"/>
+      <c r="I28" s="916"/>
+      <c r="J28" s="916"/>
+      <c r="K28" s="916"/>
     </row>
     <row r="29" spans="1:12" hidden="1">
-      <c r="A29" s="912"/>
-      <c r="B29" s="912"/>
-      <c r="C29" s="912"/>
-      <c r="D29" s="912"/>
-      <c r="E29" s="912"/>
-      <c r="F29" s="912"/>
-      <c r="G29" s="912"/>
-      <c r="H29" s="912"/>
-      <c r="I29" s="912"/>
-      <c r="J29" s="912"/>
-      <c r="K29" s="912"/>
+      <c r="A29" s="916"/>
+      <c r="B29" s="916"/>
+      <c r="C29" s="916"/>
+      <c r="D29" s="916"/>
+      <c r="E29" s="916"/>
+      <c r="F29" s="916"/>
+      <c r="G29" s="916"/>
+      <c r="H29" s="916"/>
+      <c r="I29" s="916"/>
+      <c r="J29" s="916"/>
+      <c r="K29" s="916"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A30" s="912"/>
-      <c r="B30" s="912"/>
-      <c r="C30" s="912"/>
-      <c r="D30" s="912"/>
-      <c r="E30" s="912"/>
-      <c r="F30" s="912"/>
-      <c r="G30" s="912"/>
-      <c r="H30" s="912"/>
-      <c r="I30" s="912"/>
-      <c r="J30" s="912"/>
-      <c r="K30" s="912"/>
+      <c r="A30" s="916"/>
+      <c r="B30" s="916"/>
+      <c r="C30" s="916"/>
+      <c r="D30" s="916"/>
+      <c r="E30" s="916"/>
+      <c r="F30" s="916"/>
+      <c r="G30" s="916"/>
+      <c r="H30" s="916"/>
+      <c r="I30" s="916"/>
+      <c r="J30" s="916"/>
+      <c r="K30" s="916"/>
     </row>
     <row r="31" spans="1:12" ht="201.75" customHeight="1" thickBot="1">
-      <c r="A31" s="913" t="s">
-        <v>541</v>
-      </c>
-      <c r="B31" s="914"/>
-      <c r="C31" s="914"/>
-      <c r="D31" s="914"/>
-      <c r="E31" s="914"/>
-      <c r="F31" s="914"/>
-      <c r="G31" s="914"/>
-      <c r="H31" s="914"/>
-      <c r="I31" s="914"/>
-      <c r="J31" s="914"/>
-      <c r="K31" s="915"/>
+      <c r="A31" s="917" t="s">
+        <v>537</v>
+      </c>
+      <c r="B31" s="918"/>
+      <c r="C31" s="918"/>
+      <c r="D31" s="918"/>
+      <c r="E31" s="918"/>
+      <c r="F31" s="918"/>
+      <c r="G31" s="918"/>
+      <c r="H31" s="918"/>
+      <c r="I31" s="918"/>
+      <c r="J31" s="918"/>
+      <c r="K31" s="919"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -29698,6 +29686,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="17">
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K30"/>
+    <mergeCell ref="A31:K31"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A5:K5"/>
@@ -29710,11 +29703,6 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K30"/>
-    <mergeCell ref="A31:K31"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:K18">
     <cfRule type="cellIs" dxfId="163" priority="2" stopIfTrue="1" operator="equal">
@@ -30269,13 +30257,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="922" t="s">
-        <v>629</v>
-      </c>
-      <c r="B1" s="923"/>
-      <c r="C1" s="923"/>
-      <c r="D1" s="923"/>
-      <c r="E1" s="923"/>
+      <c r="A1" s="935" t="s">
+        <v>625</v>
+      </c>
+      <c r="B1" s="936"/>
+      <c r="C1" s="936"/>
+      <c r="D1" s="936"/>
+      <c r="E1" s="936"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="717"/>
@@ -30286,25 +30274,25 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1">
       <c r="A3" s="718" t="s">
-        <v>630</v>
-      </c>
-      <c r="B3" s="924">
+        <v>626</v>
+      </c>
+      <c r="B3" s="937">
         <f>'QC Test Summary-Siemens'!C4</f>
         <v>0</v>
       </c>
-      <c r="C3" s="924"/>
-      <c r="D3" s="924"/>
-      <c r="E3" s="924"/>
+      <c r="C3" s="937"/>
+      <c r="D3" s="937"/>
+      <c r="E3" s="937"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="718" t="s">
-        <v>631</v>
-      </c>
-      <c r="B4" s="925" t="str">
+        <v>627</v>
+      </c>
+      <c r="B4" s="938" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="C4" s="925"/>
+      <c r="C4" s="938"/>
       <c r="D4" s="719" t="s">
         <v>43</v>
       </c>
@@ -30315,7 +30303,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
       <c r="A5" s="718" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B5" s="720" t="str">
         <f>Sheet1!V18</f>
@@ -30323,7 +30311,7 @@
       </c>
       <c r="C5" s="720"/>
       <c r="D5" s="719" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E5" s="769" t="str">
         <f>Sheet1!V17</f>
@@ -30332,15 +30320,15 @@
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" s="718" t="s">
-        <v>634</v>
-      </c>
-      <c r="B6" s="925" t="str">
+        <v>630</v>
+      </c>
+      <c r="B6" s="938" t="str">
         <f>Sheet1!X7</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="C6" s="925"/>
+      <c r="C6" s="938"/>
       <c r="D6" s="719" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E6" s="721" t="str">
         <f>Sheet1!R14</f>
@@ -30349,12 +30337,12 @@
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">
       <c r="A7" s="718" t="s">
-        <v>636</v>
-      </c>
-      <c r="B7" s="925"/>
-      <c r="C7" s="925"/>
+        <v>632</v>
+      </c>
+      <c r="B7" s="938"/>
+      <c r="C7" s="938"/>
       <c r="D7" s="719" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E7" s="770">
         <f>Sheet1!P7</f>
@@ -30364,447 +30352,447 @@
     <row r="8" spans="1:5" ht="21.75" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
       <c r="A9" s="722" t="s">
+        <v>634</v>
+      </c>
+      <c r="B9" s="723" t="s">
+        <v>635</v>
+      </c>
+      <c r="C9" s="724" t="s">
+        <v>636</v>
+      </c>
+      <c r="D9" s="723" t="s">
+        <v>637</v>
+      </c>
+      <c r="E9" s="725" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="33" customHeight="1" thickTop="1">
+      <c r="A10" s="934" t="s">
         <v>638</v>
       </c>
-      <c r="B9" s="723" t="s">
+      <c r="B10" s="726" t="s">
         <v>639</v>
       </c>
-      <c r="C9" s="724" t="s">
+      <c r="C10" s="727" t="s">
         <v>640</v>
       </c>
-      <c r="D9" s="723" t="s">
+      <c r="D10" s="728" t="s">
         <v>641</v>
       </c>
-      <c r="E9" s="725" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="33" customHeight="1" thickTop="1">
-      <c r="A10" s="920" t="s">
+      <c r="E10" s="729"/>
+    </row>
+    <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A11" s="930"/>
+      <c r="B11" s="730" t="s">
         <v>642</v>
       </c>
-      <c r="B10" s="726" t="s">
+      <c r="C11" s="731" t="s">
         <v>643</v>
       </c>
-      <c r="C10" s="727" t="s">
+      <c r="D11" s="732" t="s">
+        <v>641</v>
+      </c>
+      <c r="E11" s="733"/>
+    </row>
+    <row r="12" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A12" s="925" t="s">
         <v>644</v>
       </c>
-      <c r="D10" s="728" t="s">
+      <c r="B12" s="734" t="s">
         <v>645</v>
       </c>
-      <c r="E10" s="729"/>
-    </row>
-    <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A11" s="921"/>
-      <c r="B11" s="730" t="s">
+      <c r="C12" s="735" t="s">
         <v>646</v>
       </c>
-      <c r="C11" s="731" t="s">
+      <c r="D12" s="736" t="s">
         <v>647</v>
       </c>
-      <c r="D11" s="732" t="s">
-        <v>645</v>
-      </c>
-      <c r="E11" s="733"/>
-    </row>
-    <row r="12" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A12" s="931" t="s">
+      <c r="E12" s="737"/>
+    </row>
+    <row r="13" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A13" s="926"/>
+      <c r="B13" s="738" t="s">
         <v>648</v>
       </c>
-      <c r="B12" s="734" t="s">
+      <c r="C13" s="739" t="s">
         <v>649</v>
       </c>
-      <c r="C12" s="735" t="s">
+      <c r="D13" s="740" t="s">
+        <v>647</v>
+      </c>
+      <c r="E13" s="741"/>
+    </row>
+    <row r="14" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A14" s="927"/>
+      <c r="B14" s="742" t="s">
         <v>650</v>
       </c>
-      <c r="D12" s="736" t="s">
+      <c r="C14" s="743" t="s">
         <v>651</v>
       </c>
-      <c r="E12" s="737"/>
-    </row>
-    <row r="13" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A13" s="932"/>
-      <c r="B13" s="738" t="s">
+      <c r="D14" s="732" t="s">
+        <v>641</v>
+      </c>
+      <c r="E14" s="744"/>
+    </row>
+    <row r="15" spans="1:5" ht="56.25">
+      <c r="A15" s="928" t="s">
         <v>652</v>
       </c>
-      <c r="C13" s="739" t="s">
+      <c r="B15" s="745" t="s">
         <v>653</v>
       </c>
-      <c r="D13" s="740" t="s">
-        <v>651</v>
-      </c>
-      <c r="E13" s="741"/>
-    </row>
-    <row r="14" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A14" s="933"/>
-      <c r="B14" s="742" t="s">
+      <c r="C15" s="746" t="s">
         <v>654</v>
       </c>
-      <c r="C14" s="743" t="s">
+      <c r="D15" s="736" t="s">
+        <v>641</v>
+      </c>
+      <c r="E15" s="747"/>
+    </row>
+    <row r="16" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
+      <c r="A16" s="929"/>
+      <c r="B16" s="730" t="s">
         <v>655</v>
       </c>
-      <c r="D14" s="732" t="s">
-        <v>645</v>
-      </c>
-      <c r="E14" s="744"/>
-    </row>
-    <row r="15" spans="1:5" ht="56.25">
-      <c r="A15" s="934" t="s">
+      <c r="C16" s="748" t="s">
+        <v>704</v>
+      </c>
+      <c r="D16" s="732" t="s">
         <v>656</v>
       </c>
-      <c r="B15" s="745" t="s">
+      <c r="E16" s="749"/>
+    </row>
+    <row r="17" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A17" s="920" t="s">
         <v>657</v>
       </c>
-      <c r="C15" s="746" t="s">
+      <c r="B17" s="750" t="s">
         <v>658</v>
       </c>
-      <c r="D15" s="736" t="s">
-        <v>645</v>
-      </c>
-      <c r="E15" s="747"/>
-    </row>
-    <row r="16" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A16" s="935"/>
-      <c r="B16" s="730" t="s">
+      <c r="C17" s="735" t="s">
         <v>659</v>
       </c>
-      <c r="C16" s="748" t="s">
-        <v>708</v>
-      </c>
-      <c r="D16" s="732" t="s">
+      <c r="D17" s="736" t="s">
+        <v>641</v>
+      </c>
+      <c r="E17" s="751"/>
+    </row>
+    <row r="18" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A18" s="930"/>
+      <c r="B18" s="752" t="s">
         <v>660</v>
       </c>
-      <c r="E16" s="749"/>
-    </row>
-    <row r="17" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A17" s="926" t="s">
+      <c r="C18" s="753" t="s">
         <v>661</v>
       </c>
-      <c r="B17" s="750" t="s">
+      <c r="D18" s="732" t="s">
+        <v>641</v>
+      </c>
+      <c r="E18" s="733"/>
+    </row>
+    <row r="19" spans="1:5" ht="33.75">
+      <c r="A19" s="931" t="s">
         <v>662</v>
       </c>
-      <c r="C17" s="735" t="s">
+      <c r="B19" s="750" t="s">
         <v>663</v>
       </c>
-      <c r="D17" s="736" t="s">
-        <v>645</v>
-      </c>
-      <c r="E17" s="751"/>
-    </row>
-    <row r="18" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A18" s="921"/>
-      <c r="B18" s="752" t="s">
+      <c r="C19" s="735" t="s">
         <v>664</v>
       </c>
-      <c r="C18" s="753" t="s">
+      <c r="D19" s="736" t="s">
+        <v>641</v>
+      </c>
+      <c r="E19" s="751"/>
+    </row>
+    <row r="20" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A20" s="932"/>
+      <c r="B20" s="754" t="s">
         <v>665</v>
       </c>
-      <c r="D18" s="732" t="s">
-        <v>645</v>
-      </c>
-      <c r="E18" s="733"/>
-    </row>
-    <row r="19" spans="1:5" ht="33.75">
-      <c r="A19" s="936" t="s">
+      <c r="C20" s="755" t="s">
         <v>666</v>
       </c>
-      <c r="B19" s="750" t="s">
+      <c r="D20" s="728" t="s">
+        <v>641</v>
+      </c>
+      <c r="E20" s="756"/>
+    </row>
+    <row r="21" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
+      <c r="A21" s="933"/>
+      <c r="B21" s="752" t="s">
         <v>667</v>
       </c>
-      <c r="C19" s="735" t="s">
+      <c r="C21" s="753" t="s">
         <v>668</v>
       </c>
-      <c r="D19" s="736" t="s">
-        <v>645</v>
-      </c>
-      <c r="E19" s="751"/>
-    </row>
-    <row r="20" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A20" s="937"/>
-      <c r="B20" s="754" t="s">
+      <c r="D21" s="732" t="s">
+        <v>641</v>
+      </c>
+      <c r="E21" s="733"/>
+    </row>
+    <row r="22" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A22" s="920" t="s">
         <v>669</v>
       </c>
-      <c r="C20" s="755" t="s">
+      <c r="B22" s="750" t="s">
         <v>670</v>
       </c>
-      <c r="D20" s="728" t="s">
-        <v>645</v>
-      </c>
-      <c r="E20" s="756"/>
-    </row>
-    <row r="21" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A21" s="938"/>
-      <c r="B21" s="752" t="s">
+      <c r="C22" s="735" t="s">
         <v>671</v>
       </c>
-      <c r="C21" s="753" t="s">
+      <c r="D22" s="736" t="s">
+        <v>641</v>
+      </c>
+      <c r="E22" s="751"/>
+    </row>
+    <row r="23" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A23" s="930"/>
+      <c r="B23" s="730" t="s">
         <v>672</v>
       </c>
-      <c r="D21" s="732" t="s">
-        <v>645</v>
-      </c>
-      <c r="E21" s="733"/>
-    </row>
-    <row r="22" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A22" s="926" t="s">
+      <c r="C23" s="743" t="s">
         <v>673</v>
       </c>
-      <c r="B22" s="750" t="s">
+      <c r="D23" s="732" t="s">
+        <v>641</v>
+      </c>
+      <c r="E23" s="749"/>
+    </row>
+    <row r="24" spans="1:5" ht="33.75">
+      <c r="A24" s="931" t="s">
         <v>674</v>
       </c>
-      <c r="C22" s="735" t="s">
+      <c r="B24" s="750" t="s">
         <v>675</v>
       </c>
-      <c r="D22" s="736" t="s">
-        <v>645</v>
-      </c>
-      <c r="E22" s="751"/>
-    </row>
-    <row r="23" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A23" s="921"/>
-      <c r="B23" s="730" t="s">
+      <c r="C24" s="735" t="s">
         <v>676</v>
       </c>
-      <c r="C23" s="743" t="s">
+      <c r="D24" s="736" t="s">
+        <v>641</v>
+      </c>
+      <c r="E24" s="751"/>
+    </row>
+    <row r="25" spans="1:5" ht="45.75" customHeight="1">
+      <c r="A25" s="932"/>
+      <c r="B25" s="754" t="s">
         <v>677</v>
       </c>
-      <c r="D23" s="732" t="s">
-        <v>645</v>
-      </c>
-      <c r="E23" s="749"/>
-    </row>
-    <row r="24" spans="1:5" ht="33.75">
-      <c r="A24" s="936" t="s">
+      <c r="C25" s="739" t="s">
         <v>678</v>
       </c>
-      <c r="B24" s="750" t="s">
+      <c r="D25" s="728" t="s">
+        <v>656</v>
+      </c>
+      <c r="E25" s="756"/>
+    </row>
+    <row r="26" spans="1:5" ht="46.5" customHeight="1">
+      <c r="A26" s="932"/>
+      <c r="B26" s="757" t="s">
         <v>679</v>
       </c>
-      <c r="C24" s="735" t="s">
+      <c r="C26" s="739" t="s">
         <v>680</v>
       </c>
-      <c r="D24" s="736" t="s">
-        <v>645</v>
-      </c>
-      <c r="E24" s="751"/>
-    </row>
-    <row r="25" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A25" s="937"/>
-      <c r="B25" s="754" t="s">
+      <c r="D26" s="728" t="s">
+        <v>641</v>
+      </c>
+      <c r="E26" s="756"/>
+    </row>
+    <row r="27" spans="1:5" ht="22.5">
+      <c r="A27" s="932"/>
+      <c r="B27" s="757" t="s">
         <v>681</v>
       </c>
-      <c r="C25" s="739" t="s">
+      <c r="C27" s="739" t="s">
         <v>682</v>
       </c>
-      <c r="D25" s="728" t="s">
-        <v>660</v>
-      </c>
-      <c r="E25" s="756"/>
-    </row>
-    <row r="26" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A26" s="937"/>
-      <c r="B26" s="757" t="s">
+      <c r="D27" s="728" t="s">
+        <v>641</v>
+      </c>
+      <c r="E27" s="756"/>
+    </row>
+    <row r="28" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A28" s="933"/>
+      <c r="B28" s="758" t="s">
         <v>683</v>
       </c>
-      <c r="C26" s="739" t="s">
+      <c r="C28" s="743" t="s">
         <v>684</v>
       </c>
-      <c r="D26" s="728" t="s">
-        <v>645</v>
-      </c>
-      <c r="E26" s="756"/>
-    </row>
-    <row r="27" spans="1:5" ht="22.5">
-      <c r="A27" s="937"/>
-      <c r="B27" s="757" t="s">
+      <c r="D28" s="732" t="s">
+        <v>641</v>
+      </c>
+      <c r="E28" s="749"/>
+    </row>
+    <row r="29" spans="1:5" ht="22.5">
+      <c r="A29" s="920" t="s">
         <v>685</v>
       </c>
-      <c r="C27" s="739" t="s">
+      <c r="B29" s="759" t="s">
         <v>686</v>
       </c>
-      <c r="D27" s="728" t="s">
-        <v>645</v>
-      </c>
-      <c r="E27" s="756"/>
-    </row>
-    <row r="28" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A28" s="938"/>
-      <c r="B28" s="758" t="s">
+      <c r="C29" s="735" t="s">
         <v>687</v>
       </c>
-      <c r="C28" s="743" t="s">
+      <c r="D29" s="736" t="s">
+        <v>641</v>
+      </c>
+      <c r="E29" s="751"/>
+    </row>
+    <row r="30" spans="1:5" ht="54.75" customHeight="1">
+      <c r="A30" s="921"/>
+      <c r="B30" s="757" t="s">
         <v>688</v>
       </c>
-      <c r="D28" s="732" t="s">
-        <v>645</v>
-      </c>
-      <c r="E28" s="749"/>
-    </row>
-    <row r="29" spans="1:5" ht="22.5">
-      <c r="A29" s="926" t="s">
+      <c r="C30" s="739" t="s">
         <v>689</v>
       </c>
-      <c r="B29" s="759" t="s">
+      <c r="D30" s="728" t="s">
+        <v>641</v>
+      </c>
+      <c r="E30" s="756"/>
+    </row>
+    <row r="31" spans="1:5" ht="34.5" thickBot="1">
+      <c r="A31" s="922"/>
+      <c r="B31" s="758" t="s">
         <v>690</v>
       </c>
-      <c r="C29" s="735" t="s">
+      <c r="C31" s="743" t="s">
         <v>691</v>
       </c>
-      <c r="D29" s="736" t="s">
-        <v>645</v>
-      </c>
-      <c r="E29" s="751"/>
-    </row>
-    <row r="30" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A30" s="927"/>
-      <c r="B30" s="757" t="s">
+      <c r="D31" s="732" t="s">
+        <v>641</v>
+      </c>
+      <c r="E31" s="749"/>
+    </row>
+    <row r="32" spans="1:5" ht="46.5" customHeight="1">
+      <c r="A32" s="920" t="s">
         <v>692</v>
       </c>
-      <c r="C30" s="739" t="s">
+      <c r="B32" s="759" t="s">
         <v>693</v>
       </c>
-      <c r="D30" s="728" t="s">
-        <v>645</v>
-      </c>
-      <c r="E30" s="756"/>
-    </row>
-    <row r="31" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A31" s="928"/>
-      <c r="B31" s="758" t="s">
+      <c r="C32" s="735" t="s">
         <v>694</v>
       </c>
-      <c r="C31" s="743" t="s">
+      <c r="D32" s="736" t="s">
+        <v>647</v>
+      </c>
+      <c r="E32" s="751"/>
+    </row>
+    <row r="33" spans="1:5" ht="66.75" customHeight="1">
+      <c r="A33" s="921"/>
+      <c r="B33" s="757" t="s">
         <v>695</v>
       </c>
-      <c r="D31" s="732" t="s">
-        <v>645</v>
-      </c>
-      <c r="E31" s="749"/>
-    </row>
-    <row r="32" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A32" s="926" t="s">
+      <c r="C33" s="739" t="s">
+        <v>755</v>
+      </c>
+      <c r="D33" s="740" t="s">
+        <v>647</v>
+      </c>
+      <c r="E33" s="756"/>
+    </row>
+    <row r="34" spans="1:5" ht="34.5" thickBot="1">
+      <c r="A34" s="922"/>
+      <c r="B34" s="758" t="s">
         <v>696</v>
       </c>
-      <c r="B32" s="759" t="s">
+      <c r="C34" s="743" t="s">
         <v>697</v>
       </c>
-      <c r="C32" s="735" t="s">
-        <v>698</v>
-      </c>
-      <c r="D32" s="736" t="s">
-        <v>651</v>
-      </c>
-      <c r="E32" s="751"/>
-    </row>
-    <row r="33" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A33" s="927"/>
-      <c r="B33" s="757" t="s">
-        <v>699</v>
-      </c>
-      <c r="C33" s="739" t="s">
-        <v>759</v>
-      </c>
-      <c r="D33" s="740" t="s">
-        <v>651</v>
-      </c>
-      <c r="E33" s="756"/>
-    </row>
-    <row r="34" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A34" s="928"/>
-      <c r="B34" s="758" t="s">
-        <v>700</v>
-      </c>
-      <c r="C34" s="743" t="s">
-        <v>701</v>
-      </c>
       <c r="D34" s="760" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E34" s="749"/>
     </row>
     <row r="35" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A35" s="761" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B35" s="762">
         <v>11</v>
       </c>
       <c r="C35" s="763" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D35" s="764" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E35" s="765"/>
     </row>
     <row r="36" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
       <c r="A36" s="761" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B36" s="762">
         <v>12</v>
       </c>
       <c r="C36" s="763" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D36" s="764" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E36" s="765"/>
     </row>
     <row r="37" spans="1:5" ht="45.75" thickBot="1">
       <c r="A37" s="761" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B37" s="762">
         <v>13</v>
       </c>
       <c r="C37" s="763" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D37" s="764" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E37" s="765"/>
     </row>
     <row r="38" spans="1:5" ht="46.5" customHeight="1" thickBot="1">
       <c r="A38" s="761" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B38" s="762">
         <v>14</v>
       </c>
       <c r="C38" s="763" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D38" s="764" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E38" s="765"/>
     </row>
     <row r="39" spans="1:5" ht="46.5" customHeight="1" thickBot="1">
       <c r="A39" s="766" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B39" s="767">
         <v>15</v>
       </c>
       <c r="C39" s="753" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D39" s="732" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E39" s="733"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="929" t="s">
-        <v>765</v>
-      </c>
-      <c r="B40" s="930"/>
-      <c r="C40" s="930"/>
-      <c r="D40" s="930"/>
-      <c r="E40" s="930"/>
+      <c r="A40" s="923" t="s">
+        <v>761</v>
+      </c>
+      <c r="B40" s="924"/>
+      <c r="C40" s="924"/>
+      <c r="D40" s="924"/>
+      <c r="E40" s="924"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="768"/>
@@ -31519,6 +31507,12 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="15">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A40:E40"/>
@@ -31528,12 +31522,6 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E10 JA10 SW10 ACS10 AMO10 AWK10 BGG10 BQC10 BZY10 CJU10 CTQ10 DDM10 DNI10 DXE10 EHA10 EQW10 FAS10 FKO10 FUK10 GEG10 GOC10 GXY10 HHU10 HRQ10 IBM10 ILI10 IVE10 JFA10 JOW10 JYS10 KIO10 KSK10 LCG10 LMC10 LVY10 MFU10 MPQ10 MZM10 NJI10 NTE10 ODA10 OMW10 OWS10 PGO10 PQK10 QAG10 QKC10 QTY10 RDU10 RNQ10 RXM10 SHI10 SRE10 TBA10 TKW10 TUS10 UEO10 UOK10 UYG10 VIC10 VRY10 WBU10 WLQ10 WVM10 E65546 JA65546 SW65546 ACS65546 AMO65546 AWK65546 BGG65546 BQC65546 BZY65546 CJU65546 CTQ65546 DDM65546 DNI65546 DXE65546 EHA65546 EQW65546 FAS65546 FKO65546 FUK65546 GEG65546 GOC65546 GXY65546 HHU65546 HRQ65546 IBM65546 ILI65546 IVE65546 JFA65546 JOW65546 JYS65546 KIO65546 KSK65546 LCG65546 LMC65546 LVY65546 MFU65546 MPQ65546 MZM65546 NJI65546 NTE65546 ODA65546 OMW65546 OWS65546 PGO65546 PQK65546 QAG65546 QKC65546 QTY65546 RDU65546 RNQ65546 RXM65546 SHI65546 SRE65546 TBA65546 TKW65546 TUS65546 UEO65546 UOK65546 UYG65546 VIC65546 VRY65546 WBU65546 WLQ65546 WVM65546 E131082 JA131082 SW131082 ACS131082 AMO131082 AWK131082 BGG131082 BQC131082 BZY131082 CJU131082 CTQ131082 DDM131082 DNI131082 DXE131082 EHA131082 EQW131082 FAS131082 FKO131082 FUK131082 GEG131082 GOC131082 GXY131082 HHU131082 HRQ131082 IBM131082 ILI131082 IVE131082 JFA131082 JOW131082 JYS131082 KIO131082 KSK131082 LCG131082 LMC131082 LVY131082 MFU131082 MPQ131082 MZM131082 NJI131082 NTE131082 ODA131082 OMW131082 OWS131082 PGO131082 PQK131082 QAG131082 QKC131082 QTY131082 RDU131082 RNQ131082 RXM131082 SHI131082 SRE131082 TBA131082 TKW131082 TUS131082 UEO131082 UOK131082 UYG131082 VIC131082 VRY131082 WBU131082 WLQ131082 WVM131082 E196618 JA196618 SW196618 ACS196618 AMO196618 AWK196618 BGG196618 BQC196618 BZY196618 CJU196618 CTQ196618 DDM196618 DNI196618 DXE196618 EHA196618 EQW196618 FAS196618 FKO196618 FUK196618 GEG196618 GOC196618 GXY196618 HHU196618 HRQ196618 IBM196618 ILI196618 IVE196618 JFA196618 JOW196618 JYS196618 KIO196618 KSK196618 LCG196618 LMC196618 LVY196618 MFU196618 MPQ196618 MZM196618 NJI196618 NTE196618 ODA196618 OMW196618 OWS196618 PGO196618 PQK196618 QAG196618 QKC196618 QTY196618 RDU196618 RNQ196618 RXM196618 SHI196618 SRE196618 TBA196618 TKW196618 TUS196618 UEO196618 UOK196618 UYG196618 VIC196618 VRY196618 WBU196618 WLQ196618 WVM196618 E262154 JA262154 SW262154 ACS262154 AMO262154 AWK262154 BGG262154 BQC262154 BZY262154 CJU262154 CTQ262154 DDM262154 DNI262154 DXE262154 EHA262154 EQW262154 FAS262154 FKO262154 FUK262154 GEG262154 GOC262154 GXY262154 HHU262154 HRQ262154 IBM262154 ILI262154 IVE262154 JFA262154 JOW262154 JYS262154 KIO262154 KSK262154 LCG262154 LMC262154 LVY262154 MFU262154 MPQ262154 MZM262154 NJI262154 NTE262154 ODA262154 OMW262154 OWS262154 PGO262154 PQK262154 QAG262154 QKC262154 QTY262154 RDU262154 RNQ262154 RXM262154 SHI262154 SRE262154 TBA262154 TKW262154 TUS262154 UEO262154 UOK262154 UYG262154 VIC262154 VRY262154 WBU262154 WLQ262154 WVM262154 E327690 JA327690 SW327690 ACS327690 AMO327690 AWK327690 BGG327690 BQC327690 BZY327690 CJU327690 CTQ327690 DDM327690 DNI327690 DXE327690 EHA327690 EQW327690 FAS327690 FKO327690 FUK327690 GEG327690 GOC327690 GXY327690 HHU327690 HRQ327690 IBM327690 ILI327690 IVE327690 JFA327690 JOW327690 JYS327690 KIO327690 KSK327690 LCG327690 LMC327690 LVY327690 MFU327690 MPQ327690 MZM327690 NJI327690 NTE327690 ODA327690 OMW327690 OWS327690 PGO327690 PQK327690 QAG327690 QKC327690 QTY327690 RDU327690 RNQ327690 RXM327690 SHI327690 SRE327690 TBA327690 TKW327690 TUS327690 UEO327690 UOK327690 UYG327690 VIC327690 VRY327690 WBU327690 WLQ327690 WVM327690 E393226 JA393226 SW393226 ACS393226 AMO393226 AWK393226 BGG393226 BQC393226 BZY393226 CJU393226 CTQ393226 DDM393226 DNI393226 DXE393226 EHA393226 EQW393226 FAS393226 FKO393226 FUK393226 GEG393226 GOC393226 GXY393226 HHU393226 HRQ393226 IBM393226 ILI393226 IVE393226 JFA393226 JOW393226 JYS393226 KIO393226 KSK393226 LCG393226 LMC393226 LVY393226 MFU393226 MPQ393226 MZM393226 NJI393226 NTE393226 ODA393226 OMW393226 OWS393226 PGO393226 PQK393226 QAG393226 QKC393226 QTY393226 RDU393226 RNQ393226 RXM393226 SHI393226 SRE393226 TBA393226 TKW393226 TUS393226 UEO393226 UOK393226 UYG393226 VIC393226 VRY393226 WBU393226 WLQ393226 WVM393226 E458762 JA458762 SW458762 ACS458762 AMO458762 AWK458762 BGG458762 BQC458762 BZY458762 CJU458762 CTQ458762 DDM458762 DNI458762 DXE458762 EHA458762 EQW458762 FAS458762 FKO458762 FUK458762 GEG458762 GOC458762 GXY458762 HHU458762 HRQ458762 IBM458762 ILI458762 IVE458762 JFA458762 JOW458762 JYS458762 KIO458762 KSK458762 LCG458762 LMC458762 LVY458762 MFU458762 MPQ458762 MZM458762 NJI458762 NTE458762 ODA458762 OMW458762 OWS458762 PGO458762 PQK458762 QAG458762 QKC458762 QTY458762 RDU458762 RNQ458762 RXM458762 SHI458762 SRE458762 TBA458762 TKW458762 TUS458762 UEO458762 UOK458762 UYG458762 VIC458762 VRY458762 WBU458762 WLQ458762 WVM458762 E524298 JA524298 SW524298 ACS524298 AMO524298 AWK524298 BGG524298 BQC524298 BZY524298 CJU524298 CTQ524298 DDM524298 DNI524298 DXE524298 EHA524298 EQW524298 FAS524298 FKO524298 FUK524298 GEG524298 GOC524298 GXY524298 HHU524298 HRQ524298 IBM524298 ILI524298 IVE524298 JFA524298 JOW524298 JYS524298 KIO524298 KSK524298 LCG524298 LMC524298 LVY524298 MFU524298 MPQ524298 MZM524298 NJI524298 NTE524298 ODA524298 OMW524298 OWS524298 PGO524298 PQK524298 QAG524298 QKC524298 QTY524298 RDU524298 RNQ524298 RXM524298 SHI524298 SRE524298 TBA524298 TKW524298 TUS524298 UEO524298 UOK524298 UYG524298 VIC524298 VRY524298 WBU524298 WLQ524298 WVM524298 E589834 JA589834 SW589834 ACS589834 AMO589834 AWK589834 BGG589834 BQC589834 BZY589834 CJU589834 CTQ589834 DDM589834 DNI589834 DXE589834 EHA589834 EQW589834 FAS589834 FKO589834 FUK589834 GEG589834 GOC589834 GXY589834 HHU589834 HRQ589834 IBM589834 ILI589834 IVE589834 JFA589834 JOW589834 JYS589834 KIO589834 KSK589834 LCG589834 LMC589834 LVY589834 MFU589834 MPQ589834 MZM589834 NJI589834 NTE589834 ODA589834 OMW589834 OWS589834 PGO589834 PQK589834 QAG589834 QKC589834 QTY589834 RDU589834 RNQ589834 RXM589834 SHI589834 SRE589834 TBA589834 TKW589834 TUS589834 UEO589834 UOK589834 UYG589834 VIC589834 VRY589834 WBU589834 WLQ589834 WVM589834 E655370 JA655370 SW655370 ACS655370 AMO655370 AWK655370 BGG655370 BQC655370 BZY655370 CJU655370 CTQ655370 DDM655370 DNI655370 DXE655370 EHA655370 EQW655370 FAS655370 FKO655370 FUK655370 GEG655370 GOC655370 GXY655370 HHU655370 HRQ655370 IBM655370 ILI655370 IVE655370 JFA655370 JOW655370 JYS655370 KIO655370 KSK655370 LCG655370 LMC655370 LVY655370 MFU655370 MPQ655370 MZM655370 NJI655370 NTE655370 ODA655370 OMW655370 OWS655370 PGO655370 PQK655370 QAG655370 QKC655370 QTY655370 RDU655370 RNQ655370 RXM655370 SHI655370 SRE655370 TBA655370 TKW655370 TUS655370 UEO655370 UOK655370 UYG655370 VIC655370 VRY655370 WBU655370 WLQ655370 WVM655370 E720906 JA720906 SW720906 ACS720906 AMO720906 AWK720906 BGG720906 BQC720906 BZY720906 CJU720906 CTQ720906 DDM720906 DNI720906 DXE720906 EHA720906 EQW720906 FAS720906 FKO720906 FUK720906 GEG720906 GOC720906 GXY720906 HHU720906 HRQ720906 IBM720906 ILI720906 IVE720906 JFA720906 JOW720906 JYS720906 KIO720906 KSK720906 LCG720906 LMC720906 LVY720906 MFU720906 MPQ720906 MZM720906 NJI720906 NTE720906 ODA720906 OMW720906 OWS720906 PGO720906 PQK720906 QAG720906 QKC720906 QTY720906 RDU720906 RNQ720906 RXM720906 SHI720906 SRE720906 TBA720906 TKW720906 TUS720906 UEO720906 UOK720906 UYG720906 VIC720906 VRY720906 WBU720906 WLQ720906 WVM720906 E786442 JA786442 SW786442 ACS786442 AMO786442 AWK786442 BGG786442 BQC786442 BZY786442 CJU786442 CTQ786442 DDM786442 DNI786442 DXE786442 EHA786442 EQW786442 FAS786442 FKO786442 FUK786442 GEG786442 GOC786442 GXY786442 HHU786442 HRQ786442 IBM786442 ILI786442 IVE786442 JFA786442 JOW786442 JYS786442 KIO786442 KSK786442 LCG786442 LMC786442 LVY786442 MFU786442 MPQ786442 MZM786442 NJI786442 NTE786442 ODA786442 OMW786442 OWS786442 PGO786442 PQK786442 QAG786442 QKC786442 QTY786442 RDU786442 RNQ786442 RXM786442 SHI786442 SRE786442 TBA786442 TKW786442 TUS786442 UEO786442 UOK786442 UYG786442 VIC786442 VRY786442 WBU786442 WLQ786442 WVM786442 E851978 JA851978 SW851978 ACS851978 AMO851978 AWK851978 BGG851978 BQC851978 BZY851978 CJU851978 CTQ851978 DDM851978 DNI851978 DXE851978 EHA851978 EQW851978 FAS851978 FKO851978 FUK851978 GEG851978 GOC851978 GXY851978 HHU851978 HRQ851978 IBM851978 ILI851978 IVE851978 JFA851978 JOW851978 JYS851978 KIO851978 KSK851978 LCG851978 LMC851978 LVY851978 MFU851978 MPQ851978 MZM851978 NJI851978 NTE851978 ODA851978 OMW851978 OWS851978 PGO851978 PQK851978 QAG851978 QKC851978 QTY851978 RDU851978 RNQ851978 RXM851978 SHI851978 SRE851978 TBA851978 TKW851978 TUS851978 UEO851978 UOK851978 UYG851978 VIC851978 VRY851978 WBU851978 WLQ851978 WVM851978 E917514 JA917514 SW917514 ACS917514 AMO917514 AWK917514 BGG917514 BQC917514 BZY917514 CJU917514 CTQ917514 DDM917514 DNI917514 DXE917514 EHA917514 EQW917514 FAS917514 FKO917514 FUK917514 GEG917514 GOC917514 GXY917514 HHU917514 HRQ917514 IBM917514 ILI917514 IVE917514 JFA917514 JOW917514 JYS917514 KIO917514 KSK917514 LCG917514 LMC917514 LVY917514 MFU917514 MPQ917514 MZM917514 NJI917514 NTE917514 ODA917514 OMW917514 OWS917514 PGO917514 PQK917514 QAG917514 QKC917514 QTY917514 RDU917514 RNQ917514 RXM917514 SHI917514 SRE917514 TBA917514 TKW917514 TUS917514 UEO917514 UOK917514 UYG917514 VIC917514 VRY917514 WBU917514 WLQ917514 WVM917514 E983050 JA983050 SW983050 ACS983050 AMO983050 AWK983050 BGG983050 BQC983050 BZY983050 CJU983050 CTQ983050 DDM983050 DNI983050 DXE983050 EHA983050 EQW983050 FAS983050 FKO983050 FUK983050 GEG983050 GOC983050 GXY983050 HHU983050 HRQ983050 IBM983050 ILI983050 IVE983050 JFA983050 JOW983050 JYS983050 KIO983050 KSK983050 LCG983050 LMC983050 LVY983050 MFU983050 MPQ983050 MZM983050 NJI983050 NTE983050 ODA983050 OMW983050 OWS983050 PGO983050 PQK983050 QAG983050 QKC983050 QTY983050 RDU983050 RNQ983050 RXM983050 SHI983050 SRE983050 TBA983050 TKW983050 TUS983050 UEO983050 UOK983050 UYG983050 VIC983050 VRY983050 WBU983050 WLQ983050 WVM983050"/>
@@ -33549,7 +33537,9 @@
   </sheetPr>
   <dimension ref="A1:AR518"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA92" sqref="AA92"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" customHeight="1"/>
   <cols>
@@ -33581,7 +33571,7 @@
       <c r="L1" s="18"/>
       <c r="M1" s="19"/>
       <c r="O1" s="21" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="P1" s="22"/>
       <c r="Q1" s="22"/>
@@ -33898,19 +33888,19 @@
       <c r="E10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="973" t="str">
+      <c r="F10" s="949" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="973"/>
+      <c r="G10" s="949"/>
       <c r="J10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="965" t="str">
+      <c r="K10" s="942" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="965"/>
+      <c r="L10" s="942"/>
       <c r="M10" s="68"/>
       <c r="O10" s="29"/>
       <c r="Q10" s="34" t="s">
@@ -33975,19 +33965,19 @@
       <c r="E11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="974" t="str">
+      <c r="F11" s="950" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="974"/>
+      <c r="G11" s="950"/>
       <c r="J11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="965" t="str">
+      <c r="K11" s="942" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="965"/>
+      <c r="L11" s="942"/>
       <c r="M11" s="68"/>
       <c r="O11" s="29"/>
       <c r="Q11" s="34" t="s">
@@ -34052,19 +34042,19 @@
       <c r="E12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="974" t="str">
+      <c r="F12" s="950" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="974"/>
+      <c r="G12" s="950"/>
       <c r="J12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="975" t="str">
+      <c r="K12" s="948" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="975"/>
+      <c r="L12" s="948"/>
       <c r="M12" s="68"/>
       <c r="O12" s="29"/>
       <c r="Q12" s="34" t="s">
@@ -34129,19 +34119,19 @@
       <c r="E13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="974" t="str">
+      <c r="F13" s="950" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="974"/>
+      <c r="G13" s="950"/>
       <c r="J13" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="965" t="str">
+      <c r="K13" s="942" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="965"/>
+      <c r="L13" s="942"/>
       <c r="M13" s="68"/>
       <c r="O13" s="29"/>
       <c r="Q13" s="34" t="s">
@@ -34315,19 +34305,19 @@
       <c r="E16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="965" t="str">
+      <c r="F16" s="942" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="965"/>
+      <c r="G16" s="942"/>
       <c r="J16" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="975" t="str">
+      <c r="K16" s="948" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="975"/>
+      <c r="L16" s="948"/>
       <c r="M16" s="68"/>
       <c r="O16" s="29"/>
       <c r="P16" s="74" t="s">
@@ -34379,19 +34369,19 @@
       <c r="E17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="965" t="str">
+      <c r="F17" s="942" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="965"/>
+      <c r="G17" s="942"/>
       <c r="J17" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="976" t="str">
+      <c r="K17" s="951" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="976"/>
+      <c r="L17" s="951"/>
       <c r="M17" s="68"/>
       <c r="O17" s="29"/>
       <c r="Q17" s="34" t="s">
@@ -34456,19 +34446,19 @@
       <c r="E18" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="965" t="str">
+      <c r="F18" s="942" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="965"/>
+      <c r="G18" s="942"/>
       <c r="J18" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="965" t="str">
+      <c r="K18" s="942" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="965"/>
+      <c r="L18" s="942"/>
       <c r="M18" s="68"/>
       <c r="O18" s="29"/>
       <c r="Q18" s="34" t="s">
@@ -34634,19 +34624,19 @@
       <c r="E21" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="965" t="str">
+      <c r="F21" s="942" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="965"/>
+      <c r="G21" s="942"/>
       <c r="J21" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="965" t="str">
+      <c r="K21" s="942" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L21" s="965"/>
+      <c r="L21" s="942"/>
       <c r="M21" s="68"/>
       <c r="O21" s="29"/>
       <c r="P21" s="74" t="s">
@@ -34706,17 +34696,17 @@
       <c r="E22" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="975" t="str">
+      <c r="F22" s="948" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="975"/>
+      <c r="G22" s="948"/>
       <c r="J22" s="34"/>
-      <c r="K22" s="965" t="str">
+      <c r="K22" s="942" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="965"/>
+      <c r="L22" s="942"/>
       <c r="M22" s="68"/>
       <c r="O22" s="29"/>
       <c r="Q22" s="34" t="s">
@@ -34781,11 +34771,11 @@
       <c r="J23" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="965" t="str">
+      <c r="K23" s="942" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="965"/>
+      <c r="L23" s="942"/>
       <c r="M23" s="68"/>
       <c r="O23" s="29"/>
       <c r="Q23" s="34" t="s">
@@ -34844,16 +34834,16 @@
       <c r="E24" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="965" t="str">
+      <c r="F24" s="942" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="965"/>
-      <c r="K24" s="965" t="str">
+      <c r="G24" s="942"/>
+      <c r="K24" s="942" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="965"/>
+      <c r="L24" s="942"/>
       <c r="M24" s="68"/>
       <c r="O24" s="29"/>
       <c r="P24" s="74" t="s">
@@ -34913,17 +34903,17 @@
       <c r="E25" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="965" t="str">
+      <c r="F25" s="942" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="965"/>
+      <c r="G25" s="942"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="965" t="str">
+      <c r="K25" s="942" t="str">
         <f>IF(V26="","",V26)</f>
         <v/>
       </c>
-      <c r="L25" s="965"/>
+      <c r="L25" s="942"/>
       <c r="M25" s="68"/>
       <c r="O25" s="29"/>
       <c r="Q25" s="34" t="s">
@@ -34985,11 +34975,11 @@
       <c r="E26" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="965" t="str">
+      <c r="F26" s="942" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="965"/>
+      <c r="G26" s="942"/>
       <c r="I26" s="74" t="s">
         <v>54</v>
       </c>
@@ -35057,11 +35047,11 @@
       <c r="J27" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="K27" s="965" t="str">
+      <c r="K27" s="942" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="965"/>
+      <c r="L27" s="942"/>
       <c r="M27" s="68"/>
       <c r="O27" s="29"/>
       <c r="Q27" s="34" t="s">
@@ -35112,20 +35102,20 @@
       <c r="E28" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="965" t="str">
+      <c r="F28" s="942" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="965"/>
+      <c r="G28" s="942"/>
       <c r="I28" s="4"/>
       <c r="J28" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="K28" s="965" t="str">
+      <c r="K28" s="942" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="965"/>
+      <c r="L28" s="942"/>
       <c r="M28" s="68"/>
       <c r="O28" s="29"/>
       <c r="P28" s="74" t="s">
@@ -35185,22 +35175,22 @@
       <c r="E29" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="965" t="str">
+      <c r="F29" s="942" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="965"/>
+      <c r="G29" s="942"/>
       <c r="I29" s="74" t="s">
         <v>58</v>
       </c>
       <c r="J29" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="K29" s="965" t="str">
+      <c r="K29" s="942" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="965"/>
+      <c r="L29" s="942"/>
       <c r="M29" s="68"/>
       <c r="O29" s="29"/>
       <c r="Q29" s="34" t="s">
@@ -35265,19 +35255,19 @@
       <c r="E30" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="965" t="str">
+      <c r="F30" s="942" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="965"/>
+      <c r="G30" s="942"/>
       <c r="J30" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="965" t="str">
+      <c r="K30" s="942" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="965"/>
+      <c r="L30" s="942"/>
       <c r="M30" s="68"/>
       <c r="O30" s="29"/>
       <c r="Q30" s="34" t="s">
@@ -35451,7 +35441,7 @@
         <v>1</v>
       </c>
       <c r="P33" s="20" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="U33" s="34" t="s">
         <v>60</v>
@@ -35518,7 +35508,7 @@
         <v>1</v>
       </c>
       <c r="P34" s="67" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
@@ -35568,25 +35558,25 @@
       <c r="C35" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="972" t="s">
+      <c r="D35" s="952" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="972"/>
-      <c r="F35" s="972"/>
-      <c r="G35" s="972" t="s">
+      <c r="E35" s="952"/>
+      <c r="F35" s="952"/>
+      <c r="G35" s="952" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="972"/>
-      <c r="I35" s="972"/>
-      <c r="J35" s="972" t="s">
+      <c r="H35" s="952"/>
+      <c r="I35" s="952"/>
+      <c r="J35" s="952" t="s">
         <v>65</v>
       </c>
-      <c r="K35" s="972"/>
-      <c r="L35" s="972"/>
+      <c r="K35" s="952"/>
+      <c r="L35" s="952"/>
       <c r="M35" s="68"/>
       <c r="O35" s="869"/>
       <c r="P35" s="870" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="Q35" s="40"/>
       <c r="R35" s="40"/>
@@ -35644,11 +35634,11 @@
       <c r="D36" s="530"/>
       <c r="E36" s="531"/>
       <c r="F36" s="536"/>
-      <c r="G36" s="968" t="s">
+      <c r="G36" s="953" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="968"/>
-      <c r="I36" s="968"/>
+      <c r="H36" s="953"/>
+      <c r="I36" s="953"/>
       <c r="J36" s="530"/>
       <c r="K36" s="531"/>
       <c r="L36" s="536"/>
@@ -36221,10 +36211,10 @@
       <c r="C44" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="L44" s="969" t="s">
+      <c r="L44" s="954" t="s">
         <v>88</v>
       </c>
-      <c r="M44" s="969"/>
+      <c r="M44" s="954"/>
       <c r="O44" s="871"/>
       <c r="P44" s="872" t="str">
         <f>IF(OR(O35="",O35=1),"Unit installed as shown on shielding plan","")</f>
@@ -36279,7 +36269,7 @@
       </c>
       <c r="O45" s="29"/>
       <c r="T45" s="255" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="Y45" s="31"/>
       <c r="AA45" s="42" t="s">
@@ -36942,7 +36932,7 @@
       </c>
       <c r="O62" s="268"/>
       <c r="P62" s="20" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="Y62" s="31"/>
       <c r="AA62" s="34" t="s">
@@ -38038,7 +38028,7 @@
       </c>
       <c r="Y86" s="31"/>
       <c r="AA86" s="34" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="AB86" s="64"/>
       <c r="AD86" s="115" t="str">
@@ -38089,7 +38079,7 @@
       </c>
       <c r="Y87" s="31"/>
       <c r="AA87" s="34" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AB87" s="64"/>
       <c r="AD87" s="115" t="str">
@@ -38139,8 +38129,9 @@
         <v>126</v>
       </c>
       <c r="Y88" s="31"/>
-      <c r="AA88" s="34" t="s">
-        <v>511</v>
+      <c r="AA88" s="34" t="str">
+        <f>Q392&amp;" mGy/mAs:"</f>
+        <v>/ mGy/mAs:</v>
       </c>
       <c r="AB88" s="64"/>
       <c r="AD88" s="116" t="str">
@@ -38188,8 +38179,9 @@
         <v>129</v>
       </c>
       <c r="Y89" s="31"/>
-      <c r="AA89" s="34" t="s">
-        <v>512</v>
+      <c r="AA89" s="34" t="str">
+        <f>Q392&amp;" mGy/s:"</f>
+        <v>/ mGy/s:</v>
       </c>
       <c r="AB89" s="64"/>
       <c r="AD89" s="115" t="str">
@@ -38239,8 +38231,9 @@
         <v>131</v>
       </c>
       <c r="Y90" s="31"/>
-      <c r="AA90" s="34" t="s">
-        <v>513</v>
+      <c r="AA90" s="34" t="str">
+        <f>V392&amp;" mGy/mAs:"</f>
+        <v>/ mGy/mAs:</v>
       </c>
       <c r="AB90" s="64"/>
       <c r="AD90" s="116" t="str">
@@ -38290,8 +38283,9 @@
         <v>134</v>
       </c>
       <c r="Y91" s="31"/>
-      <c r="AA91" s="34" t="s">
-        <v>514</v>
+      <c r="AA91" s="34" t="str">
+        <f>V392&amp;" mGy/s:"</f>
+        <v>/ mGy/s:</v>
       </c>
       <c r="AB91" s="64"/>
       <c r="AD91" s="115" t="str">
@@ -39291,7 +39285,7 @@
       </c>
       <c r="O111" s="473"/>
       <c r="T111" s="74" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="Y111" s="31"/>
       <c r="AA111" s="34" t="s">
@@ -39340,7 +39334,7 @@
       </c>
       <c r="O112" s="95"/>
       <c r="P112" s="67" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="Y112" s="31"/>
       <c r="AA112" s="34" t="s">
@@ -39389,7 +39383,7 @@
       </c>
       <c r="O113" s="95"/>
       <c r="P113" s="67" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="Y113" s="31"/>
       <c r="AA113" s="34" t="s">
@@ -39438,7 +39432,7 @@
       </c>
       <c r="O114" s="95"/>
       <c r="P114" s="67" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="Y114" s="31"/>
       <c r="AA114" s="34" t="s">
@@ -39487,7 +39481,7 @@
       </c>
       <c r="O115" s="95"/>
       <c r="P115" s="67" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="Y115" s="31"/>
       <c r="AA115" s="34" t="s">
@@ -39536,7 +39530,7 @@
       </c>
       <c r="O116" s="95"/>
       <c r="P116" s="67" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Y116" s="31"/>
       <c r="AA116" s="34" t="s">
@@ -39801,7 +39795,7 @@
         <v>65</v>
       </c>
       <c r="W121" s="956"/>
-      <c r="X121" s="970"/>
+      <c r="X121" s="961"/>
       <c r="Y121" s="31"/>
       <c r="AA121" s="34" t="s">
         <v>196</v>
@@ -39858,7 +39852,7 @@
       <c r="U122" s="960"/>
       <c r="V122" s="958"/>
       <c r="W122" s="959"/>
-      <c r="X122" s="971"/>
+      <c r="X122" s="962"/>
       <c r="Y122" s="31"/>
       <c r="AA122" s="34" t="s">
         <v>197</v>
@@ -39936,7 +39930,7 @@
       </c>
       <c r="Y123" s="31"/>
       <c r="AA123" s="74" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AH123"/>
       <c r="AI123"/>
@@ -40015,7 +40009,7 @@
       </c>
       <c r="Y124" s="31"/>
       <c r="AA124" s="34" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="AB124" s="64"/>
       <c r="AD124" s="65" t="str">
@@ -40099,7 +40093,7 @@
       </c>
       <c r="Y125" s="31"/>
       <c r="AA125" s="34" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="AB125" s="64"/>
       <c r="AD125" s="65" t="str">
@@ -40175,7 +40169,7 @@
       </c>
       <c r="Y126" s="31"/>
       <c r="AA126" s="34" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="AB126" s="64"/>
       <c r="AD126" s="65" t="str">
@@ -40205,7 +40199,7 @@
       <c r="F127" s="67"/>
       <c r="G127" s="67"/>
       <c r="H127" s="474" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="I127" s="67"/>
       <c r="J127" s="67"/>
@@ -40253,7 +40247,7 @@
       </c>
       <c r="Y127" s="31"/>
       <c r="AA127" s="34" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="AB127" s="64"/>
       <c r="AD127" s="65" t="str">
@@ -40280,7 +40274,7 @@
       <c r="C128" s="67"/>
       <c r="D128" s="67"/>
       <c r="E128" s="67" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F128" s="67"/>
       <c r="G128" s="67"/>
@@ -40299,7 +40293,7 @@
       <c r="O128" s="29"/>
       <c r="Y128" s="31"/>
       <c r="AA128" s="34" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="AB128" s="64"/>
       <c r="AD128" s="65" t="str">
@@ -40326,7 +40320,7 @@
       <c r="C129" s="67"/>
       <c r="D129" s="67"/>
       <c r="E129" s="67" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F129" s="67"/>
       <c r="G129" s="67"/>
@@ -40355,14 +40349,14 @@
       </c>
       <c r="T129" s="956"/>
       <c r="U129" s="957"/>
-      <c r="V129" s="961" t="s">
+      <c r="V129" s="963" t="s">
         <v>65</v>
       </c>
-      <c r="W129" s="962"/>
-      <c r="X129" s="963"/>
+      <c r="W129" s="964"/>
+      <c r="X129" s="965"/>
       <c r="Y129" s="31"/>
       <c r="AA129" s="34" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="AB129" s="64"/>
       <c r="AD129" s="65" t="str">
@@ -40389,7 +40383,7 @@
       <c r="C130" s="67"/>
       <c r="D130" s="67"/>
       <c r="E130" s="67" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F130" s="67"/>
       <c r="G130" s="67"/>
@@ -40414,12 +40408,12 @@
       <c r="S130" s="958"/>
       <c r="T130" s="959"/>
       <c r="U130" s="960"/>
-      <c r="V130" s="964"/>
-      <c r="W130" s="965"/>
-      <c r="X130" s="966"/>
+      <c r="V130" s="966"/>
+      <c r="W130" s="942"/>
+      <c r="X130" s="967"/>
       <c r="Y130" s="31"/>
       <c r="AA130" s="34" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="AB130" s="64"/>
       <c r="AD130" s="65" t="str">
@@ -40446,7 +40440,7 @@
       <c r="C131" s="67"/>
       <c r="D131" s="67"/>
       <c r="E131" s="67" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F131" s="67"/>
       <c r="G131" s="67"/>
@@ -40494,7 +40488,7 @@
       </c>
       <c r="Y131" s="31"/>
       <c r="AA131" s="34" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="AB131" s="64"/>
       <c r="AD131" s="65" t="str">
@@ -40521,7 +40515,7 @@
       <c r="C132" s="67"/>
       <c r="D132" s="67"/>
       <c r="E132" s="67" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F132" s="67"/>
       <c r="G132" s="67"/>
@@ -40551,7 +40545,7 @@
       <c r="X132" s="128"/>
       <c r="Y132" s="31"/>
       <c r="AA132" s="34" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="AB132" s="64"/>
       <c r="AD132" s="65" t="str">
@@ -40600,7 +40594,7 @@
       <c r="X133" s="131"/>
       <c r="Y133" s="31"/>
       <c r="AA133" s="20" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AB133" s="64"/>
       <c r="AD133" s="65" t="str">
@@ -40619,7 +40613,7 @@
       <c r="F134" s="67"/>
       <c r="G134" s="67"/>
       <c r="H134" s="474" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="I134" s="67"/>
       <c r="J134" s="67"/>
@@ -40640,7 +40634,7 @@
       <c r="X134" s="131"/>
       <c r="Y134" s="31"/>
       <c r="AA134" s="20" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="AB134" s="64"/>
       <c r="AD134" s="65" t="str">
@@ -40656,7 +40650,7 @@
       <c r="C135" s="67"/>
       <c r="D135" s="67"/>
       <c r="E135" s="67" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F135" s="67"/>
       <c r="G135" s="67"/>
@@ -40686,7 +40680,7 @@
       <c r="X135" s="134"/>
       <c r="Y135" s="41"/>
       <c r="AA135" s="20" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="AB135" s="64"/>
       <c r="AD135" s="65" t="str">
@@ -40702,7 +40696,7 @@
       <c r="C136" s="67"/>
       <c r="D136" s="67"/>
       <c r="E136" s="20" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="L136" s="146" t="str">
         <f>IF(O33=2,"NA",IF(V304="","TBD",IF(V304="Pass","YES","")))</f>
@@ -40723,7 +40717,7 @@
       <c r="W136" s="4"/>
       <c r="X136" s="4"/>
       <c r="AA136" s="20" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="AB136" s="64"/>
       <c r="AD136" s="65" t="str">
@@ -40739,7 +40733,7 @@
       <c r="C137" s="67"/>
       <c r="D137" s="67"/>
       <c r="E137" s="67" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F137" s="67"/>
       <c r="G137" s="67"/>
@@ -40759,7 +40753,7 @@
         <v>71</v>
       </c>
       <c r="AA137" s="20" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="AB137" s="64"/>
       <c r="AD137" s="65" t="str">
@@ -40775,7 +40769,7 @@
       <c r="C138" s="67"/>
       <c r="D138" s="67"/>
       <c r="E138" s="67" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F138" s="67"/>
       <c r="G138" s="67"/>
@@ -40800,7 +40794,7 @@
         <v>205</v>
       </c>
       <c r="S138" s="22" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="T138" s="22"/>
       <c r="U138" s="22"/>
@@ -40809,7 +40803,7 @@
       <c r="X138" s="22"/>
       <c r="Y138" s="23"/>
       <c r="AA138" s="20" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="AB138" s="64"/>
       <c r="AD138" s="65" t="str">
@@ -40825,7 +40819,7 @@
       <c r="C139" s="67"/>
       <c r="D139" s="67"/>
       <c r="E139" s="67" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F139" s="67"/>
       <c r="G139" s="67"/>
@@ -40851,7 +40845,7 @@
       <c r="T139" s="4"/>
       <c r="Y139" s="31"/>
       <c r="AA139" s="34" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="140" spans="1:44" ht="14.1" customHeight="1">
@@ -40862,7 +40856,7 @@
       <c r="C140" s="67"/>
       <c r="D140" s="67"/>
       <c r="E140" s="67" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F140" s="67"/>
       <c r="G140" s="67"/>
@@ -40906,7 +40900,7 @@
       <c r="C141" s="67"/>
       <c r="D141" s="67"/>
       <c r="E141" s="67" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F141" s="67"/>
       <c r="G141" s="67"/>
@@ -41000,11 +40994,11 @@
       </c>
       <c r="O143" s="29"/>
       <c r="Q143" s="26" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="Y143" s="31"/>
       <c r="AA143" s="34" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="144" spans="1:44" ht="14.1" customHeight="1">
@@ -41245,7 +41239,7 @@
       <c r="B151" s="66"/>
       <c r="C151" s="67"/>
       <c r="E151" s="26" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="G151" s="67"/>
       <c r="H151" s="67"/>
@@ -41664,7 +41658,7 @@
       <c r="M162" s="68"/>
       <c r="O162" s="29"/>
       <c r="P162" s="34" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="Q162" s="143"/>
       <c r="R162" s="143"/>
@@ -41812,7 +41806,7 @@
       </c>
       <c r="B167" s="66"/>
       <c r="C167" s="34" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D167" s="373" t="str">
         <f t="shared" si="23"/>
@@ -42087,12 +42081,12 @@
       <c r="L173" s="67"/>
       <c r="M173" s="68"/>
       <c r="O173" s="29"/>
-      <c r="P173" s="967" t="s">
+      <c r="P173" s="946" t="s">
         <v>225</v>
       </c>
-      <c r="Q173" s="967"/>
-      <c r="R173" s="967"/>
-      <c r="S173" s="967"/>
+      <c r="Q173" s="946"/>
+      <c r="R173" s="946"/>
+      <c r="S173" s="946"/>
       <c r="U173" s="534" t="s">
         <v>226</v>
       </c>
@@ -42262,12 +42256,12 @@
       </c>
       <c r="B179" s="66"/>
       <c r="C179" s="67"/>
-      <c r="D179" s="967" t="s">
+      <c r="D179" s="946" t="s">
         <v>225</v>
       </c>
-      <c r="E179" s="967"/>
-      <c r="F179" s="967"/>
-      <c r="G179" s="967"/>
+      <c r="E179" s="946"/>
+      <c r="F179" s="946"/>
+      <c r="G179" s="946"/>
       <c r="H179" s="67"/>
       <c r="I179" s="534" t="s">
         <v>226</v>
@@ -42405,17 +42399,17 @@
       <c r="M182" s="68"/>
       <c r="O182" s="29"/>
       <c r="P182" s="67"/>
-      <c r="Q182" s="945" t="s">
+      <c r="Q182" s="939" t="s">
         <v>237</v>
       </c>
-      <c r="R182" s="945"/>
-      <c r="S182" s="945"/>
+      <c r="R182" s="939"/>
+      <c r="S182" s="939"/>
       <c r="T182" s="4"/>
-      <c r="U182" s="945" t="s">
+      <c r="U182" s="939" t="s">
         <v>237</v>
       </c>
-      <c r="V182" s="945"/>
-      <c r="W182" s="945"/>
+      <c r="V182" s="939"/>
+      <c r="W182" s="939"/>
       <c r="X182" s="4"/>
       <c r="Y182" s="31"/>
     </row>
@@ -42544,22 +42538,22 @@
       </c>
       <c r="B186" s="66"/>
       <c r="C186" s="106"/>
-      <c r="D186" s="979" t="s">
+      <c r="D186" s="943" t="s">
         <v>237</v>
       </c>
-      <c r="E186" s="980"/>
-      <c r="F186" s="981"/>
+      <c r="E186" s="944"/>
+      <c r="F186" s="945"/>
       <c r="G186" s="160"/>
-      <c r="H186" s="979" t="s">
+      <c r="H186" s="943" t="s">
         <v>237</v>
       </c>
-      <c r="I186" s="980"/>
-      <c r="J186" s="981"/>
-      <c r="K186" s="979" t="s">
+      <c r="I186" s="944"/>
+      <c r="J186" s="945"/>
+      <c r="K186" s="943" t="s">
         <v>237</v>
       </c>
-      <c r="L186" s="980"/>
-      <c r="M186" s="982"/>
+      <c r="L186" s="944"/>
+      <c r="M186" s="947"/>
       <c r="O186" s="159"/>
       <c r="P186" s="160" t="s">
         <v>243</v>
@@ -42827,7 +42821,7 @@
         <v>201</v>
       </c>
       <c r="Q190" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="R190" s="4"/>
       <c r="X190" s="4"/>
@@ -42883,7 +42877,7 @@
       <c r="O191" s="29"/>
       <c r="P191" s="26"/>
       <c r="Q191" s="26" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="R191" s="4"/>
       <c r="S191" s="4"/>
@@ -43024,7 +43018,7 @@
         <v/>
       </c>
       <c r="I194" s="67" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="J194" s="67"/>
       <c r="K194" s="67"/>
@@ -43032,17 +43026,17 @@
       <c r="M194" s="68"/>
       <c r="O194" s="159"/>
       <c r="P194" s="67"/>
-      <c r="Q194" s="945" t="s">
+      <c r="Q194" s="939" t="s">
         <v>237</v>
       </c>
-      <c r="R194" s="945"/>
-      <c r="S194" s="945"/>
+      <c r="R194" s="939"/>
+      <c r="S194" s="939"/>
       <c r="T194" s="4"/>
-      <c r="U194" s="945" t="s">
+      <c r="U194" s="939" t="s">
         <v>237</v>
       </c>
-      <c r="V194" s="945"/>
-      <c r="W194" s="945"/>
+      <c r="V194" s="939"/>
+      <c r="W194" s="939"/>
       <c r="X194" s="4"/>
       <c r="Y194" s="31"/>
     </row>
@@ -43072,7 +43066,7 @@
         <v/>
       </c>
       <c r="I195" s="67" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="J195" s="67"/>
       <c r="K195" s="67"/>
@@ -43128,7 +43122,7 @@
         <v/>
       </c>
       <c r="I196" s="67" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="J196" s="67"/>
       <c r="K196" s="67"/>
@@ -43322,7 +43316,7 @@
       <c r="E201" s="190"/>
       <c r="F201" s="67"/>
       <c r="H201" s="26" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="I201" s="67"/>
       <c r="J201" s="67"/>
@@ -43353,7 +43347,7 @@
       <c r="F202" s="365"/>
       <c r="G202" s="360"/>
       <c r="H202" s="863" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="I202" s="365"/>
       <c r="J202" s="365"/>
@@ -43365,7 +43359,7 @@
         <v>201</v>
       </c>
       <c r="Q202" s="26" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="R202" s="4"/>
       <c r="X202" s="67"/>
@@ -43392,7 +43386,7 @@
       <c r="O203" s="159"/>
       <c r="P203" s="26"/>
       <c r="Q203" s="26" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="R203" s="4"/>
       <c r="Y203" s="31"/>
@@ -45233,11 +45227,11 @@
         <v>/</v>
       </c>
       <c r="T245" s="4"/>
-      <c r="U245" s="945" t="s">
+      <c r="U245" s="939" t="s">
         <v>293</v>
       </c>
-      <c r="V245" s="945"/>
-      <c r="W245" s="945"/>
+      <c r="V245" s="939"/>
+      <c r="W245" s="939"/>
       <c r="X245" s="4"/>
       <c r="Y245" s="231"/>
       <c r="Z245" s="535"/>
@@ -45450,11 +45444,11 @@
         <v>/</v>
       </c>
       <c r="G250" s="67"/>
-      <c r="H250" s="979" t="s">
+      <c r="H250" s="943" t="s">
         <v>293</v>
       </c>
-      <c r="I250" s="980"/>
-      <c r="J250" s="981"/>
+      <c r="I250" s="944"/>
+      <c r="J250" s="945"/>
       <c r="K250" s="67"/>
       <c r="L250" s="67"/>
       <c r="M250" s="68"/>
@@ -45881,7 +45875,7 @@
       <c r="L258" s="67"/>
       <c r="M258" s="68"/>
       <c r="O258" s="135" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="P258" s="22"/>
       <c r="Q258" s="22"/>
@@ -45926,7 +45920,7 @@
         <v>295</v>
       </c>
       <c r="Q259" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="R259" s="67"/>
       <c r="S259" s="160" t="s">
@@ -46456,7 +46450,7 @@
         <v>201</v>
       </c>
       <c r="Q269" s="190" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="R269" s="67"/>
       <c r="S269" s="67"/>
@@ -46617,7 +46611,7 @@
       <c r="L272" s="67"/>
       <c r="M272" s="68"/>
       <c r="O272" s="137" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="P272" s="67"/>
       <c r="Q272" s="67"/>
@@ -46677,7 +46671,7 @@
       <c r="M273" s="68"/>
       <c r="O273" s="29"/>
       <c r="P273" s="658" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="Q273" s="659" t="s">
         <v>266</v>
@@ -46689,10 +46683,10 @@
         <v>273</v>
       </c>
       <c r="T273" s="616" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="U273" s="659" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="V273" s="660" t="s">
         <v>288</v>
@@ -46722,7 +46716,7 @@
         <v>201</v>
       </c>
       <c r="D274" s="190" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E274" s="67"/>
       <c r="F274" s="67"/>
@@ -46912,7 +46906,7 @@
         <v>201</v>
       </c>
       <c r="Q277" s="190" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="R277" s="67"/>
       <c r="S277" s="67"/>
@@ -46941,7 +46935,7 @@
       </c>
       <c r="B278" s="66"/>
       <c r="C278" s="627" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D278" s="628" t="s">
         <v>266</v>
@@ -46953,7 +46947,7 @@
         <v>273</v>
       </c>
       <c r="G278" s="628" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H278" s="629" t="s">
         <v>288</v>
@@ -46963,7 +46957,7 @@
       <c r="K278" s="661"/>
       <c r="L278" s="67"/>
       <c r="M278" s="68" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="O278" s="447"/>
       <c r="P278" s="67"/>
@@ -47025,10 +47019,10 @@
         <v>70</v>
       </c>
       <c r="M279" s="256" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="O279" s="701" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="P279" s="160"/>
       <c r="Q279" s="661"/>
@@ -47082,7 +47076,7 @@
       </c>
       <c r="I280" s="67"/>
       <c r="J280" s="160" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="K280" s="658">
         <f>IF(Q304="","",Q304)</f>
@@ -47098,7 +47092,7 @@
       </c>
       <c r="O280" s="447"/>
       <c r="P280" s="144" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="Q280" s="67"/>
       <c r="R280" s="67"/>
@@ -47155,7 +47149,7 @@
       </c>
       <c r="I281" s="67"/>
       <c r="J281" s="160" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="K281" s="379">
         <f>IF(Q305="","",Q305)</f>
@@ -47217,7 +47211,7 @@
         <v>201</v>
       </c>
       <c r="D282" s="190" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E282" s="67"/>
       <c r="F282" s="67"/>
@@ -47227,7 +47221,7 @@
       <c r="J282" s="67"/>
       <c r="K282" s="67"/>
       <c r="L282" s="160" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="M282" s="709" t="str">
         <f>IF(T306="","",T306)</f>
@@ -47694,17 +47688,17 @@
       <c r="H291" s="263" t="s">
         <v>328</v>
       </c>
-      <c r="I291" s="977" t="str">
+      <c r="I291" s="940" t="str">
         <f>IF(S367="","",S367)</f>
         <v/>
       </c>
-      <c r="J291" s="977"/>
+      <c r="J291" s="940"/>
       <c r="K291" s="58"/>
       <c r="L291" s="58"/>
       <c r="M291" s="60"/>
       <c r="O291" s="447"/>
       <c r="P291" s="144" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="Q291" s="67"/>
       <c r="R291" s="67"/>
@@ -47745,11 +47739,11 @@
       <c r="H292" s="160" t="s">
         <v>330</v>
       </c>
-      <c r="I292" s="978" t="str">
+      <c r="I292" s="941" t="str">
         <f>IF(S368="","",S368)</f>
         <v/>
       </c>
-      <c r="J292" s="978"/>
+      <c r="J292" s="941"/>
       <c r="K292" s="4"/>
       <c r="M292" s="68"/>
       <c r="O292" s="447"/>
@@ -47849,11 +47843,11 @@
       </c>
       <c r="B294" s="66"/>
       <c r="C294" s="160"/>
-      <c r="F294" s="945" t="s">
+      <c r="F294" s="939" t="s">
         <v>331</v>
       </c>
-      <c r="G294" s="945"/>
-      <c r="H294" s="945"/>
+      <c r="G294" s="939"/>
+      <c r="H294" s="939"/>
       <c r="I294" s="535"/>
       <c r="J294" s="535"/>
       <c r="K294" s="106"/>
@@ -47966,7 +47960,7 @@
         <v>8</v>
       </c>
       <c r="B296" s="66"/>
-      <c r="C296" s="939" t="str">
+      <c r="C296" s="971" t="str">
         <f>P371</f>
         <v>/</v>
       </c>
@@ -48043,7 +48037,7 @@
         <v>9</v>
       </c>
       <c r="B297" s="66"/>
-      <c r="C297" s="940"/>
+      <c r="C297" s="972"/>
       <c r="D297" s="289">
         <f t="shared" si="66"/>
         <v>25</v>
@@ -48128,7 +48122,7 @@
         <v>10</v>
       </c>
       <c r="B298" s="66"/>
-      <c r="C298" s="940"/>
+      <c r="C298" s="972"/>
       <c r="D298" s="289">
         <f t="shared" si="66"/>
         <v>26</v>
@@ -48208,7 +48202,7 @@
         <v>11</v>
       </c>
       <c r="B299" s="66"/>
-      <c r="C299" s="940"/>
+      <c r="C299" s="972"/>
       <c r="D299" s="289">
         <f t="shared" si="66"/>
         <v>28</v>
@@ -48280,7 +48274,7 @@
         <v>12</v>
       </c>
       <c r="B300" s="66"/>
-      <c r="C300" s="940"/>
+      <c r="C300" s="972"/>
       <c r="D300" s="289">
         <f t="shared" si="66"/>
         <v>30</v>
@@ -48350,7 +48344,7 @@
         <v>13</v>
       </c>
       <c r="B301" s="66"/>
-      <c r="C301" s="940"/>
+      <c r="C301" s="972"/>
       <c r="D301" s="289">
         <f t="shared" si="66"/>
         <v>32</v>
@@ -48413,7 +48407,7 @@
         <v>14</v>
       </c>
       <c r="B302" s="66"/>
-      <c r="C302" s="941"/>
+      <c r="C302" s="973"/>
       <c r="D302" s="419">
         <f t="shared" ref="D302" si="69">IF(Q377="","",Q377)</f>
         <v>34</v>
@@ -48459,7 +48453,7 @@
         <v>272</v>
       </c>
       <c r="T302" s="661" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="U302" s="67"/>
       <c r="V302" s="67"/>
@@ -48484,7 +48478,7 @@
         <v>15</v>
       </c>
       <c r="B303" s="66"/>
-      <c r="C303" s="942" t="str">
+      <c r="C303" s="974" t="str">
         <f>P378</f>
         <v>/</v>
       </c>
@@ -48530,10 +48524,10 @@
         <v>70</v>
       </c>
       <c r="S303" s="67" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="T303" s="67" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="U303" s="67"/>
       <c r="V303" s="67"/>
@@ -48558,7 +48552,7 @@
         <v>16</v>
       </c>
       <c r="B304" s="66"/>
-      <c r="C304" s="943"/>
+      <c r="C304" s="975"/>
       <c r="D304" s="289">
         <f t="shared" si="77"/>
         <v>30</v>
@@ -48594,7 +48588,7 @@
       <c r="M304" s="68"/>
       <c r="O304" s="447"/>
       <c r="P304" s="160" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="Q304" s="695">
         <f>T259</f>
@@ -48640,7 +48634,7 @@
         <v>17</v>
       </c>
       <c r="B305" s="66"/>
-      <c r="C305" s="943"/>
+      <c r="C305" s="975"/>
       <c r="D305" s="289">
         <f t="shared" si="77"/>
         <v>32</v>
@@ -48676,7 +48670,7 @@
       <c r="M305" s="68"/>
       <c r="O305" s="447"/>
       <c r="P305" s="160" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="Q305" s="343">
         <f>T259</f>
@@ -48717,7 +48711,7 @@
         <v>18</v>
       </c>
       <c r="B306" s="66"/>
-      <c r="C306" s="943"/>
+      <c r="C306" s="975"/>
       <c r="D306" s="289">
         <f t="shared" si="77"/>
         <v>34</v>
@@ -48755,7 +48749,7 @@
       <c r="P306" s="67"/>
       <c r="Q306" s="67"/>
       <c r="R306" s="160" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="S306" s="677" t="str">
         <f>IF(OR(S304="",S305=""),"",S304+S305)</f>
@@ -48790,7 +48784,7 @@
         <v>19</v>
       </c>
       <c r="B307" s="66"/>
-      <c r="C307" s="944"/>
+      <c r="C307" s="976"/>
       <c r="D307" s="429">
         <f t="shared" si="77"/>
         <v>36</v>
@@ -48861,7 +48855,7 @@
         <v>20</v>
       </c>
       <c r="B308" s="66"/>
-      <c r="C308" s="942" t="str">
+      <c r="C308" s="974" t="str">
         <f>P384</f>
         <v>/</v>
       </c>
@@ -48925,7 +48919,7 @@
         <v>21</v>
       </c>
       <c r="B309" s="66"/>
-      <c r="C309" s="943"/>
+      <c r="C309" s="975"/>
       <c r="D309" s="289">
         <f t="shared" si="78"/>
         <v>30</v>
@@ -48960,7 +48954,7 @@
       </c>
       <c r="M309" s="68"/>
       <c r="O309" s="135" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="P309" s="22"/>
       <c r="Q309" s="22"/>
@@ -48990,7 +48984,7 @@
         <v>22</v>
       </c>
       <c r="B310" s="66"/>
-      <c r="C310" s="943"/>
+      <c r="C310" s="975"/>
       <c r="D310" s="289">
         <f t="shared" si="78"/>
         <v>32</v>
@@ -49026,10 +49020,10 @@
       <c r="M310" s="68"/>
       <c r="O310" s="29"/>
       <c r="P310" s="160" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="Q310" s="160" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="R310" s="1">
         <v>101.3</v>
@@ -49059,7 +49053,7 @@
         <v>23</v>
       </c>
       <c r="B311" s="66"/>
-      <c r="C311" s="943"/>
+      <c r="C311" s="975"/>
       <c r="D311" s="289">
         <f t="shared" si="78"/>
         <v>34</v>
@@ -49096,7 +49090,7 @@
       <c r="O311" s="29"/>
       <c r="P311" s="67"/>
       <c r="Q311" s="160" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="R311" s="619">
         <v>108</v>
@@ -49128,7 +49122,7 @@
         <v>24</v>
       </c>
       <c r="B312" s="66"/>
-      <c r="C312" s="944"/>
+      <c r="C312" s="976"/>
       <c r="D312" s="429">
         <f t="shared" si="78"/>
         <v>38</v>
@@ -49168,19 +49162,19 @@
       <c r="M312" s="68"/>
       <c r="O312" s="29"/>
       <c r="P312" s="658" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="Q312" s="659" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="R312" s="660" t="s">
         <v>288</v>
       </c>
       <c r="S312" s="658" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="T312" s="660" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="U312" s="67"/>
       <c r="V312" s="67"/>
@@ -49207,7 +49201,7 @@
       <c r="B313" s="66"/>
       <c r="M313" s="68"/>
       <c r="O313" s="159" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="P313" s="620"/>
       <c r="Q313" s="143"/>
@@ -49248,7 +49242,7 @@
       <c r="B314" s="66"/>
       <c r="M314" s="68"/>
       <c r="O314" s="159" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="P314" s="620"/>
       <c r="Q314" s="143"/>
@@ -49291,7 +49285,7 @@
       <c r="J315" s="4"/>
       <c r="M315" s="68"/>
       <c r="O315" s="159" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="P315" s="621"/>
       <c r="Q315" s="622"/>
@@ -49338,7 +49332,7 @@
         <v>201</v>
       </c>
       <c r="Q316" s="190" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="R316" s="67"/>
       <c r="S316" s="67"/>
@@ -49400,7 +49394,7 @@
       <c r="B318" s="66"/>
       <c r="M318" s="68"/>
       <c r="O318" s="137" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="P318" s="67"/>
       <c r="Q318" s="67"/>
@@ -49432,35 +49426,35 @@
       <c r="B319" s="66"/>
       <c r="M319" s="68"/>
       <c r="O319" s="634" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="P319" s="623" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="Q319" s="682">
         <f>U319-2</f>
         <v>-2</v>
       </c>
       <c r="R319" s="623" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="S319" s="682">
         <f>U319-1</f>
         <v>-1</v>
       </c>
       <c r="T319" s="623" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="U319" s="624"/>
       <c r="V319" s="623" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="W319" s="682">
         <f>U319+1</f>
         <v>1</v>
       </c>
       <c r="X319" s="623" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="Y319" s="683">
         <f>U319+2</f>
@@ -49486,34 +49480,34 @@
       <c r="B320" s="66"/>
       <c r="M320" s="68"/>
       <c r="O320" s="635" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="P320" s="289" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="Q320" s="289" t="s">
         <v>281</v>
       </c>
       <c r="R320" s="289" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="S320" s="289" t="s">
         <v>281</v>
       </c>
       <c r="T320" s="289" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="U320" s="289" t="s">
         <v>281</v>
       </c>
       <c r="V320" s="289" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="W320" s="289" t="s">
         <v>281</v>
       </c>
       <c r="X320" s="289" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="Y320" s="644" t="s">
         <v>281</v>
@@ -49778,35 +49772,35 @@
       <c r="L327" s="67"/>
       <c r="M327" s="68"/>
       <c r="O327" s="638" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="P327" s="623" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="Q327" s="682">
         <f>U327-2</f>
         <v>-2</v>
       </c>
       <c r="R327" s="623" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="S327" s="682">
         <f>U327-1</f>
         <v>-1</v>
       </c>
       <c r="T327" s="623" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="U327" s="624"/>
       <c r="V327" s="623" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="W327" s="682">
         <f>U327+1</f>
         <v>1</v>
       </c>
       <c r="X327" s="623" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="Y327" s="683">
         <f>U327+2</f>
@@ -50010,35 +50004,35 @@
       <c r="L334" s="67"/>
       <c r="M334" s="68"/>
       <c r="O334" s="638" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="P334" s="623" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="Q334" s="682">
         <f>U334-2</f>
         <v>-2</v>
       </c>
       <c r="R334" s="623" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="S334" s="682">
         <f>U334-1</f>
         <v>-1</v>
       </c>
       <c r="T334" s="623" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="U334" s="624"/>
       <c r="V334" s="623" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="W334" s="682">
         <f>U334+1</f>
         <v>1</v>
       </c>
       <c r="X334" s="623" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="Y334" s="683">
         <f>U334+2</f>
@@ -50223,17 +50217,17 @@
       <c r="M342" s="68"/>
       <c r="O342" s="29"/>
       <c r="P342" s="658" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="Q342" s="659"/>
       <c r="R342" s="659"/>
       <c r="S342" s="659" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="T342" s="659"/>
       <c r="U342" s="659"/>
       <c r="V342" s="659" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="W342" s="659"/>
       <c r="X342" s="660"/>
@@ -50277,31 +50271,31 @@
       <c r="M343" s="457"/>
       <c r="O343" s="29"/>
       <c r="P343" s="330" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="Q343" s="289" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="R343" s="289" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="S343" s="289" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="T343" s="289" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="U343" s="289" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="V343" s="289" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="W343" s="289" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="X343" s="331" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="Y343" s="31"/>
     </row>
@@ -50332,7 +50326,7 @@
       </c>
       <c r="M344" s="68"/>
       <c r="O344" s="639" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="P344" s="438" t="str">
         <f>IF(P321="","",AVERAGE(P321:P326))</f>
@@ -50409,7 +50403,7 @@
         <v>333</v>
       </c>
       <c r="O345" s="640" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="P345" s="438" t="str">
         <f>IF(R321="","",AVERAGE(R321:R326))</f>
@@ -50496,7 +50490,7 @@
         <v/>
       </c>
       <c r="O346" s="640" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="P346" s="438" t="str">
         <f>IF(T321="","",AVERAGE(T321:T326))</f>
@@ -50574,7 +50568,7 @@
         <v/>
       </c>
       <c r="O347" s="640" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="P347" s="438" t="str">
         <f>IF(V321="","",AVERAGE(V321:V326))</f>
@@ -50661,7 +50655,7 @@
         <v/>
       </c>
       <c r="O348" s="641" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="P348" s="440" t="str">
         <f>IF(X321="","",AVERAGE(X321:X326))</f>
@@ -50749,7 +50743,7 @@
       </c>
       <c r="O349" s="29"/>
       <c r="P349" s="413" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="Q349" s="426" t="str">
         <f>IF(OR(R345="",R347=""),"",AVERAGE(R345,R347))</f>
@@ -50760,7 +50754,7 @@
         <v/>
       </c>
       <c r="S349" s="413" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="T349" s="426" t="str">
         <f>IF(OR(U345="",U347=""),"",AVERAGE(U345,U347))</f>
@@ -50771,7 +50765,7 @@
         <v/>
       </c>
       <c r="V349" s="413" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="W349" s="426" t="str">
         <f>IF(OR(X345="",X347=""),"",AVERAGE(X345,X347))</f>
@@ -50833,7 +50827,7 @@
       </c>
       <c r="O350" s="29"/>
       <c r="P350" s="415" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="Q350" s="430" t="str">
         <f>IF(OR(R344="",R348=""),"",AVERAGE(R344,R348))</f>
@@ -50844,7 +50838,7 @@
         <v/>
       </c>
       <c r="S350" s="415" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="T350" s="430" t="str">
         <f>IF(OR(U344="",U348=""),"",AVERAGE(U344,U348))</f>
@@ -50855,7 +50849,7 @@
         <v/>
       </c>
       <c r="V350" s="415" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="W350" s="430" t="str">
         <f>IF(OR(X344="",X348=""),"",AVERAGE(X344,X348))</f>
@@ -50919,7 +50913,7 @@
         <v>318</v>
       </c>
       <c r="P351" s="413" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="Q351" s="787" t="str">
         <f>IF(AB133="","",AB133)</f>
@@ -50927,7 +50921,7 @@
       </c>
       <c r="R351" s="67"/>
       <c r="S351" s="413" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="T351" s="787" t="str">
         <f>IF(AB135="","",AB135)</f>
@@ -50935,7 +50929,7 @@
       </c>
       <c r="U351" s="67"/>
       <c r="V351" s="413" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="W351" s="787" t="str">
         <f>IF(AB137="","",AB137)</f>
@@ -50982,7 +50976,7 @@
       <c r="M352" s="463"/>
       <c r="O352" s="29"/>
       <c r="P352" s="415" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="Q352" s="788" t="str">
         <f>IF(AB134="","",AB134)</f>
@@ -50990,7 +50984,7 @@
       </c>
       <c r="R352" s="67"/>
       <c r="S352" s="415" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="T352" s="788" t="str">
         <f>IF(AB136="","",AB136)</f>
@@ -50998,7 +50992,7 @@
       </c>
       <c r="U352" s="67"/>
       <c r="V352" s="415" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="W352" s="788" t="str">
         <f>IF(AB138="","",AB138)</f>
@@ -51017,7 +51011,7 @@
       <c r="E353" s="326"/>
       <c r="F353" s="326"/>
       <c r="G353" s="454" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="H353" s="369" t="str">
         <f>IF(H350="","",IF(H350&gt;2.7,"Pass","Fail"))</f>
@@ -51027,7 +51021,7 @@
       <c r="J353" s="67"/>
       <c r="K353" s="67"/>
       <c r="L353" s="160" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="M353" s="464" t="str">
         <f>IF(M350="","",IF(M350&gt;2.7,"Pass","Fail"))</f>
@@ -51038,7 +51032,7 @@
         <v>201</v>
       </c>
       <c r="Q353" s="190" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="R353" s="67"/>
       <c r="S353" s="67"/>
@@ -51098,7 +51092,7 @@
       <c r="L355" s="67"/>
       <c r="M355" s="68"/>
       <c r="O355" s="135" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="P355" s="22"/>
       <c r="Q355" s="22"/>
@@ -51119,7 +51113,7 @@
       <c r="C356" s="67"/>
       <c r="D356" s="67"/>
       <c r="E356" s="190" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F356" s="67"/>
       <c r="G356" s="67"/>
@@ -51131,20 +51125,20 @@
       <c r="M356" s="68"/>
       <c r="O356" s="29"/>
       <c r="P356" s="658" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="Q356" s="660" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="R356"/>
       <c r="S356" s="67" t="s">
         <v>318</v>
       </c>
       <c r="T356" s="658" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="U356" s="660" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="W356"/>
       <c r="X356"/>
@@ -51338,7 +51332,7 @@
         <v>201</v>
       </c>
       <c r="Q361" s="190" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="R361" s="67"/>
       <c r="S361" s="67"/>
@@ -51372,7 +51366,7 @@
       </c>
       <c r="O362" s="95"/>
       <c r="P362" s="67" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="Q362" s="67"/>
       <c r="R362" s="67"/>
@@ -51404,7 +51398,7 @@
       <c r="M363" s="68"/>
       <c r="O363" s="95"/>
       <c r="P363" s="67" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="Q363" s="67"/>
       <c r="R363" s="67"/>
@@ -51444,7 +51438,7 @@
       <c r="M364" s="68"/>
       <c r="O364" s="95"/>
       <c r="P364" s="67" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="Q364" s="67"/>
       <c r="R364" s="67"/>
@@ -51510,7 +51504,7 @@
         <v/>
       </c>
       <c r="J366" s="67" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="K366" s="67"/>
       <c r="L366" s="67"/>
@@ -51560,7 +51554,7 @@
         <v>NA</v>
       </c>
       <c r="J367" s="67" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="K367" s="67"/>
       <c r="L367" s="67"/>
@@ -51569,7 +51563,7 @@
         <v>327</v>
       </c>
       <c r="P367" s="136" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="R367" s="34" t="s">
         <v>328</v>
@@ -51608,7 +51602,7 @@
         <v>NA</v>
       </c>
       <c r="J368" s="865" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="K368" s="67"/>
       <c r="L368" s="67"/>
@@ -51655,13 +51649,13 @@
       <c r="L369" s="67"/>
       <c r="M369" s="68"/>
       <c r="O369" s="29"/>
-      <c r="S369" s="945" t="s">
+      <c r="S369" s="939" t="s">
         <v>331</v>
       </c>
-      <c r="T369" s="945"/>
-      <c r="U369" s="945"/>
-      <c r="V369" s="945"/>
-      <c r="W369" s="945"/>
+      <c r="T369" s="939"/>
+      <c r="U369" s="939"/>
+      <c r="V369" s="939"/>
+      <c r="W369" s="939"/>
       <c r="Y369" s="31"/>
     </row>
     <row r="370" spans="1:25" ht="14.1" customHeight="1" thickBot="1">
@@ -51747,7 +51741,7 @@
       <c r="L371" s="67"/>
       <c r="M371" s="68"/>
       <c r="O371" s="29"/>
-      <c r="P371" s="952" t="str">
+      <c r="P371" s="968" t="str">
         <f>AK10&amp;"/"&amp;AL10</f>
         <v>/</v>
       </c>
@@ -51806,7 +51800,7 @@
       <c r="L372" s="67"/>
       <c r="M372" s="68"/>
       <c r="O372" s="29"/>
-      <c r="P372" s="953"/>
+      <c r="P372" s="969"/>
       <c r="Q372" s="301">
         <f>AH12</f>
         <v>25</v>
@@ -51860,7 +51854,7 @@
       <c r="L373" s="67"/>
       <c r="M373" s="68"/>
       <c r="O373" s="29"/>
-      <c r="P373" s="953"/>
+      <c r="P373" s="969"/>
       <c r="Q373" s="300">
         <f>AH14</f>
         <v>26</v>
@@ -51923,7 +51917,7 @@
       <c r="L374"/>
       <c r="M374" s="68"/>
       <c r="O374" s="29"/>
-      <c r="P374" s="953"/>
+      <c r="P374" s="969"/>
       <c r="Q374" s="300">
         <f>AH16</f>
         <v>28</v>
@@ -51986,7 +51980,7 @@
       <c r="L375"/>
       <c r="M375" s="68"/>
       <c r="O375" s="29"/>
-      <c r="P375" s="953"/>
+      <c r="P375" s="969"/>
       <c r="Q375" s="300">
         <f>AH22</f>
         <v>30</v>
@@ -52049,7 +52043,7 @@
       <c r="L376"/>
       <c r="M376" s="68"/>
       <c r="O376" s="29"/>
-      <c r="P376" s="953"/>
+      <c r="P376" s="969"/>
       <c r="Q376" s="300">
         <f>AH23</f>
         <v>32</v>
@@ -52090,7 +52084,7 @@
       </c>
       <c r="B377" s="66"/>
       <c r="C377" s="414" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D377" s="14" t="str">
         <f t="shared" si="87"/>
@@ -52112,7 +52106,7 @@
       <c r="L377"/>
       <c r="M377" s="68"/>
       <c r="O377" s="29"/>
-      <c r="P377" s="954"/>
+      <c r="P377" s="970"/>
       <c r="Q377" s="300">
         <f>AH25</f>
         <v>34</v>
@@ -52175,7 +52169,7 @@
       <c r="L378"/>
       <c r="M378" s="68"/>
       <c r="O378" s="29"/>
-      <c r="P378" s="946" t="str">
+      <c r="P378" s="977" t="str">
         <f>AK27&amp;"/"&amp;AL27</f>
         <v>/</v>
       </c>
@@ -52223,7 +52217,7 @@
         <v>201</v>
       </c>
       <c r="E379" s="190" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F379"/>
       <c r="G379"/>
@@ -52234,7 +52228,7 @@
       <c r="L379"/>
       <c r="M379" s="68"/>
       <c r="O379" s="159"/>
-      <c r="P379" s="947"/>
+      <c r="P379" s="978"/>
       <c r="Q379" s="300">
         <f>AH29</f>
         <v>30</v>
@@ -52275,11 +52269,11 @@
       </c>
       <c r="B380" s="66"/>
       <c r="E380" s="26" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="M380" s="68"/>
       <c r="O380" s="29"/>
-      <c r="P380" s="947"/>
+      <c r="P380" s="978"/>
       <c r="Q380" s="300">
         <f>AH31</f>
         <v>32</v>
@@ -52333,7 +52327,7 @@
       <c r="L381" s="67"/>
       <c r="M381" s="68"/>
       <c r="O381" s="29"/>
-      <c r="P381" s="947"/>
+      <c r="P381" s="978"/>
       <c r="Q381" s="300">
         <f>AH33</f>
         <v>34</v>
@@ -52400,7 +52394,7 @@
       </c>
       <c r="M382" s="68"/>
       <c r="O382" s="29"/>
-      <c r="P382" s="947"/>
+      <c r="P382" s="978"/>
       <c r="Q382" s="300">
         <f t="shared" ref="Q382:R384" si="94">AH35</f>
         <v>36</v>
@@ -52474,7 +52468,7 @@
       </c>
       <c r="M383" s="68"/>
       <c r="O383" s="29"/>
-      <c r="P383" s="948"/>
+      <c r="P383" s="979"/>
       <c r="Q383" s="300">
         <f t="shared" si="94"/>
         <v>38</v>
@@ -52548,7 +52542,7 @@
       </c>
       <c r="M384" s="68"/>
       <c r="O384" s="29"/>
-      <c r="P384" s="946" t="str">
+      <c r="P384" s="977" t="str">
         <f>AK37&amp;"/"&amp;AL37</f>
         <v>/</v>
       </c>
@@ -52608,7 +52602,7 @@
       <c r="L385" s="67"/>
       <c r="M385" s="68"/>
       <c r="O385" s="29"/>
-      <c r="P385" s="947"/>
+      <c r="P385" s="978"/>
       <c r="Q385" s="301">
         <f>AH41</f>
         <v>30</v>
@@ -52664,7 +52658,7 @@
       <c r="L386" s="67"/>
       <c r="M386" s="68"/>
       <c r="O386" s="29"/>
-      <c r="P386" s="947"/>
+      <c r="P386" s="978"/>
       <c r="Q386" s="300">
         <f>AH43</f>
         <v>32</v>
@@ -52718,7 +52712,7 @@
       <c r="L387" s="67"/>
       <c r="M387" s="68"/>
       <c r="O387" s="29"/>
-      <c r="P387" s="947"/>
+      <c r="P387" s="978"/>
       <c r="Q387" s="300">
         <f>AH45</f>
         <v>34</v>
@@ -52770,7 +52764,7 @@
       <c r="L388" s="67"/>
       <c r="M388" s="68"/>
       <c r="O388" s="29"/>
-      <c r="P388" s="948"/>
+      <c r="P388" s="979"/>
       <c r="Q388" s="300">
         <f>AH47</f>
         <v>38</v>
@@ -52881,7 +52875,7 @@
       </c>
       <c r="F391" s="325"/>
       <c r="G391" s="34" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="H391" s="658" t="str">
         <f t="shared" ref="H391:J398" si="97">IF(Q447="","",Q447)</f>
@@ -53674,7 +53668,7 @@
       </c>
       <c r="B403" s="66"/>
       <c r="C403" s="74" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="M403" s="68"/>
       <c r="O403" s="29"/>
@@ -53692,10 +53686,10 @@
       </c>
       <c r="B404" s="66"/>
       <c r="D404" s="34" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E404" s="34" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F404" s="327">
         <f>IF(R310="","",R310)</f>
@@ -53704,7 +53698,7 @@
       <c r="M404" s="68"/>
       <c r="O404" s="29"/>
       <c r="Q404" s="26" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="Y404" s="31"/>
     </row>
@@ -53714,7 +53708,7 @@
       </c>
       <c r="B405" s="66"/>
       <c r="E405" s="34" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F405" s="673">
         <f>IF(R311="","",R311)</f>
@@ -53739,10 +53733,10 @@
       </c>
       <c r="B406" s="66"/>
       <c r="D406" s="630" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E406" s="630" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F406" s="630" t="s">
         <v>288</v>
@@ -53768,7 +53762,7 @@
       </c>
       <c r="B407" s="66"/>
       <c r="C407" s="34" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D407" s="631" t="str">
         <f t="shared" ref="D407:F409" si="106">IF(P313="","",P313)</f>
@@ -53807,7 +53801,7 @@
       </c>
       <c r="B408" s="66"/>
       <c r="C408" s="34" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D408" s="330" t="str">
         <f t="shared" si="106"/>
@@ -53852,7 +53846,7 @@
       </c>
       <c r="B409" s="66"/>
       <c r="C409" s="34" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D409" s="379" t="str">
         <f t="shared" si="106"/>
@@ -53983,7 +53977,7 @@
       </c>
       <c r="B412" s="66"/>
       <c r="C412" s="74" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="M412" s="68"/>
       <c r="O412" s="29"/>
@@ -54022,13 +54016,13 @@
       </c>
       <c r="B413" s="66"/>
       <c r="D413" s="630" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E413" s="630" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F413" s="630" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G413" s="630" t="s">
         <v>288</v>
@@ -54053,7 +54047,7 @@
       </c>
       <c r="B414" s="66"/>
       <c r="C414" s="34" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D414" s="631" t="str">
         <f>IF(U319="","",U319)</f>
@@ -54087,7 +54081,7 @@
       </c>
       <c r="B415" s="66"/>
       <c r="C415" s="34" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D415" s="330" t="str">
         <f>IF(U327="","",U327)</f>
@@ -54121,7 +54115,7 @@
       </c>
       <c r="B416" s="66"/>
       <c r="C416" s="34" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D416" s="379" t="str">
         <f>IF(U334="","",U334)</f>
@@ -54145,7 +54139,7 @@
         <v>3</v>
       </c>
       <c r="P416" s="40" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="Q416" s="40"/>
       <c r="R416" s="40"/>
@@ -54224,7 +54218,7 @@
       </c>
       <c r="B419" s="66"/>
       <c r="C419" s="74" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="M419" s="68"/>
       <c r="O419" s="29"/>
@@ -54256,10 +54250,10 @@
       </c>
       <c r="B420" s="66"/>
       <c r="D420" s="630" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E420" s="630" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G420"/>
       <c r="M420" s="68"/>
@@ -54267,11 +54261,11 @@
       <c r="P420" s="613" t="s">
         <v>348</v>
       </c>
-      <c r="Q420" s="949" t="s">
+      <c r="Q420" s="980" t="s">
         <v>349</v>
       </c>
-      <c r="R420" s="950"/>
-      <c r="S420" s="951"/>
+      <c r="R420" s="981"/>
+      <c r="S420" s="982"/>
       <c r="T420"/>
       <c r="U420"/>
       <c r="V420"/>
@@ -54491,20 +54485,20 @@
         <v>201</v>
       </c>
       <c r="Q426" s="26" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="R426" s="551"/>
       <c r="S426" s="551"/>
       <c r="T426" s="551"/>
       <c r="U426" s="551"/>
       <c r="V426" s="551" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="W426" s="299" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="X426" s="299" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="Y426" s="31"/>
     </row>
@@ -54518,12 +54512,12 @@
         <v/>
       </c>
       <c r="D427" s="67" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="M427" s="68"/>
       <c r="O427" s="39"/>
       <c r="Q427" s="26" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="R427" s="4"/>
       <c r="S427" s="4"/>
@@ -54544,7 +54538,7 @@
         <v/>
       </c>
       <c r="D428" s="20" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="M428" s="68"/>
       <c r="O428" s="135" t="s">
@@ -54571,7 +54565,7 @@
         <v/>
       </c>
       <c r="D429" s="67" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="J429" s="67"/>
       <c r="K429" s="67"/>
@@ -55154,14 +55148,14 @@
       <c r="M447" s="68"/>
       <c r="O447" s="29"/>
       <c r="P447" s="34" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="Q447" s="274" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="R447" s="275"/>
       <c r="S447" s="276" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="Y447" s="31"/>
     </row>
@@ -55468,10 +55462,10 @@
       <c r="U454" s="4"/>
       <c r="V454" s="4"/>
       <c r="Y454" s="31"/>
-      <c r="AA454" s="945"/>
-      <c r="AB454" s="945"/>
-      <c r="AC454" s="945"/>
-      <c r="AD454" s="945"/>
+      <c r="AA454" s="939"/>
+      <c r="AB454" s="939"/>
+      <c r="AC454" s="939"/>
+      <c r="AD454" s="939"/>
     </row>
     <row r="455" spans="1:30" ht="14.1" customHeight="1">
       <c r="A455" s="16">
@@ -55497,7 +55491,7 @@
         <v>201</v>
       </c>
       <c r="Q455" s="26" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="Y455" s="31"/>
       <c r="AA455" s="776"/>
@@ -55527,7 +55521,7 @@
       <c r="O456" s="39"/>
       <c r="P456" s="287"/>
       <c r="Q456" s="859" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="R456" s="189"/>
       <c r="S456" s="189"/>
@@ -56248,7 +56242,7 @@
       <c r="R488" s="552"/>
       <c r="S488" s="552"/>
       <c r="T488" s="553" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="U488" s="552"/>
       <c r="V488" s="552"/>
@@ -56274,7 +56268,7 @@
       <c r="M489" s="68"/>
       <c r="O489" s="552"/>
       <c r="P489" s="554" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="Q489" s="552"/>
       <c r="R489" s="552"/>
@@ -56307,7 +56301,7 @@
       <c r="Q490" s="556"/>
       <c r="R490" s="557"/>
       <c r="S490" s="558" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="T490" s="556"/>
       <c r="U490" s="556"/>
@@ -56343,7 +56337,7 @@
       </c>
       <c r="O492" s="567"/>
       <c r="P492" s="568" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q492" s="569"/>
       <c r="R492" s="570">
@@ -56367,7 +56361,7 @@
       </c>
       <c r="O493" s="567"/>
       <c r="P493" s="561" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="Q493" s="562"/>
       <c r="R493" s="563"/>
@@ -56388,7 +56382,7 @@
       </c>
       <c r="O494" s="567"/>
       <c r="P494" s="568" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q494" s="569"/>
       <c r="R494" s="570">
@@ -56412,7 +56406,7 @@
       </c>
       <c r="O495" s="576"/>
       <c r="P495" s="561" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="Q495" s="562"/>
       <c r="R495" s="563"/>
@@ -56433,7 +56427,7 @@
       </c>
       <c r="O496" s="567"/>
       <c r="P496" s="568" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q496" s="569"/>
       <c r="R496" s="570">
@@ -56457,7 +56451,7 @@
       </c>
       <c r="O497" s="567"/>
       <c r="P497" s="561" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="Q497" s="562"/>
       <c r="R497" s="563"/>
@@ -56478,7 +56472,7 @@
       </c>
       <c r="O498" s="576"/>
       <c r="P498" s="568" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q498" s="569"/>
       <c r="R498" s="570">
@@ -56502,7 +56496,7 @@
       </c>
       <c r="O499" s="567"/>
       <c r="P499" s="561" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="Q499" s="562"/>
       <c r="R499" s="563"/>
@@ -56523,7 +56517,7 @@
       </c>
       <c r="O500" s="567"/>
       <c r="P500" s="568" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q500" s="569"/>
       <c r="R500" s="570">
@@ -56547,7 +56541,7 @@
       </c>
       <c r="O501" s="576"/>
       <c r="P501" s="561" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="Q501" s="562"/>
       <c r="R501" s="563"/>
@@ -56568,7 +56562,7 @@
       </c>
       <c r="O502" s="567"/>
       <c r="P502" s="568" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q502" s="577"/>
       <c r="R502" s="578">
@@ -56613,7 +56607,7 @@
       </c>
       <c r="O503" s="567"/>
       <c r="P503" s="561" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="Q503" s="562"/>
       <c r="R503" s="563"/>
@@ -56655,7 +56649,7 @@
       </c>
       <c r="O504" s="576"/>
       <c r="P504" s="568" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q504" s="577"/>
       <c r="R504" s="578">
@@ -56676,7 +56670,7 @@
     <row r="505" spans="1:25" ht="14.1" customHeight="1">
       <c r="O505" s="567"/>
       <c r="P505" s="561" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="Q505" s="562"/>
       <c r="R505" s="563"/>
@@ -56694,7 +56688,7 @@
     <row r="506" spans="1:25" ht="14.1" customHeight="1">
       <c r="O506" s="567"/>
       <c r="P506" s="568" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q506" s="577"/>
       <c r="R506" s="578">
@@ -56875,6 +56869,56 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="66">
+    <mergeCell ref="C296:C302"/>
+    <mergeCell ref="C303:C307"/>
+    <mergeCell ref="C308:C312"/>
+    <mergeCell ref="AA454:AB454"/>
+    <mergeCell ref="AC454:AD454"/>
+    <mergeCell ref="P378:P383"/>
+    <mergeCell ref="P384:P388"/>
+    <mergeCell ref="Q420:S420"/>
+    <mergeCell ref="Q194:S194"/>
+    <mergeCell ref="U194:W194"/>
+    <mergeCell ref="U245:W245"/>
+    <mergeCell ref="S369:W369"/>
+    <mergeCell ref="P371:P377"/>
+    <mergeCell ref="P129:R130"/>
+    <mergeCell ref="S129:U130"/>
+    <mergeCell ref="V129:X130"/>
+    <mergeCell ref="P173:S173"/>
+    <mergeCell ref="Q182:S182"/>
+    <mergeCell ref="U182:W182"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P121:R122"/>
+    <mergeCell ref="V121:X122"/>
+    <mergeCell ref="S121:U122"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="F294:H294"/>
     <mergeCell ref="I291:J291"/>
     <mergeCell ref="I292:J292"/>
@@ -56891,56 +56935,6 @@
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P121:R122"/>
-    <mergeCell ref="V121:X122"/>
-    <mergeCell ref="S121:U122"/>
-    <mergeCell ref="P129:R130"/>
-    <mergeCell ref="S129:U130"/>
-    <mergeCell ref="V129:X130"/>
-    <mergeCell ref="P173:S173"/>
-    <mergeCell ref="Q182:S182"/>
-    <mergeCell ref="U182:W182"/>
-    <mergeCell ref="Q194:S194"/>
-    <mergeCell ref="U194:W194"/>
-    <mergeCell ref="U245:W245"/>
-    <mergeCell ref="S369:W369"/>
-    <mergeCell ref="P371:P377"/>
-    <mergeCell ref="C296:C302"/>
-    <mergeCell ref="C303:C307"/>
-    <mergeCell ref="C308:C312"/>
-    <mergeCell ref="AA454:AB454"/>
-    <mergeCell ref="AC454:AD454"/>
-    <mergeCell ref="P378:P383"/>
-    <mergeCell ref="P384:P388"/>
-    <mergeCell ref="Q420:S420"/>
   </mergeCells>
   <conditionalFormatting sqref="R260:S260">
     <cfRule type="cellIs" dxfId="161" priority="230" stopIfTrue="1" operator="equal">
@@ -61118,7 +61112,7 @@
         <v>426</v>
       </c>
       <c r="N52" s="20" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="14.1" customHeight="1">
@@ -61335,7 +61329,7 @@
         <v>430</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="N61" s="144"/>
       <c r="O61" s="67"/>
@@ -61373,11 +61367,11 @@
         <v>332</v>
       </c>
       <c r="K62" s="650"/>
-      <c r="O62" s="967"/>
-      <c r="P62" s="967"/>
-      <c r="Q62" s="967"/>
-      <c r="R62" s="967"/>
-      <c r="S62" s="967"/>
+      <c r="O62" s="946"/>
+      <c r="P62" s="946"/>
+      <c r="Q62" s="946"/>
+      <c r="R62" s="946"/>
+      <c r="S62" s="946"/>
     </row>
     <row r="63" spans="1:19" ht="14.1" customHeight="1">
       <c r="A63" s="650" t="str">
@@ -61682,7 +61676,7 @@
     </row>
     <row r="73" spans="1:19" ht="14.1" customHeight="1">
       <c r="A73" s="34" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B73" s="20" t="e">
         <f>RSQ(C63:C69,B63:B69)</f>
@@ -61708,7 +61702,7 @@
         <v>347</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="N74" s="67"/>
       <c r="O74" s="266"/>
@@ -62091,7 +62085,7 @@
     </row>
     <row r="86" spans="1:19" ht="14.1" customHeight="1">
       <c r="A86" s="34" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B86" s="20" t="e">
         <f>RSQ(C76:C82,B76:B82)</f>
@@ -63124,15 +63118,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="713" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B2" s="714" t="str">
         <f>Sheet1!F13</f>
@@ -63271,27 +63265,27 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="488" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="488" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="488" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="488" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="488" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>

--- a/MUSCMammoSiemens.xlsx
+++ b/MUSCMammoSiemens.xlsx
@@ -248,7 +248,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="785">
   <si>
     <t>Print Area</t>
   </si>
@@ -3282,6 +3282,9 @@
   </si>
   <si>
     <t>Is this a new installation?</t>
+  </si>
+  <si>
+    <t>DHEC form SC-RHA-20 “Notice to Employees” posted or referenced</t>
   </si>
 </sst>
 </file>
@@ -9001,18 +9004,90 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="190" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="27" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="148" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="146" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="147" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="175" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9022,84 +9097,39 @@
     <xf numFmtId="175" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="27" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="148" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="146" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="147" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="142" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="122" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="151" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="150" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="149" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9112,32 +9142,23 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="80" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="142" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="122" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="151" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="150" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="149" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -9169,9 +9190,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9181,33 +9199,126 @@
     <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="80" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9217,116 +9328,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -27894,40 +27897,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="874" t="s">
+      <c r="A1" s="901" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="874"/>
-      <c r="C1" s="874"/>
-      <c r="D1" s="874"/>
-      <c r="E1" s="874"/>
-      <c r="F1" s="874"/>
-      <c r="G1" s="874"/>
-      <c r="H1" s="874"/>
-      <c r="I1" s="874"/>
-      <c r="J1" s="874"/>
-      <c r="K1" s="874"/>
-      <c r="L1" s="874"/>
-      <c r="M1" s="874"/>
-      <c r="N1" s="874"/>
+      <c r="B1" s="901"/>
+      <c r="C1" s="901"/>
+      <c r="D1" s="901"/>
+      <c r="E1" s="901"/>
+      <c r="F1" s="901"/>
+      <c r="G1" s="901"/>
+      <c r="H1" s="901"/>
+      <c r="I1" s="901"/>
+      <c r="J1" s="901"/>
+      <c r="K1" s="901"/>
+      <c r="L1" s="901"/>
+      <c r="M1" s="901"/>
+      <c r="N1" s="901"/>
     </row>
     <row r="2" spans="1:14" ht="26.25">
-      <c r="A2" s="874" t="s">
+      <c r="A2" s="901" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="874"/>
-      <c r="C2" s="874"/>
-      <c r="D2" s="874"/>
-      <c r="E2" s="874"/>
-      <c r="F2" s="874"/>
-      <c r="G2" s="874"/>
-      <c r="H2" s="874"/>
-      <c r="I2" s="874"/>
-      <c r="J2" s="874"/>
-      <c r="K2" s="874"/>
-      <c r="L2" s="874"/>
-      <c r="M2" s="874"/>
-      <c r="N2" s="874"/>
+      <c r="B2" s="901"/>
+      <c r="C2" s="901"/>
+      <c r="D2" s="901"/>
+      <c r="E2" s="901"/>
+      <c r="F2" s="901"/>
+      <c r="G2" s="901"/>
+      <c r="H2" s="901"/>
+      <c r="I2" s="901"/>
+      <c r="J2" s="901"/>
+      <c r="K2" s="901"/>
+      <c r="L2" s="901"/>
+      <c r="M2" s="901"/>
+      <c r="N2" s="901"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1">
       <c r="A3" s="797"/>
@@ -27950,41 +27953,41 @@
         <v>371</v>
       </c>
       <c r="B4" s="798"/>
-      <c r="C4" s="875"/>
-      <c r="D4" s="876"/>
-      <c r="E4" s="876"/>
-      <c r="F4" s="876"/>
-      <c r="G4" s="876"/>
-      <c r="H4" s="877"/>
+      <c r="C4" s="889"/>
+      <c r="D4" s="890"/>
+      <c r="E4" s="890"/>
+      <c r="F4" s="890"/>
+      <c r="G4" s="890"/>
+      <c r="H4" s="891"/>
       <c r="J4" s="799"/>
       <c r="K4" s="800" t="s">
         <v>372</v>
       </c>
-      <c r="L4" s="878"/>
-      <c r="M4" s="879"/>
-      <c r="N4" s="880"/>
+      <c r="L4" s="902"/>
+      <c r="M4" s="903"/>
+      <c r="N4" s="904"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1">
       <c r="A5" s="798" t="s">
         <v>373</v>
       </c>
       <c r="B5" s="798"/>
-      <c r="C5" s="875"/>
-      <c r="D5" s="876"/>
-      <c r="E5" s="876"/>
-      <c r="F5" s="876"/>
-      <c r="G5" s="876"/>
-      <c r="H5" s="877"/>
+      <c r="C5" s="889"/>
+      <c r="D5" s="890"/>
+      <c r="E5" s="890"/>
+      <c r="F5" s="890"/>
+      <c r="G5" s="890"/>
+      <c r="H5" s="891"/>
       <c r="J5" s="799"/>
       <c r="K5" s="800" t="s">
         <v>374</v>
       </c>
-      <c r="L5" s="878">
+      <c r="L5" s="902">
         <f>Sheet1!P7</f>
         <v>0</v>
       </c>
-      <c r="M5" s="879"/>
-      <c r="N5" s="880"/>
+      <c r="M5" s="903"/>
+      <c r="N5" s="904"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1">
       <c r="A6" s="798" t="s">
@@ -27993,19 +27996,19 @@
       <c r="B6" s="798"/>
       <c r="C6" s="798"/>
       <c r="D6" s="798"/>
-      <c r="E6" s="886" t="s">
+      <c r="E6" s="888" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="886"/>
-      <c r="G6" s="886"/>
-      <c r="H6" s="886"/>
+      <c r="F6" s="888"/>
+      <c r="G6" s="888"/>
+      <c r="H6" s="888"/>
       <c r="J6" s="799"/>
       <c r="K6" s="800" t="s">
         <v>376</v>
       </c>
-      <c r="L6" s="875"/>
-      <c r="M6" s="876"/>
-      <c r="N6" s="877"/>
+      <c r="L6" s="889"/>
+      <c r="M6" s="890"/>
+      <c r="N6" s="891"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1">
       <c r="A7" s="798" t="s">
@@ -28014,21 +28017,21 @@
       <c r="B7" s="798"/>
       <c r="C7" s="798"/>
       <c r="D7" s="798"/>
-      <c r="E7" s="875" t="s">
+      <c r="E7" s="889" t="s">
         <v>378</v>
       </c>
-      <c r="F7" s="876"/>
-      <c r="G7" s="876"/>
-      <c r="H7" s="877"/>
+      <c r="F7" s="890"/>
+      <c r="G7" s="890"/>
+      <c r="H7" s="891"/>
       <c r="J7" s="799"/>
       <c r="K7" s="800" t="s">
         <v>379</v>
       </c>
-      <c r="L7" s="875" t="s">
+      <c r="L7" s="889" t="s">
         <v>764</v>
       </c>
-      <c r="M7" s="876"/>
-      <c r="N7" s="877"/>
+      <c r="M7" s="890"/>
+      <c r="N7" s="891"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1">
       <c r="A8" s="798" t="s">
@@ -28037,23 +28040,23 @@
       <c r="B8" s="798"/>
       <c r="C8" s="798"/>
       <c r="D8" s="798"/>
-      <c r="E8" s="887" t="str">
+      <c r="E8" s="892" t="str">
         <f>Sheet1!K12</f>
         <v/>
       </c>
-      <c r="F8" s="888"/>
-      <c r="G8" s="888"/>
-      <c r="H8" s="889"/>
+      <c r="F8" s="893"/>
+      <c r="G8" s="893"/>
+      <c r="H8" s="894"/>
       <c r="J8" s="799"/>
       <c r="K8" s="800" t="s">
         <v>381</v>
       </c>
-      <c r="L8" s="875" t="str">
+      <c r="L8" s="889" t="str">
         <f>Sheet1!R14</f>
         <v/>
       </c>
-      <c r="M8" s="876"/>
-      <c r="N8" s="877"/>
+      <c r="M8" s="890"/>
+      <c r="N8" s="891"/>
     </row>
     <row r="9" spans="1:14" ht="11.25" customHeight="1">
       <c r="A9" s="798"/>
@@ -28074,12 +28077,12 @@
       <c r="A10" s="803" t="s">
         <v>536</v>
       </c>
-      <c r="E10" s="890" t="s">
+      <c r="E10" s="895" t="s">
         <v>765</v>
       </c>
-      <c r="F10" s="891"/>
-      <c r="G10" s="891"/>
-      <c r="H10" s="892"/>
+      <c r="F10" s="896"/>
+      <c r="G10" s="896"/>
+      <c r="H10" s="897"/>
       <c r="I10" s="804" t="s">
         <v>535</v>
       </c>
@@ -28104,24 +28107,24 @@
       <c r="B12" s="798"/>
       <c r="C12" s="798"/>
       <c r="D12" s="798"/>
-      <c r="E12" s="893" t="s">
+      <c r="E12" s="898" t="s">
         <v>384</v>
       </c>
-      <c r="F12" s="894"/>
-      <c r="G12" s="893" t="s">
+      <c r="F12" s="899"/>
+      <c r="G12" s="898" t="s">
         <v>379</v>
       </c>
-      <c r="H12" s="894"/>
-      <c r="I12" s="893" t="s">
+      <c r="H12" s="899"/>
+      <c r="I12" s="898" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="894"/>
-      <c r="K12" s="893" t="s">
+      <c r="J12" s="899"/>
+      <c r="K12" s="898" t="s">
         <v>382</v>
       </c>
-      <c r="L12" s="895"/>
-      <c r="M12" s="895"/>
-      <c r="N12" s="894"/>
+      <c r="L12" s="900"/>
+      <c r="M12" s="900"/>
+      <c r="N12" s="899"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" thickTop="1">
       <c r="A13" s="798"/>
@@ -28130,55 +28133,55 @@
       <c r="D13" s="806" t="s">
         <v>385</v>
       </c>
-      <c r="E13" s="881" t="s">
+      <c r="E13" s="883" t="s">
         <v>751</v>
       </c>
-      <c r="F13" s="882"/>
-      <c r="G13" s="881" t="s">
+      <c r="F13" s="884"/>
+      <c r="G13" s="883" t="s">
         <v>752</v>
       </c>
-      <c r="H13" s="882"/>
-      <c r="I13" s="883"/>
-      <c r="J13" s="884"/>
-      <c r="K13" s="881" t="s">
+      <c r="H13" s="884"/>
+      <c r="I13" s="885"/>
+      <c r="J13" s="886"/>
+      <c r="K13" s="883" t="s">
         <v>753</v>
       </c>
-      <c r="L13" s="885"/>
-      <c r="M13" s="885"/>
-      <c r="N13" s="882"/>
+      <c r="L13" s="887"/>
+      <c r="M13" s="887"/>
+      <c r="N13" s="884"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="D14" s="806" t="s">
         <v>386</v>
       </c>
-      <c r="E14" s="898"/>
-      <c r="F14" s="899"/>
-      <c r="G14" s="898"/>
-      <c r="H14" s="899"/>
-      <c r="I14" s="900"/>
-      <c r="J14" s="901"/>
-      <c r="K14" s="898"/>
-      <c r="L14" s="902"/>
-      <c r="M14" s="902"/>
-      <c r="N14" s="899"/>
+      <c r="E14" s="876"/>
+      <c r="F14" s="877"/>
+      <c r="G14" s="876"/>
+      <c r="H14" s="877"/>
+      <c r="I14" s="878"/>
+      <c r="J14" s="879"/>
+      <c r="K14" s="876"/>
+      <c r="L14" s="880"/>
+      <c r="M14" s="880"/>
+      <c r="N14" s="877"/>
     </row>
     <row r="15" spans="1:14" ht="36" customHeight="1">
-      <c r="A15" s="903" t="s">
+      <c r="A15" s="881" t="s">
         <v>712</v>
       </c>
-      <c r="B15" s="903"/>
-      <c r="C15" s="903"/>
-      <c r="D15" s="903"/>
-      <c r="E15" s="903"/>
-      <c r="F15" s="903"/>
-      <c r="G15" s="903"/>
-      <c r="H15" s="903"/>
-      <c r="I15" s="903"/>
-      <c r="J15" s="903"/>
-      <c r="K15" s="903"/>
-      <c r="L15" s="903"/>
-      <c r="M15" s="903"/>
-      <c r="N15" s="903"/>
+      <c r="B15" s="881"/>
+      <c r="C15" s="881"/>
+      <c r="D15" s="881"/>
+      <c r="E15" s="881"/>
+      <c r="F15" s="881"/>
+      <c r="G15" s="881"/>
+      <c r="H15" s="881"/>
+      <c r="I15" s="881"/>
+      <c r="J15" s="881"/>
+      <c r="K15" s="881"/>
+      <c r="L15" s="881"/>
+      <c r="M15" s="881"/>
+      <c r="N15" s="881"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1">
       <c r="A16" s="803" t="s">
@@ -28240,40 +28243,40 @@
       <c r="M18" s="823"/>
     </row>
     <row r="19" spans="1:15" ht="21" customHeight="1">
-      <c r="A19" s="904" t="s">
+      <c r="A19" s="882" t="s">
         <v>389</v>
       </c>
-      <c r="B19" s="904"/>
-      <c r="C19" s="904"/>
-      <c r="D19" s="904"/>
-      <c r="E19" s="904"/>
-      <c r="F19" s="904"/>
-      <c r="G19" s="904"/>
-      <c r="H19" s="904"/>
-      <c r="I19" s="904"/>
-      <c r="J19" s="904"/>
-      <c r="K19" s="904"/>
-      <c r="L19" s="904"/>
-      <c r="M19" s="904"/>
-      <c r="N19" s="904"/>
+      <c r="B19" s="882"/>
+      <c r="C19" s="882"/>
+      <c r="D19" s="882"/>
+      <c r="E19" s="882"/>
+      <c r="F19" s="882"/>
+      <c r="G19" s="882"/>
+      <c r="H19" s="882"/>
+      <c r="I19" s="882"/>
+      <c r="J19" s="882"/>
+      <c r="K19" s="882"/>
+      <c r="L19" s="882"/>
+      <c r="M19" s="882"/>
+      <c r="N19" s="882"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="896" t="s">
+      <c r="A20" s="874" t="s">
         <v>534</v>
       </c>
-      <c r="B20" s="896"/>
-      <c r="C20" s="896"/>
-      <c r="D20" s="896"/>
-      <c r="E20" s="896"/>
-      <c r="F20" s="896"/>
-      <c r="G20" s="896"/>
-      <c r="H20" s="896"/>
-      <c r="I20" s="896"/>
-      <c r="J20" s="896"/>
-      <c r="K20" s="896"/>
-      <c r="L20" s="896"/>
-      <c r="M20" s="896"/>
-      <c r="N20" s="896"/>
+      <c r="B20" s="874"/>
+      <c r="C20" s="874"/>
+      <c r="D20" s="874"/>
+      <c r="E20" s="874"/>
+      <c r="F20" s="874"/>
+      <c r="G20" s="874"/>
+      <c r="H20" s="874"/>
+      <c r="I20" s="874"/>
+      <c r="J20" s="874"/>
+      <c r="K20" s="874"/>
+      <c r="L20" s="874"/>
+      <c r="M20" s="874"/>
+      <c r="N20" s="874"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="798"/>
@@ -28879,22 +28882,22 @@
       <c r="M51" s="825"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A52" s="897" t="s">
+      <c r="A52" s="875" t="s">
         <v>529</v>
       </c>
-      <c r="B52" s="897"/>
-      <c r="C52" s="897"/>
-      <c r="D52" s="897"/>
-      <c r="E52" s="897"/>
-      <c r="F52" s="897"/>
-      <c r="G52" s="897"/>
-      <c r="H52" s="897"/>
-      <c r="I52" s="897"/>
-      <c r="J52" s="897"/>
-      <c r="K52" s="897"/>
-      <c r="L52" s="897"/>
-      <c r="M52" s="897"/>
-      <c r="N52" s="897"/>
+      <c r="B52" s="875"/>
+      <c r="C52" s="875"/>
+      <c r="D52" s="875"/>
+      <c r="E52" s="875"/>
+      <c r="F52" s="875"/>
+      <c r="G52" s="875"/>
+      <c r="H52" s="875"/>
+      <c r="I52" s="875"/>
+      <c r="J52" s="875"/>
+      <c r="K52" s="875"/>
+      <c r="L52" s="875"/>
+      <c r="M52" s="875"/>
+      <c r="N52" s="875"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -28909,14 +28912,12 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="29">
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="L5:N5"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
@@ -28932,12 +28933,14 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:N12"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A19:N19"/>
   </mergeCells>
   <conditionalFormatting sqref="N27:N38 N48 N41:N42 N50">
     <cfRule type="cellIs" dxfId="176" priority="13" stopIfTrue="1" operator="equal">
@@ -29248,19 +29251,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="907" t="s">
+      <c r="A1" s="916" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="907"/>
-      <c r="C1" s="907"/>
-      <c r="D1" s="907"/>
-      <c r="E1" s="907"/>
-      <c r="F1" s="907"/>
-      <c r="G1" s="907"/>
-      <c r="H1" s="907"/>
-      <c r="I1" s="907"/>
-      <c r="J1" s="907"/>
-      <c r="K1" s="907"/>
+      <c r="B1" s="916"/>
+      <c r="C1" s="916"/>
+      <c r="D1" s="916"/>
+      <c r="E1" s="916"/>
+      <c r="F1" s="916"/>
+      <c r="G1" s="916"/>
+      <c r="H1" s="916"/>
+      <c r="I1" s="916"/>
+      <c r="J1" s="916"/>
+      <c r="K1" s="916"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
       <c r="A2" s="517" t="s">
@@ -29294,19 +29297,19 @@
       <c r="K4" s="512"/>
     </row>
     <row r="5" spans="1:12" ht="42" customHeight="1">
-      <c r="A5" s="908" t="s">
+      <c r="A5" s="917" t="s">
         <v>541</v>
       </c>
-      <c r="B5" s="908"/>
-      <c r="C5" s="908"/>
-      <c r="D5" s="908"/>
-      <c r="E5" s="908"/>
-      <c r="F5" s="908"/>
-      <c r="G5" s="908"/>
-      <c r="H5" s="908"/>
-      <c r="I5" s="908"/>
-      <c r="J5" s="908"/>
-      <c r="K5" s="908"/>
+      <c r="B5" s="917"/>
+      <c r="C5" s="917"/>
+      <c r="D5" s="917"/>
+      <c r="E5" s="917"/>
+      <c r="F5" s="917"/>
+      <c r="G5" s="917"/>
+      <c r="H5" s="917"/>
+      <c r="I5" s="917"/>
+      <c r="J5" s="917"/>
+      <c r="K5" s="917"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="511" t="s">
@@ -29339,8 +29342,8 @@
       <c r="K7" s="506"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="J8" s="909"/>
-      <c r="K8" s="909"/>
+      <c r="J8" s="918"/>
+      <c r="K8" s="918"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="492"/>
@@ -29349,10 +29352,10 @@
         <v>396</v>
       </c>
       <c r="I9" s="505"/>
-      <c r="J9" s="910" t="s">
+      <c r="J9" s="919" t="s">
         <v>390</v>
       </c>
-      <c r="K9" s="910"/>
+      <c r="K9" s="919"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="504" t="s">
@@ -29527,19 +29530,19 @@
       <c r="L20" s="492"/>
     </row>
     <row r="21" spans="1:12" ht="24" customHeight="1">
-      <c r="A21" s="911" t="s">
+      <c r="A21" s="907" t="s">
         <v>415</v>
       </c>
-      <c r="B21" s="911"/>
-      <c r="C21" s="911"/>
-      <c r="D21" s="911"/>
-      <c r="E21" s="911"/>
-      <c r="F21" s="911"/>
-      <c r="G21" s="911"/>
-      <c r="H21" s="911"/>
-      <c r="I21" s="911"/>
-      <c r="J21" s="911"/>
-      <c r="K21" s="911"/>
+      <c r="B21" s="907"/>
+      <c r="C21" s="907"/>
+      <c r="D21" s="907"/>
+      <c r="E21" s="907"/>
+      <c r="F21" s="907"/>
+      <c r="G21" s="907"/>
+      <c r="H21" s="907"/>
+      <c r="I21" s="907"/>
+      <c r="J21" s="907"/>
+      <c r="K21" s="907"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="491"/>
@@ -29555,123 +29558,123 @@
       <c r="K22" s="490"/>
     </row>
     <row r="23" spans="1:12" ht="290.25" customHeight="1">
-      <c r="A23" s="912"/>
-      <c r="B23" s="913"/>
-      <c r="C23" s="913"/>
-      <c r="D23" s="913"/>
-      <c r="E23" s="913"/>
-      <c r="F23" s="913"/>
-      <c r="G23" s="913"/>
-      <c r="H23" s="913"/>
-      <c r="I23" s="913"/>
-      <c r="J23" s="913"/>
-      <c r="K23" s="914"/>
+      <c r="A23" s="908"/>
+      <c r="B23" s="909"/>
+      <c r="C23" s="909"/>
+      <c r="D23" s="909"/>
+      <c r="E23" s="909"/>
+      <c r="F23" s="909"/>
+      <c r="G23" s="909"/>
+      <c r="H23" s="909"/>
+      <c r="I23" s="909"/>
+      <c r="J23" s="909"/>
+      <c r="K23" s="910"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="915"/>
-      <c r="B24" s="915"/>
-      <c r="C24" s="915"/>
-      <c r="D24" s="915"/>
-      <c r="E24" s="915"/>
-      <c r="F24" s="915"/>
-      <c r="G24" s="915"/>
-      <c r="H24" s="915"/>
-      <c r="I24" s="915"/>
-      <c r="J24" s="915"/>
-      <c r="K24" s="915"/>
+      <c r="A24" s="911"/>
+      <c r="B24" s="911"/>
+      <c r="C24" s="911"/>
+      <c r="D24" s="911"/>
+      <c r="E24" s="911"/>
+      <c r="F24" s="911"/>
+      <c r="G24" s="911"/>
+      <c r="H24" s="911"/>
+      <c r="I24" s="911"/>
+      <c r="J24" s="911"/>
+      <c r="K24" s="911"/>
     </row>
     <row r="25" spans="1:12" hidden="1">
-      <c r="A25" s="916"/>
-      <c r="B25" s="916"/>
-      <c r="C25" s="916"/>
-      <c r="D25" s="916"/>
-      <c r="E25" s="916"/>
-      <c r="F25" s="916"/>
-      <c r="G25" s="916"/>
-      <c r="H25" s="916"/>
-      <c r="I25" s="916"/>
-      <c r="J25" s="916"/>
-      <c r="K25" s="916"/>
+      <c r="A25" s="912"/>
+      <c r="B25" s="912"/>
+      <c r="C25" s="912"/>
+      <c r="D25" s="912"/>
+      <c r="E25" s="912"/>
+      <c r="F25" s="912"/>
+      <c r="G25" s="912"/>
+      <c r="H25" s="912"/>
+      <c r="I25" s="912"/>
+      <c r="J25" s="912"/>
+      <c r="K25" s="912"/>
     </row>
     <row r="26" spans="1:12" hidden="1">
-      <c r="A26" s="916"/>
-      <c r="B26" s="916"/>
-      <c r="C26" s="916"/>
-      <c r="D26" s="916"/>
-      <c r="E26" s="916"/>
-      <c r="F26" s="916"/>
-      <c r="G26" s="916"/>
-      <c r="H26" s="916"/>
-      <c r="I26" s="916"/>
-      <c r="J26" s="916"/>
-      <c r="K26" s="916"/>
+      <c r="A26" s="912"/>
+      <c r="B26" s="912"/>
+      <c r="C26" s="912"/>
+      <c r="D26" s="912"/>
+      <c r="E26" s="912"/>
+      <c r="F26" s="912"/>
+      <c r="G26" s="912"/>
+      <c r="H26" s="912"/>
+      <c r="I26" s="912"/>
+      <c r="J26" s="912"/>
+      <c r="K26" s="912"/>
     </row>
     <row r="27" spans="1:12" hidden="1">
-      <c r="A27" s="916"/>
-      <c r="B27" s="916"/>
-      <c r="C27" s="916"/>
-      <c r="D27" s="916"/>
-      <c r="E27" s="916"/>
-      <c r="F27" s="916"/>
-      <c r="G27" s="916"/>
-      <c r="H27" s="916"/>
-      <c r="I27" s="916"/>
-      <c r="J27" s="916"/>
-      <c r="K27" s="916"/>
+      <c r="A27" s="912"/>
+      <c r="B27" s="912"/>
+      <c r="C27" s="912"/>
+      <c r="D27" s="912"/>
+      <c r="E27" s="912"/>
+      <c r="F27" s="912"/>
+      <c r="G27" s="912"/>
+      <c r="H27" s="912"/>
+      <c r="I27" s="912"/>
+      <c r="J27" s="912"/>
+      <c r="K27" s="912"/>
     </row>
     <row r="28" spans="1:12" hidden="1">
-      <c r="A28" s="916"/>
-      <c r="B28" s="916"/>
-      <c r="C28" s="916"/>
-      <c r="D28" s="916"/>
-      <c r="E28" s="916"/>
-      <c r="F28" s="916"/>
-      <c r="G28" s="916"/>
-      <c r="H28" s="916"/>
-      <c r="I28" s="916"/>
-      <c r="J28" s="916"/>
-      <c r="K28" s="916"/>
+      <c r="A28" s="912"/>
+      <c r="B28" s="912"/>
+      <c r="C28" s="912"/>
+      <c r="D28" s="912"/>
+      <c r="E28" s="912"/>
+      <c r="F28" s="912"/>
+      <c r="G28" s="912"/>
+      <c r="H28" s="912"/>
+      <c r="I28" s="912"/>
+      <c r="J28" s="912"/>
+      <c r="K28" s="912"/>
     </row>
     <row r="29" spans="1:12" hidden="1">
-      <c r="A29" s="916"/>
-      <c r="B29" s="916"/>
-      <c r="C29" s="916"/>
-      <c r="D29" s="916"/>
-      <c r="E29" s="916"/>
-      <c r="F29" s="916"/>
-      <c r="G29" s="916"/>
-      <c r="H29" s="916"/>
-      <c r="I29" s="916"/>
-      <c r="J29" s="916"/>
-      <c r="K29" s="916"/>
+      <c r="A29" s="912"/>
+      <c r="B29" s="912"/>
+      <c r="C29" s="912"/>
+      <c r="D29" s="912"/>
+      <c r="E29" s="912"/>
+      <c r="F29" s="912"/>
+      <c r="G29" s="912"/>
+      <c r="H29" s="912"/>
+      <c r="I29" s="912"/>
+      <c r="J29" s="912"/>
+      <c r="K29" s="912"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A30" s="916"/>
-      <c r="B30" s="916"/>
-      <c r="C30" s="916"/>
-      <c r="D30" s="916"/>
-      <c r="E30" s="916"/>
-      <c r="F30" s="916"/>
-      <c r="G30" s="916"/>
-      <c r="H30" s="916"/>
-      <c r="I30" s="916"/>
-      <c r="J30" s="916"/>
-      <c r="K30" s="916"/>
+      <c r="A30" s="912"/>
+      <c r="B30" s="912"/>
+      <c r="C30" s="912"/>
+      <c r="D30" s="912"/>
+      <c r="E30" s="912"/>
+      <c r="F30" s="912"/>
+      <c r="G30" s="912"/>
+      <c r="H30" s="912"/>
+      <c r="I30" s="912"/>
+      <c r="J30" s="912"/>
+      <c r="K30" s="912"/>
     </row>
     <row r="31" spans="1:12" ht="201.75" customHeight="1" thickBot="1">
-      <c r="A31" s="917" t="s">
+      <c r="A31" s="913" t="s">
         <v>537</v>
       </c>
-      <c r="B31" s="918"/>
-      <c r="C31" s="918"/>
-      <c r="D31" s="918"/>
-      <c r="E31" s="918"/>
-      <c r="F31" s="918"/>
-      <c r="G31" s="918"/>
-      <c r="H31" s="918"/>
-      <c r="I31" s="918"/>
-      <c r="J31" s="918"/>
-      <c r="K31" s="919"/>
+      <c r="B31" s="914"/>
+      <c r="C31" s="914"/>
+      <c r="D31" s="914"/>
+      <c r="E31" s="914"/>
+      <c r="F31" s="914"/>
+      <c r="G31" s="914"/>
+      <c r="H31" s="914"/>
+      <c r="I31" s="914"/>
+      <c r="J31" s="914"/>
+      <c r="K31" s="915"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -29686,11 +29689,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="17">
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K30"/>
-    <mergeCell ref="A31:K31"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A5:K5"/>
@@ -29703,6 +29701,11 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K30"/>
+    <mergeCell ref="A31:K31"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:K18">
     <cfRule type="cellIs" dxfId="163" priority="2" stopIfTrue="1" operator="equal">
@@ -30257,13 +30260,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="935" t="s">
+      <c r="A1" s="922" t="s">
         <v>625</v>
       </c>
-      <c r="B1" s="936"/>
-      <c r="C1" s="936"/>
-      <c r="D1" s="936"/>
-      <c r="E1" s="936"/>
+      <c r="B1" s="923"/>
+      <c r="C1" s="923"/>
+      <c r="D1" s="923"/>
+      <c r="E1" s="923"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="717"/>
@@ -30276,23 +30279,23 @@
       <c r="A3" s="718" t="s">
         <v>626</v>
       </c>
-      <c r="B3" s="937">
+      <c r="B3" s="924">
         <f>'QC Test Summary-Siemens'!C4</f>
         <v>0</v>
       </c>
-      <c r="C3" s="937"/>
-      <c r="D3" s="937"/>
-      <c r="E3" s="937"/>
+      <c r="C3" s="924"/>
+      <c r="D3" s="924"/>
+      <c r="E3" s="924"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="718" t="s">
         <v>627</v>
       </c>
-      <c r="B4" s="938" t="str">
+      <c r="B4" s="925" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="C4" s="938"/>
+      <c r="C4" s="925"/>
       <c r="D4" s="719" t="s">
         <v>43</v>
       </c>
@@ -30322,11 +30325,11 @@
       <c r="A6" s="718" t="s">
         <v>630</v>
       </c>
-      <c r="B6" s="938" t="str">
+      <c r="B6" s="925" t="str">
         <f>Sheet1!X7</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="C6" s="938"/>
+      <c r="C6" s="925"/>
       <c r="D6" s="719" t="s">
         <v>631</v>
       </c>
@@ -30339,8 +30342,8 @@
       <c r="A7" s="718" t="s">
         <v>632</v>
       </c>
-      <c r="B7" s="938"/>
-      <c r="C7" s="938"/>
+      <c r="B7" s="925"/>
+      <c r="C7" s="925"/>
       <c r="D7" s="719" t="s">
         <v>633</v>
       </c>
@@ -30368,7 +30371,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" thickTop="1">
-      <c r="A10" s="934" t="s">
+      <c r="A10" s="920" t="s">
         <v>638</v>
       </c>
       <c r="B10" s="726" t="s">
@@ -30383,7 +30386,7 @@
       <c r="E10" s="729"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A11" s="930"/>
+      <c r="A11" s="921"/>
       <c r="B11" s="730" t="s">
         <v>642</v>
       </c>
@@ -30396,7 +30399,7 @@
       <c r="E11" s="733"/>
     </row>
     <row r="12" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A12" s="925" t="s">
+      <c r="A12" s="931" t="s">
         <v>644</v>
       </c>
       <c r="B12" s="734" t="s">
@@ -30411,7 +30414,7 @@
       <c r="E12" s="737"/>
     </row>
     <row r="13" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A13" s="926"/>
+      <c r="A13" s="932"/>
       <c r="B13" s="738" t="s">
         <v>648</v>
       </c>
@@ -30424,7 +30427,7 @@
       <c r="E13" s="741"/>
     </row>
     <row r="14" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A14" s="927"/>
+      <c r="A14" s="933"/>
       <c r="B14" s="742" t="s">
         <v>650</v>
       </c>
@@ -30437,7 +30440,7 @@
       <c r="E14" s="744"/>
     </row>
     <row r="15" spans="1:5" ht="56.25">
-      <c r="A15" s="928" t="s">
+      <c r="A15" s="934" t="s">
         <v>652</v>
       </c>
       <c r="B15" s="745" t="s">
@@ -30452,7 +30455,7 @@
       <c r="E15" s="747"/>
     </row>
     <row r="16" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A16" s="929"/>
+      <c r="A16" s="935"/>
       <c r="B16" s="730" t="s">
         <v>655</v>
       </c>
@@ -30465,7 +30468,7 @@
       <c r="E16" s="749"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A17" s="920" t="s">
+      <c r="A17" s="926" t="s">
         <v>657</v>
       </c>
       <c r="B17" s="750" t="s">
@@ -30480,7 +30483,7 @@
       <c r="E17" s="751"/>
     </row>
     <row r="18" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A18" s="930"/>
+      <c r="A18" s="921"/>
       <c r="B18" s="752" t="s">
         <v>660</v>
       </c>
@@ -30493,7 +30496,7 @@
       <c r="E18" s="733"/>
     </row>
     <row r="19" spans="1:5" ht="33.75">
-      <c r="A19" s="931" t="s">
+      <c r="A19" s="936" t="s">
         <v>662</v>
       </c>
       <c r="B19" s="750" t="s">
@@ -30508,7 +30511,7 @@
       <c r="E19" s="751"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A20" s="932"/>
+      <c r="A20" s="937"/>
       <c r="B20" s="754" t="s">
         <v>665</v>
       </c>
@@ -30521,7 +30524,7 @@
       <c r="E20" s="756"/>
     </row>
     <row r="21" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A21" s="933"/>
+      <c r="A21" s="938"/>
       <c r="B21" s="752" t="s">
         <v>667</v>
       </c>
@@ -30534,7 +30537,7 @@
       <c r="E21" s="733"/>
     </row>
     <row r="22" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A22" s="920" t="s">
+      <c r="A22" s="926" t="s">
         <v>669</v>
       </c>
       <c r="B22" s="750" t="s">
@@ -30549,7 +30552,7 @@
       <c r="E22" s="751"/>
     </row>
     <row r="23" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A23" s="930"/>
+      <c r="A23" s="921"/>
       <c r="B23" s="730" t="s">
         <v>672</v>
       </c>
@@ -30562,7 +30565,7 @@
       <c r="E23" s="749"/>
     </row>
     <row r="24" spans="1:5" ht="33.75">
-      <c r="A24" s="931" t="s">
+      <c r="A24" s="936" t="s">
         <v>674</v>
       </c>
       <c r="B24" s="750" t="s">
@@ -30577,7 +30580,7 @@
       <c r="E24" s="751"/>
     </row>
     <row r="25" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A25" s="932"/>
+      <c r="A25" s="937"/>
       <c r="B25" s="754" t="s">
         <v>677</v>
       </c>
@@ -30590,7 +30593,7 @@
       <c r="E25" s="756"/>
     </row>
     <row r="26" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A26" s="932"/>
+      <c r="A26" s="937"/>
       <c r="B26" s="757" t="s">
         <v>679</v>
       </c>
@@ -30603,7 +30606,7 @@
       <c r="E26" s="756"/>
     </row>
     <row r="27" spans="1:5" ht="22.5">
-      <c r="A27" s="932"/>
+      <c r="A27" s="937"/>
       <c r="B27" s="757" t="s">
         <v>681</v>
       </c>
@@ -30616,7 +30619,7 @@
       <c r="E27" s="756"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A28" s="933"/>
+      <c r="A28" s="938"/>
       <c r="B28" s="758" t="s">
         <v>683</v>
       </c>
@@ -30629,7 +30632,7 @@
       <c r="E28" s="749"/>
     </row>
     <row r="29" spans="1:5" ht="22.5">
-      <c r="A29" s="920" t="s">
+      <c r="A29" s="926" t="s">
         <v>685</v>
       </c>
       <c r="B29" s="759" t="s">
@@ -30644,7 +30647,7 @@
       <c r="E29" s="751"/>
     </row>
     <row r="30" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A30" s="921"/>
+      <c r="A30" s="927"/>
       <c r="B30" s="757" t="s">
         <v>688</v>
       </c>
@@ -30657,7 +30660,7 @@
       <c r="E30" s="756"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A31" s="922"/>
+      <c r="A31" s="928"/>
       <c r="B31" s="758" t="s">
         <v>690</v>
       </c>
@@ -30670,7 +30673,7 @@
       <c r="E31" s="749"/>
     </row>
     <row r="32" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A32" s="920" t="s">
+      <c r="A32" s="926" t="s">
         <v>692</v>
       </c>
       <c r="B32" s="759" t="s">
@@ -30685,7 +30688,7 @@
       <c r="E32" s="751"/>
     </row>
     <row r="33" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A33" s="921"/>
+      <c r="A33" s="927"/>
       <c r="B33" s="757" t="s">
         <v>695</v>
       </c>
@@ -30698,7 +30701,7 @@
       <c r="E33" s="756"/>
     </row>
     <row r="34" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A34" s="922"/>
+      <c r="A34" s="928"/>
       <c r="B34" s="758" t="s">
         <v>696</v>
       </c>
@@ -30786,13 +30789,13 @@
       <c r="E39" s="733"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="923" t="s">
+      <c r="A40" s="929" t="s">
         <v>761</v>
       </c>
-      <c r="B40" s="924"/>
-      <c r="C40" s="924"/>
-      <c r="D40" s="924"/>
-      <c r="E40" s="924"/>
+      <c r="B40" s="930"/>
+      <c r="C40" s="930"/>
+      <c r="D40" s="930"/>
+      <c r="E40" s="930"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="768"/>
@@ -31507,12 +31510,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="15">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A40:E40"/>
@@ -31522,6 +31519,12 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E10 JA10 SW10 ACS10 AMO10 AWK10 BGG10 BQC10 BZY10 CJU10 CTQ10 DDM10 DNI10 DXE10 EHA10 EQW10 FAS10 FKO10 FUK10 GEG10 GOC10 GXY10 HHU10 HRQ10 IBM10 ILI10 IVE10 JFA10 JOW10 JYS10 KIO10 KSK10 LCG10 LMC10 LVY10 MFU10 MPQ10 MZM10 NJI10 NTE10 ODA10 OMW10 OWS10 PGO10 PQK10 QAG10 QKC10 QTY10 RDU10 RNQ10 RXM10 SHI10 SRE10 TBA10 TKW10 TUS10 UEO10 UOK10 UYG10 VIC10 VRY10 WBU10 WLQ10 WVM10 E65546 JA65546 SW65546 ACS65546 AMO65546 AWK65546 BGG65546 BQC65546 BZY65546 CJU65546 CTQ65546 DDM65546 DNI65546 DXE65546 EHA65546 EQW65546 FAS65546 FKO65546 FUK65546 GEG65546 GOC65546 GXY65546 HHU65546 HRQ65546 IBM65546 ILI65546 IVE65546 JFA65546 JOW65546 JYS65546 KIO65546 KSK65546 LCG65546 LMC65546 LVY65546 MFU65546 MPQ65546 MZM65546 NJI65546 NTE65546 ODA65546 OMW65546 OWS65546 PGO65546 PQK65546 QAG65546 QKC65546 QTY65546 RDU65546 RNQ65546 RXM65546 SHI65546 SRE65546 TBA65546 TKW65546 TUS65546 UEO65546 UOK65546 UYG65546 VIC65546 VRY65546 WBU65546 WLQ65546 WVM65546 E131082 JA131082 SW131082 ACS131082 AMO131082 AWK131082 BGG131082 BQC131082 BZY131082 CJU131082 CTQ131082 DDM131082 DNI131082 DXE131082 EHA131082 EQW131082 FAS131082 FKO131082 FUK131082 GEG131082 GOC131082 GXY131082 HHU131082 HRQ131082 IBM131082 ILI131082 IVE131082 JFA131082 JOW131082 JYS131082 KIO131082 KSK131082 LCG131082 LMC131082 LVY131082 MFU131082 MPQ131082 MZM131082 NJI131082 NTE131082 ODA131082 OMW131082 OWS131082 PGO131082 PQK131082 QAG131082 QKC131082 QTY131082 RDU131082 RNQ131082 RXM131082 SHI131082 SRE131082 TBA131082 TKW131082 TUS131082 UEO131082 UOK131082 UYG131082 VIC131082 VRY131082 WBU131082 WLQ131082 WVM131082 E196618 JA196618 SW196618 ACS196618 AMO196618 AWK196618 BGG196618 BQC196618 BZY196618 CJU196618 CTQ196618 DDM196618 DNI196618 DXE196618 EHA196618 EQW196618 FAS196618 FKO196618 FUK196618 GEG196618 GOC196618 GXY196618 HHU196618 HRQ196618 IBM196618 ILI196618 IVE196618 JFA196618 JOW196618 JYS196618 KIO196618 KSK196618 LCG196618 LMC196618 LVY196618 MFU196618 MPQ196618 MZM196618 NJI196618 NTE196618 ODA196618 OMW196618 OWS196618 PGO196618 PQK196618 QAG196618 QKC196618 QTY196618 RDU196618 RNQ196618 RXM196618 SHI196618 SRE196618 TBA196618 TKW196618 TUS196618 UEO196618 UOK196618 UYG196618 VIC196618 VRY196618 WBU196618 WLQ196618 WVM196618 E262154 JA262154 SW262154 ACS262154 AMO262154 AWK262154 BGG262154 BQC262154 BZY262154 CJU262154 CTQ262154 DDM262154 DNI262154 DXE262154 EHA262154 EQW262154 FAS262154 FKO262154 FUK262154 GEG262154 GOC262154 GXY262154 HHU262154 HRQ262154 IBM262154 ILI262154 IVE262154 JFA262154 JOW262154 JYS262154 KIO262154 KSK262154 LCG262154 LMC262154 LVY262154 MFU262154 MPQ262154 MZM262154 NJI262154 NTE262154 ODA262154 OMW262154 OWS262154 PGO262154 PQK262154 QAG262154 QKC262154 QTY262154 RDU262154 RNQ262154 RXM262154 SHI262154 SRE262154 TBA262154 TKW262154 TUS262154 UEO262154 UOK262154 UYG262154 VIC262154 VRY262154 WBU262154 WLQ262154 WVM262154 E327690 JA327690 SW327690 ACS327690 AMO327690 AWK327690 BGG327690 BQC327690 BZY327690 CJU327690 CTQ327690 DDM327690 DNI327690 DXE327690 EHA327690 EQW327690 FAS327690 FKO327690 FUK327690 GEG327690 GOC327690 GXY327690 HHU327690 HRQ327690 IBM327690 ILI327690 IVE327690 JFA327690 JOW327690 JYS327690 KIO327690 KSK327690 LCG327690 LMC327690 LVY327690 MFU327690 MPQ327690 MZM327690 NJI327690 NTE327690 ODA327690 OMW327690 OWS327690 PGO327690 PQK327690 QAG327690 QKC327690 QTY327690 RDU327690 RNQ327690 RXM327690 SHI327690 SRE327690 TBA327690 TKW327690 TUS327690 UEO327690 UOK327690 UYG327690 VIC327690 VRY327690 WBU327690 WLQ327690 WVM327690 E393226 JA393226 SW393226 ACS393226 AMO393226 AWK393226 BGG393226 BQC393226 BZY393226 CJU393226 CTQ393226 DDM393226 DNI393226 DXE393226 EHA393226 EQW393226 FAS393226 FKO393226 FUK393226 GEG393226 GOC393226 GXY393226 HHU393226 HRQ393226 IBM393226 ILI393226 IVE393226 JFA393226 JOW393226 JYS393226 KIO393226 KSK393226 LCG393226 LMC393226 LVY393226 MFU393226 MPQ393226 MZM393226 NJI393226 NTE393226 ODA393226 OMW393226 OWS393226 PGO393226 PQK393226 QAG393226 QKC393226 QTY393226 RDU393226 RNQ393226 RXM393226 SHI393226 SRE393226 TBA393226 TKW393226 TUS393226 UEO393226 UOK393226 UYG393226 VIC393226 VRY393226 WBU393226 WLQ393226 WVM393226 E458762 JA458762 SW458762 ACS458762 AMO458762 AWK458762 BGG458762 BQC458762 BZY458762 CJU458762 CTQ458762 DDM458762 DNI458762 DXE458762 EHA458762 EQW458762 FAS458762 FKO458762 FUK458762 GEG458762 GOC458762 GXY458762 HHU458762 HRQ458762 IBM458762 ILI458762 IVE458762 JFA458762 JOW458762 JYS458762 KIO458762 KSK458762 LCG458762 LMC458762 LVY458762 MFU458762 MPQ458762 MZM458762 NJI458762 NTE458762 ODA458762 OMW458762 OWS458762 PGO458762 PQK458762 QAG458762 QKC458762 QTY458762 RDU458762 RNQ458762 RXM458762 SHI458762 SRE458762 TBA458762 TKW458762 TUS458762 UEO458762 UOK458762 UYG458762 VIC458762 VRY458762 WBU458762 WLQ458762 WVM458762 E524298 JA524298 SW524298 ACS524298 AMO524298 AWK524298 BGG524298 BQC524298 BZY524298 CJU524298 CTQ524298 DDM524298 DNI524298 DXE524298 EHA524298 EQW524298 FAS524298 FKO524298 FUK524298 GEG524298 GOC524298 GXY524298 HHU524298 HRQ524298 IBM524298 ILI524298 IVE524298 JFA524298 JOW524298 JYS524298 KIO524298 KSK524298 LCG524298 LMC524298 LVY524298 MFU524298 MPQ524298 MZM524298 NJI524298 NTE524298 ODA524298 OMW524298 OWS524298 PGO524298 PQK524298 QAG524298 QKC524298 QTY524298 RDU524298 RNQ524298 RXM524298 SHI524298 SRE524298 TBA524298 TKW524298 TUS524298 UEO524298 UOK524298 UYG524298 VIC524298 VRY524298 WBU524298 WLQ524298 WVM524298 E589834 JA589834 SW589834 ACS589834 AMO589834 AWK589834 BGG589834 BQC589834 BZY589834 CJU589834 CTQ589834 DDM589834 DNI589834 DXE589834 EHA589834 EQW589834 FAS589834 FKO589834 FUK589834 GEG589834 GOC589834 GXY589834 HHU589834 HRQ589834 IBM589834 ILI589834 IVE589834 JFA589834 JOW589834 JYS589834 KIO589834 KSK589834 LCG589834 LMC589834 LVY589834 MFU589834 MPQ589834 MZM589834 NJI589834 NTE589834 ODA589834 OMW589834 OWS589834 PGO589834 PQK589834 QAG589834 QKC589834 QTY589834 RDU589834 RNQ589834 RXM589834 SHI589834 SRE589834 TBA589834 TKW589834 TUS589834 UEO589834 UOK589834 UYG589834 VIC589834 VRY589834 WBU589834 WLQ589834 WVM589834 E655370 JA655370 SW655370 ACS655370 AMO655370 AWK655370 BGG655370 BQC655370 BZY655370 CJU655370 CTQ655370 DDM655370 DNI655370 DXE655370 EHA655370 EQW655370 FAS655370 FKO655370 FUK655370 GEG655370 GOC655370 GXY655370 HHU655370 HRQ655370 IBM655370 ILI655370 IVE655370 JFA655370 JOW655370 JYS655370 KIO655370 KSK655370 LCG655370 LMC655370 LVY655370 MFU655370 MPQ655370 MZM655370 NJI655370 NTE655370 ODA655370 OMW655370 OWS655370 PGO655370 PQK655370 QAG655370 QKC655370 QTY655370 RDU655370 RNQ655370 RXM655370 SHI655370 SRE655370 TBA655370 TKW655370 TUS655370 UEO655370 UOK655370 UYG655370 VIC655370 VRY655370 WBU655370 WLQ655370 WVM655370 E720906 JA720906 SW720906 ACS720906 AMO720906 AWK720906 BGG720906 BQC720906 BZY720906 CJU720906 CTQ720906 DDM720906 DNI720906 DXE720906 EHA720906 EQW720906 FAS720906 FKO720906 FUK720906 GEG720906 GOC720906 GXY720906 HHU720906 HRQ720906 IBM720906 ILI720906 IVE720906 JFA720906 JOW720906 JYS720906 KIO720906 KSK720906 LCG720906 LMC720906 LVY720906 MFU720906 MPQ720906 MZM720906 NJI720906 NTE720906 ODA720906 OMW720906 OWS720906 PGO720906 PQK720906 QAG720906 QKC720906 QTY720906 RDU720906 RNQ720906 RXM720906 SHI720906 SRE720906 TBA720906 TKW720906 TUS720906 UEO720906 UOK720906 UYG720906 VIC720906 VRY720906 WBU720906 WLQ720906 WVM720906 E786442 JA786442 SW786442 ACS786442 AMO786442 AWK786442 BGG786442 BQC786442 BZY786442 CJU786442 CTQ786442 DDM786442 DNI786442 DXE786442 EHA786442 EQW786442 FAS786442 FKO786442 FUK786442 GEG786442 GOC786442 GXY786442 HHU786442 HRQ786442 IBM786442 ILI786442 IVE786442 JFA786442 JOW786442 JYS786442 KIO786442 KSK786442 LCG786442 LMC786442 LVY786442 MFU786442 MPQ786442 MZM786442 NJI786442 NTE786442 ODA786442 OMW786442 OWS786442 PGO786442 PQK786442 QAG786442 QKC786442 QTY786442 RDU786442 RNQ786442 RXM786442 SHI786442 SRE786442 TBA786442 TKW786442 TUS786442 UEO786442 UOK786442 UYG786442 VIC786442 VRY786442 WBU786442 WLQ786442 WVM786442 E851978 JA851978 SW851978 ACS851978 AMO851978 AWK851978 BGG851978 BQC851978 BZY851978 CJU851978 CTQ851978 DDM851978 DNI851978 DXE851978 EHA851978 EQW851978 FAS851978 FKO851978 FUK851978 GEG851978 GOC851978 GXY851978 HHU851978 HRQ851978 IBM851978 ILI851978 IVE851978 JFA851978 JOW851978 JYS851978 KIO851978 KSK851978 LCG851978 LMC851978 LVY851978 MFU851978 MPQ851978 MZM851978 NJI851978 NTE851978 ODA851978 OMW851978 OWS851978 PGO851978 PQK851978 QAG851978 QKC851978 QTY851978 RDU851978 RNQ851978 RXM851978 SHI851978 SRE851978 TBA851978 TKW851978 TUS851978 UEO851978 UOK851978 UYG851978 VIC851978 VRY851978 WBU851978 WLQ851978 WVM851978 E917514 JA917514 SW917514 ACS917514 AMO917514 AWK917514 BGG917514 BQC917514 BZY917514 CJU917514 CTQ917514 DDM917514 DNI917514 DXE917514 EHA917514 EQW917514 FAS917514 FKO917514 FUK917514 GEG917514 GOC917514 GXY917514 HHU917514 HRQ917514 IBM917514 ILI917514 IVE917514 JFA917514 JOW917514 JYS917514 KIO917514 KSK917514 LCG917514 LMC917514 LVY917514 MFU917514 MPQ917514 MZM917514 NJI917514 NTE917514 ODA917514 OMW917514 OWS917514 PGO917514 PQK917514 QAG917514 QKC917514 QTY917514 RDU917514 RNQ917514 RXM917514 SHI917514 SRE917514 TBA917514 TKW917514 TUS917514 UEO917514 UOK917514 UYG917514 VIC917514 VRY917514 WBU917514 WLQ917514 WVM917514 E983050 JA983050 SW983050 ACS983050 AMO983050 AWK983050 BGG983050 BQC983050 BZY983050 CJU983050 CTQ983050 DDM983050 DNI983050 DXE983050 EHA983050 EQW983050 FAS983050 FKO983050 FUK983050 GEG983050 GOC983050 GXY983050 HHU983050 HRQ983050 IBM983050 ILI983050 IVE983050 JFA983050 JOW983050 JYS983050 KIO983050 KSK983050 LCG983050 LMC983050 LVY983050 MFU983050 MPQ983050 MZM983050 NJI983050 NTE983050 ODA983050 OMW983050 OWS983050 PGO983050 PQK983050 QAG983050 QKC983050 QTY983050 RDU983050 RNQ983050 RXM983050 SHI983050 SRE983050 TBA983050 TKW983050 TUS983050 UEO983050 UOK983050 UYG983050 VIC983050 VRY983050 WBU983050 WLQ983050 WVM983050"/>
@@ -33537,8 +33540,8 @@
   </sheetPr>
   <dimension ref="A1:AR518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA92" sqref="AA92"/>
+    <sheetView tabSelected="1" topLeftCell="O30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" customHeight="1"/>
@@ -33888,19 +33891,19 @@
       <c r="E10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="949" t="str">
+      <c r="F10" s="973" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="949"/>
+      <c r="G10" s="973"/>
       <c r="J10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="942" t="str">
+      <c r="K10" s="965" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="942"/>
+      <c r="L10" s="965"/>
       <c r="M10" s="68"/>
       <c r="O10" s="29"/>
       <c r="Q10" s="34" t="s">
@@ -33965,19 +33968,19 @@
       <c r="E11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="950" t="str">
+      <c r="F11" s="974" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="950"/>
+      <c r="G11" s="974"/>
       <c r="J11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="942" t="str">
+      <c r="K11" s="965" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="942"/>
+      <c r="L11" s="965"/>
       <c r="M11" s="68"/>
       <c r="O11" s="29"/>
       <c r="Q11" s="34" t="s">
@@ -34042,19 +34045,19 @@
       <c r="E12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="950" t="str">
+      <c r="F12" s="974" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="950"/>
+      <c r="G12" s="974"/>
       <c r="J12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="948" t="str">
+      <c r="K12" s="975" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="948"/>
+      <c r="L12" s="975"/>
       <c r="M12" s="68"/>
       <c r="O12" s="29"/>
       <c r="Q12" s="34" t="s">
@@ -34119,19 +34122,19 @@
       <c r="E13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="950" t="str">
+      <c r="F13" s="974" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="950"/>
+      <c r="G13" s="974"/>
       <c r="J13" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="942" t="str">
+      <c r="K13" s="965" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="942"/>
+      <c r="L13" s="965"/>
       <c r="M13" s="68"/>
       <c r="O13" s="29"/>
       <c r="Q13" s="34" t="s">
@@ -34305,19 +34308,19 @@
       <c r="E16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="942" t="str">
+      <c r="F16" s="965" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="942"/>
+      <c r="G16" s="965"/>
       <c r="J16" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="948" t="str">
+      <c r="K16" s="975" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="948"/>
+      <c r="L16" s="975"/>
       <c r="M16" s="68"/>
       <c r="O16" s="29"/>
       <c r="P16" s="74" t="s">
@@ -34369,19 +34372,19 @@
       <c r="E17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="942" t="str">
+      <c r="F17" s="965" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="942"/>
+      <c r="G17" s="965"/>
       <c r="J17" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="951" t="str">
+      <c r="K17" s="976" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="951"/>
+      <c r="L17" s="976"/>
       <c r="M17" s="68"/>
       <c r="O17" s="29"/>
       <c r="Q17" s="34" t="s">
@@ -34446,19 +34449,19 @@
       <c r="E18" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="942" t="str">
+      <c r="F18" s="965" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="942"/>
+      <c r="G18" s="965"/>
       <c r="J18" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="942" t="str">
+      <c r="K18" s="965" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="942"/>
+      <c r="L18" s="965"/>
       <c r="M18" s="68"/>
       <c r="O18" s="29"/>
       <c r="Q18" s="34" t="s">
@@ -34624,19 +34627,19 @@
       <c r="E21" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="942" t="str">
+      <c r="F21" s="965" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="942"/>
+      <c r="G21" s="965"/>
       <c r="J21" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="942" t="str">
+      <c r="K21" s="965" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L21" s="942"/>
+      <c r="L21" s="965"/>
       <c r="M21" s="68"/>
       <c r="O21" s="29"/>
       <c r="P21" s="74" t="s">
@@ -34696,17 +34699,17 @@
       <c r="E22" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="948" t="str">
+      <c r="F22" s="975" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="948"/>
+      <c r="G22" s="975"/>
       <c r="J22" s="34"/>
-      <c r="K22" s="942" t="str">
+      <c r="K22" s="965" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="942"/>
+      <c r="L22" s="965"/>
       <c r="M22" s="68"/>
       <c r="O22" s="29"/>
       <c r="Q22" s="34" t="s">
@@ -34771,11 +34774,11 @@
       <c r="J23" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="942" t="str">
+      <c r="K23" s="965" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="942"/>
+      <c r="L23" s="965"/>
       <c r="M23" s="68"/>
       <c r="O23" s="29"/>
       <c r="Q23" s="34" t="s">
@@ -34834,16 +34837,16 @@
       <c r="E24" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="942" t="str">
+      <c r="F24" s="965" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="942"/>
-      <c r="K24" s="942" t="str">
+      <c r="G24" s="965"/>
+      <c r="K24" s="965" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="942"/>
+      <c r="L24" s="965"/>
       <c r="M24" s="68"/>
       <c r="O24" s="29"/>
       <c r="P24" s="74" t="s">
@@ -34903,17 +34906,17 @@
       <c r="E25" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="942" t="str">
+      <c r="F25" s="965" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="942"/>
+      <c r="G25" s="965"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="942" t="str">
+      <c r="K25" s="965" t="str">
         <f>IF(V26="","",V26)</f>
         <v/>
       </c>
-      <c r="L25" s="942"/>
+      <c r="L25" s="965"/>
       <c r="M25" s="68"/>
       <c r="O25" s="29"/>
       <c r="Q25" s="34" t="s">
@@ -34975,11 +34978,11 @@
       <c r="E26" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="942" t="str">
+      <c r="F26" s="965" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="942"/>
+      <c r="G26" s="965"/>
       <c r="I26" s="74" t="s">
         <v>54</v>
       </c>
@@ -35047,11 +35050,11 @@
       <c r="J27" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="K27" s="942" t="str">
+      <c r="K27" s="965" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="942"/>
+      <c r="L27" s="965"/>
       <c r="M27" s="68"/>
       <c r="O27" s="29"/>
       <c r="Q27" s="34" t="s">
@@ -35102,20 +35105,20 @@
       <c r="E28" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="942" t="str">
+      <c r="F28" s="965" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="942"/>
+      <c r="G28" s="965"/>
       <c r="I28" s="4"/>
       <c r="J28" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="K28" s="942" t="str">
+      <c r="K28" s="965" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="942"/>
+      <c r="L28" s="965"/>
       <c r="M28" s="68"/>
       <c r="O28" s="29"/>
       <c r="P28" s="74" t="s">
@@ -35175,22 +35178,22 @@
       <c r="E29" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="942" t="str">
+      <c r="F29" s="965" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="942"/>
+      <c r="G29" s="965"/>
       <c r="I29" s="74" t="s">
         <v>58</v>
       </c>
       <c r="J29" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="K29" s="942" t="str">
+      <c r="K29" s="965" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="942"/>
+      <c r="L29" s="965"/>
       <c r="M29" s="68"/>
       <c r="O29" s="29"/>
       <c r="Q29" s="34" t="s">
@@ -35255,19 +35258,19 @@
       <c r="E30" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="942" t="str">
+      <c r="F30" s="965" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="942"/>
+      <c r="G30" s="965"/>
       <c r="J30" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="942" t="str">
+      <c r="K30" s="965" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="942"/>
+      <c r="L30" s="965"/>
       <c r="M30" s="68"/>
       <c r="O30" s="29"/>
       <c r="Q30" s="34" t="s">
@@ -35558,21 +35561,21 @@
       <c r="C35" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="952" t="s">
+      <c r="D35" s="972" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="952"/>
-      <c r="F35" s="952"/>
-      <c r="G35" s="952" t="s">
+      <c r="E35" s="972"/>
+      <c r="F35" s="972"/>
+      <c r="G35" s="972" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="952"/>
-      <c r="I35" s="952"/>
-      <c r="J35" s="952" t="s">
+      <c r="H35" s="972"/>
+      <c r="I35" s="972"/>
+      <c r="J35" s="972" t="s">
         <v>65</v>
       </c>
-      <c r="K35" s="952"/>
-      <c r="L35" s="952"/>
+      <c r="K35" s="972"/>
+      <c r="L35" s="972"/>
       <c r="M35" s="68"/>
       <c r="O35" s="869"/>
       <c r="P35" s="870" t="s">
@@ -35634,11 +35637,11 @@
       <c r="D36" s="530"/>
       <c r="E36" s="531"/>
       <c r="F36" s="536"/>
-      <c r="G36" s="953" t="s">
+      <c r="G36" s="968" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="953"/>
-      <c r="I36" s="953"/>
+      <c r="H36" s="968"/>
+      <c r="I36" s="968"/>
       <c r="J36" s="530"/>
       <c r="K36" s="531"/>
       <c r="L36" s="536"/>
@@ -35981,7 +35984,7 @@
       <c r="M40" s="68"/>
       <c r="O40" s="95"/>
       <c r="P40" s="35" t="s">
-        <v>79</v>
+        <v>784</v>
       </c>
       <c r="Y40" s="31"/>
       <c r="AA40" s="34" t="s">
@@ -36211,10 +36214,10 @@
       <c r="C44" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="L44" s="954" t="s">
+      <c r="L44" s="969" t="s">
         <v>88</v>
       </c>
-      <c r="M44" s="954"/>
+      <c r="M44" s="969"/>
       <c r="O44" s="871"/>
       <c r="P44" s="872" t="str">
         <f>IF(OR(O35="",O35=1),"Unit installed as shown on shielding plan","")</f>
@@ -39795,7 +39798,7 @@
         <v>65</v>
       </c>
       <c r="W121" s="956"/>
-      <c r="X121" s="961"/>
+      <c r="X121" s="970"/>
       <c r="Y121" s="31"/>
       <c r="AA121" s="34" t="s">
         <v>196</v>
@@ -39852,7 +39855,7 @@
       <c r="U122" s="960"/>
       <c r="V122" s="958"/>
       <c r="W122" s="959"/>
-      <c r="X122" s="962"/>
+      <c r="X122" s="971"/>
       <c r="Y122" s="31"/>
       <c r="AA122" s="34" t="s">
         <v>197</v>
@@ -40349,11 +40352,11 @@
       </c>
       <c r="T129" s="956"/>
       <c r="U129" s="957"/>
-      <c r="V129" s="963" t="s">
+      <c r="V129" s="961" t="s">
         <v>65</v>
       </c>
-      <c r="W129" s="964"/>
-      <c r="X129" s="965"/>
+      <c r="W129" s="962"/>
+      <c r="X129" s="963"/>
       <c r="Y129" s="31"/>
       <c r="AA129" s="34" t="s">
         <v>589</v>
@@ -40408,9 +40411,9 @@
       <c r="S130" s="958"/>
       <c r="T130" s="959"/>
       <c r="U130" s="960"/>
-      <c r="V130" s="966"/>
-      <c r="W130" s="942"/>
-      <c r="X130" s="967"/>
+      <c r="V130" s="964"/>
+      <c r="W130" s="965"/>
+      <c r="X130" s="966"/>
       <c r="Y130" s="31"/>
       <c r="AA130" s="34" t="s">
         <v>590</v>
@@ -42081,12 +42084,12 @@
       <c r="L173" s="67"/>
       <c r="M173" s="68"/>
       <c r="O173" s="29"/>
-      <c r="P173" s="946" t="s">
+      <c r="P173" s="967" t="s">
         <v>225</v>
       </c>
-      <c r="Q173" s="946"/>
-      <c r="R173" s="946"/>
-      <c r="S173" s="946"/>
+      <c r="Q173" s="967"/>
+      <c r="R173" s="967"/>
+      <c r="S173" s="967"/>
       <c r="U173" s="534" t="s">
         <v>226</v>
       </c>
@@ -42256,12 +42259,12 @@
       </c>
       <c r="B179" s="66"/>
       <c r="C179" s="67"/>
-      <c r="D179" s="946" t="s">
+      <c r="D179" s="967" t="s">
         <v>225</v>
       </c>
-      <c r="E179" s="946"/>
-      <c r="F179" s="946"/>
-      <c r="G179" s="946"/>
+      <c r="E179" s="967"/>
+      <c r="F179" s="967"/>
+      <c r="G179" s="967"/>
       <c r="H179" s="67"/>
       <c r="I179" s="534" t="s">
         <v>226</v>
@@ -42399,17 +42402,17 @@
       <c r="M182" s="68"/>
       <c r="O182" s="29"/>
       <c r="P182" s="67"/>
-      <c r="Q182" s="939" t="s">
+      <c r="Q182" s="945" t="s">
         <v>237</v>
       </c>
-      <c r="R182" s="939"/>
-      <c r="S182" s="939"/>
+      <c r="R182" s="945"/>
+      <c r="S182" s="945"/>
       <c r="T182" s="4"/>
-      <c r="U182" s="939" t="s">
+      <c r="U182" s="945" t="s">
         <v>237</v>
       </c>
-      <c r="V182" s="939"/>
-      <c r="W182" s="939"/>
+      <c r="V182" s="945"/>
+      <c r="W182" s="945"/>
       <c r="X182" s="4"/>
       <c r="Y182" s="31"/>
     </row>
@@ -42538,22 +42541,22 @@
       </c>
       <c r="B186" s="66"/>
       <c r="C186" s="106"/>
-      <c r="D186" s="943" t="s">
+      <c r="D186" s="979" t="s">
         <v>237</v>
       </c>
-      <c r="E186" s="944"/>
-      <c r="F186" s="945"/>
+      <c r="E186" s="980"/>
+      <c r="F186" s="981"/>
       <c r="G186" s="160"/>
-      <c r="H186" s="943" t="s">
+      <c r="H186" s="979" t="s">
         <v>237</v>
       </c>
-      <c r="I186" s="944"/>
-      <c r="J186" s="945"/>
-      <c r="K186" s="943" t="s">
+      <c r="I186" s="980"/>
+      <c r="J186" s="981"/>
+      <c r="K186" s="979" t="s">
         <v>237</v>
       </c>
-      <c r="L186" s="944"/>
-      <c r="M186" s="947"/>
+      <c r="L186" s="980"/>
+      <c r="M186" s="982"/>
       <c r="O186" s="159"/>
       <c r="P186" s="160" t="s">
         <v>243</v>
@@ -43026,17 +43029,17 @@
       <c r="M194" s="68"/>
       <c r="O194" s="159"/>
       <c r="P194" s="67"/>
-      <c r="Q194" s="939" t="s">
+      <c r="Q194" s="945" t="s">
         <v>237</v>
       </c>
-      <c r="R194" s="939"/>
-      <c r="S194" s="939"/>
+      <c r="R194" s="945"/>
+      <c r="S194" s="945"/>
       <c r="T194" s="4"/>
-      <c r="U194" s="939" t="s">
+      <c r="U194" s="945" t="s">
         <v>237</v>
       </c>
-      <c r="V194" s="939"/>
-      <c r="W194" s="939"/>
+      <c r="V194" s="945"/>
+      <c r="W194" s="945"/>
       <c r="X194" s="4"/>
       <c r="Y194" s="31"/>
     </row>
@@ -45227,11 +45230,11 @@
         <v>/</v>
       </c>
       <c r="T245" s="4"/>
-      <c r="U245" s="939" t="s">
+      <c r="U245" s="945" t="s">
         <v>293</v>
       </c>
-      <c r="V245" s="939"/>
-      <c r="W245" s="939"/>
+      <c r="V245" s="945"/>
+      <c r="W245" s="945"/>
       <c r="X245" s="4"/>
       <c r="Y245" s="231"/>
       <c r="Z245" s="535"/>
@@ -45444,11 +45447,11 @@
         <v>/</v>
       </c>
       <c r="G250" s="67"/>
-      <c r="H250" s="943" t="s">
+      <c r="H250" s="979" t="s">
         <v>293</v>
       </c>
-      <c r="I250" s="944"/>
-      <c r="J250" s="945"/>
+      <c r="I250" s="980"/>
+      <c r="J250" s="981"/>
       <c r="K250" s="67"/>
       <c r="L250" s="67"/>
       <c r="M250" s="68"/>
@@ -47688,11 +47691,11 @@
       <c r="H291" s="263" t="s">
         <v>328</v>
       </c>
-      <c r="I291" s="940" t="str">
+      <c r="I291" s="977" t="str">
         <f>IF(S367="","",S367)</f>
         <v/>
       </c>
-      <c r="J291" s="940"/>
+      <c r="J291" s="977"/>
       <c r="K291" s="58"/>
       <c r="L291" s="58"/>
       <c r="M291" s="60"/>
@@ -47739,11 +47742,11 @@
       <c r="H292" s="160" t="s">
         <v>330</v>
       </c>
-      <c r="I292" s="941" t="str">
+      <c r="I292" s="978" t="str">
         <f>IF(S368="","",S368)</f>
         <v/>
       </c>
-      <c r="J292" s="941"/>
+      <c r="J292" s="978"/>
       <c r="K292" s="4"/>
       <c r="M292" s="68"/>
       <c r="O292" s="447"/>
@@ -47843,11 +47846,11 @@
       </c>
       <c r="B294" s="66"/>
       <c r="C294" s="160"/>
-      <c r="F294" s="939" t="s">
+      <c r="F294" s="945" t="s">
         <v>331</v>
       </c>
-      <c r="G294" s="939"/>
-      <c r="H294" s="939"/>
+      <c r="G294" s="945"/>
+      <c r="H294" s="945"/>
       <c r="I294" s="535"/>
       <c r="J294" s="535"/>
       <c r="K294" s="106"/>
@@ -47960,7 +47963,7 @@
         <v>8</v>
       </c>
       <c r="B296" s="66"/>
-      <c r="C296" s="971" t="str">
+      <c r="C296" s="939" t="str">
         <f>P371</f>
         <v>/</v>
       </c>
@@ -48037,7 +48040,7 @@
         <v>9</v>
       </c>
       <c r="B297" s="66"/>
-      <c r="C297" s="972"/>
+      <c r="C297" s="940"/>
       <c r="D297" s="289">
         <f t="shared" si="66"/>
         <v>25</v>
@@ -48122,7 +48125,7 @@
         <v>10</v>
       </c>
       <c r="B298" s="66"/>
-      <c r="C298" s="972"/>
+      <c r="C298" s="940"/>
       <c r="D298" s="289">
         <f t="shared" si="66"/>
         <v>26</v>
@@ -48202,7 +48205,7 @@
         <v>11</v>
       </c>
       <c r="B299" s="66"/>
-      <c r="C299" s="972"/>
+      <c r="C299" s="940"/>
       <c r="D299" s="289">
         <f t="shared" si="66"/>
         <v>28</v>
@@ -48274,7 +48277,7 @@
         <v>12</v>
       </c>
       <c r="B300" s="66"/>
-      <c r="C300" s="972"/>
+      <c r="C300" s="940"/>
       <c r="D300" s="289">
         <f t="shared" si="66"/>
         <v>30</v>
@@ -48344,7 +48347,7 @@
         <v>13</v>
       </c>
       <c r="B301" s="66"/>
-      <c r="C301" s="972"/>
+      <c r="C301" s="940"/>
       <c r="D301" s="289">
         <f t="shared" si="66"/>
         <v>32</v>
@@ -48407,7 +48410,7 @@
         <v>14</v>
       </c>
       <c r="B302" s="66"/>
-      <c r="C302" s="973"/>
+      <c r="C302" s="941"/>
       <c r="D302" s="419">
         <f t="shared" ref="D302" si="69">IF(Q377="","",Q377)</f>
         <v>34</v>
@@ -48478,7 +48481,7 @@
         <v>15</v>
       </c>
       <c r="B303" s="66"/>
-      <c r="C303" s="974" t="str">
+      <c r="C303" s="942" t="str">
         <f>P378</f>
         <v>/</v>
       </c>
@@ -48552,7 +48555,7 @@
         <v>16</v>
       </c>
       <c r="B304" s="66"/>
-      <c r="C304" s="975"/>
+      <c r="C304" s="943"/>
       <c r="D304" s="289">
         <f t="shared" si="77"/>
         <v>30</v>
@@ -48634,7 +48637,7 @@
         <v>17</v>
       </c>
       <c r="B305" s="66"/>
-      <c r="C305" s="975"/>
+      <c r="C305" s="943"/>
       <c r="D305" s="289">
         <f t="shared" si="77"/>
         <v>32</v>
@@ -48711,7 +48714,7 @@
         <v>18</v>
       </c>
       <c r="B306" s="66"/>
-      <c r="C306" s="975"/>
+      <c r="C306" s="943"/>
       <c r="D306" s="289">
         <f t="shared" si="77"/>
         <v>34</v>
@@ -48784,7 +48787,7 @@
         <v>19</v>
       </c>
       <c r="B307" s="66"/>
-      <c r="C307" s="976"/>
+      <c r="C307" s="944"/>
       <c r="D307" s="429">
         <f t="shared" si="77"/>
         <v>36</v>
@@ -48855,7 +48858,7 @@
         <v>20</v>
       </c>
       <c r="B308" s="66"/>
-      <c r="C308" s="974" t="str">
+      <c r="C308" s="942" t="str">
         <f>P384</f>
         <v>/</v>
       </c>
@@ -48919,7 +48922,7 @@
         <v>21</v>
       </c>
       <c r="B309" s="66"/>
-      <c r="C309" s="975"/>
+      <c r="C309" s="943"/>
       <c r="D309" s="289">
         <f t="shared" si="78"/>
         <v>30</v>
@@ -48984,7 +48987,7 @@
         <v>22</v>
       </c>
       <c r="B310" s="66"/>
-      <c r="C310" s="975"/>
+      <c r="C310" s="943"/>
       <c r="D310" s="289">
         <f t="shared" si="78"/>
         <v>32</v>
@@ -49053,7 +49056,7 @@
         <v>23</v>
       </c>
       <c r="B311" s="66"/>
-      <c r="C311" s="975"/>
+      <c r="C311" s="943"/>
       <c r="D311" s="289">
         <f t="shared" si="78"/>
         <v>34</v>
@@ -49122,7 +49125,7 @@
         <v>24</v>
       </c>
       <c r="B312" s="66"/>
-      <c r="C312" s="976"/>
+      <c r="C312" s="944"/>
       <c r="D312" s="429">
         <f t="shared" si="78"/>
         <v>38</v>
@@ -51649,13 +51652,13 @@
       <c r="L369" s="67"/>
       <c r="M369" s="68"/>
       <c r="O369" s="29"/>
-      <c r="S369" s="939" t="s">
+      <c r="S369" s="945" t="s">
         <v>331</v>
       </c>
-      <c r="T369" s="939"/>
-      <c r="U369" s="939"/>
-      <c r="V369" s="939"/>
-      <c r="W369" s="939"/>
+      <c r="T369" s="945"/>
+      <c r="U369" s="945"/>
+      <c r="V369" s="945"/>
+      <c r="W369" s="945"/>
       <c r="Y369" s="31"/>
     </row>
     <row r="370" spans="1:25" ht="14.1" customHeight="1" thickBot="1">
@@ -51741,7 +51744,7 @@
       <c r="L371" s="67"/>
       <c r="M371" s="68"/>
       <c r="O371" s="29"/>
-      <c r="P371" s="968" t="str">
+      <c r="P371" s="952" t="str">
         <f>AK10&amp;"/"&amp;AL10</f>
         <v>/</v>
       </c>
@@ -51800,7 +51803,7 @@
       <c r="L372" s="67"/>
       <c r="M372" s="68"/>
       <c r="O372" s="29"/>
-      <c r="P372" s="969"/>
+      <c r="P372" s="953"/>
       <c r="Q372" s="301">
         <f>AH12</f>
         <v>25</v>
@@ -51854,7 +51857,7 @@
       <c r="L373" s="67"/>
       <c r="M373" s="68"/>
       <c r="O373" s="29"/>
-      <c r="P373" s="969"/>
+      <c r="P373" s="953"/>
       <c r="Q373" s="300">
         <f>AH14</f>
         <v>26</v>
@@ -51917,7 +51920,7 @@
       <c r="L374"/>
       <c r="M374" s="68"/>
       <c r="O374" s="29"/>
-      <c r="P374" s="969"/>
+      <c r="P374" s="953"/>
       <c r="Q374" s="300">
         <f>AH16</f>
         <v>28</v>
@@ -51980,7 +51983,7 @@
       <c r="L375"/>
       <c r="M375" s="68"/>
       <c r="O375" s="29"/>
-      <c r="P375" s="969"/>
+      <c r="P375" s="953"/>
       <c r="Q375" s="300">
         <f>AH22</f>
         <v>30</v>
@@ -52043,7 +52046,7 @@
       <c r="L376"/>
       <c r="M376" s="68"/>
       <c r="O376" s="29"/>
-      <c r="P376" s="969"/>
+      <c r="P376" s="953"/>
       <c r="Q376" s="300">
         <f>AH23</f>
         <v>32</v>
@@ -52106,7 +52109,7 @@
       <c r="L377"/>
       <c r="M377" s="68"/>
       <c r="O377" s="29"/>
-      <c r="P377" s="970"/>
+      <c r="P377" s="954"/>
       <c r="Q377" s="300">
         <f>AH25</f>
         <v>34</v>
@@ -52169,7 +52172,7 @@
       <c r="L378"/>
       <c r="M378" s="68"/>
       <c r="O378" s="29"/>
-      <c r="P378" s="977" t="str">
+      <c r="P378" s="946" t="str">
         <f>AK27&amp;"/"&amp;AL27</f>
         <v>/</v>
       </c>
@@ -52228,7 +52231,7 @@
       <c r="L379"/>
       <c r="M379" s="68"/>
       <c r="O379" s="159"/>
-      <c r="P379" s="978"/>
+      <c r="P379" s="947"/>
       <c r="Q379" s="300">
         <f>AH29</f>
         <v>30</v>
@@ -52273,7 +52276,7 @@
       </c>
       <c r="M380" s="68"/>
       <c r="O380" s="29"/>
-      <c r="P380" s="978"/>
+      <c r="P380" s="947"/>
       <c r="Q380" s="300">
         <f>AH31</f>
         <v>32</v>
@@ -52327,7 +52330,7 @@
       <c r="L381" s="67"/>
       <c r="M381" s="68"/>
       <c r="O381" s="29"/>
-      <c r="P381" s="978"/>
+      <c r="P381" s="947"/>
       <c r="Q381" s="300">
         <f>AH33</f>
         <v>34</v>
@@ -52394,7 +52397,7 @@
       </c>
       <c r="M382" s="68"/>
       <c r="O382" s="29"/>
-      <c r="P382" s="978"/>
+      <c r="P382" s="947"/>
       <c r="Q382" s="300">
         <f t="shared" ref="Q382:R384" si="94">AH35</f>
         <v>36</v>
@@ -52468,7 +52471,7 @@
       </c>
       <c r="M383" s="68"/>
       <c r="O383" s="29"/>
-      <c r="P383" s="979"/>
+      <c r="P383" s="948"/>
       <c r="Q383" s="300">
         <f t="shared" si="94"/>
         <v>38</v>
@@ -52542,7 +52545,7 @@
       </c>
       <c r="M384" s="68"/>
       <c r="O384" s="29"/>
-      <c r="P384" s="977" t="str">
+      <c r="P384" s="946" t="str">
         <f>AK37&amp;"/"&amp;AL37</f>
         <v>/</v>
       </c>
@@ -52602,7 +52605,7 @@
       <c r="L385" s="67"/>
       <c r="M385" s="68"/>
       <c r="O385" s="29"/>
-      <c r="P385" s="978"/>
+      <c r="P385" s="947"/>
       <c r="Q385" s="301">
         <f>AH41</f>
         <v>30</v>
@@ -52658,7 +52661,7 @@
       <c r="L386" s="67"/>
       <c r="M386" s="68"/>
       <c r="O386" s="29"/>
-      <c r="P386" s="978"/>
+      <c r="P386" s="947"/>
       <c r="Q386" s="300">
         <f>AH43</f>
         <v>32</v>
@@ -52712,7 +52715,7 @@
       <c r="L387" s="67"/>
       <c r="M387" s="68"/>
       <c r="O387" s="29"/>
-      <c r="P387" s="978"/>
+      <c r="P387" s="947"/>
       <c r="Q387" s="300">
         <f>AH45</f>
         <v>34</v>
@@ -52764,7 +52767,7 @@
       <c r="L388" s="67"/>
       <c r="M388" s="68"/>
       <c r="O388" s="29"/>
-      <c r="P388" s="979"/>
+      <c r="P388" s="948"/>
       <c r="Q388" s="300">
         <f>AH47</f>
         <v>38</v>
@@ -54261,11 +54264,11 @@
       <c r="P420" s="613" t="s">
         <v>348</v>
       </c>
-      <c r="Q420" s="980" t="s">
+      <c r="Q420" s="949" t="s">
         <v>349</v>
       </c>
-      <c r="R420" s="981"/>
-      <c r="S420" s="982"/>
+      <c r="R420" s="950"/>
+      <c r="S420" s="951"/>
       <c r="T420"/>
       <c r="U420"/>
       <c r="V420"/>
@@ -55462,10 +55465,10 @@
       <c r="U454" s="4"/>
       <c r="V454" s="4"/>
       <c r="Y454" s="31"/>
-      <c r="AA454" s="939"/>
-      <c r="AB454" s="939"/>
-      <c r="AC454" s="939"/>
-      <c r="AD454" s="939"/>
+      <c r="AA454" s="945"/>
+      <c r="AB454" s="945"/>
+      <c r="AC454" s="945"/>
+      <c r="AD454" s="945"/>
     </row>
     <row r="455" spans="1:30" ht="14.1" customHeight="1">
       <c r="A455" s="16">
@@ -56869,56 +56872,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="66">
-    <mergeCell ref="C296:C302"/>
-    <mergeCell ref="C303:C307"/>
-    <mergeCell ref="C308:C312"/>
-    <mergeCell ref="AA454:AB454"/>
-    <mergeCell ref="AC454:AD454"/>
-    <mergeCell ref="P378:P383"/>
-    <mergeCell ref="P384:P388"/>
-    <mergeCell ref="Q420:S420"/>
-    <mergeCell ref="Q194:S194"/>
-    <mergeCell ref="U194:W194"/>
-    <mergeCell ref="U245:W245"/>
-    <mergeCell ref="S369:W369"/>
-    <mergeCell ref="P371:P377"/>
-    <mergeCell ref="P129:R130"/>
-    <mergeCell ref="S129:U130"/>
-    <mergeCell ref="V129:X130"/>
-    <mergeCell ref="P173:S173"/>
-    <mergeCell ref="Q182:S182"/>
-    <mergeCell ref="U182:W182"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P121:R122"/>
-    <mergeCell ref="V121:X122"/>
-    <mergeCell ref="S121:U122"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
     <mergeCell ref="F294:H294"/>
     <mergeCell ref="I291:J291"/>
     <mergeCell ref="I292:J292"/>
@@ -56935,6 +56888,56 @@
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P121:R122"/>
+    <mergeCell ref="V121:X122"/>
+    <mergeCell ref="S121:U122"/>
+    <mergeCell ref="P129:R130"/>
+    <mergeCell ref="S129:U130"/>
+    <mergeCell ref="V129:X130"/>
+    <mergeCell ref="P173:S173"/>
+    <mergeCell ref="Q182:S182"/>
+    <mergeCell ref="U182:W182"/>
+    <mergeCell ref="Q194:S194"/>
+    <mergeCell ref="U194:W194"/>
+    <mergeCell ref="U245:W245"/>
+    <mergeCell ref="S369:W369"/>
+    <mergeCell ref="P371:P377"/>
+    <mergeCell ref="C296:C302"/>
+    <mergeCell ref="C303:C307"/>
+    <mergeCell ref="C308:C312"/>
+    <mergeCell ref="AA454:AB454"/>
+    <mergeCell ref="AC454:AD454"/>
+    <mergeCell ref="P378:P383"/>
+    <mergeCell ref="P384:P388"/>
+    <mergeCell ref="Q420:S420"/>
   </mergeCells>
   <conditionalFormatting sqref="R260:S260">
     <cfRule type="cellIs" dxfId="161" priority="230" stopIfTrue="1" operator="equal">
@@ -61367,11 +61370,11 @@
         <v>332</v>
       </c>
       <c r="K62" s="650"/>
-      <c r="O62" s="946"/>
-      <c r="P62" s="946"/>
-      <c r="Q62" s="946"/>
-      <c r="R62" s="946"/>
-      <c r="S62" s="946"/>
+      <c r="O62" s="967"/>
+      <c r="P62" s="967"/>
+      <c r="Q62" s="967"/>
+      <c r="R62" s="967"/>
+      <c r="S62" s="967"/>
     </row>
     <row r="63" spans="1:19" ht="14.1" customHeight="1">
       <c r="A63" s="650" t="str">

--- a/MUSCMammoSiemens.xlsx
+++ b/MUSCMammoSiemens.xlsx
@@ -9004,6 +9004,72 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="190" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="27" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="27" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="148" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="146" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="147" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9031,78 +9097,24 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="145" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="143" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="144" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="81" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="92" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="142" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="27" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="81" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="92" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="142" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="148" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="146" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="147" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="27" fillId="17" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="27" fillId="17" borderId="92" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="27" fillId="17" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="81" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="142" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9130,24 +9142,51 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="149" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -9160,44 +9199,101 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="92" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="83" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="125" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="124" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="125" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="119" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9217,9 +9313,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9237,99 +9330,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -27897,40 +27897,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="901" t="s">
+      <c r="A1" s="874" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="901"/>
-      <c r="C1" s="901"/>
-      <c r="D1" s="901"/>
-      <c r="E1" s="901"/>
-      <c r="F1" s="901"/>
-      <c r="G1" s="901"/>
-      <c r="H1" s="901"/>
-      <c r="I1" s="901"/>
-      <c r="J1" s="901"/>
-      <c r="K1" s="901"/>
-      <c r="L1" s="901"/>
-      <c r="M1" s="901"/>
-      <c r="N1" s="901"/>
+      <c r="B1" s="874"/>
+      <c r="C1" s="874"/>
+      <c r="D1" s="874"/>
+      <c r="E1" s="874"/>
+      <c r="F1" s="874"/>
+      <c r="G1" s="874"/>
+      <c r="H1" s="874"/>
+      <c r="I1" s="874"/>
+      <c r="J1" s="874"/>
+      <c r="K1" s="874"/>
+      <c r="L1" s="874"/>
+      <c r="M1" s="874"/>
+      <c r="N1" s="874"/>
     </row>
     <row r="2" spans="1:14" ht="26.25">
-      <c r="A2" s="901" t="s">
+      <c r="A2" s="874" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="901"/>
-      <c r="C2" s="901"/>
-      <c r="D2" s="901"/>
-      <c r="E2" s="901"/>
-      <c r="F2" s="901"/>
-      <c r="G2" s="901"/>
-      <c r="H2" s="901"/>
-      <c r="I2" s="901"/>
-      <c r="J2" s="901"/>
-      <c r="K2" s="901"/>
-      <c r="L2" s="901"/>
-      <c r="M2" s="901"/>
-      <c r="N2" s="901"/>
+      <c r="B2" s="874"/>
+      <c r="C2" s="874"/>
+      <c r="D2" s="874"/>
+      <c r="E2" s="874"/>
+      <c r="F2" s="874"/>
+      <c r="G2" s="874"/>
+      <c r="H2" s="874"/>
+      <c r="I2" s="874"/>
+      <c r="J2" s="874"/>
+      <c r="K2" s="874"/>
+      <c r="L2" s="874"/>
+      <c r="M2" s="874"/>
+      <c r="N2" s="874"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1">
       <c r="A3" s="797"/>
@@ -27953,41 +27953,41 @@
         <v>371</v>
       </c>
       <c r="B4" s="798"/>
-      <c r="C4" s="889"/>
-      <c r="D4" s="890"/>
-      <c r="E4" s="890"/>
-      <c r="F4" s="890"/>
-      <c r="G4" s="890"/>
-      <c r="H4" s="891"/>
+      <c r="C4" s="875"/>
+      <c r="D4" s="876"/>
+      <c r="E4" s="876"/>
+      <c r="F4" s="876"/>
+      <c r="G4" s="876"/>
+      <c r="H4" s="877"/>
       <c r="J4" s="799"/>
       <c r="K4" s="800" t="s">
         <v>372</v>
       </c>
-      <c r="L4" s="902"/>
-      <c r="M4" s="903"/>
-      <c r="N4" s="904"/>
+      <c r="L4" s="878"/>
+      <c r="M4" s="879"/>
+      <c r="N4" s="880"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1">
       <c r="A5" s="798" t="s">
         <v>373</v>
       </c>
       <c r="B5" s="798"/>
-      <c r="C5" s="889"/>
-      <c r="D5" s="890"/>
-      <c r="E5" s="890"/>
-      <c r="F5" s="890"/>
-      <c r="G5" s="890"/>
-      <c r="H5" s="891"/>
+      <c r="C5" s="875"/>
+      <c r="D5" s="876"/>
+      <c r="E5" s="876"/>
+      <c r="F5" s="876"/>
+      <c r="G5" s="876"/>
+      <c r="H5" s="877"/>
       <c r="J5" s="799"/>
       <c r="K5" s="800" t="s">
         <v>374</v>
       </c>
-      <c r="L5" s="902">
+      <c r="L5" s="878">
         <f>Sheet1!P7</f>
         <v>0</v>
       </c>
-      <c r="M5" s="903"/>
-      <c r="N5" s="904"/>
+      <c r="M5" s="879"/>
+      <c r="N5" s="880"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1">
       <c r="A6" s="798" t="s">
@@ -27996,19 +27996,19 @@
       <c r="B6" s="798"/>
       <c r="C6" s="798"/>
       <c r="D6" s="798"/>
-      <c r="E6" s="888" t="s">
+      <c r="E6" s="886" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="888"/>
-      <c r="G6" s="888"/>
-      <c r="H6" s="888"/>
+      <c r="F6" s="886"/>
+      <c r="G6" s="886"/>
+      <c r="H6" s="886"/>
       <c r="J6" s="799"/>
       <c r="K6" s="800" t="s">
         <v>376</v>
       </c>
-      <c r="L6" s="889"/>
-      <c r="M6" s="890"/>
-      <c r="N6" s="891"/>
+      <c r="L6" s="875"/>
+      <c r="M6" s="876"/>
+      <c r="N6" s="877"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1">
       <c r="A7" s="798" t="s">
@@ -28017,21 +28017,21 @@
       <c r="B7" s="798"/>
       <c r="C7" s="798"/>
       <c r="D7" s="798"/>
-      <c r="E7" s="889" t="s">
+      <c r="E7" s="875" t="s">
         <v>378</v>
       </c>
-      <c r="F7" s="890"/>
-      <c r="G7" s="890"/>
-      <c r="H7" s="891"/>
+      <c r="F7" s="876"/>
+      <c r="G7" s="876"/>
+      <c r="H7" s="877"/>
       <c r="J7" s="799"/>
       <c r="K7" s="800" t="s">
         <v>379</v>
       </c>
-      <c r="L7" s="889" t="s">
+      <c r="L7" s="875" t="s">
         <v>764</v>
       </c>
-      <c r="M7" s="890"/>
-      <c r="N7" s="891"/>
+      <c r="M7" s="876"/>
+      <c r="N7" s="877"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1">
       <c r="A8" s="798" t="s">
@@ -28040,23 +28040,23 @@
       <c r="B8" s="798"/>
       <c r="C8" s="798"/>
       <c r="D8" s="798"/>
-      <c r="E8" s="892" t="str">
+      <c r="E8" s="887" t="str">
         <f>Sheet1!K12</f>
         <v/>
       </c>
-      <c r="F8" s="893"/>
-      <c r="G8" s="893"/>
-      <c r="H8" s="894"/>
+      <c r="F8" s="888"/>
+      <c r="G8" s="888"/>
+      <c r="H8" s="889"/>
       <c r="J8" s="799"/>
       <c r="K8" s="800" t="s">
         <v>381</v>
       </c>
-      <c r="L8" s="889" t="str">
+      <c r="L8" s="875" t="str">
         <f>Sheet1!R14</f>
         <v/>
       </c>
-      <c r="M8" s="890"/>
-      <c r="N8" s="891"/>
+      <c r="M8" s="876"/>
+      <c r="N8" s="877"/>
     </row>
     <row r="9" spans="1:14" ht="11.25" customHeight="1">
       <c r="A9" s="798"/>
@@ -28077,12 +28077,12 @@
       <c r="A10" s="803" t="s">
         <v>536</v>
       </c>
-      <c r="E10" s="895" t="s">
+      <c r="E10" s="890" t="s">
         <v>765</v>
       </c>
-      <c r="F10" s="896"/>
-      <c r="G10" s="896"/>
-      <c r="H10" s="897"/>
+      <c r="F10" s="891"/>
+      <c r="G10" s="891"/>
+      <c r="H10" s="892"/>
       <c r="I10" s="804" t="s">
         <v>535</v>
       </c>
@@ -28107,24 +28107,24 @@
       <c r="B12" s="798"/>
       <c r="C12" s="798"/>
       <c r="D12" s="798"/>
-      <c r="E12" s="898" t="s">
+      <c r="E12" s="893" t="s">
         <v>384</v>
       </c>
-      <c r="F12" s="899"/>
-      <c r="G12" s="898" t="s">
+      <c r="F12" s="894"/>
+      <c r="G12" s="893" t="s">
         <v>379</v>
       </c>
-      <c r="H12" s="899"/>
-      <c r="I12" s="898" t="s">
+      <c r="H12" s="894"/>
+      <c r="I12" s="893" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="899"/>
-      <c r="K12" s="898" t="s">
+      <c r="J12" s="894"/>
+      <c r="K12" s="893" t="s">
         <v>382</v>
       </c>
-      <c r="L12" s="900"/>
-      <c r="M12" s="900"/>
-      <c r="N12" s="899"/>
+      <c r="L12" s="895"/>
+      <c r="M12" s="895"/>
+      <c r="N12" s="894"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" thickTop="1">
       <c r="A13" s="798"/>
@@ -28133,55 +28133,55 @@
       <c r="D13" s="806" t="s">
         <v>385</v>
       </c>
-      <c r="E13" s="883" t="s">
+      <c r="E13" s="881" t="s">
         <v>751</v>
       </c>
-      <c r="F13" s="884"/>
-      <c r="G13" s="883" t="s">
+      <c r="F13" s="882"/>
+      <c r="G13" s="881" t="s">
         <v>752</v>
       </c>
-      <c r="H13" s="884"/>
-      <c r="I13" s="885"/>
-      <c r="J13" s="886"/>
-      <c r="K13" s="883" t="s">
+      <c r="H13" s="882"/>
+      <c r="I13" s="883"/>
+      <c r="J13" s="884"/>
+      <c r="K13" s="881" t="s">
         <v>753</v>
       </c>
-      <c r="L13" s="887"/>
-      <c r="M13" s="887"/>
-      <c r="N13" s="884"/>
+      <c r="L13" s="885"/>
+      <c r="M13" s="885"/>
+      <c r="N13" s="882"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="D14" s="806" t="s">
         <v>386</v>
       </c>
-      <c r="E14" s="876"/>
-      <c r="F14" s="877"/>
-      <c r="G14" s="876"/>
-      <c r="H14" s="877"/>
-      <c r="I14" s="878"/>
-      <c r="J14" s="879"/>
-      <c r="K14" s="876"/>
-      <c r="L14" s="880"/>
-      <c r="M14" s="880"/>
-      <c r="N14" s="877"/>
+      <c r="E14" s="898"/>
+      <c r="F14" s="899"/>
+      <c r="G14" s="898"/>
+      <c r="H14" s="899"/>
+      <c r="I14" s="900"/>
+      <c r="J14" s="901"/>
+      <c r="K14" s="898"/>
+      <c r="L14" s="902"/>
+      <c r="M14" s="902"/>
+      <c r="N14" s="899"/>
     </row>
     <row r="15" spans="1:14" ht="36" customHeight="1">
-      <c r="A15" s="881" t="s">
+      <c r="A15" s="903" t="s">
         <v>712</v>
       </c>
-      <c r="B15" s="881"/>
-      <c r="C15" s="881"/>
-      <c r="D15" s="881"/>
-      <c r="E15" s="881"/>
-      <c r="F15" s="881"/>
-      <c r="G15" s="881"/>
-      <c r="H15" s="881"/>
-      <c r="I15" s="881"/>
-      <c r="J15" s="881"/>
-      <c r="K15" s="881"/>
-      <c r="L15" s="881"/>
-      <c r="M15" s="881"/>
-      <c r="N15" s="881"/>
+      <c r="B15" s="903"/>
+      <c r="C15" s="903"/>
+      <c r="D15" s="903"/>
+      <c r="E15" s="903"/>
+      <c r="F15" s="903"/>
+      <c r="G15" s="903"/>
+      <c r="H15" s="903"/>
+      <c r="I15" s="903"/>
+      <c r="J15" s="903"/>
+      <c r="K15" s="903"/>
+      <c r="L15" s="903"/>
+      <c r="M15" s="903"/>
+      <c r="N15" s="903"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1">
       <c r="A16" s="803" t="s">
@@ -28243,40 +28243,40 @@
       <c r="M18" s="823"/>
     </row>
     <row r="19" spans="1:15" ht="21" customHeight="1">
-      <c r="A19" s="882" t="s">
+      <c r="A19" s="904" t="s">
         <v>389</v>
       </c>
-      <c r="B19" s="882"/>
-      <c r="C19" s="882"/>
-      <c r="D19" s="882"/>
-      <c r="E19" s="882"/>
-      <c r="F19" s="882"/>
-      <c r="G19" s="882"/>
-      <c r="H19" s="882"/>
-      <c r="I19" s="882"/>
-      <c r="J19" s="882"/>
-      <c r="K19" s="882"/>
-      <c r="L19" s="882"/>
-      <c r="M19" s="882"/>
-      <c r="N19" s="882"/>
+      <c r="B19" s="904"/>
+      <c r="C19" s="904"/>
+      <c r="D19" s="904"/>
+      <c r="E19" s="904"/>
+      <c r="F19" s="904"/>
+      <c r="G19" s="904"/>
+      <c r="H19" s="904"/>
+      <c r="I19" s="904"/>
+      <c r="J19" s="904"/>
+      <c r="K19" s="904"/>
+      <c r="L19" s="904"/>
+      <c r="M19" s="904"/>
+      <c r="N19" s="904"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="874" t="s">
+      <c r="A20" s="896" t="s">
         <v>534</v>
       </c>
-      <c r="B20" s="874"/>
-      <c r="C20" s="874"/>
-      <c r="D20" s="874"/>
-      <c r="E20" s="874"/>
-      <c r="F20" s="874"/>
-      <c r="G20" s="874"/>
-      <c r="H20" s="874"/>
-      <c r="I20" s="874"/>
-      <c r="J20" s="874"/>
-      <c r="K20" s="874"/>
-      <c r="L20" s="874"/>
-      <c r="M20" s="874"/>
-      <c r="N20" s="874"/>
+      <c r="B20" s="896"/>
+      <c r="C20" s="896"/>
+      <c r="D20" s="896"/>
+      <c r="E20" s="896"/>
+      <c r="F20" s="896"/>
+      <c r="G20" s="896"/>
+      <c r="H20" s="896"/>
+      <c r="I20" s="896"/>
+      <c r="J20" s="896"/>
+      <c r="K20" s="896"/>
+      <c r="L20" s="896"/>
+      <c r="M20" s="896"/>
+      <c r="N20" s="896"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="798"/>
@@ -28536,7 +28536,7 @@
       <c r="K33" s="825"/>
       <c r="L33" s="836" t="e">
         <f>MGD</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="M33" s="827" t="s">
         <v>339</v>
@@ -28882,22 +28882,22 @@
       <c r="M51" s="825"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A52" s="875" t="s">
+      <c r="A52" s="897" t="s">
         <v>529</v>
       </c>
-      <c r="B52" s="875"/>
-      <c r="C52" s="875"/>
-      <c r="D52" s="875"/>
-      <c r="E52" s="875"/>
-      <c r="F52" s="875"/>
-      <c r="G52" s="875"/>
-      <c r="H52" s="875"/>
-      <c r="I52" s="875"/>
-      <c r="J52" s="875"/>
-      <c r="K52" s="875"/>
-      <c r="L52" s="875"/>
-      <c r="M52" s="875"/>
-      <c r="N52" s="875"/>
+      <c r="B52" s="897"/>
+      <c r="C52" s="897"/>
+      <c r="D52" s="897"/>
+      <c r="E52" s="897"/>
+      <c r="F52" s="897"/>
+      <c r="G52" s="897"/>
+      <c r="H52" s="897"/>
+      <c r="I52" s="897"/>
+      <c r="J52" s="897"/>
+      <c r="K52" s="897"/>
+      <c r="L52" s="897"/>
+      <c r="M52" s="897"/>
+      <c r="N52" s="897"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -28912,12 +28912,14 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="29">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A19:N19"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
@@ -28933,14 +28935,12 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:N12"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="L5:N5"/>
   </mergeCells>
   <conditionalFormatting sqref="N27:N38 N48 N41:N42 N50">
     <cfRule type="cellIs" dxfId="176" priority="13" stopIfTrue="1" operator="equal">
@@ -29251,19 +29251,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="916" t="s">
+      <c r="A1" s="907" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="916"/>
-      <c r="C1" s="916"/>
-      <c r="D1" s="916"/>
-      <c r="E1" s="916"/>
-      <c r="F1" s="916"/>
-      <c r="G1" s="916"/>
-      <c r="H1" s="916"/>
-      <c r="I1" s="916"/>
-      <c r="J1" s="916"/>
-      <c r="K1" s="916"/>
+      <c r="B1" s="907"/>
+      <c r="C1" s="907"/>
+      <c r="D1" s="907"/>
+      <c r="E1" s="907"/>
+      <c r="F1" s="907"/>
+      <c r="G1" s="907"/>
+      <c r="H1" s="907"/>
+      <c r="I1" s="907"/>
+      <c r="J1" s="907"/>
+      <c r="K1" s="907"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
       <c r="A2" s="517" t="s">
@@ -29297,19 +29297,19 @@
       <c r="K4" s="512"/>
     </row>
     <row r="5" spans="1:12" ht="42" customHeight="1">
-      <c r="A5" s="917" t="s">
+      <c r="A5" s="908" t="s">
         <v>541</v>
       </c>
-      <c r="B5" s="917"/>
-      <c r="C5" s="917"/>
-      <c r="D5" s="917"/>
-      <c r="E5" s="917"/>
-      <c r="F5" s="917"/>
-      <c r="G5" s="917"/>
-      <c r="H5" s="917"/>
-      <c r="I5" s="917"/>
-      <c r="J5" s="917"/>
-      <c r="K5" s="917"/>
+      <c r="B5" s="908"/>
+      <c r="C5" s="908"/>
+      <c r="D5" s="908"/>
+      <c r="E5" s="908"/>
+      <c r="F5" s="908"/>
+      <c r="G5" s="908"/>
+      <c r="H5" s="908"/>
+      <c r="I5" s="908"/>
+      <c r="J5" s="908"/>
+      <c r="K5" s="908"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="511" t="s">
@@ -29342,8 +29342,8 @@
       <c r="K7" s="506"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="J8" s="918"/>
-      <c r="K8" s="918"/>
+      <c r="J8" s="909"/>
+      <c r="K8" s="909"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="492"/>
@@ -29352,10 +29352,10 @@
         <v>396</v>
       </c>
       <c r="I9" s="505"/>
-      <c r="J9" s="919" t="s">
+      <c r="J9" s="910" t="s">
         <v>390</v>
       </c>
-      <c r="K9" s="919"/>
+      <c r="K9" s="910"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="504" t="s">
@@ -29530,19 +29530,19 @@
       <c r="L20" s="492"/>
     </row>
     <row r="21" spans="1:12" ht="24" customHeight="1">
-      <c r="A21" s="907" t="s">
+      <c r="A21" s="911" t="s">
         <v>415</v>
       </c>
-      <c r="B21" s="907"/>
-      <c r="C21" s="907"/>
-      <c r="D21" s="907"/>
-      <c r="E21" s="907"/>
-      <c r="F21" s="907"/>
-      <c r="G21" s="907"/>
-      <c r="H21" s="907"/>
-      <c r="I21" s="907"/>
-      <c r="J21" s="907"/>
-      <c r="K21" s="907"/>
+      <c r="B21" s="911"/>
+      <c r="C21" s="911"/>
+      <c r="D21" s="911"/>
+      <c r="E21" s="911"/>
+      <c r="F21" s="911"/>
+      <c r="G21" s="911"/>
+      <c r="H21" s="911"/>
+      <c r="I21" s="911"/>
+      <c r="J21" s="911"/>
+      <c r="K21" s="911"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="491"/>
@@ -29558,123 +29558,123 @@
       <c r="K22" s="490"/>
     </row>
     <row r="23" spans="1:12" ht="290.25" customHeight="1">
-      <c r="A23" s="908"/>
-      <c r="B23" s="909"/>
-      <c r="C23" s="909"/>
-      <c r="D23" s="909"/>
-      <c r="E23" s="909"/>
-      <c r="F23" s="909"/>
-      <c r="G23" s="909"/>
-      <c r="H23" s="909"/>
-      <c r="I23" s="909"/>
-      <c r="J23" s="909"/>
-      <c r="K23" s="910"/>
+      <c r="A23" s="912"/>
+      <c r="B23" s="913"/>
+      <c r="C23" s="913"/>
+      <c r="D23" s="913"/>
+      <c r="E23" s="913"/>
+      <c r="F23" s="913"/>
+      <c r="G23" s="913"/>
+      <c r="H23" s="913"/>
+      <c r="I23" s="913"/>
+      <c r="J23" s="913"/>
+      <c r="K23" s="914"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="911"/>
-      <c r="B24" s="911"/>
-      <c r="C24" s="911"/>
-      <c r="D24" s="911"/>
-      <c r="E24" s="911"/>
-      <c r="F24" s="911"/>
-      <c r="G24" s="911"/>
-      <c r="H24" s="911"/>
-      <c r="I24" s="911"/>
-      <c r="J24" s="911"/>
-      <c r="K24" s="911"/>
+      <c r="A24" s="915"/>
+      <c r="B24" s="915"/>
+      <c r="C24" s="915"/>
+      <c r="D24" s="915"/>
+      <c r="E24" s="915"/>
+      <c r="F24" s="915"/>
+      <c r="G24" s="915"/>
+      <c r="H24" s="915"/>
+      <c r="I24" s="915"/>
+      <c r="J24" s="915"/>
+      <c r="K24" s="915"/>
     </row>
     <row r="25" spans="1:12" hidden="1">
-      <c r="A25" s="912"/>
-      <c r="B25" s="912"/>
-      <c r="C25" s="912"/>
-      <c r="D25" s="912"/>
-      <c r="E25" s="912"/>
-      <c r="F25" s="912"/>
-      <c r="G25" s="912"/>
-      <c r="H25" s="912"/>
-      <c r="I25" s="912"/>
-      <c r="J25" s="912"/>
-      <c r="K25" s="912"/>
+      <c r="A25" s="916"/>
+      <c r="B25" s="916"/>
+      <c r="C25" s="916"/>
+      <c r="D25" s="916"/>
+      <c r="E25" s="916"/>
+      <c r="F25" s="916"/>
+      <c r="G25" s="916"/>
+      <c r="H25" s="916"/>
+      <c r="I25" s="916"/>
+      <c r="J25" s="916"/>
+      <c r="K25" s="916"/>
     </row>
     <row r="26" spans="1:12" hidden="1">
-      <c r="A26" s="912"/>
-      <c r="B26" s="912"/>
-      <c r="C26" s="912"/>
-      <c r="D26" s="912"/>
-      <c r="E26" s="912"/>
-      <c r="F26" s="912"/>
-      <c r="G26" s="912"/>
-      <c r="H26" s="912"/>
-      <c r="I26" s="912"/>
-      <c r="J26" s="912"/>
-      <c r="K26" s="912"/>
+      <c r="A26" s="916"/>
+      <c r="B26" s="916"/>
+      <c r="C26" s="916"/>
+      <c r="D26" s="916"/>
+      <c r="E26" s="916"/>
+      <c r="F26" s="916"/>
+      <c r="G26" s="916"/>
+      <c r="H26" s="916"/>
+      <c r="I26" s="916"/>
+      <c r="J26" s="916"/>
+      <c r="K26" s="916"/>
     </row>
     <row r="27" spans="1:12" hidden="1">
-      <c r="A27" s="912"/>
-      <c r="B27" s="912"/>
-      <c r="C27" s="912"/>
-      <c r="D27" s="912"/>
-      <c r="E27" s="912"/>
-      <c r="F27" s="912"/>
-      <c r="G27" s="912"/>
-      <c r="H27" s="912"/>
-      <c r="I27" s="912"/>
-      <c r="J27" s="912"/>
-      <c r="K27" s="912"/>
+      <c r="A27" s="916"/>
+      <c r="B27" s="916"/>
+      <c r="C27" s="916"/>
+      <c r="D27" s="916"/>
+      <c r="E27" s="916"/>
+      <c r="F27" s="916"/>
+      <c r="G27" s="916"/>
+      <c r="H27" s="916"/>
+      <c r="I27" s="916"/>
+      <c r="J27" s="916"/>
+      <c r="K27" s="916"/>
     </row>
     <row r="28" spans="1:12" hidden="1">
-      <c r="A28" s="912"/>
-      <c r="B28" s="912"/>
-      <c r="C28" s="912"/>
-      <c r="D28" s="912"/>
-      <c r="E28" s="912"/>
-      <c r="F28" s="912"/>
-      <c r="G28" s="912"/>
-      <c r="H28" s="912"/>
-      <c r="I28" s="912"/>
-      <c r="J28" s="912"/>
-      <c r="K28" s="912"/>
+      <c r="A28" s="916"/>
+      <c r="B28" s="916"/>
+      <c r="C28" s="916"/>
+      <c r="D28" s="916"/>
+      <c r="E28" s="916"/>
+      <c r="F28" s="916"/>
+      <c r="G28" s="916"/>
+      <c r="H28" s="916"/>
+      <c r="I28" s="916"/>
+      <c r="J28" s="916"/>
+      <c r="K28" s="916"/>
     </row>
     <row r="29" spans="1:12" hidden="1">
-      <c r="A29" s="912"/>
-      <c r="B29" s="912"/>
-      <c r="C29" s="912"/>
-      <c r="D29" s="912"/>
-      <c r="E29" s="912"/>
-      <c r="F29" s="912"/>
-      <c r="G29" s="912"/>
-      <c r="H29" s="912"/>
-      <c r="I29" s="912"/>
-      <c r="J29" s="912"/>
-      <c r="K29" s="912"/>
+      <c r="A29" s="916"/>
+      <c r="B29" s="916"/>
+      <c r="C29" s="916"/>
+      <c r="D29" s="916"/>
+      <c r="E29" s="916"/>
+      <c r="F29" s="916"/>
+      <c r="G29" s="916"/>
+      <c r="H29" s="916"/>
+      <c r="I29" s="916"/>
+      <c r="J29" s="916"/>
+      <c r="K29" s="916"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" hidden="1" thickBot="1">
-      <c r="A30" s="912"/>
-      <c r="B30" s="912"/>
-      <c r="C30" s="912"/>
-      <c r="D30" s="912"/>
-      <c r="E30" s="912"/>
-      <c r="F30" s="912"/>
-      <c r="G30" s="912"/>
-      <c r="H30" s="912"/>
-      <c r="I30" s="912"/>
-      <c r="J30" s="912"/>
-      <c r="K30" s="912"/>
+      <c r="A30" s="916"/>
+      <c r="B30" s="916"/>
+      <c r="C30" s="916"/>
+      <c r="D30" s="916"/>
+      <c r="E30" s="916"/>
+      <c r="F30" s="916"/>
+      <c r="G30" s="916"/>
+      <c r="H30" s="916"/>
+      <c r="I30" s="916"/>
+      <c r="J30" s="916"/>
+      <c r="K30" s="916"/>
     </row>
     <row r="31" spans="1:12" ht="201.75" customHeight="1" thickBot="1">
-      <c r="A31" s="913" t="s">
+      <c r="A31" s="917" t="s">
         <v>537</v>
       </c>
-      <c r="B31" s="914"/>
-      <c r="C31" s="914"/>
-      <c r="D31" s="914"/>
-      <c r="E31" s="914"/>
-      <c r="F31" s="914"/>
-      <c r="G31" s="914"/>
-      <c r="H31" s="914"/>
-      <c r="I31" s="914"/>
-      <c r="J31" s="914"/>
-      <c r="K31" s="915"/>
+      <c r="B31" s="918"/>
+      <c r="C31" s="918"/>
+      <c r="D31" s="918"/>
+      <c r="E31" s="918"/>
+      <c r="F31" s="918"/>
+      <c r="G31" s="918"/>
+      <c r="H31" s="918"/>
+      <c r="I31" s="918"/>
+      <c r="J31" s="918"/>
+      <c r="K31" s="919"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -29689,6 +29689,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="17">
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K30"/>
+    <mergeCell ref="A31:K31"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A5:K5"/>
@@ -29701,11 +29706,6 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K30"/>
-    <mergeCell ref="A31:K31"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:K18">
     <cfRule type="cellIs" dxfId="163" priority="2" stopIfTrue="1" operator="equal">
@@ -30260,13 +30260,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="922" t="s">
+      <c r="A1" s="935" t="s">
         <v>625</v>
       </c>
-      <c r="B1" s="923"/>
-      <c r="C1" s="923"/>
-      <c r="D1" s="923"/>
-      <c r="E1" s="923"/>
+      <c r="B1" s="936"/>
+      <c r="C1" s="936"/>
+      <c r="D1" s="936"/>
+      <c r="E1" s="936"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="717"/>
@@ -30279,23 +30279,23 @@
       <c r="A3" s="718" t="s">
         <v>626</v>
       </c>
-      <c r="B3" s="924">
+      <c r="B3" s="937">
         <f>'QC Test Summary-Siemens'!C4</f>
         <v>0</v>
       </c>
-      <c r="C3" s="924"/>
-      <c r="D3" s="924"/>
-      <c r="E3" s="924"/>
+      <c r="C3" s="937"/>
+      <c r="D3" s="937"/>
+      <c r="E3" s="937"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="718" t="s">
         <v>627</v>
       </c>
-      <c r="B4" s="925" t="str">
+      <c r="B4" s="938" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="C4" s="925"/>
+      <c r="C4" s="938"/>
       <c r="D4" s="719" t="s">
         <v>43</v>
       </c>
@@ -30325,11 +30325,11 @@
       <c r="A6" s="718" t="s">
         <v>630</v>
       </c>
-      <c r="B6" s="925" t="str">
+      <c r="B6" s="938" t="str">
         <f>Sheet1!X7</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="C6" s="925"/>
+      <c r="C6" s="938"/>
       <c r="D6" s="719" t="s">
         <v>631</v>
       </c>
@@ -30342,8 +30342,8 @@
       <c r="A7" s="718" t="s">
         <v>632</v>
       </c>
-      <c r="B7" s="925"/>
-      <c r="C7" s="925"/>
+      <c r="B7" s="938"/>
+      <c r="C7" s="938"/>
       <c r="D7" s="719" t="s">
         <v>633</v>
       </c>
@@ -30371,7 +30371,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" thickTop="1">
-      <c r="A10" s="920" t="s">
+      <c r="A10" s="934" t="s">
         <v>638</v>
       </c>
       <c r="B10" s="726" t="s">
@@ -30386,7 +30386,7 @@
       <c r="E10" s="729"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A11" s="921"/>
+      <c r="A11" s="930"/>
       <c r="B11" s="730" t="s">
         <v>642</v>
       </c>
@@ -30399,7 +30399,7 @@
       <c r="E11" s="733"/>
     </row>
     <row r="12" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A12" s="931" t="s">
+      <c r="A12" s="925" t="s">
         <v>644</v>
       </c>
       <c r="B12" s="734" t="s">
@@ -30414,7 +30414,7 @@
       <c r="E12" s="737"/>
     </row>
     <row r="13" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A13" s="932"/>
+      <c r="A13" s="926"/>
       <c r="B13" s="738" t="s">
         <v>648</v>
       </c>
@@ -30427,7 +30427,7 @@
       <c r="E13" s="741"/>
     </row>
     <row r="14" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A14" s="933"/>
+      <c r="A14" s="927"/>
       <c r="B14" s="742" t="s">
         <v>650</v>
       </c>
@@ -30440,7 +30440,7 @@
       <c r="E14" s="744"/>
     </row>
     <row r="15" spans="1:5" ht="56.25">
-      <c r="A15" s="934" t="s">
+      <c r="A15" s="928" t="s">
         <v>652</v>
       </c>
       <c r="B15" s="745" t="s">
@@ -30455,7 +30455,7 @@
       <c r="E15" s="747"/>
     </row>
     <row r="16" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A16" s="935"/>
+      <c r="A16" s="929"/>
       <c r="B16" s="730" t="s">
         <v>655</v>
       </c>
@@ -30468,7 +30468,7 @@
       <c r="E16" s="749"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A17" s="926" t="s">
+      <c r="A17" s="920" t="s">
         <v>657</v>
       </c>
       <c r="B17" s="750" t="s">
@@ -30483,7 +30483,7 @@
       <c r="E17" s="751"/>
     </row>
     <row r="18" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A18" s="921"/>
+      <c r="A18" s="930"/>
       <c r="B18" s="752" t="s">
         <v>660</v>
       </c>
@@ -30496,7 +30496,7 @@
       <c r="E18" s="733"/>
     </row>
     <row r="19" spans="1:5" ht="33.75">
-      <c r="A19" s="936" t="s">
+      <c r="A19" s="931" t="s">
         <v>662</v>
       </c>
       <c r="B19" s="750" t="s">
@@ -30511,7 +30511,7 @@
       <c r="E19" s="751"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A20" s="937"/>
+      <c r="A20" s="932"/>
       <c r="B20" s="754" t="s">
         <v>665</v>
       </c>
@@ -30524,7 +30524,7 @@
       <c r="E20" s="756"/>
     </row>
     <row r="21" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A21" s="938"/>
+      <c r="A21" s="933"/>
       <c r="B21" s="752" t="s">
         <v>667</v>
       </c>
@@ -30537,7 +30537,7 @@
       <c r="E21" s="733"/>
     </row>
     <row r="22" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A22" s="926" t="s">
+      <c r="A22" s="920" t="s">
         <v>669</v>
       </c>
       <c r="B22" s="750" t="s">
@@ -30552,7 +30552,7 @@
       <c r="E22" s="751"/>
     </row>
     <row r="23" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A23" s="921"/>
+      <c r="A23" s="930"/>
       <c r="B23" s="730" t="s">
         <v>672</v>
       </c>
@@ -30565,7 +30565,7 @@
       <c r="E23" s="749"/>
     </row>
     <row r="24" spans="1:5" ht="33.75">
-      <c r="A24" s="936" t="s">
+      <c r="A24" s="931" t="s">
         <v>674</v>
       </c>
       <c r="B24" s="750" t="s">
@@ -30580,7 +30580,7 @@
       <c r="E24" s="751"/>
     </row>
     <row r="25" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A25" s="937"/>
+      <c r="A25" s="932"/>
       <c r="B25" s="754" t="s">
         <v>677</v>
       </c>
@@ -30593,7 +30593,7 @@
       <c r="E25" s="756"/>
     </row>
     <row r="26" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A26" s="937"/>
+      <c r="A26" s="932"/>
       <c r="B26" s="757" t="s">
         <v>679</v>
       </c>
@@ -30606,7 +30606,7 @@
       <c r="E26" s="756"/>
     </row>
     <row r="27" spans="1:5" ht="22.5">
-      <c r="A27" s="937"/>
+      <c r="A27" s="932"/>
       <c r="B27" s="757" t="s">
         <v>681</v>
       </c>
@@ -30619,7 +30619,7 @@
       <c r="E27" s="756"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A28" s="938"/>
+      <c r="A28" s="933"/>
       <c r="B28" s="758" t="s">
         <v>683</v>
       </c>
@@ -30632,7 +30632,7 @@
       <c r="E28" s="749"/>
     </row>
     <row r="29" spans="1:5" ht="22.5">
-      <c r="A29" s="926" t="s">
+      <c r="A29" s="920" t="s">
         <v>685</v>
       </c>
       <c r="B29" s="759" t="s">
@@ -30647,7 +30647,7 @@
       <c r="E29" s="751"/>
     </row>
     <row r="30" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A30" s="927"/>
+      <c r="A30" s="921"/>
       <c r="B30" s="757" t="s">
         <v>688</v>
       </c>
@@ -30660,7 +30660,7 @@
       <c r="E30" s="756"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A31" s="928"/>
+      <c r="A31" s="922"/>
       <c r="B31" s="758" t="s">
         <v>690</v>
       </c>
@@ -30673,7 +30673,7 @@
       <c r="E31" s="749"/>
     </row>
     <row r="32" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A32" s="926" t="s">
+      <c r="A32" s="920" t="s">
         <v>692</v>
       </c>
       <c r="B32" s="759" t="s">
@@ -30688,7 +30688,7 @@
       <c r="E32" s="751"/>
     </row>
     <row r="33" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A33" s="927"/>
+      <c r="A33" s="921"/>
       <c r="B33" s="757" t="s">
         <v>695</v>
       </c>
@@ -30701,7 +30701,7 @@
       <c r="E33" s="756"/>
     </row>
     <row r="34" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A34" s="928"/>
+      <c r="A34" s="922"/>
       <c r="B34" s="758" t="s">
         <v>696</v>
       </c>
@@ -30789,13 +30789,13 @@
       <c r="E39" s="733"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="929" t="s">
+      <c r="A40" s="923" t="s">
         <v>761</v>
       </c>
-      <c r="B40" s="930"/>
-      <c r="C40" s="930"/>
-      <c r="D40" s="930"/>
-      <c r="E40" s="930"/>
+      <c r="B40" s="924"/>
+      <c r="C40" s="924"/>
+      <c r="D40" s="924"/>
+      <c r="E40" s="924"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="768"/>
@@ -31510,6 +31510,12 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="15">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A40:E40"/>
@@ -31519,12 +31525,6 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E10 JA10 SW10 ACS10 AMO10 AWK10 BGG10 BQC10 BZY10 CJU10 CTQ10 DDM10 DNI10 DXE10 EHA10 EQW10 FAS10 FKO10 FUK10 GEG10 GOC10 GXY10 HHU10 HRQ10 IBM10 ILI10 IVE10 JFA10 JOW10 JYS10 KIO10 KSK10 LCG10 LMC10 LVY10 MFU10 MPQ10 MZM10 NJI10 NTE10 ODA10 OMW10 OWS10 PGO10 PQK10 QAG10 QKC10 QTY10 RDU10 RNQ10 RXM10 SHI10 SRE10 TBA10 TKW10 TUS10 UEO10 UOK10 UYG10 VIC10 VRY10 WBU10 WLQ10 WVM10 E65546 JA65546 SW65546 ACS65546 AMO65546 AWK65546 BGG65546 BQC65546 BZY65546 CJU65546 CTQ65546 DDM65546 DNI65546 DXE65546 EHA65546 EQW65546 FAS65546 FKO65546 FUK65546 GEG65546 GOC65546 GXY65546 HHU65546 HRQ65546 IBM65546 ILI65546 IVE65546 JFA65546 JOW65546 JYS65546 KIO65546 KSK65546 LCG65546 LMC65546 LVY65546 MFU65546 MPQ65546 MZM65546 NJI65546 NTE65546 ODA65546 OMW65546 OWS65546 PGO65546 PQK65546 QAG65546 QKC65546 QTY65546 RDU65546 RNQ65546 RXM65546 SHI65546 SRE65546 TBA65546 TKW65546 TUS65546 UEO65546 UOK65546 UYG65546 VIC65546 VRY65546 WBU65546 WLQ65546 WVM65546 E131082 JA131082 SW131082 ACS131082 AMO131082 AWK131082 BGG131082 BQC131082 BZY131082 CJU131082 CTQ131082 DDM131082 DNI131082 DXE131082 EHA131082 EQW131082 FAS131082 FKO131082 FUK131082 GEG131082 GOC131082 GXY131082 HHU131082 HRQ131082 IBM131082 ILI131082 IVE131082 JFA131082 JOW131082 JYS131082 KIO131082 KSK131082 LCG131082 LMC131082 LVY131082 MFU131082 MPQ131082 MZM131082 NJI131082 NTE131082 ODA131082 OMW131082 OWS131082 PGO131082 PQK131082 QAG131082 QKC131082 QTY131082 RDU131082 RNQ131082 RXM131082 SHI131082 SRE131082 TBA131082 TKW131082 TUS131082 UEO131082 UOK131082 UYG131082 VIC131082 VRY131082 WBU131082 WLQ131082 WVM131082 E196618 JA196618 SW196618 ACS196618 AMO196618 AWK196618 BGG196618 BQC196618 BZY196618 CJU196618 CTQ196618 DDM196618 DNI196618 DXE196618 EHA196618 EQW196618 FAS196618 FKO196618 FUK196618 GEG196618 GOC196618 GXY196618 HHU196618 HRQ196618 IBM196618 ILI196618 IVE196618 JFA196618 JOW196618 JYS196618 KIO196618 KSK196618 LCG196618 LMC196618 LVY196618 MFU196618 MPQ196618 MZM196618 NJI196618 NTE196618 ODA196618 OMW196618 OWS196618 PGO196618 PQK196618 QAG196618 QKC196618 QTY196618 RDU196618 RNQ196618 RXM196618 SHI196618 SRE196618 TBA196618 TKW196618 TUS196618 UEO196618 UOK196618 UYG196618 VIC196618 VRY196618 WBU196618 WLQ196618 WVM196618 E262154 JA262154 SW262154 ACS262154 AMO262154 AWK262154 BGG262154 BQC262154 BZY262154 CJU262154 CTQ262154 DDM262154 DNI262154 DXE262154 EHA262154 EQW262154 FAS262154 FKO262154 FUK262154 GEG262154 GOC262154 GXY262154 HHU262154 HRQ262154 IBM262154 ILI262154 IVE262154 JFA262154 JOW262154 JYS262154 KIO262154 KSK262154 LCG262154 LMC262154 LVY262154 MFU262154 MPQ262154 MZM262154 NJI262154 NTE262154 ODA262154 OMW262154 OWS262154 PGO262154 PQK262154 QAG262154 QKC262154 QTY262154 RDU262154 RNQ262154 RXM262154 SHI262154 SRE262154 TBA262154 TKW262154 TUS262154 UEO262154 UOK262154 UYG262154 VIC262154 VRY262154 WBU262154 WLQ262154 WVM262154 E327690 JA327690 SW327690 ACS327690 AMO327690 AWK327690 BGG327690 BQC327690 BZY327690 CJU327690 CTQ327690 DDM327690 DNI327690 DXE327690 EHA327690 EQW327690 FAS327690 FKO327690 FUK327690 GEG327690 GOC327690 GXY327690 HHU327690 HRQ327690 IBM327690 ILI327690 IVE327690 JFA327690 JOW327690 JYS327690 KIO327690 KSK327690 LCG327690 LMC327690 LVY327690 MFU327690 MPQ327690 MZM327690 NJI327690 NTE327690 ODA327690 OMW327690 OWS327690 PGO327690 PQK327690 QAG327690 QKC327690 QTY327690 RDU327690 RNQ327690 RXM327690 SHI327690 SRE327690 TBA327690 TKW327690 TUS327690 UEO327690 UOK327690 UYG327690 VIC327690 VRY327690 WBU327690 WLQ327690 WVM327690 E393226 JA393226 SW393226 ACS393226 AMO393226 AWK393226 BGG393226 BQC393226 BZY393226 CJU393226 CTQ393226 DDM393226 DNI393226 DXE393226 EHA393226 EQW393226 FAS393226 FKO393226 FUK393226 GEG393226 GOC393226 GXY393226 HHU393226 HRQ393226 IBM393226 ILI393226 IVE393226 JFA393226 JOW393226 JYS393226 KIO393226 KSK393226 LCG393226 LMC393226 LVY393226 MFU393226 MPQ393226 MZM393226 NJI393226 NTE393226 ODA393226 OMW393226 OWS393226 PGO393226 PQK393226 QAG393226 QKC393226 QTY393226 RDU393226 RNQ393226 RXM393226 SHI393226 SRE393226 TBA393226 TKW393226 TUS393226 UEO393226 UOK393226 UYG393226 VIC393226 VRY393226 WBU393226 WLQ393226 WVM393226 E458762 JA458762 SW458762 ACS458762 AMO458762 AWK458762 BGG458762 BQC458762 BZY458762 CJU458762 CTQ458762 DDM458762 DNI458762 DXE458762 EHA458762 EQW458762 FAS458762 FKO458762 FUK458762 GEG458762 GOC458762 GXY458762 HHU458762 HRQ458762 IBM458762 ILI458762 IVE458762 JFA458762 JOW458762 JYS458762 KIO458762 KSK458762 LCG458762 LMC458762 LVY458762 MFU458762 MPQ458762 MZM458762 NJI458762 NTE458762 ODA458762 OMW458762 OWS458762 PGO458762 PQK458762 QAG458762 QKC458762 QTY458762 RDU458762 RNQ458762 RXM458762 SHI458762 SRE458762 TBA458762 TKW458762 TUS458762 UEO458762 UOK458762 UYG458762 VIC458762 VRY458762 WBU458762 WLQ458762 WVM458762 E524298 JA524298 SW524298 ACS524298 AMO524298 AWK524298 BGG524298 BQC524298 BZY524298 CJU524298 CTQ524298 DDM524298 DNI524298 DXE524298 EHA524298 EQW524298 FAS524298 FKO524298 FUK524298 GEG524298 GOC524298 GXY524298 HHU524298 HRQ524298 IBM524298 ILI524298 IVE524298 JFA524298 JOW524298 JYS524298 KIO524298 KSK524298 LCG524298 LMC524298 LVY524298 MFU524298 MPQ524298 MZM524298 NJI524298 NTE524298 ODA524298 OMW524298 OWS524298 PGO524298 PQK524298 QAG524298 QKC524298 QTY524298 RDU524298 RNQ524298 RXM524298 SHI524298 SRE524298 TBA524298 TKW524298 TUS524298 UEO524298 UOK524298 UYG524298 VIC524298 VRY524298 WBU524298 WLQ524298 WVM524298 E589834 JA589834 SW589834 ACS589834 AMO589834 AWK589834 BGG589834 BQC589834 BZY589834 CJU589834 CTQ589834 DDM589834 DNI589834 DXE589834 EHA589834 EQW589834 FAS589834 FKO589834 FUK589834 GEG589834 GOC589834 GXY589834 HHU589834 HRQ589834 IBM589834 ILI589834 IVE589834 JFA589834 JOW589834 JYS589834 KIO589834 KSK589834 LCG589834 LMC589834 LVY589834 MFU589834 MPQ589834 MZM589834 NJI589834 NTE589834 ODA589834 OMW589834 OWS589834 PGO589834 PQK589834 QAG589834 QKC589834 QTY589834 RDU589834 RNQ589834 RXM589834 SHI589834 SRE589834 TBA589834 TKW589834 TUS589834 UEO589834 UOK589834 UYG589834 VIC589834 VRY589834 WBU589834 WLQ589834 WVM589834 E655370 JA655370 SW655370 ACS655370 AMO655370 AWK655370 BGG655370 BQC655370 BZY655370 CJU655370 CTQ655370 DDM655370 DNI655370 DXE655370 EHA655370 EQW655370 FAS655370 FKO655370 FUK655370 GEG655370 GOC655370 GXY655370 HHU655370 HRQ655370 IBM655370 ILI655370 IVE655370 JFA655370 JOW655370 JYS655370 KIO655370 KSK655370 LCG655370 LMC655370 LVY655370 MFU655370 MPQ655370 MZM655370 NJI655370 NTE655370 ODA655370 OMW655370 OWS655370 PGO655370 PQK655370 QAG655370 QKC655370 QTY655370 RDU655370 RNQ655370 RXM655370 SHI655370 SRE655370 TBA655370 TKW655370 TUS655370 UEO655370 UOK655370 UYG655370 VIC655370 VRY655370 WBU655370 WLQ655370 WVM655370 E720906 JA720906 SW720906 ACS720906 AMO720906 AWK720906 BGG720906 BQC720906 BZY720906 CJU720906 CTQ720906 DDM720906 DNI720906 DXE720906 EHA720906 EQW720906 FAS720906 FKO720906 FUK720906 GEG720906 GOC720906 GXY720906 HHU720906 HRQ720906 IBM720906 ILI720906 IVE720906 JFA720906 JOW720906 JYS720906 KIO720906 KSK720906 LCG720906 LMC720906 LVY720906 MFU720906 MPQ720906 MZM720906 NJI720906 NTE720906 ODA720906 OMW720906 OWS720906 PGO720906 PQK720906 QAG720906 QKC720906 QTY720906 RDU720906 RNQ720906 RXM720906 SHI720906 SRE720906 TBA720906 TKW720906 TUS720906 UEO720906 UOK720906 UYG720906 VIC720906 VRY720906 WBU720906 WLQ720906 WVM720906 E786442 JA786442 SW786442 ACS786442 AMO786442 AWK786442 BGG786442 BQC786442 BZY786442 CJU786442 CTQ786442 DDM786442 DNI786442 DXE786442 EHA786442 EQW786442 FAS786442 FKO786442 FUK786442 GEG786442 GOC786442 GXY786442 HHU786442 HRQ786442 IBM786442 ILI786442 IVE786442 JFA786442 JOW786442 JYS786442 KIO786442 KSK786442 LCG786442 LMC786442 LVY786442 MFU786442 MPQ786442 MZM786442 NJI786442 NTE786442 ODA786442 OMW786442 OWS786442 PGO786442 PQK786442 QAG786442 QKC786442 QTY786442 RDU786442 RNQ786442 RXM786442 SHI786442 SRE786442 TBA786442 TKW786442 TUS786442 UEO786442 UOK786442 UYG786442 VIC786442 VRY786442 WBU786442 WLQ786442 WVM786442 E851978 JA851978 SW851978 ACS851978 AMO851978 AWK851978 BGG851978 BQC851978 BZY851978 CJU851978 CTQ851978 DDM851978 DNI851978 DXE851978 EHA851978 EQW851978 FAS851978 FKO851978 FUK851978 GEG851978 GOC851978 GXY851978 HHU851978 HRQ851978 IBM851978 ILI851978 IVE851978 JFA851978 JOW851978 JYS851978 KIO851978 KSK851978 LCG851978 LMC851978 LVY851978 MFU851978 MPQ851978 MZM851978 NJI851978 NTE851978 ODA851978 OMW851978 OWS851978 PGO851978 PQK851978 QAG851978 QKC851978 QTY851978 RDU851978 RNQ851978 RXM851978 SHI851978 SRE851978 TBA851978 TKW851978 TUS851978 UEO851978 UOK851978 UYG851978 VIC851978 VRY851978 WBU851978 WLQ851978 WVM851978 E917514 JA917514 SW917514 ACS917514 AMO917514 AWK917514 BGG917514 BQC917514 BZY917514 CJU917514 CTQ917514 DDM917514 DNI917514 DXE917514 EHA917514 EQW917514 FAS917514 FKO917514 FUK917514 GEG917514 GOC917514 GXY917514 HHU917514 HRQ917514 IBM917514 ILI917514 IVE917514 JFA917514 JOW917514 JYS917514 KIO917514 KSK917514 LCG917514 LMC917514 LVY917514 MFU917514 MPQ917514 MZM917514 NJI917514 NTE917514 ODA917514 OMW917514 OWS917514 PGO917514 PQK917514 QAG917514 QKC917514 QTY917514 RDU917514 RNQ917514 RXM917514 SHI917514 SRE917514 TBA917514 TKW917514 TUS917514 UEO917514 UOK917514 UYG917514 VIC917514 VRY917514 WBU917514 WLQ917514 WVM917514 E983050 JA983050 SW983050 ACS983050 AMO983050 AWK983050 BGG983050 BQC983050 BZY983050 CJU983050 CTQ983050 DDM983050 DNI983050 DXE983050 EHA983050 EQW983050 FAS983050 FKO983050 FUK983050 GEG983050 GOC983050 GXY983050 HHU983050 HRQ983050 IBM983050 ILI983050 IVE983050 JFA983050 JOW983050 JYS983050 KIO983050 KSK983050 LCG983050 LMC983050 LVY983050 MFU983050 MPQ983050 MZM983050 NJI983050 NTE983050 ODA983050 OMW983050 OWS983050 PGO983050 PQK983050 QAG983050 QKC983050 QTY983050 RDU983050 RNQ983050 RXM983050 SHI983050 SRE983050 TBA983050 TKW983050 TUS983050 UEO983050 UOK983050 UYG983050 VIC983050 VRY983050 WBU983050 WLQ983050 WVM983050"/>
@@ -33540,9 +33540,7 @@
   </sheetPr>
   <dimension ref="A1:AR518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" customHeight="1"/>
   <cols>
@@ -33891,19 +33889,19 @@
       <c r="E10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="973" t="str">
+      <c r="F10" s="949" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="973"/>
+      <c r="G10" s="949"/>
       <c r="J10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="965" t="str">
+      <c r="K10" s="942" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="965"/>
+      <c r="L10" s="942"/>
       <c r="M10" s="68"/>
       <c r="O10" s="29"/>
       <c r="Q10" s="34" t="s">
@@ -33968,19 +33966,19 @@
       <c r="E11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="974" t="str">
+      <c r="F11" s="950" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="974"/>
+      <c r="G11" s="950"/>
       <c r="J11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="965" t="str">
+      <c r="K11" s="942" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="965"/>
+      <c r="L11" s="942"/>
       <c r="M11" s="68"/>
       <c r="O11" s="29"/>
       <c r="Q11" s="34" t="s">
@@ -34045,19 +34043,19 @@
       <c r="E12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="974" t="str">
+      <c r="F12" s="950" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="974"/>
+      <c r="G12" s="950"/>
       <c r="J12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="975" t="str">
+      <c r="K12" s="948" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="975"/>
+      <c r="L12" s="948"/>
       <c r="M12" s="68"/>
       <c r="O12" s="29"/>
       <c r="Q12" s="34" t="s">
@@ -34122,19 +34120,19 @@
       <c r="E13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="974" t="str">
+      <c r="F13" s="950" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="974"/>
+      <c r="G13" s="950"/>
       <c r="J13" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="965" t="str">
+      <c r="K13" s="942" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="965"/>
+      <c r="L13" s="942"/>
       <c r="M13" s="68"/>
       <c r="O13" s="29"/>
       <c r="Q13" s="34" t="s">
@@ -34308,19 +34306,19 @@
       <c r="E16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="965" t="str">
+      <c r="F16" s="942" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="965"/>
+      <c r="G16" s="942"/>
       <c r="J16" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="975" t="str">
+      <c r="K16" s="948" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="975"/>
+      <c r="L16" s="948"/>
       <c r="M16" s="68"/>
       <c r="O16" s="29"/>
       <c r="P16" s="74" t="s">
@@ -34372,19 +34370,19 @@
       <c r="E17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="965" t="str">
+      <c r="F17" s="942" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="965"/>
+      <c r="G17" s="942"/>
       <c r="J17" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="976" t="str">
+      <c r="K17" s="951" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="976"/>
+      <c r="L17" s="951"/>
       <c r="M17" s="68"/>
       <c r="O17" s="29"/>
       <c r="Q17" s="34" t="s">
@@ -34449,19 +34447,19 @@
       <c r="E18" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="965" t="str">
+      <c r="F18" s="942" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="965"/>
+      <c r="G18" s="942"/>
       <c r="J18" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="965" t="str">
+      <c r="K18" s="942" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="965"/>
+      <c r="L18" s="942"/>
       <c r="M18" s="68"/>
       <c r="O18" s="29"/>
       <c r="Q18" s="34" t="s">
@@ -34627,19 +34625,19 @@
       <c r="E21" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="965" t="str">
+      <c r="F21" s="942" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="965"/>
+      <c r="G21" s="942"/>
       <c r="J21" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="965" t="str">
+      <c r="K21" s="942" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L21" s="965"/>
+      <c r="L21" s="942"/>
       <c r="M21" s="68"/>
       <c r="O21" s="29"/>
       <c r="P21" s="74" t="s">
@@ -34699,17 +34697,17 @@
       <c r="E22" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="975" t="str">
+      <c r="F22" s="948" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="975"/>
+      <c r="G22" s="948"/>
       <c r="J22" s="34"/>
-      <c r="K22" s="965" t="str">
+      <c r="K22" s="942" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="965"/>
+      <c r="L22" s="942"/>
       <c r="M22" s="68"/>
       <c r="O22" s="29"/>
       <c r="Q22" s="34" t="s">
@@ -34774,11 +34772,11 @@
       <c r="J23" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="965" t="str">
+      <c r="K23" s="942" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="965"/>
+      <c r="L23" s="942"/>
       <c r="M23" s="68"/>
       <c r="O23" s="29"/>
       <c r="Q23" s="34" t="s">
@@ -34837,16 +34835,16 @@
       <c r="E24" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="965" t="str">
+      <c r="F24" s="942" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="965"/>
-      <c r="K24" s="965" t="str">
+      <c r="G24" s="942"/>
+      <c r="K24" s="942" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="965"/>
+      <c r="L24" s="942"/>
       <c r="M24" s="68"/>
       <c r="O24" s="29"/>
       <c r="P24" s="74" t="s">
@@ -34906,17 +34904,17 @@
       <c r="E25" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="965" t="str">
+      <c r="F25" s="942" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="965"/>
+      <c r="G25" s="942"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="965" t="str">
+      <c r="K25" s="942" t="str">
         <f>IF(V26="","",V26)</f>
         <v/>
       </c>
-      <c r="L25" s="965"/>
+      <c r="L25" s="942"/>
       <c r="M25" s="68"/>
       <c r="O25" s="29"/>
       <c r="Q25" s="34" t="s">
@@ -34978,11 +34976,11 @@
       <c r="E26" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="965" t="str">
+      <c r="F26" s="942" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="965"/>
+      <c r="G26" s="942"/>
       <c r="I26" s="74" t="s">
         <v>54</v>
       </c>
@@ -35050,11 +35048,11 @@
       <c r="J27" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="K27" s="965" t="str">
+      <c r="K27" s="942" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="965"/>
+      <c r="L27" s="942"/>
       <c r="M27" s="68"/>
       <c r="O27" s="29"/>
       <c r="Q27" s="34" t="s">
@@ -35105,20 +35103,20 @@
       <c r="E28" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="965" t="str">
+      <c r="F28" s="942" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="965"/>
+      <c r="G28" s="942"/>
       <c r="I28" s="4"/>
       <c r="J28" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="K28" s="965" t="str">
+      <c r="K28" s="942" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="965"/>
+      <c r="L28" s="942"/>
       <c r="M28" s="68"/>
       <c r="O28" s="29"/>
       <c r="P28" s="74" t="s">
@@ -35178,22 +35176,22 @@
       <c r="E29" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="965" t="str">
+      <c r="F29" s="942" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="965"/>
+      <c r="G29" s="942"/>
       <c r="I29" s="74" t="s">
         <v>58</v>
       </c>
       <c r="J29" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="K29" s="965" t="str">
+      <c r="K29" s="942" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="965"/>
+      <c r="L29" s="942"/>
       <c r="M29" s="68"/>
       <c r="O29" s="29"/>
       <c r="Q29" s="34" t="s">
@@ -35258,19 +35256,19 @@
       <c r="E30" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="965" t="str">
+      <c r="F30" s="942" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="965"/>
+      <c r="G30" s="942"/>
       <c r="J30" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="965" t="str">
+      <c r="K30" s="942" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="965"/>
+      <c r="L30" s="942"/>
       <c r="M30" s="68"/>
       <c r="O30" s="29"/>
       <c r="Q30" s="34" t="s">
@@ -35561,21 +35559,21 @@
       <c r="C35" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="972" t="s">
+      <c r="D35" s="952" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="972"/>
-      <c r="F35" s="972"/>
-      <c r="G35" s="972" t="s">
+      <c r="E35" s="952"/>
+      <c r="F35" s="952"/>
+      <c r="G35" s="952" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="972"/>
-      <c r="I35" s="972"/>
-      <c r="J35" s="972" t="s">
+      <c r="H35" s="952"/>
+      <c r="I35" s="952"/>
+      <c r="J35" s="952" t="s">
         <v>65</v>
       </c>
-      <c r="K35" s="972"/>
-      <c r="L35" s="972"/>
+      <c r="K35" s="952"/>
+      <c r="L35" s="952"/>
       <c r="M35" s="68"/>
       <c r="O35" s="869"/>
       <c r="P35" s="870" t="s">
@@ -35637,11 +35635,11 @@
       <c r="D36" s="530"/>
       <c r="E36" s="531"/>
       <c r="F36" s="536"/>
-      <c r="G36" s="968" t="s">
+      <c r="G36" s="953" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="968"/>
-      <c r="I36" s="968"/>
+      <c r="H36" s="953"/>
+      <c r="I36" s="953"/>
       <c r="J36" s="530"/>
       <c r="K36" s="531"/>
       <c r="L36" s="536"/>
@@ -36214,10 +36212,10 @@
       <c r="C44" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="L44" s="969" t="s">
+      <c r="L44" s="954" t="s">
         <v>88</v>
       </c>
-      <c r="M44" s="969"/>
+      <c r="M44" s="954"/>
       <c r="O44" s="871"/>
       <c r="P44" s="872" t="str">
         <f>IF(OR(O35="",O35=1),"Unit installed as shown on shielding plan","")</f>
@@ -36321,7 +36319,9 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="O46" s="95"/>
+      <c r="O46" s="95">
+        <v>3</v>
+      </c>
       <c r="P46" s="20" t="s">
         <v>493</v>
       </c>
@@ -36933,7 +36933,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O62" s="268"/>
+      <c r="O62" s="95"/>
       <c r="P62" s="20" t="s">
         <v>607</v>
       </c>
@@ -37985,7 +37985,7 @@
       <c r="AB85" s="64"/>
       <c r="AD85" s="115" t="e">
         <f>IF(X265="","",X265)</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="AH85"/>
       <c r="AI85"/>
@@ -39182,7 +39182,7 @@
       <c r="K109" s="67"/>
       <c r="L109" s="146" t="str">
         <f t="shared" ref="L109:L125" si="17">IF(O46="","TBD",IF(O46=1,"YES",IF(O46=3,"NA","")))</f>
-        <v>TBD</v>
+        <v>NA</v>
       </c>
       <c r="M109" s="103" t="str">
         <f t="shared" ref="M109:M125" si="18">IF(O46=2,"NO","")</f>
@@ -39798,7 +39798,7 @@
         <v>65</v>
       </c>
       <c r="W121" s="956"/>
-      <c r="X121" s="970"/>
+      <c r="X121" s="961"/>
       <c r="Y121" s="31"/>
       <c r="AA121" s="34" t="s">
         <v>196</v>
@@ -39855,7 +39855,7 @@
       <c r="U122" s="960"/>
       <c r="V122" s="958"/>
       <c r="W122" s="959"/>
-      <c r="X122" s="971"/>
+      <c r="X122" s="962"/>
       <c r="Y122" s="31"/>
       <c r="AA122" s="34" t="s">
         <v>197</v>
@@ -40352,11 +40352,11 @@
       </c>
       <c r="T129" s="956"/>
       <c r="U129" s="957"/>
-      <c r="V129" s="961" t="s">
+      <c r="V129" s="963" t="s">
         <v>65</v>
       </c>
-      <c r="W129" s="962"/>
-      <c r="X129" s="963"/>
+      <c r="W129" s="964"/>
+      <c r="X129" s="965"/>
       <c r="Y129" s="31"/>
       <c r="AA129" s="34" t="s">
         <v>589</v>
@@ -40411,9 +40411,9 @@
       <c r="S130" s="958"/>
       <c r="T130" s="959"/>
       <c r="U130" s="960"/>
-      <c r="V130" s="964"/>
-      <c r="W130" s="965"/>
-      <c r="X130" s="966"/>
+      <c r="V130" s="966"/>
+      <c r="W130" s="942"/>
+      <c r="X130" s="967"/>
       <c r="Y130" s="31"/>
       <c r="AA130" s="34" t="s">
         <v>590</v>
@@ -42084,12 +42084,12 @@
       <c r="L173" s="67"/>
       <c r="M173" s="68"/>
       <c r="O173" s="29"/>
-      <c r="P173" s="967" t="s">
+      <c r="P173" s="946" t="s">
         <v>225</v>
       </c>
-      <c r="Q173" s="967"/>
-      <c r="R173" s="967"/>
-      <c r="S173" s="967"/>
+      <c r="Q173" s="946"/>
+      <c r="R173" s="946"/>
+      <c r="S173" s="946"/>
       <c r="U173" s="534" t="s">
         <v>226</v>
       </c>
@@ -42259,12 +42259,12 @@
       </c>
       <c r="B179" s="66"/>
       <c r="C179" s="67"/>
-      <c r="D179" s="967" t="s">
+      <c r="D179" s="946" t="s">
         <v>225</v>
       </c>
-      <c r="E179" s="967"/>
-      <c r="F179" s="967"/>
-      <c r="G179" s="967"/>
+      <c r="E179" s="946"/>
+      <c r="F179" s="946"/>
+      <c r="G179" s="946"/>
       <c r="H179" s="67"/>
       <c r="I179" s="534" t="s">
         <v>226</v>
@@ -42402,17 +42402,17 @@
       <c r="M182" s="68"/>
       <c r="O182" s="29"/>
       <c r="P182" s="67"/>
-      <c r="Q182" s="945" t="s">
+      <c r="Q182" s="939" t="s">
         <v>237</v>
       </c>
-      <c r="R182" s="945"/>
-      <c r="S182" s="945"/>
+      <c r="R182" s="939"/>
+      <c r="S182" s="939"/>
       <c r="T182" s="4"/>
-      <c r="U182" s="945" t="s">
+      <c r="U182" s="939" t="s">
         <v>237</v>
       </c>
-      <c r="V182" s="945"/>
-      <c r="W182" s="945"/>
+      <c r="V182" s="939"/>
+      <c r="W182" s="939"/>
       <c r="X182" s="4"/>
       <c r="Y182" s="31"/>
     </row>
@@ -42541,22 +42541,22 @@
       </c>
       <c r="B186" s="66"/>
       <c r="C186" s="106"/>
-      <c r="D186" s="979" t="s">
+      <c r="D186" s="943" t="s">
         <v>237</v>
       </c>
-      <c r="E186" s="980"/>
-      <c r="F186" s="981"/>
+      <c r="E186" s="944"/>
+      <c r="F186" s="945"/>
       <c r="G186" s="160"/>
-      <c r="H186" s="979" t="s">
+      <c r="H186" s="943" t="s">
         <v>237</v>
       </c>
-      <c r="I186" s="980"/>
-      <c r="J186" s="981"/>
-      <c r="K186" s="979" t="s">
+      <c r="I186" s="944"/>
+      <c r="J186" s="945"/>
+      <c r="K186" s="943" t="s">
         <v>237</v>
       </c>
-      <c r="L186" s="980"/>
-      <c r="M186" s="982"/>
+      <c r="L186" s="944"/>
+      <c r="M186" s="947"/>
       <c r="O186" s="159"/>
       <c r="P186" s="160" t="s">
         <v>243</v>
@@ -43029,17 +43029,17 @@
       <c r="M194" s="68"/>
       <c r="O194" s="159"/>
       <c r="P194" s="67"/>
-      <c r="Q194" s="945" t="s">
+      <c r="Q194" s="939" t="s">
         <v>237</v>
       </c>
-      <c r="R194" s="945"/>
-      <c r="S194" s="945"/>
+      <c r="R194" s="939"/>
+      <c r="S194" s="939"/>
       <c r="T194" s="4"/>
-      <c r="U194" s="945" t="s">
+      <c r="U194" s="939" t="s">
         <v>237</v>
       </c>
-      <c r="V194" s="945"/>
-      <c r="W194" s="945"/>
+      <c r="V194" s="939"/>
+      <c r="W194" s="939"/>
       <c r="X194" s="4"/>
       <c r="Y194" s="31"/>
     </row>
@@ -45230,11 +45230,11 @@
         <v>/</v>
       </c>
       <c r="T245" s="4"/>
-      <c r="U245" s="945" t="s">
+      <c r="U245" s="939" t="s">
         <v>293</v>
       </c>
-      <c r="V245" s="945"/>
-      <c r="W245" s="945"/>
+      <c r="V245" s="939"/>
+      <c r="W245" s="939"/>
       <c r="X245" s="4"/>
       <c r="Y245" s="231"/>
       <c r="Z245" s="535"/>
@@ -45447,11 +45447,11 @@
         <v>/</v>
       </c>
       <c r="G250" s="67"/>
-      <c r="H250" s="979" t="s">
+      <c r="H250" s="943" t="s">
         <v>293</v>
       </c>
-      <c r="I250" s="980"/>
-      <c r="J250" s="981"/>
+      <c r="I250" s="944"/>
+      <c r="J250" s="945"/>
       <c r="K250" s="67"/>
       <c r="L250" s="67"/>
       <c r="M250" s="68"/>
@@ -46106,8 +46106,8 @@
         <v>0</v>
       </c>
       <c r="U263" s="296" t="e">
-        <f>IF(Q263="","",($T$259*HLOOKUP($Q$260,Tables!$B$70:$D$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$B$70:$D$72,3))*Q263)</f>
-        <v>#DIV/0!</v>
+        <f>IF(Q263="","",($T$259*HLOOKUP($Q$260,Tables!$B$70:$D$72,2,FALSE)+HLOOKUP(Sheet1!$Q$260,Tables!$B$70:$D$72,3,FALSE))*Q263)</f>
+        <v>#N/A</v>
       </c>
       <c r="V263" s="67"/>
       <c r="W263" s="160" t="s">
@@ -46115,7 +46115,7 @@
       </c>
       <c r="X263" s="266" t="e">
         <f>IF(U267="","",U267)</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y263" s="31"/>
       <c r="AA263" s="4"/>
@@ -46162,8 +46162,8 @@
         <v>0</v>
       </c>
       <c r="U264" s="296" t="e">
-        <f>IF(Q264="","",($T$259*HLOOKUP($Q$260,Tables!$B$70:$D$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$B$70:$D$72,3))*Q264)</f>
-        <v>#DIV/0!</v>
+        <f>IF(Q264="","",($T$259*HLOOKUP($Q$260,Tables!$B$70:$D$72,2,FALSE)+HLOOKUP(Sheet1!$Q$260,Tables!$B$70:$D$72,3,FALSE))*Q264)</f>
+        <v>#N/A</v>
       </c>
       <c r="V264" s="67"/>
       <c r="W264" s="160" t="s">
@@ -46218,8 +46218,8 @@
         <v>0</v>
       </c>
       <c r="U265" s="296" t="e">
-        <f>IF(Q265="","",($T$259*HLOOKUP($Q$260,Tables!$B$70:$D$72,2)+HLOOKUP(Sheet1!$Q$260,Tables!$B$70:$D$72,3))*Q265)</f>
-        <v>#DIV/0!</v>
+        <f>IF(Q265="","",($T$259*HLOOKUP($Q$260,Tables!$B$70:$D$72,2,FALSE)+HLOOKUP(Sheet1!$Q$260,Tables!$B$70:$D$72,3,FALSE))*Q265)</f>
+        <v>#N/A</v>
       </c>
       <c r="V265" s="67"/>
       <c r="W265" s="160" t="s">
@@ -46227,7 +46227,7 @@
       </c>
       <c r="X265" s="250" t="e">
         <f>IF(ESE="","",ESE*Tables!$D$89)</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y265" s="31"/>
       <c r="AA265" s="4"/>
@@ -46268,8 +46268,8 @@
         <v>0</v>
       </c>
       <c r="U266" s="296" t="e">
-        <f>IF(Q266="","",($T$259*HLOOKUP($Q$260,Table